--- a/DOC/基本設計/基本設計_emsm_基本給管理リスト.xlsx
+++ b/DOC/基本設計/基本設計_emsm_基本給管理リスト.xlsx
@@ -550,12 +550,216 @@
   <si>
     <t>”稼働期間toを入力してください”メッセージを画面に表示する</t>
   </si>
+  <si>
+    <t>管理</t>
+  </si>
+  <si>
+    <t>基本給管理リスト</t>
+  </si>
+  <si>
+    <t>ボタン</t>
+  </si>
+  <si>
+    <t>基本給</t>
+  </si>
+  <si>
+    <t>稼働期間From</t>
+  </si>
+  <si>
+    <t>稼働期間To</t>
+  </si>
+  <si>
+    <t>利用ステータス</t>
+  </si>
+  <si>
+    <t>ｔ</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>　１）経費情報がある社員の経費リスト表示する。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">主要処理  </t>
+  </si>
+  <si>
+    <t>１）入力した社員IDの経費情報リストを表示する。</t>
+  </si>
+  <si>
+    <t>申請したいものを入力する。</t>
+  </si>
+  <si>
+    <t>※例：発生日、担当者、金額、用途、場所、ステータス、精算タイプ、精算ステータス、精算日、備考</t>
+  </si>
+  <si>
+    <t>2：新規申請の場合、申請画面にて申請分類を決めて、申請項目に従って入力を行い申請する。</t>
+  </si>
+  <si>
+    <t>差し戻し申請の場合、申請画面にて既存申請内容を表示し、編集を行って申請する。</t>
+  </si>
+  <si>
+    <t>該当申請書を保存すると次の承認者に自動的に承認依頼がなされます。</t>
+  </si>
+  <si>
+    <t>※メッセージは「メッセージ使用一覧」を参照する。</t>
+  </si>
+  <si>
+    <t>3.登録ボタンを押下時の処理：</t>
+  </si>
+  <si>
+    <t>経費情報画面を遷移する。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1) 社員情報テーブルから、社員IDおよび氏名を取得して社員セレクトボックスのプルダウンメニューに設定する</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>　１）社員情報テーブルから、社員IDを取得して社員セレクトボックスのプルダウンメニューに設定する</t>
+  </si>
+  <si>
+    <t>基本給管理リスト基本給管理リスト</t>
+  </si>
+  <si>
+    <t>列</t>
+  </si>
+  <si>
+    <t>項目種別</t>
+  </si>
+  <si>
+    <t>項目名称種別</t>
+  </si>
+  <si>
+    <t>　１）社員情報テーブルから、社員IDを取得して社員セレクトボックスのプルダウンメニューに設定する、検索ボタン押すとリスト画面が出ます。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      基本給管理リスト    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      基本給管理リスト          基本給管理リスト     </t>
+  </si>
+  <si>
+    <t>表示する</t>
+  </si>
+  <si>
+    <t>の</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>基本給ID、</t>
+  </si>
+  <si>
+    <t>、</t>
+  </si>
+  <si>
+    <t>基本給ID、 基本給  、 対象年度、稼働期間From、稼働期間To、残業単価、控除単価、利用ステータス、作成日、更新日</t>
+  </si>
+  <si>
+    <t>。</t>
+  </si>
+  <si>
+    <t>2）新規追加ボタン押したときは社員IDを選択して、</t>
+  </si>
+  <si>
+    <t>、対象年度、稼働時間From、</t>
+  </si>
+  <si>
+    <t>を</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">, </t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>を入力した</t>
+  </si>
+  <si>
+    <r>
+      <t>を入力した</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Meiryo UI"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <vertAlign val="baseline"/>
+      </rPr>
+      <t>とき残業単価と控除単価が自動的に出ます。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>を入力した</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Meiryo UI"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <vertAlign val="baseline"/>
+      </rPr>
+      <t>とき残業単価と控除単価が自動的に出ます。</t>
+    </r>
+  </si>
+  <si>
+    <t>残業単価基本給稼働時間To</t>
+  </si>
+  <si>
+    <r>
+      <t>残業単価</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Meiryo UI"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <vertAlign val="baseline"/>
+      </rPr>
+      <t>＝基本給／稼働時間To</t>
+    </r>
+  </si>
+  <si>
+    <t>控除単価＝基本給／稼働時間From</t>
+  </si>
+  <si>
+    <t>残業単価＝基本給／稼働時間To</t>
+  </si>
+  <si>
+    <t>基本給情報リスト画面を遷移する。</t>
+  </si>
+  <si>
+    <t>基本給情報リスト画面に新しデータを追加する。</t>
+  </si>
+  <si>
+    <t>baseSalary</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>お</t>
+  </si>
+  <si>
+    <t>ステータスを選択していない場合</t>
+  </si>
+  <si>
+    <t>”対象年度を入力してください”メッセージを画面に表示する</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="64" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -770,8 +974,201 @@
       <color rgb="FF000000"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <color theme="1"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="ＭＳ ゴシック"/>
+      <color rgb="FF000000"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="ＭＳ ゴシック"/>
+      <color rgb="FF000000"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Yu Gothic UI"/>
+      <color rgb="FF000000"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="游ゴシック"/>
+      <color theme="1"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ ゴシック"/>
+      <color theme="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="ＭＳ ゴシック"/>
+      <color rgb="FF000000"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="ＭＳ ゴシック"/>
+      <color theme="1"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ ゴシック"/>
+      <color theme="1"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <color theme="1"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="ＭＳ ゴシック"/>
+      <color theme="1"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="ＭＳ ゴシック"/>
+      <color rgb="FF404040"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <color theme="1"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <name val="Yu Gothic UI"/>
+      <color rgb="FF000000"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Meiryo UI"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Meiryo UI"/>
+      <color rgb="FF000000"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Meiryo UI"/>
+      <color rgb="FF000000"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Meiryo UI"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="游ゴシック"/>
+      <color rgb="FF000000"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="ＭＳ ゴシック"/>
+      <color rgb="FF000000"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Yu Gothic UI"/>
+      <color rgb="FF000000"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <name val="Yu Gothic UI"/>
+      <color rgb="FF000000"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <name val="ＭＳ ゴシック"/>
+      <color rgb="FF000000"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="ＭＳ ゴシック"/>
+      <color rgb="FF000000"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="ＭＳ ゴシック"/>
+      <color rgb="FF000000"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="ＭＳ ゴシック"/>
+      <color theme="1"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="游ゴシック"/>
+      <color theme="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Meiryo UI"/>
+      <color rgb="FF000000"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="游ゴシック"/>
+      <color theme="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Meiryo UI"/>
+      <color theme="1"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -808,8 +1205,16 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDEADA"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="133">
+  <borders count="166">
     <border>
       <left/>
       <right/>
@@ -2299,13 +2704,492 @@
       </bottom>
       <diagonal/>
     </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border diagonalDown="false">
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false">
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border diagonalDown="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false">
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false">
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="355">
+  <cellXfs count="450">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3333,6 +4217,321 @@
       <alignment wrapText="1" vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="33" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="34" applyFont="1" fillId="0" applyFill="1" borderId="74" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="34" applyFont="1" fillId="0" applyFill="1" borderId="75" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="35" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="36" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="37" applyFont="1" fillId="0" applyFill="1" borderId="73" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="38" applyFont="1" fillId="0" applyFill="1" borderId="74" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="39" applyFont="1" fillId="0" applyFill="1" borderId="74" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="39" applyFont="1" fillId="0" applyFill="1" borderId="75" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="40" applyFont="1" fillId="0" applyFill="1" borderId="73" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="41" applyFont="1" fillId="0" applyFill="1" borderId="74" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="42" applyFont="1" fillId="0" applyFill="1" borderId="75" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="43" applyFont="1" fillId="2" applyFill="1" borderId="12" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="43" applyFont="1" fillId="2" applyFill="1" borderId="13" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="43" applyFont="1" fillId="2" applyFill="1" borderId="14" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="44" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="44" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="44" applyFont="1" fillId="0" applyFill="1" borderId="11" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="44" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="top"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="44" applyFont="1" fillId="0" applyFill="1" borderId="9" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="top"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="44" applyFont="1" fillId="0" applyFill="1" borderId="10" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="top"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="44" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="top"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="44" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="top"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="44" applyFont="1" fillId="0" applyFill="1" borderId="11" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="top"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="44" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="top"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="44" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="top"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="44" applyFont="1" fillId="0" applyFill="1" borderId="15" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="top"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="45" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="43" applyFont="1" fillId="7" applyFill="1" borderId="12" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="43" applyFont="1" fillId="7" applyFill="1" borderId="13" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="43" applyFont="1" fillId="7" applyFill="1" borderId="14" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="46" applyFont="1" fillId="2" applyFill="1" borderId="133" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="46" applyFont="1" fillId="2" applyFill="1" borderId="134" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="46" applyFont="1" fillId="2" applyFill="1" borderId="135" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="46" applyFont="1" fillId="7" applyFill="1" borderId="133" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="46" applyFont="1" fillId="7" applyFill="1" borderId="134" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="46" applyFont="1" fillId="7" applyFill="1" borderId="135" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="46" applyFont="1" fillId="7" applyFill="1" borderId="136" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="46" applyFont="1" fillId="7" applyFill="1" borderId="137" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="46" applyFont="1" fillId="7" applyFill="1" borderId="138" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="41" applyFont="1" fillId="0" applyFill="1" borderId="139" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="44" applyFont="1" fillId="0" applyFill="1" borderId="140" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="44" applyFont="1" fillId="0" applyFill="1" borderId="139" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="44" applyFont="1" fillId="0" applyFill="1" borderId="139" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="46" applyFont="1" fillId="7" applyFill="1" borderId="141" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="46" applyFont="1" fillId="7" applyFill="1" borderId="142" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="47" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="top"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="49" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="50" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="52" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="53" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="8" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="44" applyFont="1" fillId="0" applyFill="1" borderId="48" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="44" applyFont="1" fillId="0" applyFill="1" borderId="143" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="44" applyFont="1" fillId="0" applyFill="1" borderId="144" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="44" applyFont="1" fillId="0" applyFill="1" borderId="144" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="44" applyFont="1" fillId="0" applyFill="1" borderId="145" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="44" applyFont="1" fillId="0" applyFill="1" borderId="146" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="44" applyFont="1" fillId="0" applyFill="1" borderId="146" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="44" applyFont="1" fillId="0" applyFill="1" borderId="147" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="54" applyFont="1" fillId="5" applyFill="1" borderId="47" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="55" applyFont="1" fillId="5" applyFill="1" borderId="47" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="56" applyFont="1" fillId="5" applyFill="1" borderId="48" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="57" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="58" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="58" applyFont="1" fillId="0" applyFill="1" borderId="148" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="58" applyFont="1" fillId="0" applyFill="1" borderId="148" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="58" applyFont="1" fillId="0" applyFill="1" borderId="149" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="58" applyFont="1" fillId="0" applyFill="1" borderId="149" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="58" applyFont="1" fillId="0" applyFill="1" borderId="150" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="58" applyFont="1" fillId="0" applyFill="1" borderId="151" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="58" applyFont="1" fillId="0" applyFill="1" borderId="152" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="58" applyFont="1" fillId="0" applyFill="1" borderId="153" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="58" applyFont="1" fillId="0" applyFill="1" borderId="154" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="58" applyFont="1" fillId="0" applyFill="1" borderId="155" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="58" applyFont="1" fillId="0" applyFill="1" borderId="156" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="58" applyFont="1" fillId="0" applyFill="1" borderId="157" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="58" applyFont="1" fillId="8" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="59" applyFont="1" fillId="3" applyFill="1" borderId="158" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="59" applyFont="1" fillId="3" applyFill="1" borderId="159" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="60" applyFont="1" fillId="0" applyFill="1" borderId="134" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="59" applyFont="1" fillId="3" applyFill="1" borderId="160" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="59" applyFont="1" fillId="3" applyFill="1" borderId="134" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="59" applyFont="1" fillId="3" applyFill="1" borderId="158" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="59" applyFont="1" fillId="3" applyFill="1" borderId="161" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="59" applyFont="1" fillId="3" applyFill="1" borderId="162" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="61" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="62" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="60" applyFont="1" fillId="0" applyFill="1" borderId="163" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="60" applyFont="1" fillId="0" applyFill="1" borderId="137" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="61" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="62" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="61" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="63" applyFont="1" fillId="0" applyFill="1" borderId="164" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="60" applyFont="1" fillId="0" applyFill="1" borderId="159" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="60" applyFont="1" fillId="0" applyFill="1" borderId="165" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3362,9 +4561,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="6096000" cy="3438525"/>
     <xdr:pic>
@@ -3383,7 +4582,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="123825" y="1590675"/>
+          <a:off x="66675" y="914400"/>
           <a:ext cx="6096000" cy="3438525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3396,9 +4595,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="6096000" cy="981075"/>
     <xdr:pic>
@@ -3417,7 +4616,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="85725" y="4962525"/>
+          <a:off x="47625" y="4343400"/>
           <a:ext cx="6096000" cy="981075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3730,8 +4929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB840810-B8C4-461F-9614-119EB62AE124}">
   <dimension ref="A1:X54"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15:P15" activeCellId="0"/>
+    <sheetView showGridLines="false" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.75" defaultRowHeight="12" x14ac:dyDescent="0.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3919,7 +5118,7 @@
       <c r="A21" s="5"/>
       <c r="X21" s="7"/>
     </row>
-    <row r="22" ht="13" customFormat="1" s="4">
+    <row r="22" ht="12" customFormat="1" s="4">
       <c r="A22" s="5"/>
       <c r="G22" s="100" t="s">
         <v>7</v>
@@ -3985,7 +5184,7 @@
       <c r="Q25" s="8"/>
       <c r="X25" s="7"/>
     </row>
-    <row r="26" ht="13" customFormat="1" s="4">
+    <row r="26" ht="12" customFormat="1" s="4">
       <c r="A26" s="5"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
@@ -4693,12 +5892,14 @@
   <dimension ref="A1:BN33"/>
   <sheetViews>
     <sheetView showGridLines="false" topLeftCell="A1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4:AV4" activeCellId="0"/>
+      <selection activeCell="AX30" sqref="AX30" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="11.25" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="64" width="2.125" style="24"/>
+    <col min="1" max="42" width="2.125" style="24"/>
+    <col min="43" max="43" width="2.625" style="24" customWidth="1" bestFit="1"/>
+    <col min="44" max="64" width="2.125" style="24"/>
     <col min="65" max="65" width="3.625" style="24" customWidth="1"/>
     <col min="66" max="66" width="0.125" style="24" customWidth="1"/>
     <col min="67" max="320" width="2.125" style="24"/>
@@ -5095,7 +6296,7 @@
       <c r="S4" s="125"/>
       <c r="T4" s="126"/>
       <c r="U4" s="127" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="V4" s="128"/>
       <c r="W4" s="128"/>
@@ -5291,7 +6492,7 @@
       <c r="BC6" s="149"/>
       <c r="BD6" s="149"/>
       <c r="BE6" s="149" t="s">
-        <v>23</v>
+        <v>195</v>
       </c>
       <c r="BF6" s="148"/>
       <c r="BG6" s="148"/>
@@ -5304,54 +6505,54 @@
       <c r="BN6" s="67"/>
     </row>
     <row r="7" customHeight="1" ht="12">
-      <c r="A7" s="65"/>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="66"/>
-      <c r="N7" s="66"/>
-      <c r="O7" s="66"/>
-      <c r="P7" s="66"/>
-      <c r="Q7" s="66"/>
-      <c r="R7" s="66"/>
-      <c r="S7" s="66"/>
-      <c r="T7" s="66"/>
-      <c r="U7" s="66"/>
-      <c r="V7" s="66"/>
-      <c r="W7" s="66"/>
-      <c r="X7" s="66"/>
-      <c r="Y7" s="66"/>
-      <c r="Z7" s="66"/>
-      <c r="AA7" s="66"/>
-      <c r="AB7" s="66"/>
-      <c r="AC7" s="66"/>
-      <c r="AD7" s="66"/>
-      <c r="AE7" s="66"/>
-      <c r="AF7" s="66"/>
-      <c r="AG7" s="66"/>
-      <c r="AH7" s="66"/>
-      <c r="AI7" s="66"/>
-      <c r="AJ7" s="66"/>
-      <c r="AK7" s="66"/>
-      <c r="AL7" s="66"/>
-      <c r="AM7" s="66"/>
-      <c r="AN7" s="66"/>
-      <c r="AO7" s="66"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="30"/>
+      <c r="Z7" s="30"/>
+      <c r="AA7" s="30"/>
+      <c r="AB7" s="30"/>
+      <c r="AC7" s="30"/>
+      <c r="AD7" s="30"/>
+      <c r="AE7" s="30"/>
+      <c r="AF7" s="30"/>
+      <c r="AG7" s="30"/>
+      <c r="AH7" s="30"/>
+      <c r="AI7" s="30"/>
+      <c r="AJ7" s="30"/>
+      <c r="AK7" s="30"/>
+      <c r="AL7" s="30"/>
+      <c r="AM7" s="30"/>
+      <c r="AN7" s="30"/>
+      <c r="AO7" s="30"/>
       <c r="AP7" s="150" t="s">
         <v>24</v>
       </c>
-      <c r="AQ7" s="151"/>
-      <c r="AR7" s="152"/>
+      <c r="AQ7" s="361"/>
+      <c r="AR7" s="362"/>
       <c r="AS7" s="153" t="s">
-        <v>75</v>
+        <v>170</v>
       </c>
       <c r="AT7" s="154"/>
       <c r="AU7" s="154"/>
@@ -5375,55 +6576,55 @@
       <c r="BK7" s="154"/>
       <c r="BL7" s="154"/>
       <c r="BM7" s="155"/>
-      <c r="BN7" s="67"/>
+      <c r="BN7" s="31"/>
     </row>
     <row r="8" customHeight="1" ht="12">
-      <c r="A8" s="65"/>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="66"/>
-      <c r="N8" s="66"/>
-      <c r="O8" s="66"/>
-      <c r="P8" s="66"/>
-      <c r="Q8" s="66"/>
-      <c r="R8" s="66"/>
-      <c r="S8" s="66"/>
-      <c r="T8" s="66"/>
-      <c r="U8" s="66"/>
-      <c r="V8" s="66"/>
-      <c r="W8" s="66"/>
-      <c r="X8" s="66"/>
-      <c r="Y8" s="66"/>
-      <c r="Z8" s="66"/>
-      <c r="AA8" s="66"/>
-      <c r="AB8" s="66"/>
-      <c r="AC8" s="66"/>
-      <c r="AD8" s="66"/>
-      <c r="AE8" s="66"/>
-      <c r="AF8" s="66"/>
-      <c r="AG8" s="66"/>
-      <c r="AH8" s="66"/>
-      <c r="AI8" s="66"/>
-      <c r="AJ8" s="66"/>
-      <c r="AK8" s="66"/>
-      <c r="AL8" s="66"/>
-      <c r="AM8" s="66"/>
-      <c r="AN8" s="66"/>
-      <c r="AO8" s="66"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="30"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="30"/>
+      <c r="Z8" s="30"/>
+      <c r="AA8" s="30"/>
+      <c r="AB8" s="30"/>
+      <c r="AC8" s="30"/>
+      <c r="AD8" s="30"/>
+      <c r="AE8" s="30"/>
+      <c r="AF8" s="30"/>
+      <c r="AG8" s="30"/>
+      <c r="AH8" s="30"/>
+      <c r="AI8" s="30"/>
+      <c r="AJ8" s="30"/>
+      <c r="AK8" s="30"/>
+      <c r="AL8" s="30"/>
+      <c r="AM8" s="30"/>
+      <c r="AN8" s="30"/>
+      <c r="AO8" s="30"/>
       <c r="AP8" s="150" t="s">
         <v>26</v>
       </c>
-      <c r="AQ8" s="151"/>
-      <c r="AR8" s="152"/>
+      <c r="AQ8" s="361"/>
+      <c r="AR8" s="362"/>
       <c r="AS8" s="156" t="s">
         <v>126</v>
       </c>
@@ -5439,7 +6640,7 @@
       <c r="BC8" s="157"/>
       <c r="BD8" s="158"/>
       <c r="BE8" s="156" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="BF8" s="157"/>
       <c r="BG8" s="157"/>
@@ -5449,61 +6650,62 @@
       <c r="BK8" s="157"/>
       <c r="BL8" s="157"/>
       <c r="BM8" s="158"/>
-      <c r="BN8" s="67"/>
+      <c r="BN8" s="31"/>
     </row>
     <row r="9" customHeight="1" ht="12">
-      <c r="A9" s="65"/>
-      <c r="B9" s="66"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="66"/>
-      <c r="N9" s="66"/>
-      <c r="O9" s="66"/>
-      <c r="P9" s="66"/>
-      <c r="Q9" s="66"/>
-      <c r="R9" s="66"/>
-      <c r="S9" s="66"/>
-      <c r="T9" s="66"/>
-      <c r="U9" s="66"/>
-      <c r="V9" s="66"/>
-      <c r="W9" s="66"/>
-      <c r="X9" s="66"/>
-      <c r="Y9" s="66"/>
-      <c r="Z9" s="66"/>
-      <c r="AA9" s="66"/>
-      <c r="AB9" s="66"/>
-      <c r="AC9" s="66"/>
-      <c r="AD9" s="66"/>
-      <c r="AE9" s="66"/>
-      <c r="AF9" s="66"/>
-      <c r="AG9" s="66"/>
-      <c r="AH9" s="66"/>
-      <c r="AI9" s="66"/>
-      <c r="AJ9" s="66"/>
-      <c r="AK9" s="66"/>
-      <c r="AL9" s="66"/>
-      <c r="AM9" s="66"/>
-      <c r="AN9" s="66"/>
-      <c r="AO9" s="66"/>
-      <c r="AP9" s="150" t="s">
-        <v>28</v>
-      </c>
-      <c r="AQ9" s="151"/>
-      <c r="AR9" s="152"/>
-      <c r="AS9" s="156" t="s">
+      <c r="A9" s="29"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="30"/>
+      <c r="AA9" s="30"/>
+      <c r="AB9" s="30"/>
+      <c r="AC9" s="30"/>
+      <c r="AD9" s="30"/>
+      <c r="AE9" s="30"/>
+      <c r="AF9" s="30"/>
+      <c r="AG9" s="30"/>
+      <c r="AH9" s="30"/>
+      <c r="AI9" s="30"/>
+      <c r="AJ9" s="30"/>
+      <c r="AK9" s="30"/>
+      <c r="AL9" s="30"/>
+      <c r="AM9" s="30"/>
+      <c r="AN9" s="30"/>
+      <c r="AO9" s="30"/>
+      <c r="AP9" s="363" t="s">
+        <v>130</v>
+      </c>
+      <c r="AQ9" s="364">
+        <v>3</v>
+      </c>
+      <c r="AR9" s="365"/>
+      <c r="AS9" s="357" t="s">
         <v>127</v>
       </c>
       <c r="AT9" s="157"/>
       <c r="AU9" s="157"/>
-      <c r="AV9" s="157"/>
       <c r="AW9" s="157"/>
       <c r="AX9" s="157"/>
       <c r="AY9" s="157"/>
@@ -5512,68 +6714,68 @@
       <c r="BB9" s="157"/>
       <c r="BC9" s="157"/>
       <c r="BD9" s="158"/>
-      <c r="BE9" s="344" t="s">
-        <v>82</v>
-      </c>
-      <c r="BF9" s="345"/>
-      <c r="BG9" s="345"/>
-      <c r="BH9" s="345"/>
-      <c r="BI9" s="345"/>
-      <c r="BJ9" s="345"/>
-      <c r="BK9" s="345"/>
-      <c r="BL9" s="345"/>
-      <c r="BM9" s="346"/>
-      <c r="BN9" s="67"/>
+      <c r="BE9" s="381" t="s">
+        <v>171</v>
+      </c>
+      <c r="BF9" s="157"/>
+      <c r="BG9" s="157"/>
+      <c r="BH9" s="157"/>
+      <c r="BI9" s="157"/>
+      <c r="BJ9" s="157"/>
+      <c r="BK9" s="157"/>
+      <c r="BL9" s="157"/>
+      <c r="BM9" s="158"/>
+      <c r="BN9" s="31"/>
     </row>
     <row r="10" customHeight="1" ht="12">
-      <c r="A10" s="65"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="66"/>
-      <c r="M10" s="66"/>
-      <c r="N10" s="66"/>
-      <c r="O10" s="66"/>
-      <c r="P10" s="66"/>
-      <c r="Q10" s="66"/>
-      <c r="R10" s="66"/>
-      <c r="S10" s="66"/>
-      <c r="T10" s="66"/>
-      <c r="U10" s="66"/>
-      <c r="V10" s="66"/>
-      <c r="W10" s="66"/>
-      <c r="X10" s="66"/>
-      <c r="Y10" s="66"/>
-      <c r="Z10" s="66"/>
-      <c r="AA10" s="66"/>
-      <c r="AB10" s="66"/>
-      <c r="AC10" s="66"/>
-      <c r="AD10" s="66"/>
-      <c r="AE10" s="66"/>
-      <c r="AF10" s="66"/>
-      <c r="AG10" s="66"/>
-      <c r="AH10" s="66"/>
-      <c r="AI10" s="66"/>
-      <c r="AJ10" s="66"/>
-      <c r="AK10" s="66"/>
-      <c r="AL10" s="66"/>
-      <c r="AM10" s="66"/>
-      <c r="AN10" s="66"/>
-      <c r="AO10" s="66"/>
-      <c r="AP10" s="150" t="s">
-        <v>29</v>
-      </c>
-      <c r="AQ10" s="151"/>
-      <c r="AR10" s="152"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="30"/>
+      <c r="V10" s="30"/>
+      <c r="W10" s="30"/>
+      <c r="X10" s="30"/>
+      <c r="Y10" s="30"/>
+      <c r="Z10" s="30"/>
+      <c r="AA10" s="30"/>
+      <c r="AB10" s="30"/>
+      <c r="AC10" s="30"/>
+      <c r="AD10" s="30"/>
+      <c r="AE10" s="30"/>
+      <c r="AF10" s="30"/>
+      <c r="AG10" s="30"/>
+      <c r="AH10" s="30"/>
+      <c r="AI10" s="30"/>
+      <c r="AJ10" s="30"/>
+      <c r="AK10" s="30"/>
+      <c r="AL10" s="30"/>
+      <c r="AM10" s="30"/>
+      <c r="AN10" s="30"/>
+      <c r="AO10" s="30"/>
+      <c r="AP10" s="150"/>
+      <c r="AQ10" s="364">
+        <v>4</v>
+      </c>
+      <c r="AR10" s="365"/>
       <c r="AS10" s="156" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="AT10" s="157"/>
       <c r="AU10" s="157"/>
@@ -5586,68 +6788,68 @@
       <c r="BB10" s="157"/>
       <c r="BC10" s="157"/>
       <c r="BD10" s="158"/>
-      <c r="BE10" s="156" t="s">
-        <v>31</v>
-      </c>
-      <c r="BF10" s="157"/>
-      <c r="BG10" s="157"/>
-      <c r="BH10" s="157"/>
-      <c r="BI10" s="157"/>
-      <c r="BJ10" s="157"/>
-      <c r="BK10" s="157"/>
-      <c r="BL10" s="157"/>
-      <c r="BM10" s="158"/>
-      <c r="BN10" s="67"/>
+      <c r="BE10" s="344" t="s">
+        <v>193</v>
+      </c>
+      <c r="BF10" s="345"/>
+      <c r="BG10" s="345"/>
+      <c r="BH10" s="345"/>
+      <c r="BI10" s="345"/>
+      <c r="BJ10" s="345"/>
+      <c r="BK10" s="345"/>
+      <c r="BL10" s="345"/>
+      <c r="BM10" s="346"/>
+      <c r="BN10" s="31"/>
     </row>
     <row r="11" customHeight="1" ht="12">
-      <c r="A11" s="65"/>
-      <c r="B11" s="66"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="66"/>
-      <c r="M11" s="66"/>
-      <c r="N11" s="66"/>
-      <c r="O11" s="66"/>
-      <c r="P11" s="66"/>
-      <c r="Q11" s="66"/>
-      <c r="R11" s="66"/>
-      <c r="S11" s="66"/>
-      <c r="T11" s="66"/>
-      <c r="U11" s="66"/>
-      <c r="V11" s="66"/>
-      <c r="W11" s="66"/>
-      <c r="X11" s="66"/>
-      <c r="Y11" s="66"/>
-      <c r="Z11" s="66"/>
-      <c r="AA11" s="66"/>
-      <c r="AB11" s="66"/>
-      <c r="AC11" s="66"/>
-      <c r="AD11" s="66"/>
-      <c r="AE11" s="66"/>
-      <c r="AF11" s="66"/>
-      <c r="AG11" s="66"/>
-      <c r="AH11" s="66"/>
-      <c r="AI11" s="66"/>
-      <c r="AJ11" s="66"/>
-      <c r="AK11" s="66"/>
-      <c r="AL11" s="66"/>
-      <c r="AM11" s="66"/>
-      <c r="AN11" s="66"/>
-      <c r="AO11" s="66"/>
-      <c r="AP11" s="150" t="s">
-        <v>32</v>
-      </c>
-      <c r="AQ11" s="151"/>
-      <c r="AR11" s="152"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="30"/>
+      <c r="U11" s="30"/>
+      <c r="V11" s="30"/>
+      <c r="W11" s="30"/>
+      <c r="X11" s="30"/>
+      <c r="Y11" s="30"/>
+      <c r="Z11" s="30"/>
+      <c r="AA11" s="30"/>
+      <c r="AB11" s="30"/>
+      <c r="AC11" s="30"/>
+      <c r="AD11" s="30"/>
+      <c r="AE11" s="30"/>
+      <c r="AF11" s="30"/>
+      <c r="AG11" s="30"/>
+      <c r="AH11" s="30"/>
+      <c r="AI11" s="30"/>
+      <c r="AJ11" s="30"/>
+      <c r="AK11" s="30"/>
+      <c r="AL11" s="30"/>
+      <c r="AM11" s="30"/>
+      <c r="AN11" s="30"/>
+      <c r="AO11" s="30"/>
+      <c r="AP11" s="150"/>
+      <c r="AQ11" s="364">
+        <v>5</v>
+      </c>
+      <c r="AR11" s="365"/>
       <c r="AS11" s="156" t="s">
-        <v>129</v>
+        <v>172</v>
       </c>
       <c r="AT11" s="157"/>
       <c r="AU11" s="157"/>
@@ -5660,18 +6862,17 @@
       <c r="BB11" s="157"/>
       <c r="BC11" s="157"/>
       <c r="BD11" s="158"/>
-      <c r="BE11" s="156" t="s">
-        <v>82</v>
-      </c>
-      <c r="BF11" s="157"/>
-      <c r="BG11" s="157"/>
-      <c r="BH11" s="157"/>
-      <c r="BI11" s="157"/>
-      <c r="BJ11" s="157"/>
-      <c r="BK11" s="157"/>
-      <c r="BL11" s="157"/>
-      <c r="BM11" s="158"/>
-      <c r="BN11" s="67"/>
+      <c r="BE11" s="345" t="s">
+        <v>193</v>
+      </c>
+      <c r="BF11" s="345"/>
+      <c r="BH11" s="345"/>
+      <c r="BI11" s="345"/>
+      <c r="BJ11" s="345"/>
+      <c r="BK11" s="345"/>
+      <c r="BL11" s="345"/>
+      <c r="BM11" s="346"/>
+      <c r="BN11" s="31"/>
     </row>
     <row r="12" customHeight="1" ht="12">
       <c r="A12" s="65"/>
@@ -5715,30 +6916,36 @@
       <c r="AM12" s="66"/>
       <c r="AN12" s="66"/>
       <c r="AO12" s="66"/>
-      <c r="AP12" s="68"/>
-      <c r="AQ12" s="68"/>
-      <c r="AR12" s="68"/>
-      <c r="AS12" s="68"/>
-      <c r="AT12" s="68"/>
-      <c r="AU12" s="68"/>
-      <c r="AV12" s="68"/>
-      <c r="AW12" s="68"/>
-      <c r="AX12" s="68"/>
-      <c r="AY12" s="68"/>
-      <c r="AZ12" s="68"/>
-      <c r="BA12" s="68"/>
-      <c r="BB12" s="68"/>
-      <c r="BC12" s="68"/>
-      <c r="BD12" s="68"/>
-      <c r="BE12" s="174"/>
-      <c r="BF12" s="175"/>
-      <c r="BG12" s="175"/>
-      <c r="BH12" s="175"/>
-      <c r="BI12" s="175"/>
-      <c r="BJ12" s="175"/>
-      <c r="BK12" s="175"/>
-      <c r="BL12" s="175"/>
-      <c r="BM12" s="176"/>
+      <c r="AP12" s="150"/>
+      <c r="AQ12" s="364">
+        <v>6</v>
+      </c>
+      <c r="AR12" s="365"/>
+      <c r="AS12" s="156" t="s">
+        <v>140</v>
+      </c>
+      <c r="AT12" s="157"/>
+      <c r="AU12" s="157"/>
+      <c r="AV12" s="157"/>
+      <c r="AW12" s="157"/>
+      <c r="AX12" s="157"/>
+      <c r="AY12" s="157"/>
+      <c r="AZ12" s="157"/>
+      <c r="BA12" s="157"/>
+      <c r="BB12" s="157"/>
+      <c r="BC12" s="157"/>
+      <c r="BD12" s="158"/>
+      <c r="BE12" s="345" t="s">
+        <v>193</v>
+      </c>
+      <c r="BF12" s="345"/>
+      <c r="BG12" s="345"/>
+      <c r="BH12" s="345"/>
+      <c r="BI12" s="345"/>
+      <c r="BJ12" s="345"/>
+      <c r="BK12" s="345"/>
+      <c r="BL12" s="345"/>
+      <c r="BM12" s="346"/>
       <c r="BN12" s="67"/>
     </row>
     <row r="13" customHeight="1" ht="12">
@@ -5783,30 +6990,36 @@
       <c r="AM13" s="66"/>
       <c r="AN13" s="66"/>
       <c r="AO13" s="66"/>
-      <c r="AP13" s="68"/>
-      <c r="AQ13" s="68"/>
-      <c r="AR13" s="68"/>
-      <c r="AS13" s="68"/>
-      <c r="AT13" s="68"/>
-      <c r="AU13" s="68"/>
-      <c r="AV13" s="68"/>
-      <c r="AW13" s="68"/>
-      <c r="AX13" s="68"/>
-      <c r="AY13" s="68"/>
-      <c r="AZ13" s="68"/>
-      <c r="BA13" s="68"/>
-      <c r="BB13" s="68"/>
-      <c r="BC13" s="68"/>
-      <c r="BD13" s="68"/>
-      <c r="BE13" s="177"/>
-      <c r="BF13" s="178"/>
-      <c r="BG13" s="178"/>
-      <c r="BH13" s="178"/>
-      <c r="BI13" s="178"/>
-      <c r="BJ13" s="178"/>
-      <c r="BK13" s="178"/>
-      <c r="BL13" s="178"/>
-      <c r="BM13" s="179"/>
+      <c r="AP13" s="150"/>
+      <c r="AQ13" s="364">
+        <v>7</v>
+      </c>
+      <c r="AR13" s="365"/>
+      <c r="AS13" s="156" t="s">
+        <v>173</v>
+      </c>
+      <c r="AT13" s="157"/>
+      <c r="AU13" s="157"/>
+      <c r="AV13" s="157"/>
+      <c r="AW13" s="157"/>
+      <c r="AX13" s="157"/>
+      <c r="AY13" s="157"/>
+      <c r="AZ13" s="157"/>
+      <c r="BA13" s="157"/>
+      <c r="BB13" s="157"/>
+      <c r="BC13" s="157"/>
+      <c r="BD13" s="158"/>
+      <c r="BE13" s="345" t="s">
+        <v>193</v>
+      </c>
+      <c r="BF13" s="345"/>
+      <c r="BG13" s="345"/>
+      <c r="BH13" s="345"/>
+      <c r="BI13" s="345"/>
+      <c r="BJ13" s="345"/>
+      <c r="BK13" s="345"/>
+      <c r="BL13" s="345"/>
+      <c r="BM13" s="346"/>
       <c r="BN13" s="67"/>
     </row>
     <row r="14" customHeight="1" ht="12">
@@ -5851,30 +7064,36 @@
       <c r="AM14" s="66"/>
       <c r="AN14" s="66"/>
       <c r="AO14" s="66"/>
-      <c r="AP14" s="68"/>
-      <c r="AQ14" s="68"/>
-      <c r="AR14" s="68"/>
-      <c r="AS14" s="68"/>
-      <c r="AT14" s="68"/>
-      <c r="AU14" s="68"/>
-      <c r="AV14" s="68"/>
-      <c r="AW14" s="68"/>
-      <c r="AX14" s="68"/>
-      <c r="AY14" s="68"/>
-      <c r="AZ14" s="68"/>
-      <c r="BA14" s="68"/>
-      <c r="BB14" s="68"/>
-      <c r="BC14" s="68"/>
-      <c r="BD14" s="68"/>
-      <c r="BE14" s="180"/>
-      <c r="BF14" s="181"/>
-      <c r="BG14" s="181"/>
-      <c r="BH14" s="181"/>
-      <c r="BI14" s="181"/>
-      <c r="BJ14" s="181"/>
-      <c r="BK14" s="181"/>
-      <c r="BL14" s="181"/>
-      <c r="BM14" s="182"/>
+      <c r="AP14" s="150" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ14" s="361"/>
+      <c r="AR14" s="362"/>
+      <c r="AS14" s="156" t="s">
+        <v>174</v>
+      </c>
+      <c r="AT14" s="157"/>
+      <c r="AU14" s="157"/>
+      <c r="AV14" s="157"/>
+      <c r="AW14" s="157"/>
+      <c r="AX14" s="157"/>
+      <c r="AY14" s="157"/>
+      <c r="AZ14" s="157"/>
+      <c r="BA14" s="157"/>
+      <c r="BB14" s="157"/>
+      <c r="BC14" s="157"/>
+      <c r="BD14" s="158"/>
+      <c r="BE14" s="345" t="s">
+        <v>193</v>
+      </c>
+      <c r="BF14" s="345"/>
+      <c r="BG14" s="345"/>
+      <c r="BH14" s="345"/>
+      <c r="BI14" s="345"/>
+      <c r="BJ14" s="345"/>
+      <c r="BK14" s="345"/>
+      <c r="BL14" s="345"/>
+      <c r="BM14" s="346"/>
       <c r="BN14" s="67"/>
     </row>
     <row r="15" customHeight="1" ht="12">
@@ -5919,30 +7138,36 @@
       <c r="AM15" s="66"/>
       <c r="AN15" s="66"/>
       <c r="AO15" s="66"/>
-      <c r="AP15" s="68"/>
-      <c r="AQ15" s="68"/>
-      <c r="AR15" s="68"/>
-      <c r="AS15" s="68"/>
-      <c r="AT15" s="68"/>
-      <c r="AU15" s="68"/>
-      <c r="AV15" s="68"/>
-      <c r="AW15" s="68"/>
-      <c r="AX15" s="68"/>
-      <c r="AY15" s="68"/>
-      <c r="AZ15" s="68"/>
-      <c r="BA15" s="68"/>
-      <c r="BB15" s="68"/>
-      <c r="BC15" s="68"/>
-      <c r="BD15" s="68"/>
-      <c r="BE15" s="183"/>
-      <c r="BF15" s="175"/>
-      <c r="BG15" s="175"/>
-      <c r="BH15" s="175"/>
-      <c r="BI15" s="175"/>
-      <c r="BJ15" s="175"/>
-      <c r="BK15" s="175"/>
-      <c r="BL15" s="175"/>
-      <c r="BM15" s="176"/>
+      <c r="AP15" s="150" t="s">
+        <v>38</v>
+      </c>
+      <c r="AQ15" s="361"/>
+      <c r="AR15" s="362"/>
+      <c r="AS15" s="156" t="s">
+        <v>146</v>
+      </c>
+      <c r="AT15" s="157"/>
+      <c r="AU15" s="157"/>
+      <c r="AV15" s="157"/>
+      <c r="AW15" s="157"/>
+      <c r="AX15" s="157"/>
+      <c r="AY15" s="157"/>
+      <c r="AZ15" s="157"/>
+      <c r="BA15" s="157"/>
+      <c r="BB15" s="157"/>
+      <c r="BC15" s="157"/>
+      <c r="BD15" s="158"/>
+      <c r="BE15" s="345" t="s">
+        <v>193</v>
+      </c>
+      <c r="BF15" s="345"/>
+      <c r="BG15" s="345"/>
+      <c r="BH15" s="345"/>
+      <c r="BI15" s="345"/>
+      <c r="BJ15" s="345"/>
+      <c r="BK15" s="345"/>
+      <c r="BL15" s="345"/>
+      <c r="BM15" s="346"/>
       <c r="BN15" s="67"/>
     </row>
     <row r="16" customHeight="1" ht="12">
@@ -5987,30 +7212,36 @@
       <c r="AM16" s="66"/>
       <c r="AN16" s="66"/>
       <c r="AO16" s="66"/>
-      <c r="AP16" s="68"/>
-      <c r="AQ16" s="68"/>
-      <c r="AR16" s="68"/>
-      <c r="AS16" s="68"/>
-      <c r="AT16" s="68"/>
-      <c r="AU16" s="68"/>
-      <c r="AV16" s="68"/>
-      <c r="AW16" s="68"/>
-      <c r="AX16" s="68"/>
-      <c r="AY16" s="68"/>
-      <c r="AZ16" s="68"/>
-      <c r="BA16" s="68"/>
-      <c r="BB16" s="68"/>
-      <c r="BC16" s="68"/>
-      <c r="BD16" s="68"/>
-      <c r="BE16" s="184"/>
-      <c r="BF16" s="185"/>
-      <c r="BG16" s="185"/>
-      <c r="BH16" s="185"/>
-      <c r="BI16" s="185"/>
-      <c r="BJ16" s="185"/>
-      <c r="BK16" s="185"/>
-      <c r="BL16" s="185"/>
-      <c r="BM16" s="186"/>
+      <c r="AP16" s="150"/>
+      <c r="AQ16" s="364">
+        <v>10</v>
+      </c>
+      <c r="AR16" s="365"/>
+      <c r="AS16" s="156" t="s">
+        <v>149</v>
+      </c>
+      <c r="AT16" s="157"/>
+      <c r="AU16" s="157"/>
+      <c r="AV16" s="157"/>
+      <c r="AW16" s="157"/>
+      <c r="AX16" s="157"/>
+      <c r="AY16" s="157"/>
+      <c r="AZ16" s="157"/>
+      <c r="BA16" s="157"/>
+      <c r="BB16" s="157"/>
+      <c r="BC16" s="157"/>
+      <c r="BD16" s="158"/>
+      <c r="BE16" s="345" t="s">
+        <v>193</v>
+      </c>
+      <c r="BF16" s="345"/>
+      <c r="BG16" s="345"/>
+      <c r="BH16" s="345"/>
+      <c r="BI16" s="345"/>
+      <c r="BJ16" s="345"/>
+      <c r="BK16" s="345"/>
+      <c r="BL16" s="345"/>
+      <c r="BM16" s="346"/>
       <c r="BN16" s="67"/>
     </row>
     <row r="17" customHeight="1" ht="12">
@@ -6055,30 +7286,36 @@
       <c r="AM17" s="66"/>
       <c r="AN17" s="66"/>
       <c r="AO17" s="66"/>
-      <c r="AP17" s="68"/>
-      <c r="AQ17" s="68"/>
-      <c r="AR17" s="68"/>
-      <c r="AS17" s="68"/>
-      <c r="AT17" s="68"/>
-      <c r="AU17" s="68"/>
-      <c r="AV17" s="68"/>
-      <c r="AW17" s="68"/>
-      <c r="AX17" s="68"/>
-      <c r="AY17" s="68"/>
-      <c r="AZ17" s="68"/>
-      <c r="BA17" s="68"/>
-      <c r="BB17" s="68"/>
-      <c r="BC17" s="68"/>
-      <c r="BD17" s="73"/>
-      <c r="BE17" s="175"/>
-      <c r="BF17" s="175"/>
-      <c r="BG17" s="175"/>
-      <c r="BH17" s="175"/>
-      <c r="BI17" s="175"/>
-      <c r="BJ17" s="175"/>
-      <c r="BK17" s="175"/>
-      <c r="BL17" s="175"/>
-      <c r="BM17" s="176"/>
+      <c r="AP17" s="150"/>
+      <c r="AQ17" s="364">
+        <v>11</v>
+      </c>
+      <c r="AR17" s="365"/>
+      <c r="AS17" s="156" t="s">
+        <v>175</v>
+      </c>
+      <c r="AT17" s="157"/>
+      <c r="AU17" s="157"/>
+      <c r="AV17" s="157"/>
+      <c r="AW17" s="157"/>
+      <c r="AX17" s="157"/>
+      <c r="AY17" s="157"/>
+      <c r="AZ17" s="157"/>
+      <c r="BA17" s="157"/>
+      <c r="BB17" s="157"/>
+      <c r="BC17" s="157"/>
+      <c r="BD17" s="158"/>
+      <c r="BE17" s="345" t="s">
+        <v>193</v>
+      </c>
+      <c r="BF17" s="345"/>
+      <c r="BG17" s="345"/>
+      <c r="BH17" s="345"/>
+      <c r="BI17" s="345"/>
+      <c r="BJ17" s="345"/>
+      <c r="BK17" s="345"/>
+      <c r="BL17" s="345"/>
+      <c r="BM17" s="346"/>
       <c r="BN17" s="67"/>
     </row>
     <row r="18" customHeight="1" ht="12">
@@ -6123,30 +7360,36 @@
       <c r="AM18" s="66"/>
       <c r="AN18" s="66"/>
       <c r="AO18" s="66"/>
-      <c r="AP18" s="68"/>
-      <c r="AQ18" s="68"/>
-      <c r="AR18" s="68"/>
-      <c r="AS18" s="68"/>
-      <c r="AT18" s="68"/>
-      <c r="AU18" s="68"/>
-      <c r="AV18" s="68"/>
-      <c r="AW18" s="68"/>
-      <c r="AX18" s="68"/>
-      <c r="AY18" s="68"/>
-      <c r="AZ18" s="68"/>
-      <c r="BA18" s="68"/>
-      <c r="BB18" s="68"/>
-      <c r="BC18" s="68"/>
-      <c r="BD18" s="68"/>
-      <c r="BE18" s="184"/>
-      <c r="BF18" s="185"/>
-      <c r="BG18" s="185"/>
-      <c r="BH18" s="185"/>
-      <c r="BI18" s="185"/>
-      <c r="BJ18" s="185"/>
-      <c r="BK18" s="185"/>
-      <c r="BL18" s="185"/>
-      <c r="BM18" s="186"/>
+      <c r="AP18" s="150"/>
+      <c r="AQ18" s="364">
+        <v>12</v>
+      </c>
+      <c r="AR18" s="365"/>
+      <c r="AS18" s="156" t="s">
+        <v>13</v>
+      </c>
+      <c r="AT18" s="157"/>
+      <c r="AU18" s="157"/>
+      <c r="AV18" s="157"/>
+      <c r="AW18" s="157"/>
+      <c r="AX18" s="157"/>
+      <c r="AY18" s="157"/>
+      <c r="AZ18" s="157"/>
+      <c r="BA18" s="157"/>
+      <c r="BB18" s="157"/>
+      <c r="BC18" s="157"/>
+      <c r="BD18" s="158"/>
+      <c r="BE18" s="345" t="s">
+        <v>193</v>
+      </c>
+      <c r="BF18" s="345"/>
+      <c r="BG18" s="345"/>
+      <c r="BH18" s="345"/>
+      <c r="BI18" s="345"/>
+      <c r="BJ18" s="345"/>
+      <c r="BK18" s="345"/>
+      <c r="BL18" s="345"/>
+      <c r="BM18" s="346"/>
       <c r="BN18" s="67"/>
     </row>
     <row r="19" customHeight="1" ht="12">
@@ -6191,30 +7434,36 @@
       <c r="AM19" s="66"/>
       <c r="AN19" s="66"/>
       <c r="AO19" s="66"/>
-      <c r="AP19" s="68"/>
-      <c r="AQ19" s="68"/>
-      <c r="AR19" s="68"/>
-      <c r="AS19" s="68"/>
-      <c r="AT19" s="68"/>
-      <c r="AU19" s="68"/>
-      <c r="AV19" s="68"/>
-      <c r="AW19" s="68"/>
-      <c r="AX19" s="68"/>
-      <c r="AY19" s="68"/>
-      <c r="AZ19" s="68"/>
-      <c r="BA19" s="68"/>
-      <c r="BB19" s="68"/>
-      <c r="BC19" s="68"/>
-      <c r="BD19" s="73"/>
-      <c r="BE19" s="175"/>
-      <c r="BF19" s="175"/>
-      <c r="BG19" s="175"/>
-      <c r="BH19" s="175"/>
-      <c r="BI19" s="175"/>
-      <c r="BJ19" s="175"/>
-      <c r="BK19" s="175"/>
-      <c r="BL19" s="175"/>
-      <c r="BM19" s="176"/>
+      <c r="AP19" s="150"/>
+      <c r="AQ19" s="364">
+        <v>13</v>
+      </c>
+      <c r="AR19" s="365"/>
+      <c r="AS19" s="156" t="s">
+        <v>19</v>
+      </c>
+      <c r="AT19" s="157"/>
+      <c r="AU19" s="157"/>
+      <c r="AV19" s="157"/>
+      <c r="AW19" s="157"/>
+      <c r="AX19" s="157"/>
+      <c r="AY19" s="157"/>
+      <c r="AZ19" s="157"/>
+      <c r="BA19" s="157"/>
+      <c r="BB19" s="157"/>
+      <c r="BC19" s="157"/>
+      <c r="BD19" s="158"/>
+      <c r="BE19" s="345" t="s">
+        <v>193</v>
+      </c>
+      <c r="BF19" s="345"/>
+      <c r="BG19" s="345"/>
+      <c r="BH19" s="345"/>
+      <c r="BI19" s="345"/>
+      <c r="BJ19" s="345"/>
+      <c r="BK19" s="345"/>
+      <c r="BL19" s="345"/>
+      <c r="BM19" s="346"/>
       <c r="BN19" s="67"/>
     </row>
     <row r="20" customHeight="1" ht="12">
@@ -6259,30 +7508,36 @@
       <c r="AM20" s="66"/>
       <c r="AN20" s="66"/>
       <c r="AO20" s="66"/>
-      <c r="AP20" s="68"/>
-      <c r="AQ20" s="68"/>
-      <c r="AR20" s="68"/>
-      <c r="AS20" s="68"/>
-      <c r="AT20" s="68"/>
-      <c r="AU20" s="68"/>
-      <c r="AV20" s="68"/>
-      <c r="AW20" s="68"/>
-      <c r="AX20" s="68"/>
-      <c r="AY20" s="68"/>
-      <c r="AZ20" s="68"/>
-      <c r="BA20" s="68"/>
-      <c r="BB20" s="68"/>
-      <c r="BC20" s="68"/>
-      <c r="BD20" s="68"/>
-      <c r="BE20" s="184"/>
-      <c r="BF20" s="185"/>
-      <c r="BG20" s="185"/>
-      <c r="BH20" s="185"/>
-      <c r="BI20" s="185"/>
-      <c r="BJ20" s="185"/>
-      <c r="BK20" s="185"/>
-      <c r="BL20" s="185"/>
-      <c r="BM20" s="186"/>
+      <c r="AP20" s="150"/>
+      <c r="AQ20" s="364">
+        <v>14</v>
+      </c>
+      <c r="AR20" s="365"/>
+      <c r="AS20" s="156" t="s">
+        <v>128</v>
+      </c>
+      <c r="AT20" s="157"/>
+      <c r="AU20" s="157"/>
+      <c r="AV20" s="157"/>
+      <c r="AW20" s="157"/>
+      <c r="AX20" s="157"/>
+      <c r="AY20" s="157"/>
+      <c r="AZ20" s="157"/>
+      <c r="BA20" s="157"/>
+      <c r="BB20" s="157"/>
+      <c r="BC20" s="157"/>
+      <c r="BD20" s="158"/>
+      <c r="BE20" s="156" t="s">
+        <v>171</v>
+      </c>
+      <c r="BF20" s="157"/>
+      <c r="BG20" s="157"/>
+      <c r="BH20" s="157"/>
+      <c r="BI20" s="157"/>
+      <c r="BJ20" s="157"/>
+      <c r="BK20" s="157"/>
+      <c r="BL20" s="157"/>
+      <c r="BM20" s="158"/>
       <c r="BN20" s="67"/>
     </row>
     <row r="21" customHeight="1" ht="12">
@@ -6327,30 +7582,36 @@
       <c r="AM21" s="66"/>
       <c r="AN21" s="66"/>
       <c r="AO21" s="66"/>
-      <c r="AP21" s="68"/>
-      <c r="AQ21" s="68"/>
-      <c r="AR21" s="68"/>
-      <c r="AS21" s="68"/>
-      <c r="AT21" s="68"/>
-      <c r="AU21" s="68"/>
-      <c r="AV21" s="68"/>
-      <c r="AW21" s="68"/>
-      <c r="AX21" s="68"/>
-      <c r="AY21" s="68"/>
-      <c r="AZ21" s="68"/>
-      <c r="BA21" s="68"/>
-      <c r="BB21" s="68"/>
-      <c r="BC21" s="68"/>
-      <c r="BD21" s="73"/>
-      <c r="BE21" s="175"/>
-      <c r="BF21" s="175"/>
-      <c r="BG21" s="175"/>
-      <c r="BH21" s="175"/>
-      <c r="BI21" s="175"/>
-      <c r="BJ21" s="175"/>
-      <c r="BK21" s="175"/>
-      <c r="BL21" s="175"/>
-      <c r="BM21" s="176"/>
+      <c r="AP21" s="150" t="s">
+        <v>177</v>
+      </c>
+      <c r="AQ21" s="361"/>
+      <c r="AR21" s="362"/>
+      <c r="AS21" s="156" t="s">
+        <v>129</v>
+      </c>
+      <c r="AT21" s="157"/>
+      <c r="AU21" s="157"/>
+      <c r="AV21" s="157"/>
+      <c r="AW21" s="157"/>
+      <c r="AX21" s="157"/>
+      <c r="AY21" s="157"/>
+      <c r="AZ21" s="157"/>
+      <c r="BA21" s="157"/>
+      <c r="BB21" s="157"/>
+      <c r="BC21" s="157"/>
+      <c r="BD21" s="158"/>
+      <c r="BE21" s="156" t="s">
+        <v>171</v>
+      </c>
+      <c r="BF21" s="157"/>
+      <c r="BG21" s="157"/>
+      <c r="BH21" s="157"/>
+      <c r="BI21" s="157"/>
+      <c r="BJ21" s="157"/>
+      <c r="BK21" s="157"/>
+      <c r="BL21" s="157"/>
+      <c r="BM21" s="158"/>
       <c r="BN21" s="67"/>
     </row>
     <row r="22" customHeight="1" ht="12">
@@ -6410,16 +7671,6 @@
       <c r="BB22" s="68"/>
       <c r="BC22" s="68"/>
       <c r="BD22" s="68"/>
-      <c r="BE22" s="184"/>
-      <c r="BF22" s="185"/>
-      <c r="BG22" s="185"/>
-      <c r="BH22" s="185"/>
-      <c r="BI22" s="185"/>
-      <c r="BJ22" s="185"/>
-      <c r="BK22" s="185"/>
-      <c r="BL22" s="185"/>
-      <c r="BM22" s="186"/>
-      <c r="BN22" s="67"/>
     </row>
     <row r="23" customHeight="1" ht="12">
       <c r="A23" s="65"/>
@@ -6478,16 +7729,6 @@
       <c r="BB23" s="68"/>
       <c r="BC23" s="68"/>
       <c r="BD23" s="68"/>
-      <c r="BE23" s="174"/>
-      <c r="BF23" s="175"/>
-      <c r="BG23" s="175"/>
-      <c r="BH23" s="175"/>
-      <c r="BI23" s="175"/>
-      <c r="BJ23" s="175"/>
-      <c r="BK23" s="175"/>
-      <c r="BL23" s="175"/>
-      <c r="BM23" s="176"/>
-      <c r="BN23" s="67"/>
     </row>
     <row r="24" customHeight="1" ht="12">
       <c r="A24" s="65"/>
@@ -6546,130 +7787,161 @@
       <c r="BB24" s="68"/>
       <c r="BC24" s="68"/>
       <c r="BD24" s="68"/>
-      <c r="BE24" s="174"/>
-      <c r="BF24" s="175"/>
-      <c r="BG24" s="175"/>
-      <c r="BH24" s="175"/>
-      <c r="BI24" s="175"/>
-      <c r="BJ24" s="175"/>
-      <c r="BK24" s="175"/>
-      <c r="BL24" s="175"/>
-      <c r="BM24" s="176"/>
-      <c r="BN24" s="67"/>
     </row>
     <row r="25" customHeight="1" ht="12">
-      <c r="A25" s="69"/>
-      <c r="B25" s="70"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="70"/>
-      <c r="L25" s="70"/>
-      <c r="M25" s="70"/>
-      <c r="N25" s="70"/>
-      <c r="O25" s="70"/>
-      <c r="P25" s="70"/>
-      <c r="Q25" s="70"/>
-      <c r="R25" s="70"/>
-      <c r="S25" s="70"/>
-      <c r="T25" s="70"/>
-      <c r="U25" s="70"/>
-      <c r="V25" s="70"/>
-      <c r="W25" s="70"/>
-      <c r="X25" s="70"/>
-      <c r="Y25" s="70"/>
-      <c r="Z25" s="70"/>
-      <c r="AA25" s="70"/>
-      <c r="AB25" s="70"/>
-      <c r="AC25" s="70"/>
-      <c r="AD25" s="70"/>
-      <c r="AE25" s="70"/>
-      <c r="AF25" s="70"/>
-      <c r="AG25" s="70"/>
-      <c r="AH25" s="70"/>
-      <c r="AI25" s="70"/>
-      <c r="AJ25" s="70"/>
-      <c r="AK25" s="70"/>
-      <c r="AL25" s="70"/>
-      <c r="AM25" s="70"/>
-      <c r="AN25" s="70"/>
-      <c r="AO25" s="70"/>
-      <c r="AP25" s="71"/>
-      <c r="AQ25" s="71"/>
-      <c r="AR25" s="71"/>
-      <c r="AS25" s="71"/>
-      <c r="AT25" s="71"/>
-      <c r="AU25" s="71"/>
-      <c r="AV25" s="71"/>
-      <c r="AW25" s="71"/>
-      <c r="AX25" s="71"/>
-      <c r="AY25" s="71"/>
-      <c r="AZ25" s="71"/>
-      <c r="BA25" s="71"/>
-      <c r="BB25" s="71"/>
-      <c r="BC25" s="71"/>
-      <c r="BD25" s="74"/>
-      <c r="BE25" s="187"/>
-      <c r="BF25" s="187"/>
-      <c r="BG25" s="187"/>
-      <c r="BH25" s="187"/>
-      <c r="BI25" s="187"/>
-      <c r="BJ25" s="187"/>
-      <c r="BK25" s="187"/>
-      <c r="BL25" s="187"/>
-      <c r="BM25" s="188"/>
-      <c r="BN25" s="72"/>
-    </row>
-    <row r="26" customHeight="1" ht="12">
-      <c r="A26" s="29"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="30"/>
-      <c r="R26" s="30"/>
-      <c r="S26" s="30"/>
-      <c r="T26" s="30"/>
-      <c r="U26" s="30"/>
-      <c r="V26" s="30"/>
-      <c r="W26" s="30"/>
-      <c r="X26" s="30"/>
-      <c r="Y26" s="30"/>
-      <c r="Z26" s="30"/>
-      <c r="AA26" s="30"/>
-      <c r="AB26" s="30"/>
-      <c r="AC26" s="30"/>
-      <c r="AD26" s="30"/>
-      <c r="AE26" s="30"/>
-      <c r="AF26" s="30"/>
-      <c r="AG26" s="30"/>
-      <c r="AH26" s="30"/>
-      <c r="AI26" s="30"/>
-      <c r="AJ26" s="30"/>
-      <c r="AK26" s="30"/>
-      <c r="AL26" s="30"/>
-      <c r="AM26" s="30"/>
-      <c r="AN26" s="30"/>
-      <c r="AO26" s="30"/>
+      <c r="A25" s="68"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="68"/>
+      <c r="K25" s="68"/>
+      <c r="L25" s="68"/>
+      <c r="M25" s="68"/>
+      <c r="N25" s="68"/>
+    </row>
+    <row r="26">
+      <c r="AP26" s="68"/>
+      <c r="AQ26" s="68"/>
+      <c r="AR26" s="68"/>
+      <c r="AS26" s="68"/>
+      <c r="AT26" s="68"/>
+      <c r="AU26" s="68"/>
+      <c r="AV26" s="68"/>
+      <c r="AW26" s="68"/>
+      <c r="AX26" s="68"/>
+      <c r="AY26" s="68"/>
+      <c r="AZ26" s="68"/>
+      <c r="BA26" s="68"/>
+      <c r="BB26" s="68"/>
+      <c r="BC26" s="68"/>
+      <c r="BD26" s="73"/>
+    </row>
+    <row r="27">
+      <c r="AP27" s="68"/>
+      <c r="AQ27" s="68"/>
+      <c r="AR27" s="68"/>
+      <c r="AS27" s="68"/>
+      <c r="AT27" s="68"/>
+      <c r="AU27" s="68"/>
+      <c r="AV27" s="68"/>
+      <c r="AW27" s="68"/>
+      <c r="AX27" s="68"/>
+      <c r="AY27" s="68"/>
+      <c r="AZ27" s="68"/>
+      <c r="BA27" s="68"/>
+      <c r="BB27" s="68"/>
+      <c r="BC27" s="68"/>
+      <c r="BD27" s="68"/>
+    </row>
+    <row r="28">
+      <c r="AP28" s="68"/>
+      <c r="AQ28" s="68"/>
+      <c r="AR28" s="68"/>
+      <c r="AS28" s="68"/>
+      <c r="AT28" s="68"/>
+      <c r="AU28" s="68"/>
+      <c r="AV28" s="68"/>
+      <c r="AW28" s="68"/>
+      <c r="AX28" s="68"/>
+      <c r="AY28" s="68"/>
+      <c r="AZ28" s="68"/>
+      <c r="BA28" s="68"/>
+      <c r="BB28" s="68"/>
+      <c r="BC28" s="68"/>
+      <c r="BD28" s="73"/>
+    </row>
+    <row r="29">
+      <c r="AP29" s="68"/>
+      <c r="AQ29" s="68"/>
+      <c r="AR29" s="68"/>
+      <c r="AS29" s="68"/>
+      <c r="AT29" s="68"/>
+      <c r="AU29" s="68"/>
+      <c r="AV29" s="68"/>
+      <c r="AW29" s="68"/>
+      <c r="AX29" s="68"/>
+      <c r="AY29" s="68"/>
+      <c r="AZ29" s="68"/>
+      <c r="BA29" s="68"/>
+      <c r="BB29" s="68"/>
+      <c r="BC29" s="68"/>
+      <c r="BD29" s="68"/>
+    </row>
+    <row r="30">
+      <c r="AP30" s="68"/>
+      <c r="AQ30" s="68"/>
+      <c r="AR30" s="68"/>
+      <c r="AS30" s="68"/>
+      <c r="AT30" s="68"/>
+      <c r="AU30" s="68"/>
+      <c r="AV30" s="68"/>
+      <c r="AW30" s="68"/>
+      <c r="AX30" s="68"/>
+      <c r="AY30" s="68"/>
+      <c r="AZ30" s="68"/>
+      <c r="BA30" s="68"/>
+      <c r="BB30" s="68"/>
+      <c r="BC30" s="68"/>
+      <c r="BD30" s="73"/>
+    </row>
+    <row r="31">
+      <c r="AP31" s="68"/>
+      <c r="AQ31" s="68"/>
+      <c r="AR31" s="68"/>
+      <c r="AS31" s="68"/>
+      <c r="AT31" s="68"/>
+      <c r="AU31" s="68"/>
+      <c r="AV31" s="68"/>
+      <c r="AW31" s="68"/>
+      <c r="AX31" s="68"/>
+      <c r="AY31" s="68"/>
+      <c r="AZ31" s="68"/>
+      <c r="BA31" s="68"/>
+      <c r="BB31" s="68"/>
+      <c r="BC31" s="68"/>
+      <c r="BD31" s="68"/>
+    </row>
+    <row r="32">
+      <c r="AP32" s="68"/>
+      <c r="AQ32" s="68"/>
+      <c r="AR32" s="68"/>
+      <c r="AS32" s="68"/>
+      <c r="AT32" s="68"/>
+      <c r="AU32" s="68"/>
+      <c r="AV32" s="68"/>
+      <c r="AW32" s="68"/>
+      <c r="AX32" s="68"/>
+      <c r="AY32" s="68"/>
+      <c r="AZ32" s="68"/>
+      <c r="BA32" s="68"/>
+      <c r="BB32" s="68"/>
+      <c r="BC32" s="68"/>
+      <c r="BD32" s="68"/>
+    </row>
+    <row r="33">
+      <c r="AP33" s="68"/>
+      <c r="AQ33" s="68"/>
+      <c r="AR33" s="68"/>
+      <c r="AS33" s="68"/>
+      <c r="AT33" s="68"/>
+      <c r="AU33" s="68"/>
+      <c r="AV33" s="68"/>
+      <c r="AW33" s="68"/>
+      <c r="AX33" s="68"/>
+      <c r="AY33" s="68"/>
+      <c r="AZ33" s="68"/>
+      <c r="BA33" s="68"/>
+      <c r="BB33" s="68"/>
+      <c r="BC33" s="68"/>
+      <c r="BD33" s="68"/>
     </row>
   </sheetData>
-  <mergeCells count="49">
+  <mergeCells count="35">
     <mergeCell ref="A2:Z3"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="G4:N4"/>
@@ -6696,29 +7968,15 @@
     <mergeCell ref="AP8:AR8"/>
     <mergeCell ref="AS8:BD8"/>
     <mergeCell ref="BE8:BM8"/>
-    <mergeCell ref="AP9:AR9"/>
-    <mergeCell ref="AS9:BD9"/>
-    <mergeCell ref="BE9:BM9"/>
-    <mergeCell ref="AP10:AR10"/>
     <mergeCell ref="AS10:BD10"/>
     <mergeCell ref="BE10:BM10"/>
-    <mergeCell ref="AP11:AR11"/>
-    <mergeCell ref="AS11:BD11"/>
-    <mergeCell ref="BE11:BM11"/>
-    <mergeCell ref="BE12:BM12"/>
-    <mergeCell ref="BE13:BM13"/>
-    <mergeCell ref="BE14:BM14"/>
-    <mergeCell ref="BE15:BM15"/>
-    <mergeCell ref="BE16:BM16"/>
-    <mergeCell ref="BE17:BM17"/>
-    <mergeCell ref="BE18:BM18"/>
-    <mergeCell ref="BE19:BM19"/>
+    <mergeCell ref="AP14:AR14"/>
+    <mergeCell ref="AP15:AR15"/>
+    <mergeCell ref="AS20:BD20"/>
     <mergeCell ref="BE20:BM20"/>
+    <mergeCell ref="AP21:AR21"/>
+    <mergeCell ref="AS21:BD21"/>
     <mergeCell ref="BE21:BM21"/>
-    <mergeCell ref="BE22:BM22"/>
-    <mergeCell ref="BE23:BM23"/>
-    <mergeCell ref="BE24:BM24"/>
-    <mergeCell ref="BE25:BM25"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6730,8 +7988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F81D7B7-FE65-404E-8F94-1E0DE511BF03}">
   <dimension ref="A1:BM33"/>
   <sheetViews>
-    <sheetView showGridLines="false" topLeftCell="A1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4:AV4" activeCellId="0"/>
+    <sheetView showGridLines="false" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AA20" sqref="AA20" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="11.25" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6739,259 +7997,259 @@
     <col min="1" max="1" width="0.75" style="24" customWidth="1"/>
     <col min="2" max="33" width="2.125" style="24"/>
     <col min="34" max="34" width="0.25" style="24" customWidth="1"/>
-    <col min="35" max="256" width="2.125" style="24"/>
-    <col min="257" max="257" width="0.75" style="24" customWidth="1"/>
-    <col min="258" max="289" width="2.125" style="24"/>
-    <col min="290" max="290" width="0.25" style="24" customWidth="1"/>
-    <col min="291" max="512" width="2.125" style="24"/>
-    <col min="513" max="513" width="0.75" style="24" customWidth="1"/>
-    <col min="514" max="545" width="2.125" style="24"/>
-    <col min="546" max="546" width="0.25" style="24" customWidth="1"/>
-    <col min="547" max="768" width="2.125" style="24"/>
-    <col min="769" max="769" width="0.75" style="24" customWidth="1"/>
-    <col min="770" max="801" width="2.125" style="24"/>
-    <col min="802" max="802" width="0.25" style="24" customWidth="1"/>
-    <col min="803" max="1024" width="2.125" style="24"/>
-    <col min="1025" max="1025" width="0.75" style="24" customWidth="1"/>
-    <col min="1026" max="1057" width="2.125" style="24"/>
-    <col min="1058" max="1058" width="0.25" style="24" customWidth="1"/>
-    <col min="1059" max="1280" width="2.125" style="24"/>
-    <col min="1281" max="1281" width="0.75" style="24" customWidth="1"/>
-    <col min="1282" max="1313" width="2.125" style="24"/>
-    <col min="1314" max="1314" width="0.25" style="24" customWidth="1"/>
-    <col min="1315" max="1536" width="2.125" style="24"/>
-    <col min="1537" max="1537" width="0.75" style="24" customWidth="1"/>
-    <col min="1538" max="1569" width="2.125" style="24"/>
-    <col min="1570" max="1570" width="0.25" style="24" customWidth="1"/>
-    <col min="1571" max="1792" width="2.125" style="24"/>
-    <col min="1793" max="1793" width="0.75" style="24" customWidth="1"/>
-    <col min="1794" max="1825" width="2.125" style="24"/>
-    <col min="1826" max="1826" width="0.25" style="24" customWidth="1"/>
-    <col min="1827" max="2048" width="2.125" style="24"/>
-    <col min="2049" max="2049" width="0.75" style="24" customWidth="1"/>
-    <col min="2050" max="2081" width="2.125" style="24"/>
-    <col min="2082" max="2082" width="0.25" style="24" customWidth="1"/>
-    <col min="2083" max="2304" width="2.125" style="24"/>
-    <col min="2305" max="2305" width="0.75" style="24" customWidth="1"/>
-    <col min="2306" max="2337" width="2.125" style="24"/>
-    <col min="2338" max="2338" width="0.25" style="24" customWidth="1"/>
-    <col min="2339" max="2560" width="2.125" style="24"/>
-    <col min="2561" max="2561" width="0.75" style="24" customWidth="1"/>
-    <col min="2562" max="2593" width="2.125" style="24"/>
-    <col min="2594" max="2594" width="0.25" style="24" customWidth="1"/>
-    <col min="2595" max="2816" width="2.125" style="24"/>
-    <col min="2817" max="2817" width="0.75" style="24" customWidth="1"/>
-    <col min="2818" max="2849" width="2.125" style="24"/>
-    <col min="2850" max="2850" width="0.25" style="24" customWidth="1"/>
-    <col min="2851" max="3072" width="2.125" style="24"/>
-    <col min="3073" max="3073" width="0.75" style="24" customWidth="1"/>
-    <col min="3074" max="3105" width="2.125" style="24"/>
-    <col min="3106" max="3106" width="0.25" style="24" customWidth="1"/>
-    <col min="3107" max="3328" width="2.125" style="24"/>
-    <col min="3329" max="3329" width="0.75" style="24" customWidth="1"/>
-    <col min="3330" max="3361" width="2.125" style="24"/>
-    <col min="3362" max="3362" width="0.25" style="24" customWidth="1"/>
-    <col min="3363" max="3584" width="2.125" style="24"/>
-    <col min="3585" max="3585" width="0.75" style="24" customWidth="1"/>
-    <col min="3586" max="3617" width="2.125" style="24"/>
-    <col min="3618" max="3618" width="0.25" style="24" customWidth="1"/>
-    <col min="3619" max="3840" width="2.125" style="24"/>
-    <col min="3841" max="3841" width="0.75" style="24" customWidth="1"/>
-    <col min="3842" max="3873" width="2.125" style="24"/>
-    <col min="3874" max="3874" width="0.25" style="24" customWidth="1"/>
-    <col min="3875" max="4096" width="2.125" style="24"/>
-    <col min="4097" max="4097" width="0.75" style="24" customWidth="1"/>
-    <col min="4098" max="4129" width="2.125" style="24"/>
-    <col min="4130" max="4130" width="0.25" style="24" customWidth="1"/>
-    <col min="4131" max="4352" width="2.125" style="24"/>
-    <col min="4353" max="4353" width="0.75" style="24" customWidth="1"/>
-    <col min="4354" max="4385" width="2.125" style="24"/>
-    <col min="4386" max="4386" width="0.25" style="24" customWidth="1"/>
-    <col min="4387" max="4608" width="2.125" style="24"/>
-    <col min="4609" max="4609" width="0.75" style="24" customWidth="1"/>
-    <col min="4610" max="4641" width="2.125" style="24"/>
-    <col min="4642" max="4642" width="0.25" style="24" customWidth="1"/>
-    <col min="4643" max="4864" width="2.125" style="24"/>
-    <col min="4865" max="4865" width="0.75" style="24" customWidth="1"/>
-    <col min="4866" max="4897" width="2.125" style="24"/>
-    <col min="4898" max="4898" width="0.25" style="24" customWidth="1"/>
-    <col min="4899" max="5120" width="2.125" style="24"/>
-    <col min="5121" max="5121" width="0.75" style="24" customWidth="1"/>
-    <col min="5122" max="5153" width="2.125" style="24"/>
-    <col min="5154" max="5154" width="0.25" style="24" customWidth="1"/>
-    <col min="5155" max="5376" width="2.125" style="24"/>
-    <col min="5377" max="5377" width="0.75" style="24" customWidth="1"/>
-    <col min="5378" max="5409" width="2.125" style="24"/>
-    <col min="5410" max="5410" width="0.25" style="24" customWidth="1"/>
-    <col min="5411" max="5632" width="2.125" style="24"/>
-    <col min="5633" max="5633" width="0.75" style="24" customWidth="1"/>
-    <col min="5634" max="5665" width="2.125" style="24"/>
-    <col min="5666" max="5666" width="0.25" style="24" customWidth="1"/>
-    <col min="5667" max="5888" width="2.125" style="24"/>
-    <col min="5889" max="5889" width="0.75" style="24" customWidth="1"/>
-    <col min="5890" max="5921" width="2.125" style="24"/>
-    <col min="5922" max="5922" width="0.25" style="24" customWidth="1"/>
-    <col min="5923" max="6144" width="2.125" style="24"/>
-    <col min="6145" max="6145" width="0.75" style="24" customWidth="1"/>
-    <col min="6146" max="6177" width="2.125" style="24"/>
-    <col min="6178" max="6178" width="0.25" style="24" customWidth="1"/>
-    <col min="6179" max="6400" width="2.125" style="24"/>
-    <col min="6401" max="6401" width="0.75" style="24" customWidth="1"/>
-    <col min="6402" max="6433" width="2.125" style="24"/>
-    <col min="6434" max="6434" width="0.25" style="24" customWidth="1"/>
-    <col min="6435" max="6656" width="2.125" style="24"/>
-    <col min="6657" max="6657" width="0.75" style="24" customWidth="1"/>
-    <col min="6658" max="6689" width="2.125" style="24"/>
-    <col min="6690" max="6690" width="0.25" style="24" customWidth="1"/>
-    <col min="6691" max="6912" width="2.125" style="24"/>
-    <col min="6913" max="6913" width="0.75" style="24" customWidth="1"/>
-    <col min="6914" max="6945" width="2.125" style="24"/>
-    <col min="6946" max="6946" width="0.25" style="24" customWidth="1"/>
-    <col min="6947" max="7168" width="2.125" style="24"/>
-    <col min="7169" max="7169" width="0.75" style="24" customWidth="1"/>
-    <col min="7170" max="7201" width="2.125" style="24"/>
-    <col min="7202" max="7202" width="0.25" style="24" customWidth="1"/>
-    <col min="7203" max="7424" width="2.125" style="24"/>
-    <col min="7425" max="7425" width="0.75" style="24" customWidth="1"/>
-    <col min="7426" max="7457" width="2.125" style="24"/>
-    <col min="7458" max="7458" width="0.25" style="24" customWidth="1"/>
-    <col min="7459" max="7680" width="2.125" style="24"/>
-    <col min="7681" max="7681" width="0.75" style="24" customWidth="1"/>
-    <col min="7682" max="7713" width="2.125" style="24"/>
-    <col min="7714" max="7714" width="0.25" style="24" customWidth="1"/>
-    <col min="7715" max="7936" width="2.125" style="24"/>
-    <col min="7937" max="7937" width="0.75" style="24" customWidth="1"/>
-    <col min="7938" max="7969" width="2.125" style="24"/>
-    <col min="7970" max="7970" width="0.25" style="24" customWidth="1"/>
-    <col min="7971" max="8192" width="2.125" style="24"/>
-    <col min="8193" max="8193" width="0.75" style="24" customWidth="1"/>
-    <col min="8194" max="8225" width="2.125" style="24"/>
-    <col min="8226" max="8226" width="0.25" style="24" customWidth="1"/>
-    <col min="8227" max="8448" width="2.125" style="24"/>
-    <col min="8449" max="8449" width="0.75" style="24" customWidth="1"/>
-    <col min="8450" max="8481" width="2.125" style="24"/>
-    <col min="8482" max="8482" width="0.25" style="24" customWidth="1"/>
-    <col min="8483" max="8704" width="2.125" style="24"/>
-    <col min="8705" max="8705" width="0.75" style="24" customWidth="1"/>
-    <col min="8706" max="8737" width="2.125" style="24"/>
-    <col min="8738" max="8738" width="0.25" style="24" customWidth="1"/>
-    <col min="8739" max="8960" width="2.125" style="24"/>
-    <col min="8961" max="8961" width="0.75" style="24" customWidth="1"/>
-    <col min="8962" max="8993" width="2.125" style="24"/>
-    <col min="8994" max="8994" width="0.25" style="24" customWidth="1"/>
-    <col min="8995" max="9216" width="2.125" style="24"/>
-    <col min="9217" max="9217" width="0.75" style="24" customWidth="1"/>
-    <col min="9218" max="9249" width="2.125" style="24"/>
-    <col min="9250" max="9250" width="0.25" style="24" customWidth="1"/>
-    <col min="9251" max="9472" width="2.125" style="24"/>
-    <col min="9473" max="9473" width="0.75" style="24" customWidth="1"/>
-    <col min="9474" max="9505" width="2.125" style="24"/>
-    <col min="9506" max="9506" width="0.25" style="24" customWidth="1"/>
-    <col min="9507" max="9728" width="2.125" style="24"/>
-    <col min="9729" max="9729" width="0.75" style="24" customWidth="1"/>
-    <col min="9730" max="9761" width="2.125" style="24"/>
-    <col min="9762" max="9762" width="0.25" style="24" customWidth="1"/>
-    <col min="9763" max="9984" width="2.125" style="24"/>
-    <col min="9985" max="9985" width="0.75" style="24" customWidth="1"/>
-    <col min="9986" max="10017" width="2.125" style="24"/>
-    <col min="10018" max="10018" width="0.25" style="24" customWidth="1"/>
-    <col min="10019" max="10240" width="2.125" style="24"/>
-    <col min="10241" max="10241" width="0.75" style="24" customWidth="1"/>
-    <col min="10242" max="10273" width="2.125" style="24"/>
-    <col min="10274" max="10274" width="0.25" style="24" customWidth="1"/>
-    <col min="10275" max="10496" width="2.125" style="24"/>
-    <col min="10497" max="10497" width="0.75" style="24" customWidth="1"/>
-    <col min="10498" max="10529" width="2.125" style="24"/>
-    <col min="10530" max="10530" width="0.25" style="24" customWidth="1"/>
-    <col min="10531" max="10752" width="2.125" style="24"/>
-    <col min="10753" max="10753" width="0.75" style="24" customWidth="1"/>
-    <col min="10754" max="10785" width="2.125" style="24"/>
-    <col min="10786" max="10786" width="0.25" style="24" customWidth="1"/>
-    <col min="10787" max="11008" width="2.125" style="24"/>
-    <col min="11009" max="11009" width="0.75" style="24" customWidth="1"/>
-    <col min="11010" max="11041" width="2.125" style="24"/>
-    <col min="11042" max="11042" width="0.25" style="24" customWidth="1"/>
-    <col min="11043" max="11264" width="2.125" style="24"/>
-    <col min="11265" max="11265" width="0.75" style="24" customWidth="1"/>
-    <col min="11266" max="11297" width="2.125" style="24"/>
-    <col min="11298" max="11298" width="0.25" style="24" customWidth="1"/>
-    <col min="11299" max="11520" width="2.125" style="24"/>
-    <col min="11521" max="11521" width="0.75" style="24" customWidth="1"/>
-    <col min="11522" max="11553" width="2.125" style="24"/>
-    <col min="11554" max="11554" width="0.25" style="24" customWidth="1"/>
-    <col min="11555" max="11776" width="2.125" style="24"/>
-    <col min="11777" max="11777" width="0.75" style="24" customWidth="1"/>
-    <col min="11778" max="11809" width="2.125" style="24"/>
-    <col min="11810" max="11810" width="0.25" style="24" customWidth="1"/>
-    <col min="11811" max="12032" width="2.125" style="24"/>
-    <col min="12033" max="12033" width="0.75" style="24" customWidth="1"/>
-    <col min="12034" max="12065" width="2.125" style="24"/>
-    <col min="12066" max="12066" width="0.25" style="24" customWidth="1"/>
-    <col min="12067" max="12288" width="2.125" style="24"/>
-    <col min="12289" max="12289" width="0.75" style="24" customWidth="1"/>
-    <col min="12290" max="12321" width="2.125" style="24"/>
-    <col min="12322" max="12322" width="0.25" style="24" customWidth="1"/>
-    <col min="12323" max="12544" width="2.125" style="24"/>
-    <col min="12545" max="12545" width="0.75" style="24" customWidth="1"/>
-    <col min="12546" max="12577" width="2.125" style="24"/>
-    <col min="12578" max="12578" width="0.25" style="24" customWidth="1"/>
-    <col min="12579" max="12800" width="2.125" style="24"/>
-    <col min="12801" max="12801" width="0.75" style="24" customWidth="1"/>
-    <col min="12802" max="12833" width="2.125" style="24"/>
-    <col min="12834" max="12834" width="0.25" style="24" customWidth="1"/>
-    <col min="12835" max="13056" width="2.125" style="24"/>
-    <col min="13057" max="13057" width="0.75" style="24" customWidth="1"/>
-    <col min="13058" max="13089" width="2.125" style="24"/>
-    <col min="13090" max="13090" width="0.25" style="24" customWidth="1"/>
-    <col min="13091" max="13312" width="2.125" style="24"/>
-    <col min="13313" max="13313" width="0.75" style="24" customWidth="1"/>
-    <col min="13314" max="13345" width="2.125" style="24"/>
-    <col min="13346" max="13346" width="0.25" style="24" customWidth="1"/>
-    <col min="13347" max="13568" width="2.125" style="24"/>
-    <col min="13569" max="13569" width="0.75" style="24" customWidth="1"/>
-    <col min="13570" max="13601" width="2.125" style="24"/>
-    <col min="13602" max="13602" width="0.25" style="24" customWidth="1"/>
-    <col min="13603" max="13824" width="2.125" style="24"/>
-    <col min="13825" max="13825" width="0.75" style="24" customWidth="1"/>
-    <col min="13826" max="13857" width="2.125" style="24"/>
-    <col min="13858" max="13858" width="0.25" style="24" customWidth="1"/>
-    <col min="13859" max="14080" width="2.125" style="24"/>
-    <col min="14081" max="14081" width="0.75" style="24" customWidth="1"/>
-    <col min="14082" max="14113" width="2.125" style="24"/>
-    <col min="14114" max="14114" width="0.25" style="24" customWidth="1"/>
-    <col min="14115" max="14336" width="2.125" style="24"/>
-    <col min="14337" max="14337" width="0.75" style="24" customWidth="1"/>
-    <col min="14338" max="14369" width="2.125" style="24"/>
-    <col min="14370" max="14370" width="0.25" style="24" customWidth="1"/>
-    <col min="14371" max="14592" width="2.125" style="24"/>
-    <col min="14593" max="14593" width="0.75" style="24" customWidth="1"/>
-    <col min="14594" max="14625" width="2.125" style="24"/>
-    <col min="14626" max="14626" width="0.25" style="24" customWidth="1"/>
-    <col min="14627" max="14848" width="2.125" style="24"/>
-    <col min="14849" max="14849" width="0.75" style="24" customWidth="1"/>
-    <col min="14850" max="14881" width="2.125" style="24"/>
-    <col min="14882" max="14882" width="0.25" style="24" customWidth="1"/>
-    <col min="14883" max="15104" width="2.125" style="24"/>
-    <col min="15105" max="15105" width="0.75" style="24" customWidth="1"/>
-    <col min="15106" max="15137" width="2.125" style="24"/>
-    <col min="15138" max="15138" width="0.25" style="24" customWidth="1"/>
-    <col min="15139" max="15360" width="2.125" style="24"/>
-    <col min="15361" max="15361" width="0.75" style="24" customWidth="1"/>
-    <col min="15362" max="15393" width="2.125" style="24"/>
-    <col min="15394" max="15394" width="0.25" style="24" customWidth="1"/>
-    <col min="15395" max="15616" width="2.125" style="24"/>
-    <col min="15617" max="15617" width="0.75" style="24" customWidth="1"/>
-    <col min="15618" max="15649" width="2.125" style="24"/>
-    <col min="15650" max="15650" width="0.25" style="24" customWidth="1"/>
-    <col min="15651" max="15872" width="2.125" style="24"/>
-    <col min="15873" max="15873" width="0.75" style="24" customWidth="1"/>
-    <col min="15874" max="15905" width="2.125" style="24"/>
-    <col min="15906" max="15906" width="0.25" style="24" customWidth="1"/>
-    <col min="15907" max="16128" width="2.125" style="24"/>
-    <col min="16129" max="16129" width="0.75" style="24" customWidth="1"/>
-    <col min="16130" max="16161" width="2.125" style="24"/>
-    <col min="16162" max="16162" width="0.25" style="24" customWidth="1"/>
-    <col min="16163" max="16384" width="2.125" style="24"/>
+    <col min="35" max="255" width="2.125" style="24"/>
+    <col min="256" max="256" width="0.75" style="24" customWidth="1"/>
+    <col min="257" max="288" width="2.125" style="24"/>
+    <col min="289" max="289" width="0.25" style="24" customWidth="1"/>
+    <col min="290" max="511" width="2.125" style="24"/>
+    <col min="512" max="512" width="0.75" style="24" customWidth="1"/>
+    <col min="513" max="544" width="2.125" style="24"/>
+    <col min="545" max="545" width="0.25" style="24" customWidth="1"/>
+    <col min="546" max="767" width="2.125" style="24"/>
+    <col min="768" max="768" width="0.75" style="24" customWidth="1"/>
+    <col min="769" max="800" width="2.125" style="24"/>
+    <col min="801" max="801" width="0.25" style="24" customWidth="1"/>
+    <col min="802" max="1023" width="2.125" style="24"/>
+    <col min="1024" max="1024" width="0.75" style="24" customWidth="1"/>
+    <col min="1025" max="1056" width="2.125" style="24"/>
+    <col min="1057" max="1057" width="0.25" style="24" customWidth="1"/>
+    <col min="1058" max="1279" width="2.125" style="24"/>
+    <col min="1280" max="1280" width="0.75" style="24" customWidth="1"/>
+    <col min="1281" max="1312" width="2.125" style="24"/>
+    <col min="1313" max="1313" width="0.25" style="24" customWidth="1"/>
+    <col min="1314" max="1535" width="2.125" style="24"/>
+    <col min="1536" max="1536" width="0.75" style="24" customWidth="1"/>
+    <col min="1537" max="1568" width="2.125" style="24"/>
+    <col min="1569" max="1569" width="0.25" style="24" customWidth="1"/>
+    <col min="1570" max="1791" width="2.125" style="24"/>
+    <col min="1792" max="1792" width="0.75" style="24" customWidth="1"/>
+    <col min="1793" max="1824" width="2.125" style="24"/>
+    <col min="1825" max="1825" width="0.25" style="24" customWidth="1"/>
+    <col min="1826" max="2047" width="2.125" style="24"/>
+    <col min="2048" max="2048" width="0.75" style="24" customWidth="1"/>
+    <col min="2049" max="2080" width="2.125" style="24"/>
+    <col min="2081" max="2081" width="0.25" style="24" customWidth="1"/>
+    <col min="2082" max="2303" width="2.125" style="24"/>
+    <col min="2304" max="2304" width="0.75" style="24" customWidth="1"/>
+    <col min="2305" max="2336" width="2.125" style="24"/>
+    <col min="2337" max="2337" width="0.25" style="24" customWidth="1"/>
+    <col min="2338" max="2559" width="2.125" style="24"/>
+    <col min="2560" max="2560" width="0.75" style="24" customWidth="1"/>
+    <col min="2561" max="2592" width="2.125" style="24"/>
+    <col min="2593" max="2593" width="0.25" style="24" customWidth="1"/>
+    <col min="2594" max="2815" width="2.125" style="24"/>
+    <col min="2816" max="2816" width="0.75" style="24" customWidth="1"/>
+    <col min="2817" max="2848" width="2.125" style="24"/>
+    <col min="2849" max="2849" width="0.25" style="24" customWidth="1"/>
+    <col min="2850" max="3071" width="2.125" style="24"/>
+    <col min="3072" max="3072" width="0.75" style="24" customWidth="1"/>
+    <col min="3073" max="3104" width="2.125" style="24"/>
+    <col min="3105" max="3105" width="0.25" style="24" customWidth="1"/>
+    <col min="3106" max="3327" width="2.125" style="24"/>
+    <col min="3328" max="3328" width="0.75" style="24" customWidth="1"/>
+    <col min="3329" max="3360" width="2.125" style="24"/>
+    <col min="3361" max="3361" width="0.25" style="24" customWidth="1"/>
+    <col min="3362" max="3583" width="2.125" style="24"/>
+    <col min="3584" max="3584" width="0.75" style="24" customWidth="1"/>
+    <col min="3585" max="3616" width="2.125" style="24"/>
+    <col min="3617" max="3617" width="0.25" style="24" customWidth="1"/>
+    <col min="3618" max="3839" width="2.125" style="24"/>
+    <col min="3840" max="3840" width="0.75" style="24" customWidth="1"/>
+    <col min="3841" max="3872" width="2.125" style="24"/>
+    <col min="3873" max="3873" width="0.25" style="24" customWidth="1"/>
+    <col min="3874" max="4095" width="2.125" style="24"/>
+    <col min="4096" max="4096" width="0.75" style="24" customWidth="1"/>
+    <col min="4097" max="4128" width="2.125" style="24"/>
+    <col min="4129" max="4129" width="0.25" style="24" customWidth="1"/>
+    <col min="4130" max="4351" width="2.125" style="24"/>
+    <col min="4352" max="4352" width="0.75" style="24" customWidth="1"/>
+    <col min="4353" max="4384" width="2.125" style="24"/>
+    <col min="4385" max="4385" width="0.25" style="24" customWidth="1"/>
+    <col min="4386" max="4607" width="2.125" style="24"/>
+    <col min="4608" max="4608" width="0.75" style="24" customWidth="1"/>
+    <col min="4609" max="4640" width="2.125" style="24"/>
+    <col min="4641" max="4641" width="0.25" style="24" customWidth="1"/>
+    <col min="4642" max="4863" width="2.125" style="24"/>
+    <col min="4864" max="4864" width="0.75" style="24" customWidth="1"/>
+    <col min="4865" max="4896" width="2.125" style="24"/>
+    <col min="4897" max="4897" width="0.25" style="24" customWidth="1"/>
+    <col min="4898" max="5119" width="2.125" style="24"/>
+    <col min="5120" max="5120" width="0.75" style="24" customWidth="1"/>
+    <col min="5121" max="5152" width="2.125" style="24"/>
+    <col min="5153" max="5153" width="0.25" style="24" customWidth="1"/>
+    <col min="5154" max="5375" width="2.125" style="24"/>
+    <col min="5376" max="5376" width="0.75" style="24" customWidth="1"/>
+    <col min="5377" max="5408" width="2.125" style="24"/>
+    <col min="5409" max="5409" width="0.25" style="24" customWidth="1"/>
+    <col min="5410" max="5631" width="2.125" style="24"/>
+    <col min="5632" max="5632" width="0.75" style="24" customWidth="1"/>
+    <col min="5633" max="5664" width="2.125" style="24"/>
+    <col min="5665" max="5665" width="0.25" style="24" customWidth="1"/>
+    <col min="5666" max="5887" width="2.125" style="24"/>
+    <col min="5888" max="5888" width="0.75" style="24" customWidth="1"/>
+    <col min="5889" max="5920" width="2.125" style="24"/>
+    <col min="5921" max="5921" width="0.25" style="24" customWidth="1"/>
+    <col min="5922" max="6143" width="2.125" style="24"/>
+    <col min="6144" max="6144" width="0.75" style="24" customWidth="1"/>
+    <col min="6145" max="6176" width="2.125" style="24"/>
+    <col min="6177" max="6177" width="0.25" style="24" customWidth="1"/>
+    <col min="6178" max="6399" width="2.125" style="24"/>
+    <col min="6400" max="6400" width="0.75" style="24" customWidth="1"/>
+    <col min="6401" max="6432" width="2.125" style="24"/>
+    <col min="6433" max="6433" width="0.25" style="24" customWidth="1"/>
+    <col min="6434" max="6655" width="2.125" style="24"/>
+    <col min="6656" max="6656" width="0.75" style="24" customWidth="1"/>
+    <col min="6657" max="6688" width="2.125" style="24"/>
+    <col min="6689" max="6689" width="0.25" style="24" customWidth="1"/>
+    <col min="6690" max="6911" width="2.125" style="24"/>
+    <col min="6912" max="6912" width="0.75" style="24" customWidth="1"/>
+    <col min="6913" max="6944" width="2.125" style="24"/>
+    <col min="6945" max="6945" width="0.25" style="24" customWidth="1"/>
+    <col min="6946" max="7167" width="2.125" style="24"/>
+    <col min="7168" max="7168" width="0.75" style="24" customWidth="1"/>
+    <col min="7169" max="7200" width="2.125" style="24"/>
+    <col min="7201" max="7201" width="0.25" style="24" customWidth="1"/>
+    <col min="7202" max="7423" width="2.125" style="24"/>
+    <col min="7424" max="7424" width="0.75" style="24" customWidth="1"/>
+    <col min="7425" max="7456" width="2.125" style="24"/>
+    <col min="7457" max="7457" width="0.25" style="24" customWidth="1"/>
+    <col min="7458" max="7679" width="2.125" style="24"/>
+    <col min="7680" max="7680" width="0.75" style="24" customWidth="1"/>
+    <col min="7681" max="7712" width="2.125" style="24"/>
+    <col min="7713" max="7713" width="0.25" style="24" customWidth="1"/>
+    <col min="7714" max="7935" width="2.125" style="24"/>
+    <col min="7936" max="7936" width="0.75" style="24" customWidth="1"/>
+    <col min="7937" max="7968" width="2.125" style="24"/>
+    <col min="7969" max="7969" width="0.25" style="24" customWidth="1"/>
+    <col min="7970" max="8191" width="2.125" style="24"/>
+    <col min="8192" max="8192" width="0.75" style="24" customWidth="1"/>
+    <col min="8193" max="8224" width="2.125" style="24"/>
+    <col min="8225" max="8225" width="0.25" style="24" customWidth="1"/>
+    <col min="8226" max="8447" width="2.125" style="24"/>
+    <col min="8448" max="8448" width="0.75" style="24" customWidth="1"/>
+    <col min="8449" max="8480" width="2.125" style="24"/>
+    <col min="8481" max="8481" width="0.25" style="24" customWidth="1"/>
+    <col min="8482" max="8703" width="2.125" style="24"/>
+    <col min="8704" max="8704" width="0.75" style="24" customWidth="1"/>
+    <col min="8705" max="8736" width="2.125" style="24"/>
+    <col min="8737" max="8737" width="0.25" style="24" customWidth="1"/>
+    <col min="8738" max="8959" width="2.125" style="24"/>
+    <col min="8960" max="8960" width="0.75" style="24" customWidth="1"/>
+    <col min="8961" max="8992" width="2.125" style="24"/>
+    <col min="8993" max="8993" width="0.25" style="24" customWidth="1"/>
+    <col min="8994" max="9215" width="2.125" style="24"/>
+    <col min="9216" max="9216" width="0.75" style="24" customWidth="1"/>
+    <col min="9217" max="9248" width="2.125" style="24"/>
+    <col min="9249" max="9249" width="0.25" style="24" customWidth="1"/>
+    <col min="9250" max="9471" width="2.125" style="24"/>
+    <col min="9472" max="9472" width="0.75" style="24" customWidth="1"/>
+    <col min="9473" max="9504" width="2.125" style="24"/>
+    <col min="9505" max="9505" width="0.25" style="24" customWidth="1"/>
+    <col min="9506" max="9727" width="2.125" style="24"/>
+    <col min="9728" max="9728" width="0.75" style="24" customWidth="1"/>
+    <col min="9729" max="9760" width="2.125" style="24"/>
+    <col min="9761" max="9761" width="0.25" style="24" customWidth="1"/>
+    <col min="9762" max="9983" width="2.125" style="24"/>
+    <col min="9984" max="9984" width="0.75" style="24" customWidth="1"/>
+    <col min="9985" max="10016" width="2.125" style="24"/>
+    <col min="10017" max="10017" width="0.25" style="24" customWidth="1"/>
+    <col min="10018" max="10239" width="2.125" style="24"/>
+    <col min="10240" max="10240" width="0.75" style="24" customWidth="1"/>
+    <col min="10241" max="10272" width="2.125" style="24"/>
+    <col min="10273" max="10273" width="0.25" style="24" customWidth="1"/>
+    <col min="10274" max="10495" width="2.125" style="24"/>
+    <col min="10496" max="10496" width="0.75" style="24" customWidth="1"/>
+    <col min="10497" max="10528" width="2.125" style="24"/>
+    <col min="10529" max="10529" width="0.25" style="24" customWidth="1"/>
+    <col min="10530" max="10751" width="2.125" style="24"/>
+    <col min="10752" max="10752" width="0.75" style="24" customWidth="1"/>
+    <col min="10753" max="10784" width="2.125" style="24"/>
+    <col min="10785" max="10785" width="0.25" style="24" customWidth="1"/>
+    <col min="10786" max="11007" width="2.125" style="24"/>
+    <col min="11008" max="11008" width="0.75" style="24" customWidth="1"/>
+    <col min="11009" max="11040" width="2.125" style="24"/>
+    <col min="11041" max="11041" width="0.25" style="24" customWidth="1"/>
+    <col min="11042" max="11263" width="2.125" style="24"/>
+    <col min="11264" max="11264" width="0.75" style="24" customWidth="1"/>
+    <col min="11265" max="11296" width="2.125" style="24"/>
+    <col min="11297" max="11297" width="0.25" style="24" customWidth="1"/>
+    <col min="11298" max="11519" width="2.125" style="24"/>
+    <col min="11520" max="11520" width="0.75" style="24" customWidth="1"/>
+    <col min="11521" max="11552" width="2.125" style="24"/>
+    <col min="11553" max="11553" width="0.25" style="24" customWidth="1"/>
+    <col min="11554" max="11775" width="2.125" style="24"/>
+    <col min="11776" max="11776" width="0.75" style="24" customWidth="1"/>
+    <col min="11777" max="11808" width="2.125" style="24"/>
+    <col min="11809" max="11809" width="0.25" style="24" customWidth="1"/>
+    <col min="11810" max="12031" width="2.125" style="24"/>
+    <col min="12032" max="12032" width="0.75" style="24" customWidth="1"/>
+    <col min="12033" max="12064" width="2.125" style="24"/>
+    <col min="12065" max="12065" width="0.25" style="24" customWidth="1"/>
+    <col min="12066" max="12287" width="2.125" style="24"/>
+    <col min="12288" max="12288" width="0.75" style="24" customWidth="1"/>
+    <col min="12289" max="12320" width="2.125" style="24"/>
+    <col min="12321" max="12321" width="0.25" style="24" customWidth="1"/>
+    <col min="12322" max="12543" width="2.125" style="24"/>
+    <col min="12544" max="12544" width="0.75" style="24" customWidth="1"/>
+    <col min="12545" max="12576" width="2.125" style="24"/>
+    <col min="12577" max="12577" width="0.25" style="24" customWidth="1"/>
+    <col min="12578" max="12799" width="2.125" style="24"/>
+    <col min="12800" max="12800" width="0.75" style="24" customWidth="1"/>
+    <col min="12801" max="12832" width="2.125" style="24"/>
+    <col min="12833" max="12833" width="0.25" style="24" customWidth="1"/>
+    <col min="12834" max="13055" width="2.125" style="24"/>
+    <col min="13056" max="13056" width="0.75" style="24" customWidth="1"/>
+    <col min="13057" max="13088" width="2.125" style="24"/>
+    <col min="13089" max="13089" width="0.25" style="24" customWidth="1"/>
+    <col min="13090" max="13311" width="2.125" style="24"/>
+    <col min="13312" max="13312" width="0.75" style="24" customWidth="1"/>
+    <col min="13313" max="13344" width="2.125" style="24"/>
+    <col min="13345" max="13345" width="0.25" style="24" customWidth="1"/>
+    <col min="13346" max="13567" width="2.125" style="24"/>
+    <col min="13568" max="13568" width="0.75" style="24" customWidth="1"/>
+    <col min="13569" max="13600" width="2.125" style="24"/>
+    <col min="13601" max="13601" width="0.25" style="24" customWidth="1"/>
+    <col min="13602" max="13823" width="2.125" style="24"/>
+    <col min="13824" max="13824" width="0.75" style="24" customWidth="1"/>
+    <col min="13825" max="13856" width="2.125" style="24"/>
+    <col min="13857" max="13857" width="0.25" style="24" customWidth="1"/>
+    <col min="13858" max="14079" width="2.125" style="24"/>
+    <col min="14080" max="14080" width="0.75" style="24" customWidth="1"/>
+    <col min="14081" max="14112" width="2.125" style="24"/>
+    <col min="14113" max="14113" width="0.25" style="24" customWidth="1"/>
+    <col min="14114" max="14335" width="2.125" style="24"/>
+    <col min="14336" max="14336" width="0.75" style="24" customWidth="1"/>
+    <col min="14337" max="14368" width="2.125" style="24"/>
+    <col min="14369" max="14369" width="0.25" style="24" customWidth="1"/>
+    <col min="14370" max="14591" width="2.125" style="24"/>
+    <col min="14592" max="14592" width="0.75" style="24" customWidth="1"/>
+    <col min="14593" max="14624" width="2.125" style="24"/>
+    <col min="14625" max="14625" width="0.25" style="24" customWidth="1"/>
+    <col min="14626" max="14847" width="2.125" style="24"/>
+    <col min="14848" max="14848" width="0.75" style="24" customWidth="1"/>
+    <col min="14849" max="14880" width="2.125" style="24"/>
+    <col min="14881" max="14881" width="0.25" style="24" customWidth="1"/>
+    <col min="14882" max="15103" width="2.125" style="24"/>
+    <col min="15104" max="15104" width="0.75" style="24" customWidth="1"/>
+    <col min="15105" max="15136" width="2.125" style="24"/>
+    <col min="15137" max="15137" width="0.25" style="24" customWidth="1"/>
+    <col min="15138" max="15359" width="2.125" style="24"/>
+    <col min="15360" max="15360" width="0.75" style="24" customWidth="1"/>
+    <col min="15361" max="15392" width="2.125" style="24"/>
+    <col min="15393" max="15393" width="0.25" style="24" customWidth="1"/>
+    <col min="15394" max="15615" width="2.125" style="24"/>
+    <col min="15616" max="15616" width="0.75" style="24" customWidth="1"/>
+    <col min="15617" max="15648" width="2.125" style="24"/>
+    <col min="15649" max="15649" width="0.25" style="24" customWidth="1"/>
+    <col min="15650" max="15871" width="2.125" style="24"/>
+    <col min="15872" max="15872" width="0.75" style="24" customWidth="1"/>
+    <col min="15873" max="15904" width="2.125" style="24"/>
+    <col min="15905" max="15905" width="0.25" style="24" customWidth="1"/>
+    <col min="15906" max="16127" width="2.125" style="24"/>
+    <col min="16128" max="16128" width="0.75" style="24" customWidth="1"/>
+    <col min="16129" max="16160" width="2.125" style="24"/>
+    <col min="16161" max="16161" width="0.25" style="24" customWidth="1"/>
+    <col min="16162" max="16384" width="2.125" style="24"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" ht="12">
@@ -7058,8 +8316,7 @@
       <c r="BI1" s="21"/>
       <c r="BJ1" s="21"/>
       <c r="BK1" s="21"/>
-      <c r="BL1" s="21"/>
-      <c r="BM1" s="31"/>
+      <c r="BL1" s="31"/>
     </row>
     <row r="2" customHeight="1" ht="12">
       <c r="A2" s="116" t="s">
@@ -7090,12 +8347,13 @@
       <c r="X2" s="117"/>
       <c r="Y2" s="117"/>
       <c r="Z2" s="117"/>
+      <c r="AP2" s="25"/>
       <c r="AQ2" s="25"/>
       <c r="AR2" s="25"/>
       <c r="AS2" s="25"/>
       <c r="AT2" s="25"/>
       <c r="AU2" s="25"/>
-      <c r="AV2" s="25"/>
+      <c r="AV2" s="26"/>
       <c r="AW2" s="26"/>
       <c r="AX2" s="26"/>
       <c r="AY2" s="26"/>
@@ -7111,8 +8369,7 @@
       <c r="BI2" s="26"/>
       <c r="BJ2" s="26"/>
       <c r="BK2" s="26"/>
-      <c r="BL2" s="26"/>
-      <c r="BM2" s="31"/>
+      <c r="BL2" s="31"/>
     </row>
     <row r="3" customHeight="1" ht="15">
       <c r="A3" s="116"/>
@@ -7141,6 +8398,7 @@
       <c r="X3" s="117"/>
       <c r="Y3" s="117"/>
       <c r="Z3" s="117"/>
+      <c r="AP3" s="25"/>
       <c r="AQ3" s="25"/>
       <c r="AR3" s="25"/>
       <c r="AS3" s="25"/>
@@ -7162,8 +8420,7 @@
       <c r="BI3" s="25"/>
       <c r="BJ3" s="25"/>
       <c r="BK3" s="25"/>
-      <c r="BL3" s="25"/>
-      <c r="BM3" s="32"/>
+      <c r="BL3" s="32"/>
     </row>
     <row r="4" customHeight="1" ht="12">
       <c r="A4" s="189" t="s">
@@ -7193,7 +8450,7 @@
       <c r="S4" s="196"/>
       <c r="T4" s="197"/>
       <c r="U4" s="198" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="V4" s="199"/>
       <c r="W4" s="199"/>
@@ -7220,33 +8477,32 @@
       <c r="AR4" s="199"/>
       <c r="AS4" s="199"/>
       <c r="AT4" s="199"/>
-      <c r="AU4" s="199"/>
-      <c r="AV4" s="200"/>
-      <c r="AW4" s="201" t="s">
+      <c r="AU4" s="200"/>
+      <c r="AV4" s="201" t="s">
         <v>13</v>
       </c>
-      <c r="AX4" s="202"/>
-      <c r="AY4" s="203"/>
-      <c r="AZ4" s="204" t="s">
-        <v>134</v>
-      </c>
+      <c r="AW4" s="202"/>
+      <c r="AX4" s="203"/>
+      <c r="AY4" s="204">
+        <v>45069</v>
+      </c>
+      <c r="AZ4" s="205"/>
       <c r="BA4" s="205"/>
       <c r="BB4" s="205"/>
       <c r="BC4" s="205"/>
       <c r="BD4" s="205"/>
-      <c r="BE4" s="205"/>
-      <c r="BF4" s="201" t="s">
+      <c r="BE4" s="201" t="s">
         <v>15</v>
       </c>
-      <c r="BG4" s="202"/>
-      <c r="BH4" s="203"/>
-      <c r="BI4" s="204" t="s">
+      <c r="BF4" s="202"/>
+      <c r="BG4" s="203"/>
+      <c r="BH4" s="204" t="s">
         <v>125</v>
       </c>
+      <c r="BI4" s="205"/>
       <c r="BJ4" s="205"/>
       <c r="BK4" s="205"/>
-      <c r="BL4" s="205"/>
-      <c r="BM4" s="33"/>
+      <c r="BL4" s="33"/>
     </row>
     <row r="5" customHeight="1" ht="12">
       <c r="A5" s="206" t="s">
@@ -7301,29 +8557,28 @@
       <c r="AR5" s="212"/>
       <c r="AS5" s="212"/>
       <c r="AT5" s="212"/>
-      <c r="AU5" s="212"/>
-      <c r="AV5" s="213"/>
-      <c r="AW5" s="214" t="s">
+      <c r="AU5" s="213"/>
+      <c r="AV5" s="214" t="s">
         <v>19</v>
       </c>
-      <c r="AX5" s="215"/>
-      <c r="AY5" s="216"/>
+      <c r="AW5" s="215"/>
+      <c r="AX5" s="216"/>
+      <c r="AY5" s="215"/>
       <c r="AZ5" s="215"/>
       <c r="BA5" s="215"/>
       <c r="BB5" s="215"/>
       <c r="BC5" s="215"/>
       <c r="BD5" s="215"/>
-      <c r="BE5" s="215"/>
-      <c r="BF5" s="214" t="s">
+      <c r="BE5" s="214" t="s">
         <v>20</v>
       </c>
-      <c r="BG5" s="215"/>
-      <c r="BH5" s="216"/>
-      <c r="BI5" s="215"/>
+      <c r="BF5" s="215"/>
+      <c r="BG5" s="216"/>
+      <c r="BH5" s="215"/>
+      <c r="BI5" s="212"/>
       <c r="BJ5" s="212"/>
       <c r="BK5" s="212"/>
-      <c r="BL5" s="212"/>
-      <c r="BM5" s="34"/>
+      <c r="BL5" s="34"/>
     </row>
     <row r="6" customHeight="1" ht="12">
       <c r="A6" s="35"/>
@@ -7365,10 +8620,10 @@
       <c r="AK6" s="36"/>
       <c r="AL6" s="36"/>
       <c r="AM6" s="36"/>
-      <c r="AN6" s="36"/>
-      <c r="AO6" s="217"/>
+      <c r="AN6" s="217"/>
+      <c r="AO6" s="218"/>
       <c r="AP6" s="218"/>
-      <c r="AQ6" s="218"/>
+      <c r="AQ6" s="217"/>
       <c r="AR6" s="217"/>
       <c r="AS6" s="217"/>
       <c r="AT6" s="217"/>
@@ -7381,7 +8636,7 @@
       <c r="BA6" s="217"/>
       <c r="BB6" s="217"/>
       <c r="BC6" s="217"/>
-      <c r="BD6" s="217"/>
+      <c r="BD6" s="218"/>
       <c r="BE6" s="218"/>
       <c r="BF6" s="218"/>
       <c r="BG6" s="218"/>
@@ -7389,899 +8644,1100 @@
       <c r="BI6" s="218"/>
       <c r="BJ6" s="218"/>
       <c r="BK6" s="218"/>
-      <c r="BL6" s="218"/>
-      <c r="BM6" s="31"/>
     </row>
     <row r="7" customHeight="1" ht="12">
       <c r="A7" s="37"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="38"/>
-      <c r="T7" s="38"/>
-      <c r="U7" s="38"/>
-      <c r="V7" s="38"/>
-      <c r="W7" s="38"/>
-      <c r="X7" s="38"/>
-      <c r="Y7" s="38"/>
-      <c r="Z7" s="38"/>
-      <c r="AA7" s="38"/>
-      <c r="AB7" s="38"/>
-      <c r="AC7" s="38"/>
-      <c r="AD7" s="38"/>
-      <c r="AE7" s="39"/>
-      <c r="AF7" s="38"/>
-      <c r="AG7" s="38"/>
-      <c r="AH7" s="40"/>
-      <c r="AI7" s="40"/>
-      <c r="AJ7" s="40"/>
-      <c r="AK7" s="40"/>
-      <c r="AL7" s="38"/>
-      <c r="AM7" s="38"/>
-      <c r="AN7" s="38"/>
-      <c r="AO7" s="38"/>
-      <c r="AP7" s="38"/>
-      <c r="AQ7" s="38"/>
-      <c r="AR7" s="38"/>
-      <c r="AS7" s="38"/>
-      <c r="AT7" s="38"/>
-      <c r="AU7" s="38"/>
-      <c r="AV7" s="38"/>
-      <c r="AW7" s="38"/>
-      <c r="AX7" s="38"/>
-      <c r="AY7" s="38"/>
-      <c r="AZ7" s="38"/>
-      <c r="BA7" s="36"/>
-      <c r="BB7" s="36"/>
-      <c r="BC7" s="36"/>
-      <c r="BD7" s="36"/>
-      <c r="BE7" s="36"/>
-      <c r="BF7" s="36"/>
-      <c r="BG7" s="36"/>
-      <c r="BH7" s="36"/>
-      <c r="BI7" s="36"/>
-      <c r="BJ7" s="36"/>
-      <c r="BK7" s="36"/>
-      <c r="BL7" s="36"/>
-      <c r="BM7" s="31"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="366" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="367"/>
+      <c r="F7" s="367"/>
+      <c r="G7" s="367"/>
+      <c r="H7" s="367"/>
+      <c r="I7" s="367"/>
+      <c r="J7" s="367"/>
+      <c r="K7" s="367"/>
+      <c r="L7" s="367"/>
+      <c r="M7" s="367"/>
+      <c r="N7" s="367"/>
+      <c r="O7" s="367"/>
+      <c r="P7" s="367"/>
+      <c r="Q7" s="367"/>
+      <c r="R7" s="367"/>
+      <c r="S7" s="367"/>
+      <c r="T7" s="367"/>
+      <c r="U7" s="367"/>
+      <c r="V7" s="367"/>
+      <c r="W7" s="367"/>
+      <c r="X7" s="367"/>
+      <c r="Y7" s="367"/>
+      <c r="Z7" s="367"/>
+      <c r="AA7" s="367"/>
+      <c r="AB7" s="367"/>
+      <c r="AC7" s="367"/>
+      <c r="AD7" s="367"/>
+      <c r="AE7" s="367"/>
+      <c r="AF7" s="367"/>
+      <c r="AG7" s="367"/>
+      <c r="AH7" s="367"/>
+      <c r="AI7" s="367"/>
+      <c r="AJ7" s="367"/>
+      <c r="AK7" s="367"/>
+      <c r="AL7" s="367"/>
+      <c r="AM7" s="367"/>
+      <c r="AN7" s="367"/>
+      <c r="AO7" s="367"/>
+      <c r="AP7" s="367"/>
+      <c r="AQ7" s="367"/>
+      <c r="AR7" s="367"/>
+      <c r="AS7" s="367"/>
+      <c r="AT7" s="367"/>
+      <c r="AU7" s="367"/>
+      <c r="AV7" s="367"/>
+      <c r="AW7" s="367"/>
+      <c r="AX7" s="367"/>
+      <c r="AY7" s="367"/>
+      <c r="AZ7" s="367"/>
+      <c r="BA7" s="367"/>
+      <c r="BB7" s="367"/>
+      <c r="BC7" s="367"/>
+      <c r="BD7" s="367"/>
+      <c r="BE7" s="367"/>
+      <c r="BF7" s="367"/>
+      <c r="BG7" s="367"/>
+      <c r="BH7" s="367"/>
+      <c r="BI7" s="367"/>
+      <c r="BJ7" s="367"/>
+      <c r="BK7" s="368"/>
     </row>
     <row r="8" customHeight="1" ht="12">
       <c r="A8" s="37"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="219"/>
-      <c r="D8" s="220"/>
-      <c r="E8" s="220"/>
-      <c r="F8" s="220"/>
-      <c r="G8" s="220"/>
-      <c r="H8" s="220"/>
-      <c r="I8" s="220"/>
-      <c r="J8" s="220"/>
-      <c r="K8" s="220"/>
-      <c r="L8" s="220"/>
-      <c r="M8" s="220"/>
-      <c r="N8" s="220"/>
-      <c r="O8" s="220"/>
-      <c r="P8" s="220"/>
-      <c r="Q8" s="220"/>
-      <c r="R8" s="220"/>
-      <c r="S8" s="220"/>
-      <c r="T8" s="220"/>
-      <c r="U8" s="220"/>
-      <c r="V8" s="220"/>
-      <c r="W8" s="220"/>
-      <c r="X8" s="220"/>
-      <c r="Y8" s="220"/>
-      <c r="Z8" s="220"/>
-      <c r="AA8" s="220"/>
-      <c r="AB8" s="220"/>
-      <c r="AC8" s="220"/>
-      <c r="AD8" s="220"/>
-      <c r="AE8" s="220"/>
-      <c r="AF8" s="220"/>
-      <c r="AG8" s="220"/>
-      <c r="AH8" s="220"/>
-      <c r="AI8" s="220"/>
-      <c r="AJ8" s="220"/>
-      <c r="AK8" s="220"/>
-      <c r="AL8" s="220"/>
-      <c r="AM8" s="220"/>
-      <c r="AN8" s="220"/>
-      <c r="AO8" s="220"/>
-      <c r="AP8" s="220"/>
-      <c r="AQ8" s="220"/>
-      <c r="AR8" s="220"/>
-      <c r="AS8" s="220"/>
-      <c r="AT8" s="220"/>
-      <c r="AU8" s="220"/>
-      <c r="AV8" s="220"/>
-      <c r="AW8" s="220"/>
-      <c r="AX8" s="220"/>
-      <c r="AY8" s="220"/>
-      <c r="AZ8" s="220"/>
-      <c r="BA8" s="220"/>
-      <c r="BB8" s="220"/>
-      <c r="BC8" s="220"/>
-      <c r="BD8" s="220"/>
-      <c r="BE8" s="220"/>
-      <c r="BF8" s="220"/>
-      <c r="BG8" s="220"/>
-      <c r="BH8" s="220"/>
-      <c r="BI8" s="220"/>
-      <c r="BJ8" s="220"/>
-      <c r="BK8" s="220"/>
-      <c r="BL8" s="42"/>
-      <c r="BM8" s="31"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="369"/>
+      <c r="E8" s="370"/>
+      <c r="F8" s="370"/>
+      <c r="G8" s="370"/>
+      <c r="H8" s="370"/>
+      <c r="I8" s="370"/>
+      <c r="J8" s="370"/>
+      <c r="K8" s="370"/>
+      <c r="L8" s="370"/>
+      <c r="M8" s="370"/>
+      <c r="N8" s="370"/>
+      <c r="O8" s="370"/>
+      <c r="P8" s="370"/>
+      <c r="Q8" s="370"/>
+      <c r="R8" s="370"/>
+      <c r="S8" s="370"/>
+      <c r="T8" s="370"/>
+      <c r="U8" s="370"/>
+      <c r="V8" s="370"/>
+      <c r="W8" s="370"/>
+      <c r="X8" s="370"/>
+      <c r="Y8" s="370"/>
+      <c r="Z8" s="370"/>
+      <c r="AA8" s="370"/>
+      <c r="AB8" s="370"/>
+      <c r="AC8" s="370"/>
+      <c r="AD8" s="370"/>
+      <c r="AE8" s="370"/>
+      <c r="AF8" s="370"/>
+      <c r="AG8" s="370"/>
+      <c r="AH8" s="370"/>
+      <c r="AI8" s="370"/>
+      <c r="AJ8" s="370"/>
+      <c r="AK8" s="370"/>
+      <c r="AL8" s="370"/>
+      <c r="AM8" s="370"/>
+      <c r="AN8" s="370"/>
+      <c r="AO8" s="370"/>
+      <c r="AP8" s="370"/>
+      <c r="AQ8" s="370"/>
+      <c r="AR8" s="370"/>
+      <c r="AS8" s="370"/>
+      <c r="AT8" s="370"/>
+      <c r="AU8" s="370"/>
+      <c r="AV8" s="370"/>
+      <c r="AW8" s="370"/>
+      <c r="AX8" s="370"/>
+      <c r="AY8" s="370"/>
+      <c r="AZ8" s="370"/>
+      <c r="BA8" s="370"/>
+      <c r="BB8" s="370"/>
+      <c r="BC8" s="370"/>
+      <c r="BD8" s="370"/>
+      <c r="BE8" s="370"/>
+      <c r="BF8" s="370"/>
+      <c r="BG8" s="370"/>
+      <c r="BH8" s="370"/>
+      <c r="BI8" s="370"/>
+      <c r="BJ8" s="370"/>
+      <c r="BK8" s="371"/>
     </row>
     <row r="9" customHeight="1" ht="12">
       <c r="A9" s="37"/>
       <c r="B9" s="43"/>
-      <c r="C9" s="220"/>
-      <c r="D9" s="220"/>
-      <c r="E9" s="220"/>
-      <c r="F9" s="220"/>
-      <c r="G9" s="220"/>
-      <c r="H9" s="220"/>
-      <c r="I9" s="220"/>
-      <c r="J9" s="220"/>
-      <c r="K9" s="220"/>
-      <c r="L9" s="220"/>
-      <c r="M9" s="220"/>
-      <c r="N9" s="220"/>
-      <c r="O9" s="220"/>
-      <c r="P9" s="220"/>
-      <c r="Q9" s="220"/>
-      <c r="R9" s="220"/>
-      <c r="S9" s="220"/>
-      <c r="T9" s="220"/>
-      <c r="U9" s="220"/>
-      <c r="V9" s="220"/>
-      <c r="W9" s="220"/>
-      <c r="X9" s="220"/>
-      <c r="Y9" s="220"/>
-      <c r="Z9" s="220"/>
-      <c r="AA9" s="220"/>
-      <c r="AB9" s="220"/>
-      <c r="AC9" s="220"/>
-      <c r="AD9" s="220"/>
-      <c r="AE9" s="220"/>
-      <c r="AF9" s="220"/>
-      <c r="AG9" s="220"/>
-      <c r="AH9" s="220"/>
-      <c r="AI9" s="220"/>
-      <c r="AJ9" s="220"/>
-      <c r="AK9" s="220"/>
-      <c r="AL9" s="220"/>
-      <c r="AM9" s="220"/>
-      <c r="AN9" s="220"/>
-      <c r="AO9" s="220"/>
-      <c r="AP9" s="220"/>
-      <c r="AQ9" s="220"/>
-      <c r="AR9" s="220"/>
-      <c r="AS9" s="220"/>
-      <c r="AT9" s="220"/>
-      <c r="AU9" s="220"/>
-      <c r="AV9" s="220"/>
-      <c r="AW9" s="220"/>
-      <c r="AX9" s="220"/>
-      <c r="AY9" s="220"/>
-      <c r="AZ9" s="220"/>
-      <c r="BA9" s="220"/>
-      <c r="BB9" s="220"/>
-      <c r="BC9" s="220"/>
-      <c r="BD9" s="220"/>
-      <c r="BE9" s="220"/>
-      <c r="BF9" s="220"/>
-      <c r="BG9" s="220"/>
-      <c r="BH9" s="220"/>
-      <c r="BI9" s="220"/>
-      <c r="BJ9" s="220"/>
-      <c r="BK9" s="220"/>
-      <c r="BL9" s="42"/>
-      <c r="BM9" s="31"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="369" t="s">
+        <v>196</v>
+      </c>
+      <c r="E9" s="370"/>
+      <c r="F9" s="370"/>
+      <c r="G9" s="370"/>
+      <c r="H9" s="370"/>
+      <c r="I9" s="370"/>
+      <c r="J9" s="370"/>
+      <c r="K9" s="370"/>
+      <c r="L9" s="370"/>
+      <c r="M9" s="370"/>
+      <c r="N9" s="370"/>
+      <c r="O9" s="370"/>
+      <c r="P9" s="370"/>
+      <c r="Q9" s="370"/>
+      <c r="R9" s="370"/>
+      <c r="S9" s="370"/>
+      <c r="T9" s="370"/>
+      <c r="U9" s="370"/>
+      <c r="V9" s="370"/>
+      <c r="W9" s="370"/>
+      <c r="X9" s="370"/>
+      <c r="Y9" s="370"/>
+      <c r="Z9" s="370"/>
+      <c r="AA9" s="370"/>
+      <c r="AB9" s="370"/>
+      <c r="AC9" s="370"/>
+      <c r="AD9" s="370"/>
+      <c r="AE9" s="370"/>
+      <c r="AF9" s="370"/>
+      <c r="AG9" s="370"/>
+      <c r="AH9" s="370"/>
+      <c r="AI9" s="370"/>
+      <c r="AJ9" s="370"/>
+      <c r="AK9" s="370"/>
+      <c r="AL9" s="370"/>
+      <c r="AM9" s="370"/>
+      <c r="AN9" s="370"/>
+      <c r="AO9" s="370"/>
+      <c r="AP9" s="370"/>
+      <c r="AQ9" s="370"/>
+      <c r="AR9" s="370"/>
+      <c r="AS9" s="370"/>
+      <c r="AT9" s="370"/>
+      <c r="AU9" s="370"/>
+      <c r="AV9" s="370"/>
+      <c r="AW9" s="370"/>
+      <c r="AX9" s="370"/>
+      <c r="AY9" s="370"/>
+      <c r="AZ9" s="370"/>
+      <c r="BA9" s="370"/>
+      <c r="BB9" s="370"/>
+      <c r="BC9" s="370"/>
+      <c r="BD9" s="370"/>
+      <c r="BE9" s="370"/>
+      <c r="BF9" s="370"/>
+      <c r="BG9" s="370"/>
+      <c r="BH9" s="370"/>
+      <c r="BI9" s="370"/>
+      <c r="BJ9" s="370"/>
+      <c r="BK9" s="371"/>
     </row>
     <row r="10" customHeight="1" ht="12">
       <c r="A10" s="37"/>
       <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="43"/>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="43"/>
-      <c r="R10" s="43"/>
-      <c r="S10" s="43"/>
-      <c r="T10" s="43"/>
-      <c r="U10" s="43"/>
-      <c r="V10" s="43"/>
-      <c r="W10" s="43"/>
-      <c r="X10" s="43"/>
-      <c r="Y10" s="43"/>
-      <c r="Z10" s="43"/>
-      <c r="AA10" s="43"/>
-      <c r="AB10" s="43"/>
-      <c r="AC10" s="43"/>
-      <c r="AD10" s="43"/>
-      <c r="AE10" s="43"/>
-      <c r="AF10" s="43"/>
-      <c r="AG10" s="43"/>
-      <c r="AH10" s="42"/>
-      <c r="AI10" s="42"/>
-      <c r="AJ10" s="42"/>
-      <c r="AK10" s="42"/>
-      <c r="AL10" s="42"/>
-      <c r="AM10" s="42"/>
-      <c r="AN10" s="42"/>
-      <c r="AO10" s="42"/>
-      <c r="AP10" s="42"/>
-      <c r="AQ10" s="42"/>
-      <c r="AR10" s="42"/>
-      <c r="AS10" s="42"/>
-      <c r="AT10" s="42"/>
-      <c r="AU10" s="42"/>
-      <c r="AV10" s="42"/>
-      <c r="AW10" s="42"/>
-      <c r="AX10" s="42"/>
-      <c r="AY10" s="42"/>
-      <c r="AZ10" s="42"/>
-      <c r="BA10" s="42"/>
-      <c r="BB10" s="42"/>
-      <c r="BC10" s="42"/>
-      <c r="BD10" s="42"/>
-      <c r="BE10" s="42"/>
-      <c r="BF10" s="42"/>
-      <c r="BG10" s="42"/>
-      <c r="BH10" s="42"/>
-      <c r="BI10" s="42"/>
-      <c r="BJ10" s="42"/>
-      <c r="BK10" s="42"/>
-      <c r="BL10" s="42"/>
-      <c r="BM10" s="31"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="369"/>
+      <c r="E10" s="370"/>
+      <c r="F10" s="370"/>
+      <c r="G10" s="370"/>
+      <c r="H10" s="370"/>
+      <c r="I10" s="370"/>
+      <c r="J10" s="370"/>
+      <c r="K10" s="370"/>
+      <c r="L10" s="370"/>
+      <c r="M10" s="370"/>
+      <c r="N10" s="370"/>
+      <c r="O10" s="370"/>
+      <c r="P10" s="370"/>
+      <c r="Q10" s="370"/>
+      <c r="R10" s="370"/>
+      <c r="S10" s="370"/>
+      <c r="T10" s="370"/>
+      <c r="U10" s="370"/>
+      <c r="V10" s="370"/>
+      <c r="W10" s="370"/>
+      <c r="X10" s="370"/>
+      <c r="Y10" s="370"/>
+      <c r="Z10" s="370"/>
+      <c r="AA10" s="370"/>
+      <c r="AB10" s="370"/>
+      <c r="AC10" s="370"/>
+      <c r="AD10" s="370"/>
+      <c r="AE10" s="370"/>
+      <c r="AF10" s="370"/>
+      <c r="AG10" s="370"/>
+      <c r="AH10" s="370"/>
+      <c r="AI10" s="370"/>
+      <c r="AJ10" s="370"/>
+      <c r="AK10" s="370"/>
+      <c r="AL10" s="370"/>
+      <c r="AM10" s="370"/>
+      <c r="AN10" s="370"/>
+      <c r="AO10" s="370"/>
+      <c r="AP10" s="370"/>
+      <c r="AQ10" s="370"/>
+      <c r="AR10" s="370"/>
+      <c r="AS10" s="370"/>
+      <c r="AT10" s="370"/>
+      <c r="AU10" s="370"/>
+      <c r="AV10" s="370"/>
+      <c r="AW10" s="370"/>
+      <c r="AX10" s="370"/>
+      <c r="AY10" s="370"/>
+      <c r="AZ10" s="370"/>
+      <c r="BA10" s="370"/>
+      <c r="BB10" s="370"/>
+      <c r="BC10" s="370"/>
+      <c r="BD10" s="370"/>
+      <c r="BE10" s="370"/>
+      <c r="BF10" s="370"/>
+      <c r="BG10" s="370"/>
+      <c r="BH10" s="370"/>
+      <c r="BI10" s="370"/>
+      <c r="BJ10" s="370"/>
+      <c r="BK10" s="371"/>
     </row>
     <row r="11" customHeight="1" ht="12">
       <c r="A11" s="37"/>
       <c r="B11" s="43"/>
-      <c r="C11" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="41"/>
-      <c r="R11" s="41"/>
-      <c r="S11" s="41"/>
-      <c r="T11" s="41"/>
-      <c r="U11" s="41"/>
-      <c r="V11" s="41"/>
-      <c r="W11" s="41"/>
-      <c r="X11" s="41"/>
-      <c r="Y11" s="41"/>
-      <c r="Z11" s="41"/>
-      <c r="AA11" s="41"/>
-      <c r="AB11" s="41"/>
-      <c r="AC11" s="41"/>
-      <c r="AD11" s="41"/>
-      <c r="AE11" s="41"/>
-      <c r="AF11" s="41"/>
-      <c r="AG11" s="41"/>
-      <c r="AH11" s="41"/>
-      <c r="AI11" s="41"/>
-      <c r="AJ11" s="41"/>
-      <c r="AK11" s="41"/>
-      <c r="AL11" s="41"/>
-      <c r="AM11" s="41"/>
-      <c r="AN11" s="41"/>
-      <c r="AO11" s="41"/>
-      <c r="AP11" s="41"/>
-      <c r="AQ11" s="41"/>
-      <c r="AR11" s="41"/>
-      <c r="AS11" s="41"/>
-      <c r="AT11" s="41"/>
-      <c r="AU11" s="41"/>
-      <c r="AV11" s="41"/>
-      <c r="AW11" s="41"/>
-      <c r="AX11" s="41"/>
-      <c r="AY11" s="41"/>
-      <c r="AZ11" s="41"/>
-      <c r="BA11" s="41"/>
-      <c r="BB11" s="41"/>
-      <c r="BC11" s="41"/>
-      <c r="BD11" s="41"/>
-      <c r="BE11" s="41"/>
-      <c r="BF11" s="41"/>
-      <c r="BG11" s="41"/>
-      <c r="BH11" s="41"/>
-      <c r="BI11" s="41"/>
-      <c r="BJ11" s="41"/>
-      <c r="BK11" s="41"/>
-      <c r="BL11" s="41"/>
-      <c r="BM11" s="31"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="369"/>
+      <c r="E11" s="370"/>
+      <c r="F11" s="370"/>
+      <c r="G11" s="370"/>
+      <c r="H11" s="370"/>
+      <c r="I11" s="370"/>
+      <c r="J11" s="370"/>
+      <c r="K11" s="370"/>
+      <c r="L11" s="370"/>
+      <c r="M11" s="370"/>
+      <c r="N11" s="370"/>
+      <c r="O11" s="370"/>
+      <c r="P11" s="370"/>
+      <c r="Q11" s="370"/>
+      <c r="R11" s="370"/>
+      <c r="S11" s="370"/>
+      <c r="T11" s="370"/>
+      <c r="U11" s="370"/>
+      <c r="V11" s="370"/>
+      <c r="W11" s="370"/>
+      <c r="X11" s="370"/>
+      <c r="Y11" s="370"/>
+      <c r="Z11" s="370"/>
+      <c r="AA11" s="370"/>
+      <c r="AB11" s="370"/>
+      <c r="AC11" s="370"/>
+      <c r="AD11" s="370"/>
+      <c r="AE11" s="370"/>
+      <c r="AF11" s="370"/>
+      <c r="AG11" s="370"/>
+      <c r="AH11" s="370"/>
+      <c r="AI11" s="370"/>
+      <c r="AJ11" s="370"/>
+      <c r="AK11" s="370"/>
+      <c r="AL11" s="370"/>
+      <c r="AM11" s="370"/>
+      <c r="AN11" s="370"/>
+      <c r="AO11" s="370"/>
+      <c r="AP11" s="370"/>
+      <c r="AQ11" s="370"/>
+      <c r="AR11" s="370"/>
+      <c r="AS11" s="370"/>
+      <c r="AT11" s="370"/>
+      <c r="AU11" s="370"/>
+      <c r="AV11" s="370"/>
+      <c r="AW11" s="370"/>
+      <c r="AX11" s="370"/>
+      <c r="AY11" s="370"/>
+      <c r="AZ11" s="370"/>
+      <c r="BA11" s="370"/>
+      <c r="BB11" s="370"/>
+      <c r="BC11" s="370"/>
+      <c r="BD11" s="370"/>
+      <c r="BE11" s="370"/>
+      <c r="BF11" s="370"/>
+      <c r="BG11" s="370"/>
+      <c r="BH11" s="370"/>
+      <c r="BI11" s="370"/>
+      <c r="BJ11" s="370"/>
+      <c r="BK11" s="371"/>
     </row>
     <row r="12" customHeight="1" ht="12">
       <c r="A12" s="37"/>
       <c r="B12" s="43"/>
       <c r="C12" s="41"/>
-      <c r="D12" s="221" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="222"/>
-      <c r="F12" s="222"/>
-      <c r="G12" s="222"/>
-      <c r="H12" s="222"/>
-      <c r="I12" s="222"/>
-      <c r="J12" s="222"/>
-      <c r="K12" s="222"/>
-      <c r="L12" s="222"/>
-      <c r="M12" s="222"/>
-      <c r="N12" s="222"/>
-      <c r="O12" s="222"/>
-      <c r="P12" s="222"/>
-      <c r="Q12" s="222"/>
-      <c r="R12" s="222"/>
-      <c r="S12" s="222"/>
-      <c r="T12" s="222"/>
-      <c r="U12" s="222"/>
-      <c r="V12" s="222"/>
-      <c r="W12" s="222"/>
-      <c r="X12" s="222"/>
-      <c r="Y12" s="222"/>
-      <c r="Z12" s="222"/>
-      <c r="AA12" s="222"/>
-      <c r="AB12" s="222"/>
-      <c r="AC12" s="222"/>
-      <c r="AD12" s="222"/>
-      <c r="AE12" s="222"/>
-      <c r="AF12" s="222"/>
-      <c r="AG12" s="222"/>
-      <c r="AH12" s="222"/>
-      <c r="AI12" s="222"/>
-      <c r="AJ12" s="222"/>
-      <c r="AK12" s="222"/>
-      <c r="AL12" s="222"/>
-      <c r="AM12" s="222"/>
-      <c r="AN12" s="222"/>
-      <c r="AO12" s="222"/>
-      <c r="AP12" s="222"/>
-      <c r="AQ12" s="222"/>
-      <c r="AR12" s="222"/>
-      <c r="AS12" s="222"/>
-      <c r="AT12" s="222"/>
-      <c r="AU12" s="222"/>
-      <c r="AV12" s="222"/>
-      <c r="AW12" s="222"/>
-      <c r="AX12" s="222"/>
-      <c r="AY12" s="222"/>
-      <c r="AZ12" s="222"/>
-      <c r="BA12" s="222"/>
-      <c r="BB12" s="222"/>
-      <c r="BC12" s="222"/>
-      <c r="BD12" s="222"/>
-      <c r="BE12" s="222"/>
-      <c r="BF12" s="222"/>
-      <c r="BG12" s="222"/>
-      <c r="BH12" s="222"/>
-      <c r="BI12" s="222"/>
-      <c r="BJ12" s="222"/>
-      <c r="BK12" s="222"/>
-      <c r="BL12" s="223"/>
-      <c r="BM12" s="31"/>
+      <c r="D12" s="369"/>
+      <c r="E12" s="370"/>
+      <c r="F12" s="370"/>
+      <c r="G12" s="370"/>
+      <c r="H12" s="370"/>
+      <c r="I12" s="370"/>
+      <c r="J12" s="370"/>
+      <c r="K12" s="370"/>
+      <c r="L12" s="370"/>
+      <c r="M12" s="370"/>
+      <c r="N12" s="370"/>
+      <c r="O12" s="370"/>
+      <c r="P12" s="370"/>
+      <c r="Q12" s="370"/>
+      <c r="R12" s="370"/>
+      <c r="S12" s="370"/>
+      <c r="T12" s="370"/>
+      <c r="U12" s="370"/>
+      <c r="V12" s="370"/>
+      <c r="W12" s="370"/>
+      <c r="X12" s="370"/>
+      <c r="Y12" s="370"/>
+      <c r="Z12" s="370"/>
+      <c r="AA12" s="370"/>
+      <c r="AB12" s="370"/>
+      <c r="AC12" s="370"/>
+      <c r="AD12" s="370"/>
+      <c r="AE12" s="370"/>
+      <c r="AF12" s="370"/>
+      <c r="AG12" s="370"/>
+      <c r="AH12" s="370"/>
+      <c r="AI12" s="370"/>
+      <c r="AJ12" s="370"/>
+      <c r="AK12" s="370"/>
+      <c r="AL12" s="370"/>
+      <c r="AM12" s="370"/>
+      <c r="AN12" s="370"/>
+      <c r="AO12" s="370"/>
+      <c r="AP12" s="370"/>
+      <c r="AQ12" s="370"/>
+      <c r="AR12" s="370"/>
+      <c r="AS12" s="370"/>
+      <c r="AT12" s="370"/>
+      <c r="AU12" s="370"/>
+      <c r="AV12" s="370"/>
+      <c r="AW12" s="370"/>
+      <c r="AX12" s="370"/>
+      <c r="AY12" s="370"/>
+      <c r="AZ12" s="370"/>
+      <c r="BA12" s="370"/>
+      <c r="BB12" s="370"/>
+      <c r="BC12" s="370"/>
+      <c r="BD12" s="370"/>
+      <c r="BE12" s="370"/>
+      <c r="BF12" s="370"/>
+      <c r="BG12" s="370"/>
+      <c r="BH12" s="370"/>
+      <c r="BI12" s="370"/>
+      <c r="BJ12" s="370"/>
+      <c r="BK12" s="371"/>
     </row>
     <row r="13" customHeight="1" ht="12">
       <c r="A13" s="37"/>
       <c r="B13" s="43"/>
       <c r="C13" s="41"/>
-      <c r="D13" s="224"/>
-      <c r="E13" s="219"/>
-      <c r="F13" s="219"/>
-      <c r="G13" s="219"/>
-      <c r="H13" s="219"/>
-      <c r="I13" s="219"/>
-      <c r="J13" s="219"/>
-      <c r="K13" s="219"/>
-      <c r="L13" s="219"/>
-      <c r="M13" s="219"/>
-      <c r="N13" s="219"/>
-      <c r="O13" s="219"/>
-      <c r="P13" s="219"/>
-      <c r="Q13" s="219"/>
-      <c r="R13" s="219"/>
-      <c r="S13" s="219"/>
-      <c r="T13" s="219"/>
-      <c r="U13" s="219"/>
-      <c r="V13" s="219"/>
-      <c r="W13" s="219"/>
-      <c r="X13" s="219"/>
-      <c r="Y13" s="219"/>
-      <c r="Z13" s="219"/>
-      <c r="AA13" s="219"/>
-      <c r="AB13" s="219"/>
-      <c r="AC13" s="219"/>
-      <c r="AD13" s="219"/>
-      <c r="AE13" s="219"/>
-      <c r="AF13" s="219"/>
-      <c r="AG13" s="219"/>
-      <c r="AH13" s="219"/>
-      <c r="AI13" s="219"/>
-      <c r="AJ13" s="219"/>
-      <c r="AK13" s="219"/>
-      <c r="AL13" s="219"/>
-      <c r="AM13" s="219"/>
-      <c r="AN13" s="219"/>
-      <c r="AO13" s="219"/>
-      <c r="AP13" s="219"/>
-      <c r="AQ13" s="219"/>
-      <c r="AR13" s="219"/>
-      <c r="AS13" s="219"/>
-      <c r="AT13" s="219"/>
-      <c r="AU13" s="219"/>
-      <c r="AV13" s="219"/>
-      <c r="AW13" s="219"/>
-      <c r="AX13" s="219"/>
-      <c r="AY13" s="219"/>
-      <c r="AZ13" s="219"/>
-      <c r="BA13" s="219"/>
-      <c r="BB13" s="219"/>
-      <c r="BC13" s="219"/>
-      <c r="BD13" s="219"/>
-      <c r="BE13" s="219"/>
-      <c r="BF13" s="219"/>
-      <c r="BG13" s="219"/>
-      <c r="BH13" s="219"/>
-      <c r="BI13" s="219"/>
-      <c r="BJ13" s="219"/>
-      <c r="BK13" s="219"/>
-      <c r="BL13" s="225"/>
-      <c r="BM13" s="31"/>
+      <c r="D13" s="369"/>
+      <c r="E13" s="370"/>
+      <c r="F13" s="370"/>
+      <c r="G13" s="370"/>
+      <c r="H13" s="370"/>
+      <c r="I13" s="370"/>
+      <c r="J13" s="370"/>
+      <c r="K13" s="370"/>
+      <c r="L13" s="370"/>
+      <c r="M13" s="370"/>
+      <c r="N13" s="370"/>
+      <c r="O13" s="370"/>
+      <c r="P13" s="370"/>
+      <c r="Q13" s="370"/>
+      <c r="R13" s="370"/>
+      <c r="S13" s="370"/>
+      <c r="T13" s="370"/>
+      <c r="U13" s="370"/>
+      <c r="V13" s="370"/>
+      <c r="W13" s="370"/>
+      <c r="X13" s="370"/>
+      <c r="Y13" s="370"/>
+      <c r="Z13" s="370"/>
+      <c r="AA13" s="370"/>
+      <c r="AB13" s="370"/>
+      <c r="AC13" s="370"/>
+      <c r="AD13" s="370"/>
+      <c r="AE13" s="370"/>
+      <c r="AF13" s="370"/>
+      <c r="AG13" s="370"/>
+      <c r="AH13" s="370"/>
+      <c r="AI13" s="370"/>
+      <c r="AJ13" s="370"/>
+      <c r="AK13" s="370"/>
+      <c r="AL13" s="370"/>
+      <c r="AM13" s="370"/>
+      <c r="AN13" s="370"/>
+      <c r="AO13" s="370"/>
+      <c r="AP13" s="370"/>
+      <c r="AQ13" s="370"/>
+      <c r="AR13" s="370"/>
+      <c r="AS13" s="370"/>
+      <c r="AT13" s="370"/>
+      <c r="AU13" s="370"/>
+      <c r="AV13" s="370"/>
+      <c r="AW13" s="370"/>
+      <c r="AX13" s="370"/>
+      <c r="AY13" s="370"/>
+      <c r="AZ13" s="370"/>
+      <c r="BA13" s="370"/>
+      <c r="BB13" s="370"/>
+      <c r="BC13" s="370"/>
+      <c r="BD13" s="370"/>
+      <c r="BE13" s="370"/>
+      <c r="BF13" s="370"/>
+      <c r="BG13" s="370"/>
+      <c r="BH13" s="370"/>
+      <c r="BI13" s="370"/>
+      <c r="BJ13" s="370"/>
+      <c r="BK13" s="371"/>
     </row>
     <row r="14" customHeight="1" ht="12">
       <c r="A14" s="37"/>
       <c r="B14" s="43"/>
       <c r="C14" s="41"/>
-      <c r="D14" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="E14" s="219"/>
-      <c r="F14" s="219"/>
-      <c r="G14" s="219"/>
-      <c r="H14" s="219"/>
-      <c r="I14" s="219"/>
-      <c r="J14" s="219"/>
-      <c r="K14" s="219"/>
-      <c r="L14" s="219"/>
-      <c r="M14" s="219"/>
-      <c r="N14" s="219"/>
-      <c r="O14" s="219"/>
-      <c r="P14" s="219"/>
-      <c r="Q14" s="219"/>
-      <c r="R14" s="219"/>
-      <c r="S14" s="219"/>
-      <c r="T14" s="219"/>
-      <c r="U14" s="219"/>
-      <c r="V14" s="219"/>
-      <c r="W14" s="219"/>
-      <c r="X14" s="219"/>
-      <c r="Y14" s="219"/>
-      <c r="Z14" s="219"/>
-      <c r="AA14" s="219"/>
-      <c r="AB14" s="219"/>
-      <c r="AC14" s="219"/>
-      <c r="AD14" s="219"/>
-      <c r="AE14" s="219"/>
-      <c r="AF14" s="219"/>
-      <c r="AG14" s="219"/>
-      <c r="AH14" s="219"/>
-      <c r="AI14" s="219"/>
-      <c r="AJ14" s="219"/>
-      <c r="AK14" s="219"/>
-      <c r="AL14" s="219"/>
-      <c r="AM14" s="219"/>
-      <c r="AN14" s="219"/>
-      <c r="AO14" s="219"/>
-      <c r="AP14" s="219"/>
-      <c r="AQ14" s="219"/>
-      <c r="AR14" s="219"/>
-      <c r="AS14" s="219"/>
-      <c r="AT14" s="219"/>
-      <c r="AU14" s="219"/>
-      <c r="AV14" s="219"/>
-      <c r="AW14" s="219"/>
-      <c r="AX14" s="219"/>
-      <c r="AY14" s="219"/>
-      <c r="AZ14" s="219"/>
-      <c r="BA14" s="219"/>
-      <c r="BB14" s="219"/>
-      <c r="BC14" s="219"/>
-      <c r="BD14" s="219"/>
-      <c r="BE14" s="219"/>
-      <c r="BF14" s="219"/>
-      <c r="BG14" s="219"/>
-      <c r="BH14" s="219"/>
-      <c r="BI14" s="219"/>
-      <c r="BJ14" s="219"/>
-      <c r="BK14" s="219"/>
-      <c r="BL14" s="225"/>
-      <c r="BM14" s="31"/>
-    </row>
-    <row r="15" customHeight="1" ht="12">
+      <c r="D14" s="366" t="s">
+        <v>179</v>
+      </c>
+      <c r="E14" s="367"/>
+      <c r="F14" s="367"/>
+      <c r="G14" s="367"/>
+      <c r="H14" s="367"/>
+      <c r="I14" s="367"/>
+      <c r="J14" s="367"/>
+      <c r="K14" s="367"/>
+      <c r="L14" s="367"/>
+      <c r="M14" s="367"/>
+      <c r="N14" s="367"/>
+      <c r="O14" s="367"/>
+      <c r="P14" s="367"/>
+      <c r="Q14" s="367"/>
+      <c r="R14" s="367"/>
+      <c r="S14" s="367"/>
+      <c r="T14" s="367"/>
+      <c r="U14" s="367"/>
+      <c r="V14" s="367"/>
+      <c r="W14" s="367"/>
+      <c r="X14" s="367"/>
+      <c r="Y14" s="367"/>
+      <c r="Z14" s="367"/>
+      <c r="AA14" s="367"/>
+      <c r="AB14" s="367"/>
+      <c r="AC14" s="367"/>
+      <c r="AD14" s="367"/>
+      <c r="AE14" s="367"/>
+      <c r="AF14" s="367"/>
+      <c r="AG14" s="367"/>
+      <c r="AH14" s="367"/>
+      <c r="AI14" s="367"/>
+      <c r="AJ14" s="367"/>
+      <c r="AK14" s="367"/>
+      <c r="AL14" s="367"/>
+      <c r="AM14" s="367"/>
+      <c r="AN14" s="367"/>
+      <c r="AO14" s="367"/>
+      <c r="AP14" s="367"/>
+      <c r="AQ14" s="367"/>
+      <c r="AR14" s="367"/>
+      <c r="AS14" s="367"/>
+      <c r="AT14" s="367"/>
+      <c r="AU14" s="367"/>
+      <c r="AV14" s="367"/>
+      <c r="AW14" s="367"/>
+      <c r="AX14" s="367"/>
+      <c r="AY14" s="367"/>
+      <c r="AZ14" s="367"/>
+      <c r="BA14" s="367"/>
+      <c r="BB14" s="367"/>
+      <c r="BC14" s="367"/>
+      <c r="BD14" s="367"/>
+      <c r="BE14" s="367"/>
+      <c r="BF14" s="367"/>
+      <c r="BG14" s="367"/>
+      <c r="BH14" s="367"/>
+      <c r="BI14" s="367"/>
+      <c r="BJ14" s="367"/>
+      <c r="BK14" s="368"/>
+    </row>
+    <row r="15" customHeight="1" ht="12" customFormat="1" s="24">
       <c r="A15" s="37"/>
       <c r="B15" s="43"/>
       <c r="C15" s="41"/>
-      <c r="D15" s="224"/>
-      <c r="E15" s="219"/>
-      <c r="F15" s="219"/>
-      <c r="G15" s="219"/>
-      <c r="H15" s="219"/>
-      <c r="I15" s="219"/>
-      <c r="J15" s="219"/>
-      <c r="K15" s="219"/>
-      <c r="L15" s="219"/>
-      <c r="M15" s="219"/>
-      <c r="N15" s="219"/>
-      <c r="O15" s="219"/>
-      <c r="P15" s="219"/>
-      <c r="Q15" s="219"/>
-      <c r="R15" s="219"/>
-      <c r="S15" s="219"/>
-      <c r="T15" s="219"/>
-      <c r="U15" s="219"/>
-      <c r="V15" s="219"/>
-      <c r="W15" s="219"/>
-      <c r="X15" s="219"/>
-      <c r="Y15" s="219"/>
-      <c r="Z15" s="219"/>
-      <c r="AA15" s="219"/>
-      <c r="AB15" s="219"/>
-      <c r="AC15" s="219"/>
-      <c r="AD15" s="219"/>
-      <c r="AE15" s="219"/>
-      <c r="AF15" s="219"/>
-      <c r="AG15" s="219"/>
-      <c r="AH15" s="219"/>
-      <c r="AI15" s="219"/>
-      <c r="AJ15" s="219"/>
-      <c r="AK15" s="219"/>
-      <c r="AL15" s="219"/>
-      <c r="AM15" s="219"/>
-      <c r="AN15" s="219"/>
-      <c r="AO15" s="219"/>
-      <c r="AP15" s="219"/>
-      <c r="AQ15" s="219"/>
-      <c r="AR15" s="219"/>
-      <c r="AS15" s="219"/>
-      <c r="AT15" s="219"/>
-      <c r="AU15" s="219"/>
-      <c r="AV15" s="219"/>
-      <c r="AW15" s="219"/>
-      <c r="AX15" s="219"/>
-      <c r="AY15" s="219"/>
-      <c r="AZ15" s="219"/>
-      <c r="BA15" s="219"/>
-      <c r="BB15" s="219"/>
-      <c r="BC15" s="219"/>
-      <c r="BD15" s="219"/>
-      <c r="BE15" s="219"/>
-      <c r="BF15" s="219"/>
-      <c r="BG15" s="219"/>
-      <c r="BH15" s="219"/>
-      <c r="BI15" s="219"/>
-      <c r="BJ15" s="219"/>
-      <c r="BK15" s="219"/>
-      <c r="BL15" s="225"/>
-      <c r="BM15" s="31"/>
-    </row>
-    <row r="16" customHeight="1" ht="12">
-      <c r="A16" s="37"/>
+      <c r="D15" s="375"/>
+      <c r="E15" s="376" t="s">
+        <v>180</v>
+      </c>
+      <c r="F15" s="373"/>
+      <c r="G15" s="376"/>
+      <c r="H15" s="376"/>
+      <c r="I15" s="376"/>
+      <c r="J15" s="376" t="s">
+        <v>201</v>
+      </c>
+      <c r="K15" s="376" t="s">
+        <v>200</v>
+      </c>
+      <c r="L15" s="376" t="s">
+        <v>170</v>
+      </c>
+      <c r="M15" s="376"/>
+      <c r="N15" s="376"/>
+      <c r="O15" s="376"/>
+      <c r="P15" s="376"/>
+      <c r="Q15" s="376" t="s">
+        <v>199</v>
+      </c>
+      <c r="R15" s="376"/>
+      <c r="S15" s="376"/>
+      <c r="T15" s="376"/>
+      <c r="U15" s="376"/>
+      <c r="V15" s="376"/>
+      <c r="W15" s="376"/>
+      <c r="X15" s="376"/>
+      <c r="Y15" s="376"/>
+      <c r="Z15" s="376"/>
+      <c r="AA15" s="376"/>
+      <c r="AB15" s="376"/>
+      <c r="AC15" s="376"/>
+      <c r="AD15" s="376"/>
+      <c r="AE15" s="376"/>
+      <c r="AF15" s="376"/>
+      <c r="AG15" s="376"/>
+      <c r="AH15" s="376"/>
+      <c r="AI15" s="376"/>
+      <c r="AJ15" s="376"/>
+      <c r="AK15" s="376"/>
+      <c r="AL15" s="376"/>
+      <c r="AM15" s="376"/>
+      <c r="AN15" s="376"/>
+      <c r="AO15" s="376"/>
+      <c r="AP15" s="376"/>
+      <c r="AQ15" s="376"/>
+      <c r="AR15" s="376"/>
+      <c r="AS15" s="376"/>
+      <c r="AT15" s="376"/>
+      <c r="AU15" s="376"/>
+      <c r="AV15" s="376"/>
+      <c r="AW15" s="376"/>
+      <c r="AX15" s="376"/>
+      <c r="AY15" s="376"/>
+      <c r="AZ15" s="376"/>
+      <c r="BA15" s="376"/>
+      <c r="BB15" s="376"/>
+      <c r="BC15" s="376"/>
+      <c r="BD15" s="376"/>
+      <c r="BE15" s="376"/>
+      <c r="BF15" s="376"/>
+      <c r="BG15" s="376"/>
+      <c r="BH15" s="376"/>
+      <c r="BI15" s="376"/>
+      <c r="BJ15" s="376"/>
+      <c r="BK15" s="377"/>
+    </row>
+    <row r="16" customHeight="1" ht="12" customFormat="1" s="78">
+      <c r="A16" s="80"/>
       <c r="B16" s="43"/>
       <c r="C16" s="41"/>
-      <c r="D16" s="224"/>
-      <c r="E16" s="219"/>
-      <c r="F16" s="219"/>
-      <c r="G16" s="219"/>
-      <c r="H16" s="219"/>
-      <c r="I16" s="219"/>
-      <c r="J16" s="219"/>
-      <c r="K16" s="219"/>
-      <c r="L16" s="219"/>
-      <c r="M16" s="219"/>
-      <c r="N16" s="219"/>
-      <c r="O16" s="219"/>
-      <c r="P16" s="219"/>
-      <c r="Q16" s="219"/>
-      <c r="R16" s="219"/>
-      <c r="S16" s="219"/>
-      <c r="T16" s="219"/>
-      <c r="U16" s="219"/>
-      <c r="V16" s="219"/>
-      <c r="W16" s="219"/>
-      <c r="X16" s="219"/>
-      <c r="Y16" s="219"/>
-      <c r="Z16" s="219"/>
-      <c r="AA16" s="219"/>
-      <c r="AB16" s="219"/>
-      <c r="AC16" s="219"/>
-      <c r="AD16" s="219"/>
-      <c r="AE16" s="219"/>
-      <c r="AF16" s="219"/>
-      <c r="AG16" s="219"/>
-      <c r="AH16" s="219"/>
-      <c r="AI16" s="219"/>
-      <c r="AJ16" s="219"/>
-      <c r="AK16" s="219"/>
-      <c r="AL16" s="219"/>
-      <c r="AM16" s="219"/>
-      <c r="AN16" s="219"/>
-      <c r="AO16" s="219"/>
-      <c r="AP16" s="219"/>
-      <c r="AQ16" s="219"/>
-      <c r="AR16" s="219"/>
-      <c r="AS16" s="219"/>
-      <c r="AT16" s="219"/>
-      <c r="AU16" s="219"/>
-      <c r="AV16" s="219"/>
-      <c r="AW16" s="219"/>
-      <c r="AX16" s="219"/>
-      <c r="AY16" s="219"/>
-      <c r="AZ16" s="219"/>
-      <c r="BA16" s="219"/>
-      <c r="BB16" s="219"/>
-      <c r="BC16" s="219"/>
-      <c r="BD16" s="219"/>
-      <c r="BE16" s="219"/>
-      <c r="BF16" s="219"/>
-      <c r="BG16" s="219"/>
-      <c r="BH16" s="219"/>
-      <c r="BI16" s="219"/>
-      <c r="BJ16" s="219"/>
-      <c r="BK16" s="219"/>
-      <c r="BL16" s="225"/>
-      <c r="BM16" s="31"/>
+      <c r="D16" s="375"/>
+      <c r="E16" s="376"/>
+      <c r="F16" s="376"/>
+      <c r="G16" s="376"/>
+      <c r="H16" s="376"/>
+      <c r="I16" s="376"/>
+      <c r="J16" s="376"/>
+      <c r="K16" s="376"/>
+      <c r="L16" s="376"/>
+      <c r="M16" s="376"/>
+      <c r="N16" s="376"/>
+      <c r="O16" s="376"/>
+      <c r="P16" s="376"/>
+      <c r="Q16" s="376"/>
+      <c r="R16" s="376"/>
+      <c r="S16" s="376"/>
+      <c r="T16" s="376"/>
+      <c r="U16" s="376"/>
+      <c r="V16" s="376"/>
+      <c r="W16" s="376"/>
+      <c r="X16" s="376"/>
+      <c r="Y16" s="376"/>
+      <c r="Z16" s="376"/>
+      <c r="AA16" s="376"/>
+      <c r="AB16" s="376"/>
+      <c r="AC16" s="376"/>
+      <c r="AD16" s="376"/>
+      <c r="AE16" s="376"/>
+      <c r="AF16" s="376"/>
+      <c r="AG16" s="376"/>
+      <c r="AH16" s="376"/>
+      <c r="AI16" s="376"/>
+      <c r="AJ16" s="376"/>
+      <c r="AK16" s="376"/>
+      <c r="AL16" s="376"/>
+      <c r="AM16" s="376"/>
+      <c r="AN16" s="376"/>
+      <c r="AO16" s="376"/>
+      <c r="AP16" s="376"/>
+      <c r="AQ16" s="376"/>
+      <c r="AR16" s="376"/>
+      <c r="AS16" s="376"/>
+      <c r="AT16" s="376"/>
+      <c r="AU16" s="376"/>
+      <c r="AV16" s="376"/>
+      <c r="AW16" s="376"/>
+      <c r="AX16" s="376"/>
+      <c r="AY16" s="376"/>
+      <c r="AZ16" s="376"/>
+      <c r="BA16" s="376"/>
+      <c r="BB16" s="376"/>
+      <c r="BC16" s="376"/>
+      <c r="BD16" s="376"/>
+      <c r="BE16" s="376"/>
+      <c r="BF16" s="376"/>
+      <c r="BG16" s="376"/>
+      <c r="BH16" s="376"/>
+      <c r="BI16" s="376"/>
+      <c r="BJ16" s="377"/>
     </row>
     <row r="17" customHeight="1" ht="12">
       <c r="A17" s="37"/>
       <c r="B17" s="43"/>
       <c r="C17" s="41"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="45"/>
-      <c r="M17" s="45"/>
-      <c r="N17" s="45"/>
-      <c r="O17" s="45"/>
-      <c r="P17" s="45"/>
-      <c r="Q17" s="45"/>
-      <c r="R17" s="45"/>
-      <c r="S17" s="45"/>
-      <c r="T17" s="45"/>
-      <c r="U17" s="45"/>
-      <c r="V17" s="45"/>
-      <c r="W17" s="45"/>
-      <c r="X17" s="45"/>
-      <c r="Y17" s="45"/>
-      <c r="Z17" s="45"/>
-      <c r="AA17" s="45"/>
-      <c r="AB17" s="45"/>
-      <c r="AC17" s="45"/>
-      <c r="AD17" s="45"/>
-      <c r="AE17" s="45"/>
-      <c r="AF17" s="45"/>
-      <c r="AG17" s="45"/>
-      <c r="AH17" s="45"/>
-      <c r="AI17" s="45"/>
-      <c r="AJ17" s="45"/>
-      <c r="AK17" s="45"/>
-      <c r="AL17" s="45"/>
-      <c r="AM17" s="45"/>
-      <c r="AN17" s="45"/>
-      <c r="AO17" s="45"/>
-      <c r="AP17" s="45"/>
-      <c r="AQ17" s="45"/>
-      <c r="AR17" s="45"/>
-      <c r="AS17" s="45"/>
-      <c r="AT17" s="45"/>
-      <c r="AU17" s="45"/>
-      <c r="AV17" s="45"/>
-      <c r="AW17" s="45"/>
-      <c r="AX17" s="45"/>
-      <c r="AY17" s="45"/>
-      <c r="AZ17" s="45"/>
-      <c r="BA17" s="45"/>
-      <c r="BB17" s="45"/>
-      <c r="BC17" s="45"/>
-      <c r="BD17" s="45"/>
-      <c r="BE17" s="45"/>
-      <c r="BF17" s="45"/>
-      <c r="BG17" s="45"/>
-      <c r="BH17" s="45"/>
-      <c r="BI17" s="45"/>
-      <c r="BJ17" s="45"/>
-      <c r="BK17" s="45"/>
-      <c r="BL17" s="46"/>
-      <c r="BM17" s="31"/>
+      <c r="D17" s="375"/>
+      <c r="E17" s="376" t="s">
+        <v>206</v>
+      </c>
+      <c r="F17" s="376"/>
+      <c r="G17" s="376"/>
+      <c r="H17" s="376"/>
+      <c r="I17" s="376"/>
+      <c r="J17" s="376"/>
+      <c r="K17" s="376"/>
+      <c r="L17" s="376"/>
+      <c r="M17" s="376"/>
+      <c r="N17" s="376"/>
+      <c r="O17" s="376"/>
+      <c r="P17" s="376"/>
+      <c r="Q17" s="376"/>
+      <c r="R17" s="376"/>
+      <c r="S17" s="376"/>
+      <c r="T17" s="376" t="s">
+        <v>172</v>
+      </c>
+      <c r="U17" s="376"/>
+      <c r="V17" s="376" t="s">
+        <v>207</v>
+      </c>
+      <c r="W17" s="376"/>
+      <c r="X17" s="376"/>
+      <c r="Y17" s="376"/>
+      <c r="Z17" s="376"/>
+      <c r="AA17" s="376"/>
+      <c r="AB17" s="376"/>
+      <c r="AC17" s="376"/>
+      <c r="AD17" s="376" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE17" s="376"/>
+      <c r="AF17" s="376"/>
+      <c r="AG17" s="376"/>
+      <c r="AH17" s="402" t="s">
+        <v>214</v>
+      </c>
+      <c r="AI17" s="376"/>
+      <c r="AJ17" s="376"/>
+      <c r="AK17" s="376"/>
+      <c r="AL17" s="376"/>
+      <c r="AM17" s="376"/>
+      <c r="AN17" s="376"/>
+      <c r="AO17" s="376"/>
+      <c r="AP17" s="376"/>
+      <c r="AQ17" s="377"/>
+      <c r="AR17" s="38"/>
+      <c r="AS17" s="38"/>
+      <c r="AT17" s="38"/>
+      <c r="AU17" s="38"/>
+      <c r="AV17" s="38"/>
+      <c r="AW17" s="38"/>
     </row>
     <row r="18" customHeight="1" ht="12">
       <c r="A18" s="37"/>
       <c r="B18" s="43"/>
       <c r="C18" s="41"/>
-    </row>
-    <row r="19" customHeight="1" ht="12">
-      <c r="A19" s="37"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="41"/>
-    </row>
-    <row r="20" customHeight="1" ht="12">
-      <c r="A20" s="37"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="41"/>
-    </row>
-    <row r="21" customHeight="1" ht="12" customFormat="1" s="78">
-      <c r="A21" s="80"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="41"/>
-    </row>
-    <row r="22" customHeight="1" ht="12" customFormat="1" s="78">
-      <c r="A22" s="80"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="41"/>
-    </row>
-    <row r="23" customHeight="1" ht="12" customFormat="1" s="78">
-      <c r="A23" s="80"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="41"/>
-    </row>
-    <row r="24" customHeight="1" ht="12" customFormat="1" s="78">
-      <c r="A24" s="80"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="41"/>
-    </row>
-    <row r="25" customHeight="1" ht="12" customFormat="1" s="78">
-      <c r="A25" s="80"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="41"/>
-    </row>
-    <row r="26" customHeight="1" ht="12" customFormat="1" s="78">
-      <c r="A26" s="80"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="41"/>
-    </row>
-    <row r="27" customHeight="1" ht="12">
-      <c r="A27" s="37"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="41"/>
-    </row>
-    <row r="28" customHeight="1" ht="12">
-      <c r="A28" s="37"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="41"/>
-    </row>
-    <row r="29" customHeight="1" ht="12">
-      <c r="A29" s="37"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="43"/>
-      <c r="K29" s="43"/>
-      <c r="L29" s="43"/>
-      <c r="M29" s="43"/>
-      <c r="N29" s="43"/>
-      <c r="O29" s="43"/>
-      <c r="P29" s="43"/>
-      <c r="Q29" s="43"/>
-      <c r="R29" s="43"/>
-      <c r="S29" s="43"/>
-      <c r="T29" s="43"/>
-      <c r="U29" s="43"/>
-      <c r="V29" s="43"/>
-      <c r="W29" s="43"/>
-      <c r="X29" s="43"/>
-      <c r="Y29" s="43"/>
-      <c r="Z29" s="43"/>
-      <c r="AA29" s="43"/>
-      <c r="AB29" s="43"/>
-      <c r="AC29" s="43"/>
-      <c r="AD29" s="43"/>
-      <c r="AE29" s="43"/>
-      <c r="AF29" s="43"/>
-      <c r="AG29" s="43"/>
-      <c r="AH29" s="43"/>
-      <c r="AI29" s="43"/>
-      <c r="AJ29" s="43"/>
-      <c r="AK29" s="43"/>
-      <c r="AL29" s="43"/>
-      <c r="AM29" s="43"/>
-      <c r="AN29" s="43"/>
-      <c r="AO29" s="43"/>
-      <c r="AP29" s="43"/>
-      <c r="AQ29" s="43"/>
-      <c r="AR29" s="43"/>
-      <c r="AS29" s="43"/>
-      <c r="AT29" s="43"/>
-      <c r="AU29" s="43"/>
-      <c r="AV29" s="43"/>
-      <c r="AW29" s="43"/>
-      <c r="AX29" s="43"/>
-      <c r="AY29" s="43"/>
-      <c r="AZ29" s="43"/>
-      <c r="BA29" s="43"/>
-      <c r="BB29" s="43"/>
-      <c r="BC29" s="43"/>
-      <c r="BD29" s="43"/>
-      <c r="BE29" s="43"/>
-      <c r="BF29" s="43"/>
-      <c r="BG29" s="43"/>
-      <c r="BH29" s="43"/>
-      <c r="BI29" s="43"/>
-      <c r="BJ29" s="31"/>
+      <c r="D18" s="375"/>
+      <c r="E18" s="376"/>
+      <c r="F18" s="404" t="s">
+        <v>218</v>
+      </c>
+      <c r="G18" s="376"/>
+      <c r="H18" s="376"/>
+      <c r="I18" s="376"/>
+      <c r="J18" s="376"/>
+      <c r="K18" s="376"/>
+      <c r="L18" s="376"/>
+      <c r="M18" s="376"/>
+      <c r="N18" s="376"/>
+      <c r="O18" s="376"/>
+      <c r="P18" s="376"/>
+      <c r="Q18" s="376"/>
+      <c r="R18" s="376"/>
+      <c r="S18" s="376"/>
+      <c r="T18" s="376"/>
+      <c r="U18" s="376"/>
+      <c r="V18" s="376"/>
+      <c r="W18" s="376"/>
+      <c r="X18" s="376"/>
+      <c r="Y18" s="376"/>
+      <c r="Z18" s="376"/>
+      <c r="AA18" s="376"/>
+      <c r="AB18" s="376"/>
+      <c r="AC18" s="376"/>
+      <c r="AD18" s="376"/>
+      <c r="AE18" s="376"/>
+      <c r="AF18" s="376"/>
+      <c r="AG18" s="376"/>
+      <c r="AH18" s="376"/>
+      <c r="AI18" s="376"/>
+      <c r="AJ18" s="376"/>
+      <c r="AK18" s="376"/>
+      <c r="AL18" s="376"/>
+      <c r="AM18" s="376"/>
+      <c r="AN18" s="376"/>
+      <c r="AO18" s="376"/>
+      <c r="AP18" s="376"/>
+      <c r="AQ18" s="376"/>
+      <c r="AR18" s="376"/>
+    </row>
+    <row r="19">
+      <c r="D19" s="375"/>
+      <c r="E19" s="376"/>
+      <c r="F19" s="376" t="s">
+        <v>217</v>
+      </c>
+      <c r="G19" s="376"/>
+      <c r="H19" s="376"/>
+      <c r="I19" s="376"/>
+      <c r="J19" s="376"/>
+      <c r="K19" s="376"/>
+      <c r="L19" s="376"/>
+      <c r="M19" s="376"/>
+      <c r="N19" s="376"/>
+      <c r="O19" s="376"/>
+      <c r="P19" s="376"/>
+      <c r="Q19" s="376"/>
+      <c r="R19" s="376"/>
+      <c r="S19" s="376"/>
+      <c r="T19" s="376"/>
+      <c r="U19" s="376"/>
+      <c r="V19" s="376"/>
+      <c r="W19" s="376"/>
+      <c r="X19" s="376"/>
+      <c r="Y19" s="376"/>
+      <c r="Z19" s="376"/>
+      <c r="AA19" s="376"/>
+      <c r="AB19" s="376"/>
+      <c r="AC19" s="376"/>
+      <c r="AD19" s="376"/>
+      <c r="AE19" s="376"/>
+      <c r="AF19" s="376"/>
+      <c r="AG19" s="376"/>
+      <c r="AH19" s="376"/>
+      <c r="AI19" s="376"/>
+      <c r="AJ19" s="376"/>
+      <c r="AK19" s="376"/>
+    </row>
+    <row r="20">
+      <c r="D20" s="375"/>
+      <c r="E20" s="376"/>
+      <c r="F20" s="376"/>
+      <c r="G20" s="376"/>
+      <c r="H20" s="376"/>
+      <c r="I20" s="376"/>
+      <c r="J20" s="376"/>
+      <c r="K20" s="376"/>
+      <c r="L20" s="376"/>
+      <c r="M20" s="376"/>
+      <c r="N20" s="376"/>
+      <c r="O20" s="376"/>
+      <c r="P20" s="376"/>
+      <c r="Q20" s="376"/>
+      <c r="R20" s="376"/>
+      <c r="S20" s="376"/>
+      <c r="T20" s="376"/>
+      <c r="U20" s="376"/>
+      <c r="V20" s="376"/>
+      <c r="W20" s="376"/>
+      <c r="X20" s="376"/>
+      <c r="Y20" s="376"/>
+      <c r="Z20" s="376"/>
+      <c r="AA20" s="376"/>
+      <c r="AB20" s="376"/>
+      <c r="AC20" s="376"/>
+      <c r="AD20" s="376"/>
+      <c r="AE20" s="376"/>
+      <c r="AF20" s="376"/>
+      <c r="AG20" s="376"/>
+      <c r="AH20" s="376"/>
+      <c r="AI20" s="376"/>
+      <c r="AJ20" s="376"/>
+      <c r="AK20" s="376"/>
+      <c r="AL20" s="376"/>
+      <c r="AM20" s="376"/>
+      <c r="AN20" s="376"/>
+      <c r="AO20" s="376"/>
+      <c r="AP20" s="376"/>
+      <c r="AQ20" s="376"/>
+      <c r="AR20" s="376"/>
+      <c r="AS20" s="376"/>
+      <c r="AT20" s="376"/>
+      <c r="AU20" s="376"/>
+      <c r="AV20" s="376"/>
+      <c r="AW20" s="376"/>
+      <c r="AX20" s="376"/>
+      <c r="AY20" s="376"/>
+      <c r="AZ20" s="376"/>
+      <c r="BA20" s="376"/>
+      <c r="BB20" s="376"/>
+      <c r="BC20" s="376"/>
+      <c r="BD20" s="376"/>
+      <c r="BE20" s="376"/>
+      <c r="BF20" s="376"/>
+      <c r="BG20" s="376"/>
+      <c r="BH20" s="376"/>
+      <c r="BI20" s="376"/>
+      <c r="BJ20" s="376"/>
+      <c r="BK20" s="377"/>
+    </row>
+    <row r="21">
+      <c r="D21" s="375"/>
+      <c r="E21" s="376" t="s">
+        <v>187</v>
+      </c>
+      <c r="F21" s="376"/>
+      <c r="G21" s="376"/>
+      <c r="H21" s="376"/>
+      <c r="I21" s="376"/>
+      <c r="J21" s="376"/>
+      <c r="K21" s="376"/>
+      <c r="L21" s="376"/>
+      <c r="M21" s="376"/>
+      <c r="N21" s="376"/>
+      <c r="O21" s="376"/>
+      <c r="P21" s="376"/>
+      <c r="Q21" s="376"/>
+      <c r="R21" s="376"/>
+      <c r="S21" s="376"/>
+      <c r="T21" s="376"/>
+      <c r="U21" s="376"/>
+      <c r="V21" s="376"/>
+      <c r="W21" s="376"/>
+      <c r="X21" s="376"/>
+      <c r="Y21" s="376"/>
+      <c r="Z21" s="376"/>
+      <c r="AA21" s="376"/>
+      <c r="AB21" s="376"/>
+      <c r="AC21" s="376"/>
+      <c r="AD21" s="376"/>
+      <c r="AE21" s="376"/>
+      <c r="AF21" s="376"/>
+      <c r="AG21" s="376"/>
+      <c r="AH21" s="376"/>
+      <c r="AI21" s="376"/>
+      <c r="AJ21" s="376"/>
+      <c r="AK21" s="376"/>
+      <c r="AL21" s="376"/>
+      <c r="AM21" s="376"/>
+      <c r="AN21" s="376"/>
+      <c r="AO21" s="376"/>
+      <c r="AP21" s="376"/>
+      <c r="AQ21" s="376"/>
+      <c r="AR21" s="376"/>
+      <c r="AS21" s="376"/>
+      <c r="AT21" s="376"/>
+      <c r="AU21" s="376"/>
+      <c r="AV21" s="376"/>
+      <c r="AW21" s="376"/>
+      <c r="AX21" s="376"/>
+      <c r="AY21" s="376"/>
+      <c r="AZ21" s="376"/>
+      <c r="BA21" s="376"/>
+      <c r="BB21" s="376"/>
+      <c r="BC21" s="376"/>
+      <c r="BD21" s="376"/>
+      <c r="BE21" s="376"/>
+      <c r="BF21" s="376"/>
+      <c r="BG21" s="376"/>
+      <c r="BH21" s="376"/>
+      <c r="BI21" s="376"/>
+      <c r="BJ21" s="376"/>
+      <c r="BK21" s="377"/>
+    </row>
+    <row r="22">
+      <c r="D22" s="375"/>
+      <c r="E22" s="376"/>
+      <c r="F22" s="376" t="s">
+        <v>220</v>
+      </c>
+      <c r="G22" s="376"/>
+      <c r="H22" s="376"/>
+      <c r="I22" s="376"/>
+      <c r="J22" s="376"/>
+      <c r="K22" s="376"/>
+      <c r="L22" s="376"/>
+      <c r="M22" s="376"/>
+      <c r="N22" s="376"/>
+      <c r="O22" s="376"/>
+      <c r="P22" s="376"/>
+      <c r="Q22" s="376"/>
+      <c r="R22" s="376"/>
+      <c r="S22" s="376"/>
+      <c r="T22" s="376"/>
+      <c r="U22" s="376"/>
+      <c r="V22" s="376"/>
+      <c r="W22" s="376"/>
+      <c r="X22" s="376"/>
+      <c r="Y22" s="376"/>
+      <c r="Z22" s="376"/>
+      <c r="AA22" s="376"/>
+      <c r="AB22" s="376"/>
+      <c r="AC22" s="376"/>
+      <c r="AD22" s="376"/>
+      <c r="AE22" s="376"/>
+      <c r="AF22" s="376"/>
+      <c r="AG22" s="376"/>
+      <c r="AH22" s="376"/>
+      <c r="AI22" s="376"/>
+      <c r="AJ22" s="376"/>
+      <c r="AK22" s="376"/>
+      <c r="AL22" s="376"/>
+      <c r="AM22" s="376"/>
+      <c r="AN22" s="376"/>
+      <c r="AO22" s="376"/>
+      <c r="AP22" s="376"/>
+      <c r="AQ22" s="376"/>
+      <c r="AR22" s="376"/>
+      <c r="AS22" s="376"/>
+      <c r="AT22" s="376"/>
+      <c r="AU22" s="376"/>
+      <c r="AV22" s="376"/>
+      <c r="AW22" s="376"/>
+      <c r="AX22" s="376"/>
+      <c r="AY22" s="376"/>
+      <c r="AZ22" s="376"/>
+      <c r="BA22" s="376"/>
+      <c r="BB22" s="376"/>
+      <c r="BC22" s="376"/>
+      <c r="BD22" s="376"/>
+      <c r="BE22" s="376"/>
+      <c r="BF22" s="376"/>
+      <c r="BG22" s="376"/>
+      <c r="BH22" s="376"/>
+      <c r="BI22" s="376"/>
+      <c r="BJ22" s="376"/>
+      <c r="BK22" s="377"/>
+    </row>
+    <row r="23">
+      <c r="D23" s="378"/>
+      <c r="E23" s="379"/>
+      <c r="F23" s="379"/>
+      <c r="G23" s="379"/>
+      <c r="H23" s="379"/>
+      <c r="I23" s="379"/>
+      <c r="J23" s="379"/>
+      <c r="K23" s="379"/>
+      <c r="L23" s="379"/>
+      <c r="M23" s="379"/>
+      <c r="N23" s="379"/>
+      <c r="O23" s="379"/>
+      <c r="P23" s="379"/>
+      <c r="Q23" s="379"/>
+      <c r="R23" s="379"/>
+      <c r="S23" s="379"/>
+      <c r="T23" s="379"/>
+      <c r="U23" s="379"/>
+      <c r="V23" s="379"/>
+      <c r="W23" s="379"/>
+      <c r="X23" s="379"/>
+      <c r="Y23" s="379"/>
+      <c r="Z23" s="379"/>
+      <c r="AA23" s="379"/>
+      <c r="AB23" s="379"/>
+      <c r="AC23" s="379"/>
+      <c r="AD23" s="379"/>
+      <c r="AE23" s="379"/>
+      <c r="AF23" s="379"/>
+      <c r="AG23" s="379"/>
+      <c r="AH23" s="379"/>
+      <c r="AI23" s="379"/>
+      <c r="AJ23" s="379"/>
+      <c r="AK23" s="379"/>
+      <c r="AL23" s="379"/>
+      <c r="AM23" s="379"/>
+      <c r="AN23" s="379"/>
+      <c r="AO23" s="379"/>
+      <c r="AP23" s="379"/>
+      <c r="AQ23" s="379"/>
+      <c r="AR23" s="379"/>
+      <c r="AS23" s="379"/>
+      <c r="AT23" s="379"/>
+      <c r="AU23" s="379"/>
+      <c r="AV23" s="379"/>
+      <c r="AW23" s="379"/>
+      <c r="AX23" s="379"/>
+      <c r="AY23" s="379"/>
+      <c r="AZ23" s="379"/>
+      <c r="BA23" s="379"/>
+      <c r="BB23" s="379"/>
+      <c r="BC23" s="379"/>
+      <c r="BD23" s="379"/>
+      <c r="BE23" s="379"/>
+      <c r="BF23" s="379"/>
+      <c r="BG23" s="379"/>
+      <c r="BH23" s="379"/>
+      <c r="BI23" s="379"/>
+      <c r="BJ23" s="379"/>
+      <c r="BK23" s="380"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="27">
     <mergeCell ref="A2:Z3"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="G4:N4"/>
     <mergeCell ref="O4:T4"/>
-    <mergeCell ref="U4:AV4"/>
-    <mergeCell ref="AW4:AY4"/>
-    <mergeCell ref="AZ4:BE4"/>
-    <mergeCell ref="BF4:BH4"/>
-    <mergeCell ref="BI4:BL4"/>
+    <mergeCell ref="U4:AU4"/>
+    <mergeCell ref="AV4:AX4"/>
+    <mergeCell ref="AY4:BD4"/>
+    <mergeCell ref="BE4:BG4"/>
+    <mergeCell ref="BH4:BK4"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="G5:N5"/>
     <mergeCell ref="O5:T5"/>
-    <mergeCell ref="U5:AV5"/>
-    <mergeCell ref="AW5:AY5"/>
-    <mergeCell ref="AZ5:BE5"/>
-    <mergeCell ref="BF5:BH5"/>
-    <mergeCell ref="BI5:BL5"/>
-    <mergeCell ref="AO6:AQ6"/>
-    <mergeCell ref="AR6:BC6"/>
-    <mergeCell ref="BD6:BL6"/>
-    <mergeCell ref="C8:BK9"/>
-    <mergeCell ref="D12:BL12"/>
-    <mergeCell ref="D13:BL13"/>
-    <mergeCell ref="D14:BL14"/>
-    <mergeCell ref="D15:BL15"/>
-    <mergeCell ref="D16:BL16"/>
+    <mergeCell ref="U5:AU5"/>
+    <mergeCell ref="AV5:AX5"/>
+    <mergeCell ref="AY5:BD5"/>
+    <mergeCell ref="BE5:BG5"/>
+    <mergeCell ref="BH5:BK5"/>
+    <mergeCell ref="AN6:AP6"/>
+    <mergeCell ref="AQ6:BB6"/>
+    <mergeCell ref="BC6:BK6"/>
+    <mergeCell ref="D7:BK7"/>
+    <mergeCell ref="D8:BK8"/>
+    <mergeCell ref="D9:BK9"/>
+    <mergeCell ref="D10:BK10"/>
+    <mergeCell ref="D11:BK11"/>
+    <mergeCell ref="D12:BK12"/>
+    <mergeCell ref="D14:BK14"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8293,7 +9749,7 @@
   <dimension ref="A1:BN36"/>
   <sheetViews>
     <sheetView showGridLines="false" zoomScale="120" zoomScaleNormal="120" workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="AT3" sqref="AT3" activeCellId="0"/>
+      <selection activeCell="AF32" sqref="AF32" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="11.25" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8686,7 +10142,7 @@
       <c r="AX4" s="241"/>
       <c r="AY4" s="242"/>
       <c r="AZ4" s="204">
-        <v>45114</v>
+        <v>45071</v>
       </c>
       <c r="BA4" s="205"/>
       <c r="BB4" s="205"/>
@@ -9074,9 +10530,7 @@
       <c r="AL9" s="282"/>
       <c r="AM9" s="282"/>
       <c r="AN9" s="282"/>
-      <c r="AO9" s="284" t="s">
-        <v>100</v>
-      </c>
+      <c r="AO9" s="284"/>
       <c r="AP9" s="285"/>
       <c r="AQ9" s="285"/>
       <c r="AR9" s="285"/>
@@ -9130,10 +10584,10 @@
         <v>8</v>
       </c>
       <c r="R10" s="86"/>
-      <c r="S10" s="290" t="s">
-        <v>58</v>
-      </c>
-      <c r="T10" s="291"/>
+      <c r="S10" s="271" t="s">
+        <v>95</v>
+      </c>
+      <c r="T10" s="273"/>
       <c r="U10" s="276" t="s">
         <v>104</v>
       </c>
@@ -9196,7 +10650,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="156" t="s">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="C11" s="157"/>
       <c r="D11" s="157"/>
@@ -9244,7 +10698,7 @@
       <c r="AF11" s="279"/>
       <c r="AG11" s="280"/>
       <c r="AH11" s="292" t="s">
-        <v>137</v>
+        <v>221</v>
       </c>
       <c r="AI11" s="293"/>
       <c r="AJ11" s="293"/>
@@ -9385,7 +10839,7 @@
       <c r="K13" s="157"/>
       <c r="L13" s="270"/>
       <c r="M13" s="271" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N13" s="272"/>
       <c r="O13" s="272"/>
@@ -9473,7 +10927,7 @@
       <c r="K14" s="157"/>
       <c r="L14" s="270"/>
       <c r="M14" s="271" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N14" s="272"/>
       <c r="O14" s="272"/>
@@ -9561,13 +11015,13 @@
       <c r="K15" s="157"/>
       <c r="L15" s="270"/>
       <c r="M15" s="271" t="s">
-        <v>63</v>
+        <v>222</v>
       </c>
       <c r="N15" s="272"/>
       <c r="O15" s="272"/>
       <c r="P15" s="273"/>
       <c r="Q15" s="85"/>
-      <c r="R15" s="347" t="s">
+      <c r="R15" s="415" t="s">
         <v>147</v>
       </c>
       <c r="S15" s="290" t="s">
@@ -9649,15 +11103,15 @@
       <c r="K16" s="157"/>
       <c r="L16" s="270"/>
       <c r="M16" s="271" t="s">
-        <v>63</v>
+        <v>222</v>
       </c>
       <c r="N16" s="272"/>
       <c r="O16" s="272"/>
       <c r="P16" s="273"/>
-      <c r="Q16" s="348" t="s">
+      <c r="Q16" s="405"/>
+      <c r="R16" s="348" t="s">
         <v>147</v>
       </c>
-      <c r="R16" s="86"/>
       <c r="S16" s="290" t="s">
         <v>95</v>
       </c>
@@ -9737,7 +11191,7 @@
       <c r="K17" s="157"/>
       <c r="L17" s="270"/>
       <c r="M17" s="271" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N17" s="272"/>
       <c r="O17" s="272"/>
@@ -9780,9 +11234,7 @@
       <c r="AL17" s="293"/>
       <c r="AM17" s="293"/>
       <c r="AN17" s="293"/>
-      <c r="AO17" s="284" t="s">
-        <v>100</v>
-      </c>
+      <c r="AO17" s="284"/>
       <c r="AP17" s="285"/>
       <c r="AQ17" s="285"/>
       <c r="AR17" s="285"/>
@@ -9833,7 +11285,7 @@
       <c r="O18" s="272"/>
       <c r="P18" s="273"/>
       <c r="Q18" s="85"/>
-      <c r="R18" s="347">
+      <c r="R18" s="414">
         <v>8</v>
       </c>
       <c r="S18" s="290" t="s">
@@ -9868,7 +11320,9 @@
       <c r="AL18" s="293"/>
       <c r="AM18" s="293"/>
       <c r="AN18" s="293"/>
-      <c r="AO18" s="284"/>
+      <c r="AO18" s="284" t="s">
+        <v>100</v>
+      </c>
       <c r="AP18" s="285"/>
       <c r="AQ18" s="285"/>
       <c r="AR18" s="285"/>
@@ -9912,41 +11366,51 @@
       <c r="J19" s="157"/>
       <c r="K19" s="157"/>
       <c r="L19" s="270"/>
-      <c r="M19" s="271"/>
-      <c r="N19" s="271"/>
-      <c r="O19" s="271"/>
-      <c r="P19" s="271"/>
+      <c r="M19" s="411" t="s">
+        <v>63</v>
+      </c>
+      <c r="N19" s="412"/>
+      <c r="O19" s="412"/>
+      <c r="P19" s="413"/>
       <c r="Q19" s="85"/>
       <c r="R19" s="86">
         <v>8</v>
       </c>
-      <c r="S19" s="290"/>
+      <c r="S19" s="290" t="s">
+        <v>95</v>
+      </c>
       <c r="T19" s="298"/>
-      <c r="U19" s="299"/>
-      <c r="V19" s="300"/>
-      <c r="W19" s="272"/>
+      <c r="U19" s="276" t="s">
+        <v>104</v>
+      </c>
+      <c r="V19" s="277"/>
+      <c r="W19" s="272" t="s">
+        <v>64</v>
+      </c>
       <c r="X19" s="273"/>
       <c r="Y19" s="271"/>
       <c r="Z19" s="272"/>
       <c r="AA19" s="272"/>
       <c r="AB19" s="273"/>
-      <c r="AC19" s="349" t="s">
+      <c r="AC19" s="428" t="s">
         <v>136</v>
       </c>
-      <c r="AD19" s="350"/>
-      <c r="AE19" s="350"/>
-      <c r="AF19" s="350"/>
-      <c r="AG19" s="350"/>
+      <c r="AD19" s="429"/>
+      <c r="AE19" s="429"/>
+      <c r="AF19" s="429"/>
+      <c r="AG19" s="430"/>
       <c r="AH19" s="351"/>
       <c r="AI19" s="352"/>
-      <c r="AJ19" s="349" t="s">
+      <c r="AJ19" s="431" t="s">
         <v>154</v>
       </c>
       <c r="AK19" s="352"/>
       <c r="AL19" s="352"/>
       <c r="AM19" s="352"/>
       <c r="AN19" s="353"/>
-      <c r="AO19" s="284"/>
+      <c r="AO19" s="417" t="s">
+        <v>100</v>
+      </c>
       <c r="AP19" s="285"/>
       <c r="AQ19" s="285"/>
       <c r="AR19" s="285"/>
@@ -10040,7 +11504,7 @@
       <c r="B36" s="302"/>
     </row>
   </sheetData>
-  <mergeCells count="131">
+  <mergeCells count="136">
     <mergeCell ref="A2:AA3"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="G4:O4"/>
@@ -10165,6 +11629,11 @@
     <mergeCell ref="AC18:AG18"/>
     <mergeCell ref="AH18:AN18"/>
     <mergeCell ref="AO18:BL18"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="W19:X19"/>
+    <mergeCell ref="AC19:AG19"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A32:B32"/>
@@ -10182,8 +11651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F483F54A-5AD5-4BFC-9283-BB80624954B3}">
   <dimension ref="A1:BN14"/>
   <sheetViews>
-    <sheetView showGridLines="false" zoomScale="130" zoomScaleNormal="130" workbookViewId="0" tabSelected="1" topLeftCell="A4">
-      <selection activeCell="AE24" sqref="AE24" activeCellId="0"/>
+    <sheetView showGridLines="false" zoomScale="130" zoomScaleNormal="130" workbookViewId="0" topLeftCell="A1" tabSelected="1">
+      <selection activeCell="AT19" sqref="AT19" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10355,7 +11824,7 @@
     <col min="16195" max="16384" width="2.125" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" ht="11">
+    <row r="1" ht="10">
       <c r="A1" s="20"/>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -10425,7 +11894,7 @@
       <c r="BM1" s="21"/>
       <c r="BN1" s="23"/>
     </row>
-    <row r="2" ht="11">
+    <row r="2" ht="10">
       <c r="A2" s="116" t="s">
         <v>70</v>
       </c>
@@ -10481,7 +11950,7 @@
       <c r="BM2" s="26"/>
       <c r="BN2" s="27"/>
     </row>
-    <row r="3" ht="11">
+    <row r="3" ht="10">
       <c r="A3" s="226"/>
       <c r="B3" s="227"/>
       <c r="C3" s="227"/>
@@ -10559,7 +12028,7 @@
       <c r="E4" s="229"/>
       <c r="F4" s="230"/>
       <c r="G4" s="231" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="H4" s="232"/>
       <c r="I4" s="232"/>
@@ -11028,39 +12497,39 @@
       <c r="M10" s="309"/>
       <c r="N10" s="309"/>
       <c r="O10" s="311"/>
-      <c r="P10" s="354" t="s">
+      <c r="P10" s="444" t="s">
         <v>160</v>
       </c>
-      <c r="Q10" s="88"/>
-      <c r="R10" s="88"/>
-      <c r="S10" s="88"/>
-      <c r="T10" s="88"/>
-      <c r="U10" s="88"/>
-      <c r="V10" s="88"/>
-      <c r="W10" s="88"/>
-      <c r="X10" s="88"/>
-      <c r="Y10" s="88"/>
-      <c r="Z10" s="24"/>
-      <c r="AA10" s="24"/>
-      <c r="AB10" s="24"/>
-      <c r="AC10" s="24"/>
-      <c r="AD10" s="88"/>
-      <c r="AE10" s="88"/>
-      <c r="AF10" s="88"/>
-      <c r="AG10" s="88"/>
-      <c r="AH10" s="88"/>
-      <c r="AI10" s="88"/>
-      <c r="AJ10" s="88"/>
-      <c r="AK10" s="88"/>
-      <c r="AL10" s="88"/>
-      <c r="AM10" s="88"/>
-      <c r="AN10" s="88"/>
-      <c r="AO10" s="88"/>
-      <c r="AP10" s="88"/>
-      <c r="AQ10" s="88"/>
-      <c r="AR10" s="88"/>
+      <c r="Q10" s="445"/>
+      <c r="R10" s="445"/>
+      <c r="S10" s="445"/>
+      <c r="T10" s="445"/>
+      <c r="U10" s="445"/>
+      <c r="V10" s="445"/>
+      <c r="W10" s="445"/>
+      <c r="X10" s="445"/>
+      <c r="Y10" s="445"/>
+      <c r="Z10" s="56"/>
+      <c r="AA10" s="56"/>
+      <c r="AB10" s="56"/>
+      <c r="AC10" s="56"/>
+      <c r="AD10" s="445"/>
+      <c r="AE10" s="445"/>
+      <c r="AF10" s="445"/>
+      <c r="AG10" s="445"/>
+      <c r="AH10" s="445"/>
+      <c r="AI10" s="445"/>
+      <c r="AJ10" s="445"/>
+      <c r="AK10" s="445"/>
+      <c r="AL10" s="445"/>
+      <c r="AM10" s="445"/>
+      <c r="AN10" s="445"/>
+      <c r="AO10" s="445"/>
+      <c r="AP10" s="445"/>
+      <c r="AQ10" s="445"/>
+      <c r="AR10" s="445"/>
       <c r="AS10" s="326" t="s">
-        <v>161</v>
+        <v>225</v>
       </c>
       <c r="AT10" s="327"/>
       <c r="AU10" s="327"/>
@@ -11104,7 +12573,7 @@
       <c r="M11" s="309"/>
       <c r="N11" s="309"/>
       <c r="O11" s="309"/>
-      <c r="P11" s="354" t="s">
+      <c r="P11" s="446" t="s">
         <v>162</v>
       </c>
       <c r="Q11" s="88"/>
@@ -11121,20 +12590,20 @@
       <c r="AB11" s="88"/>
       <c r="AC11" s="88"/>
       <c r="AD11" s="88"/>
-      <c r="AE11" s="93"/>
-      <c r="AF11" s="93"/>
-      <c r="AG11" s="93"/>
-      <c r="AH11" s="93"/>
-      <c r="AI11" s="93"/>
-      <c r="AJ11" s="93"/>
-      <c r="AK11" s="93"/>
-      <c r="AL11" s="93"/>
-      <c r="AM11" s="93"/>
-      <c r="AN11" s="93"/>
-      <c r="AO11" s="93"/>
-      <c r="AP11" s="93"/>
-      <c r="AQ11" s="93"/>
-      <c r="AR11" s="93"/>
+      <c r="AE11" s="443"/>
+      <c r="AF11" s="443"/>
+      <c r="AG11" s="443"/>
+      <c r="AH11" s="443"/>
+      <c r="AI11" s="443"/>
+      <c r="AJ11" s="443"/>
+      <c r="AK11" s="443"/>
+      <c r="AL11" s="443"/>
+      <c r="AM11" s="443"/>
+      <c r="AN11" s="443"/>
+      <c r="AO11" s="443"/>
+      <c r="AP11" s="443"/>
+      <c r="AQ11" s="443"/>
+      <c r="AR11" s="443"/>
       <c r="AS11" s="329" t="s">
         <v>163</v>
       </c>
@@ -11179,39 +12648,39 @@
       <c r="L12" s="309"/>
       <c r="M12" s="309"/>
       <c r="N12" s="309"/>
-      <c r="O12" s="311"/>
-      <c r="P12" s="330" t="s">
+      <c r="O12" s="432"/>
+      <c r="P12" s="320" t="s">
         <v>164</v>
       </c>
-      <c r="Q12" s="330"/>
-      <c r="R12" s="330"/>
-      <c r="S12" s="330"/>
-      <c r="T12" s="330"/>
-      <c r="U12" s="330"/>
-      <c r="V12" s="330"/>
-      <c r="W12" s="330"/>
-      <c r="X12" s="330"/>
-      <c r="Y12" s="330"/>
-      <c r="Z12" s="330"/>
-      <c r="AA12" s="330"/>
-      <c r="AB12" s="330"/>
-      <c r="AC12" s="330"/>
-      <c r="AD12" s="330"/>
-      <c r="AE12" s="330"/>
-      <c r="AF12" s="330"/>
-      <c r="AG12" s="330"/>
-      <c r="AH12" s="330"/>
-      <c r="AI12" s="330"/>
-      <c r="AJ12" s="330"/>
-      <c r="AK12" s="330"/>
-      <c r="AL12" s="330"/>
-      <c r="AM12" s="330"/>
-      <c r="AN12" s="330"/>
-      <c r="AO12" s="330"/>
-      <c r="AP12" s="330"/>
-      <c r="AQ12" s="330"/>
-      <c r="AR12" s="330"/>
-      <c r="AS12" s="331" t="s">
+      <c r="Q12" s="320"/>
+      <c r="R12" s="320"/>
+      <c r="S12" s="320"/>
+      <c r="T12" s="320"/>
+      <c r="U12" s="320"/>
+      <c r="V12" s="320"/>
+      <c r="W12" s="320"/>
+      <c r="X12" s="320"/>
+      <c r="Y12" s="320"/>
+      <c r="Z12" s="320"/>
+      <c r="AA12" s="320"/>
+      <c r="AB12" s="320"/>
+      <c r="AC12" s="320"/>
+      <c r="AD12" s="320"/>
+      <c r="AE12" s="320"/>
+      <c r="AF12" s="320"/>
+      <c r="AG12" s="320"/>
+      <c r="AH12" s="320"/>
+      <c r="AI12" s="320"/>
+      <c r="AJ12" s="320"/>
+      <c r="AK12" s="320"/>
+      <c r="AL12" s="320"/>
+      <c r="AM12" s="320"/>
+      <c r="AN12" s="320"/>
+      <c r="AO12" s="320"/>
+      <c r="AP12" s="320"/>
+      <c r="AQ12" s="320"/>
+      <c r="AR12" s="320"/>
+      <c r="AS12" s="433" t="s">
         <v>168</v>
       </c>
       <c r="AT12" s="332"/>
@@ -11240,53 +12709,53 @@
       <c r="A13" s="89">
         <v>6</v>
       </c>
-      <c r="B13" s="334" t="s">
+      <c r="B13" s="317" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="335"/>
-      <c r="D13" s="335"/>
-      <c r="E13" s="335"/>
-      <c r="F13" s="335"/>
-      <c r="G13" s="335"/>
-      <c r="H13" s="335"/>
-      <c r="I13" s="335"/>
-      <c r="J13" s="335"/>
-      <c r="K13" s="335"/>
-      <c r="L13" s="335"/>
-      <c r="M13" s="335"/>
-      <c r="N13" s="335"/>
-      <c r="O13" s="312"/>
-      <c r="P13" s="337" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q13" s="337"/>
-      <c r="R13" s="337"/>
-      <c r="S13" s="337"/>
-      <c r="T13" s="337"/>
-      <c r="U13" s="337"/>
-      <c r="V13" s="337"/>
-      <c r="W13" s="337"/>
-      <c r="X13" s="337"/>
-      <c r="Y13" s="337"/>
-      <c r="Z13" s="337"/>
-      <c r="AA13" s="337"/>
-      <c r="AB13" s="337"/>
-      <c r="AC13" s="337"/>
-      <c r="AD13" s="337"/>
-      <c r="AE13" s="337"/>
-      <c r="AF13" s="337"/>
-      <c r="AG13" s="337"/>
-      <c r="AH13" s="337"/>
-      <c r="AI13" s="337"/>
-      <c r="AJ13" s="337"/>
-      <c r="AK13" s="337"/>
-      <c r="AL13" s="337"/>
-      <c r="AM13" s="337"/>
-      <c r="AN13" s="337"/>
-      <c r="AO13" s="337"/>
-      <c r="AP13" s="337"/>
-      <c r="AQ13" s="337"/>
-      <c r="AR13" s="337"/>
+      <c r="C13" s="309"/>
+      <c r="D13" s="309"/>
+      <c r="E13" s="309"/>
+      <c r="F13" s="309"/>
+      <c r="G13" s="309"/>
+      <c r="H13" s="309"/>
+      <c r="I13" s="309"/>
+      <c r="J13" s="309"/>
+      <c r="K13" s="309"/>
+      <c r="L13" s="309"/>
+      <c r="M13" s="309"/>
+      <c r="N13" s="309"/>
+      <c r="O13" s="311"/>
+      <c r="P13" s="439" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q13" s="439"/>
+      <c r="R13" s="439"/>
+      <c r="S13" s="439"/>
+      <c r="T13" s="439"/>
+      <c r="U13" s="439"/>
+      <c r="V13" s="439"/>
+      <c r="W13" s="439"/>
+      <c r="X13" s="439"/>
+      <c r="Y13" s="439"/>
+      <c r="Z13" s="439"/>
+      <c r="AA13" s="439"/>
+      <c r="AB13" s="439"/>
+      <c r="AC13" s="439"/>
+      <c r="AD13" s="439"/>
+      <c r="AE13" s="439"/>
+      <c r="AF13" s="439"/>
+      <c r="AG13" s="439"/>
+      <c r="AH13" s="439"/>
+      <c r="AI13" s="439"/>
+      <c r="AJ13" s="439"/>
+      <c r="AK13" s="439"/>
+      <c r="AL13" s="439"/>
+      <c r="AM13" s="439"/>
+      <c r="AN13" s="439"/>
+      <c r="AO13" s="439"/>
+      <c r="AP13" s="439"/>
+      <c r="AQ13" s="439"/>
+      <c r="AR13" s="439"/>
       <c r="AS13" s="342" t="s">
         <v>165</v>
       </c>
@@ -11312,84 +12781,8 @@
       <c r="BM13" s="322"/>
       <c r="BN13" s="324"/>
     </row>
-    <row r="14">
-      <c r="A14" s="91">
-        <v>7</v>
-      </c>
-      <c r="B14" s="317" t="s">
-        <v>101</v>
-      </c>
-      <c r="C14" s="309"/>
-      <c r="D14" s="309"/>
-      <c r="E14" s="309"/>
-      <c r="F14" s="309"/>
-      <c r="G14" s="309"/>
-      <c r="H14" s="309"/>
-      <c r="I14" s="309"/>
-      <c r="J14" s="309"/>
-      <c r="K14" s="309"/>
-      <c r="L14" s="309"/>
-      <c r="M14" s="309"/>
-      <c r="N14" s="309"/>
-      <c r="O14" s="309"/>
-      <c r="P14" s="92" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q14" s="93"/>
-      <c r="R14" s="93"/>
-      <c r="S14" s="93"/>
-      <c r="T14" s="93"/>
-      <c r="U14" s="93"/>
-      <c r="V14" s="93"/>
-      <c r="W14" s="93"/>
-      <c r="X14" s="93"/>
-      <c r="Y14" s="93"/>
-      <c r="Z14" s="93"/>
-      <c r="AA14" s="93"/>
-      <c r="AB14" s="93"/>
-      <c r="AC14" s="93"/>
-      <c r="AD14" s="93"/>
-      <c r="AE14" s="93"/>
-      <c r="AF14" s="93"/>
-      <c r="AG14" s="24"/>
-      <c r="AH14" s="93"/>
-      <c r="AI14" s="93"/>
-      <c r="AJ14" s="93"/>
-      <c r="AK14" s="93"/>
-      <c r="AL14" s="93"/>
-      <c r="AM14" s="93"/>
-      <c r="AN14" s="93"/>
-      <c r="AO14" s="93"/>
-      <c r="AP14" s="93"/>
-      <c r="AQ14" s="93"/>
-      <c r="AR14" s="94"/>
-      <c r="AS14" s="322" t="s">
-        <v>120</v>
-      </c>
-      <c r="AT14" s="322"/>
-      <c r="AU14" s="322"/>
-      <c r="AV14" s="322"/>
-      <c r="AW14" s="322"/>
-      <c r="AX14" s="322"/>
-      <c r="AY14" s="322"/>
-      <c r="AZ14" s="322"/>
-      <c r="BA14" s="322"/>
-      <c r="BB14" s="322"/>
-      <c r="BC14" s="322"/>
-      <c r="BD14" s="322"/>
-      <c r="BE14" s="322"/>
-      <c r="BF14" s="322"/>
-      <c r="BG14" s="322"/>
-      <c r="BH14" s="322"/>
-      <c r="BI14" s="322"/>
-      <c r="BJ14" s="322"/>
-      <c r="BK14" s="322"/>
-      <c r="BL14" s="322"/>
-      <c r="BM14" s="322"/>
-      <c r="BN14" s="324"/>
-    </row>
   </sheetData>
-  <mergeCells count="38">
+  <mergeCells count="36">
     <mergeCell ref="A2:AA3"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="G4:O4"/>
@@ -11426,8 +12819,6 @@
     <mergeCell ref="B13:O13"/>
     <mergeCell ref="P13:AR13"/>
     <mergeCell ref="AS13:BN13"/>
-    <mergeCell ref="B14:O14"/>
-    <mergeCell ref="AS14:BN14"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DOC/基本設計/基本設計_emsm_基本給管理リスト.xlsx
+++ b/DOC/基本設計/基本設計_emsm_基本給管理リスト.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169EDFD9-68B2-4CAA-9890-FB4B98E6FF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="840" windowWidth="26805" windowHeight="14535" tabRatio="833" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="5"/>
+    <workbookView xWindow="195" yWindow="840" windowWidth="26805" windowHeight="14535" tabRatio="833" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="9" r:id="rId1"/>
@@ -754,12 +754,228 @@
   <si>
     <t>”対象年度を入力してください”メッセージを画面に表示する</t>
   </si>
+  <si>
+    <t>基本給ID列</t>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>IO</t>
+  </si>
+  <si>
+    <t>稼働時間Fromの項目は空の場合</t>
+  </si>
+  <si>
+    <t>　１）社員情報テーブルから、社員を取得して社員セレクトボックスのプルダウンメニューに設定する、検索ボタン押すとリスト画面が出ます。</t>
+  </si>
+  <si>
+    <t>基本給の科目は文字の場合</t>
+  </si>
+  <si>
+    <t>きほんきゅ</t>
+  </si>
+  <si>
+    <t>　　　　　　　　　　　　　　　　基本給の項目は空の場合</t>
+  </si>
+  <si>
+    <t>　　　　　　　　　　　　　　　　　　　　　　　　対象年度 の項目は空の場合</t>
+  </si>
+  <si>
+    <t>　　　　　　　　　　　　　　　　　　　　　　　　稼働時間Fromの項目は空の場合</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　　　　　　　　　　　　　　　　稼働時間To の科目は空の場合    </t>
+  </si>
+  <si>
+    <t>　　　　　　　基本給の項目は空の場合</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　　　　　　　　稼働時間To の科目は空の場合    </t>
+  </si>
+  <si>
+    <t>　　　　　　　　　　　　稼働時間Fromの項目は空の場合</t>
+  </si>
+  <si>
+    <t>　　　　　　　　　　　　対象年度 の項目は空の場合</t>
+  </si>
+  <si>
+    <t>　　　　　　　　基本給の項目は空の場合</t>
+  </si>
+  <si>
+    <t>"基本給に数値のみを入力してください。"</t>
+  </si>
+  <si>
+    <t>メッセージを画面に表示する</t>
+  </si>
+  <si>
+    <t>　　画面入力後、「登録」ボタンを押す</t>
+  </si>
+  <si>
+    <t>対象年度科目は文字の場合</t>
+  </si>
+  <si>
+    <t>"対象年度のみを入力してください。"</t>
+  </si>
+  <si>
+    <t>"対象年度のみを入力してください。"メッセージを画面に表示する</t>
+  </si>
+  <si>
+    <t>　　　　　　　　基本給の項目は文字の場合</t>
+  </si>
+  <si>
+    <t>"基本給に数値のみを入力してください。"メッセージを画面に表示する</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                     </t>
+  </si>
+  <si>
+    <t>対象年度の科目は月日も入れたの場合</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  </t>
+  </si>
+  <si>
+    <t>稼働時間To の科目は空の場合</t>
+  </si>
+  <si>
+    <t>は文字の場合</t>
+  </si>
+  <si>
+    <t>"稼働期間Fromに数値のみを入力してください。"メッセージを画面に表示する</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">       </t>
+  </si>
+  <si>
+    <t>対象年度の</t>
+  </si>
+  <si>
+    <t>対象年度の科目に月日入れた場合</t>
+  </si>
+  <si>
+    <t>稼働期間Fromの科目</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　　　　　　　　稼働時間To の科目は文字の場合    </t>
+  </si>
+  <si>
+    <t>"稼働期間Toに数値のみを入力してください。"メッセージを画面に表示する</t>
+  </si>
+  <si>
+    <t>なし</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <u val="none"/>
+        <rFont val="Yu Gothic UI"/>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <vertAlign val="baseline"/>
+      </rPr>
+      <t>　</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <u val="none"/>
+        <rFont val="Yu Gothic UI"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <vertAlign val="baseline"/>
+      </rPr>
+      <t>１）社員情報テーブルから、社員を取得して社員セレクトボックスのプルダウンメニューに設定する、検索ボタン押すとリスト画面が出ます。</t>
+    </r>
+  </si>
+  <si>
+    <t>2) 検索ボタン押すとリスト画面が出ます。</t>
+  </si>
+  <si>
+    <t>1) 検索ボタン押すとリスト画面が出ます。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <u val="none"/>
+        <rFont val="Yu Gothic UI"/>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <vertAlign val="baseline"/>
+      </rPr>
+      <t>　</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <u val="none"/>
+        <rFont val="Yu Gothic UI"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <vertAlign val="baseline"/>
+      </rPr>
+      <t>１）社員情報テーブルから、社員を取得して社員セレクトボックスのプルダウンメニューに設定する.</t>
+    </r>
+  </si>
+  <si>
+    <t>2)新規追加ボタン押したとき</t>
+  </si>
+  <si>
+    <t>基本給情報更新</t>
+  </si>
+  <si>
+    <t>２）新規追加ボタン押したとき画面は基本給情報更新に移動する。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <u val="none"/>
+        <rFont val="Yu Gothic UI"/>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <vertAlign val="baseline"/>
+      </rPr>
+      <t>　</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <u val="none"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <vertAlign val="baseline"/>
+      </rPr>
+      <t>１）社員情報テーブルから、社員を取得して社員セレクトボックスのプルダウンメニューに設定する.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="64" x14ac:knownFonts="1">
+  <fonts count="100" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1167,6 +1383,228 @@
       <color theme="1"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Meiryo UI"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Meiryo UI"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="ＭＳ ゴシック"/>
+      <color rgb="FF404040"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="ＭＳ ゴシック"/>
+      <color rgb="FF000000"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="ＭＳ ゴシック"/>
+      <color rgb="FF000000"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <color theme="1"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="ＭＳ ゴシック"/>
+      <color theme="1"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="ＭＳ ゴシック"/>
+      <color theme="1"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="ＭＳ ゴシック"/>
+      <color theme="1"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="ＭＳ ゴシック"/>
+      <color theme="1"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="ＭＳ ゴシック"/>
+      <color rgb="FF000000"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <color theme="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="游ゴシック"/>
+      <color theme="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <color theme="1"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="游ゴシック"/>
+      <color theme="1"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="ＭＳ ゴシック"/>
+      <color rgb="FF000000"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Yu Gothic"/>
+      <color rgb="FF2A00FF"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Yu Gothic"/>
+      <color rgb="FF2A00FF"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="ＭＳ ゴシック"/>
+      <color rgb="FF000000"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Yu Gothic"/>
+      <color rgb="FF000000"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Yu Gothic"/>
+      <color rgb="FF000000"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="ＭＳ ゴシック"/>
+      <color rgb="FF000000"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Yu Gothic UI"/>
+      <color rgb="FF000000"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="ＭＳ ゴシック"/>
+      <color rgb="FF000000"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Meiryo UI"/>
+      <color rgb="FF000000"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Yu Gothic"/>
+      <color rgb="FF2A00FF"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="ＭＳ ゴシック"/>
+      <color rgb="FF2A00FF"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="ＭＳ ゴシック"/>
+      <color rgb="FF000000"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <name val="ＭＳ ゴシック"/>
+      <color rgb="FF000000"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="ＭＳ ゴシック"/>
+      <color rgb="FF000000"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="游ゴシック"/>
+      <color theme="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Meiryo UI"/>
+      <color rgb="FF000000"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <name val="Yu Gothic UI"/>
+      <color rgb="FF000000"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <name val="Yu Gothic UI"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Yu Gothic UI"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="ＭＳ ゴシック"/>
+      <color rgb="FF000000"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1214,7 +1652,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="166">
+  <borders count="214">
     <border>
       <left/>
       <right/>
@@ -3183,13 +3621,733 @@
         <color rgb="FF000000"/>
       </diagonal>
     </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="dotted">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border diagonalDown="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false">
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false">
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="double">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="double">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="450">
+  <cellXfs count="636">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4533,6 +5691,576 @@
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="60" applyFont="1" fillId="0" applyFill="1" borderId="165" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="66" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="67" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="68" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="69" applyFont="1" fillId="2" applyFill="1" borderId="166" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="69" applyFont="1" fillId="2" applyFill="1" borderId="167" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="69" applyFont="1" fillId="2" applyFill="1" borderId="168" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="top"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="0" applyFill="1" borderId="9" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="top"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="71" applyFont="1" fillId="0" applyFill="1" borderId="12" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="71" applyFont="1" fillId="0" applyFill="1" borderId="13" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="71" applyFont="1" fillId="0" applyFill="1" borderId="19" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="72" applyFont="1" fillId="0" applyFill="1" borderId="169" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="72" applyFont="1" fillId="0" applyFill="1" borderId="170" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="72" applyFont="1" fillId="0" applyFill="1" borderId="171" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="72" applyFont="1" fillId="0" applyFill="1" borderId="171" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" applyNumberFormat="1" fontId="71" applyFont="1" fillId="0" applyFill="1" borderId="12" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="73" applyFont="1" fillId="0" applyFill="1" borderId="172" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="73" applyFont="1" fillId="0" applyFill="1" borderId="171" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="0" applyFill="1" borderId="76" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="0" applyFill="1" borderId="74" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="0" applyFill="1" borderId="75" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="0" applyFill="1" borderId="79" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="74" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="0" applyFill="1" borderId="98" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="0" applyFill="1" borderId="99" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="75" applyFont="1" fillId="0" applyFill="1" borderId="167" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="75" applyFont="1" fillId="0" applyFill="1" borderId="168" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="72" applyFont="1" fillId="0" applyFill="1" borderId="166" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="72" applyFont="1" fillId="0" applyFill="1" borderId="167" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="72" applyFont="1" fillId="0" applyFill="1" borderId="173" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="73" applyFont="1" fillId="0" applyFill="1" borderId="174" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="73" applyFont="1" fillId="0" applyFill="1" borderId="175" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="73" applyFont="1" fillId="0" applyFill="1" borderId="176" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="73" applyFont="1" fillId="0" applyFill="1" borderId="177" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="73" applyFont="1" fillId="0" applyFill="1" borderId="169" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="73" applyFont="1" fillId="0" applyFill="1" borderId="178" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="3" applyFill="1" borderId="179" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="3" applyFill="1" borderId="179" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="3" applyFill="1" borderId="163" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="3" applyFill="1" borderId="163" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="76" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="71" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="76" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="71" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="76" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="77" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="77" applyFont="1" fillId="0" applyFill="1" borderId="21" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="78" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="78" applyFont="1" fillId="0" applyFill="1" borderId="137" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="72" applyFont="1" fillId="0" applyFill="1" borderId="171" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="79" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="79" applyFont="1" fillId="0" applyFill="1" borderId="180" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="79" applyFont="1" fillId="0" applyFill="1" borderId="180" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="79" applyFont="1" fillId="0" applyFill="1" borderId="181" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="79" applyFont="1" fillId="0" applyFill="1" borderId="181" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="79" applyFont="1" fillId="0" applyFill="1" borderId="182" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="79" applyFont="1" fillId="0" applyFill="1" borderId="183" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="79" applyFont="1" fillId="0" applyFill="1" borderId="184" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="79" applyFont="1" fillId="0" applyFill="1" borderId="185" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="79" applyFont="1" fillId="0" applyFill="1" borderId="186" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="79" applyFont="1" fillId="0" applyFill="1" borderId="187" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="79" applyFont="1" fillId="0" applyFill="1" borderId="188" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="79" applyFont="1" fillId="0" applyFill="1" borderId="189" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="3" applyFill="1" borderId="179" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="3" applyFill="1" borderId="163" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="73" applyFont="1" fillId="3" applyFill="1" borderId="190" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="73" applyFont="1" fillId="3" applyFill="1" borderId="191" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="73" applyFont="1" fillId="3" applyFill="1" borderId="166" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="73" applyFont="1" fillId="3" applyFill="1" borderId="167" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="73" applyFont="1" fillId="3" applyFill="1" borderId="192" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="79" applyFont="1" fillId="0" applyFill="1" borderId="193" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="79" applyFont="1" fillId="0" applyFill="1" borderId="194" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="79" applyFont="1" fillId="0" applyFill="1" borderId="195" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="3" applyFill="1" borderId="196" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="80" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="81" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="82" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="73" applyFont="1" fillId="3" applyFill="1" borderId="197" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="73" applyFont="1" fillId="3" applyFill="1" borderId="198" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="73" applyFont="1" fillId="3" applyFill="1" borderId="171" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="73" applyFont="1" fillId="3" applyFill="1" borderId="199" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="81" applyFont="1" fillId="0" applyFill="1" borderId="12" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="3" applyFill="1" borderId="158" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="82" applyFont="1" fillId="0" applyFill="1" borderId="13" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="83" applyFont="1" fillId="0" applyFill="1" borderId="12" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="82" applyFont="1" fillId="0" applyFill="1" borderId="193" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="3" applyFill="1" borderId="133" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="3" applyFill="1" borderId="134" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="3" applyFill="1" borderId="12" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="3" applyFill="1" borderId="13" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="3" applyFill="1" borderId="14" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="3" applyFill="1" borderId="133" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="3" applyFill="1" borderId="134" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="3" applyFill="1" borderId="12" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="3" applyFill="1" borderId="13" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="3" applyFill="1" borderId="14" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="3" applyFill="1" borderId="133" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="3" applyFill="1" borderId="134" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="3" applyFill="1" borderId="12" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="3" applyFill="1" borderId="13" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="3" applyFill="1" borderId="14" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="3" applyFill="1" borderId="133" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="3" applyFill="1" borderId="134" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="3" applyFill="1" borderId="12" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="3" applyFill="1" borderId="13" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="3" applyFill="1" borderId="14" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="3" applyFill="1" borderId="133" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="3" applyFill="1" borderId="134" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="3" applyFill="1" borderId="12" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="3" applyFill="1" borderId="13" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="3" applyFill="1" borderId="14" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="3" applyFill="1" borderId="133" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="3" applyFill="1" borderId="134" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="73" applyFont="1" fillId="3" applyFill="1" borderId="190" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="73" applyFont="1" fillId="3" applyFill="1" borderId="200" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="84" applyFont="1" fillId="0" applyFill="1" borderId="12" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="84" applyFont="1" fillId="0" applyFill="1" borderId="12" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="84" applyFont="1" fillId="0" applyFill="1" borderId="201" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="84" applyFont="1" fillId="0" applyFill="1" borderId="202" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="84" applyFont="1" fillId="0" applyFill="1" borderId="202" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="84" applyFont="1" fillId="0" applyFill="1" borderId="203" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="84" applyFont="1" fillId="0" applyFill="1" borderId="204" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="84" applyFont="1" fillId="0" applyFill="1" borderId="204" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="84" applyFont="1" fillId="0" applyFill="1" borderId="197" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="85" applyFont="1" fillId="0" applyFill="1" borderId="205" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="85" applyFont="1" fillId="0" applyFill="1" borderId="194" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="79" applyFont="1" fillId="0" applyFill="1" borderId="206" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="86" applyFont="1" fillId="0" applyFill="1" borderId="204" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="87" applyFont="1" fillId="0" applyFill="1" borderId="194" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="73" applyFont="1" fillId="3" applyFill="1" borderId="190" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="73" applyFont="1" fillId="3" applyFill="1" borderId="166" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="73" applyFont="1" fillId="3" applyFill="1" borderId="167" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="73" applyFont="1" fillId="3" applyFill="1" borderId="163" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="3" applyFill="1" borderId="207" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="3" applyFill="1" borderId="158" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="3" applyFill="1" borderId="196" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="3" applyFill="1" borderId="207" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="3" applyFill="1" borderId="196" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="3" applyFill="1" borderId="137" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="3" applyFill="1" borderId="138" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="3" applyFill="1" borderId="161" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="3" applyFill="1" borderId="163" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="88" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="89" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="85" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="90" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="91" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="92" applyFont="1" fillId="3" applyFill="1" borderId="12" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="93" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="92" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="73" applyFont="1" fillId="3" applyFill="1" borderId="208" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="73" applyFont="1" fillId="3" applyFill="1" borderId="167" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="73" applyFont="1" fillId="3" applyFill="1" borderId="191" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="94" applyFont="1" fillId="0" applyFill="1" borderId="209" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="71" applyFont="1" fillId="0" applyFill="1" borderId="12" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="71" applyFont="1" fillId="0" applyFill="1" borderId="13" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="95" applyFont="1" fillId="0" applyFill="1" borderId="13" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="0" applyFill="1" borderId="13" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="0" applyFill="1" borderId="13" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="73" applyFont="1" fillId="3" applyFill="1" borderId="210" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="73" applyFont="1" fillId="3" applyFill="1" borderId="211" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="92" applyFont="1" fillId="3" applyFill="1" borderId="137" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="73" applyFont="1" fillId="3" applyFill="1" borderId="197" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="92" applyFont="1" fillId="3" applyFill="1" borderId="166" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="73" applyFont="1" fillId="3" applyFill="1" borderId="166" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="92" applyFont="1" fillId="3" applyFill="1" borderId="207" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="3" applyFill="1" borderId="196" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="72" applyFont="1" fillId="0" applyFill="1" borderId="212" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="72" applyFont="1" fillId="0" applyFill="1" borderId="213" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="72" applyFont="1" fillId="0" applyFill="1" borderId="197" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="71" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="72" applyFont="1" fillId="0" applyFill="1" borderId="163" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="96" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="69" applyFont="1" fillId="3" applyFill="1" borderId="167" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="71" applyFont="1" fillId="3" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="70" applyFont="1" fillId="3" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="3" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="3" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="69" applyFont="1" fillId="3" applyFill="1" borderId="166" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="69" applyFont="1" fillId="3" applyFill="1" borderId="168" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="69" applyFont="1" fillId="2" applyFill="1" borderId="197" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="69" applyFont="1" fillId="2" applyFill="1" borderId="208" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="69" applyFont="1" fillId="2" applyFill="1" borderId="190" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5118,7 +6846,7 @@
       <c r="A21" s="5"/>
       <c r="X21" s="7"/>
     </row>
-    <row r="22" ht="12" customFormat="1" s="4">
+    <row r="22" customFormat="1" s="4">
       <c r="A22" s="5"/>
       <c r="G22" s="100" t="s">
         <v>7</v>
@@ -5184,7 +6912,7 @@
       <c r="Q25" s="8"/>
       <c r="X25" s="7"/>
     </row>
-    <row r="26" ht="12" customFormat="1" s="4">
+    <row r="26" customFormat="1" s="4">
       <c r="A26" s="5"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
@@ -5891,8 +7619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF7E19B7-31DE-4E95-B92B-26CE81A60D0C}">
   <dimension ref="A1:BN33"/>
   <sheetViews>
-    <sheetView showGridLines="false" topLeftCell="A1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AX30" sqref="AX30" activeCellId="0"/>
+    <sheetView showGridLines="false" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="BM33" sqref="BM33" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="11.25" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6775,7 +8503,7 @@
       </c>
       <c r="AR10" s="365"/>
       <c r="AS10" s="156" t="s">
-        <v>135</v>
+        <v>226</v>
       </c>
       <c r="AT10" s="157"/>
       <c r="AU10" s="157"/>
@@ -6789,7 +8517,7 @@
       <c r="BC10" s="157"/>
       <c r="BD10" s="158"/>
       <c r="BE10" s="344" t="s">
-        <v>193</v>
+        <v>227</v>
       </c>
       <c r="BF10" s="345"/>
       <c r="BG10" s="345"/>
@@ -6852,7 +8580,9 @@
         <v>172</v>
       </c>
       <c r="AT11" s="157"/>
-      <c r="AU11" s="157"/>
+      <c r="AU11" s="157" t="s">
+        <v>193</v>
+      </c>
       <c r="AV11" s="157"/>
       <c r="AW11" s="157"/>
       <c r="AX11" s="157"/>
@@ -6862,11 +8592,9 @@
       <c r="BB11" s="157"/>
       <c r="BC11" s="157"/>
       <c r="BD11" s="158"/>
-      <c r="BE11" s="345" t="s">
-        <v>193</v>
-      </c>
-      <c r="BF11" s="345"/>
-      <c r="BH11" s="345"/>
+      <c r="BE11" s="452" t="s">
+        <v>67</v>
+      </c>
       <c r="BI11" s="345"/>
       <c r="BJ11" s="345"/>
       <c r="BK11" s="345"/>
@@ -6926,7 +8654,9 @@
       </c>
       <c r="AT12" s="157"/>
       <c r="AU12" s="157"/>
-      <c r="AV12" s="157"/>
+      <c r="AV12" s="157" t="s">
+        <v>193</v>
+      </c>
       <c r="AW12" s="157"/>
       <c r="AX12" s="157"/>
       <c r="AY12" s="157"/>
@@ -6935,8 +8665,8 @@
       <c r="BB12" s="157"/>
       <c r="BC12" s="157"/>
       <c r="BD12" s="158"/>
-      <c r="BE12" s="345" t="s">
-        <v>193</v>
+      <c r="BE12" s="451" t="s">
+        <v>227</v>
       </c>
       <c r="BF12" s="345"/>
       <c r="BG12" s="345"/>
@@ -7002,18 +8732,20 @@
       <c r="AU13" s="157"/>
       <c r="AV13" s="157"/>
       <c r="AW13" s="157"/>
-      <c r="AX13" s="157"/>
+      <c r="AX13" s="157" t="s">
+        <v>193</v>
+      </c>
       <c r="AY13" s="157"/>
       <c r="AZ13" s="157"/>
       <c r="BA13" s="157"/>
       <c r="BB13" s="157"/>
       <c r="BC13" s="157"/>
       <c r="BD13" s="158"/>
-      <c r="BE13" s="345" t="s">
-        <v>193</v>
-      </c>
-      <c r="BF13" s="345"/>
-      <c r="BG13" s="345"/>
+      <c r="BE13" s="417" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF13" s="24"/>
+      <c r="BG13" s="24"/>
       <c r="BH13" s="345"/>
       <c r="BI13" s="345"/>
       <c r="BJ13" s="345"/>
@@ -7075,7 +8807,9 @@
       <c r="AT14" s="157"/>
       <c r="AU14" s="157"/>
       <c r="AV14" s="157"/>
-      <c r="AW14" s="157"/>
+      <c r="AW14" s="450" t="s">
+        <v>193</v>
+      </c>
       <c r="AX14" s="157"/>
       <c r="AY14" s="157"/>
       <c r="AZ14" s="157"/>
@@ -7083,11 +8817,11 @@
       <c r="BB14" s="157"/>
       <c r="BC14" s="157"/>
       <c r="BD14" s="158"/>
-      <c r="BE14" s="345" t="s">
-        <v>193</v>
-      </c>
-      <c r="BF14" s="345"/>
-      <c r="BG14" s="345"/>
+      <c r="BE14" s="417" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF14" s="24"/>
+      <c r="BG14" s="24"/>
       <c r="BH14" s="345"/>
       <c r="BI14" s="345"/>
       <c r="BJ14" s="345"/>
@@ -7148,7 +8882,9 @@
       </c>
       <c r="AT15" s="157"/>
       <c r="AU15" s="157"/>
-      <c r="AV15" s="157"/>
+      <c r="AV15" s="157" t="s">
+        <v>193</v>
+      </c>
       <c r="AW15" s="157"/>
       <c r="AX15" s="157"/>
       <c r="AY15" s="157"/>
@@ -7157,8 +8893,8 @@
       <c r="BB15" s="157"/>
       <c r="BC15" s="157"/>
       <c r="BD15" s="158"/>
-      <c r="BE15" s="345" t="s">
-        <v>193</v>
+      <c r="BE15" s="451" t="s">
+        <v>222</v>
       </c>
       <c r="BF15" s="345"/>
       <c r="BG15" s="345"/>
@@ -7222,7 +8958,9 @@
       </c>
       <c r="AT16" s="157"/>
       <c r="AU16" s="157"/>
-      <c r="AV16" s="157"/>
+      <c r="AV16" s="157" t="s">
+        <v>193</v>
+      </c>
       <c r="AW16" s="157"/>
       <c r="AX16" s="157"/>
       <c r="AY16" s="157"/>
@@ -7232,7 +8970,7 @@
       <c r="BC16" s="157"/>
       <c r="BD16" s="158"/>
       <c r="BE16" s="345" t="s">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="BF16" s="345"/>
       <c r="BG16" s="345"/>
@@ -7298,15 +9036,17 @@
       <c r="AU17" s="157"/>
       <c r="AV17" s="157"/>
       <c r="AW17" s="157"/>
-      <c r="AX17" s="157"/>
+      <c r="AX17" s="157" t="s">
+        <v>193</v>
+      </c>
       <c r="AY17" s="157"/>
       <c r="AZ17" s="157"/>
       <c r="BA17" s="157"/>
       <c r="BB17" s="157"/>
       <c r="BC17" s="157"/>
       <c r="BD17" s="158"/>
-      <c r="BE17" s="345" t="s">
-        <v>193</v>
+      <c r="BE17" s="452" t="s">
+        <v>67</v>
       </c>
       <c r="BF17" s="345"/>
       <c r="BG17" s="345"/>
@@ -7369,8 +9109,10 @@
         <v>13</v>
       </c>
       <c r="AT18" s="157"/>
-      <c r="AU18" s="157"/>
-      <c r="AV18" s="157"/>
+      <c r="AU18" s="450"/>
+      <c r="AV18" s="157" t="s">
+        <v>193</v>
+      </c>
       <c r="AW18" s="157"/>
       <c r="AX18" s="157"/>
       <c r="AY18" s="157"/>
@@ -7380,7 +9122,7 @@
       <c r="BC18" s="157"/>
       <c r="BD18" s="158"/>
       <c r="BE18" s="345" t="s">
-        <v>193</v>
+        <v>227</v>
       </c>
       <c r="BF18" s="345"/>
       <c r="BG18" s="345"/>
@@ -7443,8 +9185,10 @@
         <v>19</v>
       </c>
       <c r="AT19" s="157"/>
-      <c r="AU19" s="157"/>
-      <c r="AV19" s="157"/>
+      <c r="AU19" s="450"/>
+      <c r="AV19" s="157" t="s">
+        <v>193</v>
+      </c>
       <c r="AW19" s="157"/>
       <c r="AX19" s="157"/>
       <c r="AY19" s="157"/>
@@ -7454,7 +9198,7 @@
       <c r="BC19" s="157"/>
       <c r="BD19" s="158"/>
       <c r="BE19" s="345" t="s">
-        <v>193</v>
+        <v>227</v>
       </c>
       <c r="BF19" s="345"/>
       <c r="BG19" s="345"/>
@@ -7988,8 +9732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F81D7B7-FE65-404E-8F94-1E0DE511BF03}">
   <dimension ref="A1:BM33"/>
   <sheetViews>
-    <sheetView showGridLines="false" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AA20" sqref="AA20" activeCellId="0"/>
+    <sheetView showGridLines="false" topLeftCell="A1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AP22" sqref="AP22" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="11.25" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7997,259 +9741,261 @@
     <col min="1" max="1" width="0.75" style="24" customWidth="1"/>
     <col min="2" max="33" width="2.125" style="24"/>
     <col min="34" max="34" width="0.25" style="24" customWidth="1"/>
-    <col min="35" max="255" width="2.125" style="24"/>
-    <col min="256" max="256" width="0.75" style="24" customWidth="1"/>
-    <col min="257" max="288" width="2.125" style="24"/>
-    <col min="289" max="289" width="0.25" style="24" customWidth="1"/>
-    <col min="290" max="511" width="2.125" style="24"/>
-    <col min="512" max="512" width="0.75" style="24" customWidth="1"/>
-    <col min="513" max="544" width="2.125" style="24"/>
-    <col min="545" max="545" width="0.25" style="24" customWidth="1"/>
-    <col min="546" max="767" width="2.125" style="24"/>
-    <col min="768" max="768" width="0.75" style="24" customWidth="1"/>
-    <col min="769" max="800" width="2.125" style="24"/>
-    <col min="801" max="801" width="0.25" style="24" customWidth="1"/>
-    <col min="802" max="1023" width="2.125" style="24"/>
-    <col min="1024" max="1024" width="0.75" style="24" customWidth="1"/>
-    <col min="1025" max="1056" width="2.125" style="24"/>
-    <col min="1057" max="1057" width="0.25" style="24" customWidth="1"/>
-    <col min="1058" max="1279" width="2.125" style="24"/>
-    <col min="1280" max="1280" width="0.75" style="24" customWidth="1"/>
-    <col min="1281" max="1312" width="2.125" style="24"/>
-    <col min="1313" max="1313" width="0.25" style="24" customWidth="1"/>
-    <col min="1314" max="1535" width="2.125" style="24"/>
-    <col min="1536" max="1536" width="0.75" style="24" customWidth="1"/>
-    <col min="1537" max="1568" width="2.125" style="24"/>
-    <col min="1569" max="1569" width="0.25" style="24" customWidth="1"/>
-    <col min="1570" max="1791" width="2.125" style="24"/>
-    <col min="1792" max="1792" width="0.75" style="24" customWidth="1"/>
-    <col min="1793" max="1824" width="2.125" style="24"/>
-    <col min="1825" max="1825" width="0.25" style="24" customWidth="1"/>
-    <col min="1826" max="2047" width="2.125" style="24"/>
-    <col min="2048" max="2048" width="0.75" style="24" customWidth="1"/>
-    <col min="2049" max="2080" width="2.125" style="24"/>
-    <col min="2081" max="2081" width="0.25" style="24" customWidth="1"/>
-    <col min="2082" max="2303" width="2.125" style="24"/>
-    <col min="2304" max="2304" width="0.75" style="24" customWidth="1"/>
-    <col min="2305" max="2336" width="2.125" style="24"/>
-    <col min="2337" max="2337" width="0.25" style="24" customWidth="1"/>
-    <col min="2338" max="2559" width="2.125" style="24"/>
-    <col min="2560" max="2560" width="0.75" style="24" customWidth="1"/>
-    <col min="2561" max="2592" width="2.125" style="24"/>
-    <col min="2593" max="2593" width="0.25" style="24" customWidth="1"/>
-    <col min="2594" max="2815" width="2.125" style="24"/>
-    <col min="2816" max="2816" width="0.75" style="24" customWidth="1"/>
-    <col min="2817" max="2848" width="2.125" style="24"/>
-    <col min="2849" max="2849" width="0.25" style="24" customWidth="1"/>
-    <col min="2850" max="3071" width="2.125" style="24"/>
-    <col min="3072" max="3072" width="0.75" style="24" customWidth="1"/>
-    <col min="3073" max="3104" width="2.125" style="24"/>
-    <col min="3105" max="3105" width="0.25" style="24" customWidth="1"/>
-    <col min="3106" max="3327" width="2.125" style="24"/>
-    <col min="3328" max="3328" width="0.75" style="24" customWidth="1"/>
-    <col min="3329" max="3360" width="2.125" style="24"/>
-    <col min="3361" max="3361" width="0.25" style="24" customWidth="1"/>
-    <col min="3362" max="3583" width="2.125" style="24"/>
-    <col min="3584" max="3584" width="0.75" style="24" customWidth="1"/>
-    <col min="3585" max="3616" width="2.125" style="24"/>
-    <col min="3617" max="3617" width="0.25" style="24" customWidth="1"/>
-    <col min="3618" max="3839" width="2.125" style="24"/>
-    <col min="3840" max="3840" width="0.75" style="24" customWidth="1"/>
-    <col min="3841" max="3872" width="2.125" style="24"/>
-    <col min="3873" max="3873" width="0.25" style="24" customWidth="1"/>
-    <col min="3874" max="4095" width="2.125" style="24"/>
-    <col min="4096" max="4096" width="0.75" style="24" customWidth="1"/>
-    <col min="4097" max="4128" width="2.125" style="24"/>
-    <col min="4129" max="4129" width="0.25" style="24" customWidth="1"/>
-    <col min="4130" max="4351" width="2.125" style="24"/>
-    <col min="4352" max="4352" width="0.75" style="24" customWidth="1"/>
-    <col min="4353" max="4384" width="2.125" style="24"/>
-    <col min="4385" max="4385" width="0.25" style="24" customWidth="1"/>
-    <col min="4386" max="4607" width="2.125" style="24"/>
-    <col min="4608" max="4608" width="0.75" style="24" customWidth="1"/>
-    <col min="4609" max="4640" width="2.125" style="24"/>
-    <col min="4641" max="4641" width="0.25" style="24" customWidth="1"/>
-    <col min="4642" max="4863" width="2.125" style="24"/>
-    <col min="4864" max="4864" width="0.75" style="24" customWidth="1"/>
-    <col min="4865" max="4896" width="2.125" style="24"/>
-    <col min="4897" max="4897" width="0.25" style="24" customWidth="1"/>
-    <col min="4898" max="5119" width="2.125" style="24"/>
-    <col min="5120" max="5120" width="0.75" style="24" customWidth="1"/>
-    <col min="5121" max="5152" width="2.125" style="24"/>
-    <col min="5153" max="5153" width="0.25" style="24" customWidth="1"/>
-    <col min="5154" max="5375" width="2.125" style="24"/>
-    <col min="5376" max="5376" width="0.75" style="24" customWidth="1"/>
-    <col min="5377" max="5408" width="2.125" style="24"/>
-    <col min="5409" max="5409" width="0.25" style="24" customWidth="1"/>
-    <col min="5410" max="5631" width="2.125" style="24"/>
-    <col min="5632" max="5632" width="0.75" style="24" customWidth="1"/>
-    <col min="5633" max="5664" width="2.125" style="24"/>
-    <col min="5665" max="5665" width="0.25" style="24" customWidth="1"/>
-    <col min="5666" max="5887" width="2.125" style="24"/>
-    <col min="5888" max="5888" width="0.75" style="24" customWidth="1"/>
-    <col min="5889" max="5920" width="2.125" style="24"/>
-    <col min="5921" max="5921" width="0.25" style="24" customWidth="1"/>
-    <col min="5922" max="6143" width="2.125" style="24"/>
-    <col min="6144" max="6144" width="0.75" style="24" customWidth="1"/>
-    <col min="6145" max="6176" width="2.125" style="24"/>
-    <col min="6177" max="6177" width="0.25" style="24" customWidth="1"/>
-    <col min="6178" max="6399" width="2.125" style="24"/>
-    <col min="6400" max="6400" width="0.75" style="24" customWidth="1"/>
-    <col min="6401" max="6432" width="2.125" style="24"/>
-    <col min="6433" max="6433" width="0.25" style="24" customWidth="1"/>
-    <col min="6434" max="6655" width="2.125" style="24"/>
-    <col min="6656" max="6656" width="0.75" style="24" customWidth="1"/>
-    <col min="6657" max="6688" width="2.125" style="24"/>
-    <col min="6689" max="6689" width="0.25" style="24" customWidth="1"/>
-    <col min="6690" max="6911" width="2.125" style="24"/>
-    <col min="6912" max="6912" width="0.75" style="24" customWidth="1"/>
-    <col min="6913" max="6944" width="2.125" style="24"/>
-    <col min="6945" max="6945" width="0.25" style="24" customWidth="1"/>
-    <col min="6946" max="7167" width="2.125" style="24"/>
-    <col min="7168" max="7168" width="0.75" style="24" customWidth="1"/>
-    <col min="7169" max="7200" width="2.125" style="24"/>
-    <col min="7201" max="7201" width="0.25" style="24" customWidth="1"/>
-    <col min="7202" max="7423" width="2.125" style="24"/>
-    <col min="7424" max="7424" width="0.75" style="24" customWidth="1"/>
-    <col min="7425" max="7456" width="2.125" style="24"/>
-    <col min="7457" max="7457" width="0.25" style="24" customWidth="1"/>
-    <col min="7458" max="7679" width="2.125" style="24"/>
-    <col min="7680" max="7680" width="0.75" style="24" customWidth="1"/>
-    <col min="7681" max="7712" width="2.125" style="24"/>
-    <col min="7713" max="7713" width="0.25" style="24" customWidth="1"/>
-    <col min="7714" max="7935" width="2.125" style="24"/>
-    <col min="7936" max="7936" width="0.75" style="24" customWidth="1"/>
-    <col min="7937" max="7968" width="2.125" style="24"/>
-    <col min="7969" max="7969" width="0.25" style="24" customWidth="1"/>
-    <col min="7970" max="8191" width="2.125" style="24"/>
-    <col min="8192" max="8192" width="0.75" style="24" customWidth="1"/>
-    <col min="8193" max="8224" width="2.125" style="24"/>
-    <col min="8225" max="8225" width="0.25" style="24" customWidth="1"/>
-    <col min="8226" max="8447" width="2.125" style="24"/>
-    <col min="8448" max="8448" width="0.75" style="24" customWidth="1"/>
-    <col min="8449" max="8480" width="2.125" style="24"/>
-    <col min="8481" max="8481" width="0.25" style="24" customWidth="1"/>
-    <col min="8482" max="8703" width="2.125" style="24"/>
-    <col min="8704" max="8704" width="0.75" style="24" customWidth="1"/>
-    <col min="8705" max="8736" width="2.125" style="24"/>
-    <col min="8737" max="8737" width="0.25" style="24" customWidth="1"/>
-    <col min="8738" max="8959" width="2.125" style="24"/>
-    <col min="8960" max="8960" width="0.75" style="24" customWidth="1"/>
-    <col min="8961" max="8992" width="2.125" style="24"/>
-    <col min="8993" max="8993" width="0.25" style="24" customWidth="1"/>
-    <col min="8994" max="9215" width="2.125" style="24"/>
-    <col min="9216" max="9216" width="0.75" style="24" customWidth="1"/>
-    <col min="9217" max="9248" width="2.125" style="24"/>
-    <col min="9249" max="9249" width="0.25" style="24" customWidth="1"/>
-    <col min="9250" max="9471" width="2.125" style="24"/>
-    <col min="9472" max="9472" width="0.75" style="24" customWidth="1"/>
-    <col min="9473" max="9504" width="2.125" style="24"/>
-    <col min="9505" max="9505" width="0.25" style="24" customWidth="1"/>
-    <col min="9506" max="9727" width="2.125" style="24"/>
-    <col min="9728" max="9728" width="0.75" style="24" customWidth="1"/>
-    <col min="9729" max="9760" width="2.125" style="24"/>
-    <col min="9761" max="9761" width="0.25" style="24" customWidth="1"/>
-    <col min="9762" max="9983" width="2.125" style="24"/>
-    <col min="9984" max="9984" width="0.75" style="24" customWidth="1"/>
-    <col min="9985" max="10016" width="2.125" style="24"/>
-    <col min="10017" max="10017" width="0.25" style="24" customWidth="1"/>
-    <col min="10018" max="10239" width="2.125" style="24"/>
-    <col min="10240" max="10240" width="0.75" style="24" customWidth="1"/>
-    <col min="10241" max="10272" width="2.125" style="24"/>
-    <col min="10273" max="10273" width="0.25" style="24" customWidth="1"/>
-    <col min="10274" max="10495" width="2.125" style="24"/>
-    <col min="10496" max="10496" width="0.75" style="24" customWidth="1"/>
-    <col min="10497" max="10528" width="2.125" style="24"/>
-    <col min="10529" max="10529" width="0.25" style="24" customWidth="1"/>
-    <col min="10530" max="10751" width="2.125" style="24"/>
-    <col min="10752" max="10752" width="0.75" style="24" customWidth="1"/>
-    <col min="10753" max="10784" width="2.125" style="24"/>
-    <col min="10785" max="10785" width="0.25" style="24" customWidth="1"/>
-    <col min="10786" max="11007" width="2.125" style="24"/>
-    <col min="11008" max="11008" width="0.75" style="24" customWidth="1"/>
-    <col min="11009" max="11040" width="2.125" style="24"/>
-    <col min="11041" max="11041" width="0.25" style="24" customWidth="1"/>
-    <col min="11042" max="11263" width="2.125" style="24"/>
-    <col min="11264" max="11264" width="0.75" style="24" customWidth="1"/>
-    <col min="11265" max="11296" width="2.125" style="24"/>
-    <col min="11297" max="11297" width="0.25" style="24" customWidth="1"/>
-    <col min="11298" max="11519" width="2.125" style="24"/>
-    <col min="11520" max="11520" width="0.75" style="24" customWidth="1"/>
-    <col min="11521" max="11552" width="2.125" style="24"/>
-    <col min="11553" max="11553" width="0.25" style="24" customWidth="1"/>
-    <col min="11554" max="11775" width="2.125" style="24"/>
-    <col min="11776" max="11776" width="0.75" style="24" customWidth="1"/>
-    <col min="11777" max="11808" width="2.125" style="24"/>
-    <col min="11809" max="11809" width="0.25" style="24" customWidth="1"/>
-    <col min="11810" max="12031" width="2.125" style="24"/>
-    <col min="12032" max="12032" width="0.75" style="24" customWidth="1"/>
-    <col min="12033" max="12064" width="2.125" style="24"/>
-    <col min="12065" max="12065" width="0.25" style="24" customWidth="1"/>
-    <col min="12066" max="12287" width="2.125" style="24"/>
-    <col min="12288" max="12288" width="0.75" style="24" customWidth="1"/>
-    <col min="12289" max="12320" width="2.125" style="24"/>
-    <col min="12321" max="12321" width="0.25" style="24" customWidth="1"/>
-    <col min="12322" max="12543" width="2.125" style="24"/>
-    <col min="12544" max="12544" width="0.75" style="24" customWidth="1"/>
-    <col min="12545" max="12576" width="2.125" style="24"/>
-    <col min="12577" max="12577" width="0.25" style="24" customWidth="1"/>
-    <col min="12578" max="12799" width="2.125" style="24"/>
-    <col min="12800" max="12800" width="0.75" style="24" customWidth="1"/>
-    <col min="12801" max="12832" width="2.125" style="24"/>
-    <col min="12833" max="12833" width="0.25" style="24" customWidth="1"/>
-    <col min="12834" max="13055" width="2.125" style="24"/>
-    <col min="13056" max="13056" width="0.75" style="24" customWidth="1"/>
-    <col min="13057" max="13088" width="2.125" style="24"/>
-    <col min="13089" max="13089" width="0.25" style="24" customWidth="1"/>
-    <col min="13090" max="13311" width="2.125" style="24"/>
-    <col min="13312" max="13312" width="0.75" style="24" customWidth="1"/>
-    <col min="13313" max="13344" width="2.125" style="24"/>
-    <col min="13345" max="13345" width="0.25" style="24" customWidth="1"/>
-    <col min="13346" max="13567" width="2.125" style="24"/>
-    <col min="13568" max="13568" width="0.75" style="24" customWidth="1"/>
-    <col min="13569" max="13600" width="2.125" style="24"/>
-    <col min="13601" max="13601" width="0.25" style="24" customWidth="1"/>
-    <col min="13602" max="13823" width="2.125" style="24"/>
-    <col min="13824" max="13824" width="0.75" style="24" customWidth="1"/>
-    <col min="13825" max="13856" width="2.125" style="24"/>
-    <col min="13857" max="13857" width="0.25" style="24" customWidth="1"/>
-    <col min="13858" max="14079" width="2.125" style="24"/>
-    <col min="14080" max="14080" width="0.75" style="24" customWidth="1"/>
-    <col min="14081" max="14112" width="2.125" style="24"/>
-    <col min="14113" max="14113" width="0.25" style="24" customWidth="1"/>
-    <col min="14114" max="14335" width="2.125" style="24"/>
-    <col min="14336" max="14336" width="0.75" style="24" customWidth="1"/>
-    <col min="14337" max="14368" width="2.125" style="24"/>
-    <col min="14369" max="14369" width="0.25" style="24" customWidth="1"/>
-    <col min="14370" max="14591" width="2.125" style="24"/>
-    <col min="14592" max="14592" width="0.75" style="24" customWidth="1"/>
-    <col min="14593" max="14624" width="2.125" style="24"/>
-    <col min="14625" max="14625" width="0.25" style="24" customWidth="1"/>
-    <col min="14626" max="14847" width="2.125" style="24"/>
-    <col min="14848" max="14848" width="0.75" style="24" customWidth="1"/>
-    <col min="14849" max="14880" width="2.125" style="24"/>
-    <col min="14881" max="14881" width="0.25" style="24" customWidth="1"/>
-    <col min="14882" max="15103" width="2.125" style="24"/>
-    <col min="15104" max="15104" width="0.75" style="24" customWidth="1"/>
-    <col min="15105" max="15136" width="2.125" style="24"/>
-    <col min="15137" max="15137" width="0.25" style="24" customWidth="1"/>
-    <col min="15138" max="15359" width="2.125" style="24"/>
-    <col min="15360" max="15360" width="0.75" style="24" customWidth="1"/>
-    <col min="15361" max="15392" width="2.125" style="24"/>
-    <col min="15393" max="15393" width="0.25" style="24" customWidth="1"/>
-    <col min="15394" max="15615" width="2.125" style="24"/>
-    <col min="15616" max="15616" width="0.75" style="24" customWidth="1"/>
-    <col min="15617" max="15648" width="2.125" style="24"/>
-    <col min="15649" max="15649" width="0.25" style="24" customWidth="1"/>
-    <col min="15650" max="15871" width="2.125" style="24"/>
-    <col min="15872" max="15872" width="0.75" style="24" customWidth="1"/>
-    <col min="15873" max="15904" width="2.125" style="24"/>
-    <col min="15905" max="15905" width="0.25" style="24" customWidth="1"/>
-    <col min="15906" max="16127" width="2.125" style="24"/>
-    <col min="16128" max="16128" width="0.75" style="24" customWidth="1"/>
-    <col min="16129" max="16160" width="2.125" style="24"/>
-    <col min="16161" max="16161" width="0.25" style="24" customWidth="1"/>
-    <col min="16162" max="16384" width="2.125" style="24"/>
+    <col min="35" max="62" width="2.125" style="24"/>
+    <col min="63" max="63" width="1.375" style="24" customWidth="1"/>
+    <col min="64" max="254" width="2.125" style="24"/>
+    <col min="255" max="255" width="0.75" style="24" customWidth="1"/>
+    <col min="256" max="287" width="2.125" style="24"/>
+    <col min="288" max="288" width="0.25" style="24" customWidth="1"/>
+    <col min="289" max="510" width="2.125" style="24"/>
+    <col min="511" max="511" width="0.75" style="24" customWidth="1"/>
+    <col min="512" max="543" width="2.125" style="24"/>
+    <col min="544" max="544" width="0.25" style="24" customWidth="1"/>
+    <col min="545" max="766" width="2.125" style="24"/>
+    <col min="767" max="767" width="0.75" style="24" customWidth="1"/>
+    <col min="768" max="799" width="2.125" style="24"/>
+    <col min="800" max="800" width="0.25" style="24" customWidth="1"/>
+    <col min="801" max="1022" width="2.125" style="24"/>
+    <col min="1023" max="1023" width="0.75" style="24" customWidth="1"/>
+    <col min="1024" max="1055" width="2.125" style="24"/>
+    <col min="1056" max="1056" width="0.25" style="24" customWidth="1"/>
+    <col min="1057" max="1278" width="2.125" style="24"/>
+    <col min="1279" max="1279" width="0.75" style="24" customWidth="1"/>
+    <col min="1280" max="1311" width="2.125" style="24"/>
+    <col min="1312" max="1312" width="0.25" style="24" customWidth="1"/>
+    <col min="1313" max="1534" width="2.125" style="24"/>
+    <col min="1535" max="1535" width="0.75" style="24" customWidth="1"/>
+    <col min="1536" max="1567" width="2.125" style="24"/>
+    <col min="1568" max="1568" width="0.25" style="24" customWidth="1"/>
+    <col min="1569" max="1790" width="2.125" style="24"/>
+    <col min="1791" max="1791" width="0.75" style="24" customWidth="1"/>
+    <col min="1792" max="1823" width="2.125" style="24"/>
+    <col min="1824" max="1824" width="0.25" style="24" customWidth="1"/>
+    <col min="1825" max="2046" width="2.125" style="24"/>
+    <col min="2047" max="2047" width="0.75" style="24" customWidth="1"/>
+    <col min="2048" max="2079" width="2.125" style="24"/>
+    <col min="2080" max="2080" width="0.25" style="24" customWidth="1"/>
+    <col min="2081" max="2302" width="2.125" style="24"/>
+    <col min="2303" max="2303" width="0.75" style="24" customWidth="1"/>
+    <col min="2304" max="2335" width="2.125" style="24"/>
+    <col min="2336" max="2336" width="0.25" style="24" customWidth="1"/>
+    <col min="2337" max="2558" width="2.125" style="24"/>
+    <col min="2559" max="2559" width="0.75" style="24" customWidth="1"/>
+    <col min="2560" max="2591" width="2.125" style="24"/>
+    <col min="2592" max="2592" width="0.25" style="24" customWidth="1"/>
+    <col min="2593" max="2814" width="2.125" style="24"/>
+    <col min="2815" max="2815" width="0.75" style="24" customWidth="1"/>
+    <col min="2816" max="2847" width="2.125" style="24"/>
+    <col min="2848" max="2848" width="0.25" style="24" customWidth="1"/>
+    <col min="2849" max="3070" width="2.125" style="24"/>
+    <col min="3071" max="3071" width="0.75" style="24" customWidth="1"/>
+    <col min="3072" max="3103" width="2.125" style="24"/>
+    <col min="3104" max="3104" width="0.25" style="24" customWidth="1"/>
+    <col min="3105" max="3326" width="2.125" style="24"/>
+    <col min="3327" max="3327" width="0.75" style="24" customWidth="1"/>
+    <col min="3328" max="3359" width="2.125" style="24"/>
+    <col min="3360" max="3360" width="0.25" style="24" customWidth="1"/>
+    <col min="3361" max="3582" width="2.125" style="24"/>
+    <col min="3583" max="3583" width="0.75" style="24" customWidth="1"/>
+    <col min="3584" max="3615" width="2.125" style="24"/>
+    <col min="3616" max="3616" width="0.25" style="24" customWidth="1"/>
+    <col min="3617" max="3838" width="2.125" style="24"/>
+    <col min="3839" max="3839" width="0.75" style="24" customWidth="1"/>
+    <col min="3840" max="3871" width="2.125" style="24"/>
+    <col min="3872" max="3872" width="0.25" style="24" customWidth="1"/>
+    <col min="3873" max="4094" width="2.125" style="24"/>
+    <col min="4095" max="4095" width="0.75" style="24" customWidth="1"/>
+    <col min="4096" max="4127" width="2.125" style="24"/>
+    <col min="4128" max="4128" width="0.25" style="24" customWidth="1"/>
+    <col min="4129" max="4350" width="2.125" style="24"/>
+    <col min="4351" max="4351" width="0.75" style="24" customWidth="1"/>
+    <col min="4352" max="4383" width="2.125" style="24"/>
+    <col min="4384" max="4384" width="0.25" style="24" customWidth="1"/>
+    <col min="4385" max="4606" width="2.125" style="24"/>
+    <col min="4607" max="4607" width="0.75" style="24" customWidth="1"/>
+    <col min="4608" max="4639" width="2.125" style="24"/>
+    <col min="4640" max="4640" width="0.25" style="24" customWidth="1"/>
+    <col min="4641" max="4862" width="2.125" style="24"/>
+    <col min="4863" max="4863" width="0.75" style="24" customWidth="1"/>
+    <col min="4864" max="4895" width="2.125" style="24"/>
+    <col min="4896" max="4896" width="0.25" style="24" customWidth="1"/>
+    <col min="4897" max="5118" width="2.125" style="24"/>
+    <col min="5119" max="5119" width="0.75" style="24" customWidth="1"/>
+    <col min="5120" max="5151" width="2.125" style="24"/>
+    <col min="5152" max="5152" width="0.25" style="24" customWidth="1"/>
+    <col min="5153" max="5374" width="2.125" style="24"/>
+    <col min="5375" max="5375" width="0.75" style="24" customWidth="1"/>
+    <col min="5376" max="5407" width="2.125" style="24"/>
+    <col min="5408" max="5408" width="0.25" style="24" customWidth="1"/>
+    <col min="5409" max="5630" width="2.125" style="24"/>
+    <col min="5631" max="5631" width="0.75" style="24" customWidth="1"/>
+    <col min="5632" max="5663" width="2.125" style="24"/>
+    <col min="5664" max="5664" width="0.25" style="24" customWidth="1"/>
+    <col min="5665" max="5886" width="2.125" style="24"/>
+    <col min="5887" max="5887" width="0.75" style="24" customWidth="1"/>
+    <col min="5888" max="5919" width="2.125" style="24"/>
+    <col min="5920" max="5920" width="0.25" style="24" customWidth="1"/>
+    <col min="5921" max="6142" width="2.125" style="24"/>
+    <col min="6143" max="6143" width="0.75" style="24" customWidth="1"/>
+    <col min="6144" max="6175" width="2.125" style="24"/>
+    <col min="6176" max="6176" width="0.25" style="24" customWidth="1"/>
+    <col min="6177" max="6398" width="2.125" style="24"/>
+    <col min="6399" max="6399" width="0.75" style="24" customWidth="1"/>
+    <col min="6400" max="6431" width="2.125" style="24"/>
+    <col min="6432" max="6432" width="0.25" style="24" customWidth="1"/>
+    <col min="6433" max="6654" width="2.125" style="24"/>
+    <col min="6655" max="6655" width="0.75" style="24" customWidth="1"/>
+    <col min="6656" max="6687" width="2.125" style="24"/>
+    <col min="6688" max="6688" width="0.25" style="24" customWidth="1"/>
+    <col min="6689" max="6910" width="2.125" style="24"/>
+    <col min="6911" max="6911" width="0.75" style="24" customWidth="1"/>
+    <col min="6912" max="6943" width="2.125" style="24"/>
+    <col min="6944" max="6944" width="0.25" style="24" customWidth="1"/>
+    <col min="6945" max="7166" width="2.125" style="24"/>
+    <col min="7167" max="7167" width="0.75" style="24" customWidth="1"/>
+    <col min="7168" max="7199" width="2.125" style="24"/>
+    <col min="7200" max="7200" width="0.25" style="24" customWidth="1"/>
+    <col min="7201" max="7422" width="2.125" style="24"/>
+    <col min="7423" max="7423" width="0.75" style="24" customWidth="1"/>
+    <col min="7424" max="7455" width="2.125" style="24"/>
+    <col min="7456" max="7456" width="0.25" style="24" customWidth="1"/>
+    <col min="7457" max="7678" width="2.125" style="24"/>
+    <col min="7679" max="7679" width="0.75" style="24" customWidth="1"/>
+    <col min="7680" max="7711" width="2.125" style="24"/>
+    <col min="7712" max="7712" width="0.25" style="24" customWidth="1"/>
+    <col min="7713" max="7934" width="2.125" style="24"/>
+    <col min="7935" max="7935" width="0.75" style="24" customWidth="1"/>
+    <col min="7936" max="7967" width="2.125" style="24"/>
+    <col min="7968" max="7968" width="0.25" style="24" customWidth="1"/>
+    <col min="7969" max="8190" width="2.125" style="24"/>
+    <col min="8191" max="8191" width="0.75" style="24" customWidth="1"/>
+    <col min="8192" max="8223" width="2.125" style="24"/>
+    <col min="8224" max="8224" width="0.25" style="24" customWidth="1"/>
+    <col min="8225" max="8446" width="2.125" style="24"/>
+    <col min="8447" max="8447" width="0.75" style="24" customWidth="1"/>
+    <col min="8448" max="8479" width="2.125" style="24"/>
+    <col min="8480" max="8480" width="0.25" style="24" customWidth="1"/>
+    <col min="8481" max="8702" width="2.125" style="24"/>
+    <col min="8703" max="8703" width="0.75" style="24" customWidth="1"/>
+    <col min="8704" max="8735" width="2.125" style="24"/>
+    <col min="8736" max="8736" width="0.25" style="24" customWidth="1"/>
+    <col min="8737" max="8958" width="2.125" style="24"/>
+    <col min="8959" max="8959" width="0.75" style="24" customWidth="1"/>
+    <col min="8960" max="8991" width="2.125" style="24"/>
+    <col min="8992" max="8992" width="0.25" style="24" customWidth="1"/>
+    <col min="8993" max="9214" width="2.125" style="24"/>
+    <col min="9215" max="9215" width="0.75" style="24" customWidth="1"/>
+    <col min="9216" max="9247" width="2.125" style="24"/>
+    <col min="9248" max="9248" width="0.25" style="24" customWidth="1"/>
+    <col min="9249" max="9470" width="2.125" style="24"/>
+    <col min="9471" max="9471" width="0.75" style="24" customWidth="1"/>
+    <col min="9472" max="9503" width="2.125" style="24"/>
+    <col min="9504" max="9504" width="0.25" style="24" customWidth="1"/>
+    <col min="9505" max="9726" width="2.125" style="24"/>
+    <col min="9727" max="9727" width="0.75" style="24" customWidth="1"/>
+    <col min="9728" max="9759" width="2.125" style="24"/>
+    <col min="9760" max="9760" width="0.25" style="24" customWidth="1"/>
+    <col min="9761" max="9982" width="2.125" style="24"/>
+    <col min="9983" max="9983" width="0.75" style="24" customWidth="1"/>
+    <col min="9984" max="10015" width="2.125" style="24"/>
+    <col min="10016" max="10016" width="0.25" style="24" customWidth="1"/>
+    <col min="10017" max="10238" width="2.125" style="24"/>
+    <col min="10239" max="10239" width="0.75" style="24" customWidth="1"/>
+    <col min="10240" max="10271" width="2.125" style="24"/>
+    <col min="10272" max="10272" width="0.25" style="24" customWidth="1"/>
+    <col min="10273" max="10494" width="2.125" style="24"/>
+    <col min="10495" max="10495" width="0.75" style="24" customWidth="1"/>
+    <col min="10496" max="10527" width="2.125" style="24"/>
+    <col min="10528" max="10528" width="0.25" style="24" customWidth="1"/>
+    <col min="10529" max="10750" width="2.125" style="24"/>
+    <col min="10751" max="10751" width="0.75" style="24" customWidth="1"/>
+    <col min="10752" max="10783" width="2.125" style="24"/>
+    <col min="10784" max="10784" width="0.25" style="24" customWidth="1"/>
+    <col min="10785" max="11006" width="2.125" style="24"/>
+    <col min="11007" max="11007" width="0.75" style="24" customWidth="1"/>
+    <col min="11008" max="11039" width="2.125" style="24"/>
+    <col min="11040" max="11040" width="0.25" style="24" customWidth="1"/>
+    <col min="11041" max="11262" width="2.125" style="24"/>
+    <col min="11263" max="11263" width="0.75" style="24" customWidth="1"/>
+    <col min="11264" max="11295" width="2.125" style="24"/>
+    <col min="11296" max="11296" width="0.25" style="24" customWidth="1"/>
+    <col min="11297" max="11518" width="2.125" style="24"/>
+    <col min="11519" max="11519" width="0.75" style="24" customWidth="1"/>
+    <col min="11520" max="11551" width="2.125" style="24"/>
+    <col min="11552" max="11552" width="0.25" style="24" customWidth="1"/>
+    <col min="11553" max="11774" width="2.125" style="24"/>
+    <col min="11775" max="11775" width="0.75" style="24" customWidth="1"/>
+    <col min="11776" max="11807" width="2.125" style="24"/>
+    <col min="11808" max="11808" width="0.25" style="24" customWidth="1"/>
+    <col min="11809" max="12030" width="2.125" style="24"/>
+    <col min="12031" max="12031" width="0.75" style="24" customWidth="1"/>
+    <col min="12032" max="12063" width="2.125" style="24"/>
+    <col min="12064" max="12064" width="0.25" style="24" customWidth="1"/>
+    <col min="12065" max="12286" width="2.125" style="24"/>
+    <col min="12287" max="12287" width="0.75" style="24" customWidth="1"/>
+    <col min="12288" max="12319" width="2.125" style="24"/>
+    <col min="12320" max="12320" width="0.25" style="24" customWidth="1"/>
+    <col min="12321" max="12542" width="2.125" style="24"/>
+    <col min="12543" max="12543" width="0.75" style="24" customWidth="1"/>
+    <col min="12544" max="12575" width="2.125" style="24"/>
+    <col min="12576" max="12576" width="0.25" style="24" customWidth="1"/>
+    <col min="12577" max="12798" width="2.125" style="24"/>
+    <col min="12799" max="12799" width="0.75" style="24" customWidth="1"/>
+    <col min="12800" max="12831" width="2.125" style="24"/>
+    <col min="12832" max="12832" width="0.25" style="24" customWidth="1"/>
+    <col min="12833" max="13054" width="2.125" style="24"/>
+    <col min="13055" max="13055" width="0.75" style="24" customWidth="1"/>
+    <col min="13056" max="13087" width="2.125" style="24"/>
+    <col min="13088" max="13088" width="0.25" style="24" customWidth="1"/>
+    <col min="13089" max="13310" width="2.125" style="24"/>
+    <col min="13311" max="13311" width="0.75" style="24" customWidth="1"/>
+    <col min="13312" max="13343" width="2.125" style="24"/>
+    <col min="13344" max="13344" width="0.25" style="24" customWidth="1"/>
+    <col min="13345" max="13566" width="2.125" style="24"/>
+    <col min="13567" max="13567" width="0.75" style="24" customWidth="1"/>
+    <col min="13568" max="13599" width="2.125" style="24"/>
+    <col min="13600" max="13600" width="0.25" style="24" customWidth="1"/>
+    <col min="13601" max="13822" width="2.125" style="24"/>
+    <col min="13823" max="13823" width="0.75" style="24" customWidth="1"/>
+    <col min="13824" max="13855" width="2.125" style="24"/>
+    <col min="13856" max="13856" width="0.25" style="24" customWidth="1"/>
+    <col min="13857" max="14078" width="2.125" style="24"/>
+    <col min="14079" max="14079" width="0.75" style="24" customWidth="1"/>
+    <col min="14080" max="14111" width="2.125" style="24"/>
+    <col min="14112" max="14112" width="0.25" style="24" customWidth="1"/>
+    <col min="14113" max="14334" width="2.125" style="24"/>
+    <col min="14335" max="14335" width="0.75" style="24" customWidth="1"/>
+    <col min="14336" max="14367" width="2.125" style="24"/>
+    <col min="14368" max="14368" width="0.25" style="24" customWidth="1"/>
+    <col min="14369" max="14590" width="2.125" style="24"/>
+    <col min="14591" max="14591" width="0.75" style="24" customWidth="1"/>
+    <col min="14592" max="14623" width="2.125" style="24"/>
+    <col min="14624" max="14624" width="0.25" style="24" customWidth="1"/>
+    <col min="14625" max="14846" width="2.125" style="24"/>
+    <col min="14847" max="14847" width="0.75" style="24" customWidth="1"/>
+    <col min="14848" max="14879" width="2.125" style="24"/>
+    <col min="14880" max="14880" width="0.25" style="24" customWidth="1"/>
+    <col min="14881" max="15102" width="2.125" style="24"/>
+    <col min="15103" max="15103" width="0.75" style="24" customWidth="1"/>
+    <col min="15104" max="15135" width="2.125" style="24"/>
+    <col min="15136" max="15136" width="0.25" style="24" customWidth="1"/>
+    <col min="15137" max="15358" width="2.125" style="24"/>
+    <col min="15359" max="15359" width="0.75" style="24" customWidth="1"/>
+    <col min="15360" max="15391" width="2.125" style="24"/>
+    <col min="15392" max="15392" width="0.25" style="24" customWidth="1"/>
+    <col min="15393" max="15614" width="2.125" style="24"/>
+    <col min="15615" max="15615" width="0.75" style="24" customWidth="1"/>
+    <col min="15616" max="15647" width="2.125" style="24"/>
+    <col min="15648" max="15648" width="0.25" style="24" customWidth="1"/>
+    <col min="15649" max="15870" width="2.125" style="24"/>
+    <col min="15871" max="15871" width="0.75" style="24" customWidth="1"/>
+    <col min="15872" max="15903" width="2.125" style="24"/>
+    <col min="15904" max="15904" width="0.25" style="24" customWidth="1"/>
+    <col min="15905" max="16126" width="2.125" style="24"/>
+    <col min="16127" max="16127" width="0.75" style="24" customWidth="1"/>
+    <col min="16128" max="16159" width="2.125" style="24"/>
+    <col min="16160" max="16160" width="0.25" style="24" customWidth="1"/>
+    <col min="16161" max="16384" width="2.125" style="24"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" ht="12">
@@ -8316,7 +10062,6 @@
       <c r="BI1" s="21"/>
       <c r="BJ1" s="21"/>
       <c r="BK1" s="21"/>
-      <c r="BL1" s="31"/>
     </row>
     <row r="2" customHeight="1" ht="12">
       <c r="A2" s="116" t="s">
@@ -8369,7 +10114,6 @@
       <c r="BI2" s="26"/>
       <c r="BJ2" s="26"/>
       <c r="BK2" s="26"/>
-      <c r="BL2" s="31"/>
     </row>
     <row r="3" customHeight="1" ht="15">
       <c r="A3" s="116"/>
@@ -8420,7 +10164,6 @@
       <c r="BI3" s="25"/>
       <c r="BJ3" s="25"/>
       <c r="BK3" s="25"/>
-      <c r="BL3" s="32"/>
     </row>
     <row r="4" customHeight="1" ht="12">
       <c r="A4" s="189" t="s">
@@ -8491,18 +10234,17 @@
       <c r="BB4" s="205"/>
       <c r="BC4" s="205"/>
       <c r="BD4" s="205"/>
-      <c r="BE4" s="201" t="s">
+      <c r="BE4" s="130" t="s">
         <v>15</v>
       </c>
-      <c r="BF4" s="202"/>
-      <c r="BG4" s="203"/>
-      <c r="BH4" s="204" t="s">
+      <c r="BF4" s="131"/>
+      <c r="BG4" s="132"/>
+      <c r="BH4" s="133" t="s">
         <v>125</v>
       </c>
-      <c r="BI4" s="205"/>
-      <c r="BJ4" s="205"/>
-      <c r="BK4" s="205"/>
-      <c r="BL4" s="33"/>
+      <c r="BI4" s="134"/>
+      <c r="BJ4" s="134"/>
+      <c r="BK4" s="135"/>
     </row>
     <row r="5" customHeight="1" ht="12">
       <c r="A5" s="206" t="s">
@@ -8569,16 +10311,15 @@
       <c r="BB5" s="215"/>
       <c r="BC5" s="215"/>
       <c r="BD5" s="215"/>
-      <c r="BE5" s="214" t="s">
+      <c r="BE5" s="458" t="s">
         <v>20</v>
       </c>
-      <c r="BF5" s="215"/>
-      <c r="BG5" s="216"/>
-      <c r="BH5" s="215"/>
-      <c r="BI5" s="212"/>
-      <c r="BJ5" s="212"/>
-      <c r="BK5" s="212"/>
-      <c r="BL5" s="34"/>
+      <c r="BF5" s="459"/>
+      <c r="BG5" s="460"/>
+      <c r="BH5" s="459"/>
+      <c r="BI5" s="134"/>
+      <c r="BJ5" s="134"/>
+      <c r="BK5" s="135"/>
     </row>
     <row r="6" customHeight="1" ht="12">
       <c r="A6" s="35"/>
@@ -8781,8 +10522,8 @@
       <c r="A9" s="37"/>
       <c r="B9" s="43"/>
       <c r="C9" s="41"/>
-      <c r="D9" s="369" t="s">
-        <v>196</v>
+      <c r="D9" s="625" t="s">
+        <v>272</v>
       </c>
       <c r="E9" s="370"/>
       <c r="F9" s="370"/>
@@ -9108,97 +10849,89 @@
       <c r="A14" s="37"/>
       <c r="B14" s="43"/>
       <c r="C14" s="41"/>
-      <c r="D14" s="366" t="s">
+      <c r="D14" s="633" t="s">
         <v>179</v>
       </c>
-      <c r="E14" s="367"/>
-      <c r="F14" s="367"/>
-      <c r="G14" s="367"/>
-      <c r="H14" s="367"/>
-      <c r="I14" s="367"/>
-      <c r="J14" s="367"/>
-      <c r="K14" s="367"/>
-      <c r="L14" s="367"/>
-      <c r="M14" s="367"/>
-      <c r="N14" s="367"/>
-      <c r="O14" s="367"/>
-      <c r="P14" s="367"/>
-      <c r="Q14" s="367"/>
-      <c r="R14" s="367"/>
-      <c r="S14" s="367"/>
-      <c r="T14" s="367"/>
-      <c r="U14" s="367"/>
-      <c r="V14" s="367"/>
-      <c r="W14" s="367"/>
-      <c r="X14" s="367"/>
-      <c r="Y14" s="367"/>
-      <c r="Z14" s="367"/>
-      <c r="AA14" s="367"/>
-      <c r="AB14" s="367"/>
-      <c r="AC14" s="367"/>
-      <c r="AD14" s="367"/>
-      <c r="AE14" s="367"/>
-      <c r="AF14" s="367"/>
-      <c r="AG14" s="367"/>
-      <c r="AH14" s="367"/>
-      <c r="AI14" s="367"/>
-      <c r="AJ14" s="367"/>
-      <c r="AK14" s="367"/>
-      <c r="AL14" s="367"/>
-      <c r="AM14" s="367"/>
-      <c r="AN14" s="367"/>
-      <c r="AO14" s="367"/>
-      <c r="AP14" s="367"/>
-      <c r="AQ14" s="367"/>
-      <c r="AR14" s="367"/>
-      <c r="AS14" s="367"/>
-      <c r="AT14" s="367"/>
-      <c r="AU14" s="367"/>
-      <c r="AV14" s="367"/>
-      <c r="AW14" s="367"/>
-      <c r="AX14" s="367"/>
-      <c r="AY14" s="367"/>
-      <c r="AZ14" s="367"/>
-      <c r="BA14" s="367"/>
-      <c r="BB14" s="367"/>
-      <c r="BC14" s="367"/>
-      <c r="BD14" s="367"/>
-      <c r="BE14" s="367"/>
-      <c r="BF14" s="367"/>
-      <c r="BG14" s="367"/>
-      <c r="BH14" s="367"/>
-      <c r="BI14" s="367"/>
-      <c r="BJ14" s="367"/>
-      <c r="BK14" s="368"/>
-    </row>
-    <row r="15" customHeight="1" ht="12" customFormat="1" s="24">
-      <c r="A15" s="37"/>
+      <c r="E14" s="634"/>
+      <c r="F14" s="634"/>
+      <c r="G14" s="634"/>
+      <c r="H14" s="634"/>
+      <c r="I14" s="634"/>
+      <c r="J14" s="634"/>
+      <c r="K14" s="634"/>
+      <c r="L14" s="634"/>
+      <c r="M14" s="634"/>
+      <c r="N14" s="634"/>
+      <c r="O14" s="634"/>
+      <c r="P14" s="634"/>
+      <c r="Q14" s="634"/>
+      <c r="R14" s="634"/>
+      <c r="S14" s="634"/>
+      <c r="T14" s="634"/>
+      <c r="U14" s="634"/>
+      <c r="V14" s="634"/>
+      <c r="W14" s="634"/>
+      <c r="X14" s="634"/>
+      <c r="Y14" s="634"/>
+      <c r="Z14" s="634"/>
+      <c r="AA14" s="634"/>
+      <c r="AB14" s="634"/>
+      <c r="AC14" s="634"/>
+      <c r="AD14" s="634"/>
+      <c r="AE14" s="634"/>
+      <c r="AF14" s="634"/>
+      <c r="AG14" s="634"/>
+      <c r="AH14" s="634"/>
+      <c r="AI14" s="634"/>
+      <c r="AJ14" s="634"/>
+      <c r="AK14" s="634"/>
+      <c r="AL14" s="634"/>
+      <c r="AM14" s="634"/>
+      <c r="AN14" s="634"/>
+      <c r="AO14" s="634"/>
+      <c r="AP14" s="634"/>
+      <c r="AQ14" s="634"/>
+      <c r="AR14" s="634"/>
+      <c r="AS14" s="634"/>
+      <c r="AT14" s="634"/>
+      <c r="AU14" s="634"/>
+      <c r="AV14" s="634"/>
+      <c r="AW14" s="634"/>
+      <c r="AX14" s="634"/>
+      <c r="AY14" s="634"/>
+      <c r="AZ14" s="634"/>
+      <c r="BA14" s="634"/>
+      <c r="BB14" s="634"/>
+      <c r="BC14" s="634"/>
+      <c r="BD14" s="634"/>
+      <c r="BE14" s="634"/>
+      <c r="BF14" s="634"/>
+      <c r="BG14" s="634"/>
+      <c r="BH14" s="634"/>
+      <c r="BI14" s="634"/>
+      <c r="BJ14" s="634"/>
+      <c r="BK14" s="635"/>
+    </row>
+    <row r="15" customHeight="1" ht="12" customFormat="1" s="78">
+      <c r="A15" s="80"/>
       <c r="B15" s="43"/>
       <c r="C15" s="41"/>
       <c r="D15" s="375"/>
       <c r="E15" s="376" t="s">
-        <v>180</v>
-      </c>
-      <c r="F15" s="373"/>
+        <v>267</v>
+      </c>
+      <c r="F15" s="376"/>
       <c r="G15" s="376"/>
       <c r="H15" s="376"/>
       <c r="I15" s="376"/>
-      <c r="J15" s="376" t="s">
-        <v>201</v>
-      </c>
-      <c r="K15" s="376" t="s">
-        <v>200</v>
-      </c>
-      <c r="L15" s="376" t="s">
-        <v>170</v>
-      </c>
+      <c r="J15" s="376"/>
+      <c r="K15" s="376"/>
+      <c r="L15" s="376"/>
       <c r="M15" s="376"/>
       <c r="N15" s="376"/>
       <c r="O15" s="376"/>
       <c r="P15" s="376"/>
-      <c r="Q15" s="376" t="s">
-        <v>199</v>
-      </c>
+      <c r="Q15" s="376"/>
       <c r="R15" s="376"/>
       <c r="S15" s="376"/>
       <c r="T15" s="376"/>
@@ -9244,14 +10977,13 @@
       <c r="BH15" s="376"/>
       <c r="BI15" s="376"/>
       <c r="BJ15" s="376"/>
-      <c r="BK15" s="377"/>
-    </row>
-    <row r="16" customHeight="1" ht="12" customFormat="1" s="78">
-      <c r="A16" s="80"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="41"/>
+      <c r="BK15" s="31"/>
+    </row>
+    <row r="16">
       <c r="D16" s="375"/>
-      <c r="E16" s="376"/>
+      <c r="E16" s="376" t="s">
+        <v>271</v>
+      </c>
       <c r="F16" s="376"/>
       <c r="G16" s="376"/>
       <c r="H16" s="376"/>
@@ -9308,406 +11040,70 @@
       <c r="BG16" s="376"/>
       <c r="BH16" s="376"/>
       <c r="BI16" s="376"/>
-      <c r="BJ16" s="377"/>
-    </row>
-    <row r="17" customHeight="1" ht="12">
-      <c r="A17" s="37"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="375"/>
-      <c r="E17" s="376" t="s">
-        <v>206</v>
-      </c>
-      <c r="F17" s="376"/>
-      <c r="G17" s="376"/>
-      <c r="H17" s="376"/>
-      <c r="I17" s="376"/>
-      <c r="J17" s="376"/>
-      <c r="K17" s="376"/>
-      <c r="L17" s="376"/>
-      <c r="M17" s="376"/>
-      <c r="N17" s="376"/>
-      <c r="O17" s="376"/>
-      <c r="P17" s="376"/>
-      <c r="Q17" s="376"/>
-      <c r="R17" s="376"/>
-      <c r="S17" s="376"/>
-      <c r="T17" s="376" t="s">
-        <v>172</v>
-      </c>
-      <c r="U17" s="376"/>
-      <c r="V17" s="376" t="s">
-        <v>207</v>
-      </c>
-      <c r="W17" s="376"/>
-      <c r="X17" s="376"/>
-      <c r="Y17" s="376"/>
-      <c r="Z17" s="376"/>
-      <c r="AA17" s="376"/>
-      <c r="AB17" s="376"/>
-      <c r="AC17" s="376"/>
-      <c r="AD17" s="376" t="s">
-        <v>144</v>
-      </c>
-      <c r="AE17" s="376"/>
-      <c r="AF17" s="376"/>
-      <c r="AG17" s="376"/>
-      <c r="AH17" s="402" t="s">
-        <v>214</v>
-      </c>
-      <c r="AI17" s="376"/>
-      <c r="AJ17" s="376"/>
-      <c r="AK17" s="376"/>
-      <c r="AL17" s="376"/>
-      <c r="AM17" s="376"/>
-      <c r="AN17" s="376"/>
-      <c r="AO17" s="376"/>
-      <c r="AP17" s="376"/>
-      <c r="AQ17" s="377"/>
-      <c r="AR17" s="38"/>
-      <c r="AS17" s="38"/>
-      <c r="AT17" s="38"/>
-      <c r="AU17" s="38"/>
-      <c r="AV17" s="38"/>
-      <c r="AW17" s="38"/>
-    </row>
-    <row r="18" customHeight="1" ht="12">
-      <c r="A18" s="37"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="375"/>
-      <c r="E18" s="376"/>
-      <c r="F18" s="404" t="s">
-        <v>218</v>
-      </c>
-      <c r="G18" s="376"/>
-      <c r="H18" s="376"/>
-      <c r="I18" s="376"/>
-      <c r="J18" s="376"/>
-      <c r="K18" s="376"/>
-      <c r="L18" s="376"/>
-      <c r="M18" s="376"/>
-      <c r="N18" s="376"/>
-      <c r="O18" s="376"/>
-      <c r="P18" s="376"/>
-      <c r="Q18" s="376"/>
-      <c r="R18" s="376"/>
-      <c r="S18" s="376"/>
-      <c r="T18" s="376"/>
-      <c r="U18" s="376"/>
-      <c r="V18" s="376"/>
-      <c r="W18" s="376"/>
-      <c r="X18" s="376"/>
-      <c r="Y18" s="376"/>
-      <c r="Z18" s="376"/>
-      <c r="AA18" s="376"/>
-      <c r="AB18" s="376"/>
-      <c r="AC18" s="376"/>
-      <c r="AD18" s="376"/>
-      <c r="AE18" s="376"/>
-      <c r="AF18" s="376"/>
-      <c r="AG18" s="376"/>
-      <c r="AH18" s="376"/>
-      <c r="AI18" s="376"/>
-      <c r="AJ18" s="376"/>
-      <c r="AK18" s="376"/>
-      <c r="AL18" s="376"/>
-      <c r="AM18" s="376"/>
-      <c r="AN18" s="376"/>
-      <c r="AO18" s="376"/>
-      <c r="AP18" s="376"/>
-      <c r="AQ18" s="376"/>
-      <c r="AR18" s="376"/>
-    </row>
-    <row r="19">
-      <c r="D19" s="375"/>
-      <c r="E19" s="376"/>
-      <c r="F19" s="376" t="s">
-        <v>217</v>
-      </c>
-      <c r="G19" s="376"/>
-      <c r="H19" s="376"/>
-      <c r="I19" s="376"/>
-      <c r="J19" s="376"/>
-      <c r="K19" s="376"/>
-      <c r="L19" s="376"/>
-      <c r="M19" s="376"/>
-      <c r="N19" s="376"/>
-      <c r="O19" s="376"/>
-      <c r="P19" s="376"/>
-      <c r="Q19" s="376"/>
-      <c r="R19" s="376"/>
-      <c r="S19" s="376"/>
-      <c r="T19" s="376"/>
-      <c r="U19" s="376"/>
-      <c r="V19" s="376"/>
-      <c r="W19" s="376"/>
-      <c r="X19" s="376"/>
-      <c r="Y19" s="376"/>
-      <c r="Z19" s="376"/>
-      <c r="AA19" s="376"/>
-      <c r="AB19" s="376"/>
-      <c r="AC19" s="376"/>
-      <c r="AD19" s="376"/>
-      <c r="AE19" s="376"/>
-      <c r="AF19" s="376"/>
-      <c r="AG19" s="376"/>
-      <c r="AH19" s="376"/>
-      <c r="AI19" s="376"/>
-      <c r="AJ19" s="376"/>
-      <c r="AK19" s="376"/>
-    </row>
-    <row r="20">
-      <c r="D20" s="375"/>
-      <c r="E20" s="376"/>
-      <c r="F20" s="376"/>
-      <c r="G20" s="376"/>
-      <c r="H20" s="376"/>
-      <c r="I20" s="376"/>
-      <c r="J20" s="376"/>
-      <c r="K20" s="376"/>
-      <c r="L20" s="376"/>
-      <c r="M20" s="376"/>
-      <c r="N20" s="376"/>
-      <c r="O20" s="376"/>
-      <c r="P20" s="376"/>
-      <c r="Q20" s="376"/>
-      <c r="R20" s="376"/>
-      <c r="S20" s="376"/>
-      <c r="T20" s="376"/>
-      <c r="U20" s="376"/>
-      <c r="V20" s="376"/>
-      <c r="W20" s="376"/>
-      <c r="X20" s="376"/>
-      <c r="Y20" s="376"/>
-      <c r="Z20" s="376"/>
-      <c r="AA20" s="376"/>
-      <c r="AB20" s="376"/>
-      <c r="AC20" s="376"/>
-      <c r="AD20" s="376"/>
-      <c r="AE20" s="376"/>
-      <c r="AF20" s="376"/>
-      <c r="AG20" s="376"/>
-      <c r="AH20" s="376"/>
-      <c r="AI20" s="376"/>
-      <c r="AJ20" s="376"/>
-      <c r="AK20" s="376"/>
-      <c r="AL20" s="376"/>
-      <c r="AM20" s="376"/>
-      <c r="AN20" s="376"/>
-      <c r="AO20" s="376"/>
-      <c r="AP20" s="376"/>
-      <c r="AQ20" s="376"/>
-      <c r="AR20" s="376"/>
-      <c r="AS20" s="376"/>
-      <c r="AT20" s="376"/>
-      <c r="AU20" s="376"/>
-      <c r="AV20" s="376"/>
-      <c r="AW20" s="376"/>
-      <c r="AX20" s="376"/>
-      <c r="AY20" s="376"/>
-      <c r="AZ20" s="376"/>
-      <c r="BA20" s="376"/>
-      <c r="BB20" s="376"/>
-      <c r="BC20" s="376"/>
-      <c r="BD20" s="376"/>
-      <c r="BE20" s="376"/>
-      <c r="BF20" s="376"/>
-      <c r="BG20" s="376"/>
-      <c r="BH20" s="376"/>
-      <c r="BI20" s="376"/>
-      <c r="BJ20" s="376"/>
-      <c r="BK20" s="377"/>
-    </row>
-    <row r="21">
-      <c r="D21" s="375"/>
-      <c r="E21" s="376" t="s">
-        <v>187</v>
-      </c>
-      <c r="F21" s="376"/>
-      <c r="G21" s="376"/>
-      <c r="H21" s="376"/>
-      <c r="I21" s="376"/>
-      <c r="J21" s="376"/>
-      <c r="K21" s="376"/>
-      <c r="L21" s="376"/>
-      <c r="M21" s="376"/>
-      <c r="N21" s="376"/>
-      <c r="O21" s="376"/>
-      <c r="P21" s="376"/>
-      <c r="Q21" s="376"/>
-      <c r="R21" s="376"/>
-      <c r="S21" s="376"/>
-      <c r="T21" s="376"/>
-      <c r="U21" s="376"/>
-      <c r="V21" s="376"/>
-      <c r="W21" s="376"/>
-      <c r="X21" s="376"/>
-      <c r="Y21" s="376"/>
-      <c r="Z21" s="376"/>
-      <c r="AA21" s="376"/>
-      <c r="AB21" s="376"/>
-      <c r="AC21" s="376"/>
-      <c r="AD21" s="376"/>
-      <c r="AE21" s="376"/>
-      <c r="AF21" s="376"/>
-      <c r="AG21" s="376"/>
-      <c r="AH21" s="376"/>
-      <c r="AI21" s="376"/>
-      <c r="AJ21" s="376"/>
-      <c r="AK21" s="376"/>
-      <c r="AL21" s="376"/>
-      <c r="AM21" s="376"/>
-      <c r="AN21" s="376"/>
-      <c r="AO21" s="376"/>
-      <c r="AP21" s="376"/>
-      <c r="AQ21" s="376"/>
-      <c r="AR21" s="376"/>
-      <c r="AS21" s="376"/>
-      <c r="AT21" s="376"/>
-      <c r="AU21" s="376"/>
-      <c r="AV21" s="376"/>
-      <c r="AW21" s="376"/>
-      <c r="AX21" s="376"/>
-      <c r="AY21" s="376"/>
-      <c r="AZ21" s="376"/>
-      <c r="BA21" s="376"/>
-      <c r="BB21" s="376"/>
-      <c r="BC21" s="376"/>
-      <c r="BD21" s="376"/>
-      <c r="BE21" s="376"/>
-      <c r="BF21" s="376"/>
-      <c r="BG21" s="376"/>
-      <c r="BH21" s="376"/>
-      <c r="BI21" s="376"/>
-      <c r="BJ21" s="376"/>
-      <c r="BK21" s="377"/>
-    </row>
-    <row r="22">
-      <c r="D22" s="375"/>
-      <c r="E22" s="376"/>
-      <c r="F22" s="376" t="s">
-        <v>220</v>
-      </c>
-      <c r="G22" s="376"/>
-      <c r="H22" s="376"/>
-      <c r="I22" s="376"/>
-      <c r="J22" s="376"/>
-      <c r="K22" s="376"/>
-      <c r="L22" s="376"/>
-      <c r="M22" s="376"/>
-      <c r="N22" s="376"/>
-      <c r="O22" s="376"/>
-      <c r="P22" s="376"/>
-      <c r="Q22" s="376"/>
-      <c r="R22" s="376"/>
-      <c r="S22" s="376"/>
-      <c r="T22" s="376"/>
-      <c r="U22" s="376"/>
-      <c r="V22" s="376"/>
-      <c r="W22" s="376"/>
-      <c r="X22" s="376"/>
-      <c r="Y22" s="376"/>
-      <c r="Z22" s="376"/>
-      <c r="AA22" s="376"/>
-      <c r="AB22" s="376"/>
-      <c r="AC22" s="376"/>
-      <c r="AD22" s="376"/>
-      <c r="AE22" s="376"/>
-      <c r="AF22" s="376"/>
-      <c r="AG22" s="376"/>
-      <c r="AH22" s="376"/>
-      <c r="AI22" s="376"/>
-      <c r="AJ22" s="376"/>
-      <c r="AK22" s="376"/>
-      <c r="AL22" s="376"/>
-      <c r="AM22" s="376"/>
-      <c r="AN22" s="376"/>
-      <c r="AO22" s="376"/>
-      <c r="AP22" s="376"/>
-      <c r="AQ22" s="376"/>
-      <c r="AR22" s="376"/>
-      <c r="AS22" s="376"/>
-      <c r="AT22" s="376"/>
-      <c r="AU22" s="376"/>
-      <c r="AV22" s="376"/>
-      <c r="AW22" s="376"/>
-      <c r="AX22" s="376"/>
-      <c r="AY22" s="376"/>
-      <c r="AZ22" s="376"/>
-      <c r="BA22" s="376"/>
-      <c r="BB22" s="376"/>
-      <c r="BC22" s="376"/>
-      <c r="BD22" s="376"/>
-      <c r="BE22" s="376"/>
-      <c r="BF22" s="376"/>
-      <c r="BG22" s="376"/>
-      <c r="BH22" s="376"/>
-      <c r="BI22" s="376"/>
-      <c r="BJ22" s="376"/>
-      <c r="BK22" s="377"/>
-    </row>
-    <row r="23">
-      <c r="D23" s="378"/>
-      <c r="E23" s="379"/>
-      <c r="F23" s="379"/>
-      <c r="G23" s="379"/>
-      <c r="H23" s="379"/>
-      <c r="I23" s="379"/>
-      <c r="J23" s="379"/>
-      <c r="K23" s="379"/>
-      <c r="L23" s="379"/>
-      <c r="M23" s="379"/>
-      <c r="N23" s="379"/>
-      <c r="O23" s="379"/>
-      <c r="P23" s="379"/>
-      <c r="Q23" s="379"/>
-      <c r="R23" s="379"/>
-      <c r="S23" s="379"/>
-      <c r="T23" s="379"/>
-      <c r="U23" s="379"/>
-      <c r="V23" s="379"/>
-      <c r="W23" s="379"/>
-      <c r="X23" s="379"/>
-      <c r="Y23" s="379"/>
-      <c r="Z23" s="379"/>
-      <c r="AA23" s="379"/>
-      <c r="AB23" s="379"/>
-      <c r="AC23" s="379"/>
-      <c r="AD23" s="379"/>
-      <c r="AE23" s="379"/>
-      <c r="AF23" s="379"/>
-      <c r="AG23" s="379"/>
-      <c r="AH23" s="379"/>
-      <c r="AI23" s="379"/>
-      <c r="AJ23" s="379"/>
-      <c r="AK23" s="379"/>
-      <c r="AL23" s="379"/>
-      <c r="AM23" s="379"/>
-      <c r="AN23" s="379"/>
-      <c r="AO23" s="379"/>
-      <c r="AP23" s="379"/>
-      <c r="AQ23" s="379"/>
-      <c r="AR23" s="379"/>
-      <c r="AS23" s="379"/>
-      <c r="AT23" s="379"/>
-      <c r="AU23" s="379"/>
-      <c r="AV23" s="379"/>
-      <c r="AW23" s="379"/>
-      <c r="AX23" s="379"/>
-      <c r="AY23" s="379"/>
-      <c r="AZ23" s="379"/>
-      <c r="BA23" s="379"/>
-      <c r="BB23" s="379"/>
-      <c r="BC23" s="379"/>
-      <c r="BD23" s="379"/>
-      <c r="BE23" s="379"/>
-      <c r="BF23" s="379"/>
-      <c r="BG23" s="379"/>
-      <c r="BH23" s="379"/>
-      <c r="BI23" s="379"/>
-      <c r="BJ23" s="379"/>
-      <c r="BK23" s="380"/>
+      <c r="BJ16" s="376"/>
+      <c r="BK16" s="377"/>
+    </row>
+    <row r="17">
+      <c r="D17" s="378"/>
+      <c r="E17" s="379"/>
+      <c r="F17" s="379"/>
+      <c r="G17" s="379"/>
+      <c r="H17" s="379"/>
+      <c r="I17" s="379"/>
+      <c r="J17" s="379"/>
+      <c r="K17" s="379"/>
+      <c r="L17" s="379"/>
+      <c r="M17" s="379"/>
+      <c r="N17" s="379"/>
+      <c r="O17" s="379"/>
+      <c r="P17" s="379"/>
+      <c r="Q17" s="379"/>
+      <c r="R17" s="379"/>
+      <c r="S17" s="379"/>
+      <c r="T17" s="379"/>
+      <c r="U17" s="379"/>
+      <c r="V17" s="379"/>
+      <c r="W17" s="379"/>
+      <c r="X17" s="379"/>
+      <c r="Y17" s="379"/>
+      <c r="Z17" s="379"/>
+      <c r="AA17" s="379"/>
+      <c r="AB17" s="379"/>
+      <c r="AC17" s="379"/>
+      <c r="AD17" s="379"/>
+      <c r="AE17" s="379"/>
+      <c r="AF17" s="379"/>
+      <c r="AG17" s="379"/>
+      <c r="AH17" s="379"/>
+      <c r="AI17" s="379"/>
+      <c r="AJ17" s="379"/>
+      <c r="AK17" s="379"/>
+      <c r="AL17" s="379"/>
+      <c r="AM17" s="379"/>
+      <c r="AN17" s="379"/>
+      <c r="AO17" s="379"/>
+      <c r="AP17" s="379"/>
+      <c r="AQ17" s="379"/>
+      <c r="AR17" s="379"/>
+      <c r="AS17" s="379"/>
+      <c r="AT17" s="379"/>
+      <c r="AU17" s="379"/>
+      <c r="AV17" s="379"/>
+      <c r="AW17" s="379"/>
+      <c r="AX17" s="379"/>
+      <c r="AY17" s="379"/>
+      <c r="AZ17" s="379"/>
+      <c r="BA17" s="379"/>
+      <c r="BB17" s="379"/>
+      <c r="BC17" s="379"/>
+      <c r="BD17" s="379"/>
+      <c r="BE17" s="379"/>
+      <c r="BF17" s="379"/>
+      <c r="BG17" s="379"/>
+      <c r="BH17" s="379"/>
+      <c r="BI17" s="379"/>
+      <c r="BJ17" s="379"/>
+      <c r="BK17" s="380"/>
     </row>
   </sheetData>
   <mergeCells count="27">
@@ -9748,8 +11144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC90AC64-5413-4DF7-A28B-B15B979374D2}">
   <dimension ref="A1:BN36"/>
   <sheetViews>
-    <sheetView showGridLines="false" zoomScale="120" zoomScaleNormal="120" workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="AF32" sqref="AF32" activeCellId="0"/>
+    <sheetView showGridLines="false" zoomScale="120" zoomScaleNormal="120" workbookViewId="0" topLeftCell="A1" tabSelected="1">
+      <selection activeCell="BW17" sqref="BW17" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="11.25" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9758,133 +11154,133 @@
     <col min="12" max="12" width="2" style="24" bestFit="1" customWidth="1"/>
     <col min="13" max="27" width="2.125" style="24"/>
     <col min="28" max="28" width="5.375" style="24" customWidth="1"/>
-    <col min="29" max="283" width="2.125" style="24"/>
-    <col min="284" max="284" width="5.375" style="24" customWidth="1"/>
-    <col min="285" max="539" width="2.125" style="24"/>
-    <col min="540" max="540" width="5.375" style="24" customWidth="1"/>
-    <col min="541" max="795" width="2.125" style="24"/>
-    <col min="796" max="796" width="5.375" style="24" customWidth="1"/>
-    <col min="797" max="1051" width="2.125" style="24"/>
-    <col min="1052" max="1052" width="5.375" style="24" customWidth="1"/>
-    <col min="1053" max="1307" width="2.125" style="24"/>
-    <col min="1308" max="1308" width="5.375" style="24" customWidth="1"/>
-    <col min="1309" max="1563" width="2.125" style="24"/>
-    <col min="1564" max="1564" width="5.375" style="24" customWidth="1"/>
-    <col min="1565" max="1819" width="2.125" style="24"/>
-    <col min="1820" max="1820" width="5.375" style="24" customWidth="1"/>
-    <col min="1821" max="2075" width="2.125" style="24"/>
-    <col min="2076" max="2076" width="5.375" style="24" customWidth="1"/>
-    <col min="2077" max="2331" width="2.125" style="24"/>
-    <col min="2332" max="2332" width="5.375" style="24" customWidth="1"/>
-    <col min="2333" max="2587" width="2.125" style="24"/>
-    <col min="2588" max="2588" width="5.375" style="24" customWidth="1"/>
-    <col min="2589" max="2843" width="2.125" style="24"/>
-    <col min="2844" max="2844" width="5.375" style="24" customWidth="1"/>
-    <col min="2845" max="3099" width="2.125" style="24"/>
-    <col min="3100" max="3100" width="5.375" style="24" customWidth="1"/>
-    <col min="3101" max="3355" width="2.125" style="24"/>
-    <col min="3356" max="3356" width="5.375" style="24" customWidth="1"/>
-    <col min="3357" max="3611" width="2.125" style="24"/>
-    <col min="3612" max="3612" width="5.375" style="24" customWidth="1"/>
-    <col min="3613" max="3867" width="2.125" style="24"/>
-    <col min="3868" max="3868" width="5.375" style="24" customWidth="1"/>
-    <col min="3869" max="4123" width="2.125" style="24"/>
-    <col min="4124" max="4124" width="5.375" style="24" customWidth="1"/>
-    <col min="4125" max="4379" width="2.125" style="24"/>
-    <col min="4380" max="4380" width="5.375" style="24" customWidth="1"/>
-    <col min="4381" max="4635" width="2.125" style="24"/>
-    <col min="4636" max="4636" width="5.375" style="24" customWidth="1"/>
-    <col min="4637" max="4891" width="2.125" style="24"/>
-    <col min="4892" max="4892" width="5.375" style="24" customWidth="1"/>
-    <col min="4893" max="5147" width="2.125" style="24"/>
-    <col min="5148" max="5148" width="5.375" style="24" customWidth="1"/>
-    <col min="5149" max="5403" width="2.125" style="24"/>
-    <col min="5404" max="5404" width="5.375" style="24" customWidth="1"/>
-    <col min="5405" max="5659" width="2.125" style="24"/>
-    <col min="5660" max="5660" width="5.375" style="24" customWidth="1"/>
-    <col min="5661" max="5915" width="2.125" style="24"/>
-    <col min="5916" max="5916" width="5.375" style="24" customWidth="1"/>
-    <col min="5917" max="6171" width="2.125" style="24"/>
-    <col min="6172" max="6172" width="5.375" style="24" customWidth="1"/>
-    <col min="6173" max="6427" width="2.125" style="24"/>
-    <col min="6428" max="6428" width="5.375" style="24" customWidth="1"/>
-    <col min="6429" max="6683" width="2.125" style="24"/>
-    <col min="6684" max="6684" width="5.375" style="24" customWidth="1"/>
-    <col min="6685" max="6939" width="2.125" style="24"/>
-    <col min="6940" max="6940" width="5.375" style="24" customWidth="1"/>
-    <col min="6941" max="7195" width="2.125" style="24"/>
-    <col min="7196" max="7196" width="5.375" style="24" customWidth="1"/>
-    <col min="7197" max="7451" width="2.125" style="24"/>
-    <col min="7452" max="7452" width="5.375" style="24" customWidth="1"/>
-    <col min="7453" max="7707" width="2.125" style="24"/>
-    <col min="7708" max="7708" width="5.375" style="24" customWidth="1"/>
-    <col min="7709" max="7963" width="2.125" style="24"/>
-    <col min="7964" max="7964" width="5.375" style="24" customWidth="1"/>
-    <col min="7965" max="8219" width="2.125" style="24"/>
-    <col min="8220" max="8220" width="5.375" style="24" customWidth="1"/>
-    <col min="8221" max="8475" width="2.125" style="24"/>
-    <col min="8476" max="8476" width="5.375" style="24" customWidth="1"/>
-    <col min="8477" max="8731" width="2.125" style="24"/>
-    <col min="8732" max="8732" width="5.375" style="24" customWidth="1"/>
-    <col min="8733" max="8987" width="2.125" style="24"/>
-    <col min="8988" max="8988" width="5.375" style="24" customWidth="1"/>
-    <col min="8989" max="9243" width="2.125" style="24"/>
-    <col min="9244" max="9244" width="5.375" style="24" customWidth="1"/>
-    <col min="9245" max="9499" width="2.125" style="24"/>
-    <col min="9500" max="9500" width="5.375" style="24" customWidth="1"/>
-    <col min="9501" max="9755" width="2.125" style="24"/>
-    <col min="9756" max="9756" width="5.375" style="24" customWidth="1"/>
-    <col min="9757" max="10011" width="2.125" style="24"/>
-    <col min="10012" max="10012" width="5.375" style="24" customWidth="1"/>
-    <col min="10013" max="10267" width="2.125" style="24"/>
-    <col min="10268" max="10268" width="5.375" style="24" customWidth="1"/>
-    <col min="10269" max="10523" width="2.125" style="24"/>
-    <col min="10524" max="10524" width="5.375" style="24" customWidth="1"/>
-    <col min="10525" max="10779" width="2.125" style="24"/>
-    <col min="10780" max="10780" width="5.375" style="24" customWidth="1"/>
-    <col min="10781" max="11035" width="2.125" style="24"/>
-    <col min="11036" max="11036" width="5.375" style="24" customWidth="1"/>
-    <col min="11037" max="11291" width="2.125" style="24"/>
-    <col min="11292" max="11292" width="5.375" style="24" customWidth="1"/>
-    <col min="11293" max="11547" width="2.125" style="24"/>
-    <col min="11548" max="11548" width="5.375" style="24" customWidth="1"/>
-    <col min="11549" max="11803" width="2.125" style="24"/>
-    <col min="11804" max="11804" width="5.375" style="24" customWidth="1"/>
-    <col min="11805" max="12059" width="2.125" style="24"/>
-    <col min="12060" max="12060" width="5.375" style="24" customWidth="1"/>
-    <col min="12061" max="12315" width="2.125" style="24"/>
-    <col min="12316" max="12316" width="5.375" style="24" customWidth="1"/>
-    <col min="12317" max="12571" width="2.125" style="24"/>
-    <col min="12572" max="12572" width="5.375" style="24" customWidth="1"/>
-    <col min="12573" max="12827" width="2.125" style="24"/>
-    <col min="12828" max="12828" width="5.375" style="24" customWidth="1"/>
-    <col min="12829" max="13083" width="2.125" style="24"/>
-    <col min="13084" max="13084" width="5.375" style="24" customWidth="1"/>
-    <col min="13085" max="13339" width="2.125" style="24"/>
-    <col min="13340" max="13340" width="5.375" style="24" customWidth="1"/>
-    <col min="13341" max="13595" width="2.125" style="24"/>
-    <col min="13596" max="13596" width="5.375" style="24" customWidth="1"/>
-    <col min="13597" max="13851" width="2.125" style="24"/>
-    <col min="13852" max="13852" width="5.375" style="24" customWidth="1"/>
-    <col min="13853" max="14107" width="2.125" style="24"/>
-    <col min="14108" max="14108" width="5.375" style="24" customWidth="1"/>
-    <col min="14109" max="14363" width="2.125" style="24"/>
-    <col min="14364" max="14364" width="5.375" style="24" customWidth="1"/>
-    <col min="14365" max="14619" width="2.125" style="24"/>
-    <col min="14620" max="14620" width="5.375" style="24" customWidth="1"/>
-    <col min="14621" max="14875" width="2.125" style="24"/>
-    <col min="14876" max="14876" width="5.375" style="24" customWidth="1"/>
-    <col min="14877" max="15131" width="2.125" style="24"/>
-    <col min="15132" max="15132" width="5.375" style="24" customWidth="1"/>
-    <col min="15133" max="15387" width="2.125" style="24"/>
-    <col min="15388" max="15388" width="5.375" style="24" customWidth="1"/>
-    <col min="15389" max="15643" width="2.125" style="24"/>
-    <col min="15644" max="15644" width="5.375" style="24" customWidth="1"/>
-    <col min="15645" max="15899" width="2.125" style="24"/>
-    <col min="15900" max="15900" width="5.375" style="24" customWidth="1"/>
-    <col min="15901" max="16155" width="2.125" style="24"/>
-    <col min="16156" max="16156" width="5.375" style="24" customWidth="1"/>
-    <col min="16157" max="16384" width="2.125" style="24"/>
+    <col min="29" max="281" width="2.125" style="24"/>
+    <col min="282" max="282" width="5.375" style="24" customWidth="1"/>
+    <col min="283" max="537" width="2.125" style="24"/>
+    <col min="538" max="538" width="5.375" style="24" customWidth="1"/>
+    <col min="539" max="793" width="2.125" style="24"/>
+    <col min="794" max="794" width="5.375" style="24" customWidth="1"/>
+    <col min="795" max="1049" width="2.125" style="24"/>
+    <col min="1050" max="1050" width="5.375" style="24" customWidth="1"/>
+    <col min="1051" max="1305" width="2.125" style="24"/>
+    <col min="1306" max="1306" width="5.375" style="24" customWidth="1"/>
+    <col min="1307" max="1561" width="2.125" style="24"/>
+    <col min="1562" max="1562" width="5.375" style="24" customWidth="1"/>
+    <col min="1563" max="1817" width="2.125" style="24"/>
+    <col min="1818" max="1818" width="5.375" style="24" customWidth="1"/>
+    <col min="1819" max="2073" width="2.125" style="24"/>
+    <col min="2074" max="2074" width="5.375" style="24" customWidth="1"/>
+    <col min="2075" max="2329" width="2.125" style="24"/>
+    <col min="2330" max="2330" width="5.375" style="24" customWidth="1"/>
+    <col min="2331" max="2585" width="2.125" style="24"/>
+    <col min="2586" max="2586" width="5.375" style="24" customWidth="1"/>
+    <col min="2587" max="2841" width="2.125" style="24"/>
+    <col min="2842" max="2842" width="5.375" style="24" customWidth="1"/>
+    <col min="2843" max="3097" width="2.125" style="24"/>
+    <col min="3098" max="3098" width="5.375" style="24" customWidth="1"/>
+    <col min="3099" max="3353" width="2.125" style="24"/>
+    <col min="3354" max="3354" width="5.375" style="24" customWidth="1"/>
+    <col min="3355" max="3609" width="2.125" style="24"/>
+    <col min="3610" max="3610" width="5.375" style="24" customWidth="1"/>
+    <col min="3611" max="3865" width="2.125" style="24"/>
+    <col min="3866" max="3866" width="5.375" style="24" customWidth="1"/>
+    <col min="3867" max="4121" width="2.125" style="24"/>
+    <col min="4122" max="4122" width="5.375" style="24" customWidth="1"/>
+    <col min="4123" max="4377" width="2.125" style="24"/>
+    <col min="4378" max="4378" width="5.375" style="24" customWidth="1"/>
+    <col min="4379" max="4633" width="2.125" style="24"/>
+    <col min="4634" max="4634" width="5.375" style="24" customWidth="1"/>
+    <col min="4635" max="4889" width="2.125" style="24"/>
+    <col min="4890" max="4890" width="5.375" style="24" customWidth="1"/>
+    <col min="4891" max="5145" width="2.125" style="24"/>
+    <col min="5146" max="5146" width="5.375" style="24" customWidth="1"/>
+    <col min="5147" max="5401" width="2.125" style="24"/>
+    <col min="5402" max="5402" width="5.375" style="24" customWidth="1"/>
+    <col min="5403" max="5657" width="2.125" style="24"/>
+    <col min="5658" max="5658" width="5.375" style="24" customWidth="1"/>
+    <col min="5659" max="5913" width="2.125" style="24"/>
+    <col min="5914" max="5914" width="5.375" style="24" customWidth="1"/>
+    <col min="5915" max="6169" width="2.125" style="24"/>
+    <col min="6170" max="6170" width="5.375" style="24" customWidth="1"/>
+    <col min="6171" max="6425" width="2.125" style="24"/>
+    <col min="6426" max="6426" width="5.375" style="24" customWidth="1"/>
+    <col min="6427" max="6681" width="2.125" style="24"/>
+    <col min="6682" max="6682" width="5.375" style="24" customWidth="1"/>
+    <col min="6683" max="6937" width="2.125" style="24"/>
+    <col min="6938" max="6938" width="5.375" style="24" customWidth="1"/>
+    <col min="6939" max="7193" width="2.125" style="24"/>
+    <col min="7194" max="7194" width="5.375" style="24" customWidth="1"/>
+    <col min="7195" max="7449" width="2.125" style="24"/>
+    <col min="7450" max="7450" width="5.375" style="24" customWidth="1"/>
+    <col min="7451" max="7705" width="2.125" style="24"/>
+    <col min="7706" max="7706" width="5.375" style="24" customWidth="1"/>
+    <col min="7707" max="7961" width="2.125" style="24"/>
+    <col min="7962" max="7962" width="5.375" style="24" customWidth="1"/>
+    <col min="7963" max="8217" width="2.125" style="24"/>
+    <col min="8218" max="8218" width="5.375" style="24" customWidth="1"/>
+    <col min="8219" max="8473" width="2.125" style="24"/>
+    <col min="8474" max="8474" width="5.375" style="24" customWidth="1"/>
+    <col min="8475" max="8729" width="2.125" style="24"/>
+    <col min="8730" max="8730" width="5.375" style="24" customWidth="1"/>
+    <col min="8731" max="8985" width="2.125" style="24"/>
+    <col min="8986" max="8986" width="5.375" style="24" customWidth="1"/>
+    <col min="8987" max="9241" width="2.125" style="24"/>
+    <col min="9242" max="9242" width="5.375" style="24" customWidth="1"/>
+    <col min="9243" max="9497" width="2.125" style="24"/>
+    <col min="9498" max="9498" width="5.375" style="24" customWidth="1"/>
+    <col min="9499" max="9753" width="2.125" style="24"/>
+    <col min="9754" max="9754" width="5.375" style="24" customWidth="1"/>
+    <col min="9755" max="10009" width="2.125" style="24"/>
+    <col min="10010" max="10010" width="5.375" style="24" customWidth="1"/>
+    <col min="10011" max="10265" width="2.125" style="24"/>
+    <col min="10266" max="10266" width="5.375" style="24" customWidth="1"/>
+    <col min="10267" max="10521" width="2.125" style="24"/>
+    <col min="10522" max="10522" width="5.375" style="24" customWidth="1"/>
+    <col min="10523" max="10777" width="2.125" style="24"/>
+    <col min="10778" max="10778" width="5.375" style="24" customWidth="1"/>
+    <col min="10779" max="11033" width="2.125" style="24"/>
+    <col min="11034" max="11034" width="5.375" style="24" customWidth="1"/>
+    <col min="11035" max="11289" width="2.125" style="24"/>
+    <col min="11290" max="11290" width="5.375" style="24" customWidth="1"/>
+    <col min="11291" max="11545" width="2.125" style="24"/>
+    <col min="11546" max="11546" width="5.375" style="24" customWidth="1"/>
+    <col min="11547" max="11801" width="2.125" style="24"/>
+    <col min="11802" max="11802" width="5.375" style="24" customWidth="1"/>
+    <col min="11803" max="12057" width="2.125" style="24"/>
+    <col min="12058" max="12058" width="5.375" style="24" customWidth="1"/>
+    <col min="12059" max="12313" width="2.125" style="24"/>
+    <col min="12314" max="12314" width="5.375" style="24" customWidth="1"/>
+    <col min="12315" max="12569" width="2.125" style="24"/>
+    <col min="12570" max="12570" width="5.375" style="24" customWidth="1"/>
+    <col min="12571" max="12825" width="2.125" style="24"/>
+    <col min="12826" max="12826" width="5.375" style="24" customWidth="1"/>
+    <col min="12827" max="13081" width="2.125" style="24"/>
+    <col min="13082" max="13082" width="5.375" style="24" customWidth="1"/>
+    <col min="13083" max="13337" width="2.125" style="24"/>
+    <col min="13338" max="13338" width="5.375" style="24" customWidth="1"/>
+    <col min="13339" max="13593" width="2.125" style="24"/>
+    <col min="13594" max="13594" width="5.375" style="24" customWidth="1"/>
+    <col min="13595" max="13849" width="2.125" style="24"/>
+    <col min="13850" max="13850" width="5.375" style="24" customWidth="1"/>
+    <col min="13851" max="14105" width="2.125" style="24"/>
+    <col min="14106" max="14106" width="5.375" style="24" customWidth="1"/>
+    <col min="14107" max="14361" width="2.125" style="24"/>
+    <col min="14362" max="14362" width="5.375" style="24" customWidth="1"/>
+    <col min="14363" max="14617" width="2.125" style="24"/>
+    <col min="14618" max="14618" width="5.375" style="24" customWidth="1"/>
+    <col min="14619" max="14873" width="2.125" style="24"/>
+    <col min="14874" max="14874" width="5.375" style="24" customWidth="1"/>
+    <col min="14875" max="15129" width="2.125" style="24"/>
+    <col min="15130" max="15130" width="5.375" style="24" customWidth="1"/>
+    <col min="15131" max="15385" width="2.125" style="24"/>
+    <col min="15386" max="15386" width="5.375" style="24" customWidth="1"/>
+    <col min="15387" max="15641" width="2.125" style="24"/>
+    <col min="15642" max="15642" width="5.375" style="24" customWidth="1"/>
+    <col min="15643" max="15897" width="2.125" style="24"/>
+    <col min="15898" max="15898" width="5.375" style="24" customWidth="1"/>
+    <col min="15899" max="16153" width="2.125" style="24"/>
+    <col min="16154" max="16154" width="5.375" style="24" customWidth="1"/>
+    <col min="16155" max="16384" width="2.125" style="24"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" ht="12">
@@ -9952,8 +11348,6 @@
       <c r="BJ1" s="21"/>
       <c r="BK1" s="21"/>
       <c r="BL1" s="21"/>
-      <c r="BM1" s="21"/>
-      <c r="BN1" s="23"/>
     </row>
     <row r="2" customHeight="1" ht="12">
       <c r="A2" s="116" t="s">
@@ -10008,8 +11402,6 @@
       <c r="BJ2" s="26"/>
       <c r="BK2" s="26"/>
       <c r="BL2" s="26"/>
-      <c r="BM2" s="26"/>
-      <c r="BN2" s="27"/>
     </row>
     <row r="3" customHeight="1" ht="12">
       <c r="A3" s="226"/>
@@ -10072,12 +11464,10 @@
       <c r="BF3" s="57"/>
       <c r="BG3" s="57"/>
       <c r="BH3" s="57"/>
-      <c r="BI3" s="57"/>
-      <c r="BJ3" s="57"/>
-      <c r="BK3" s="57"/>
-      <c r="BL3" s="57"/>
-      <c r="BM3" s="57"/>
-      <c r="BN3" s="58"/>
+      <c r="BI3" s="463"/>
+      <c r="BJ3" s="463"/>
+      <c r="BK3" s="463"/>
+      <c r="BL3" s="463"/>
     </row>
     <row r="4" customHeight="1" ht="12">
       <c r="A4" s="228" t="s">
@@ -10153,15 +11543,13 @@
         <v>15</v>
       </c>
       <c r="BG4" s="241"/>
-      <c r="BH4" s="242"/>
-      <c r="BI4" s="243" t="s">
+      <c r="BH4" s="461"/>
+      <c r="BI4" s="465" t="s">
         <v>125</v>
       </c>
-      <c r="BJ4" s="205"/>
-      <c r="BK4" s="205"/>
-      <c r="BL4" s="205"/>
-      <c r="BM4" s="205"/>
-      <c r="BN4" s="244"/>
+      <c r="BJ4" s="134"/>
+      <c r="BK4" s="134"/>
+      <c r="BL4" s="135"/>
     </row>
     <row r="5" customHeight="1" ht="12">
       <c r="A5" s="206" t="s">
@@ -10208,273 +11596,307 @@
       <c r="AL5" s="212"/>
       <c r="AM5" s="212"/>
       <c r="AN5" s="212"/>
-      <c r="AO5" s="212"/>
-      <c r="AP5" s="212"/>
-      <c r="AQ5" s="212"/>
-      <c r="AR5" s="212"/>
-      <c r="AS5" s="212"/>
-      <c r="AT5" s="212"/>
-      <c r="AU5" s="212"/>
-      <c r="AV5" s="213"/>
-      <c r="AW5" s="214" t="s">
+      <c r="AO5" s="475"/>
+      <c r="AP5" s="475"/>
+      <c r="AQ5" s="475"/>
+      <c r="AR5" s="475"/>
+      <c r="AS5" s="475"/>
+      <c r="AT5" s="475"/>
+      <c r="AU5" s="475"/>
+      <c r="AV5" s="476"/>
+      <c r="AW5" s="477" t="s">
         <v>19</v>
       </c>
-      <c r="AX5" s="215"/>
-      <c r="AY5" s="216"/>
-      <c r="AZ5" s="215"/>
-      <c r="BA5" s="215"/>
-      <c r="BB5" s="215"/>
-      <c r="BC5" s="215"/>
-      <c r="BD5" s="215"/>
-      <c r="BE5" s="215"/>
-      <c r="BF5" s="214" t="s">
+      <c r="AX5" s="478"/>
+      <c r="AY5" s="479"/>
+      <c r="AZ5" s="478"/>
+      <c r="BA5" s="478"/>
+      <c r="BB5" s="478"/>
+      <c r="BC5" s="478"/>
+      <c r="BD5" s="478"/>
+      <c r="BE5" s="478"/>
+      <c r="BF5" s="477" t="s">
         <v>20</v>
       </c>
-      <c r="BG5" s="215"/>
-      <c r="BH5" s="216"/>
-      <c r="BI5" s="211"/>
-      <c r="BJ5" s="212"/>
-      <c r="BK5" s="212"/>
-      <c r="BL5" s="212"/>
-      <c r="BM5" s="212"/>
-      <c r="BN5" s="213"/>
-    </row>
-    <row r="6" customHeight="1" ht="3">
-      <c r="A6" s="59"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="59"/>
-      <c r="S6" s="59"/>
-      <c r="T6" s="59"/>
-      <c r="U6" s="59"/>
-      <c r="V6" s="59"/>
-      <c r="W6" s="59"/>
-      <c r="X6" s="59"/>
-      <c r="Y6" s="59"/>
-      <c r="Z6" s="59"/>
-      <c r="AA6" s="59"/>
-      <c r="AB6" s="59"/>
-      <c r="AC6" s="59"/>
-      <c r="AD6" s="59"/>
-      <c r="AE6" s="59"/>
-      <c r="AF6" s="59"/>
-      <c r="AG6" s="59"/>
-      <c r="AH6" s="59"/>
-      <c r="AI6" s="59"/>
-      <c r="AJ6" s="59"/>
-      <c r="AK6" s="59"/>
-      <c r="AL6" s="59"/>
-      <c r="AM6" s="59"/>
-      <c r="AN6" s="59"/>
-      <c r="AO6" s="75"/>
-      <c r="AP6" s="75"/>
-      <c r="AQ6" s="75"/>
-      <c r="AR6" s="75"/>
-      <c r="AS6" s="75"/>
-      <c r="AT6" s="75"/>
-      <c r="AU6" s="75"/>
-      <c r="AV6" s="75"/>
-      <c r="AW6" s="75"/>
-      <c r="AX6" s="75"/>
-      <c r="AY6" s="75"/>
-      <c r="AZ6" s="75"/>
-      <c r="BA6" s="75"/>
-      <c r="BB6" s="75"/>
-      <c r="BC6" s="75"/>
-      <c r="BD6" s="75"/>
-      <c r="BE6" s="75"/>
-      <c r="BF6" s="75"/>
-      <c r="BG6" s="75"/>
-      <c r="BH6" s="75"/>
-      <c r="BI6" s="75"/>
-      <c r="BJ6" s="75"/>
-      <c r="BK6" s="75"/>
-      <c r="BL6" s="75"/>
-      <c r="BM6" s="75"/>
-      <c r="BN6" s="75"/>
-    </row>
-    <row r="7" customHeight="1" ht="12">
-      <c r="A7" s="245" t="s">
+      <c r="BG5" s="478"/>
+      <c r="BH5" s="478"/>
+      <c r="BI5" s="477"/>
+      <c r="BJ5" s="475"/>
+      <c r="BK5" s="475"/>
+      <c r="BL5" s="476"/>
+    </row>
+    <row r="6" customHeight="1" ht="12">
+      <c r="A6" s="245" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="246"/>
-      <c r="C7" s="246"/>
-      <c r="D7" s="246"/>
-      <c r="E7" s="246"/>
-      <c r="F7" s="246"/>
-      <c r="G7" s="246"/>
-      <c r="H7" s="246"/>
-      <c r="I7" s="246"/>
-      <c r="J7" s="246"/>
-      <c r="K7" s="246"/>
-      <c r="L7" s="246"/>
-      <c r="M7" s="246"/>
-      <c r="N7" s="246"/>
-      <c r="O7" s="246"/>
-      <c r="P7" s="246"/>
-      <c r="Q7" s="246"/>
-      <c r="R7" s="246"/>
-      <c r="S7" s="246"/>
-      <c r="T7" s="246"/>
-      <c r="U7" s="246"/>
-      <c r="V7" s="246"/>
-      <c r="W7" s="246"/>
-      <c r="X7" s="246"/>
-      <c r="Y7" s="246"/>
-      <c r="Z7" s="246"/>
-      <c r="AA7" s="246"/>
-      <c r="AB7" s="247"/>
-      <c r="AC7" s="245" t="s">
+      <c r="B6" s="246"/>
+      <c r="C6" s="246"/>
+      <c r="D6" s="246"/>
+      <c r="E6" s="246"/>
+      <c r="F6" s="246"/>
+      <c r="G6" s="246"/>
+      <c r="H6" s="246"/>
+      <c r="I6" s="246"/>
+      <c r="J6" s="246"/>
+      <c r="K6" s="246"/>
+      <c r="L6" s="246"/>
+      <c r="M6" s="246"/>
+      <c r="N6" s="246"/>
+      <c r="O6" s="246"/>
+      <c r="P6" s="246"/>
+      <c r="Q6" s="246"/>
+      <c r="R6" s="246"/>
+      <c r="S6" s="246"/>
+      <c r="T6" s="246"/>
+      <c r="U6" s="246"/>
+      <c r="V6" s="246"/>
+      <c r="W6" s="246"/>
+      <c r="X6" s="246"/>
+      <c r="Y6" s="246"/>
+      <c r="Z6" s="246"/>
+      <c r="AA6" s="246"/>
+      <c r="AB6" s="247"/>
+      <c r="AC6" s="245" t="s">
         <v>52</v>
       </c>
-      <c r="AD7" s="246"/>
-      <c r="AE7" s="246"/>
-      <c r="AF7" s="246"/>
-      <c r="AG7" s="246"/>
-      <c r="AH7" s="246"/>
-      <c r="AI7" s="246"/>
-      <c r="AJ7" s="246"/>
-      <c r="AK7" s="246"/>
-      <c r="AL7" s="246"/>
-      <c r="AM7" s="246"/>
-      <c r="AN7" s="246"/>
-      <c r="AO7" s="249" t="s">
+      <c r="AD6" s="246"/>
+      <c r="AE6" s="246"/>
+      <c r="AF6" s="246"/>
+      <c r="AG6" s="246"/>
+      <c r="AH6" s="246"/>
+      <c r="AI6" s="246"/>
+      <c r="AJ6" s="246"/>
+      <c r="AK6" s="246"/>
+      <c r="AL6" s="246"/>
+      <c r="AM6" s="246"/>
+      <c r="AN6" s="246"/>
+      <c r="AO6" s="249" t="s">
         <v>53</v>
       </c>
-      <c r="AP7" s="250"/>
-      <c r="AQ7" s="250"/>
-      <c r="AR7" s="250"/>
-      <c r="AS7" s="250"/>
-      <c r="AT7" s="250"/>
-      <c r="AU7" s="250"/>
-      <c r="AV7" s="250"/>
-      <c r="AW7" s="250"/>
-      <c r="AX7" s="250"/>
-      <c r="AY7" s="250"/>
-      <c r="AZ7" s="250"/>
-      <c r="BA7" s="250"/>
-      <c r="BB7" s="250"/>
-      <c r="BC7" s="250"/>
-      <c r="BD7" s="250"/>
-      <c r="BE7" s="250"/>
-      <c r="BF7" s="250"/>
-      <c r="BG7" s="250"/>
-      <c r="BH7" s="250"/>
-      <c r="BI7" s="250"/>
-      <c r="BJ7" s="250"/>
-      <c r="BK7" s="250"/>
-      <c r="BL7" s="250"/>
-      <c r="BM7" s="249"/>
-      <c r="BN7" s="255"/>
-    </row>
-    <row r="8" customHeight="1" ht="24">
-      <c r="A8" s="60" t="s">
+      <c r="AP6" s="250"/>
+      <c r="AQ6" s="250"/>
+      <c r="AR6" s="250"/>
+      <c r="AS6" s="250"/>
+      <c r="AT6" s="250"/>
+      <c r="AU6" s="250"/>
+      <c r="AV6" s="250"/>
+      <c r="AW6" s="250"/>
+      <c r="AX6" s="250"/>
+      <c r="AY6" s="250"/>
+      <c r="AZ6" s="250"/>
+      <c r="BA6" s="250"/>
+      <c r="BB6" s="250"/>
+      <c r="BC6" s="250"/>
+      <c r="BD6" s="250"/>
+      <c r="BE6" s="250"/>
+      <c r="BF6" s="250"/>
+      <c r="BG6" s="250"/>
+      <c r="BH6" s="250"/>
+      <c r="BI6" s="250"/>
+      <c r="BJ6" s="250"/>
+      <c r="BK6" s="250"/>
+      <c r="BL6" s="255"/>
+    </row>
+    <row r="7" customHeight="1" ht="24">
+      <c r="A7" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="258" t="s">
+      <c r="B7" s="258" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="253"/>
-      <c r="D8" s="253"/>
-      <c r="E8" s="253"/>
-      <c r="F8" s="253"/>
-      <c r="G8" s="253"/>
-      <c r="H8" s="253"/>
-      <c r="I8" s="253"/>
-      <c r="J8" s="253"/>
-      <c r="K8" s="253"/>
-      <c r="L8" s="260"/>
-      <c r="M8" s="258" t="s">
+      <c r="C7" s="253"/>
+      <c r="D7" s="253"/>
+      <c r="E7" s="253"/>
+      <c r="F7" s="253"/>
+      <c r="G7" s="253"/>
+      <c r="H7" s="253"/>
+      <c r="I7" s="253"/>
+      <c r="J7" s="253"/>
+      <c r="K7" s="253"/>
+      <c r="L7" s="260"/>
+      <c r="M7" s="258" t="s">
         <v>56</v>
       </c>
-      <c r="N8" s="253"/>
-      <c r="O8" s="253"/>
-      <c r="P8" s="261"/>
-      <c r="Q8" s="258" t="s">
+      <c r="N7" s="253"/>
+      <c r="O7" s="253"/>
+      <c r="P7" s="261"/>
+      <c r="Q7" s="258" t="s">
         <v>57</v>
       </c>
-      <c r="R8" s="261"/>
-      <c r="S8" s="258" t="s">
+      <c r="R7" s="261"/>
+      <c r="S7" s="258" t="s">
         <v>58</v>
       </c>
-      <c r="T8" s="261"/>
-      <c r="U8" s="258" t="s">
+      <c r="T7" s="261"/>
+      <c r="U7" s="258" t="s">
         <v>59</v>
       </c>
-      <c r="V8" s="261"/>
-      <c r="W8" s="258" t="s">
+      <c r="V7" s="261"/>
+      <c r="W7" s="258" t="s">
         <v>60</v>
       </c>
-      <c r="X8" s="261"/>
-      <c r="Y8" s="262" t="s">
+      <c r="X7" s="261"/>
+      <c r="Y7" s="262" t="s">
         <v>61</v>
       </c>
-      <c r="Z8" s="263"/>
-      <c r="AA8" s="263"/>
-      <c r="AB8" s="264"/>
-      <c r="AC8" s="265" t="s">
+      <c r="Z7" s="263"/>
+      <c r="AA7" s="263"/>
+      <c r="AB7" s="264"/>
+      <c r="AC7" s="265" t="s">
         <v>62</v>
       </c>
-      <c r="AD8" s="263"/>
-      <c r="AE8" s="263"/>
-      <c r="AF8" s="263"/>
-      <c r="AG8" s="266"/>
-      <c r="AH8" s="253" t="s">
+      <c r="AD7" s="263"/>
+      <c r="AE7" s="263"/>
+      <c r="AF7" s="263"/>
+      <c r="AG7" s="266"/>
+      <c r="AH7" s="253" t="s">
         <v>22</v>
       </c>
-      <c r="AI8" s="253"/>
-      <c r="AJ8" s="253"/>
-      <c r="AK8" s="253"/>
-      <c r="AL8" s="253"/>
-      <c r="AM8" s="253"/>
-      <c r="AN8" s="253"/>
-      <c r="AO8" s="252"/>
-      <c r="AP8" s="253"/>
-      <c r="AQ8" s="253"/>
-      <c r="AR8" s="253"/>
-      <c r="AS8" s="253"/>
-      <c r="AT8" s="253"/>
-      <c r="AU8" s="253"/>
-      <c r="AV8" s="253"/>
-      <c r="AW8" s="253"/>
-      <c r="AX8" s="253"/>
-      <c r="AY8" s="253"/>
-      <c r="AZ8" s="253"/>
-      <c r="BA8" s="253"/>
-      <c r="BB8" s="253"/>
-      <c r="BC8" s="253"/>
-      <c r="BD8" s="253"/>
-      <c r="BE8" s="253"/>
-      <c r="BF8" s="253"/>
-      <c r="BG8" s="253"/>
-      <c r="BH8" s="253"/>
-      <c r="BI8" s="253"/>
-      <c r="BJ8" s="253"/>
-      <c r="BK8" s="253"/>
-      <c r="BL8" s="253"/>
-      <c r="BM8" s="256"/>
-      <c r="BN8" s="257"/>
+      <c r="AI7" s="253"/>
+      <c r="AJ7" s="253"/>
+      <c r="AK7" s="253"/>
+      <c r="AL7" s="253"/>
+      <c r="AM7" s="253"/>
+      <c r="AN7" s="253"/>
+      <c r="AO7" s="483"/>
+      <c r="AP7" s="484"/>
+      <c r="AQ7" s="484"/>
+      <c r="AR7" s="484"/>
+      <c r="AS7" s="484"/>
+      <c r="AT7" s="484"/>
+      <c r="AU7" s="484"/>
+      <c r="AV7" s="484"/>
+      <c r="AW7" s="484"/>
+      <c r="AX7" s="484"/>
+      <c r="AY7" s="484"/>
+      <c r="AZ7" s="484"/>
+      <c r="BA7" s="484"/>
+      <c r="BB7" s="484"/>
+      <c r="BC7" s="484"/>
+      <c r="BD7" s="484"/>
+      <c r="BE7" s="484"/>
+      <c r="BF7" s="484"/>
+      <c r="BG7" s="484"/>
+      <c r="BH7" s="484"/>
+      <c r="BI7" s="484"/>
+      <c r="BJ7" s="484"/>
+      <c r="BK7" s="484"/>
+      <c r="BL7" s="485"/>
+    </row>
+    <row r="8" customHeight="1" ht="12">
+      <c r="A8" s="61">
+        <v>1</v>
+      </c>
+      <c r="B8" s="156" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="157"/>
+      <c r="D8" s="157"/>
+      <c r="E8" s="157"/>
+      <c r="F8" s="157"/>
+      <c r="G8" s="157"/>
+      <c r="H8" s="157"/>
+      <c r="I8" s="157"/>
+      <c r="J8" s="157"/>
+      <c r="K8" s="157"/>
+      <c r="L8" s="270"/>
+      <c r="M8" s="271" t="s">
+        <v>63</v>
+      </c>
+      <c r="N8" s="272"/>
+      <c r="O8" s="272"/>
+      <c r="P8" s="273"/>
+      <c r="Q8" s="85">
+        <v>8</v>
+      </c>
+      <c r="R8" s="86"/>
+      <c r="S8" s="271" t="s">
+        <v>228</v>
+      </c>
+      <c r="T8" s="273"/>
+      <c r="U8" s="276" t="s">
+        <v>104</v>
+      </c>
+      <c r="V8" s="277"/>
+      <c r="W8" s="271" t="s">
+        <v>64</v>
+      </c>
+      <c r="X8" s="273"/>
+      <c r="Y8" s="271" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z8" s="272"/>
+      <c r="AA8" s="272"/>
+      <c r="AB8" s="273"/>
+      <c r="AC8" s="278" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD8" s="279"/>
+      <c r="AE8" s="279"/>
+      <c r="AF8" s="279"/>
+      <c r="AG8" s="280"/>
+      <c r="AH8" s="281" t="s">
+        <v>137</v>
+      </c>
+      <c r="AI8" s="282"/>
+      <c r="AJ8" s="282"/>
+      <c r="AK8" s="282"/>
+      <c r="AL8" s="282"/>
+      <c r="AM8" s="282"/>
+      <c r="AN8" s="282"/>
+      <c r="AO8" s="480"/>
+      <c r="AP8" s="481"/>
+      <c r="AQ8" s="481"/>
+      <c r="AR8" s="481"/>
+      <c r="AS8" s="481"/>
+      <c r="AT8" s="481"/>
+      <c r="AU8" s="481"/>
+      <c r="AV8" s="481"/>
+      <c r="AW8" s="481"/>
+      <c r="AX8" s="481"/>
+      <c r="AY8" s="481"/>
+      <c r="AZ8" s="481"/>
+      <c r="BA8" s="481"/>
+      <c r="BB8" s="481"/>
+      <c r="BC8" s="481"/>
+      <c r="BD8" s="481"/>
+      <c r="BE8" s="481"/>
+      <c r="BF8" s="481"/>
+      <c r="BG8" s="481"/>
+      <c r="BH8" s="481"/>
+      <c r="BI8" s="481"/>
+      <c r="BJ8" s="481"/>
+      <c r="BK8" s="481"/>
+      <c r="BL8" s="482"/>
+      <c r="BM8" s="24"/>
+      <c r="BN8" s="24"/>
+      <c r="BO8" s="24"/>
+      <c r="BP8" s="24"/>
+      <c r="BQ8" s="24"/>
+      <c r="BR8" s="24"/>
+      <c r="BS8" s="24"/>
+      <c r="BT8" s="24"/>
+      <c r="BU8" s="24"/>
+      <c r="BV8" s="24"/>
+      <c r="BW8" s="24"/>
+      <c r="BX8" s="24"/>
+      <c r="BY8" s="24"/>
+      <c r="BZ8" s="24"/>
+      <c r="CA8" s="24"/>
+      <c r="CB8" s="24"/>
+      <c r="CC8" s="24"/>
+      <c r="CD8" s="24"/>
+      <c r="CE8" s="24"/>
+      <c r="CF8" s="24"/>
+      <c r="CG8" s="24"/>
+      <c r="CH8" s="24"/>
     </row>
     <row r="9" customHeight="1" ht="12">
       <c r="A9" s="61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" s="156" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C9" s="157"/>
       <c r="D9" s="157"/>
@@ -10497,7 +11919,7 @@
       </c>
       <c r="R9" s="86"/>
       <c r="S9" s="271" t="s">
-        <v>95</v>
+        <v>228</v>
       </c>
       <c r="T9" s="273"/>
       <c r="U9" s="276" t="s">
@@ -10521,15 +11943,15 @@
       <c r="AE9" s="279"/>
       <c r="AF9" s="279"/>
       <c r="AG9" s="280"/>
-      <c r="AH9" s="281" t="s">
-        <v>137</v>
-      </c>
-      <c r="AI9" s="282"/>
-      <c r="AJ9" s="282"/>
-      <c r="AK9" s="282"/>
-      <c r="AL9" s="282"/>
-      <c r="AM9" s="282"/>
-      <c r="AN9" s="282"/>
+      <c r="AH9" s="292" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI9" s="293"/>
+      <c r="AJ9" s="293"/>
+      <c r="AK9" s="293"/>
+      <c r="AL9" s="293"/>
+      <c r="AM9" s="293"/>
+      <c r="AN9" s="293"/>
       <c r="AO9" s="284"/>
       <c r="AP9" s="285"/>
       <c r="AQ9" s="285"/>
@@ -10553,16 +11975,14 @@
       <c r="BI9" s="285"/>
       <c r="BJ9" s="285"/>
       <c r="BK9" s="285"/>
-      <c r="BL9" s="285"/>
-      <c r="BM9" s="76"/>
-      <c r="BN9" s="77"/>
+      <c r="BL9" s="471"/>
     </row>
     <row r="10" customHeight="1" ht="12">
       <c r="A10" s="61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" s="156" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="C10" s="157"/>
       <c r="D10" s="157"/>
@@ -10575,7 +11995,7 @@
       <c r="K10" s="157"/>
       <c r="L10" s="270"/>
       <c r="M10" s="271" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N10" s="272"/>
       <c r="O10" s="272"/>
@@ -10584,10 +12004,10 @@
         <v>8</v>
       </c>
       <c r="R10" s="86"/>
-      <c r="S10" s="271" t="s">
-        <v>95</v>
-      </c>
-      <c r="T10" s="273"/>
+      <c r="S10" s="290" t="s">
+        <v>228</v>
+      </c>
+      <c r="T10" s="291"/>
       <c r="U10" s="276" t="s">
         <v>104</v>
       </c>
@@ -10610,7 +12030,7 @@
       <c r="AF10" s="279"/>
       <c r="AG10" s="280"/>
       <c r="AH10" s="292" t="s">
-        <v>139</v>
+        <v>221</v>
       </c>
       <c r="AI10" s="293"/>
       <c r="AJ10" s="293"/>
@@ -10641,16 +12061,14 @@
       <c r="BI10" s="285"/>
       <c r="BJ10" s="285"/>
       <c r="BK10" s="285"/>
-      <c r="BL10" s="285"/>
-      <c r="BM10" s="76"/>
-      <c r="BN10" s="77"/>
+      <c r="BL10" s="471"/>
     </row>
     <row r="11" customHeight="1" ht="12">
       <c r="A11" s="61">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11" s="156" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="C11" s="157"/>
       <c r="D11" s="157"/>
@@ -10663,17 +12081,17 @@
       <c r="K11" s="157"/>
       <c r="L11" s="270"/>
       <c r="M11" s="271" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="N11" s="272"/>
       <c r="O11" s="272"/>
       <c r="P11" s="273"/>
       <c r="Q11" s="85">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R11" s="86"/>
       <c r="S11" s="290" t="s">
-        <v>95</v>
+        <v>228</v>
       </c>
       <c r="T11" s="291"/>
       <c r="U11" s="276" t="s">
@@ -10698,7 +12116,7 @@
       <c r="AF11" s="279"/>
       <c r="AG11" s="280"/>
       <c r="AH11" s="292" t="s">
-        <v>221</v>
+        <v>141</v>
       </c>
       <c r="AI11" s="293"/>
       <c r="AJ11" s="293"/>
@@ -10729,16 +12147,14 @@
       <c r="BI11" s="285"/>
       <c r="BJ11" s="285"/>
       <c r="BK11" s="285"/>
-      <c r="BL11" s="285"/>
-      <c r="BM11" s="76"/>
-      <c r="BN11" s="77"/>
+      <c r="BL11" s="471"/>
     </row>
     <row r="12" customHeight="1" ht="12">
       <c r="A12" s="61">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" s="156" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C12" s="157"/>
       <c r="D12" s="157"/>
@@ -10751,17 +12167,17 @@
       <c r="K12" s="157"/>
       <c r="L12" s="270"/>
       <c r="M12" s="271" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N12" s="272"/>
       <c r="O12" s="272"/>
       <c r="P12" s="273"/>
-      <c r="Q12" s="85">
-        <v>4</v>
-      </c>
-      <c r="R12" s="86"/>
+      <c r="Q12" s="85"/>
+      <c r="R12" s="86">
+        <v>8</v>
+      </c>
       <c r="S12" s="290" t="s">
-        <v>95</v>
+        <v>228</v>
       </c>
       <c r="T12" s="291"/>
       <c r="U12" s="276" t="s">
@@ -10786,7 +12202,7 @@
       <c r="AF12" s="279"/>
       <c r="AG12" s="280"/>
       <c r="AH12" s="292" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AI12" s="293"/>
       <c r="AJ12" s="293"/>
@@ -10817,16 +12233,14 @@
       <c r="BI12" s="285"/>
       <c r="BJ12" s="285"/>
       <c r="BK12" s="285"/>
-      <c r="BL12" s="285"/>
-      <c r="BM12" s="76"/>
-      <c r="BN12" s="77"/>
+      <c r="BL12" s="471"/>
     </row>
     <row r="13" customHeight="1" ht="12">
       <c r="A13" s="61">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B13" s="156" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C13" s="157"/>
       <c r="D13" s="157"/>
@@ -10846,10 +12260,10 @@
       <c r="P13" s="273"/>
       <c r="Q13" s="85"/>
       <c r="R13" s="86">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S13" s="290" t="s">
-        <v>95</v>
+        <v>228</v>
       </c>
       <c r="T13" s="291"/>
       <c r="U13" s="276" t="s">
@@ -10874,7 +12288,7 @@
       <c r="AF13" s="279"/>
       <c r="AG13" s="280"/>
       <c r="AH13" s="292" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AI13" s="293"/>
       <c r="AJ13" s="293"/>
@@ -10905,16 +12319,14 @@
       <c r="BI13" s="285"/>
       <c r="BJ13" s="285"/>
       <c r="BK13" s="285"/>
-      <c r="BL13" s="285"/>
-      <c r="BM13" s="76"/>
-      <c r="BN13" s="77"/>
+      <c r="BL13" s="471"/>
     </row>
     <row r="14" customHeight="1" ht="12">
       <c r="A14" s="61">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B14" s="156" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C14" s="157"/>
       <c r="D14" s="157"/>
@@ -10927,17 +12339,17 @@
       <c r="K14" s="157"/>
       <c r="L14" s="270"/>
       <c r="M14" s="271" t="s">
-        <v>67</v>
+        <v>222</v>
       </c>
       <c r="N14" s="272"/>
       <c r="O14" s="272"/>
       <c r="P14" s="273"/>
       <c r="Q14" s="85"/>
-      <c r="R14" s="86">
-        <v>0</v>
+      <c r="R14" s="415" t="s">
+        <v>147</v>
       </c>
       <c r="S14" s="290" t="s">
-        <v>95</v>
+        <v>228</v>
       </c>
       <c r="T14" s="291"/>
       <c r="U14" s="276" t="s">
@@ -10962,7 +12374,7 @@
       <c r="AF14" s="279"/>
       <c r="AG14" s="280"/>
       <c r="AH14" s="292" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AI14" s="293"/>
       <c r="AJ14" s="293"/>
@@ -10993,16 +12405,14 @@
       <c r="BI14" s="285"/>
       <c r="BJ14" s="285"/>
       <c r="BK14" s="285"/>
-      <c r="BL14" s="285"/>
-      <c r="BM14" s="76"/>
-      <c r="BN14" s="77"/>
+      <c r="BL14" s="471"/>
     </row>
     <row r="15" customHeight="1" ht="12">
       <c r="A15" s="61">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B15" s="156" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C15" s="157"/>
       <c r="D15" s="157"/>
@@ -11020,12 +12430,12 @@
       <c r="N15" s="272"/>
       <c r="O15" s="272"/>
       <c r="P15" s="273"/>
-      <c r="Q15" s="85"/>
-      <c r="R15" s="415" t="s">
+      <c r="Q15" s="405"/>
+      <c r="R15" s="348" t="s">
         <v>147</v>
       </c>
       <c r="S15" s="290" t="s">
-        <v>95</v>
+        <v>228</v>
       </c>
       <c r="T15" s="291"/>
       <c r="U15" s="276" t="s">
@@ -11050,7 +12460,7 @@
       <c r="AF15" s="279"/>
       <c r="AG15" s="280"/>
       <c r="AH15" s="292" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AI15" s="293"/>
       <c r="AJ15" s="293"/>
@@ -11081,16 +12491,14 @@
       <c r="BI15" s="285"/>
       <c r="BJ15" s="285"/>
       <c r="BK15" s="285"/>
-      <c r="BL15" s="285"/>
-      <c r="BM15" s="76"/>
-      <c r="BN15" s="77"/>
+      <c r="BL15" s="471"/>
     </row>
     <row r="16" customHeight="1" ht="12">
       <c r="A16" s="61">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B16" s="156" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C16" s="157"/>
       <c r="D16" s="157"/>
@@ -11103,17 +12511,17 @@
       <c r="K16" s="157"/>
       <c r="L16" s="270"/>
       <c r="M16" s="271" t="s">
-        <v>222</v>
+        <v>67</v>
       </c>
       <c r="N16" s="272"/>
       <c r="O16" s="272"/>
       <c r="P16" s="273"/>
-      <c r="Q16" s="405"/>
-      <c r="R16" s="348" t="s">
-        <v>147</v>
+      <c r="Q16" s="85"/>
+      <c r="R16" s="86">
+        <v>0</v>
       </c>
       <c r="S16" s="290" t="s">
-        <v>95</v>
+        <v>228</v>
       </c>
       <c r="T16" s="291"/>
       <c r="U16" s="276" t="s">
@@ -11138,7 +12546,7 @@
       <c r="AF16" s="279"/>
       <c r="AG16" s="280"/>
       <c r="AH16" s="292" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AI16" s="293"/>
       <c r="AJ16" s="293"/>
@@ -11169,16 +12577,14 @@
       <c r="BI16" s="285"/>
       <c r="BJ16" s="285"/>
       <c r="BK16" s="285"/>
-      <c r="BL16" s="285"/>
-      <c r="BM16" s="76"/>
-      <c r="BN16" s="77"/>
+      <c r="BL16" s="471"/>
     </row>
     <row r="17" customHeight="1" ht="12">
       <c r="A17" s="61">
         <v>9</v>
       </c>
       <c r="B17" s="156" t="s">
-        <v>151</v>
+        <v>13</v>
       </c>
       <c r="C17" s="157"/>
       <c r="D17" s="157"/>
@@ -11191,30 +12597,28 @@
       <c r="K17" s="157"/>
       <c r="L17" s="270"/>
       <c r="M17" s="271" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="N17" s="272"/>
       <c r="O17" s="272"/>
       <c r="P17" s="273"/>
       <c r="Q17" s="85"/>
-      <c r="R17" s="86">
-        <v>0</v>
+      <c r="R17" s="414">
+        <v>8</v>
       </c>
       <c r="S17" s="290" t="s">
-        <v>95</v>
-      </c>
-      <c r="T17" s="291"/>
+        <v>228</v>
+      </c>
+      <c r="T17" s="298"/>
       <c r="U17" s="276" t="s">
         <v>104</v>
       </c>
       <c r="V17" s="277"/>
-      <c r="W17" s="271" t="s">
+      <c r="W17" s="272" t="s">
         <v>64</v>
       </c>
       <c r="X17" s="273"/>
-      <c r="Y17" s="271" t="s">
-        <v>65</v>
-      </c>
+      <c r="Y17" s="271"/>
       <c r="Z17" s="272"/>
       <c r="AA17" s="272"/>
       <c r="AB17" s="273"/>
@@ -11226,7 +12630,7 @@
       <c r="AF17" s="279"/>
       <c r="AG17" s="280"/>
       <c r="AH17" s="292" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AI17" s="293"/>
       <c r="AJ17" s="293"/>
@@ -11234,7 +12638,9 @@
       <c r="AL17" s="293"/>
       <c r="AM17" s="293"/>
       <c r="AN17" s="293"/>
-      <c r="AO17" s="284"/>
+      <c r="AO17" s="284" t="s">
+        <v>100</v>
+      </c>
       <c r="AP17" s="285"/>
       <c r="AQ17" s="285"/>
       <c r="AR17" s="285"/>
@@ -11257,16 +12663,14 @@
       <c r="BI17" s="285"/>
       <c r="BJ17" s="285"/>
       <c r="BK17" s="285"/>
-      <c r="BL17" s="285"/>
-      <c r="BM17" s="76"/>
-      <c r="BN17" s="77"/>
+      <c r="BL17" s="471"/>
     </row>
     <row r="18" customHeight="1" ht="12">
       <c r="A18" s="61">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B18" s="156" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C18" s="157"/>
       <c r="D18" s="157"/>
@@ -11278,18 +12682,18 @@
       <c r="J18" s="157"/>
       <c r="K18" s="157"/>
       <c r="L18" s="270"/>
-      <c r="M18" s="271" t="s">
+      <c r="M18" s="411" t="s">
         <v>63</v>
       </c>
-      <c r="N18" s="272"/>
-      <c r="O18" s="272"/>
-      <c r="P18" s="273"/>
+      <c r="N18" s="412"/>
+      <c r="O18" s="412"/>
+      <c r="P18" s="413"/>
       <c r="Q18" s="85"/>
-      <c r="R18" s="414">
+      <c r="R18" s="86">
         <v>8</v>
       </c>
       <c r="S18" s="290" t="s">
-        <v>95</v>
+        <v>228</v>
       </c>
       <c r="T18" s="298"/>
       <c r="U18" s="276" t="s">
@@ -11304,146 +12708,62 @@
       <c r="Z18" s="272"/>
       <c r="AA18" s="272"/>
       <c r="AB18" s="273"/>
-      <c r="AC18" s="278" t="s">
+      <c r="AC18" s="428" t="s">
         <v>136</v>
       </c>
-      <c r="AD18" s="279"/>
-      <c r="AE18" s="279"/>
-      <c r="AF18" s="279"/>
-      <c r="AG18" s="280"/>
-      <c r="AH18" s="292" t="s">
-        <v>153</v>
-      </c>
-      <c r="AI18" s="293"/>
-      <c r="AJ18" s="293"/>
-      <c r="AK18" s="293"/>
-      <c r="AL18" s="293"/>
-      <c r="AM18" s="293"/>
-      <c r="AN18" s="293"/>
-      <c r="AO18" s="284" t="s">
+      <c r="AD18" s="429"/>
+      <c r="AE18" s="429"/>
+      <c r="AF18" s="429"/>
+      <c r="AG18" s="430"/>
+      <c r="AH18" s="351"/>
+      <c r="AI18" s="352"/>
+      <c r="AJ18" s="431" t="s">
+        <v>154</v>
+      </c>
+      <c r="AK18" s="352"/>
+      <c r="AL18" s="352"/>
+      <c r="AM18" s="352"/>
+      <c r="AN18" s="353"/>
+      <c r="AO18" s="472" t="s">
         <v>100</v>
       </c>
-      <c r="AP18" s="285"/>
-      <c r="AQ18" s="285"/>
-      <c r="AR18" s="285"/>
-      <c r="AS18" s="285"/>
-      <c r="AT18" s="285"/>
-      <c r="AU18" s="285"/>
-      <c r="AV18" s="285"/>
-      <c r="AW18" s="285"/>
-      <c r="AX18" s="285"/>
-      <c r="AY18" s="285"/>
-      <c r="AZ18" s="285"/>
-      <c r="BA18" s="285"/>
-      <c r="BB18" s="285"/>
-      <c r="BC18" s="285"/>
-      <c r="BD18" s="285"/>
-      <c r="BE18" s="285"/>
-      <c r="BF18" s="285"/>
-      <c r="BG18" s="285"/>
-      <c r="BH18" s="285"/>
-      <c r="BI18" s="285"/>
-      <c r="BJ18" s="285"/>
-      <c r="BK18" s="285"/>
-      <c r="BL18" s="285"/>
-      <c r="BM18" s="76"/>
-      <c r="BN18" s="77"/>
+      <c r="AP18" s="473"/>
+      <c r="AQ18" s="473"/>
+      <c r="AR18" s="473"/>
+      <c r="AS18" s="473"/>
+      <c r="AT18" s="473"/>
+      <c r="AU18" s="473"/>
+      <c r="AV18" s="473"/>
+      <c r="AW18" s="473"/>
+      <c r="AX18" s="473"/>
+      <c r="AY18" s="473"/>
+      <c r="AZ18" s="473"/>
+      <c r="BA18" s="473"/>
+      <c r="BB18" s="473"/>
+      <c r="BC18" s="473"/>
+      <c r="BD18" s="473"/>
+      <c r="BE18" s="473"/>
+      <c r="BF18" s="473"/>
+      <c r="BG18" s="473"/>
+      <c r="BH18" s="473"/>
+      <c r="BI18" s="473"/>
+      <c r="BJ18" s="473"/>
+      <c r="BK18" s="473"/>
+      <c r="BL18" s="474"/>
     </row>
     <row r="19" customHeight="1" ht="12">
-      <c r="A19" s="61">
-        <v>10</v>
-      </c>
-      <c r="B19" s="156" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="157"/>
-      <c r="D19" s="157"/>
-      <c r="E19" s="157"/>
-      <c r="F19" s="157"/>
-      <c r="G19" s="157"/>
-      <c r="H19" s="157"/>
-      <c r="I19" s="157"/>
-      <c r="J19" s="157"/>
-      <c r="K19" s="157"/>
-      <c r="L19" s="270"/>
-      <c r="M19" s="411" t="s">
-        <v>63</v>
-      </c>
-      <c r="N19" s="412"/>
-      <c r="O19" s="412"/>
-      <c r="P19" s="413"/>
-      <c r="Q19" s="85"/>
-      <c r="R19" s="86">
-        <v>8</v>
-      </c>
-      <c r="S19" s="290" t="s">
-        <v>95</v>
-      </c>
-      <c r="T19" s="298"/>
-      <c r="U19" s="276" t="s">
-        <v>104</v>
-      </c>
-      <c r="V19" s="277"/>
-      <c r="W19" s="272" t="s">
-        <v>64</v>
-      </c>
-      <c r="X19" s="273"/>
-      <c r="Y19" s="271"/>
-      <c r="Z19" s="272"/>
-      <c r="AA19" s="272"/>
-      <c r="AB19" s="273"/>
-      <c r="AC19" s="428" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD19" s="429"/>
-      <c r="AE19" s="429"/>
-      <c r="AF19" s="429"/>
-      <c r="AG19" s="430"/>
-      <c r="AH19" s="351"/>
-      <c r="AI19" s="352"/>
-      <c r="AJ19" s="431" t="s">
-        <v>154</v>
-      </c>
-      <c r="AK19" s="352"/>
-      <c r="AL19" s="352"/>
-      <c r="AM19" s="352"/>
-      <c r="AN19" s="353"/>
-      <c r="AO19" s="417" t="s">
-        <v>100</v>
-      </c>
-      <c r="AP19" s="285"/>
-      <c r="AQ19" s="285"/>
-      <c r="AR19" s="285"/>
-      <c r="AS19" s="285"/>
-      <c r="AT19" s="285"/>
-      <c r="AU19" s="285"/>
-      <c r="AV19" s="285"/>
-      <c r="AW19" s="285"/>
-      <c r="AX19" s="285"/>
-      <c r="AY19" s="285"/>
-      <c r="AZ19" s="285"/>
-      <c r="BA19" s="285"/>
-      <c r="BB19" s="285"/>
-      <c r="BC19" s="285"/>
-      <c r="BD19" s="285"/>
-      <c r="BE19" s="285"/>
-      <c r="BF19" s="285"/>
-      <c r="BG19" s="285"/>
-      <c r="BH19" s="285"/>
-      <c r="BI19" s="285"/>
-      <c r="BJ19" s="285"/>
-      <c r="BK19" s="285"/>
-      <c r="BL19" s="285"/>
+      <c r="A19" s="62"/>
+      <c r="B19" s="62"/>
     </row>
     <row r="20" customHeight="1" ht="12">
       <c r="A20" s="62"/>
       <c r="B20" s="62"/>
     </row>
-    <row r="21" customHeight="1" ht="12">
+    <row r="21" customHeight="1" ht="15">
       <c r="A21" s="62"/>
       <c r="B21" s="62"/>
     </row>
-    <row r="22" customHeight="1" ht="15">
+    <row r="22" customHeight="1" ht="12">
       <c r="A22" s="62"/>
       <c r="B22" s="62"/>
     </row>
@@ -11451,7 +12771,7 @@
       <c r="A23" s="62"/>
       <c r="B23" s="62"/>
     </row>
-    <row r="24" customHeight="1" ht="12">
+    <row r="24" customHeight="1" ht="15">
       <c r="A24" s="62"/>
       <c r="B24" s="62"/>
     </row>
@@ -11459,7 +12779,7 @@
       <c r="A25" s="62"/>
       <c r="B25" s="62"/>
     </row>
-    <row r="26" customHeight="1" ht="15">
+    <row r="26" customHeight="1" ht="12">
       <c r="A26" s="62"/>
       <c r="B26" s="62"/>
     </row>
@@ -11472,8 +12792,8 @@
       <c r="B28" s="62"/>
     </row>
     <row r="29" customHeight="1" ht="12">
-      <c r="A29" s="62"/>
-      <c r="B29" s="62"/>
+      <c r="A29" s="302"/>
+      <c r="B29" s="302"/>
     </row>
     <row r="30" customHeight="1" ht="12">
       <c r="A30" s="302"/>
@@ -11495,16 +12815,12 @@
       <c r="A34" s="302"/>
       <c r="B34" s="302"/>
     </row>
-    <row r="35" customHeight="1" ht="12">
+    <row r="35" customHeight="1" ht="30">
       <c r="A35" s="302"/>
       <c r="B35" s="302"/>
     </row>
-    <row r="36" customHeight="1" ht="30">
-      <c r="A36" s="302"/>
-      <c r="B36" s="302"/>
-    </row>
   </sheetData>
-  <mergeCells count="136">
+  <mergeCells count="135">
     <mergeCell ref="A2:AA3"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="G4:O4"/>
@@ -11513,7 +12829,7 @@
     <mergeCell ref="AW4:AY4"/>
     <mergeCell ref="AZ4:BE4"/>
     <mergeCell ref="BF4:BH4"/>
-    <mergeCell ref="BI4:BN4"/>
+    <mergeCell ref="BI4:BL4"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="G5:O5"/>
     <mergeCell ref="P5:U5"/>
@@ -11521,11 +12837,19 @@
     <mergeCell ref="AW5:AY5"/>
     <mergeCell ref="AZ5:BE5"/>
     <mergeCell ref="BF5:BH5"/>
-    <mergeCell ref="BI5:BN5"/>
-    <mergeCell ref="A7:AB7"/>
-    <mergeCell ref="AC7:AN7"/>
-    <mergeCell ref="AO7:BL8"/>
-    <mergeCell ref="BM7:BN8"/>
+    <mergeCell ref="BI5:BL5"/>
+    <mergeCell ref="A6:AB6"/>
+    <mergeCell ref="AC6:AN6"/>
+    <mergeCell ref="AO6:BL7"/>
+    <mergeCell ref="B7:L7"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="Y7:AB7"/>
+    <mergeCell ref="AC7:AG7"/>
+    <mergeCell ref="AH7:AN7"/>
     <mergeCell ref="B8:L8"/>
     <mergeCell ref="M8:P8"/>
     <mergeCell ref="Q8:R8"/>
@@ -11535,6 +12859,7 @@
     <mergeCell ref="Y8:AB8"/>
     <mergeCell ref="AC8:AG8"/>
     <mergeCell ref="AH8:AN8"/>
+    <mergeCell ref="AO8:BL8"/>
     <mergeCell ref="B9:L9"/>
     <mergeCell ref="M9:P9"/>
     <mergeCell ref="Q9:R9"/>
@@ -11567,7 +12892,6 @@
     <mergeCell ref="AO11:BL11"/>
     <mergeCell ref="B12:L12"/>
     <mergeCell ref="M12:P12"/>
-    <mergeCell ref="Q12:R12"/>
     <mergeCell ref="S12:T12"/>
     <mergeCell ref="U12:V12"/>
     <mergeCell ref="W12:X12"/>
@@ -11620,27 +12944,18 @@
     <mergeCell ref="AC17:AG17"/>
     <mergeCell ref="AH17:AN17"/>
     <mergeCell ref="AO17:BL17"/>
-    <mergeCell ref="B18:L18"/>
     <mergeCell ref="M18:P18"/>
     <mergeCell ref="S18:T18"/>
     <mergeCell ref="U18:V18"/>
     <mergeCell ref="W18:X18"/>
-    <mergeCell ref="Y18:AB18"/>
     <mergeCell ref="AC18:AG18"/>
-    <mergeCell ref="AH18:AN18"/>
-    <mergeCell ref="AO18:BL18"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="W19:X19"/>
-    <mergeCell ref="AC19:AG19"/>
+    <mergeCell ref="A29:B29"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11651,8 +12966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F483F54A-5AD5-4BFC-9283-BB80624954B3}">
   <dimension ref="A1:BN14"/>
   <sheetViews>
-    <sheetView showGridLines="false" zoomScale="130" zoomScaleNormal="130" workbookViewId="0" topLeftCell="A1" tabSelected="1">
-      <selection activeCell="AT19" sqref="AT19" activeCellId="0"/>
+    <sheetView showGridLines="false" workbookViewId="0" topLeftCell="A1" zoomScale="120" zoomScaleNormal="120">
+      <selection activeCell="Q13" sqref="Q13" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11671,8 +12986,20 @@
     <col min="12" max="12" width="2.375" style="24" customWidth="1"/>
     <col min="13" max="13" width="2.75" style="24" customWidth="1"/>
     <col min="14" max="14" width="2.375" style="24" customWidth="1"/>
-    <col min="15" max="15" width="2.375" style="24" customWidth="1"/>
-    <col min="16" max="44" width="2.125" style="24"/>
+    <col min="15" max="42" width="2.125" style="24"/>
+    <col min="43" max="43" width="2.125" style="500"/>
+    <col min="44" max="44" width="2.125" style="500"/>
+    <col min="34" max="34" width="2" style="24" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="2" style="24" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="2" style="24" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="2" style="24" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="2" style="24" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="2" style="24" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="2" style="24" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="2" style="24" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="2" style="24" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="2" style="24" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="2" style="24" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="2" style="24" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="2" style="24" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="2" style="24" bestFit="1" customWidth="1"/>
@@ -11683,148 +13010,137 @@
     <col min="52" max="52" width="2" style="24" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="2" style="24" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="2" style="24" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="2" style="24" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="2" style="24" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="2" style="24" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="2" style="24" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="2" style="24" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="2" style="24" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="2" style="24" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="2" style="24" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="2" style="24" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="2" style="24" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="2" style="24" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="1.875" style="24" customWidth="1"/>
-    <col min="67" max="321" width="2.125" style="24"/>
-    <col min="322" max="322" width="1.875" style="24" customWidth="1"/>
-    <col min="323" max="577" width="2.125" style="24"/>
-    <col min="578" max="578" width="1.875" style="24" customWidth="1"/>
-    <col min="579" max="833" width="2.125" style="24"/>
-    <col min="834" max="834" width="1.875" style="24" customWidth="1"/>
-    <col min="835" max="1089" width="2.125" style="24"/>
-    <col min="1090" max="1090" width="1.875" style="24" customWidth="1"/>
-    <col min="1091" max="1345" width="2.125" style="24"/>
-    <col min="1346" max="1346" width="1.875" style="24" customWidth="1"/>
-    <col min="1347" max="1601" width="2.125" style="24"/>
-    <col min="1602" max="1602" width="1.875" style="24" customWidth="1"/>
-    <col min="1603" max="1857" width="2.125" style="24"/>
-    <col min="1858" max="1858" width="1.875" style="24" customWidth="1"/>
-    <col min="1859" max="2113" width="2.125" style="24"/>
-    <col min="2114" max="2114" width="1.875" style="24" customWidth="1"/>
-    <col min="2115" max="2369" width="2.125" style="24"/>
-    <col min="2370" max="2370" width="1.875" style="24" customWidth="1"/>
-    <col min="2371" max="2625" width="2.125" style="24"/>
-    <col min="2626" max="2626" width="1.875" style="24" customWidth="1"/>
-    <col min="2627" max="2881" width="2.125" style="24"/>
-    <col min="2882" max="2882" width="1.875" style="24" customWidth="1"/>
-    <col min="2883" max="3137" width="2.125" style="24"/>
-    <col min="3138" max="3138" width="1.875" style="24" customWidth="1"/>
-    <col min="3139" max="3393" width="2.125" style="24"/>
-    <col min="3394" max="3394" width="1.875" style="24" customWidth="1"/>
-    <col min="3395" max="3649" width="2.125" style="24"/>
-    <col min="3650" max="3650" width="1.875" style="24" customWidth="1"/>
-    <col min="3651" max="3905" width="2.125" style="24"/>
-    <col min="3906" max="3906" width="1.875" style="24" customWidth="1"/>
-    <col min="3907" max="4161" width="2.125" style="24"/>
-    <col min="4162" max="4162" width="1.875" style="24" customWidth="1"/>
-    <col min="4163" max="4417" width="2.125" style="24"/>
-    <col min="4418" max="4418" width="1.875" style="24" customWidth="1"/>
-    <col min="4419" max="4673" width="2.125" style="24"/>
-    <col min="4674" max="4674" width="1.875" style="24" customWidth="1"/>
-    <col min="4675" max="4929" width="2.125" style="24"/>
-    <col min="4930" max="4930" width="1.875" style="24" customWidth="1"/>
-    <col min="4931" max="5185" width="2.125" style="24"/>
-    <col min="5186" max="5186" width="1.875" style="24" customWidth="1"/>
-    <col min="5187" max="5441" width="2.125" style="24"/>
-    <col min="5442" max="5442" width="1.875" style="24" customWidth="1"/>
-    <col min="5443" max="5697" width="2.125" style="24"/>
-    <col min="5698" max="5698" width="1.875" style="24" customWidth="1"/>
-    <col min="5699" max="5953" width="2.125" style="24"/>
-    <col min="5954" max="5954" width="1.875" style="24" customWidth="1"/>
-    <col min="5955" max="6209" width="2.125" style="24"/>
-    <col min="6210" max="6210" width="1.875" style="24" customWidth="1"/>
-    <col min="6211" max="6465" width="2.125" style="24"/>
-    <col min="6466" max="6466" width="1.875" style="24" customWidth="1"/>
-    <col min="6467" max="6721" width="2.125" style="24"/>
-    <col min="6722" max="6722" width="1.875" style="24" customWidth="1"/>
-    <col min="6723" max="6977" width="2.125" style="24"/>
-    <col min="6978" max="6978" width="1.875" style="24" customWidth="1"/>
-    <col min="6979" max="7233" width="2.125" style="24"/>
-    <col min="7234" max="7234" width="1.875" style="24" customWidth="1"/>
-    <col min="7235" max="7489" width="2.125" style="24"/>
-    <col min="7490" max="7490" width="1.875" style="24" customWidth="1"/>
-    <col min="7491" max="7745" width="2.125" style="24"/>
-    <col min="7746" max="7746" width="1.875" style="24" customWidth="1"/>
-    <col min="7747" max="8001" width="2.125" style="24"/>
-    <col min="8002" max="8002" width="1.875" style="24" customWidth="1"/>
-    <col min="8003" max="8257" width="2.125" style="24"/>
-    <col min="8258" max="8258" width="1.875" style="24" customWidth="1"/>
-    <col min="8259" max="8513" width="2.125" style="24"/>
-    <col min="8514" max="8514" width="1.875" style="24" customWidth="1"/>
-    <col min="8515" max="8769" width="2.125" style="24"/>
-    <col min="8770" max="8770" width="1.875" style="24" customWidth="1"/>
-    <col min="8771" max="9025" width="2.125" style="24"/>
-    <col min="9026" max="9026" width="1.875" style="24" customWidth="1"/>
-    <col min="9027" max="9281" width="2.125" style="24"/>
-    <col min="9282" max="9282" width="1.875" style="24" customWidth="1"/>
-    <col min="9283" max="9537" width="2.125" style="24"/>
-    <col min="9538" max="9538" width="1.875" style="24" customWidth="1"/>
-    <col min="9539" max="9793" width="2.125" style="24"/>
-    <col min="9794" max="9794" width="1.875" style="24" customWidth="1"/>
-    <col min="9795" max="10049" width="2.125" style="24"/>
-    <col min="10050" max="10050" width="1.875" style="24" customWidth="1"/>
-    <col min="10051" max="10305" width="2.125" style="24"/>
-    <col min="10306" max="10306" width="1.875" style="24" customWidth="1"/>
-    <col min="10307" max="10561" width="2.125" style="24"/>
-    <col min="10562" max="10562" width="1.875" style="24" customWidth="1"/>
-    <col min="10563" max="10817" width="2.125" style="24"/>
-    <col min="10818" max="10818" width="1.875" style="24" customWidth="1"/>
-    <col min="10819" max="11073" width="2.125" style="24"/>
-    <col min="11074" max="11074" width="1.875" style="24" customWidth="1"/>
-    <col min="11075" max="11329" width="2.125" style="24"/>
-    <col min="11330" max="11330" width="1.875" style="24" customWidth="1"/>
-    <col min="11331" max="11585" width="2.125" style="24"/>
-    <col min="11586" max="11586" width="1.875" style="24" customWidth="1"/>
-    <col min="11587" max="11841" width="2.125" style="24"/>
-    <col min="11842" max="11842" width="1.875" style="24" customWidth="1"/>
-    <col min="11843" max="12097" width="2.125" style="24"/>
-    <col min="12098" max="12098" width="1.875" style="24" customWidth="1"/>
-    <col min="12099" max="12353" width="2.125" style="24"/>
-    <col min="12354" max="12354" width="1.875" style="24" customWidth="1"/>
-    <col min="12355" max="12609" width="2.125" style="24"/>
-    <col min="12610" max="12610" width="1.875" style="24" customWidth="1"/>
-    <col min="12611" max="12865" width="2.125" style="24"/>
-    <col min="12866" max="12866" width="1.875" style="24" customWidth="1"/>
-    <col min="12867" max="13121" width="2.125" style="24"/>
-    <col min="13122" max="13122" width="1.875" style="24" customWidth="1"/>
-    <col min="13123" max="13377" width="2.125" style="24"/>
-    <col min="13378" max="13378" width="1.875" style="24" customWidth="1"/>
-    <col min="13379" max="13633" width="2.125" style="24"/>
-    <col min="13634" max="13634" width="1.875" style="24" customWidth="1"/>
-    <col min="13635" max="13889" width="2.125" style="24"/>
-    <col min="13890" max="13890" width="1.875" style="24" customWidth="1"/>
-    <col min="13891" max="14145" width="2.125" style="24"/>
-    <col min="14146" max="14146" width="1.875" style="24" customWidth="1"/>
-    <col min="14147" max="14401" width="2.125" style="24"/>
-    <col min="14402" max="14402" width="1.875" style="24" customWidth="1"/>
-    <col min="14403" max="14657" width="2.125" style="24"/>
-    <col min="14658" max="14658" width="1.875" style="24" customWidth="1"/>
-    <col min="14659" max="14913" width="2.125" style="24"/>
-    <col min="14914" max="14914" width="1.875" style="24" customWidth="1"/>
-    <col min="14915" max="15169" width="2.125" style="24"/>
-    <col min="15170" max="15170" width="1.875" style="24" customWidth="1"/>
-    <col min="15171" max="15425" width="2.125" style="24"/>
-    <col min="15426" max="15426" width="1.875" style="24" customWidth="1"/>
-    <col min="15427" max="15681" width="2.125" style="24"/>
-    <col min="15682" max="15682" width="1.875" style="24" customWidth="1"/>
-    <col min="15683" max="15937" width="2.125" style="24"/>
-    <col min="15938" max="15938" width="1.875" style="24" customWidth="1"/>
-    <col min="15939" max="16193" width="2.125" style="24"/>
-    <col min="16194" max="16194" width="1.875" style="24" customWidth="1"/>
-    <col min="16195" max="16384" width="2.125" style="24"/>
+    <col min="55" max="55" width="1.875" style="24" customWidth="1"/>
+    <col min="56" max="310" width="2.125" style="24"/>
+    <col min="311" max="311" width="1.875" style="24" customWidth="1"/>
+    <col min="312" max="566" width="2.125" style="24"/>
+    <col min="567" max="567" width="1.875" style="24" customWidth="1"/>
+    <col min="568" max="822" width="2.125" style="24"/>
+    <col min="823" max="823" width="1.875" style="24" customWidth="1"/>
+    <col min="824" max="1078" width="2.125" style="24"/>
+    <col min="1079" max="1079" width="1.875" style="24" customWidth="1"/>
+    <col min="1080" max="1334" width="2.125" style="24"/>
+    <col min="1335" max="1335" width="1.875" style="24" customWidth="1"/>
+    <col min="1336" max="1590" width="2.125" style="24"/>
+    <col min="1591" max="1591" width="1.875" style="24" customWidth="1"/>
+    <col min="1592" max="1846" width="2.125" style="24"/>
+    <col min="1847" max="1847" width="1.875" style="24" customWidth="1"/>
+    <col min="1848" max="2102" width="2.125" style="24"/>
+    <col min="2103" max="2103" width="1.875" style="24" customWidth="1"/>
+    <col min="2104" max="2358" width="2.125" style="24"/>
+    <col min="2359" max="2359" width="1.875" style="24" customWidth="1"/>
+    <col min="2360" max="2614" width="2.125" style="24"/>
+    <col min="2615" max="2615" width="1.875" style="24" customWidth="1"/>
+    <col min="2616" max="2870" width="2.125" style="24"/>
+    <col min="2871" max="2871" width="1.875" style="24" customWidth="1"/>
+    <col min="2872" max="3126" width="2.125" style="24"/>
+    <col min="3127" max="3127" width="1.875" style="24" customWidth="1"/>
+    <col min="3128" max="3382" width="2.125" style="24"/>
+    <col min="3383" max="3383" width="1.875" style="24" customWidth="1"/>
+    <col min="3384" max="3638" width="2.125" style="24"/>
+    <col min="3639" max="3639" width="1.875" style="24" customWidth="1"/>
+    <col min="3640" max="3894" width="2.125" style="24"/>
+    <col min="3895" max="3895" width="1.875" style="24" customWidth="1"/>
+    <col min="3896" max="4150" width="2.125" style="24"/>
+    <col min="4151" max="4151" width="1.875" style="24" customWidth="1"/>
+    <col min="4152" max="4406" width="2.125" style="24"/>
+    <col min="4407" max="4407" width="1.875" style="24" customWidth="1"/>
+    <col min="4408" max="4662" width="2.125" style="24"/>
+    <col min="4663" max="4663" width="1.875" style="24" customWidth="1"/>
+    <col min="4664" max="4918" width="2.125" style="24"/>
+    <col min="4919" max="4919" width="1.875" style="24" customWidth="1"/>
+    <col min="4920" max="5174" width="2.125" style="24"/>
+    <col min="5175" max="5175" width="1.875" style="24" customWidth="1"/>
+    <col min="5176" max="5430" width="2.125" style="24"/>
+    <col min="5431" max="5431" width="1.875" style="24" customWidth="1"/>
+    <col min="5432" max="5686" width="2.125" style="24"/>
+    <col min="5687" max="5687" width="1.875" style="24" customWidth="1"/>
+    <col min="5688" max="5942" width="2.125" style="24"/>
+    <col min="5943" max="5943" width="1.875" style="24" customWidth="1"/>
+    <col min="5944" max="6198" width="2.125" style="24"/>
+    <col min="6199" max="6199" width="1.875" style="24" customWidth="1"/>
+    <col min="6200" max="6454" width="2.125" style="24"/>
+    <col min="6455" max="6455" width="1.875" style="24" customWidth="1"/>
+    <col min="6456" max="6710" width="2.125" style="24"/>
+    <col min="6711" max="6711" width="1.875" style="24" customWidth="1"/>
+    <col min="6712" max="6966" width="2.125" style="24"/>
+    <col min="6967" max="6967" width="1.875" style="24" customWidth="1"/>
+    <col min="6968" max="7222" width="2.125" style="24"/>
+    <col min="7223" max="7223" width="1.875" style="24" customWidth="1"/>
+    <col min="7224" max="7478" width="2.125" style="24"/>
+    <col min="7479" max="7479" width="1.875" style="24" customWidth="1"/>
+    <col min="7480" max="7734" width="2.125" style="24"/>
+    <col min="7735" max="7735" width="1.875" style="24" customWidth="1"/>
+    <col min="7736" max="7990" width="2.125" style="24"/>
+    <col min="7991" max="7991" width="1.875" style="24" customWidth="1"/>
+    <col min="7992" max="8246" width="2.125" style="24"/>
+    <col min="8247" max="8247" width="1.875" style="24" customWidth="1"/>
+    <col min="8248" max="8502" width="2.125" style="24"/>
+    <col min="8503" max="8503" width="1.875" style="24" customWidth="1"/>
+    <col min="8504" max="8758" width="2.125" style="24"/>
+    <col min="8759" max="8759" width="1.875" style="24" customWidth="1"/>
+    <col min="8760" max="9014" width="2.125" style="24"/>
+    <col min="9015" max="9015" width="1.875" style="24" customWidth="1"/>
+    <col min="9016" max="9270" width="2.125" style="24"/>
+    <col min="9271" max="9271" width="1.875" style="24" customWidth="1"/>
+    <col min="9272" max="9526" width="2.125" style="24"/>
+    <col min="9527" max="9527" width="1.875" style="24" customWidth="1"/>
+    <col min="9528" max="9782" width="2.125" style="24"/>
+    <col min="9783" max="9783" width="1.875" style="24" customWidth="1"/>
+    <col min="9784" max="10038" width="2.125" style="24"/>
+    <col min="10039" max="10039" width="1.875" style="24" customWidth="1"/>
+    <col min="10040" max="10294" width="2.125" style="24"/>
+    <col min="10295" max="10295" width="1.875" style="24" customWidth="1"/>
+    <col min="10296" max="10550" width="2.125" style="24"/>
+    <col min="10551" max="10551" width="1.875" style="24" customWidth="1"/>
+    <col min="10552" max="10806" width="2.125" style="24"/>
+    <col min="10807" max="10807" width="1.875" style="24" customWidth="1"/>
+    <col min="10808" max="11062" width="2.125" style="24"/>
+    <col min="11063" max="11063" width="1.875" style="24" customWidth="1"/>
+    <col min="11064" max="11318" width="2.125" style="24"/>
+    <col min="11319" max="11319" width="1.875" style="24" customWidth="1"/>
+    <col min="11320" max="11574" width="2.125" style="24"/>
+    <col min="11575" max="11575" width="1.875" style="24" customWidth="1"/>
+    <col min="11576" max="11830" width="2.125" style="24"/>
+    <col min="11831" max="11831" width="1.875" style="24" customWidth="1"/>
+    <col min="11832" max="12086" width="2.125" style="24"/>
+    <col min="12087" max="12087" width="1.875" style="24" customWidth="1"/>
+    <col min="12088" max="12342" width="2.125" style="24"/>
+    <col min="12343" max="12343" width="1.875" style="24" customWidth="1"/>
+    <col min="12344" max="12598" width="2.125" style="24"/>
+    <col min="12599" max="12599" width="1.875" style="24" customWidth="1"/>
+    <col min="12600" max="12854" width="2.125" style="24"/>
+    <col min="12855" max="12855" width="1.875" style="24" customWidth="1"/>
+    <col min="12856" max="13110" width="2.125" style="24"/>
+    <col min="13111" max="13111" width="1.875" style="24" customWidth="1"/>
+    <col min="13112" max="13366" width="2.125" style="24"/>
+    <col min="13367" max="13367" width="1.875" style="24" customWidth="1"/>
+    <col min="13368" max="13622" width="2.125" style="24"/>
+    <col min="13623" max="13623" width="1.875" style="24" customWidth="1"/>
+    <col min="13624" max="13878" width="2.125" style="24"/>
+    <col min="13879" max="13879" width="1.875" style="24" customWidth="1"/>
+    <col min="13880" max="14134" width="2.125" style="24"/>
+    <col min="14135" max="14135" width="1.875" style="24" customWidth="1"/>
+    <col min="14136" max="14390" width="2.125" style="24"/>
+    <col min="14391" max="14391" width="1.875" style="24" customWidth="1"/>
+    <col min="14392" max="14646" width="2.125" style="24"/>
+    <col min="14647" max="14647" width="1.875" style="24" customWidth="1"/>
+    <col min="14648" max="14902" width="2.125" style="24"/>
+    <col min="14903" max="14903" width="1.875" style="24" customWidth="1"/>
+    <col min="14904" max="15158" width="2.125" style="24"/>
+    <col min="15159" max="15159" width="1.875" style="24" customWidth="1"/>
+    <col min="15160" max="15414" width="2.125" style="24"/>
+    <col min="15415" max="15415" width="1.875" style="24" customWidth="1"/>
+    <col min="15416" max="15670" width="2.125" style="24"/>
+    <col min="15671" max="15671" width="1.875" style="24" customWidth="1"/>
+    <col min="15672" max="15926" width="2.125" style="24"/>
+    <col min="15927" max="15927" width="1.875" style="24" customWidth="1"/>
+    <col min="15928" max="16182" width="2.125" style="24"/>
+    <col min="16183" max="16183" width="1.875" style="24" customWidth="1"/>
+    <col min="16184" max="16384" width="2.125" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" ht="10">
+    <row r="1" ht="12">
       <c r="A1" s="20"/>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -11881,20 +13197,9 @@
       <c r="AZ1" s="21"/>
       <c r="BA1" s="21"/>
       <c r="BB1" s="21"/>
-      <c r="BC1" s="21"/>
-      <c r="BD1" s="21"/>
-      <c r="BE1" s="21"/>
-      <c r="BF1" s="21"/>
-      <c r="BG1" s="21"/>
-      <c r="BH1" s="21"/>
-      <c r="BI1" s="21"/>
-      <c r="BJ1" s="21"/>
-      <c r="BK1" s="21"/>
-      <c r="BL1" s="21"/>
-      <c r="BM1" s="21"/>
-      <c r="BN1" s="23"/>
-    </row>
-    <row r="2" ht="10">
+      <c r="BC1" s="23"/>
+    </row>
+    <row r="2" ht="12">
       <c r="A2" s="116" t="s">
         <v>70</v>
       </c>
@@ -11924,33 +13229,30 @@
       <c r="Y2" s="117"/>
       <c r="Z2" s="117"/>
       <c r="AA2" s="117"/>
-      <c r="AP2" s="25"/>
-      <c r="AQ2" s="25"/>
-      <c r="AR2" s="25"/>
-      <c r="AS2" s="25"/>
-      <c r="AT2" s="25"/>
-      <c r="AU2" s="25"/>
-      <c r="AV2" s="25"/>
+      <c r="AH2" s="25"/>
+      <c r="AI2" s="25"/>
+      <c r="AJ2" s="25"/>
+      <c r="AK2" s="25"/>
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="26"/>
+      <c r="AO2" s="26"/>
+      <c r="AP2" s="26"/>
+      <c r="AQ2" s="26"/>
+      <c r="AR2" s="26"/>
+      <c r="AS2" s="26"/>
+      <c r="AT2" s="26"/>
+      <c r="AU2" s="26"/>
+      <c r="AV2" s="26"/>
       <c r="AW2" s="26"/>
       <c r="AX2" s="26"/>
       <c r="AY2" s="26"/>
       <c r="AZ2" s="26"/>
       <c r="BA2" s="26"/>
       <c r="BB2" s="26"/>
-      <c r="BC2" s="26"/>
-      <c r="BD2" s="26"/>
-      <c r="BE2" s="26"/>
-      <c r="BF2" s="26"/>
-      <c r="BG2" s="26"/>
-      <c r="BH2" s="26"/>
-      <c r="BI2" s="26"/>
-      <c r="BJ2" s="26"/>
-      <c r="BK2" s="26"/>
-      <c r="BL2" s="26"/>
-      <c r="BM2" s="26"/>
-      <c r="BN2" s="27"/>
-    </row>
-    <row r="3" ht="10">
+      <c r="BC2" s="27"/>
+    </row>
+    <row r="3" ht="12">
       <c r="A3" s="226"/>
       <c r="B3" s="227"/>
       <c r="C3" s="227"/>
@@ -11984,14 +13286,14 @@
       <c r="AE3" s="56"/>
       <c r="AF3" s="56"/>
       <c r="AG3" s="56"/>
-      <c r="AH3" s="56"/>
-      <c r="AI3" s="56"/>
-      <c r="AJ3" s="56"/>
-      <c r="AK3" s="56"/>
-      <c r="AL3" s="56"/>
-      <c r="AM3" s="56"/>
-      <c r="AN3" s="56"/>
-      <c r="AO3" s="56"/>
+      <c r="AH3" s="57"/>
+      <c r="AI3" s="57"/>
+      <c r="AJ3" s="57"/>
+      <c r="AK3" s="57"/>
+      <c r="AL3" s="57"/>
+      <c r="AM3" s="57"/>
+      <c r="AN3" s="57"/>
+      <c r="AO3" s="57"/>
       <c r="AP3" s="57"/>
       <c r="AQ3" s="57"/>
       <c r="AR3" s="57"/>
@@ -12005,18 +13307,7 @@
       <c r="AZ3" s="57"/>
       <c r="BA3" s="57"/>
       <c r="BB3" s="57"/>
-      <c r="BC3" s="57"/>
-      <c r="BD3" s="57"/>
-      <c r="BE3" s="57"/>
-      <c r="BF3" s="57"/>
-      <c r="BG3" s="57"/>
-      <c r="BH3" s="57"/>
-      <c r="BI3" s="57"/>
-      <c r="BJ3" s="57"/>
-      <c r="BK3" s="57"/>
-      <c r="BL3" s="57"/>
-      <c r="BM3" s="57"/>
-      <c r="BN3" s="58"/>
+      <c r="BC3" s="58"/>
     </row>
     <row r="4" ht="18">
       <c r="A4" s="228" t="s">
@@ -12063,44 +13354,33 @@
       <c r="AH4" s="238"/>
       <c r="AI4" s="238"/>
       <c r="AJ4" s="238"/>
-      <c r="AK4" s="238"/>
-      <c r="AL4" s="238"/>
-      <c r="AM4" s="238"/>
-      <c r="AN4" s="238"/>
-      <c r="AO4" s="238"/>
-      <c r="AP4" s="238"/>
-      <c r="AQ4" s="238"/>
-      <c r="AR4" s="238"/>
-      <c r="AS4" s="238"/>
-      <c r="AT4" s="238"/>
-      <c r="AU4" s="238"/>
-      <c r="AV4" s="239"/>
-      <c r="AW4" s="240" t="s">
+      <c r="AK4" s="239"/>
+      <c r="AL4" s="240" t="s">
         <v>13</v>
       </c>
-      <c r="AX4" s="241"/>
-      <c r="AY4" s="242"/>
-      <c r="AZ4" s="204">
+      <c r="AM4" s="241"/>
+      <c r="AN4" s="242"/>
+      <c r="AO4" s="204">
         <v>45069</v>
       </c>
+      <c r="AP4" s="205"/>
+      <c r="AQ4" s="205"/>
+      <c r="AR4" s="205"/>
+      <c r="AS4" s="205"/>
+      <c r="AT4" s="205"/>
+      <c r="AU4" s="240" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV4" s="241"/>
+      <c r="AW4" s="242"/>
+      <c r="AX4" s="243" t="s">
+        <v>125</v>
+      </c>
+      <c r="AY4" s="205"/>
+      <c r="AZ4" s="205"/>
       <c r="BA4" s="205"/>
       <c r="BB4" s="205"/>
-      <c r="BC4" s="205"/>
-      <c r="BD4" s="205"/>
-      <c r="BE4" s="205"/>
-      <c r="BF4" s="240" t="s">
-        <v>15</v>
-      </c>
-      <c r="BG4" s="241"/>
-      <c r="BH4" s="242"/>
-      <c r="BI4" s="243" t="s">
-        <v>125</v>
-      </c>
-      <c r="BJ4" s="205"/>
-      <c r="BK4" s="205"/>
-      <c r="BL4" s="205"/>
-      <c r="BM4" s="205"/>
-      <c r="BN4" s="244"/>
+      <c r="BC4" s="244"/>
     </row>
     <row r="5" ht="18">
       <c r="A5" s="206" t="s">
@@ -12146,679 +13426,233 @@
       <c r="AH5" s="212"/>
       <c r="AI5" s="212"/>
       <c r="AJ5" s="212"/>
-      <c r="AK5" s="212"/>
-      <c r="AL5" s="212"/>
-      <c r="AM5" s="212"/>
-      <c r="AN5" s="212"/>
-      <c r="AO5" s="212"/>
-      <c r="AP5" s="212"/>
-      <c r="AQ5" s="212"/>
-      <c r="AR5" s="212"/>
-      <c r="AS5" s="212"/>
-      <c r="AT5" s="212"/>
-      <c r="AU5" s="212"/>
-      <c r="AV5" s="213"/>
-      <c r="AW5" s="214" t="s">
+      <c r="AK5" s="213"/>
+      <c r="AL5" s="214" t="s">
         <v>19</v>
       </c>
-      <c r="AX5" s="215"/>
-      <c r="AY5" s="216"/>
-      <c r="AZ5" s="215"/>
-      <c r="BA5" s="215"/>
-      <c r="BB5" s="215"/>
-      <c r="BC5" s="215"/>
-      <c r="BD5" s="215"/>
-      <c r="BE5" s="215"/>
-      <c r="BF5" s="214" t="s">
+      <c r="AM5" s="215"/>
+      <c r="AN5" s="216"/>
+      <c r="AO5" s="215"/>
+      <c r="AP5" s="215"/>
+      <c r="AQ5" s="215"/>
+      <c r="AR5" s="215"/>
+      <c r="AS5" s="215"/>
+      <c r="AT5" s="215"/>
+      <c r="AU5" s="214" t="s">
         <v>20</v>
       </c>
-      <c r="BG5" s="215"/>
-      <c r="BH5" s="216"/>
-      <c r="BI5" s="211"/>
-      <c r="BJ5" s="212"/>
-      <c r="BK5" s="212"/>
-      <c r="BL5" s="212"/>
-      <c r="BM5" s="212"/>
-      <c r="BN5" s="213"/>
+      <c r="AV5" s="215"/>
+      <c r="AW5" s="216"/>
+      <c r="AX5" s="211"/>
+      <c r="AY5" s="212"/>
+      <c r="AZ5" s="212"/>
+      <c r="BA5" s="212"/>
+      <c r="BB5" s="212"/>
+      <c r="BC5" s="213"/>
     </row>
     <row r="6" ht="12" customFormat="1" s="38">
       <c r="A6" s="96"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="59"/>
-      <c r="S6" s="59"/>
-      <c r="T6" s="59"/>
-      <c r="U6" s="59"/>
-      <c r="V6" s="59"/>
-      <c r="W6" s="59"/>
-      <c r="X6" s="59"/>
-      <c r="Y6" s="59"/>
-      <c r="Z6" s="59"/>
-      <c r="AA6" s="59"/>
-      <c r="AB6" s="59"/>
-      <c r="AC6" s="59"/>
-      <c r="AD6" s="59"/>
-      <c r="AE6" s="59"/>
-      <c r="AF6" s="59"/>
-      <c r="AG6" s="59"/>
-      <c r="AH6" s="59"/>
-      <c r="AI6" s="59"/>
-      <c r="AJ6" s="59"/>
-      <c r="AK6" s="59"/>
-      <c r="AL6" s="59"/>
-      <c r="AM6" s="59"/>
-      <c r="AN6" s="59"/>
-      <c r="AO6" s="59"/>
-      <c r="AP6" s="59"/>
-      <c r="AQ6" s="59"/>
-      <c r="AR6" s="59"/>
-      <c r="AS6" s="59"/>
-      <c r="AT6" s="59"/>
-      <c r="AU6" s="59"/>
-      <c r="AV6" s="59"/>
-      <c r="AW6" s="59"/>
-      <c r="AX6" s="59"/>
-      <c r="AY6" s="59"/>
-      <c r="AZ6" s="59"/>
-      <c r="BA6" s="59"/>
-      <c r="BB6" s="59"/>
-      <c r="BC6" s="59"/>
-      <c r="BD6" s="59"/>
-      <c r="BE6" s="59"/>
-      <c r="BF6" s="59"/>
-      <c r="BG6" s="59"/>
-      <c r="BH6" s="59"/>
-      <c r="BI6" s="59"/>
-      <c r="BJ6" s="59"/>
-      <c r="BK6" s="59"/>
-      <c r="BL6" s="59"/>
-      <c r="BM6" s="59"/>
-      <c r="BN6" s="63"/>
+      <c r="B6" s="620"/>
+      <c r="C6" s="620"/>
+      <c r="D6" s="620"/>
+      <c r="E6" s="620"/>
+      <c r="F6" s="620"/>
+      <c r="G6" s="620"/>
+      <c r="H6" s="620"/>
+      <c r="I6" s="620"/>
+      <c r="J6" s="620"/>
+      <c r="K6" s="620"/>
+      <c r="L6" s="620"/>
+      <c r="M6" s="620"/>
+      <c r="N6" s="620"/>
+      <c r="O6" s="620"/>
+      <c r="P6" s="620"/>
+      <c r="Q6" s="620"/>
+      <c r="R6" s="620"/>
+      <c r="S6" s="620"/>
+      <c r="T6" s="620"/>
+      <c r="U6" s="620"/>
+      <c r="V6" s="620"/>
+      <c r="W6" s="620"/>
+      <c r="X6" s="620"/>
+      <c r="Y6" s="620"/>
+      <c r="Z6" s="620"/>
+      <c r="AA6" s="620"/>
+      <c r="AB6" s="620"/>
+      <c r="AC6" s="620"/>
+      <c r="AD6" s="620"/>
+      <c r="AE6" s="620"/>
+      <c r="AF6" s="620"/>
+      <c r="AG6" s="620"/>
+      <c r="AH6" s="620"/>
+      <c r="AI6" s="620"/>
+      <c r="AJ6" s="620"/>
+      <c r="AK6" s="620"/>
+      <c r="AL6" s="620"/>
+      <c r="AM6" s="620"/>
+      <c r="AN6" s="620"/>
+      <c r="AO6" s="620"/>
+      <c r="AP6" s="620"/>
+      <c r="AQ6" s="620"/>
+      <c r="AR6" s="620"/>
+      <c r="AS6" s="620"/>
+      <c r="AT6" s="620"/>
+      <c r="AU6" s="620"/>
+      <c r="AV6" s="620"/>
+      <c r="AW6" s="620"/>
+      <c r="AX6" s="620"/>
+      <c r="AY6" s="620"/>
+      <c r="AZ6" s="620"/>
+      <c r="BA6" s="620"/>
+      <c r="BB6" s="620"/>
+      <c r="BC6" s="621"/>
     </row>
     <row r="7" ht="12">
-      <c r="A7" s="98" t="s">
+      <c r="A7" s="624" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="303" t="s">
+      <c r="B7" s="623" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="303"/>
-      <c r="D7" s="303"/>
-      <c r="E7" s="303"/>
-      <c r="F7" s="303"/>
-      <c r="G7" s="303"/>
-      <c r="H7" s="303"/>
-      <c r="I7" s="303"/>
-      <c r="J7" s="303"/>
-      <c r="K7" s="303"/>
-      <c r="L7" s="303"/>
-      <c r="M7" s="303"/>
-      <c r="N7" s="303"/>
-      <c r="O7" s="305"/>
-      <c r="P7" s="306" t="s">
+      <c r="C7" s="623"/>
+      <c r="D7" s="623"/>
+      <c r="E7" s="623"/>
+      <c r="F7" s="623"/>
+      <c r="G7" s="623"/>
+      <c r="H7" s="623"/>
+      <c r="I7" s="623"/>
+      <c r="J7" s="623"/>
+      <c r="K7" s="623"/>
+      <c r="L7" s="623"/>
+      <c r="M7" s="623"/>
+      <c r="N7" s="623"/>
+      <c r="O7" s="623"/>
+      <c r="P7" s="623" t="s">
         <v>72</v>
       </c>
-      <c r="Q7" s="307"/>
-      <c r="R7" s="307"/>
-      <c r="S7" s="307"/>
-      <c r="T7" s="307"/>
-      <c r="U7" s="307"/>
-      <c r="V7" s="307"/>
-      <c r="W7" s="307"/>
-      <c r="X7" s="307"/>
-      <c r="Y7" s="307"/>
-      <c r="Z7" s="307"/>
-      <c r="AA7" s="307"/>
-      <c r="AB7" s="307"/>
-      <c r="AC7" s="307"/>
-      <c r="AD7" s="307"/>
-      <c r="AE7" s="307"/>
-      <c r="AF7" s="307"/>
-      <c r="AG7" s="307"/>
-      <c r="AH7" s="307"/>
-      <c r="AI7" s="307"/>
-      <c r="AJ7" s="307"/>
-      <c r="AK7" s="307"/>
-      <c r="AL7" s="307"/>
-      <c r="AM7" s="307"/>
-      <c r="AN7" s="307"/>
-      <c r="AO7" s="307"/>
-      <c r="AP7" s="307"/>
-      <c r="AQ7" s="307"/>
-      <c r="AR7" s="308"/>
-      <c r="AS7" s="306" t="s">
+      <c r="Q7" s="623"/>
+      <c r="R7" s="623"/>
+      <c r="S7" s="623"/>
+      <c r="T7" s="623"/>
+      <c r="U7" s="623"/>
+      <c r="V7" s="623"/>
+      <c r="W7" s="623"/>
+      <c r="X7" s="623"/>
+      <c r="Y7" s="623"/>
+      <c r="Z7" s="623"/>
+      <c r="AA7" s="623"/>
+      <c r="AB7" s="623"/>
+      <c r="AC7" s="623"/>
+      <c r="AD7" s="623"/>
+      <c r="AE7" s="623"/>
+      <c r="AF7" s="623"/>
+      <c r="AG7" s="623"/>
+      <c r="AH7" s="623" t="s">
         <v>73</v>
       </c>
-      <c r="AT7" s="307"/>
-      <c r="AU7" s="307"/>
-      <c r="AV7" s="307"/>
-      <c r="AW7" s="307"/>
-      <c r="AX7" s="307"/>
-      <c r="AY7" s="307"/>
-      <c r="AZ7" s="307"/>
-      <c r="BA7" s="307"/>
-      <c r="BB7" s="307"/>
-      <c r="BC7" s="307"/>
-      <c r="BD7" s="307"/>
-      <c r="BE7" s="307"/>
-      <c r="BF7" s="307"/>
-      <c r="BG7" s="307"/>
-      <c r="BH7" s="307"/>
-      <c r="BI7" s="307"/>
-      <c r="BJ7" s="307"/>
-      <c r="BK7" s="307"/>
-      <c r="BL7" s="307"/>
-      <c r="BM7" s="307"/>
-      <c r="BN7" s="308"/>
-    </row>
-    <row r="8" ht="12">
-      <c r="A8" s="97">
-        <v>1</v>
-      </c>
-      <c r="B8" s="309" t="s">
-        <v>101</v>
-      </c>
-      <c r="C8" s="309"/>
-      <c r="D8" s="309"/>
-      <c r="E8" s="309"/>
-      <c r="F8" s="309"/>
-      <c r="G8" s="309"/>
-      <c r="H8" s="309"/>
-      <c r="I8" s="309"/>
-      <c r="J8" s="309"/>
-      <c r="K8" s="309"/>
-      <c r="L8" s="309"/>
-      <c r="M8" s="309"/>
-      <c r="N8" s="309"/>
-      <c r="O8" s="311"/>
-      <c r="P8" s="312" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q8" s="313"/>
-      <c r="R8" s="313"/>
-      <c r="S8" s="313"/>
-      <c r="T8" s="313"/>
-      <c r="U8" s="313"/>
-      <c r="V8" s="313"/>
-      <c r="W8" s="313"/>
-      <c r="X8" s="313"/>
-      <c r="Y8" s="313"/>
-      <c r="Z8" s="313"/>
-      <c r="AA8" s="313"/>
-      <c r="AB8" s="313"/>
-      <c r="AC8" s="313"/>
-      <c r="AD8" s="313"/>
-      <c r="AE8" s="313"/>
-      <c r="AF8" s="313"/>
-      <c r="AG8" s="313"/>
-      <c r="AH8" s="313"/>
-      <c r="AI8" s="313"/>
-      <c r="AJ8" s="313"/>
-      <c r="AK8" s="313"/>
-      <c r="AL8" s="313"/>
-      <c r="AM8" s="313"/>
-      <c r="AN8" s="313"/>
-      <c r="AO8" s="313"/>
-      <c r="AP8" s="313"/>
-      <c r="AQ8" s="313"/>
-      <c r="AR8" s="313"/>
-      <c r="AS8" s="314" t="s">
-        <v>157</v>
-      </c>
-      <c r="AT8" s="315"/>
-      <c r="AU8" s="315"/>
-      <c r="AV8" s="315"/>
-      <c r="AW8" s="315"/>
-      <c r="AX8" s="315"/>
-      <c r="AY8" s="315"/>
-      <c r="AZ8" s="315"/>
-      <c r="BA8" s="315"/>
-      <c r="BB8" s="315"/>
-      <c r="BC8" s="315"/>
-      <c r="BD8" s="315"/>
-      <c r="BE8" s="315"/>
-      <c r="BF8" s="315"/>
-      <c r="BG8" s="315"/>
-      <c r="BH8" s="315"/>
-      <c r="BI8" s="315"/>
-      <c r="BJ8" s="315"/>
-      <c r="BK8" s="315"/>
-      <c r="BL8" s="315"/>
-      <c r="BM8" s="315"/>
-      <c r="BN8" s="316"/>
-    </row>
-    <row r="9" customHeight="1" ht="9">
-      <c r="A9" s="90">
-        <v>2</v>
-      </c>
-      <c r="B9" s="317" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" s="309"/>
-      <c r="D9" s="309"/>
-      <c r="E9" s="309"/>
-      <c r="F9" s="309"/>
-      <c r="G9" s="309"/>
-      <c r="H9" s="309"/>
-      <c r="I9" s="309"/>
-      <c r="J9" s="309"/>
-      <c r="K9" s="309"/>
-      <c r="L9" s="309"/>
-      <c r="M9" s="309"/>
-      <c r="N9" s="309"/>
-      <c r="O9" s="309"/>
-      <c r="P9" s="320" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q9" s="320"/>
-      <c r="R9" s="320"/>
-      <c r="S9" s="320"/>
-      <c r="T9" s="320"/>
-      <c r="U9" s="320"/>
-      <c r="V9" s="320"/>
-      <c r="W9" s="320"/>
-      <c r="X9" s="320"/>
-      <c r="Y9" s="320"/>
-      <c r="Z9" s="320"/>
-      <c r="AA9" s="320"/>
-      <c r="AB9" s="320"/>
-      <c r="AC9" s="320"/>
-      <c r="AD9" s="320"/>
-      <c r="AE9" s="320"/>
-      <c r="AF9" s="320"/>
-      <c r="AG9" s="320"/>
-      <c r="AH9" s="320"/>
-      <c r="AI9" s="320"/>
-      <c r="AJ9" s="320"/>
-      <c r="AK9" s="320"/>
-      <c r="AL9" s="320"/>
-      <c r="AM9" s="320"/>
-      <c r="AN9" s="320"/>
-      <c r="AO9" s="320"/>
-      <c r="AP9" s="320"/>
-      <c r="AQ9" s="320"/>
-      <c r="AR9" s="320"/>
-      <c r="AS9" s="322" t="s">
-        <v>159</v>
-      </c>
-      <c r="AT9" s="322"/>
-      <c r="AU9" s="322"/>
-      <c r="AV9" s="322"/>
-      <c r="AW9" s="322"/>
-      <c r="AX9" s="322"/>
-      <c r="AY9" s="322"/>
-      <c r="AZ9" s="322"/>
-      <c r="BA9" s="322"/>
-      <c r="BB9" s="322"/>
-      <c r="BC9" s="322"/>
-      <c r="BD9" s="322"/>
-      <c r="BE9" s="322"/>
-      <c r="BF9" s="322"/>
-      <c r="BG9" s="322"/>
-      <c r="BH9" s="322"/>
-      <c r="BI9" s="322"/>
-      <c r="BJ9" s="322"/>
-      <c r="BK9" s="322"/>
-      <c r="BL9" s="322"/>
-      <c r="BM9" s="322"/>
-      <c r="BN9" s="324"/>
-    </row>
-    <row r="10" customHeight="1" ht="15">
-      <c r="A10" s="89">
-        <v>3</v>
-      </c>
-      <c r="B10" s="317" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="309"/>
-      <c r="D10" s="309"/>
-      <c r="E10" s="309"/>
-      <c r="F10" s="309"/>
-      <c r="G10" s="309"/>
-      <c r="H10" s="309"/>
-      <c r="I10" s="309"/>
-      <c r="J10" s="309"/>
-      <c r="K10" s="309"/>
-      <c r="L10" s="309"/>
-      <c r="M10" s="309"/>
-      <c r="N10" s="309"/>
-      <c r="O10" s="311"/>
-      <c r="P10" s="444" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q10" s="445"/>
-      <c r="R10" s="445"/>
-      <c r="S10" s="445"/>
-      <c r="T10" s="445"/>
-      <c r="U10" s="445"/>
-      <c r="V10" s="445"/>
-      <c r="W10" s="445"/>
-      <c r="X10" s="445"/>
-      <c r="Y10" s="445"/>
-      <c r="Z10" s="56"/>
-      <c r="AA10" s="56"/>
-      <c r="AB10" s="56"/>
-      <c r="AC10" s="56"/>
-      <c r="AD10" s="445"/>
-      <c r="AE10" s="445"/>
-      <c r="AF10" s="445"/>
-      <c r="AG10" s="445"/>
-      <c r="AH10" s="445"/>
-      <c r="AI10" s="445"/>
-      <c r="AJ10" s="445"/>
-      <c r="AK10" s="445"/>
-      <c r="AL10" s="445"/>
-      <c r="AM10" s="445"/>
-      <c r="AN10" s="445"/>
-      <c r="AO10" s="445"/>
-      <c r="AP10" s="445"/>
-      <c r="AQ10" s="445"/>
-      <c r="AR10" s="445"/>
-      <c r="AS10" s="326" t="s">
-        <v>225</v>
-      </c>
-      <c r="AT10" s="327"/>
-      <c r="AU10" s="327"/>
-      <c r="AV10" s="327"/>
-      <c r="AW10" s="327"/>
-      <c r="AX10" s="327"/>
-      <c r="AY10" s="327"/>
-      <c r="AZ10" s="327"/>
-      <c r="BA10" s="327"/>
-      <c r="BB10" s="327"/>
-      <c r="BC10" s="327"/>
-      <c r="BD10" s="327"/>
-      <c r="BE10" s="327"/>
-      <c r="BF10" s="327"/>
-      <c r="BG10" s="327"/>
-      <c r="BH10" s="327"/>
-      <c r="BI10" s="327"/>
-      <c r="BJ10" s="327"/>
-      <c r="BK10" s="327"/>
-      <c r="BL10" s="327"/>
-      <c r="BM10" s="327"/>
-      <c r="BN10" s="328"/>
-    </row>
-    <row r="11" ht="12">
-      <c r="A11" s="89">
-        <v>4</v>
-      </c>
-      <c r="B11" s="317" t="s">
-        <v>101</v>
-      </c>
-      <c r="C11" s="309"/>
-      <c r="D11" s="309"/>
-      <c r="E11" s="309"/>
-      <c r="F11" s="309"/>
-      <c r="G11" s="309"/>
-      <c r="H11" s="309"/>
-      <c r="I11" s="309"/>
-      <c r="J11" s="309"/>
-      <c r="K11" s="309"/>
-      <c r="L11" s="309"/>
-      <c r="M11" s="309"/>
-      <c r="N11" s="309"/>
-      <c r="O11" s="309"/>
-      <c r="P11" s="446" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q11" s="88"/>
-      <c r="R11" s="88"/>
-      <c r="S11" s="88"/>
-      <c r="T11" s="88"/>
-      <c r="U11" s="88"/>
-      <c r="V11" s="88"/>
-      <c r="W11" s="88"/>
-      <c r="X11" s="88"/>
-      <c r="Y11" s="88"/>
-      <c r="Z11" s="88"/>
-      <c r="AA11" s="88"/>
-      <c r="AB11" s="88"/>
-      <c r="AC11" s="88"/>
-      <c r="AD11" s="88"/>
-      <c r="AE11" s="443"/>
-      <c r="AF11" s="443"/>
-      <c r="AG11" s="443"/>
-      <c r="AH11" s="443"/>
-      <c r="AI11" s="443"/>
-      <c r="AJ11" s="443"/>
-      <c r="AK11" s="443"/>
-      <c r="AL11" s="443"/>
-      <c r="AM11" s="443"/>
-      <c r="AN11" s="443"/>
-      <c r="AO11" s="443"/>
-      <c r="AP11" s="443"/>
-      <c r="AQ11" s="443"/>
-      <c r="AR11" s="443"/>
-      <c r="AS11" s="329" t="s">
-        <v>163</v>
-      </c>
-      <c r="AT11" s="329"/>
-      <c r="AU11" s="329"/>
-      <c r="AV11" s="329"/>
-      <c r="AW11" s="329"/>
-      <c r="AX11" s="329"/>
-      <c r="AY11" s="329"/>
-      <c r="AZ11" s="329"/>
-      <c r="BA11" s="329"/>
-      <c r="BB11" s="329"/>
-      <c r="BC11" s="329"/>
-      <c r="BD11" s="329"/>
-      <c r="BE11" s="329"/>
-      <c r="BF11" s="329"/>
-      <c r="BG11" s="329"/>
-      <c r="BH11" s="329"/>
-      <c r="BI11" s="329"/>
-      <c r="BJ11" s="329"/>
-      <c r="BK11" s="329"/>
-      <c r="BL11" s="329"/>
-      <c r="BM11" s="329"/>
-      <c r="BN11" s="320"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="89">
-        <v>5</v>
-      </c>
-      <c r="B12" s="317" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" s="309"/>
-      <c r="D12" s="309"/>
-      <c r="E12" s="309"/>
-      <c r="F12" s="309"/>
-      <c r="G12" s="309"/>
-      <c r="H12" s="309"/>
-      <c r="I12" s="309"/>
-      <c r="J12" s="309"/>
-      <c r="K12" s="309"/>
-      <c r="L12" s="309"/>
-      <c r="M12" s="309"/>
-      <c r="N12" s="309"/>
-      <c r="O12" s="432"/>
-      <c r="P12" s="320" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q12" s="320"/>
-      <c r="R12" s="320"/>
-      <c r="S12" s="320"/>
-      <c r="T12" s="320"/>
-      <c r="U12" s="320"/>
-      <c r="V12" s="320"/>
-      <c r="W12" s="320"/>
-      <c r="X12" s="320"/>
-      <c r="Y12" s="320"/>
-      <c r="Z12" s="320"/>
-      <c r="AA12" s="320"/>
-      <c r="AB12" s="320"/>
-      <c r="AC12" s="320"/>
-      <c r="AD12" s="320"/>
-      <c r="AE12" s="320"/>
-      <c r="AF12" s="320"/>
-      <c r="AG12" s="320"/>
-      <c r="AH12" s="320"/>
-      <c r="AI12" s="320"/>
-      <c r="AJ12" s="320"/>
-      <c r="AK12" s="320"/>
-      <c r="AL12" s="320"/>
-      <c r="AM12" s="320"/>
-      <c r="AN12" s="320"/>
-      <c r="AO12" s="320"/>
-      <c r="AP12" s="320"/>
-      <c r="AQ12" s="320"/>
-      <c r="AR12" s="320"/>
-      <c r="AS12" s="433" t="s">
-        <v>168</v>
-      </c>
-      <c r="AT12" s="332"/>
-      <c r="AU12" s="332"/>
-      <c r="AV12" s="332"/>
-      <c r="AW12" s="332"/>
-      <c r="AX12" s="332"/>
-      <c r="AY12" s="332"/>
-      <c r="AZ12" s="332"/>
-      <c r="BA12" s="332"/>
-      <c r="BB12" s="332"/>
-      <c r="BC12" s="332"/>
-      <c r="BD12" s="332"/>
-      <c r="BE12" s="332"/>
-      <c r="BF12" s="332"/>
-      <c r="BG12" s="332"/>
-      <c r="BH12" s="332"/>
-      <c r="BI12" s="332"/>
-      <c r="BJ12" s="332"/>
-      <c r="BK12" s="332"/>
-      <c r="BL12" s="332"/>
-      <c r="BM12" s="332"/>
-      <c r="BN12" s="333"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="89">
-        <v>6</v>
-      </c>
-      <c r="B13" s="317" t="s">
-        <v>101</v>
-      </c>
-      <c r="C13" s="309"/>
-      <c r="D13" s="309"/>
-      <c r="E13" s="309"/>
-      <c r="F13" s="309"/>
-      <c r="G13" s="309"/>
-      <c r="H13" s="309"/>
-      <c r="I13" s="309"/>
-      <c r="J13" s="309"/>
-      <c r="K13" s="309"/>
-      <c r="L13" s="309"/>
-      <c r="M13" s="309"/>
-      <c r="N13" s="309"/>
-      <c r="O13" s="311"/>
-      <c r="P13" s="439" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q13" s="439"/>
-      <c r="R13" s="439"/>
-      <c r="S13" s="439"/>
-      <c r="T13" s="439"/>
-      <c r="U13" s="439"/>
-      <c r="V13" s="439"/>
-      <c r="W13" s="439"/>
-      <c r="X13" s="439"/>
-      <c r="Y13" s="439"/>
-      <c r="Z13" s="439"/>
-      <c r="AA13" s="439"/>
-      <c r="AB13" s="439"/>
-      <c r="AC13" s="439"/>
-      <c r="AD13" s="439"/>
-      <c r="AE13" s="439"/>
-      <c r="AF13" s="439"/>
-      <c r="AG13" s="439"/>
-      <c r="AH13" s="439"/>
-      <c r="AI13" s="439"/>
-      <c r="AJ13" s="439"/>
-      <c r="AK13" s="439"/>
-      <c r="AL13" s="439"/>
-      <c r="AM13" s="439"/>
-      <c r="AN13" s="439"/>
-      <c r="AO13" s="439"/>
-      <c r="AP13" s="439"/>
-      <c r="AQ13" s="439"/>
-      <c r="AR13" s="439"/>
-      <c r="AS13" s="342" t="s">
-        <v>165</v>
-      </c>
-      <c r="AT13" s="322"/>
-      <c r="AU13" s="322"/>
-      <c r="AV13" s="322"/>
-      <c r="AW13" s="322"/>
-      <c r="AX13" s="322"/>
-      <c r="AY13" s="322"/>
-      <c r="AZ13" s="322"/>
-      <c r="BA13" s="322"/>
-      <c r="BB13" s="322"/>
-      <c r="BC13" s="322"/>
-      <c r="BD13" s="322"/>
-      <c r="BE13" s="322"/>
-      <c r="BF13" s="322"/>
-      <c r="BG13" s="322"/>
-      <c r="BH13" s="322"/>
-      <c r="BI13" s="322"/>
-      <c r="BJ13" s="322"/>
-      <c r="BK13" s="322"/>
-      <c r="BL13" s="322"/>
-      <c r="BM13" s="322"/>
-      <c r="BN13" s="324"/>
+      <c r="AI7" s="623"/>
+      <c r="AJ7" s="623"/>
+      <c r="AK7" s="623"/>
+      <c r="AL7" s="623"/>
+      <c r="AM7" s="623"/>
+      <c r="AN7" s="623"/>
+      <c r="AO7" s="623"/>
+      <c r="AP7" s="623"/>
+      <c r="AQ7" s="623"/>
+      <c r="AR7" s="623"/>
+      <c r="AS7" s="623"/>
+      <c r="AT7" s="623"/>
+      <c r="AU7" s="623"/>
+      <c r="AV7" s="623"/>
+      <c r="AW7" s="623"/>
+      <c r="AX7" s="623"/>
+      <c r="AY7" s="623"/>
+      <c r="AZ7" s="623"/>
+      <c r="BA7" s="623"/>
+      <c r="BB7" s="623"/>
+      <c r="BC7" s="623"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="98"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="98"/>
+      <c r="H8" s="98"/>
+      <c r="I8" s="98"/>
+      <c r="J8" s="98" t="s">
+        <v>264</v>
+      </c>
+      <c r="K8" s="98"/>
+      <c r="L8" s="98"/>
+      <c r="M8" s="98"/>
+      <c r="N8" s="98"/>
+      <c r="O8" s="98"/>
+      <c r="P8" s="98"/>
+      <c r="Q8" s="98"/>
+      <c r="R8" s="98"/>
+      <c r="S8" s="98"/>
+      <c r="T8" s="98"/>
+      <c r="U8" s="98"/>
+      <c r="V8" s="98"/>
+      <c r="W8" s="98"/>
+      <c r="X8" s="98"/>
+      <c r="Y8" s="98"/>
+      <c r="Z8" s="98"/>
+      <c r="AA8" s="98"/>
+      <c r="AB8" s="98"/>
+      <c r="AC8" s="98"/>
+      <c r="AD8" s="98"/>
+      <c r="AE8" s="98"/>
+      <c r="AF8" s="98"/>
+      <c r="AG8" s="98"/>
+      <c r="AH8" s="98"/>
+      <c r="AI8" s="98"/>
+      <c r="AJ8" s="98"/>
+      <c r="AK8" s="98"/>
+      <c r="AL8" s="98"/>
+      <c r="AM8" s="98"/>
+      <c r="AN8" s="98"/>
+      <c r="AO8" s="98"/>
+      <c r="AP8" s="98"/>
+      <c r="AQ8" s="98"/>
+      <c r="AR8" s="98"/>
+      <c r="AS8" s="98"/>
+      <c r="AT8" s="98"/>
+      <c r="AU8" s="98"/>
+      <c r="AV8" s="98"/>
+      <c r="AW8" s="98"/>
+      <c r="AX8" s="98"/>
+      <c r="AY8" s="98"/>
+      <c r="AZ8" s="98"/>
+      <c r="BA8" s="98"/>
+      <c r="BB8" s="98"/>
+      <c r="BC8" s="98"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="20">
     <mergeCell ref="A2:AA3"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="G4:O4"/>
     <mergeCell ref="P4:U4"/>
-    <mergeCell ref="V4:AV4"/>
-    <mergeCell ref="AW4:AY4"/>
-    <mergeCell ref="AZ4:BE4"/>
-    <mergeCell ref="BF4:BH4"/>
-    <mergeCell ref="BI4:BN4"/>
+    <mergeCell ref="V4:AK4"/>
+    <mergeCell ref="AL4:AN4"/>
+    <mergeCell ref="AO4:AT4"/>
+    <mergeCell ref="AU4:AW4"/>
+    <mergeCell ref="AX4:BC4"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="G5:O5"/>
     <mergeCell ref="P5:U5"/>
-    <mergeCell ref="V5:AV5"/>
-    <mergeCell ref="AW5:AY5"/>
-    <mergeCell ref="AZ5:BE5"/>
-    <mergeCell ref="BF5:BH5"/>
-    <mergeCell ref="BI5:BN5"/>
+    <mergeCell ref="V5:AK5"/>
+    <mergeCell ref="AL5:AN5"/>
+    <mergeCell ref="AO5:AT5"/>
+    <mergeCell ref="AU5:AW5"/>
+    <mergeCell ref="AX5:BC5"/>
     <mergeCell ref="B7:O7"/>
-    <mergeCell ref="P7:AR7"/>
-    <mergeCell ref="AS7:BN7"/>
-    <mergeCell ref="B8:O8"/>
-    <mergeCell ref="P8:AR8"/>
-    <mergeCell ref="AS8:BN8"/>
-    <mergeCell ref="B9:O9"/>
-    <mergeCell ref="P9:AR9"/>
-    <mergeCell ref="AS9:BN9"/>
-    <mergeCell ref="B10:O10"/>
-    <mergeCell ref="AS10:BN10"/>
-    <mergeCell ref="B11:O11"/>
-    <mergeCell ref="AS11:BN11"/>
-    <mergeCell ref="B12:O12"/>
-    <mergeCell ref="P12:AR12"/>
-    <mergeCell ref="AS12:BN12"/>
-    <mergeCell ref="B13:O13"/>
-    <mergeCell ref="P13:AR13"/>
-    <mergeCell ref="AS13:BN13"/>
+    <mergeCell ref="P7:AG7"/>
+    <mergeCell ref="AH7:BC7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DOC/基本設計/基本設計_emsm_基本給管理リスト.xlsx
+++ b/DOC/基本設計/基本設計_emsm_基本給管理リスト.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169EDFD9-68B2-4CAA-9890-FB4B98E6FF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="840" windowWidth="26805" windowHeight="14535" tabRatio="833" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="4"/>
+    <workbookView xWindow="195" yWindow="840" windowWidth="26805" windowHeight="14535" tabRatio="833" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="9" r:id="rId1"/>
@@ -970,12 +970,15 @@
       <t>１）社員情報テーブルから、社員を取得して社員セレクトボックスのプルダウンメニューに設定する.</t>
     </r>
   </si>
+  <si>
+    <t>ラベルr</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="100" x14ac:knownFonts="1">
+  <fonts count="109" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1605,6 +1608,57 @@
       <name val="ＭＳ ゴシック"/>
       <color rgb="FF000000"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Meiryo UI"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Meiryo UI"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <name val="Yu Gothic UI"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Yu Gothic UI"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="ＭＳ ゴシック"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="ＭＳ ゴシック"/>
+      <color rgb="FF000000"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="ＭＳ ゴシック"/>
+      <color rgb="FF000000"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="ＭＳ ゴシック"/>
+      <color rgb="FF404040"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="ＭＳ ゴシック"/>
+      <color theme="1"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1652,7 +1706,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="214">
+  <borders count="225">
     <border>
       <left/>
       <right/>
@@ -4341,13 +4395,135 @@
         <color rgb="FF000000"/>
       </diagonal>
     </border>
+    <border>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border diagonalDown="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false">
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false">
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="636">
+  <cellXfs count="655">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6261,6 +6437,63 @@
     <xf numFmtId="49" applyNumberFormat="1" fontId="69" applyFont="1" fillId="2" applyFill="1" borderId="190" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
       <alignment vertical="center" horizontal="left"/>
       <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="105" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="105" applyFont="1" fillId="0" applyFill="1" borderId="214" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="105" applyFont="1" fillId="0" applyFill="1" borderId="214" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="105" applyFont="1" fillId="0" applyFill="1" borderId="215" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="105" applyFont="1" fillId="0" applyFill="1" borderId="215" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="105" applyFont="1" fillId="0" applyFill="1" borderId="216" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="105" applyFont="1" fillId="0" applyFill="1" borderId="217" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="105" applyFont="1" fillId="0" applyFill="1" borderId="218" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="105" applyFont="1" fillId="0" applyFill="1" borderId="219" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="105" applyFont="1" fillId="0" applyFill="1" borderId="220" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="105" applyFont="1" fillId="0" applyFill="1" borderId="221" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="105" applyFont="1" fillId="0" applyFill="1" borderId="222" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="105" applyFont="1" fillId="0" applyFill="1" borderId="223" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="106" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="107" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="108" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="108" applyFont="1" fillId="0" applyFill="1" borderId="224" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="108" applyFont="1" fillId="0" applyFill="1" borderId="224" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="108" applyFont="1" fillId="0" applyFill="1" borderId="163" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7619,8 +7852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF7E19B7-31DE-4E95-B92B-26CE81A60D0C}">
   <dimension ref="A1:BN33"/>
   <sheetViews>
-    <sheetView showGridLines="false" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="BM33" sqref="BM33" activeCellId="0"/>
+    <sheetView showGridLines="false" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0" tabSelected="1">
+      <selection activeCell="BY13" sqref="BY13" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="11.25" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8517,7 +8750,7 @@
       <c r="BC10" s="157"/>
       <c r="BD10" s="158"/>
       <c r="BE10" s="344" t="s">
-        <v>227</v>
+        <v>25</v>
       </c>
       <c r="BF10" s="345"/>
       <c r="BG10" s="345"/>
@@ -8592,9 +8825,12 @@
       <c r="BB11" s="157"/>
       <c r="BC11" s="157"/>
       <c r="BD11" s="158"/>
-      <c r="BE11" s="452" t="s">
-        <v>67</v>
-      </c>
+      <c r="BE11" s="649" t="s">
+        <v>25</v>
+      </c>
+      <c r="BF11" s="345"/>
+      <c r="BG11" s="345"/>
+      <c r="BH11" s="345"/>
       <c r="BI11" s="345"/>
       <c r="BJ11" s="345"/>
       <c r="BK11" s="345"/>
@@ -8603,47 +8839,47 @@
       <c r="BN11" s="31"/>
     </row>
     <row r="12" customHeight="1" ht="12">
-      <c r="A12" s="65"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="66"/>
-      <c r="L12" s="66"/>
-      <c r="M12" s="66"/>
-      <c r="N12" s="66"/>
-      <c r="O12" s="66"/>
-      <c r="P12" s="66"/>
-      <c r="Q12" s="66"/>
-      <c r="R12" s="66"/>
-      <c r="S12" s="66"/>
-      <c r="T12" s="66"/>
-      <c r="U12" s="66"/>
-      <c r="V12" s="66"/>
-      <c r="W12" s="66"/>
-      <c r="X12" s="66"/>
-      <c r="Y12" s="66"/>
-      <c r="Z12" s="66"/>
-      <c r="AA12" s="66"/>
-      <c r="AB12" s="66"/>
-      <c r="AC12" s="66"/>
-      <c r="AD12" s="66"/>
-      <c r="AE12" s="66"/>
-      <c r="AF12" s="66"/>
-      <c r="AG12" s="66"/>
-      <c r="AH12" s="66"/>
-      <c r="AI12" s="66"/>
-      <c r="AJ12" s="66"/>
-      <c r="AK12" s="66"/>
-      <c r="AL12" s="66"/>
-      <c r="AM12" s="66"/>
-      <c r="AN12" s="66"/>
-      <c r="AO12" s="66"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="30"/>
+      <c r="V12" s="30"/>
+      <c r="W12" s="30"/>
+      <c r="X12" s="30"/>
+      <c r="Y12" s="30"/>
+      <c r="Z12" s="30"/>
+      <c r="AA12" s="30"/>
+      <c r="AB12" s="30"/>
+      <c r="AC12" s="30"/>
+      <c r="AD12" s="30"/>
+      <c r="AE12" s="30"/>
+      <c r="AF12" s="30"/>
+      <c r="AG12" s="30"/>
+      <c r="AH12" s="30"/>
+      <c r="AI12" s="30"/>
+      <c r="AJ12" s="30"/>
+      <c r="AK12" s="30"/>
+      <c r="AL12" s="30"/>
+      <c r="AM12" s="30"/>
+      <c r="AN12" s="30"/>
+      <c r="AO12" s="30"/>
       <c r="AP12" s="150"/>
       <c r="AQ12" s="364">
         <v>6</v>
@@ -8665,18 +8901,18 @@
       <c r="BB12" s="157"/>
       <c r="BC12" s="157"/>
       <c r="BD12" s="158"/>
-      <c r="BE12" s="451" t="s">
-        <v>227</v>
-      </c>
-      <c r="BF12" s="345"/>
-      <c r="BG12" s="345"/>
-      <c r="BH12" s="345"/>
-      <c r="BI12" s="345"/>
-      <c r="BJ12" s="345"/>
-      <c r="BK12" s="345"/>
-      <c r="BL12" s="345"/>
-      <c r="BM12" s="346"/>
-      <c r="BN12" s="67"/>
+      <c r="BE12" s="649" t="s">
+        <v>25</v>
+      </c>
+      <c r="BF12" s="24"/>
+      <c r="BG12" s="24"/>
+      <c r="BH12" s="24"/>
+      <c r="BI12" s="24"/>
+      <c r="BJ12" s="24"/>
+      <c r="BK12" s="24"/>
+      <c r="BL12" s="24"/>
+      <c r="BM12" s="31"/>
+      <c r="BN12" s="24"/>
     </row>
     <row r="13" customHeight="1" ht="12">
       <c r="A13" s="65"/>
@@ -8741,11 +8977,11 @@
       <c r="BB13" s="157"/>
       <c r="BC13" s="157"/>
       <c r="BD13" s="158"/>
-      <c r="BE13" s="417" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF13" s="24"/>
-      <c r="BG13" s="24"/>
+      <c r="BE13" s="649" t="s">
+        <v>25</v>
+      </c>
+      <c r="BF13" s="345"/>
+      <c r="BG13" s="345"/>
       <c r="BH13" s="345"/>
       <c r="BI13" s="345"/>
       <c r="BJ13" s="345"/>
@@ -8817,8 +9053,8 @@
       <c r="BB14" s="157"/>
       <c r="BC14" s="157"/>
       <c r="BD14" s="158"/>
-      <c r="BE14" s="417" t="s">
-        <v>67</v>
+      <c r="BE14" s="649" t="s">
+        <v>25</v>
       </c>
       <c r="BF14" s="24"/>
       <c r="BG14" s="24"/>
@@ -8893,11 +9129,11 @@
       <c r="BB15" s="157"/>
       <c r="BC15" s="157"/>
       <c r="BD15" s="158"/>
-      <c r="BE15" s="451" t="s">
-        <v>222</v>
-      </c>
-      <c r="BF15" s="345"/>
-      <c r="BG15" s="345"/>
+      <c r="BE15" s="649" t="s">
+        <v>25</v>
+      </c>
+      <c r="BF15" s="24"/>
+      <c r="BG15" s="24"/>
       <c r="BH15" s="345"/>
       <c r="BI15" s="345"/>
       <c r="BJ15" s="345"/>
@@ -8969,8 +9205,8 @@
       <c r="BB16" s="157"/>
       <c r="BC16" s="157"/>
       <c r="BD16" s="158"/>
-      <c r="BE16" s="345" t="s">
-        <v>222</v>
+      <c r="BE16" s="649" t="s">
+        <v>25</v>
       </c>
       <c r="BF16" s="345"/>
       <c r="BG16" s="345"/>
@@ -9045,8 +9281,8 @@
       <c r="BB17" s="157"/>
       <c r="BC17" s="157"/>
       <c r="BD17" s="158"/>
-      <c r="BE17" s="452" t="s">
-        <v>67</v>
+      <c r="BE17" s="649" t="s">
+        <v>25</v>
       </c>
       <c r="BF17" s="345"/>
       <c r="BG17" s="345"/>
@@ -9121,8 +9357,8 @@
       <c r="BB18" s="157"/>
       <c r="BC18" s="157"/>
       <c r="BD18" s="158"/>
-      <c r="BE18" s="345" t="s">
-        <v>227</v>
+      <c r="BE18" s="649" t="s">
+        <v>25</v>
       </c>
       <c r="BF18" s="345"/>
       <c r="BG18" s="345"/>
@@ -9197,8 +9433,8 @@
       <c r="BB19" s="157"/>
       <c r="BC19" s="157"/>
       <c r="BD19" s="158"/>
-      <c r="BE19" s="345" t="s">
-        <v>227</v>
+      <c r="BE19" s="649" t="s">
+        <v>25</v>
       </c>
       <c r="BF19" s="345"/>
       <c r="BG19" s="345"/>
@@ -11144,8 +11380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC90AC64-5413-4DF7-A28B-B15B979374D2}">
   <dimension ref="A1:BN36"/>
   <sheetViews>
-    <sheetView showGridLines="false" zoomScale="120" zoomScaleNormal="120" workbookViewId="0" topLeftCell="A1" tabSelected="1">
-      <selection activeCell="BW17" sqref="BW17" activeCellId="0"/>
+    <sheetView showGridLines="false" zoomScale="120" zoomScaleNormal="120" workbookViewId="0" topLeftCell="A1">
+      <selection activeCell="AU24" sqref="AU24" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="11.25" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11801,7 +12037,7 @@
       <c r="K8" s="157"/>
       <c r="L8" s="270"/>
       <c r="M8" s="271" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="N8" s="272"/>
       <c r="O8" s="272"/>
@@ -11909,7 +12145,7 @@
       <c r="K9" s="157"/>
       <c r="L9" s="270"/>
       <c r="M9" s="271" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="N9" s="272"/>
       <c r="O9" s="272"/>
@@ -11995,7 +12231,7 @@
       <c r="K10" s="157"/>
       <c r="L10" s="270"/>
       <c r="M10" s="271" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="N10" s="272"/>
       <c r="O10" s="272"/>
@@ -12081,7 +12317,7 @@
       <c r="K11" s="157"/>
       <c r="L11" s="270"/>
       <c r="M11" s="271" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="N11" s="272"/>
       <c r="O11" s="272"/>
@@ -12167,7 +12403,7 @@
       <c r="K12" s="157"/>
       <c r="L12" s="270"/>
       <c r="M12" s="271" t="s">
-        <v>67</v>
+        <v>273</v>
       </c>
       <c r="N12" s="272"/>
       <c r="O12" s="272"/>
@@ -12253,7 +12489,7 @@
       <c r="K13" s="157"/>
       <c r="L13" s="270"/>
       <c r="M13" s="271" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="N13" s="272"/>
       <c r="O13" s="272"/>
@@ -12339,7 +12575,7 @@
       <c r="K14" s="157"/>
       <c r="L14" s="270"/>
       <c r="M14" s="271" t="s">
-        <v>222</v>
+        <v>25</v>
       </c>
       <c r="N14" s="272"/>
       <c r="O14" s="272"/>
@@ -12425,7 +12661,7 @@
       <c r="K15" s="157"/>
       <c r="L15" s="270"/>
       <c r="M15" s="271" t="s">
-        <v>222</v>
+        <v>25</v>
       </c>
       <c r="N15" s="272"/>
       <c r="O15" s="272"/>
@@ -12511,7 +12747,7 @@
       <c r="K16" s="157"/>
       <c r="L16" s="270"/>
       <c r="M16" s="271" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="N16" s="272"/>
       <c r="O16" s="272"/>
@@ -12597,7 +12833,7 @@
       <c r="K17" s="157"/>
       <c r="L17" s="270"/>
       <c r="M17" s="271" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="N17" s="272"/>
       <c r="O17" s="272"/>
@@ -12683,7 +12919,7 @@
       <c r="K18" s="157"/>
       <c r="L18" s="270"/>
       <c r="M18" s="411" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="N18" s="412"/>
       <c r="O18" s="412"/>
@@ -12967,7 +13203,7 @@
   <dimension ref="A1:BN14"/>
   <sheetViews>
     <sheetView showGridLines="false" workbookViewId="0" topLeftCell="A1" zoomScale="120" zoomScaleNormal="120">
-      <selection activeCell="Q13" sqref="Q13" activeCellId="0"/>
+      <selection activeCell="AW12" sqref="AW12:AX12" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13574,65 +13810,65 @@
     </row>
     <row r="8">
       <c r="A8" s="98"/>
-      <c r="B8" s="98"/>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="98" t="s">
+      <c r="B8" s="654" t="s">
         <v>264</v>
       </c>
-      <c r="K8" s="98"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="98"/>
-      <c r="N8" s="98"/>
-      <c r="O8" s="98"/>
-      <c r="P8" s="98"/>
-      <c r="Q8" s="98"/>
-      <c r="R8" s="98"/>
-      <c r="S8" s="98"/>
-      <c r="T8" s="98"/>
-      <c r="U8" s="98"/>
-      <c r="V8" s="98"/>
-      <c r="W8" s="98"/>
-      <c r="X8" s="98"/>
-      <c r="Y8" s="98"/>
-      <c r="Z8" s="98"/>
-      <c r="AA8" s="98"/>
-      <c r="AB8" s="98"/>
-      <c r="AC8" s="98"/>
-      <c r="AD8" s="98"/>
-      <c r="AE8" s="98"/>
-      <c r="AF8" s="98"/>
-      <c r="AG8" s="98"/>
-      <c r="AH8" s="98"/>
-      <c r="AI8" s="98"/>
-      <c r="AJ8" s="98"/>
-      <c r="AK8" s="98"/>
-      <c r="AL8" s="98"/>
-      <c r="AM8" s="98"/>
-      <c r="AN8" s="98"/>
-      <c r="AO8" s="98"/>
-      <c r="AP8" s="98"/>
-      <c r="AQ8" s="98"/>
-      <c r="AR8" s="98"/>
-      <c r="AS8" s="98"/>
-      <c r="AT8" s="98"/>
-      <c r="AU8" s="98"/>
-      <c r="AV8" s="98"/>
-      <c r="AW8" s="98"/>
-      <c r="AX8" s="98"/>
-      <c r="AY8" s="98"/>
-      <c r="AZ8" s="98"/>
-      <c r="BA8" s="98"/>
-      <c r="BB8" s="98"/>
-      <c r="BC8" s="98"/>
+      <c r="C8" s="624"/>
+      <c r="D8" s="624"/>
+      <c r="E8" s="624"/>
+      <c r="F8" s="624"/>
+      <c r="G8" s="624"/>
+      <c r="H8" s="624"/>
+      <c r="I8" s="624"/>
+      <c r="J8" s="624"/>
+      <c r="K8" s="624"/>
+      <c r="L8" s="624"/>
+      <c r="M8" s="624"/>
+      <c r="N8" s="624"/>
+      <c r="O8" s="624"/>
+      <c r="P8" s="624"/>
+      <c r="Q8" s="624"/>
+      <c r="R8" s="624"/>
+      <c r="S8" s="624"/>
+      <c r="T8" s="624"/>
+      <c r="U8" s="624"/>
+      <c r="V8" s="624"/>
+      <c r="W8" s="624"/>
+      <c r="X8" s="624"/>
+      <c r="Y8" s="624"/>
+      <c r="Z8" s="624"/>
+      <c r="AA8" s="624"/>
+      <c r="AB8" s="624"/>
+      <c r="AC8" s="624"/>
+      <c r="AD8" s="624"/>
+      <c r="AE8" s="624"/>
+      <c r="AF8" s="624"/>
+      <c r="AG8" s="624"/>
+      <c r="AH8" s="624"/>
+      <c r="AI8" s="624"/>
+      <c r="AJ8" s="624"/>
+      <c r="AK8" s="624"/>
+      <c r="AL8" s="624"/>
+      <c r="AM8" s="624"/>
+      <c r="AN8" s="624"/>
+      <c r="AO8" s="624"/>
+      <c r="AP8" s="624"/>
+      <c r="AQ8" s="624"/>
+      <c r="AR8" s="624"/>
+      <c r="AS8" s="624"/>
+      <c r="AT8" s="624"/>
+      <c r="AU8" s="624"/>
+      <c r="AV8" s="624"/>
+      <c r="AW8" s="624"/>
+      <c r="AX8" s="624"/>
+      <c r="AY8" s="624"/>
+      <c r="AZ8" s="624"/>
+      <c r="BA8" s="624"/>
+      <c r="BB8" s="624"/>
+      <c r="BC8" s="624"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="21">
     <mergeCell ref="A2:AA3"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="G4:O4"/>
@@ -13653,6 +13889,7 @@
     <mergeCell ref="B7:O7"/>
     <mergeCell ref="P7:AG7"/>
     <mergeCell ref="AH7:BC7"/>
+    <mergeCell ref="B8:BC8"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DOC/基本設計/基本設計_emsm_基本給管理リスト.xlsx
+++ b/DOC/基本設計/基本設計_emsm_基本給管理リスト.xlsx
@@ -10,11 +10,12 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169EDFD9-68B2-4CAA-9890-FB4B98E6FF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="840" windowWidth="26805" windowHeight="14535" tabRatio="833" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="2"/>
+    <workbookView xWindow="195" yWindow="840" windowWidth="26805" windowHeight="14535" tabRatio="833" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="9" r:id="rId1"/>
     <sheet name="履歴一覧" sheetId="8" r:id="rId2"/>
+    <sheet name="画面遷移" sheetId="14" r:id="rId11"/>
     <sheet name="画面レイアウト" sheetId="10" r:id="rId3"/>
     <sheet name="処理概要" sheetId="11" r:id="rId4"/>
     <sheet name="入出力項目定義書" sheetId="12" r:id="rId5"/>
@@ -973,12 +974,58 @@
   <si>
     <t>ラベルr</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <u val="none"/>
+        <rFont val="Yu Gothic UI"/>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <vertAlign val="baseline"/>
+      </rPr>
+      <t>　</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <u val="none"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <vertAlign val="baseline"/>
+      </rPr>
+      <t>１）画面初期表示の時社員のセレクトボックス、検索ボタンと新規追加ボタンが出ます。</t>
+    </r>
+  </si>
+  <si>
+    <t>　１）画面初期表示の時年度のセレクトボックス、検索ボタンと新規追加ボタンが出ます。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">画面処理  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)検索ボダンを押すと検索する</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)更新ボタン押すと更新画面へ遷移</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3)新規ボダン押すと新規画面へ遷移</t>
+  </si>
+  <si>
+    <t>　１）画面初期表示の時社員のセレクトボックス、検索ボタンと新規追加ボタンが出ます。</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="109" x14ac:knownFonts="1">
+  <fonts count="125" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1659,6 +1706,96 @@
       <charset val="128"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Meiryo UI"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Meiryo UI"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <name val="Yu Gothic UI"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Yu Gothic UI"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="ＭＳ ゴシック"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Meiryo UI"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Meiryo UI"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <name val="Yu Gothic UI"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Yu Gothic UI"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="ＭＳ ゴシック"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="游ゴシック"/>
+      <color theme="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="ＭＳ ゴシック"/>
+      <color theme="1"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="游ゴシック"/>
+      <color theme="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <color theme="1"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="ＭＳ ゴシック"/>
+      <color theme="1"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="ＭＳ ゴシック"/>
+      <color theme="1"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1706,7 +1843,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="225">
+  <borders count="230">
     <border>
       <left/>
       <right/>
@@ -4517,13 +4654,88 @@
       </bottom>
       <diagonal/>
     </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border diagonalDown="false">
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false">
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="655">
+  <cellXfs count="691">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6494,6 +6706,114 @@
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="108" applyFont="1" fillId="0" applyFill="1" borderId="163" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="119" applyFont="1" fillId="0" applyFill="1" borderId="225" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="120" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment shrinkToFit="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="120" applyFont="1" fillId="0" applyFill="1" borderId="9" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment shrinkToFit="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="120" applyFont="1" fillId="0" applyFill="1" borderId="17" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment shrinkToFit="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="120" applyFont="1" fillId="0" applyFill="1" borderId="9" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment shrinkToFit="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="120" applyFont="1" fillId="0" applyFill="1" borderId="18" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="121" applyFont="1" fillId="0" applyFill="1" borderId="13" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="120" applyFont="1" fillId="0" applyFill="1" borderId="12" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" applyNumberFormat="1" fontId="120" applyFont="1" fillId="0" applyFill="1" borderId="13" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="120" applyFont="1" fillId="0" applyFill="1" borderId="20" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="120" applyFont="1" fillId="0" applyFill="1" borderId="21" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="120" applyFont="1" fillId="0" applyFill="1" borderId="21" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="120" applyFont="1" fillId="0" applyFill="1" borderId="24" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="121" applyFont="1" fillId="0" applyFill="1" borderId="21" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="120" applyFont="1" fillId="0" applyFill="1" borderId="20" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="120" applyFont="1" fillId="0" applyFill="1" borderId="21" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="120" applyFont="1" fillId="0" applyFill="1" borderId="12" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="120" applyFont="1" fillId="0" applyFill="1" borderId="13" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" applyNumberFormat="1" fontId="120" applyFont="1" fillId="0" applyFill="1" borderId="14" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="120" applyFont="1" fillId="0" applyFill="1" borderId="14" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="122" applyFont="1" fillId="2" applyFill="1" borderId="8" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="122" applyFont="1" fillId="2" applyFill="1" borderId="9" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="122" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="123" applyFont="1" fillId="3" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="122" applyFont="1" fillId="3" applyFill="1" borderId="8" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="122" applyFont="1" fillId="3" applyFill="1" borderId="9" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="122" applyFont="1" fillId="3" applyFill="1" borderId="10" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="124" applyFont="1" fillId="3" applyFill="1" borderId="11" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="123" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="123" applyFont="1" fillId="0" applyFill="1" borderId="48" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="123" applyFont="1" fillId="0" applyFill="1" borderId="226" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="123" applyFont="1" fillId="0" applyFill="1" borderId="227" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="123" applyFont="1" fillId="0" applyFill="1" borderId="227" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="123" applyFont="1" fillId="0" applyFill="1" borderId="228" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="123" applyFont="1" fillId="0" applyFill="1" borderId="146" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="123" applyFont="1" fillId="0" applyFill="1" borderId="229" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6543,7 +6863,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="66675" y="914400"/>
+          <a:off x="66675" y="971550"/>
           <a:ext cx="6096000" cy="3438525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6577,7 +6897,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="47625" y="4343400"/>
+          <a:off x="47625" y="4381500"/>
           <a:ext cx="6096000" cy="981075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6587,6 +6907,455 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="0" name="正方形/長方形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="1238250"/>
+          <a:ext cx="1600200" cy="1047750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>凡例：</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　　　　　：画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　　　　　：画面遷移</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1" name="正方形/長方形 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="352425" y="1543050"/>
+          <a:ext cx="485775" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="直線矢印コネクタ 14"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="323850" y="1943100"/>
+          <a:ext cx="523875" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="3171825"/>
+          <a:ext cx="1228725" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メニュー画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直線矢印コネクタ 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2609850" y="3352800"/>
+          <a:ext cx="1781175" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4419600" y="3162300"/>
+          <a:ext cx="1285875" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>基本給管理リスト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2762250" y="2819400"/>
+          <a:ext cx="1390650" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>基本給情報リストボタン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7334,7 +8103,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView workbookViewId="0" topLeftCell="A1">
       <selection activeCell="F25" sqref="F25" activeCellId="0"/>
     </sheetView>
   </sheetViews>
@@ -7852,8 +8621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF7E19B7-31DE-4E95-B92B-26CE81A60D0C}">
   <dimension ref="A1:BN33"/>
   <sheetViews>
-    <sheetView showGridLines="false" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0" tabSelected="1">
-      <selection activeCell="BY13" sqref="BY13" activeCellId="0"/>
+    <sheetView showGridLines="false" topLeftCell="Z1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:N2" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="11.25" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8055,415 +8824,443 @@
     <col min="16195" max="16384" width="2.125" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" ht="12">
-      <c r="A1" s="20"/>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21"/>
-      <c r="AJ1" s="21"/>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="21"/>
-      <c r="AM1" s="21"/>
-      <c r="AN1" s="21"/>
-      <c r="AO1" s="21"/>
-      <c r="AP1" s="21"/>
-      <c r="AQ1" s="21"/>
-      <c r="AR1" s="21"/>
-      <c r="AS1" s="21"/>
-      <c r="AT1" s="21"/>
-      <c r="AU1" s="21"/>
-      <c r="AV1" s="21"/>
-      <c r="AW1" s="21"/>
-      <c r="AX1" s="21"/>
-      <c r="AY1" s="21"/>
-      <c r="AZ1" s="21"/>
-      <c r="BA1" s="21"/>
-      <c r="BB1" s="21"/>
-      <c r="BC1" s="21"/>
-      <c r="BD1" s="21"/>
-      <c r="BE1" s="21"/>
-      <c r="BF1" s="21"/>
-      <c r="BG1" s="21"/>
-      <c r="BH1" s="21"/>
-      <c r="BI1" s="21"/>
-      <c r="BJ1" s="21"/>
-      <c r="BK1" s="21"/>
-      <c r="BL1" s="21"/>
-      <c r="BM1" s="21"/>
-      <c r="BN1" s="23"/>
+    <row r="1" customHeight="1" ht="16">
+      <c r="A1" s="116" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
+      <c r="L1" s="117"/>
+      <c r="M1" s="117"/>
+      <c r="N1" s="117"/>
+      <c r="O1" s="117"/>
+      <c r="P1" s="117"/>
+      <c r="Q1" s="117"/>
+      <c r="R1" s="117"/>
+      <c r="S1" s="117"/>
+      <c r="T1" s="117"/>
+      <c r="U1" s="117"/>
+      <c r="V1" s="117"/>
+      <c r="W1" s="117"/>
+      <c r="X1" s="117"/>
+      <c r="Y1" s="117"/>
+      <c r="Z1" s="117"/>
+      <c r="AQ1" s="25"/>
+      <c r="AR1" s="25"/>
+      <c r="AS1" s="25"/>
+      <c r="AT1" s="25"/>
+      <c r="AU1" s="25"/>
+      <c r="AV1" s="25"/>
+      <c r="AW1" s="26"/>
+      <c r="AX1" s="26"/>
+      <c r="AY1" s="26"/>
+      <c r="AZ1" s="26"/>
+      <c r="BA1" s="26"/>
+      <c r="BB1" s="26"/>
+      <c r="BC1" s="26"/>
+      <c r="BD1" s="26"/>
+      <c r="BE1" s="26"/>
+      <c r="BF1" s="26"/>
+      <c r="BG1" s="26"/>
+      <c r="BH1" s="26"/>
+      <c r="BI1" s="26"/>
+      <c r="BJ1" s="26"/>
+      <c r="BK1" s="26"/>
+      <c r="BL1" s="26"/>
+      <c r="BM1" s="26"/>
+      <c r="BN1" s="27"/>
     </row>
     <row r="2" customHeight="1" ht="12">
-      <c r="A2" s="116" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="117"/>
-      <c r="L2" s="117"/>
-      <c r="M2" s="117"/>
-      <c r="N2" s="117"/>
-      <c r="O2" s="117"/>
-      <c r="P2" s="117"/>
-      <c r="Q2" s="117"/>
-      <c r="R2" s="117"/>
-      <c r="S2" s="117"/>
-      <c r="T2" s="117"/>
-      <c r="U2" s="117"/>
-      <c r="V2" s="117"/>
-      <c r="W2" s="117"/>
-      <c r="X2" s="117"/>
-      <c r="Y2" s="117"/>
-      <c r="Z2" s="117"/>
-      <c r="AQ2" s="25"/>
-      <c r="AR2" s="25"/>
-      <c r="AS2" s="25"/>
-      <c r="AT2" s="25"/>
-      <c r="AU2" s="25"/>
-      <c r="AV2" s="25"/>
-      <c r="AW2" s="26"/>
-      <c r="AX2" s="26"/>
-      <c r="AY2" s="26"/>
-      <c r="AZ2" s="26"/>
-      <c r="BA2" s="26"/>
-      <c r="BB2" s="26"/>
-      <c r="BC2" s="26"/>
-      <c r="BD2" s="26"/>
-      <c r="BE2" s="26"/>
-      <c r="BF2" s="26"/>
-      <c r="BG2" s="26"/>
-      <c r="BH2" s="26"/>
-      <c r="BI2" s="26"/>
-      <c r="BJ2" s="26"/>
-      <c r="BK2" s="26"/>
-      <c r="BL2" s="26"/>
-      <c r="BM2" s="26"/>
-      <c r="BN2" s="27"/>
+      <c r="A2" s="118" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="121" t="s">
+        <v>123</v>
+      </c>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="124" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="125"/>
+      <c r="Q2" s="125"/>
+      <c r="R2" s="125"/>
+      <c r="S2" s="125"/>
+      <c r="T2" s="126"/>
+      <c r="U2" s="127" t="s">
+        <v>170</v>
+      </c>
+      <c r="V2" s="128"/>
+      <c r="W2" s="128"/>
+      <c r="X2" s="128"/>
+      <c r="Y2" s="128"/>
+      <c r="Z2" s="128"/>
+      <c r="AA2" s="128"/>
+      <c r="AB2" s="128"/>
+      <c r="AC2" s="128"/>
+      <c r="AD2" s="128"/>
+      <c r="AE2" s="128"/>
+      <c r="AF2" s="128"/>
+      <c r="AG2" s="128"/>
+      <c r="AH2" s="128"/>
+      <c r="AI2" s="128"/>
+      <c r="AJ2" s="128"/>
+      <c r="AK2" s="128"/>
+      <c r="AL2" s="128"/>
+      <c r="AM2" s="128"/>
+      <c r="AN2" s="128"/>
+      <c r="AO2" s="128"/>
+      <c r="AP2" s="128"/>
+      <c r="AQ2" s="128"/>
+      <c r="AR2" s="128"/>
+      <c r="AS2" s="128"/>
+      <c r="AT2" s="128"/>
+      <c r="AU2" s="128"/>
+      <c r="AV2" s="129"/>
+      <c r="AW2" s="130" t="s">
+        <v>13</v>
+      </c>
+      <c r="AX2" s="131"/>
+      <c r="AY2" s="132"/>
+      <c r="AZ2" s="133">
+        <v>45069</v>
+      </c>
+      <c r="BA2" s="134"/>
+      <c r="BB2" s="134"/>
+      <c r="BC2" s="134"/>
+      <c r="BD2" s="134"/>
+      <c r="BE2" s="134"/>
+      <c r="BF2" s="130" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG2" s="131"/>
+      <c r="BH2" s="132"/>
+      <c r="BI2" s="133" t="s">
+        <v>125</v>
+      </c>
+      <c r="BJ2" s="134"/>
+      <c r="BK2" s="134"/>
+      <c r="BL2" s="134"/>
+      <c r="BM2" s="134"/>
+      <c r="BN2" s="135"/>
     </row>
     <row r="3" customHeight="1" ht="12">
-      <c r="A3" s="116"/>
-      <c r="B3" s="117"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="117"/>
-      <c r="J3" s="117"/>
-      <c r="K3" s="117"/>
-      <c r="L3" s="117"/>
-      <c r="M3" s="117"/>
-      <c r="N3" s="117"/>
-      <c r="O3" s="117"/>
-      <c r="P3" s="117"/>
-      <c r="Q3" s="117"/>
-      <c r="R3" s="117"/>
-      <c r="S3" s="117"/>
-      <c r="T3" s="117"/>
-      <c r="U3" s="117"/>
-      <c r="V3" s="117"/>
-      <c r="W3" s="117"/>
-      <c r="X3" s="117"/>
-      <c r="Y3" s="117"/>
-      <c r="Z3" s="117"/>
-      <c r="AQ3" s="25"/>
-      <c r="AR3" s="25"/>
-      <c r="AS3" s="25"/>
-      <c r="AT3" s="25"/>
-      <c r="AU3" s="25"/>
-      <c r="AV3" s="25"/>
-      <c r="AW3" s="25"/>
-      <c r="AX3" s="25"/>
-      <c r="AY3" s="25"/>
-      <c r="AZ3" s="25"/>
-      <c r="BA3" s="25"/>
-      <c r="BB3" s="25"/>
-      <c r="BC3" s="25"/>
-      <c r="BD3" s="25"/>
-      <c r="BE3" s="25"/>
-      <c r="BF3" s="25"/>
-      <c r="BG3" s="25"/>
-      <c r="BH3" s="25"/>
-      <c r="BI3" s="25"/>
-      <c r="BJ3" s="25"/>
-      <c r="BK3" s="25"/>
-      <c r="BL3" s="25"/>
-      <c r="BM3" s="25"/>
-      <c r="BN3" s="28"/>
+      <c r="A3" s="136" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="137"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="139" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="139"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="139"/>
+      <c r="K3" s="139"/>
+      <c r="L3" s="139"/>
+      <c r="M3" s="139"/>
+      <c r="N3" s="140"/>
+      <c r="O3" s="136" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" s="137"/>
+      <c r="Q3" s="137"/>
+      <c r="R3" s="137"/>
+      <c r="S3" s="137"/>
+      <c r="T3" s="138"/>
+      <c r="U3" s="141"/>
+      <c r="V3" s="142"/>
+      <c r="W3" s="142"/>
+      <c r="X3" s="142"/>
+      <c r="Y3" s="142"/>
+      <c r="Z3" s="142"/>
+      <c r="AA3" s="142"/>
+      <c r="AB3" s="142"/>
+      <c r="AC3" s="142"/>
+      <c r="AD3" s="142"/>
+      <c r="AE3" s="142"/>
+      <c r="AF3" s="142"/>
+      <c r="AG3" s="142"/>
+      <c r="AH3" s="142"/>
+      <c r="AI3" s="142"/>
+      <c r="AJ3" s="142"/>
+      <c r="AK3" s="142"/>
+      <c r="AL3" s="142"/>
+      <c r="AM3" s="142"/>
+      <c r="AN3" s="142"/>
+      <c r="AO3" s="142"/>
+      <c r="AP3" s="142"/>
+      <c r="AQ3" s="142"/>
+      <c r="AR3" s="142"/>
+      <c r="AS3" s="142"/>
+      <c r="AT3" s="142"/>
+      <c r="AU3" s="142"/>
+      <c r="AV3" s="143"/>
+      <c r="AW3" s="144" t="s">
+        <v>19</v>
+      </c>
+      <c r="AX3" s="145"/>
+      <c r="AY3" s="146"/>
+      <c r="AZ3" s="145"/>
+      <c r="BA3" s="145"/>
+      <c r="BB3" s="145"/>
+      <c r="BC3" s="145"/>
+      <c r="BD3" s="145"/>
+      <c r="BE3" s="145"/>
+      <c r="BF3" s="144" t="s">
+        <v>20</v>
+      </c>
+      <c r="BG3" s="145"/>
+      <c r="BH3" s="146"/>
+      <c r="BI3" s="145"/>
+      <c r="BJ3" s="142"/>
+      <c r="BK3" s="142"/>
+      <c r="BL3" s="142"/>
+      <c r="BM3" s="142"/>
+      <c r="BN3" s="143"/>
     </row>
     <row r="4" customHeight="1" ht="12">
-      <c r="A4" s="118" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="121" t="s">
-        <v>123</v>
-      </c>
-      <c r="H4" s="122"/>
-      <c r="I4" s="122"/>
-      <c r="J4" s="122"/>
-      <c r="K4" s="122"/>
-      <c r="L4" s="122"/>
-      <c r="M4" s="122"/>
-      <c r="N4" s="123"/>
-      <c r="O4" s="124" t="s">
-        <v>12</v>
-      </c>
-      <c r="P4" s="125"/>
-      <c r="Q4" s="125"/>
-      <c r="R4" s="125"/>
-      <c r="S4" s="125"/>
-      <c r="T4" s="126"/>
-      <c r="U4" s="127" t="s">
+      <c r="A4" s="65"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="66"/>
+      <c r="S4" s="66"/>
+      <c r="T4" s="66"/>
+      <c r="U4" s="66"/>
+      <c r="V4" s="66"/>
+      <c r="W4" s="66"/>
+      <c r="X4" s="66"/>
+      <c r="Y4" s="66"/>
+      <c r="Z4" s="66"/>
+      <c r="AA4" s="66"/>
+      <c r="AB4" s="66"/>
+      <c r="AC4" s="66"/>
+      <c r="AD4" s="66"/>
+      <c r="AE4" s="66"/>
+      <c r="AF4" s="66"/>
+      <c r="AG4" s="66"/>
+      <c r="AH4" s="66"/>
+      <c r="AI4" s="66"/>
+      <c r="AJ4" s="66"/>
+      <c r="AK4" s="66"/>
+      <c r="AL4" s="66"/>
+      <c r="AM4" s="66"/>
+      <c r="AN4" s="66"/>
+      <c r="AO4" s="66"/>
+      <c r="AP4" s="147" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ4" s="148"/>
+      <c r="AR4" s="148"/>
+      <c r="AS4" s="149" t="s">
+        <v>22</v>
+      </c>
+      <c r="AT4" s="149"/>
+      <c r="AU4" s="149"/>
+      <c r="AV4" s="149"/>
+      <c r="AW4" s="149"/>
+      <c r="AX4" s="149"/>
+      <c r="AY4" s="149"/>
+      <c r="AZ4" s="149"/>
+      <c r="BA4" s="149"/>
+      <c r="BB4" s="149"/>
+      <c r="BC4" s="149"/>
+      <c r="BD4" s="149"/>
+      <c r="BE4" s="149" t="s">
+        <v>195</v>
+      </c>
+      <c r="BF4" s="148"/>
+      <c r="BG4" s="148"/>
+      <c r="BH4" s="148"/>
+      <c r="BI4" s="148"/>
+      <c r="BJ4" s="148"/>
+      <c r="BK4" s="148"/>
+      <c r="BL4" s="148"/>
+      <c r="BM4" s="148"/>
+      <c r="BN4" s="67"/>
+    </row>
+    <row r="5" customHeight="1" ht="12">
+      <c r="A5" s="29"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="30"/>
+      <c r="Y5" s="30"/>
+      <c r="Z5" s="30"/>
+      <c r="AA5" s="30"/>
+      <c r="AB5" s="30"/>
+      <c r="AC5" s="30"/>
+      <c r="AD5" s="30"/>
+      <c r="AE5" s="30"/>
+      <c r="AF5" s="30"/>
+      <c r="AG5" s="30"/>
+      <c r="AH5" s="30"/>
+      <c r="AI5" s="30"/>
+      <c r="AJ5" s="30"/>
+      <c r="AK5" s="30"/>
+      <c r="AL5" s="30"/>
+      <c r="AM5" s="30"/>
+      <c r="AN5" s="30"/>
+      <c r="AO5" s="30"/>
+      <c r="AP5" s="150" t="s">
+        <v>24</v>
+      </c>
+      <c r="AQ5" s="361"/>
+      <c r="AR5" s="362"/>
+      <c r="AS5" s="153" t="s">
         <v>170</v>
       </c>
-      <c r="V4" s="128"/>
-      <c r="W4" s="128"/>
-      <c r="X4" s="128"/>
-      <c r="Y4" s="128"/>
-      <c r="Z4" s="128"/>
-      <c r="AA4" s="128"/>
-      <c r="AB4" s="128"/>
-      <c r="AC4" s="128"/>
-      <c r="AD4" s="128"/>
-      <c r="AE4" s="128"/>
-      <c r="AF4" s="128"/>
-      <c r="AG4" s="128"/>
-      <c r="AH4" s="128"/>
-      <c r="AI4" s="128"/>
-      <c r="AJ4" s="128"/>
-      <c r="AK4" s="128"/>
-      <c r="AL4" s="128"/>
-      <c r="AM4" s="128"/>
-      <c r="AN4" s="128"/>
-      <c r="AO4" s="128"/>
-      <c r="AP4" s="128"/>
-      <c r="AQ4" s="128"/>
-      <c r="AR4" s="128"/>
-      <c r="AS4" s="128"/>
-      <c r="AT4" s="128"/>
-      <c r="AU4" s="128"/>
-      <c r="AV4" s="129"/>
-      <c r="AW4" s="130" t="s">
-        <v>13</v>
-      </c>
-      <c r="AX4" s="131"/>
-      <c r="AY4" s="132"/>
-      <c r="AZ4" s="133">
-        <v>45069</v>
-      </c>
-      <c r="BA4" s="134"/>
-      <c r="BB4" s="134"/>
-      <c r="BC4" s="134"/>
-      <c r="BD4" s="134"/>
-      <c r="BE4" s="134"/>
-      <c r="BF4" s="130" t="s">
-        <v>15</v>
-      </c>
-      <c r="BG4" s="131"/>
-      <c r="BH4" s="132"/>
-      <c r="BI4" s="133" t="s">
-        <v>125</v>
-      </c>
-      <c r="BJ4" s="134"/>
-      <c r="BK4" s="134"/>
-      <c r="BL4" s="134"/>
-      <c r="BM4" s="134"/>
-      <c r="BN4" s="135"/>
-    </row>
-    <row r="5" customHeight="1" ht="12">
-      <c r="A5" s="136" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="137"/>
-      <c r="C5" s="137"/>
-      <c r="D5" s="137"/>
-      <c r="E5" s="137"/>
-      <c r="F5" s="138"/>
-      <c r="G5" s="139" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="139"/>
-      <c r="I5" s="139"/>
-      <c r="J5" s="139"/>
-      <c r="K5" s="139"/>
-      <c r="L5" s="139"/>
-      <c r="M5" s="139"/>
-      <c r="N5" s="140"/>
-      <c r="O5" s="136" t="s">
-        <v>18</v>
-      </c>
-      <c r="P5" s="137"/>
-      <c r="Q5" s="137"/>
-      <c r="R5" s="137"/>
-      <c r="S5" s="137"/>
-      <c r="T5" s="138"/>
-      <c r="U5" s="141"/>
-      <c r="V5" s="142"/>
-      <c r="W5" s="142"/>
-      <c r="X5" s="142"/>
-      <c r="Y5" s="142"/>
-      <c r="Z5" s="142"/>
-      <c r="AA5" s="142"/>
-      <c r="AB5" s="142"/>
-      <c r="AC5" s="142"/>
-      <c r="AD5" s="142"/>
-      <c r="AE5" s="142"/>
-      <c r="AF5" s="142"/>
-      <c r="AG5" s="142"/>
-      <c r="AH5" s="142"/>
-      <c r="AI5" s="142"/>
-      <c r="AJ5" s="142"/>
-      <c r="AK5" s="142"/>
-      <c r="AL5" s="142"/>
-      <c r="AM5" s="142"/>
-      <c r="AN5" s="142"/>
-      <c r="AO5" s="142"/>
-      <c r="AP5" s="142"/>
-      <c r="AQ5" s="142"/>
-      <c r="AR5" s="142"/>
-      <c r="AS5" s="142"/>
-      <c r="AT5" s="142"/>
-      <c r="AU5" s="142"/>
-      <c r="AV5" s="143"/>
-      <c r="AW5" s="144" t="s">
-        <v>19</v>
-      </c>
-      <c r="AX5" s="145"/>
-      <c r="AY5" s="146"/>
-      <c r="AZ5" s="145"/>
-      <c r="BA5" s="145"/>
-      <c r="BB5" s="145"/>
-      <c r="BC5" s="145"/>
-      <c r="BD5" s="145"/>
-      <c r="BE5" s="145"/>
-      <c r="BF5" s="144" t="s">
-        <v>20</v>
-      </c>
-      <c r="BG5" s="145"/>
-      <c r="BH5" s="146"/>
-      <c r="BI5" s="145"/>
-      <c r="BJ5" s="142"/>
-      <c r="BK5" s="142"/>
-      <c r="BL5" s="142"/>
-      <c r="BM5" s="142"/>
-      <c r="BN5" s="143"/>
+      <c r="AT5" s="154"/>
+      <c r="AU5" s="154"/>
+      <c r="AV5" s="154"/>
+      <c r="AW5" s="154"/>
+      <c r="AX5" s="154"/>
+      <c r="AY5" s="154"/>
+      <c r="AZ5" s="154"/>
+      <c r="BA5" s="154"/>
+      <c r="BB5" s="154"/>
+      <c r="BC5" s="154"/>
+      <c r="BD5" s="155"/>
+      <c r="BE5" s="153" t="s">
+        <v>25</v>
+      </c>
+      <c r="BF5" s="154"/>
+      <c r="BG5" s="154"/>
+      <c r="BH5" s="154"/>
+      <c r="BI5" s="154"/>
+      <c r="BJ5" s="154"/>
+      <c r="BK5" s="154"/>
+      <c r="BL5" s="154"/>
+      <c r="BM5" s="155"/>
+      <c r="BN5" s="31"/>
     </row>
     <row r="6" customHeight="1" ht="12">
-      <c r="A6" s="65"/>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="66"/>
-      <c r="O6" s="66"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="66"/>
-      <c r="R6" s="66"/>
-      <c r="S6" s="66"/>
-      <c r="T6" s="66"/>
-      <c r="U6" s="66"/>
-      <c r="V6" s="66"/>
-      <c r="W6" s="66"/>
-      <c r="X6" s="66"/>
-      <c r="Y6" s="66"/>
-      <c r="Z6" s="66"/>
-      <c r="AA6" s="66"/>
-      <c r="AB6" s="66"/>
-      <c r="AC6" s="66"/>
-      <c r="AD6" s="66"/>
-      <c r="AE6" s="66"/>
-      <c r="AF6" s="66"/>
-      <c r="AG6" s="66"/>
-      <c r="AH6" s="66"/>
-      <c r="AI6" s="66"/>
-      <c r="AJ6" s="66"/>
-      <c r="AK6" s="66"/>
-      <c r="AL6" s="66"/>
-      <c r="AM6" s="66"/>
-      <c r="AN6" s="66"/>
-      <c r="AO6" s="66"/>
-      <c r="AP6" s="147" t="s">
-        <v>21</v>
-      </c>
-      <c r="AQ6" s="148"/>
-      <c r="AR6" s="148"/>
-      <c r="AS6" s="149" t="s">
-        <v>22</v>
-      </c>
-      <c r="AT6" s="149"/>
-      <c r="AU6" s="149"/>
-      <c r="AV6" s="149"/>
-      <c r="AW6" s="149"/>
-      <c r="AX6" s="149"/>
-      <c r="AY6" s="149"/>
-      <c r="AZ6" s="149"/>
-      <c r="BA6" s="149"/>
-      <c r="BB6" s="149"/>
-      <c r="BC6" s="149"/>
-      <c r="BD6" s="149"/>
-      <c r="BE6" s="149" t="s">
-        <v>195</v>
-      </c>
-      <c r="BF6" s="148"/>
-      <c r="BG6" s="148"/>
-      <c r="BH6" s="148"/>
-      <c r="BI6" s="148"/>
-      <c r="BJ6" s="148"/>
-      <c r="BK6" s="148"/>
-      <c r="BL6" s="148"/>
-      <c r="BM6" s="148"/>
-      <c r="BN6" s="67"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="30"/>
+      <c r="AB6" s="30"/>
+      <c r="AC6" s="30"/>
+      <c r="AD6" s="30"/>
+      <c r="AE6" s="30"/>
+      <c r="AF6" s="30"/>
+      <c r="AG6" s="30"/>
+      <c r="AH6" s="30"/>
+      <c r="AI6" s="30"/>
+      <c r="AJ6" s="30"/>
+      <c r="AK6" s="30"/>
+      <c r="AL6" s="30"/>
+      <c r="AM6" s="30"/>
+      <c r="AN6" s="30"/>
+      <c r="AO6" s="30"/>
+      <c r="AP6" s="150" t="s">
+        <v>26</v>
+      </c>
+      <c r="AQ6" s="361"/>
+      <c r="AR6" s="362"/>
+      <c r="AS6" s="156" t="s">
+        <v>126</v>
+      </c>
+      <c r="AT6" s="157"/>
+      <c r="AU6" s="157"/>
+      <c r="AV6" s="157"/>
+      <c r="AW6" s="157"/>
+      <c r="AX6" s="157"/>
+      <c r="AY6" s="157"/>
+      <c r="AZ6" s="157"/>
+      <c r="BA6" s="157"/>
+      <c r="BB6" s="157"/>
+      <c r="BC6" s="157"/>
+      <c r="BD6" s="158"/>
+      <c r="BE6" s="156" t="s">
+        <v>25</v>
+      </c>
+      <c r="BF6" s="157"/>
+      <c r="BG6" s="157"/>
+      <c r="BH6" s="157"/>
+      <c r="BI6" s="157"/>
+      <c r="BJ6" s="157"/>
+      <c r="BK6" s="157"/>
+      <c r="BL6" s="157"/>
+      <c r="BM6" s="158"/>
+      <c r="BN6" s="31"/>
     </row>
     <row r="7" customHeight="1" ht="12">
       <c r="A7" s="29"/>
@@ -8507,36 +9304,37 @@
       <c r="AM7" s="30"/>
       <c r="AN7" s="30"/>
       <c r="AO7" s="30"/>
-      <c r="AP7" s="150" t="s">
-        <v>24</v>
-      </c>
-      <c r="AQ7" s="361"/>
-      <c r="AR7" s="362"/>
-      <c r="AS7" s="153" t="s">
-        <v>170</v>
-      </c>
-      <c r="AT7" s="154"/>
-      <c r="AU7" s="154"/>
-      <c r="AV7" s="154"/>
-      <c r="AW7" s="154"/>
-      <c r="AX7" s="154"/>
-      <c r="AY7" s="154"/>
-      <c r="AZ7" s="154"/>
-      <c r="BA7" s="154"/>
-      <c r="BB7" s="154"/>
-      <c r="BC7" s="154"/>
-      <c r="BD7" s="155"/>
-      <c r="BE7" s="153" t="s">
-        <v>25</v>
-      </c>
-      <c r="BF7" s="154"/>
-      <c r="BG7" s="154"/>
-      <c r="BH7" s="154"/>
-      <c r="BI7" s="154"/>
-      <c r="BJ7" s="154"/>
-      <c r="BK7" s="154"/>
-      <c r="BL7" s="154"/>
-      <c r="BM7" s="155"/>
+      <c r="AP7" s="363" t="s">
+        <v>130</v>
+      </c>
+      <c r="AQ7" s="364">
+        <v>3</v>
+      </c>
+      <c r="AR7" s="365"/>
+      <c r="AS7" s="357" t="s">
+        <v>127</v>
+      </c>
+      <c r="AT7" s="157"/>
+      <c r="AU7" s="157"/>
+      <c r="AW7" s="157"/>
+      <c r="AX7" s="157"/>
+      <c r="AY7" s="157"/>
+      <c r="AZ7" s="157"/>
+      <c r="BA7" s="157"/>
+      <c r="BB7" s="157"/>
+      <c r="BC7" s="157"/>
+      <c r="BD7" s="158"/>
+      <c r="BE7" s="381" t="s">
+        <v>171</v>
+      </c>
+      <c r="BF7" s="157"/>
+      <c r="BG7" s="157"/>
+      <c r="BH7" s="157"/>
+      <c r="BI7" s="157"/>
+      <c r="BJ7" s="157"/>
+      <c r="BK7" s="157"/>
+      <c r="BL7" s="157"/>
+      <c r="BM7" s="158"/>
       <c r="BN7" s="31"/>
     </row>
     <row r="8" customHeight="1" ht="12">
@@ -8581,13 +9379,13 @@
       <c r="AM8" s="30"/>
       <c r="AN8" s="30"/>
       <c r="AO8" s="30"/>
-      <c r="AP8" s="150" t="s">
-        <v>26</v>
-      </c>
-      <c r="AQ8" s="361"/>
-      <c r="AR8" s="362"/>
+      <c r="AP8" s="150"/>
+      <c r="AQ8" s="364">
+        <v>4</v>
+      </c>
+      <c r="AR8" s="365"/>
       <c r="AS8" s="156" t="s">
-        <v>126</v>
+        <v>226</v>
       </c>
       <c r="AT8" s="157"/>
       <c r="AU8" s="157"/>
@@ -8600,17 +9398,17 @@
       <c r="BB8" s="157"/>
       <c r="BC8" s="157"/>
       <c r="BD8" s="158"/>
-      <c r="BE8" s="156" t="s">
+      <c r="BE8" s="344" t="s">
         <v>25</v>
       </c>
-      <c r="BF8" s="157"/>
-      <c r="BG8" s="157"/>
-      <c r="BH8" s="157"/>
-      <c r="BI8" s="157"/>
-      <c r="BJ8" s="157"/>
-      <c r="BK8" s="157"/>
-      <c r="BL8" s="157"/>
-      <c r="BM8" s="158"/>
+      <c r="BF8" s="345"/>
+      <c r="BG8" s="345"/>
+      <c r="BH8" s="345"/>
+      <c r="BI8" s="345"/>
+      <c r="BJ8" s="345"/>
+      <c r="BK8" s="345"/>
+      <c r="BL8" s="345"/>
+      <c r="BM8" s="346"/>
       <c r="BN8" s="31"/>
     </row>
     <row r="9" customHeight="1" ht="12">
@@ -8655,18 +9453,19 @@
       <c r="AM9" s="30"/>
       <c r="AN9" s="30"/>
       <c r="AO9" s="30"/>
-      <c r="AP9" s="363" t="s">
-        <v>130</v>
-      </c>
+      <c r="AP9" s="150"/>
       <c r="AQ9" s="364">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AR9" s="365"/>
-      <c r="AS9" s="357" t="s">
-        <v>127</v>
+      <c r="AS9" s="156" t="s">
+        <v>172</v>
       </c>
       <c r="AT9" s="157"/>
-      <c r="AU9" s="157"/>
+      <c r="AU9" s="157" t="s">
+        <v>193</v>
+      </c>
+      <c r="AV9" s="157"/>
       <c r="AW9" s="157"/>
       <c r="AX9" s="157"/>
       <c r="AY9" s="157"/>
@@ -8675,17 +9474,17 @@
       <c r="BB9" s="157"/>
       <c r="BC9" s="157"/>
       <c r="BD9" s="158"/>
-      <c r="BE9" s="381" t="s">
-        <v>171</v>
-      </c>
-      <c r="BF9" s="157"/>
-      <c r="BG9" s="157"/>
-      <c r="BH9" s="157"/>
-      <c r="BI9" s="157"/>
-      <c r="BJ9" s="157"/>
-      <c r="BK9" s="157"/>
-      <c r="BL9" s="157"/>
-      <c r="BM9" s="158"/>
+      <c r="BE9" s="649" t="s">
+        <v>25</v>
+      </c>
+      <c r="BF9" s="345"/>
+      <c r="BG9" s="345"/>
+      <c r="BH9" s="345"/>
+      <c r="BI9" s="345"/>
+      <c r="BJ9" s="345"/>
+      <c r="BK9" s="345"/>
+      <c r="BL9" s="345"/>
+      <c r="BM9" s="346"/>
       <c r="BN9" s="31"/>
     </row>
     <row r="10" customHeight="1" ht="12">
@@ -8732,15 +9531,17 @@
       <c r="AO10" s="30"/>
       <c r="AP10" s="150"/>
       <c r="AQ10" s="364">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AR10" s="365"/>
       <c r="AS10" s="156" t="s">
-        <v>226</v>
+        <v>140</v>
       </c>
       <c r="AT10" s="157"/>
       <c r="AU10" s="157"/>
-      <c r="AV10" s="157"/>
+      <c r="AV10" s="157" t="s">
+        <v>193</v>
+      </c>
       <c r="AW10" s="157"/>
       <c r="AX10" s="157"/>
       <c r="AY10" s="157"/>
@@ -8749,76 +9550,76 @@
       <c r="BB10" s="157"/>
       <c r="BC10" s="157"/>
       <c r="BD10" s="158"/>
-      <c r="BE10" s="344" t="s">
+      <c r="BE10" s="649" t="s">
         <v>25</v>
       </c>
-      <c r="BF10" s="345"/>
-      <c r="BG10" s="345"/>
-      <c r="BH10" s="345"/>
-      <c r="BI10" s="345"/>
-      <c r="BJ10" s="345"/>
-      <c r="BK10" s="345"/>
-      <c r="BL10" s="345"/>
-      <c r="BM10" s="346"/>
-      <c r="BN10" s="31"/>
+      <c r="BF10" s="24"/>
+      <c r="BG10" s="24"/>
+      <c r="BH10" s="24"/>
+      <c r="BI10" s="24"/>
+      <c r="BJ10" s="24"/>
+      <c r="BK10" s="24"/>
+      <c r="BL10" s="24"/>
+      <c r="BM10" s="31"/>
+      <c r="BN10" s="24"/>
     </row>
     <row r="11" customHeight="1" ht="12">
-      <c r="A11" s="29"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
-      <c r="S11" s="30"/>
-      <c r="T11" s="30"/>
-      <c r="U11" s="30"/>
-      <c r="V11" s="30"/>
-      <c r="W11" s="30"/>
-      <c r="X11" s="30"/>
-      <c r="Y11" s="30"/>
-      <c r="Z11" s="30"/>
-      <c r="AA11" s="30"/>
-      <c r="AB11" s="30"/>
-      <c r="AC11" s="30"/>
-      <c r="AD11" s="30"/>
-      <c r="AE11" s="30"/>
-      <c r="AF11" s="30"/>
-      <c r="AG11" s="30"/>
-      <c r="AH11" s="30"/>
-      <c r="AI11" s="30"/>
-      <c r="AJ11" s="30"/>
-      <c r="AK11" s="30"/>
-      <c r="AL11" s="30"/>
-      <c r="AM11" s="30"/>
-      <c r="AN11" s="30"/>
-      <c r="AO11" s="30"/>
+      <c r="A11" s="65"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="66"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="66"/>
+      <c r="Q11" s="66"/>
+      <c r="R11" s="66"/>
+      <c r="S11" s="66"/>
+      <c r="T11" s="66"/>
+      <c r="U11" s="66"/>
+      <c r="V11" s="66"/>
+      <c r="W11" s="66"/>
+      <c r="X11" s="66"/>
+      <c r="Y11" s="66"/>
+      <c r="Z11" s="66"/>
+      <c r="AA11" s="66"/>
+      <c r="AB11" s="66"/>
+      <c r="AC11" s="66"/>
+      <c r="AD11" s="66"/>
+      <c r="AE11" s="66"/>
+      <c r="AF11" s="66"/>
+      <c r="AG11" s="66"/>
+      <c r="AH11" s="66"/>
+      <c r="AI11" s="66"/>
+      <c r="AJ11" s="66"/>
+      <c r="AK11" s="66"/>
+      <c r="AL11" s="66"/>
+      <c r="AM11" s="66"/>
+      <c r="AN11" s="66"/>
+      <c r="AO11" s="66"/>
       <c r="AP11" s="150"/>
       <c r="AQ11" s="364">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AR11" s="365"/>
       <c r="AS11" s="156" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AT11" s="157"/>
-      <c r="AU11" s="157" t="s">
-        <v>193</v>
-      </c>
+      <c r="AU11" s="157"/>
       <c r="AV11" s="157"/>
       <c r="AW11" s="157"/>
-      <c r="AX11" s="157"/>
+      <c r="AX11" s="157" t="s">
+        <v>193</v>
+      </c>
       <c r="AY11" s="157"/>
       <c r="AZ11" s="157"/>
       <c r="BA11" s="157"/>
@@ -8836,64 +9637,64 @@
       <c r="BK11" s="345"/>
       <c r="BL11" s="345"/>
       <c r="BM11" s="346"/>
-      <c r="BN11" s="31"/>
+      <c r="BN11" s="67"/>
     </row>
     <row r="12" customHeight="1" ht="12">
-      <c r="A12" s="29"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="30"/>
-      <c r="U12" s="30"/>
-      <c r="V12" s="30"/>
-      <c r="W12" s="30"/>
-      <c r="X12" s="30"/>
-      <c r="Y12" s="30"/>
-      <c r="Z12" s="30"/>
-      <c r="AA12" s="30"/>
-      <c r="AB12" s="30"/>
-      <c r="AC12" s="30"/>
-      <c r="AD12" s="30"/>
-      <c r="AE12" s="30"/>
-      <c r="AF12" s="30"/>
-      <c r="AG12" s="30"/>
-      <c r="AH12" s="30"/>
-      <c r="AI12" s="30"/>
-      <c r="AJ12" s="30"/>
-      <c r="AK12" s="30"/>
-      <c r="AL12" s="30"/>
-      <c r="AM12" s="30"/>
-      <c r="AN12" s="30"/>
-      <c r="AO12" s="30"/>
-      <c r="AP12" s="150"/>
-      <c r="AQ12" s="364">
-        <v>6</v>
-      </c>
-      <c r="AR12" s="365"/>
+      <c r="A12" s="65"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="66"/>
+      <c r="N12" s="66"/>
+      <c r="O12" s="66"/>
+      <c r="P12" s="66"/>
+      <c r="Q12" s="66"/>
+      <c r="R12" s="66"/>
+      <c r="S12" s="66"/>
+      <c r="T12" s="66"/>
+      <c r="U12" s="66"/>
+      <c r="V12" s="66"/>
+      <c r="W12" s="66"/>
+      <c r="X12" s="66"/>
+      <c r="Y12" s="66"/>
+      <c r="Z12" s="66"/>
+      <c r="AA12" s="66"/>
+      <c r="AB12" s="66"/>
+      <c r="AC12" s="66"/>
+      <c r="AD12" s="66"/>
+      <c r="AE12" s="66"/>
+      <c r="AF12" s="66"/>
+      <c r="AG12" s="66"/>
+      <c r="AH12" s="66"/>
+      <c r="AI12" s="66"/>
+      <c r="AJ12" s="66"/>
+      <c r="AK12" s="66"/>
+      <c r="AL12" s="66"/>
+      <c r="AM12" s="66"/>
+      <c r="AN12" s="66"/>
+      <c r="AO12" s="66"/>
+      <c r="AP12" s="150" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ12" s="361"/>
+      <c r="AR12" s="362"/>
       <c r="AS12" s="156" t="s">
-        <v>140</v>
+        <v>174</v>
       </c>
       <c r="AT12" s="157"/>
       <c r="AU12" s="157"/>
-      <c r="AV12" s="157" t="s">
+      <c r="AV12" s="157"/>
+      <c r="AW12" s="450" t="s">
         <v>193</v>
       </c>
-      <c r="AW12" s="157"/>
       <c r="AX12" s="157"/>
       <c r="AY12" s="157"/>
       <c r="AZ12" s="157"/>
@@ -8906,13 +9707,13 @@
       </c>
       <c r="BF12" s="24"/>
       <c r="BG12" s="24"/>
-      <c r="BH12" s="24"/>
-      <c r="BI12" s="24"/>
-      <c r="BJ12" s="24"/>
-      <c r="BK12" s="24"/>
-      <c r="BL12" s="24"/>
-      <c r="BM12" s="31"/>
-      <c r="BN12" s="24"/>
+      <c r="BH12" s="345"/>
+      <c r="BI12" s="345"/>
+      <c r="BJ12" s="345"/>
+      <c r="BK12" s="345"/>
+      <c r="BL12" s="345"/>
+      <c r="BM12" s="346"/>
+      <c r="BN12" s="67"/>
     </row>
     <row r="13" customHeight="1" ht="12">
       <c r="A13" s="65"/>
@@ -8956,21 +9757,21 @@
       <c r="AM13" s="66"/>
       <c r="AN13" s="66"/>
       <c r="AO13" s="66"/>
-      <c r="AP13" s="150"/>
-      <c r="AQ13" s="364">
-        <v>7</v>
-      </c>
-      <c r="AR13" s="365"/>
+      <c r="AP13" s="150" t="s">
+        <v>38</v>
+      </c>
+      <c r="AQ13" s="361"/>
+      <c r="AR13" s="362"/>
       <c r="AS13" s="156" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="AT13" s="157"/>
       <c r="AU13" s="157"/>
-      <c r="AV13" s="157"/>
+      <c r="AV13" s="157" t="s">
+        <v>193</v>
+      </c>
       <c r="AW13" s="157"/>
-      <c r="AX13" s="157" t="s">
-        <v>193</v>
-      </c>
+      <c r="AX13" s="157"/>
       <c r="AY13" s="157"/>
       <c r="AZ13" s="157"/>
       <c r="BA13" s="157"/>
@@ -8980,8 +9781,8 @@
       <c r="BE13" s="649" t="s">
         <v>25</v>
       </c>
-      <c r="BF13" s="345"/>
-      <c r="BG13" s="345"/>
+      <c r="BF13" s="24"/>
+      <c r="BG13" s="24"/>
       <c r="BH13" s="345"/>
       <c r="BI13" s="345"/>
       <c r="BJ13" s="345"/>
@@ -9032,20 +9833,20 @@
       <c r="AM14" s="66"/>
       <c r="AN14" s="66"/>
       <c r="AO14" s="66"/>
-      <c r="AP14" s="150" t="s">
-        <v>36</v>
-      </c>
-      <c r="AQ14" s="361"/>
-      <c r="AR14" s="362"/>
+      <c r="AP14" s="150"/>
+      <c r="AQ14" s="364">
+        <v>10</v>
+      </c>
+      <c r="AR14" s="365"/>
       <c r="AS14" s="156" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="AT14" s="157"/>
       <c r="AU14" s="157"/>
-      <c r="AV14" s="157"/>
-      <c r="AW14" s="450" t="s">
+      <c r="AV14" s="157" t="s">
         <v>193</v>
       </c>
+      <c r="AW14" s="157"/>
       <c r="AX14" s="157"/>
       <c r="AY14" s="157"/>
       <c r="AZ14" s="157"/>
@@ -9056,8 +9857,8 @@
       <c r="BE14" s="649" t="s">
         <v>25</v>
       </c>
-      <c r="BF14" s="24"/>
-      <c r="BG14" s="24"/>
+      <c r="BF14" s="345"/>
+      <c r="BG14" s="345"/>
       <c r="BH14" s="345"/>
       <c r="BI14" s="345"/>
       <c r="BJ14" s="345"/>
@@ -9108,21 +9909,21 @@
       <c r="AM15" s="66"/>
       <c r="AN15" s="66"/>
       <c r="AO15" s="66"/>
-      <c r="AP15" s="150" t="s">
-        <v>38</v>
-      </c>
-      <c r="AQ15" s="361"/>
-      <c r="AR15" s="362"/>
+      <c r="AP15" s="150"/>
+      <c r="AQ15" s="364">
+        <v>11</v>
+      </c>
+      <c r="AR15" s="365"/>
       <c r="AS15" s="156" t="s">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="AT15" s="157"/>
       <c r="AU15" s="157"/>
-      <c r="AV15" s="157" t="s">
+      <c r="AV15" s="157"/>
+      <c r="AW15" s="157"/>
+      <c r="AX15" s="157" t="s">
         <v>193</v>
       </c>
-      <c r="AW15" s="157"/>
-      <c r="AX15" s="157"/>
       <c r="AY15" s="157"/>
       <c r="AZ15" s="157"/>
       <c r="BA15" s="157"/>
@@ -9132,8 +9933,8 @@
       <c r="BE15" s="649" t="s">
         <v>25</v>
       </c>
-      <c r="BF15" s="24"/>
-      <c r="BG15" s="24"/>
+      <c r="BF15" s="345"/>
+      <c r="BG15" s="345"/>
       <c r="BH15" s="345"/>
       <c r="BI15" s="345"/>
       <c r="BJ15" s="345"/>
@@ -9186,14 +9987,14 @@
       <c r="AO16" s="66"/>
       <c r="AP16" s="150"/>
       <c r="AQ16" s="364">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AR16" s="365"/>
       <c r="AS16" s="156" t="s">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="AT16" s="157"/>
-      <c r="AU16" s="157"/>
+      <c r="AU16" s="450"/>
       <c r="AV16" s="157" t="s">
         <v>193</v>
       </c>
@@ -9262,19 +10063,19 @@
       <c r="AO17" s="66"/>
       <c r="AP17" s="150"/>
       <c r="AQ17" s="364">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AR17" s="365"/>
       <c r="AS17" s="156" t="s">
-        <v>175</v>
+        <v>19</v>
       </c>
       <c r="AT17" s="157"/>
-      <c r="AU17" s="157"/>
-      <c r="AV17" s="157"/>
+      <c r="AU17" s="450"/>
+      <c r="AV17" s="157" t="s">
+        <v>193</v>
+      </c>
       <c r="AW17" s="157"/>
-      <c r="AX17" s="157" t="s">
-        <v>193</v>
-      </c>
+      <c r="AX17" s="157"/>
       <c r="AY17" s="157"/>
       <c r="AZ17" s="157"/>
       <c r="BA17" s="157"/>
@@ -9338,17 +10139,15 @@
       <c r="AO18" s="66"/>
       <c r="AP18" s="150"/>
       <c r="AQ18" s="364">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AR18" s="365"/>
       <c r="AS18" s="156" t="s">
-        <v>13</v>
+        <v>128</v>
       </c>
       <c r="AT18" s="157"/>
-      <c r="AU18" s="450"/>
-      <c r="AV18" s="157" t="s">
-        <v>193</v>
-      </c>
+      <c r="AU18" s="157"/>
+      <c r="AV18" s="157"/>
       <c r="AW18" s="157"/>
       <c r="AX18" s="157"/>
       <c r="AY18" s="157"/>
@@ -9357,17 +10156,17 @@
       <c r="BB18" s="157"/>
       <c r="BC18" s="157"/>
       <c r="BD18" s="158"/>
-      <c r="BE18" s="649" t="s">
-        <v>25</v>
-      </c>
-      <c r="BF18" s="345"/>
-      <c r="BG18" s="345"/>
-      <c r="BH18" s="345"/>
-      <c r="BI18" s="345"/>
-      <c r="BJ18" s="345"/>
-      <c r="BK18" s="345"/>
-      <c r="BL18" s="345"/>
-      <c r="BM18" s="346"/>
+      <c r="BE18" s="156" t="s">
+        <v>171</v>
+      </c>
+      <c r="BF18" s="157"/>
+      <c r="BG18" s="157"/>
+      <c r="BH18" s="157"/>
+      <c r="BI18" s="157"/>
+      <c r="BJ18" s="157"/>
+      <c r="BK18" s="157"/>
+      <c r="BL18" s="157"/>
+      <c r="BM18" s="158"/>
       <c r="BN18" s="67"/>
     </row>
     <row r="19" customHeight="1" ht="12">
@@ -9412,19 +10211,17 @@
       <c r="AM19" s="66"/>
       <c r="AN19" s="66"/>
       <c r="AO19" s="66"/>
-      <c r="AP19" s="150"/>
-      <c r="AQ19" s="364">
-        <v>13</v>
-      </c>
-      <c r="AR19" s="365"/>
+      <c r="AP19" s="150" t="s">
+        <v>177</v>
+      </c>
+      <c r="AQ19" s="361"/>
+      <c r="AR19" s="362"/>
       <c r="AS19" s="156" t="s">
-        <v>19</v>
+        <v>129</v>
       </c>
       <c r="AT19" s="157"/>
-      <c r="AU19" s="450"/>
-      <c r="AV19" s="157" t="s">
-        <v>193</v>
-      </c>
+      <c r="AU19" s="157"/>
+      <c r="AV19" s="157"/>
       <c r="AW19" s="157"/>
       <c r="AX19" s="157"/>
       <c r="AY19" s="157"/>
@@ -9433,17 +10230,17 @@
       <c r="BB19" s="157"/>
       <c r="BC19" s="157"/>
       <c r="BD19" s="158"/>
-      <c r="BE19" s="649" t="s">
-        <v>25</v>
-      </c>
-      <c r="BF19" s="345"/>
-      <c r="BG19" s="345"/>
-      <c r="BH19" s="345"/>
-      <c r="BI19" s="345"/>
-      <c r="BJ19" s="345"/>
-      <c r="BK19" s="345"/>
-      <c r="BL19" s="345"/>
-      <c r="BM19" s="346"/>
+      <c r="BE19" s="156" t="s">
+        <v>171</v>
+      </c>
+      <c r="BF19" s="157"/>
+      <c r="BG19" s="157"/>
+      <c r="BH19" s="157"/>
+      <c r="BI19" s="157"/>
+      <c r="BJ19" s="157"/>
+      <c r="BK19" s="157"/>
+      <c r="BL19" s="157"/>
+      <c r="BM19" s="158"/>
       <c r="BN19" s="67"/>
     </row>
     <row r="20" customHeight="1" ht="12">
@@ -9488,37 +10285,21 @@
       <c r="AM20" s="66"/>
       <c r="AN20" s="66"/>
       <c r="AO20" s="66"/>
-      <c r="AP20" s="150"/>
-      <c r="AQ20" s="364">
-        <v>14</v>
-      </c>
-      <c r="AR20" s="365"/>
-      <c r="AS20" s="156" t="s">
-        <v>128</v>
-      </c>
-      <c r="AT20" s="157"/>
-      <c r="AU20" s="157"/>
-      <c r="AV20" s="157"/>
-      <c r="AW20" s="157"/>
-      <c r="AX20" s="157"/>
-      <c r="AY20" s="157"/>
-      <c r="AZ20" s="157"/>
-      <c r="BA20" s="157"/>
-      <c r="BB20" s="157"/>
-      <c r="BC20" s="157"/>
-      <c r="BD20" s="158"/>
-      <c r="BE20" s="156" t="s">
-        <v>171</v>
-      </c>
-      <c r="BF20" s="157"/>
-      <c r="BG20" s="157"/>
-      <c r="BH20" s="157"/>
-      <c r="BI20" s="157"/>
-      <c r="BJ20" s="157"/>
-      <c r="BK20" s="157"/>
-      <c r="BL20" s="157"/>
-      <c r="BM20" s="158"/>
-      <c r="BN20" s="67"/>
+      <c r="AP20" s="68"/>
+      <c r="AQ20" s="68"/>
+      <c r="AR20" s="68"/>
+      <c r="AS20" s="68"/>
+      <c r="AT20" s="68"/>
+      <c r="AU20" s="68"/>
+      <c r="AV20" s="68"/>
+      <c r="AW20" s="68"/>
+      <c r="AX20" s="68"/>
+      <c r="AY20" s="68"/>
+      <c r="AZ20" s="68"/>
+      <c r="BA20" s="68"/>
+      <c r="BB20" s="68"/>
+      <c r="BC20" s="68"/>
+      <c r="BD20" s="68"/>
     </row>
     <row r="21" customHeight="1" ht="12">
       <c r="A21" s="65"/>
@@ -9562,37 +10343,21 @@
       <c r="AM21" s="66"/>
       <c r="AN21" s="66"/>
       <c r="AO21" s="66"/>
-      <c r="AP21" s="150" t="s">
-        <v>177</v>
-      </c>
-      <c r="AQ21" s="361"/>
-      <c r="AR21" s="362"/>
-      <c r="AS21" s="156" t="s">
-        <v>129</v>
-      </c>
-      <c r="AT21" s="157"/>
-      <c r="AU21" s="157"/>
-      <c r="AV21" s="157"/>
-      <c r="AW21" s="157"/>
-      <c r="AX21" s="157"/>
-      <c r="AY21" s="157"/>
-      <c r="AZ21" s="157"/>
-      <c r="BA21" s="157"/>
-      <c r="BB21" s="157"/>
-      <c r="BC21" s="157"/>
-      <c r="BD21" s="158"/>
-      <c r="BE21" s="156" t="s">
-        <v>171</v>
-      </c>
-      <c r="BF21" s="157"/>
-      <c r="BG21" s="157"/>
-      <c r="BH21" s="157"/>
-      <c r="BI21" s="157"/>
-      <c r="BJ21" s="157"/>
-      <c r="BK21" s="157"/>
-      <c r="BL21" s="157"/>
-      <c r="BM21" s="158"/>
-      <c r="BN21" s="67"/>
+      <c r="AP21" s="68"/>
+      <c r="AQ21" s="68"/>
+      <c r="AR21" s="68"/>
+      <c r="AS21" s="68"/>
+      <c r="AT21" s="68"/>
+      <c r="AU21" s="68"/>
+      <c r="AV21" s="68"/>
+      <c r="AW21" s="68"/>
+      <c r="AX21" s="68"/>
+      <c r="AY21" s="68"/>
+      <c r="AZ21" s="68"/>
+      <c r="BA21" s="68"/>
+      <c r="BB21" s="68"/>
+      <c r="BC21" s="68"/>
+      <c r="BD21" s="68"/>
     </row>
     <row r="22" customHeight="1" ht="12">
       <c r="A22" s="65"/>
@@ -9653,105 +10418,22 @@
       <c r="BD22" s="68"/>
     </row>
     <row r="23" customHeight="1" ht="12">
-      <c r="A23" s="65"/>
-      <c r="B23" s="66"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="66"/>
-      <c r="M23" s="66"/>
-      <c r="N23" s="66"/>
-      <c r="O23" s="66"/>
-      <c r="P23" s="66"/>
-      <c r="Q23" s="66"/>
-      <c r="R23" s="66"/>
-      <c r="S23" s="66"/>
-      <c r="T23" s="66"/>
-      <c r="U23" s="66"/>
-      <c r="V23" s="66"/>
-      <c r="W23" s="66"/>
-      <c r="X23" s="66"/>
-      <c r="Y23" s="66"/>
-      <c r="Z23" s="66"/>
-      <c r="AA23" s="66"/>
-      <c r="AB23" s="66"/>
-      <c r="AC23" s="66"/>
-      <c r="AD23" s="66"/>
-      <c r="AE23" s="66"/>
-      <c r="AF23" s="66"/>
-      <c r="AG23" s="66"/>
-      <c r="AH23" s="66"/>
-      <c r="AI23" s="66"/>
-      <c r="AJ23" s="66"/>
-      <c r="AK23" s="66"/>
-      <c r="AL23" s="66"/>
-      <c r="AM23" s="66"/>
-      <c r="AN23" s="66"/>
-      <c r="AO23" s="66"/>
-      <c r="AP23" s="68"/>
-      <c r="AQ23" s="68"/>
-      <c r="AR23" s="68"/>
-      <c r="AS23" s="68"/>
-      <c r="AT23" s="68"/>
-      <c r="AU23" s="68"/>
-      <c r="AV23" s="68"/>
-      <c r="AW23" s="68"/>
-      <c r="AX23" s="68"/>
-      <c r="AY23" s="68"/>
-      <c r="AZ23" s="68"/>
-      <c r="BA23" s="68"/>
-      <c r="BB23" s="68"/>
-      <c r="BC23" s="68"/>
-      <c r="BD23" s="68"/>
-    </row>
-    <row r="24" customHeight="1" ht="12">
-      <c r="A24" s="65"/>
-      <c r="B24" s="66"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="66"/>
-      <c r="L24" s="66"/>
-      <c r="M24" s="66"/>
-      <c r="N24" s="66"/>
-      <c r="O24" s="66"/>
-      <c r="P24" s="66"/>
-      <c r="Q24" s="66"/>
-      <c r="R24" s="66"/>
-      <c r="S24" s="66"/>
-      <c r="T24" s="66"/>
-      <c r="U24" s="66"/>
-      <c r="V24" s="66"/>
-      <c r="W24" s="66"/>
-      <c r="X24" s="66"/>
-      <c r="Y24" s="66"/>
-      <c r="Z24" s="66"/>
-      <c r="AA24" s="66"/>
-      <c r="AB24" s="66"/>
-      <c r="AC24" s="66"/>
-      <c r="AD24" s="66"/>
-      <c r="AE24" s="66"/>
-      <c r="AF24" s="66"/>
-      <c r="AG24" s="66"/>
-      <c r="AH24" s="66"/>
-      <c r="AI24" s="66"/>
-      <c r="AJ24" s="66"/>
-      <c r="AK24" s="66"/>
-      <c r="AL24" s="66"/>
-      <c r="AM24" s="66"/>
-      <c r="AN24" s="66"/>
-      <c r="AO24" s="66"/>
+      <c r="A23" s="68"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="68"/>
+      <c r="L23" s="68"/>
+      <c r="M23" s="68"/>
+      <c r="N23" s="68"/>
+    </row>
+    <row r="24">
       <c r="AP24" s="68"/>
       <c r="AQ24" s="68"/>
       <c r="AR24" s="68"/>
@@ -9766,23 +10448,24 @@
       <c r="BA24" s="68"/>
       <c r="BB24" s="68"/>
       <c r="BC24" s="68"/>
-      <c r="BD24" s="68"/>
-    </row>
-    <row r="25" customHeight="1" ht="12">
-      <c r="A25" s="68"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="68"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="68"/>
-      <c r="J25" s="68"/>
-      <c r="K25" s="68"/>
-      <c r="L25" s="68"/>
-      <c r="M25" s="68"/>
-      <c r="N25" s="68"/>
+      <c r="BD24" s="73"/>
+    </row>
+    <row r="25">
+      <c r="AP25" s="68"/>
+      <c r="AQ25" s="68"/>
+      <c r="AR25" s="68"/>
+      <c r="AS25" s="68"/>
+      <c r="AT25" s="68"/>
+      <c r="AU25" s="68"/>
+      <c r="AV25" s="68"/>
+      <c r="AW25" s="68"/>
+      <c r="AX25" s="68"/>
+      <c r="AY25" s="68"/>
+      <c r="AZ25" s="68"/>
+      <c r="BA25" s="68"/>
+      <c r="BB25" s="68"/>
+      <c r="BC25" s="68"/>
+      <c r="BD25" s="68"/>
     </row>
     <row r="26">
       <c r="AP26" s="68"/>
@@ -9867,7 +10550,7 @@
       <c r="BA30" s="68"/>
       <c r="BB30" s="68"/>
       <c r="BC30" s="68"/>
-      <c r="BD30" s="73"/>
+      <c r="BD30" s="68"/>
     </row>
     <row r="31">
       <c r="AP31" s="68"/>
@@ -9886,77 +10569,43 @@
       <c r="BC31" s="68"/>
       <c r="BD31" s="68"/>
     </row>
-    <row r="32">
-      <c r="AP32" s="68"/>
-      <c r="AQ32" s="68"/>
-      <c r="AR32" s="68"/>
-      <c r="AS32" s="68"/>
-      <c r="AT32" s="68"/>
-      <c r="AU32" s="68"/>
-      <c r="AV32" s="68"/>
-      <c r="AW32" s="68"/>
-      <c r="AX32" s="68"/>
-      <c r="AY32" s="68"/>
-      <c r="AZ32" s="68"/>
-      <c r="BA32" s="68"/>
-      <c r="BB32" s="68"/>
-      <c r="BC32" s="68"/>
-      <c r="BD32" s="68"/>
-    </row>
-    <row r="33">
-      <c r="AP33" s="68"/>
-      <c r="AQ33" s="68"/>
-      <c r="AR33" s="68"/>
-      <c r="AS33" s="68"/>
-      <c r="AT33" s="68"/>
-      <c r="AU33" s="68"/>
-      <c r="AV33" s="68"/>
-      <c r="AW33" s="68"/>
-      <c r="AX33" s="68"/>
-      <c r="AY33" s="68"/>
-      <c r="AZ33" s="68"/>
-      <c r="BA33" s="68"/>
-      <c r="BB33" s="68"/>
-      <c r="BC33" s="68"/>
-      <c r="BD33" s="68"/>
-    </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A2:Z3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:N4"/>
-    <mergeCell ref="O4:T4"/>
-    <mergeCell ref="U4:AV4"/>
-    <mergeCell ref="AW4:AY4"/>
-    <mergeCell ref="AZ4:BE4"/>
-    <mergeCell ref="BF4:BH4"/>
-    <mergeCell ref="BI4:BN4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:N5"/>
-    <mergeCell ref="O5:T5"/>
-    <mergeCell ref="U5:AV5"/>
-    <mergeCell ref="AW5:AY5"/>
-    <mergeCell ref="AZ5:BE5"/>
-    <mergeCell ref="BF5:BH5"/>
-    <mergeCell ref="BI5:BN5"/>
+    <mergeCell ref="A1:Z1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:N2"/>
+    <mergeCell ref="O2:T2"/>
+    <mergeCell ref="U2:AV2"/>
+    <mergeCell ref="AW2:AY2"/>
+    <mergeCell ref="AZ2:BE2"/>
+    <mergeCell ref="BF2:BH2"/>
+    <mergeCell ref="BI2:BN2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:N3"/>
+    <mergeCell ref="O3:T3"/>
+    <mergeCell ref="U3:AV3"/>
+    <mergeCell ref="AW3:AY3"/>
+    <mergeCell ref="AZ3:BE3"/>
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="BI3:BN3"/>
+    <mergeCell ref="AP4:AR4"/>
+    <mergeCell ref="AS4:BD4"/>
+    <mergeCell ref="BE4:BM4"/>
+    <mergeCell ref="AP5:AR5"/>
+    <mergeCell ref="AS5:BD5"/>
+    <mergeCell ref="BE5:BM5"/>
     <mergeCell ref="AP6:AR6"/>
     <mergeCell ref="AS6:BD6"/>
     <mergeCell ref="BE6:BM6"/>
-    <mergeCell ref="AP7:AR7"/>
-    <mergeCell ref="AS7:BD7"/>
-    <mergeCell ref="BE7:BM7"/>
-    <mergeCell ref="AP8:AR8"/>
     <mergeCell ref="AS8:BD8"/>
     <mergeCell ref="BE8:BM8"/>
-    <mergeCell ref="AS10:BD10"/>
-    <mergeCell ref="BE10:BM10"/>
-    <mergeCell ref="AP14:AR14"/>
-    <mergeCell ref="AP15:AR15"/>
-    <mergeCell ref="AS20:BD20"/>
-    <mergeCell ref="BE20:BM20"/>
-    <mergeCell ref="AP21:AR21"/>
-    <mergeCell ref="AS21:BD21"/>
-    <mergeCell ref="BE21:BM21"/>
+    <mergeCell ref="AP12:AR12"/>
+    <mergeCell ref="AP13:AR13"/>
+    <mergeCell ref="AS18:BD18"/>
+    <mergeCell ref="BE18:BM18"/>
+    <mergeCell ref="AP19:AR19"/>
+    <mergeCell ref="AS19:BD19"/>
+    <mergeCell ref="BE19:BM19"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9969,7 +10618,7 @@
   <dimension ref="A1:BM33"/>
   <sheetViews>
     <sheetView showGridLines="false" topLeftCell="A1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AP22" sqref="AP22" activeCellId="0"/>
+      <selection activeCell="G5" sqref="G5:N5" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="11.25" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10624,725 +11273,1924 @@
     </row>
     <row r="7" customHeight="1" ht="12">
       <c r="A7" s="37"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="366" t="s">
+      <c r="C7" s="675" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="367"/>
-      <c r="F7" s="367"/>
-      <c r="G7" s="367"/>
-      <c r="H7" s="367"/>
-      <c r="I7" s="367"/>
-      <c r="J7" s="367"/>
-      <c r="K7" s="367"/>
-      <c r="L7" s="367"/>
-      <c r="M7" s="367"/>
-      <c r="N7" s="367"/>
-      <c r="O7" s="367"/>
-      <c r="P7" s="367"/>
-      <c r="Q7" s="367"/>
-      <c r="R7" s="367"/>
-      <c r="S7" s="367"/>
-      <c r="T7" s="367"/>
-      <c r="U7" s="367"/>
-      <c r="V7" s="367"/>
-      <c r="W7" s="367"/>
-      <c r="X7" s="367"/>
-      <c r="Y7" s="367"/>
-      <c r="Z7" s="367"/>
-      <c r="AA7" s="367"/>
-      <c r="AB7" s="367"/>
-      <c r="AC7" s="367"/>
-      <c r="AD7" s="367"/>
-      <c r="AE7" s="367"/>
-      <c r="AF7" s="367"/>
-      <c r="AG7" s="367"/>
-      <c r="AH7" s="367"/>
-      <c r="AI7" s="367"/>
-      <c r="AJ7" s="367"/>
-      <c r="AK7" s="367"/>
-      <c r="AL7" s="367"/>
-      <c r="AM7" s="367"/>
-      <c r="AN7" s="367"/>
-      <c r="AO7" s="367"/>
-      <c r="AP7" s="367"/>
-      <c r="AQ7" s="367"/>
-      <c r="AR7" s="367"/>
-      <c r="AS7" s="367"/>
-      <c r="AT7" s="367"/>
-      <c r="AU7" s="367"/>
-      <c r="AV7" s="367"/>
-      <c r="AW7" s="367"/>
-      <c r="AX7" s="367"/>
-      <c r="AY7" s="367"/>
-      <c r="AZ7" s="367"/>
-      <c r="BA7" s="367"/>
-      <c r="BB7" s="367"/>
-      <c r="BC7" s="367"/>
-      <c r="BD7" s="367"/>
-      <c r="BE7" s="367"/>
-      <c r="BF7" s="367"/>
-      <c r="BG7" s="367"/>
-      <c r="BH7" s="367"/>
-      <c r="BI7" s="367"/>
-      <c r="BJ7" s="367"/>
-      <c r="BK7" s="368"/>
-    </row>
-    <row r="8" customHeight="1" ht="12">
-      <c r="A8" s="37"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="369"/>
-      <c r="E8" s="370"/>
-      <c r="F8" s="370"/>
-      <c r="G8" s="370"/>
-      <c r="H8" s="370"/>
-      <c r="I8" s="370"/>
-      <c r="J8" s="370"/>
-      <c r="K8" s="370"/>
-      <c r="L8" s="370"/>
-      <c r="M8" s="370"/>
-      <c r="N8" s="370"/>
-      <c r="O8" s="370"/>
-      <c r="P8" s="370"/>
-      <c r="Q8" s="370"/>
-      <c r="R8" s="370"/>
-      <c r="S8" s="370"/>
-      <c r="T8" s="370"/>
-      <c r="U8" s="370"/>
-      <c r="V8" s="370"/>
-      <c r="W8" s="370"/>
-      <c r="X8" s="370"/>
-      <c r="Y8" s="370"/>
-      <c r="Z8" s="370"/>
-      <c r="AA8" s="370"/>
-      <c r="AB8" s="370"/>
-      <c r="AC8" s="370"/>
-      <c r="AD8" s="370"/>
-      <c r="AE8" s="370"/>
-      <c r="AF8" s="370"/>
-      <c r="AG8" s="370"/>
-      <c r="AH8" s="370"/>
-      <c r="AI8" s="370"/>
-      <c r="AJ8" s="370"/>
-      <c r="AK8" s="370"/>
-      <c r="AL8" s="370"/>
-      <c r="AM8" s="370"/>
-      <c r="AN8" s="370"/>
-      <c r="AO8" s="370"/>
-      <c r="AP8" s="370"/>
-      <c r="AQ8" s="370"/>
-      <c r="AR8" s="370"/>
-      <c r="AS8" s="370"/>
-      <c r="AT8" s="370"/>
-      <c r="AU8" s="370"/>
-      <c r="AV8" s="370"/>
-      <c r="AW8" s="370"/>
-      <c r="AX8" s="370"/>
-      <c r="AY8" s="370"/>
-      <c r="AZ8" s="370"/>
-      <c r="BA8" s="370"/>
-      <c r="BB8" s="370"/>
-      <c r="BC8" s="370"/>
-      <c r="BD8" s="370"/>
-      <c r="BE8" s="370"/>
-      <c r="BF8" s="370"/>
-      <c r="BG8" s="370"/>
-      <c r="BH8" s="370"/>
-      <c r="BI8" s="370"/>
-      <c r="BJ8" s="370"/>
-      <c r="BK8" s="371"/>
+      <c r="D7" s="676"/>
+      <c r="E7" s="676"/>
+      <c r="F7" s="676"/>
+      <c r="G7" s="676"/>
+      <c r="H7" s="676"/>
+      <c r="I7" s="676"/>
+      <c r="J7" s="676"/>
+      <c r="K7" s="676"/>
+      <c r="L7" s="676"/>
+      <c r="M7" s="676"/>
+      <c r="N7" s="676"/>
+      <c r="O7" s="676"/>
+      <c r="P7" s="676"/>
+      <c r="Q7" s="676"/>
+      <c r="R7" s="676"/>
+      <c r="S7" s="676"/>
+      <c r="T7" s="676"/>
+      <c r="U7" s="676"/>
+      <c r="V7" s="676"/>
+      <c r="W7" s="676"/>
+      <c r="X7" s="676"/>
+      <c r="Y7" s="676"/>
+      <c r="Z7" s="676"/>
+      <c r="AA7" s="676"/>
+      <c r="AB7" s="676"/>
+      <c r="AC7" s="676"/>
+      <c r="AD7" s="676"/>
+      <c r="AE7" s="676"/>
+      <c r="AF7" s="676"/>
+      <c r="AG7" s="676"/>
+      <c r="AH7" s="676"/>
+      <c r="AI7" s="676"/>
+      <c r="AJ7" s="676"/>
+      <c r="AK7" s="676"/>
+      <c r="AL7" s="676"/>
+      <c r="AM7" s="676"/>
+      <c r="AN7" s="676"/>
+      <c r="AO7" s="676"/>
+      <c r="AP7" s="676"/>
+      <c r="AQ7" s="676"/>
+      <c r="AR7" s="676"/>
+      <c r="AS7" s="676"/>
+      <c r="AT7" s="676"/>
+      <c r="AU7" s="676"/>
+      <c r="AV7" s="676"/>
+      <c r="AW7" s="676"/>
+      <c r="AX7" s="676"/>
+      <c r="AY7" s="676"/>
+      <c r="AZ7" s="676"/>
+      <c r="BA7" s="676"/>
+      <c r="BB7" s="676"/>
+      <c r="BC7" s="676"/>
+      <c r="BD7" s="676"/>
+      <c r="BE7" s="676"/>
+      <c r="BF7" s="676"/>
+      <c r="BG7" s="676"/>
+      <c r="BH7" s="676"/>
+      <c r="BI7" s="676"/>
+      <c r="BJ7" s="676"/>
+      <c r="BK7" s="677"/>
+      <c r="IQ7" s="24"/>
+      <c r="JX7" s="24"/>
+      <c r="SM7" s="24"/>
+      <c r="TT7" s="24"/>
+      <c r="ACI7" s="24"/>
+      <c r="ADP7" s="24"/>
+      <c r="AME7" s="24"/>
+      <c r="ANL7" s="24"/>
+      <c r="AWA7" s="24"/>
+      <c r="AXH7" s="24"/>
+      <c r="BFW7" s="24"/>
+      <c r="BHD7" s="24"/>
+      <c r="BPS7" s="24"/>
+      <c r="BQZ7" s="24"/>
+      <c r="BZO7" s="24"/>
+      <c r="CAV7" s="24"/>
+      <c r="CJK7" s="24"/>
+      <c r="CKR7" s="24"/>
+      <c r="CTG7" s="24"/>
+      <c r="CUN7" s="24"/>
+      <c r="DDC7" s="24"/>
+      <c r="DEJ7" s="24"/>
+      <c r="DMY7" s="24"/>
+      <c r="DOF7" s="24"/>
+      <c r="DWU7" s="24"/>
+      <c r="DYB7" s="24"/>
+      <c r="EGQ7" s="24"/>
+      <c r="EHX7" s="24"/>
+      <c r="EQM7" s="24"/>
+      <c r="ERT7" s="24"/>
+      <c r="FAI7" s="24"/>
+      <c r="FBP7" s="24"/>
+      <c r="FKE7" s="24"/>
+      <c r="FLL7" s="24"/>
+      <c r="FUA7" s="24"/>
+      <c r="FVH7" s="24"/>
+      <c r="GDW7" s="24"/>
+      <c r="GFD7" s="24"/>
+      <c r="GNS7" s="24"/>
+      <c r="GOZ7" s="24"/>
+      <c r="GXO7" s="24"/>
+      <c r="GYV7" s="24"/>
+      <c r="HHK7" s="24"/>
+      <c r="HIR7" s="24"/>
+      <c r="HRG7" s="24"/>
+      <c r="HSN7" s="24"/>
+      <c r="IBC7" s="24"/>
+      <c r="ICJ7" s="24"/>
+      <c r="IKY7" s="24"/>
+      <c r="IMF7" s="24"/>
+      <c r="IUU7" s="24"/>
+      <c r="IWB7" s="24"/>
+      <c r="JEQ7" s="24"/>
+      <c r="JFX7" s="24"/>
+      <c r="JOM7" s="24"/>
+      <c r="JPT7" s="24"/>
+      <c r="JYI7" s="24"/>
+      <c r="JZP7" s="24"/>
+      <c r="KIE7" s="24"/>
+      <c r="KJL7" s="24"/>
+      <c r="KSA7" s="24"/>
+      <c r="KTH7" s="24"/>
+      <c r="LBW7" s="24"/>
+      <c r="LDD7" s="24"/>
+      <c r="LLS7" s="24"/>
+      <c r="LMZ7" s="24"/>
+      <c r="LVO7" s="24"/>
+      <c r="LWV7" s="24"/>
+      <c r="MFK7" s="24"/>
+      <c r="MGR7" s="24"/>
+      <c r="MPG7" s="24"/>
+      <c r="MQN7" s="24"/>
+      <c r="MZC7" s="24"/>
+      <c r="NAJ7" s="24"/>
+      <c r="NIY7" s="24"/>
+      <c r="NKF7" s="24"/>
+      <c r="NSU7" s="24"/>
+      <c r="NUB7" s="24"/>
+      <c r="OCQ7" s="24"/>
+      <c r="ODX7" s="24"/>
+      <c r="OMM7" s="24"/>
+      <c r="ONT7" s="24"/>
+      <c r="OWI7" s="24"/>
+      <c r="OXP7" s="24"/>
+      <c r="PGE7" s="24"/>
+      <c r="PHL7" s="24"/>
+      <c r="PQA7" s="24"/>
+      <c r="PRH7" s="24"/>
+      <c r="PZW7" s="24"/>
+      <c r="QBD7" s="24"/>
+      <c r="QJS7" s="24"/>
+      <c r="QKZ7" s="24"/>
+      <c r="QTO7" s="24"/>
+      <c r="QUV7" s="24"/>
+      <c r="RDK7" s="24"/>
+      <c r="RER7" s="24"/>
+      <c r="RNG7" s="24"/>
+      <c r="RON7" s="24"/>
+      <c r="RXC7" s="24"/>
+      <c r="RYJ7" s="24"/>
+      <c r="SGY7" s="24"/>
+      <c r="SIF7" s="24"/>
+      <c r="SQU7" s="24"/>
+      <c r="SSB7" s="24"/>
+      <c r="TAQ7" s="24"/>
+      <c r="TBX7" s="24"/>
+      <c r="TKM7" s="24"/>
+      <c r="TLT7" s="24"/>
+      <c r="TUI7" s="24"/>
+      <c r="TVP7" s="24"/>
+      <c r="UEE7" s="24"/>
+      <c r="UFL7" s="24"/>
+      <c r="UOA7" s="24"/>
+      <c r="UPH7" s="24"/>
+      <c r="UXW7" s="24"/>
+      <c r="UZD7" s="24"/>
+      <c r="VHS7" s="24"/>
+      <c r="VIZ7" s="24"/>
+      <c r="VRO7" s="24"/>
+      <c r="VSV7" s="24"/>
+      <c r="WBK7" s="24"/>
+      <c r="WCR7" s="24"/>
+      <c r="WLG7" s="24"/>
+      <c r="WMN7" s="24"/>
+      <c r="WVC7" s="24"/>
+      <c r="WWJ7" s="24"/>
+    </row>
+    <row r="8" customFormat="1" s="627">
+      <c r="A8" s="678"/>
+      <c r="C8" s="679"/>
+      <c r="D8" s="680"/>
+      <c r="E8" s="680"/>
+      <c r="F8" s="680"/>
+      <c r="G8" s="680"/>
+      <c r="H8" s="680"/>
+      <c r="I8" s="680"/>
+      <c r="J8" s="680"/>
+      <c r="K8" s="680"/>
+      <c r="L8" s="680"/>
+      <c r="M8" s="680"/>
+      <c r="N8" s="680"/>
+      <c r="O8" s="680"/>
+      <c r="P8" s="680"/>
+      <c r="Q8" s="680"/>
+      <c r="R8" s="680"/>
+      <c r="S8" s="680"/>
+      <c r="T8" s="680"/>
+      <c r="U8" s="680"/>
+      <c r="V8" s="680"/>
+      <c r="W8" s="680"/>
+      <c r="X8" s="680"/>
+      <c r="Y8" s="680"/>
+      <c r="Z8" s="680"/>
+      <c r="AA8" s="680"/>
+      <c r="AB8" s="680"/>
+      <c r="AC8" s="680"/>
+      <c r="AD8" s="680"/>
+      <c r="AE8" s="680"/>
+      <c r="AF8" s="680"/>
+      <c r="AG8" s="680"/>
+      <c r="AH8" s="680"/>
+      <c r="AI8" s="680"/>
+      <c r="AJ8" s="680"/>
+      <c r="AK8" s="680"/>
+      <c r="AL8" s="680"/>
+      <c r="AM8" s="680"/>
+      <c r="AN8" s="680"/>
+      <c r="AO8" s="680"/>
+      <c r="AP8" s="680"/>
+      <c r="AQ8" s="680"/>
+      <c r="AR8" s="680"/>
+      <c r="AS8" s="680"/>
+      <c r="AT8" s="680"/>
+      <c r="AU8" s="680"/>
+      <c r="AV8" s="680"/>
+      <c r="AW8" s="680"/>
+      <c r="AX8" s="680"/>
+      <c r="AY8" s="680"/>
+      <c r="AZ8" s="680"/>
+      <c r="BA8" s="680"/>
+      <c r="BB8" s="680"/>
+      <c r="BC8" s="680"/>
+      <c r="BD8" s="680"/>
+      <c r="BE8" s="680"/>
+      <c r="BF8" s="680"/>
+      <c r="BG8" s="680"/>
+      <c r="BH8" s="680"/>
+      <c r="BI8" s="680"/>
+      <c r="BJ8" s="680"/>
+      <c r="BK8" s="681"/>
+      <c r="IQ8" s="627"/>
+      <c r="JX8" s="627"/>
+      <c r="SM8" s="627"/>
+      <c r="TT8" s="627"/>
+      <c r="ACI8" s="627"/>
+      <c r="ADP8" s="627"/>
+      <c r="AME8" s="627"/>
+      <c r="ANL8" s="627"/>
+      <c r="AWA8" s="627"/>
+      <c r="AXH8" s="627"/>
+      <c r="BFW8" s="627"/>
+      <c r="BHD8" s="627"/>
+      <c r="BPS8" s="627"/>
+      <c r="BQZ8" s="627"/>
+      <c r="BZO8" s="627"/>
+      <c r="CAV8" s="627"/>
+      <c r="CJK8" s="627"/>
+      <c r="CKR8" s="627"/>
+      <c r="CTG8" s="627"/>
+      <c r="CUN8" s="627"/>
+      <c r="DDC8" s="627"/>
+      <c r="DEJ8" s="627"/>
+      <c r="DMY8" s="627"/>
+      <c r="DOF8" s="627"/>
+      <c r="DWU8" s="627"/>
+      <c r="DYB8" s="627"/>
+      <c r="EGQ8" s="627"/>
+      <c r="EHX8" s="627"/>
+      <c r="EQM8" s="627"/>
+      <c r="ERT8" s="627"/>
+      <c r="FAI8" s="627"/>
+      <c r="FBP8" s="627"/>
+      <c r="FKE8" s="627"/>
+      <c r="FLL8" s="627"/>
+      <c r="FUA8" s="627"/>
+      <c r="FVH8" s="627"/>
+      <c r="GDW8" s="627"/>
+      <c r="GFD8" s="627"/>
+      <c r="GNS8" s="627"/>
+      <c r="GOZ8" s="627"/>
+      <c r="GXO8" s="627"/>
+      <c r="GYV8" s="627"/>
+      <c r="HHK8" s="627"/>
+      <c r="HIR8" s="627"/>
+      <c r="HRG8" s="627"/>
+      <c r="HSN8" s="627"/>
+      <c r="IBC8" s="627"/>
+      <c r="ICJ8" s="627"/>
+      <c r="IKY8" s="627"/>
+      <c r="IMF8" s="627"/>
+      <c r="IUU8" s="627"/>
+      <c r="IWB8" s="627"/>
+      <c r="JEQ8" s="627"/>
+      <c r="JFX8" s="627"/>
+      <c r="JOM8" s="627"/>
+      <c r="JPT8" s="627"/>
+      <c r="JYI8" s="627"/>
+      <c r="JZP8" s="627"/>
+      <c r="KIE8" s="627"/>
+      <c r="KJL8" s="627"/>
+      <c r="KSA8" s="627"/>
+      <c r="KTH8" s="627"/>
+      <c r="LBW8" s="627"/>
+      <c r="LDD8" s="627"/>
+      <c r="LLS8" s="627"/>
+      <c r="LMZ8" s="627"/>
+      <c r="LVO8" s="627"/>
+      <c r="LWV8" s="627"/>
+      <c r="MFK8" s="627"/>
+      <c r="MGR8" s="627"/>
+      <c r="MPG8" s="627"/>
+      <c r="MQN8" s="627"/>
+      <c r="MZC8" s="627"/>
+      <c r="NAJ8" s="627"/>
+      <c r="NIY8" s="627"/>
+      <c r="NKF8" s="627"/>
+      <c r="NSU8" s="627"/>
+      <c r="NUB8" s="627"/>
+      <c r="OCQ8" s="627"/>
+      <c r="ODX8" s="627"/>
+      <c r="OMM8" s="627"/>
+      <c r="ONT8" s="627"/>
+      <c r="OWI8" s="627"/>
+      <c r="OXP8" s="627"/>
+      <c r="PGE8" s="627"/>
+      <c r="PHL8" s="627"/>
+      <c r="PQA8" s="627"/>
+      <c r="PRH8" s="627"/>
+      <c r="PZW8" s="627"/>
+      <c r="QBD8" s="627"/>
+      <c r="QJS8" s="627"/>
+      <c r="QKZ8" s="627"/>
+      <c r="QTO8" s="627"/>
+      <c r="QUV8" s="627"/>
+      <c r="RDK8" s="627"/>
+      <c r="RER8" s="627"/>
+      <c r="RNG8" s="627"/>
+      <c r="RON8" s="627"/>
+      <c r="RXC8" s="627"/>
+      <c r="RYJ8" s="627"/>
+      <c r="SGY8" s="627"/>
+      <c r="SIF8" s="627"/>
+      <c r="SQU8" s="627"/>
+      <c r="SSB8" s="627"/>
+      <c r="TAQ8" s="627"/>
+      <c r="TBX8" s="627"/>
+      <c r="TKM8" s="627"/>
+      <c r="TLT8" s="627"/>
+      <c r="TUI8" s="627"/>
+      <c r="TVP8" s="627"/>
+      <c r="UEE8" s="627"/>
+      <c r="UFL8" s="627"/>
+      <c r="UOA8" s="627"/>
+      <c r="UPH8" s="627"/>
+      <c r="UXW8" s="627"/>
+      <c r="UZD8" s="627"/>
+      <c r="VHS8" s="627"/>
+      <c r="VIZ8" s="627"/>
+      <c r="VRO8" s="627"/>
+      <c r="VSV8" s="627"/>
+      <c r="WBK8" s="627"/>
+      <c r="WCR8" s="627"/>
+      <c r="WLG8" s="627"/>
+      <c r="WMN8" s="627"/>
+      <c r="WVC8" s="627"/>
+      <c r="WWJ8" s="627"/>
     </row>
     <row r="9" customHeight="1" ht="12">
       <c r="A9" s="37"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="625" t="s">
-        <v>272</v>
-      </c>
-      <c r="E9" s="370"/>
-      <c r="F9" s="370"/>
-      <c r="G9" s="370"/>
-      <c r="H9" s="370"/>
-      <c r="I9" s="370"/>
-      <c r="J9" s="370"/>
-      <c r="K9" s="370"/>
-      <c r="L9" s="370"/>
-      <c r="M9" s="370"/>
-      <c r="N9" s="370"/>
-      <c r="O9" s="370"/>
-      <c r="P9" s="370"/>
-      <c r="Q9" s="370"/>
-      <c r="R9" s="370"/>
-      <c r="S9" s="370"/>
-      <c r="T9" s="370"/>
-      <c r="U9" s="370"/>
-      <c r="V9" s="370"/>
-      <c r="W9" s="370"/>
-      <c r="X9" s="370"/>
-      <c r="Y9" s="370"/>
-      <c r="Z9" s="370"/>
-      <c r="AA9" s="370"/>
-      <c r="AB9" s="370"/>
-      <c r="AC9" s="370"/>
-      <c r="AD9" s="370"/>
-      <c r="AE9" s="370"/>
-      <c r="AF9" s="370"/>
-      <c r="AG9" s="370"/>
-      <c r="AH9" s="370"/>
-      <c r="AI9" s="370"/>
-      <c r="AJ9" s="370"/>
-      <c r="AK9" s="370"/>
-      <c r="AL9" s="370"/>
-      <c r="AM9" s="370"/>
-      <c r="AN9" s="370"/>
-      <c r="AO9" s="370"/>
-      <c r="AP9" s="370"/>
-      <c r="AQ9" s="370"/>
-      <c r="AR9" s="370"/>
-      <c r="AS9" s="370"/>
-      <c r="AT9" s="370"/>
-      <c r="AU9" s="370"/>
-      <c r="AV9" s="370"/>
-      <c r="AW9" s="370"/>
-      <c r="AX9" s="370"/>
-      <c r="AY9" s="370"/>
-      <c r="AZ9" s="370"/>
-      <c r="BA9" s="370"/>
-      <c r="BB9" s="370"/>
-      <c r="BC9" s="370"/>
-      <c r="BD9" s="370"/>
-      <c r="BE9" s="370"/>
-      <c r="BF9" s="370"/>
-      <c r="BG9" s="370"/>
-      <c r="BH9" s="370"/>
-      <c r="BI9" s="370"/>
-      <c r="BJ9" s="370"/>
-      <c r="BK9" s="371"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="44" t="s">
+        <v>280</v>
+      </c>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="45"/>
+      <c r="W9" s="45"/>
+      <c r="X9" s="45"/>
+      <c r="Y9" s="45"/>
+      <c r="Z9" s="45"/>
+      <c r="AA9" s="45"/>
+      <c r="AB9" s="45"/>
+      <c r="AC9" s="45"/>
+      <c r="AD9" s="45"/>
+      <c r="AE9" s="45"/>
+      <c r="AF9" s="45"/>
+      <c r="AG9" s="45"/>
+      <c r="AH9" s="45"/>
+      <c r="AI9" s="45"/>
+      <c r="AJ9" s="45"/>
+      <c r="AK9" s="45"/>
+      <c r="AL9" s="45"/>
+      <c r="AM9" s="45"/>
+      <c r="AN9" s="45"/>
+      <c r="AO9" s="45"/>
+      <c r="AP9" s="45"/>
+      <c r="AQ9" s="45"/>
+      <c r="AR9" s="45"/>
+      <c r="AS9" s="45"/>
+      <c r="AT9" s="45"/>
+      <c r="AU9" s="45"/>
+      <c r="AV9" s="45"/>
+      <c r="AW9" s="45"/>
+      <c r="AX9" s="45"/>
+      <c r="AY9" s="45"/>
+      <c r="AZ9" s="45"/>
+      <c r="BA9" s="45"/>
+      <c r="BB9" s="45"/>
+      <c r="BC9" s="45"/>
+      <c r="BD9" s="45"/>
+      <c r="BE9" s="45"/>
+      <c r="BF9" s="45"/>
+      <c r="BG9" s="45"/>
+      <c r="BH9" s="45"/>
+      <c r="BI9" s="45"/>
+      <c r="BJ9" s="45"/>
+      <c r="BK9" s="46"/>
+      <c r="IQ9" s="24"/>
+      <c r="JX9" s="24"/>
+      <c r="SM9" s="24"/>
+      <c r="TT9" s="24"/>
+      <c r="ACI9" s="24"/>
+      <c r="ADP9" s="24"/>
+      <c r="AME9" s="24"/>
+      <c r="ANL9" s="24"/>
+      <c r="AWA9" s="24"/>
+      <c r="AXH9" s="24"/>
+      <c r="BFW9" s="24"/>
+      <c r="BHD9" s="24"/>
+      <c r="BPS9" s="24"/>
+      <c r="BQZ9" s="24"/>
+      <c r="BZO9" s="24"/>
+      <c r="CAV9" s="24"/>
+      <c r="CJK9" s="24"/>
+      <c r="CKR9" s="24"/>
+      <c r="CTG9" s="24"/>
+      <c r="CUN9" s="24"/>
+      <c r="DDC9" s="24"/>
+      <c r="DEJ9" s="24"/>
+      <c r="DMY9" s="24"/>
+      <c r="DOF9" s="24"/>
+      <c r="DWU9" s="24"/>
+      <c r="DYB9" s="24"/>
+      <c r="EGQ9" s="24"/>
+      <c r="EHX9" s="24"/>
+      <c r="EQM9" s="24"/>
+      <c r="ERT9" s="24"/>
+      <c r="FAI9" s="24"/>
+      <c r="FBP9" s="24"/>
+      <c r="FKE9" s="24"/>
+      <c r="FLL9" s="24"/>
+      <c r="FUA9" s="24"/>
+      <c r="FVH9" s="24"/>
+      <c r="GDW9" s="24"/>
+      <c r="GFD9" s="24"/>
+      <c r="GNS9" s="24"/>
+      <c r="GOZ9" s="24"/>
+      <c r="GXO9" s="24"/>
+      <c r="GYV9" s="24"/>
+      <c r="HHK9" s="24"/>
+      <c r="HIR9" s="24"/>
+      <c r="HRG9" s="24"/>
+      <c r="HSN9" s="24"/>
+      <c r="IBC9" s="24"/>
+      <c r="ICJ9" s="24"/>
+      <c r="IKY9" s="24"/>
+      <c r="IMF9" s="24"/>
+      <c r="IUU9" s="24"/>
+      <c r="IWB9" s="24"/>
+      <c r="JEQ9" s="24"/>
+      <c r="JFX9" s="24"/>
+      <c r="JOM9" s="24"/>
+      <c r="JPT9" s="24"/>
+      <c r="JYI9" s="24"/>
+      <c r="JZP9" s="24"/>
+      <c r="KIE9" s="24"/>
+      <c r="KJL9" s="24"/>
+      <c r="KSA9" s="24"/>
+      <c r="KTH9" s="24"/>
+      <c r="LBW9" s="24"/>
+      <c r="LDD9" s="24"/>
+      <c r="LLS9" s="24"/>
+      <c r="LMZ9" s="24"/>
+      <c r="LVO9" s="24"/>
+      <c r="LWV9" s="24"/>
+      <c r="MFK9" s="24"/>
+      <c r="MGR9" s="24"/>
+      <c r="MPG9" s="24"/>
+      <c r="MQN9" s="24"/>
+      <c r="MZC9" s="24"/>
+      <c r="NAJ9" s="24"/>
+      <c r="NIY9" s="24"/>
+      <c r="NKF9" s="24"/>
+      <c r="NSU9" s="24"/>
+      <c r="NUB9" s="24"/>
+      <c r="OCQ9" s="24"/>
+      <c r="ODX9" s="24"/>
+      <c r="OMM9" s="24"/>
+      <c r="ONT9" s="24"/>
+      <c r="OWI9" s="24"/>
+      <c r="OXP9" s="24"/>
+      <c r="PGE9" s="24"/>
+      <c r="PHL9" s="24"/>
+      <c r="PQA9" s="24"/>
+      <c r="PRH9" s="24"/>
+      <c r="PZW9" s="24"/>
+      <c r="QBD9" s="24"/>
+      <c r="QJS9" s="24"/>
+      <c r="QKZ9" s="24"/>
+      <c r="QTO9" s="24"/>
+      <c r="QUV9" s="24"/>
+      <c r="RDK9" s="24"/>
+      <c r="RER9" s="24"/>
+      <c r="RNG9" s="24"/>
+      <c r="RON9" s="24"/>
+      <c r="RXC9" s="24"/>
+      <c r="RYJ9" s="24"/>
+      <c r="SGY9" s="24"/>
+      <c r="SIF9" s="24"/>
+      <c r="SQU9" s="24"/>
+      <c r="SSB9" s="24"/>
+      <c r="TAQ9" s="24"/>
+      <c r="TBX9" s="24"/>
+      <c r="TKM9" s="24"/>
+      <c r="TLT9" s="24"/>
+      <c r="TUI9" s="24"/>
+      <c r="TVP9" s="24"/>
+      <c r="UEE9" s="24"/>
+      <c r="UFL9" s="24"/>
+      <c r="UOA9" s="24"/>
+      <c r="UPH9" s="24"/>
+      <c r="UXW9" s="24"/>
+      <c r="UZD9" s="24"/>
+      <c r="VHS9" s="24"/>
+      <c r="VIZ9" s="24"/>
+      <c r="VRO9" s="24"/>
+      <c r="VSV9" s="24"/>
+      <c r="WBK9" s="24"/>
+      <c r="WCR9" s="24"/>
+      <c r="WLG9" s="24"/>
+      <c r="WMN9" s="24"/>
+      <c r="WVC9" s="24"/>
+      <c r="WWJ9" s="24"/>
     </row>
     <row r="10" customHeight="1" ht="12">
       <c r="A10" s="37"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="369"/>
-      <c r="E10" s="370"/>
-      <c r="F10" s="370"/>
-      <c r="G10" s="370"/>
-      <c r="H10" s="370"/>
-      <c r="I10" s="370"/>
-      <c r="J10" s="370"/>
-      <c r="K10" s="370"/>
-      <c r="L10" s="370"/>
-      <c r="M10" s="370"/>
-      <c r="N10" s="370"/>
-      <c r="O10" s="370"/>
-      <c r="P10" s="370"/>
-      <c r="Q10" s="370"/>
-      <c r="R10" s="370"/>
-      <c r="S10" s="370"/>
-      <c r="T10" s="370"/>
-      <c r="U10" s="370"/>
-      <c r="V10" s="370"/>
-      <c r="W10" s="370"/>
-      <c r="X10" s="370"/>
-      <c r="Y10" s="370"/>
-      <c r="Z10" s="370"/>
-      <c r="AA10" s="370"/>
-      <c r="AB10" s="370"/>
-      <c r="AC10" s="370"/>
-      <c r="AD10" s="370"/>
-      <c r="AE10" s="370"/>
-      <c r="AF10" s="370"/>
-      <c r="AG10" s="370"/>
-      <c r="AH10" s="370"/>
-      <c r="AI10" s="370"/>
-      <c r="AJ10" s="370"/>
-      <c r="AK10" s="370"/>
-      <c r="AL10" s="370"/>
-      <c r="AM10" s="370"/>
-      <c r="AN10" s="370"/>
-      <c r="AO10" s="370"/>
-      <c r="AP10" s="370"/>
-      <c r="AQ10" s="370"/>
-      <c r="AR10" s="370"/>
-      <c r="AS10" s="370"/>
-      <c r="AT10" s="370"/>
-      <c r="AU10" s="370"/>
-      <c r="AV10" s="370"/>
-      <c r="AW10" s="370"/>
-      <c r="AX10" s="370"/>
-      <c r="AY10" s="370"/>
-      <c r="AZ10" s="370"/>
-      <c r="BA10" s="370"/>
-      <c r="BB10" s="370"/>
-      <c r="BC10" s="370"/>
-      <c r="BD10" s="370"/>
-      <c r="BE10" s="370"/>
-      <c r="BF10" s="370"/>
-      <c r="BG10" s="370"/>
-      <c r="BH10" s="370"/>
-      <c r="BI10" s="370"/>
-      <c r="BJ10" s="370"/>
-      <c r="BK10" s="371"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="53"/>
+      <c r="T10" s="53"/>
+      <c r="U10" s="53"/>
+      <c r="V10" s="53"/>
+      <c r="W10" s="53"/>
+      <c r="X10" s="53"/>
+      <c r="Y10" s="53"/>
+      <c r="Z10" s="53"/>
+      <c r="AA10" s="53"/>
+      <c r="AB10" s="53"/>
+      <c r="AC10" s="53"/>
+      <c r="AD10" s="53"/>
+      <c r="AE10" s="53"/>
+      <c r="AF10" s="53"/>
+      <c r="AG10" s="53"/>
+      <c r="AH10" s="53"/>
+      <c r="AI10" s="53"/>
+      <c r="AJ10" s="53"/>
+      <c r="AK10" s="53"/>
+      <c r="AL10" s="53"/>
+      <c r="AM10" s="53"/>
+      <c r="AN10" s="53"/>
+      <c r="AO10" s="53"/>
+      <c r="AP10" s="53"/>
+      <c r="AQ10" s="53"/>
+      <c r="AR10" s="53"/>
+      <c r="AS10" s="53"/>
+      <c r="AT10" s="53"/>
+      <c r="AU10" s="53"/>
+      <c r="AV10" s="53"/>
+      <c r="AW10" s="53"/>
+      <c r="AX10" s="53"/>
+      <c r="AY10" s="53"/>
+      <c r="AZ10" s="53"/>
+      <c r="BA10" s="53"/>
+      <c r="BB10" s="53"/>
+      <c r="BC10" s="53"/>
+      <c r="BD10" s="53"/>
+      <c r="BE10" s="53"/>
+      <c r="BF10" s="53"/>
+      <c r="BG10" s="53"/>
+      <c r="BH10" s="53"/>
+      <c r="BI10" s="53"/>
+      <c r="BJ10" s="53"/>
+      <c r="BK10" s="54"/>
+      <c r="IQ10" s="24"/>
+      <c r="JX10" s="24"/>
+      <c r="SM10" s="24"/>
+      <c r="TT10" s="24"/>
+      <c r="ACI10" s="24"/>
+      <c r="ADP10" s="24"/>
+      <c r="AME10" s="24"/>
+      <c r="ANL10" s="24"/>
+      <c r="AWA10" s="24"/>
+      <c r="AXH10" s="24"/>
+      <c r="BFW10" s="24"/>
+      <c r="BHD10" s="24"/>
+      <c r="BPS10" s="24"/>
+      <c r="BQZ10" s="24"/>
+      <c r="BZO10" s="24"/>
+      <c r="CAV10" s="24"/>
+      <c r="CJK10" s="24"/>
+      <c r="CKR10" s="24"/>
+      <c r="CTG10" s="24"/>
+      <c r="CUN10" s="24"/>
+      <c r="DDC10" s="24"/>
+      <c r="DEJ10" s="24"/>
+      <c r="DMY10" s="24"/>
+      <c r="DOF10" s="24"/>
+      <c r="DWU10" s="24"/>
+      <c r="DYB10" s="24"/>
+      <c r="EGQ10" s="24"/>
+      <c r="EHX10" s="24"/>
+      <c r="EQM10" s="24"/>
+      <c r="ERT10" s="24"/>
+      <c r="FAI10" s="24"/>
+      <c r="FBP10" s="24"/>
+      <c r="FKE10" s="24"/>
+      <c r="FLL10" s="24"/>
+      <c r="FUA10" s="24"/>
+      <c r="FVH10" s="24"/>
+      <c r="GDW10" s="24"/>
+      <c r="GFD10" s="24"/>
+      <c r="GNS10" s="24"/>
+      <c r="GOZ10" s="24"/>
+      <c r="GXO10" s="24"/>
+      <c r="GYV10" s="24"/>
+      <c r="HHK10" s="24"/>
+      <c r="HIR10" s="24"/>
+      <c r="HRG10" s="24"/>
+      <c r="HSN10" s="24"/>
+      <c r="IBC10" s="24"/>
+      <c r="ICJ10" s="24"/>
+      <c r="IKY10" s="24"/>
+      <c r="IMF10" s="24"/>
+      <c r="IUU10" s="24"/>
+      <c r="IWB10" s="24"/>
+      <c r="JEQ10" s="24"/>
+      <c r="JFX10" s="24"/>
+      <c r="JOM10" s="24"/>
+      <c r="JPT10" s="24"/>
+      <c r="JYI10" s="24"/>
+      <c r="JZP10" s="24"/>
+      <c r="KIE10" s="24"/>
+      <c r="KJL10" s="24"/>
+      <c r="KSA10" s="24"/>
+      <c r="KTH10" s="24"/>
+      <c r="LBW10" s="24"/>
+      <c r="LDD10" s="24"/>
+      <c r="LLS10" s="24"/>
+      <c r="LMZ10" s="24"/>
+      <c r="LVO10" s="24"/>
+      <c r="LWV10" s="24"/>
+      <c r="MFK10" s="24"/>
+      <c r="MGR10" s="24"/>
+      <c r="MPG10" s="24"/>
+      <c r="MQN10" s="24"/>
+      <c r="MZC10" s="24"/>
+      <c r="NAJ10" s="24"/>
+      <c r="NIY10" s="24"/>
+      <c r="NKF10" s="24"/>
+      <c r="NSU10" s="24"/>
+      <c r="NUB10" s="24"/>
+      <c r="OCQ10" s="24"/>
+      <c r="ODX10" s="24"/>
+      <c r="OMM10" s="24"/>
+      <c r="ONT10" s="24"/>
+      <c r="OWI10" s="24"/>
+      <c r="OXP10" s="24"/>
+      <c r="PGE10" s="24"/>
+      <c r="PHL10" s="24"/>
+      <c r="PQA10" s="24"/>
+      <c r="PRH10" s="24"/>
+      <c r="PZW10" s="24"/>
+      <c r="QBD10" s="24"/>
+      <c r="QJS10" s="24"/>
+      <c r="QKZ10" s="24"/>
+      <c r="QTO10" s="24"/>
+      <c r="QUV10" s="24"/>
+      <c r="RDK10" s="24"/>
+      <c r="RER10" s="24"/>
+      <c r="RNG10" s="24"/>
+      <c r="RON10" s="24"/>
+      <c r="RXC10" s="24"/>
+      <c r="RYJ10" s="24"/>
+      <c r="SGY10" s="24"/>
+      <c r="SIF10" s="24"/>
+      <c r="SQU10" s="24"/>
+      <c r="SSB10" s="24"/>
+      <c r="TAQ10" s="24"/>
+      <c r="TBX10" s="24"/>
+      <c r="TKM10" s="24"/>
+      <c r="TLT10" s="24"/>
+      <c r="TUI10" s="24"/>
+      <c r="TVP10" s="24"/>
+      <c r="UEE10" s="24"/>
+      <c r="UFL10" s="24"/>
+      <c r="UOA10" s="24"/>
+      <c r="UPH10" s="24"/>
+      <c r="UXW10" s="24"/>
+      <c r="UZD10" s="24"/>
+      <c r="VHS10" s="24"/>
+      <c r="VIZ10" s="24"/>
+      <c r="VRO10" s="24"/>
+      <c r="VSV10" s="24"/>
+      <c r="WBK10" s="24"/>
+      <c r="WCR10" s="24"/>
+      <c r="WLG10" s="24"/>
+      <c r="WMN10" s="24"/>
+      <c r="WVC10" s="24"/>
+      <c r="WWJ10" s="24"/>
     </row>
     <row r="11" customHeight="1" ht="12">
       <c r="A11" s="37"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="369"/>
-      <c r="E11" s="370"/>
-      <c r="F11" s="370"/>
-      <c r="G11" s="370"/>
-      <c r="H11" s="370"/>
-      <c r="I11" s="370"/>
-      <c r="J11" s="370"/>
-      <c r="K11" s="370"/>
-      <c r="L11" s="370"/>
-      <c r="M11" s="370"/>
-      <c r="N11" s="370"/>
-      <c r="O11" s="370"/>
-      <c r="P11" s="370"/>
-      <c r="Q11" s="370"/>
-      <c r="R11" s="370"/>
-      <c r="S11" s="370"/>
-      <c r="T11" s="370"/>
-      <c r="U11" s="370"/>
-      <c r="V11" s="370"/>
-      <c r="W11" s="370"/>
-      <c r="X11" s="370"/>
-      <c r="Y11" s="370"/>
-      <c r="Z11" s="370"/>
-      <c r="AA11" s="370"/>
-      <c r="AB11" s="370"/>
-      <c r="AC11" s="370"/>
-      <c r="AD11" s="370"/>
-      <c r="AE11" s="370"/>
-      <c r="AF11" s="370"/>
-      <c r="AG11" s="370"/>
-      <c r="AH11" s="370"/>
-      <c r="AI11" s="370"/>
-      <c r="AJ11" s="370"/>
-      <c r="AK11" s="370"/>
-      <c r="AL11" s="370"/>
-      <c r="AM11" s="370"/>
-      <c r="AN11" s="370"/>
-      <c r="AO11" s="370"/>
-      <c r="AP11" s="370"/>
-      <c r="AQ11" s="370"/>
-      <c r="AR11" s="370"/>
-      <c r="AS11" s="370"/>
-      <c r="AT11" s="370"/>
-      <c r="AU11" s="370"/>
-      <c r="AV11" s="370"/>
-      <c r="AW11" s="370"/>
-      <c r="AX11" s="370"/>
-      <c r="AY11" s="370"/>
-      <c r="AZ11" s="370"/>
-      <c r="BA11" s="370"/>
-      <c r="BB11" s="370"/>
-      <c r="BC11" s="370"/>
-      <c r="BD11" s="370"/>
-      <c r="BE11" s="370"/>
-      <c r="BF11" s="370"/>
-      <c r="BG11" s="370"/>
-      <c r="BH11" s="370"/>
-      <c r="BI11" s="370"/>
-      <c r="BJ11" s="370"/>
-      <c r="BK11" s="371"/>
-    </row>
-    <row r="12" customHeight="1" ht="12">
-      <c r="A12" s="37"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="369"/>
-      <c r="E12" s="370"/>
-      <c r="F12" s="370"/>
-      <c r="G12" s="370"/>
-      <c r="H12" s="370"/>
-      <c r="I12" s="370"/>
-      <c r="J12" s="370"/>
-      <c r="K12" s="370"/>
-      <c r="L12" s="370"/>
-      <c r="M12" s="370"/>
-      <c r="N12" s="370"/>
-      <c r="O12" s="370"/>
-      <c r="P12" s="370"/>
-      <c r="Q12" s="370"/>
-      <c r="R12" s="370"/>
-      <c r="S12" s="370"/>
-      <c r="T12" s="370"/>
-      <c r="U12" s="370"/>
-      <c r="V12" s="370"/>
-      <c r="W12" s="370"/>
-      <c r="X12" s="370"/>
-      <c r="Y12" s="370"/>
-      <c r="Z12" s="370"/>
-      <c r="AA12" s="370"/>
-      <c r="AB12" s="370"/>
-      <c r="AC12" s="370"/>
-      <c r="AD12" s="370"/>
-      <c r="AE12" s="370"/>
-      <c r="AF12" s="370"/>
-      <c r="AG12" s="370"/>
-      <c r="AH12" s="370"/>
-      <c r="AI12" s="370"/>
-      <c r="AJ12" s="370"/>
-      <c r="AK12" s="370"/>
-      <c r="AL12" s="370"/>
-      <c r="AM12" s="370"/>
-      <c r="AN12" s="370"/>
-      <c r="AO12" s="370"/>
-      <c r="AP12" s="370"/>
-      <c r="AQ12" s="370"/>
-      <c r="AR12" s="370"/>
-      <c r="AS12" s="370"/>
-      <c r="AT12" s="370"/>
-      <c r="AU12" s="370"/>
-      <c r="AV12" s="370"/>
-      <c r="AW12" s="370"/>
-      <c r="AX12" s="370"/>
-      <c r="AY12" s="370"/>
-      <c r="AZ12" s="370"/>
-      <c r="BA12" s="370"/>
-      <c r="BB12" s="370"/>
-      <c r="BC12" s="370"/>
-      <c r="BD12" s="370"/>
-      <c r="BE12" s="370"/>
-      <c r="BF12" s="370"/>
-      <c r="BG12" s="370"/>
-      <c r="BH12" s="370"/>
-      <c r="BI12" s="370"/>
-      <c r="BJ12" s="370"/>
-      <c r="BK12" s="371"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="675" t="s">
+        <v>276</v>
+      </c>
+      <c r="D11" s="676"/>
+      <c r="E11" s="676"/>
+      <c r="F11" s="676"/>
+      <c r="G11" s="676"/>
+      <c r="H11" s="676"/>
+      <c r="I11" s="676"/>
+      <c r="J11" s="676"/>
+      <c r="K11" s="676"/>
+      <c r="L11" s="676"/>
+      <c r="M11" s="676"/>
+      <c r="N11" s="676"/>
+      <c r="O11" s="676"/>
+      <c r="P11" s="676"/>
+      <c r="Q11" s="676"/>
+      <c r="R11" s="676"/>
+      <c r="S11" s="676"/>
+      <c r="T11" s="676"/>
+      <c r="U11" s="676"/>
+      <c r="V11" s="676"/>
+      <c r="W11" s="676"/>
+      <c r="X11" s="676"/>
+      <c r="Y11" s="676"/>
+      <c r="Z11" s="676"/>
+      <c r="AA11" s="676"/>
+      <c r="AB11" s="676"/>
+      <c r="AC11" s="676"/>
+      <c r="AD11" s="676"/>
+      <c r="AE11" s="676"/>
+      <c r="AF11" s="676"/>
+      <c r="AG11" s="676"/>
+      <c r="AH11" s="676"/>
+      <c r="AI11" s="676"/>
+      <c r="AJ11" s="676"/>
+      <c r="AK11" s="676"/>
+      <c r="AL11" s="676"/>
+      <c r="AM11" s="676"/>
+      <c r="AN11" s="676"/>
+      <c r="AO11" s="676"/>
+      <c r="AP11" s="676"/>
+      <c r="AQ11" s="676"/>
+      <c r="AR11" s="676"/>
+      <c r="AS11" s="676"/>
+      <c r="AT11" s="676"/>
+      <c r="AU11" s="676"/>
+      <c r="AV11" s="676"/>
+      <c r="AW11" s="676"/>
+      <c r="AX11" s="676"/>
+      <c r="AY11" s="676"/>
+      <c r="AZ11" s="676"/>
+      <c r="BA11" s="676"/>
+      <c r="BB11" s="676"/>
+      <c r="BC11" s="676"/>
+      <c r="BD11" s="676"/>
+      <c r="BE11" s="676"/>
+      <c r="BF11" s="676"/>
+      <c r="BG11" s="676"/>
+      <c r="BH11" s="676"/>
+      <c r="BI11" s="676"/>
+      <c r="BJ11" s="676"/>
+      <c r="BK11" s="677"/>
+      <c r="IQ11" s="24"/>
+      <c r="JX11" s="24"/>
+      <c r="SM11" s="24"/>
+      <c r="TT11" s="24"/>
+      <c r="ACI11" s="24"/>
+      <c r="ADP11" s="24"/>
+      <c r="AME11" s="24"/>
+      <c r="ANL11" s="24"/>
+      <c r="AWA11" s="24"/>
+      <c r="AXH11" s="24"/>
+      <c r="BFW11" s="24"/>
+      <c r="BHD11" s="24"/>
+      <c r="BPS11" s="24"/>
+      <c r="BQZ11" s="24"/>
+      <c r="BZO11" s="24"/>
+      <c r="CAV11" s="24"/>
+      <c r="CJK11" s="24"/>
+      <c r="CKR11" s="24"/>
+      <c r="CTG11" s="24"/>
+      <c r="CUN11" s="24"/>
+      <c r="DDC11" s="24"/>
+      <c r="DEJ11" s="24"/>
+      <c r="DMY11" s="24"/>
+      <c r="DOF11" s="24"/>
+      <c r="DWU11" s="24"/>
+      <c r="DYB11" s="24"/>
+      <c r="EGQ11" s="24"/>
+      <c r="EHX11" s="24"/>
+      <c r="EQM11" s="24"/>
+      <c r="ERT11" s="24"/>
+      <c r="FAI11" s="24"/>
+      <c r="FBP11" s="24"/>
+      <c r="FKE11" s="24"/>
+      <c r="FLL11" s="24"/>
+      <c r="FUA11" s="24"/>
+      <c r="FVH11" s="24"/>
+      <c r="GDW11" s="24"/>
+      <c r="GFD11" s="24"/>
+      <c r="GNS11" s="24"/>
+      <c r="GOZ11" s="24"/>
+      <c r="GXO11" s="24"/>
+      <c r="GYV11" s="24"/>
+      <c r="HHK11" s="24"/>
+      <c r="HIR11" s="24"/>
+      <c r="HRG11" s="24"/>
+      <c r="HSN11" s="24"/>
+      <c r="IBC11" s="24"/>
+      <c r="ICJ11" s="24"/>
+      <c r="IKY11" s="24"/>
+      <c r="IMF11" s="24"/>
+      <c r="IUU11" s="24"/>
+      <c r="IWB11" s="24"/>
+      <c r="JEQ11" s="24"/>
+      <c r="JFX11" s="24"/>
+      <c r="JOM11" s="24"/>
+      <c r="JPT11" s="24"/>
+      <c r="JYI11" s="24"/>
+      <c r="JZP11" s="24"/>
+      <c r="KIE11" s="24"/>
+      <c r="KJL11" s="24"/>
+      <c r="KSA11" s="24"/>
+      <c r="KTH11" s="24"/>
+      <c r="LBW11" s="24"/>
+      <c r="LDD11" s="24"/>
+      <c r="LLS11" s="24"/>
+      <c r="LMZ11" s="24"/>
+      <c r="LVO11" s="24"/>
+      <c r="LWV11" s="24"/>
+      <c r="MFK11" s="24"/>
+      <c r="MGR11" s="24"/>
+      <c r="MPG11" s="24"/>
+      <c r="MQN11" s="24"/>
+      <c r="MZC11" s="24"/>
+      <c r="NAJ11" s="24"/>
+      <c r="NIY11" s="24"/>
+      <c r="NKF11" s="24"/>
+      <c r="NSU11" s="24"/>
+      <c r="NUB11" s="24"/>
+      <c r="OCQ11" s="24"/>
+      <c r="ODX11" s="24"/>
+      <c r="OMM11" s="24"/>
+      <c r="ONT11" s="24"/>
+      <c r="OWI11" s="24"/>
+      <c r="OXP11" s="24"/>
+      <c r="PGE11" s="24"/>
+      <c r="PHL11" s="24"/>
+      <c r="PQA11" s="24"/>
+      <c r="PRH11" s="24"/>
+      <c r="PZW11" s="24"/>
+      <c r="QBD11" s="24"/>
+      <c r="QJS11" s="24"/>
+      <c r="QKZ11" s="24"/>
+      <c r="QTO11" s="24"/>
+      <c r="QUV11" s="24"/>
+      <c r="RDK11" s="24"/>
+      <c r="RER11" s="24"/>
+      <c r="RNG11" s="24"/>
+      <c r="RON11" s="24"/>
+      <c r="RXC11" s="24"/>
+      <c r="RYJ11" s="24"/>
+      <c r="SGY11" s="24"/>
+      <c r="SIF11" s="24"/>
+      <c r="SQU11" s="24"/>
+      <c r="SSB11" s="24"/>
+      <c r="TAQ11" s="24"/>
+      <c r="TBX11" s="24"/>
+      <c r="TKM11" s="24"/>
+      <c r="TLT11" s="24"/>
+      <c r="TUI11" s="24"/>
+      <c r="TVP11" s="24"/>
+      <c r="UEE11" s="24"/>
+      <c r="UFL11" s="24"/>
+      <c r="UOA11" s="24"/>
+      <c r="UPH11" s="24"/>
+      <c r="UXW11" s="24"/>
+      <c r="UZD11" s="24"/>
+      <c r="VHS11" s="24"/>
+      <c r="VIZ11" s="24"/>
+      <c r="VRO11" s="24"/>
+      <c r="VSV11" s="24"/>
+      <c r="WBK11" s="24"/>
+      <c r="WCR11" s="24"/>
+      <c r="WLG11" s="24"/>
+      <c r="WMN11" s="24"/>
+      <c r="WVC11" s="24"/>
+      <c r="WWJ11" s="24"/>
+    </row>
+    <row r="12" customFormat="1" s="627">
+      <c r="A12" s="628"/>
+      <c r="B12" s="630"/>
+      <c r="C12" s="679"/>
+      <c r="D12" s="680"/>
+      <c r="E12" s="680"/>
+      <c r="F12" s="680"/>
+      <c r="G12" s="680"/>
+      <c r="H12" s="680"/>
+      <c r="I12" s="680"/>
+      <c r="J12" s="680"/>
+      <c r="K12" s="680"/>
+      <c r="L12" s="680"/>
+      <c r="M12" s="680"/>
+      <c r="N12" s="680"/>
+      <c r="O12" s="680"/>
+      <c r="P12" s="680"/>
+      <c r="Q12" s="680"/>
+      <c r="R12" s="680"/>
+      <c r="S12" s="680"/>
+      <c r="T12" s="680"/>
+      <c r="U12" s="680"/>
+      <c r="V12" s="680"/>
+      <c r="W12" s="680"/>
+      <c r="X12" s="680"/>
+      <c r="Y12" s="680"/>
+      <c r="Z12" s="680"/>
+      <c r="AA12" s="680"/>
+      <c r="AB12" s="680"/>
+      <c r="AC12" s="680"/>
+      <c r="AD12" s="680"/>
+      <c r="AE12" s="680"/>
+      <c r="AF12" s="680"/>
+      <c r="AG12" s="680"/>
+      <c r="AH12" s="680"/>
+      <c r="AI12" s="680"/>
+      <c r="AJ12" s="680"/>
+      <c r="AK12" s="680"/>
+      <c r="AL12" s="680"/>
+      <c r="AM12" s="680"/>
+      <c r="AN12" s="680"/>
+      <c r="AO12" s="680"/>
+      <c r="AP12" s="680"/>
+      <c r="AQ12" s="680"/>
+      <c r="AR12" s="680"/>
+      <c r="AS12" s="680"/>
+      <c r="AT12" s="680"/>
+      <c r="AU12" s="680"/>
+      <c r="AV12" s="680"/>
+      <c r="AW12" s="680"/>
+      <c r="AX12" s="680"/>
+      <c r="AY12" s="680"/>
+      <c r="AZ12" s="680"/>
+      <c r="BA12" s="680"/>
+      <c r="BB12" s="680"/>
+      <c r="BC12" s="680"/>
+      <c r="BD12" s="680"/>
+      <c r="BE12" s="680"/>
+      <c r="BF12" s="680"/>
+      <c r="BG12" s="680"/>
+      <c r="BH12" s="680"/>
+      <c r="BI12" s="680"/>
+      <c r="BJ12" s="680"/>
+      <c r="BK12" s="681"/>
+      <c r="IQ12" s="627"/>
+      <c r="JX12" s="627"/>
+      <c r="SM12" s="627"/>
+      <c r="TT12" s="627"/>
+      <c r="ACI12" s="627"/>
+      <c r="ADP12" s="627"/>
+      <c r="AME12" s="627"/>
+      <c r="ANL12" s="627"/>
+      <c r="AWA12" s="627"/>
+      <c r="AXH12" s="627"/>
+      <c r="BFW12" s="627"/>
+      <c r="BHD12" s="627"/>
+      <c r="BPS12" s="627"/>
+      <c r="BQZ12" s="627"/>
+      <c r="BZO12" s="627"/>
+      <c r="CAV12" s="627"/>
+      <c r="CJK12" s="627"/>
+      <c r="CKR12" s="627"/>
+      <c r="CTG12" s="627"/>
+      <c r="CUN12" s="627"/>
+      <c r="DDC12" s="627"/>
+      <c r="DEJ12" s="627"/>
+      <c r="DMY12" s="627"/>
+      <c r="DOF12" s="627"/>
+      <c r="DWU12" s="627"/>
+      <c r="DYB12" s="627"/>
+      <c r="EGQ12" s="627"/>
+      <c r="EHX12" s="627"/>
+      <c r="EQM12" s="627"/>
+      <c r="ERT12" s="627"/>
+      <c r="FAI12" s="627"/>
+      <c r="FBP12" s="627"/>
+      <c r="FKE12" s="627"/>
+      <c r="FLL12" s="627"/>
+      <c r="FUA12" s="627"/>
+      <c r="FVH12" s="627"/>
+      <c r="GDW12" s="627"/>
+      <c r="GFD12" s="627"/>
+      <c r="GNS12" s="627"/>
+      <c r="GOZ12" s="627"/>
+      <c r="GXO12" s="627"/>
+      <c r="GYV12" s="627"/>
+      <c r="HHK12" s="627"/>
+      <c r="HIR12" s="627"/>
+      <c r="HRG12" s="627"/>
+      <c r="HSN12" s="627"/>
+      <c r="IBC12" s="627"/>
+      <c r="ICJ12" s="627"/>
+      <c r="IKY12" s="627"/>
+      <c r="IMF12" s="627"/>
+      <c r="IUU12" s="627"/>
+      <c r="IWB12" s="627"/>
+      <c r="JEQ12" s="627"/>
+      <c r="JFX12" s="627"/>
+      <c r="JOM12" s="627"/>
+      <c r="JPT12" s="627"/>
+      <c r="JYI12" s="627"/>
+      <c r="JZP12" s="627"/>
+      <c r="KIE12" s="627"/>
+      <c r="KJL12" s="627"/>
+      <c r="KSA12" s="627"/>
+      <c r="KTH12" s="627"/>
+      <c r="LBW12" s="627"/>
+      <c r="LDD12" s="627"/>
+      <c r="LLS12" s="627"/>
+      <c r="LMZ12" s="627"/>
+      <c r="LVO12" s="627"/>
+      <c r="LWV12" s="627"/>
+      <c r="MFK12" s="627"/>
+      <c r="MGR12" s="627"/>
+      <c r="MPG12" s="627"/>
+      <c r="MQN12" s="627"/>
+      <c r="MZC12" s="627"/>
+      <c r="NAJ12" s="627"/>
+      <c r="NIY12" s="627"/>
+      <c r="NKF12" s="627"/>
+      <c r="NSU12" s="627"/>
+      <c r="NUB12" s="627"/>
+      <c r="OCQ12" s="627"/>
+      <c r="ODX12" s="627"/>
+      <c r="OMM12" s="627"/>
+      <c r="ONT12" s="627"/>
+      <c r="OWI12" s="627"/>
+      <c r="OXP12" s="627"/>
+      <c r="PGE12" s="627"/>
+      <c r="PHL12" s="627"/>
+      <c r="PQA12" s="627"/>
+      <c r="PRH12" s="627"/>
+      <c r="PZW12" s="627"/>
+      <c r="QBD12" s="627"/>
+      <c r="QJS12" s="627"/>
+      <c r="QKZ12" s="627"/>
+      <c r="QTO12" s="627"/>
+      <c r="QUV12" s="627"/>
+      <c r="RDK12" s="627"/>
+      <c r="RER12" s="627"/>
+      <c r="RNG12" s="627"/>
+      <c r="RON12" s="627"/>
+      <c r="RXC12" s="627"/>
+      <c r="RYJ12" s="627"/>
+      <c r="SGY12" s="627"/>
+      <c r="SIF12" s="627"/>
+      <c r="SQU12" s="627"/>
+      <c r="SSB12" s="627"/>
+      <c r="TAQ12" s="627"/>
+      <c r="TBX12" s="627"/>
+      <c r="TKM12" s="627"/>
+      <c r="TLT12" s="627"/>
+      <c r="TUI12" s="627"/>
+      <c r="TVP12" s="627"/>
+      <c r="UEE12" s="627"/>
+      <c r="UFL12" s="627"/>
+      <c r="UOA12" s="627"/>
+      <c r="UPH12" s="627"/>
+      <c r="UXW12" s="627"/>
+      <c r="UZD12" s="627"/>
+      <c r="VHS12" s="627"/>
+      <c r="VIZ12" s="627"/>
+      <c r="VRO12" s="627"/>
+      <c r="VSV12" s="627"/>
+      <c r="WBK12" s="627"/>
+      <c r="WCR12" s="627"/>
+      <c r="WLG12" s="627"/>
+      <c r="WMN12" s="627"/>
+      <c r="WVC12" s="627"/>
+      <c r="WWJ12" s="627"/>
     </row>
     <row r="13" customHeight="1" ht="12">
       <c r="A13" s="37"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="369"/>
-      <c r="E13" s="370"/>
-      <c r="F13" s="370"/>
-      <c r="G13" s="370"/>
-      <c r="H13" s="370"/>
-      <c r="I13" s="370"/>
-      <c r="J13" s="370"/>
-      <c r="K13" s="370"/>
-      <c r="L13" s="370"/>
-      <c r="M13" s="370"/>
-      <c r="N13" s="370"/>
-      <c r="O13" s="370"/>
-      <c r="P13" s="370"/>
-      <c r="Q13" s="370"/>
-      <c r="R13" s="370"/>
-      <c r="S13" s="370"/>
-      <c r="T13" s="370"/>
-      <c r="U13" s="370"/>
-      <c r="V13" s="370"/>
-      <c r="W13" s="370"/>
-      <c r="X13" s="370"/>
-      <c r="Y13" s="370"/>
-      <c r="Z13" s="370"/>
-      <c r="AA13" s="370"/>
-      <c r="AB13" s="370"/>
-      <c r="AC13" s="370"/>
-      <c r="AD13" s="370"/>
-      <c r="AE13" s="370"/>
-      <c r="AF13" s="370"/>
-      <c r="AG13" s="370"/>
-      <c r="AH13" s="370"/>
-      <c r="AI13" s="370"/>
-      <c r="AJ13" s="370"/>
-      <c r="AK13" s="370"/>
-      <c r="AL13" s="370"/>
-      <c r="AM13" s="370"/>
-      <c r="AN13" s="370"/>
-      <c r="AO13" s="370"/>
-      <c r="AP13" s="370"/>
-      <c r="AQ13" s="370"/>
-      <c r="AR13" s="370"/>
-      <c r="AS13" s="370"/>
-      <c r="AT13" s="370"/>
-      <c r="AU13" s="370"/>
-      <c r="AV13" s="370"/>
-      <c r="AW13" s="370"/>
-      <c r="AX13" s="370"/>
-      <c r="AY13" s="370"/>
-      <c r="AZ13" s="370"/>
-      <c r="BA13" s="370"/>
-      <c r="BB13" s="370"/>
-      <c r="BC13" s="370"/>
-      <c r="BD13" s="370"/>
-      <c r="BE13" s="370"/>
-      <c r="BF13" s="370"/>
-      <c r="BG13" s="370"/>
-      <c r="BH13" s="370"/>
-      <c r="BI13" s="370"/>
-      <c r="BJ13" s="370"/>
-      <c r="BK13" s="371"/>
-    </row>
-    <row r="14" customHeight="1" ht="12">
+      <c r="B13" s="41"/>
+      <c r="C13" s="44" t="s">
+        <v>277</v>
+      </c>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="45"/>
+      <c r="T13" s="45"/>
+      <c r="U13" s="45"/>
+      <c r="V13" s="45"/>
+      <c r="W13" s="45"/>
+      <c r="X13" s="45"/>
+      <c r="Y13" s="45"/>
+      <c r="Z13" s="45"/>
+      <c r="AA13" s="45"/>
+      <c r="AB13" s="45"/>
+      <c r="AC13" s="45"/>
+      <c r="AD13" s="45"/>
+      <c r="AE13" s="45"/>
+      <c r="AF13" s="45"/>
+      <c r="AG13" s="45"/>
+      <c r="AH13" s="45"/>
+      <c r="AI13" s="45"/>
+      <c r="AJ13" s="45"/>
+      <c r="AK13" s="45"/>
+      <c r="AL13" s="45"/>
+      <c r="AM13" s="45"/>
+      <c r="AN13" s="45"/>
+      <c r="AO13" s="45"/>
+      <c r="AP13" s="45"/>
+      <c r="AQ13" s="45"/>
+      <c r="AR13" s="45"/>
+      <c r="AS13" s="45"/>
+      <c r="AT13" s="45"/>
+      <c r="AU13" s="45"/>
+      <c r="AV13" s="45"/>
+      <c r="AW13" s="45"/>
+      <c r="AX13" s="45"/>
+      <c r="AY13" s="45"/>
+      <c r="AZ13" s="45"/>
+      <c r="BA13" s="45"/>
+      <c r="BB13" s="45"/>
+      <c r="BC13" s="45"/>
+      <c r="BD13" s="45"/>
+      <c r="BE13" s="45"/>
+      <c r="BF13" s="45"/>
+      <c r="BG13" s="45"/>
+      <c r="BH13" s="45"/>
+      <c r="BI13" s="45"/>
+      <c r="BJ13" s="45"/>
+      <c r="BK13" s="46"/>
+      <c r="IQ13" s="24"/>
+      <c r="JX13" s="24"/>
+      <c r="SM13" s="24"/>
+      <c r="TT13" s="24"/>
+      <c r="ACI13" s="24"/>
+      <c r="ADP13" s="24"/>
+      <c r="AME13" s="24"/>
+      <c r="ANL13" s="24"/>
+      <c r="AWA13" s="24"/>
+      <c r="AXH13" s="24"/>
+      <c r="BFW13" s="24"/>
+      <c r="BHD13" s="24"/>
+      <c r="BPS13" s="24"/>
+      <c r="BQZ13" s="24"/>
+      <c r="BZO13" s="24"/>
+      <c r="CAV13" s="24"/>
+      <c r="CJK13" s="24"/>
+      <c r="CKR13" s="24"/>
+      <c r="CTG13" s="24"/>
+      <c r="CUN13" s="24"/>
+      <c r="DDC13" s="24"/>
+      <c r="DEJ13" s="24"/>
+      <c r="DMY13" s="24"/>
+      <c r="DOF13" s="24"/>
+      <c r="DWU13" s="24"/>
+      <c r="DYB13" s="24"/>
+      <c r="EGQ13" s="24"/>
+      <c r="EHX13" s="24"/>
+      <c r="EQM13" s="24"/>
+      <c r="ERT13" s="24"/>
+      <c r="FAI13" s="24"/>
+      <c r="FBP13" s="24"/>
+      <c r="FKE13" s="24"/>
+      <c r="FLL13" s="24"/>
+      <c r="FUA13" s="24"/>
+      <c r="FVH13" s="24"/>
+      <c r="GDW13" s="24"/>
+      <c r="GFD13" s="24"/>
+      <c r="GNS13" s="24"/>
+      <c r="GOZ13" s="24"/>
+      <c r="GXO13" s="24"/>
+      <c r="GYV13" s="24"/>
+      <c r="HHK13" s="24"/>
+      <c r="HIR13" s="24"/>
+      <c r="HRG13" s="24"/>
+      <c r="HSN13" s="24"/>
+      <c r="IBC13" s="24"/>
+      <c r="ICJ13" s="24"/>
+      <c r="IKY13" s="24"/>
+      <c r="IMF13" s="24"/>
+      <c r="IUU13" s="24"/>
+      <c r="IWB13" s="24"/>
+      <c r="JEQ13" s="24"/>
+      <c r="JFX13" s="24"/>
+      <c r="JOM13" s="24"/>
+      <c r="JPT13" s="24"/>
+      <c r="JYI13" s="24"/>
+      <c r="JZP13" s="24"/>
+      <c r="KIE13" s="24"/>
+      <c r="KJL13" s="24"/>
+      <c r="KSA13" s="24"/>
+      <c r="KTH13" s="24"/>
+      <c r="LBW13" s="24"/>
+      <c r="LDD13" s="24"/>
+      <c r="LLS13" s="24"/>
+      <c r="LMZ13" s="24"/>
+      <c r="LVO13" s="24"/>
+      <c r="LWV13" s="24"/>
+      <c r="MFK13" s="24"/>
+      <c r="MGR13" s="24"/>
+      <c r="MPG13" s="24"/>
+      <c r="MQN13" s="24"/>
+      <c r="MZC13" s="24"/>
+      <c r="NAJ13" s="24"/>
+      <c r="NIY13" s="24"/>
+      <c r="NKF13" s="24"/>
+      <c r="NSU13" s="24"/>
+      <c r="NUB13" s="24"/>
+      <c r="OCQ13" s="24"/>
+      <c r="ODX13" s="24"/>
+      <c r="OMM13" s="24"/>
+      <c r="ONT13" s="24"/>
+      <c r="OWI13" s="24"/>
+      <c r="OXP13" s="24"/>
+      <c r="PGE13" s="24"/>
+      <c r="PHL13" s="24"/>
+      <c r="PQA13" s="24"/>
+      <c r="PRH13" s="24"/>
+      <c r="PZW13" s="24"/>
+      <c r="QBD13" s="24"/>
+      <c r="QJS13" s="24"/>
+      <c r="QKZ13" s="24"/>
+      <c r="QTO13" s="24"/>
+      <c r="QUV13" s="24"/>
+      <c r="RDK13" s="24"/>
+      <c r="RER13" s="24"/>
+      <c r="RNG13" s="24"/>
+      <c r="RON13" s="24"/>
+      <c r="RXC13" s="24"/>
+      <c r="RYJ13" s="24"/>
+      <c r="SGY13" s="24"/>
+      <c r="SIF13" s="24"/>
+      <c r="SQU13" s="24"/>
+      <c r="SSB13" s="24"/>
+      <c r="TAQ13" s="24"/>
+      <c r="TBX13" s="24"/>
+      <c r="TKM13" s="24"/>
+      <c r="TLT13" s="24"/>
+      <c r="TUI13" s="24"/>
+      <c r="TVP13" s="24"/>
+      <c r="UEE13" s="24"/>
+      <c r="UFL13" s="24"/>
+      <c r="UOA13" s="24"/>
+      <c r="UPH13" s="24"/>
+      <c r="UXW13" s="24"/>
+      <c r="UZD13" s="24"/>
+      <c r="VHS13" s="24"/>
+      <c r="VIZ13" s="24"/>
+      <c r="VRO13" s="24"/>
+      <c r="VSV13" s="24"/>
+      <c r="WBK13" s="24"/>
+      <c r="WCR13" s="24"/>
+      <c r="WLG13" s="24"/>
+      <c r="WMN13" s="24"/>
+      <c r="WVC13" s="24"/>
+      <c r="WWJ13" s="24"/>
+    </row>
+    <row r="14">
       <c r="A14" s="37"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="633" t="s">
-        <v>179</v>
-      </c>
-      <c r="E14" s="634"/>
-      <c r="F14" s="634"/>
-      <c r="G14" s="634"/>
-      <c r="H14" s="634"/>
-      <c r="I14" s="634"/>
-      <c r="J14" s="634"/>
-      <c r="K14" s="634"/>
-      <c r="L14" s="634"/>
-      <c r="M14" s="634"/>
-      <c r="N14" s="634"/>
-      <c r="O14" s="634"/>
-      <c r="P14" s="634"/>
-      <c r="Q14" s="634"/>
-      <c r="R14" s="634"/>
-      <c r="S14" s="634"/>
-      <c r="T14" s="634"/>
-      <c r="U14" s="634"/>
-      <c r="V14" s="634"/>
-      <c r="W14" s="634"/>
-      <c r="X14" s="634"/>
-      <c r="Y14" s="634"/>
-      <c r="Z14" s="634"/>
-      <c r="AA14" s="634"/>
-      <c r="AB14" s="634"/>
-      <c r="AC14" s="634"/>
-      <c r="AD14" s="634"/>
-      <c r="AE14" s="634"/>
-      <c r="AF14" s="634"/>
-      <c r="AG14" s="634"/>
-      <c r="AH14" s="634"/>
-      <c r="AI14" s="634"/>
-      <c r="AJ14" s="634"/>
-      <c r="AK14" s="634"/>
-      <c r="AL14" s="634"/>
-      <c r="AM14" s="634"/>
-      <c r="AN14" s="634"/>
-      <c r="AO14" s="634"/>
-      <c r="AP14" s="634"/>
-      <c r="AQ14" s="634"/>
-      <c r="AR14" s="634"/>
-      <c r="AS14" s="634"/>
-      <c r="AT14" s="634"/>
-      <c r="AU14" s="634"/>
-      <c r="AV14" s="634"/>
-      <c r="AW14" s="634"/>
-      <c r="AX14" s="634"/>
-      <c r="AY14" s="634"/>
-      <c r="AZ14" s="634"/>
-      <c r="BA14" s="634"/>
-      <c r="BB14" s="634"/>
-      <c r="BC14" s="634"/>
-      <c r="BD14" s="634"/>
-      <c r="BE14" s="634"/>
-      <c r="BF14" s="634"/>
-      <c r="BG14" s="634"/>
-      <c r="BH14" s="634"/>
-      <c r="BI14" s="634"/>
-      <c r="BJ14" s="634"/>
-      <c r="BK14" s="635"/>
-    </row>
-    <row r="15" customHeight="1" ht="12" customFormat="1" s="78">
-      <c r="A15" s="80"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="375"/>
-      <c r="E15" s="376" t="s">
-        <v>267</v>
-      </c>
-      <c r="F15" s="376"/>
-      <c r="G15" s="376"/>
-      <c r="H15" s="376"/>
-      <c r="I15" s="376"/>
-      <c r="J15" s="376"/>
-      <c r="K15" s="376"/>
-      <c r="L15" s="376"/>
-      <c r="M15" s="376"/>
-      <c r="N15" s="376"/>
-      <c r="O15" s="376"/>
-      <c r="P15" s="376"/>
-      <c r="Q15" s="376"/>
-      <c r="R15" s="376"/>
-      <c r="S15" s="376"/>
-      <c r="T15" s="376"/>
-      <c r="U15" s="376"/>
-      <c r="V15" s="376"/>
-      <c r="W15" s="376"/>
-      <c r="X15" s="376"/>
-      <c r="Y15" s="376"/>
-      <c r="Z15" s="376"/>
-      <c r="AA15" s="376"/>
-      <c r="AB15" s="376"/>
-      <c r="AC15" s="376"/>
-      <c r="AD15" s="376"/>
-      <c r="AE15" s="376"/>
-      <c r="AF15" s="376"/>
-      <c r="AG15" s="376"/>
-      <c r="AH15" s="376"/>
-      <c r="AI15" s="376"/>
-      <c r="AJ15" s="376"/>
-      <c r="AK15" s="376"/>
-      <c r="AL15" s="376"/>
-      <c r="AM15" s="376"/>
-      <c r="AN15" s="376"/>
-      <c r="AO15" s="376"/>
-      <c r="AP15" s="376"/>
-      <c r="AQ15" s="376"/>
-      <c r="AR15" s="376"/>
-      <c r="AS15" s="376"/>
-      <c r="AT15" s="376"/>
-      <c r="AU15" s="376"/>
-      <c r="AV15" s="376"/>
-      <c r="AW15" s="376"/>
-      <c r="AX15" s="376"/>
-      <c r="AY15" s="376"/>
-      <c r="AZ15" s="376"/>
-      <c r="BA15" s="376"/>
-      <c r="BB15" s="376"/>
-      <c r="BC15" s="376"/>
-      <c r="BD15" s="376"/>
-      <c r="BE15" s="376"/>
-      <c r="BF15" s="376"/>
-      <c r="BG15" s="376"/>
-      <c r="BH15" s="376"/>
-      <c r="BI15" s="376"/>
-      <c r="BJ15" s="376"/>
-      <c r="BK15" s="31"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="683" t="s">
+        <v>278</v>
+      </c>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="45"/>
+      <c r="S14" s="45"/>
+      <c r="T14" s="45"/>
+      <c r="U14" s="45"/>
+      <c r="V14" s="45"/>
+      <c r="W14" s="45"/>
+      <c r="X14" s="45"/>
+      <c r="Y14" s="45"/>
+      <c r="Z14" s="45"/>
+      <c r="AA14" s="45"/>
+      <c r="AB14" s="45"/>
+      <c r="AC14" s="45"/>
+      <c r="AD14" s="45"/>
+      <c r="AE14" s="45"/>
+      <c r="AF14" s="45"/>
+      <c r="AG14" s="45"/>
+      <c r="AH14" s="45"/>
+      <c r="AI14" s="45"/>
+      <c r="AJ14" s="45"/>
+      <c r="AK14" s="45"/>
+      <c r="AL14" s="45"/>
+      <c r="AM14" s="45"/>
+      <c r="AN14" s="45"/>
+      <c r="AO14" s="45"/>
+      <c r="AP14" s="45"/>
+      <c r="AQ14" s="45"/>
+      <c r="AR14" s="45"/>
+      <c r="AS14" s="45"/>
+      <c r="AT14" s="45"/>
+      <c r="AU14" s="45"/>
+      <c r="AV14" s="45"/>
+      <c r="AW14" s="45"/>
+      <c r="AX14" s="45"/>
+      <c r="AY14" s="45"/>
+      <c r="AZ14" s="45"/>
+      <c r="BA14" s="45"/>
+      <c r="BB14" s="45"/>
+      <c r="BC14" s="45"/>
+      <c r="BD14" s="45"/>
+      <c r="BE14" s="45"/>
+      <c r="BF14" s="45"/>
+      <c r="BG14" s="45"/>
+      <c r="BH14" s="45"/>
+      <c r="BI14" s="45"/>
+      <c r="BJ14" s="45"/>
+      <c r="BK14" s="46"/>
+      <c r="IQ14" s="24"/>
+      <c r="JX14" s="24"/>
+      <c r="SM14" s="24"/>
+      <c r="TT14" s="24"/>
+      <c r="ACI14" s="24"/>
+      <c r="ADP14" s="24"/>
+      <c r="AME14" s="24"/>
+      <c r="ANL14" s="24"/>
+      <c r="AWA14" s="24"/>
+      <c r="AXH14" s="24"/>
+      <c r="BFW14" s="24"/>
+      <c r="BHD14" s="24"/>
+      <c r="BPS14" s="24"/>
+      <c r="BQZ14" s="24"/>
+      <c r="BZO14" s="24"/>
+      <c r="CAV14" s="24"/>
+      <c r="CJK14" s="24"/>
+      <c r="CKR14" s="24"/>
+      <c r="CTG14" s="24"/>
+      <c r="CUN14" s="24"/>
+      <c r="DDC14" s="24"/>
+      <c r="DEJ14" s="24"/>
+      <c r="DMY14" s="24"/>
+      <c r="DOF14" s="24"/>
+      <c r="DWU14" s="24"/>
+      <c r="DYB14" s="24"/>
+      <c r="EGQ14" s="24"/>
+      <c r="EHX14" s="24"/>
+      <c r="EQM14" s="24"/>
+      <c r="ERT14" s="24"/>
+      <c r="FAI14" s="24"/>
+      <c r="FBP14" s="24"/>
+      <c r="FKE14" s="24"/>
+      <c r="FLL14" s="24"/>
+      <c r="FUA14" s="24"/>
+      <c r="FVH14" s="24"/>
+      <c r="GDW14" s="24"/>
+      <c r="GFD14" s="24"/>
+      <c r="GNS14" s="24"/>
+      <c r="GOZ14" s="24"/>
+      <c r="GXO14" s="24"/>
+      <c r="GYV14" s="24"/>
+      <c r="HHK14" s="24"/>
+      <c r="HIR14" s="24"/>
+      <c r="HRG14" s="24"/>
+      <c r="HSN14" s="24"/>
+      <c r="IBC14" s="24"/>
+      <c r="ICJ14" s="24"/>
+      <c r="IKY14" s="24"/>
+      <c r="IMF14" s="24"/>
+      <c r="IUU14" s="24"/>
+      <c r="IWB14" s="24"/>
+      <c r="JEQ14" s="24"/>
+      <c r="JFX14" s="24"/>
+      <c r="JOM14" s="24"/>
+      <c r="JPT14" s="24"/>
+      <c r="JYI14" s="24"/>
+      <c r="JZP14" s="24"/>
+      <c r="KIE14" s="24"/>
+      <c r="KJL14" s="24"/>
+      <c r="KSA14" s="24"/>
+      <c r="KTH14" s="24"/>
+      <c r="LBW14" s="24"/>
+      <c r="LDD14" s="24"/>
+      <c r="LLS14" s="24"/>
+      <c r="LMZ14" s="24"/>
+      <c r="LVO14" s="24"/>
+      <c r="LWV14" s="24"/>
+      <c r="MFK14" s="24"/>
+      <c r="MGR14" s="24"/>
+      <c r="MPG14" s="24"/>
+      <c r="MQN14" s="24"/>
+      <c r="MZC14" s="24"/>
+      <c r="NAJ14" s="24"/>
+      <c r="NIY14" s="24"/>
+      <c r="NKF14" s="24"/>
+      <c r="NSU14" s="24"/>
+      <c r="NUB14" s="24"/>
+      <c r="OCQ14" s="24"/>
+      <c r="ODX14" s="24"/>
+      <c r="OMM14" s="24"/>
+      <c r="ONT14" s="24"/>
+      <c r="OWI14" s="24"/>
+      <c r="OXP14" s="24"/>
+      <c r="PGE14" s="24"/>
+      <c r="PHL14" s="24"/>
+      <c r="PQA14" s="24"/>
+      <c r="PRH14" s="24"/>
+      <c r="PZW14" s="24"/>
+      <c r="QBD14" s="24"/>
+      <c r="QJS14" s="24"/>
+      <c r="QKZ14" s="24"/>
+      <c r="QTO14" s="24"/>
+      <c r="QUV14" s="24"/>
+      <c r="RDK14" s="24"/>
+      <c r="RER14" s="24"/>
+      <c r="RNG14" s="24"/>
+      <c r="RON14" s="24"/>
+      <c r="RXC14" s="24"/>
+      <c r="RYJ14" s="24"/>
+      <c r="SGY14" s="24"/>
+      <c r="SIF14" s="24"/>
+      <c r="SQU14" s="24"/>
+      <c r="SSB14" s="24"/>
+      <c r="TAQ14" s="24"/>
+      <c r="TBX14" s="24"/>
+      <c r="TKM14" s="24"/>
+      <c r="TLT14" s="24"/>
+      <c r="TUI14" s="24"/>
+      <c r="TVP14" s="24"/>
+      <c r="UEE14" s="24"/>
+      <c r="UFL14" s="24"/>
+      <c r="UOA14" s="24"/>
+      <c r="UPH14" s="24"/>
+      <c r="UXW14" s="24"/>
+      <c r="UZD14" s="24"/>
+      <c r="VHS14" s="24"/>
+      <c r="VIZ14" s="24"/>
+      <c r="VRO14" s="24"/>
+      <c r="VSV14" s="24"/>
+      <c r="WBK14" s="24"/>
+      <c r="WCR14" s="24"/>
+      <c r="WLG14" s="24"/>
+      <c r="WMN14" s="24"/>
+      <c r="WVC14" s="24"/>
+      <c r="WWJ14" s="24"/>
+    </row>
+    <row r="15" customHeight="1" ht="12">
+      <c r="A15" s="37"/>
+      <c r="C15" s="50" t="s">
+        <v>279</v>
+      </c>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="43"/>
+      <c r="R15" s="43"/>
+      <c r="S15" s="43"/>
+      <c r="T15" s="43"/>
+      <c r="U15" s="43"/>
+      <c r="V15" s="43"/>
+      <c r="W15" s="43"/>
+      <c r="X15" s="43"/>
+      <c r="Y15" s="43"/>
+      <c r="Z15" s="43"/>
+      <c r="AA15" s="43"/>
+      <c r="AB15" s="43"/>
+      <c r="AC15" s="43"/>
+      <c r="AD15" s="43"/>
+      <c r="AE15" s="43"/>
+      <c r="AF15" s="43"/>
+      <c r="AG15" s="43"/>
+      <c r="AH15" s="43"/>
+      <c r="AI15" s="43"/>
+      <c r="AJ15" s="43"/>
+      <c r="AK15" s="43"/>
+      <c r="AL15" s="43"/>
+      <c r="AM15" s="43"/>
+      <c r="AN15" s="43"/>
+      <c r="AO15" s="43"/>
+      <c r="AP15" s="43"/>
+      <c r="AQ15" s="43"/>
+      <c r="AR15" s="43"/>
+      <c r="AS15" s="43"/>
+      <c r="AT15" s="43"/>
+      <c r="AU15" s="43"/>
+      <c r="AV15" s="43"/>
+      <c r="AW15" s="43"/>
+      <c r="AX15" s="43"/>
+      <c r="AY15" s="43"/>
+      <c r="AZ15" s="43"/>
+      <c r="BA15" s="43"/>
+      <c r="BB15" s="43"/>
+      <c r="BC15" s="43"/>
+      <c r="BD15" s="43"/>
+      <c r="BE15" s="43"/>
+      <c r="BF15" s="43"/>
+      <c r="BG15" s="43"/>
+      <c r="BH15" s="43"/>
+      <c r="BI15" s="43"/>
+      <c r="BJ15" s="43"/>
+      <c r="BK15" s="51"/>
+      <c r="IQ15" s="24"/>
+      <c r="JX15" s="24"/>
+      <c r="SM15" s="24"/>
+      <c r="TT15" s="24"/>
+      <c r="ACI15" s="24"/>
+      <c r="ADP15" s="24"/>
+      <c r="AME15" s="24"/>
+      <c r="ANL15" s="24"/>
+      <c r="AWA15" s="24"/>
+      <c r="AXH15" s="24"/>
+      <c r="BFW15" s="24"/>
+      <c r="BHD15" s="24"/>
+      <c r="BPS15" s="24"/>
+      <c r="BQZ15" s="24"/>
+      <c r="BZO15" s="24"/>
+      <c r="CAV15" s="24"/>
+      <c r="CJK15" s="24"/>
+      <c r="CKR15" s="24"/>
+      <c r="CTG15" s="24"/>
+      <c r="CUN15" s="24"/>
+      <c r="DDC15" s="24"/>
+      <c r="DEJ15" s="24"/>
+      <c r="DMY15" s="24"/>
+      <c r="DOF15" s="24"/>
+      <c r="DWU15" s="24"/>
+      <c r="DYB15" s="24"/>
+      <c r="EGQ15" s="24"/>
+      <c r="EHX15" s="24"/>
+      <c r="EQM15" s="24"/>
+      <c r="ERT15" s="24"/>
+      <c r="FAI15" s="24"/>
+      <c r="FBP15" s="24"/>
+      <c r="FKE15" s="24"/>
+      <c r="FLL15" s="24"/>
+      <c r="FUA15" s="24"/>
+      <c r="FVH15" s="24"/>
+      <c r="GDW15" s="24"/>
+      <c r="GFD15" s="24"/>
+      <c r="GNS15" s="24"/>
+      <c r="GOZ15" s="24"/>
+      <c r="GXO15" s="24"/>
+      <c r="GYV15" s="24"/>
+      <c r="HHK15" s="24"/>
+      <c r="HIR15" s="24"/>
+      <c r="HRG15" s="24"/>
+      <c r="HSN15" s="24"/>
+      <c r="IBC15" s="24"/>
+      <c r="ICJ15" s="24"/>
+      <c r="IKY15" s="24"/>
+      <c r="IMF15" s="24"/>
+      <c r="IUU15" s="24"/>
+      <c r="IWB15" s="24"/>
+      <c r="JEQ15" s="24"/>
+      <c r="JFX15" s="24"/>
+      <c r="JOM15" s="24"/>
+      <c r="JPT15" s="24"/>
+      <c r="JYI15" s="24"/>
+      <c r="JZP15" s="24"/>
+      <c r="KIE15" s="24"/>
+      <c r="KJL15" s="24"/>
+      <c r="KSA15" s="24"/>
+      <c r="KTH15" s="24"/>
+      <c r="LBW15" s="24"/>
+      <c r="LDD15" s="24"/>
+      <c r="LLS15" s="24"/>
+      <c r="LMZ15" s="24"/>
+      <c r="LVO15" s="24"/>
+      <c r="LWV15" s="24"/>
+      <c r="MFK15" s="24"/>
+      <c r="MGR15" s="24"/>
+      <c r="MPG15" s="24"/>
+      <c r="MQN15" s="24"/>
+      <c r="MZC15" s="24"/>
+      <c r="NAJ15" s="24"/>
+      <c r="NIY15" s="24"/>
+      <c r="NKF15" s="24"/>
+      <c r="NSU15" s="24"/>
+      <c r="NUB15" s="24"/>
+      <c r="OCQ15" s="24"/>
+      <c r="ODX15" s="24"/>
+      <c r="OMM15" s="24"/>
+      <c r="ONT15" s="24"/>
+      <c r="OWI15" s="24"/>
+      <c r="OXP15" s="24"/>
+      <c r="PGE15" s="24"/>
+      <c r="PHL15" s="24"/>
+      <c r="PQA15" s="24"/>
+      <c r="PRH15" s="24"/>
+      <c r="PZW15" s="24"/>
+      <c r="QBD15" s="24"/>
+      <c r="QJS15" s="24"/>
+      <c r="QKZ15" s="24"/>
+      <c r="QTO15" s="24"/>
+      <c r="QUV15" s="24"/>
+      <c r="RDK15" s="24"/>
+      <c r="RER15" s="24"/>
+      <c r="RNG15" s="24"/>
+      <c r="RON15" s="24"/>
+      <c r="RXC15" s="24"/>
+      <c r="RYJ15" s="24"/>
+      <c r="SGY15" s="24"/>
+      <c r="SIF15" s="24"/>
+      <c r="SQU15" s="24"/>
+      <c r="SSB15" s="24"/>
+      <c r="TAQ15" s="24"/>
+      <c r="TBX15" s="24"/>
+      <c r="TKM15" s="24"/>
+      <c r="TLT15" s="24"/>
+      <c r="TUI15" s="24"/>
+      <c r="TVP15" s="24"/>
+      <c r="UEE15" s="24"/>
+      <c r="UFL15" s="24"/>
+      <c r="UOA15" s="24"/>
+      <c r="UPH15" s="24"/>
+      <c r="UXW15" s="24"/>
+      <c r="UZD15" s="24"/>
+      <c r="VHS15" s="24"/>
+      <c r="VIZ15" s="24"/>
+      <c r="VRO15" s="24"/>
+      <c r="VSV15" s="24"/>
+      <c r="WBK15" s="24"/>
+      <c r="WCR15" s="24"/>
+      <c r="WLG15" s="24"/>
+      <c r="WMN15" s="24"/>
+      <c r="WVC15" s="24"/>
+      <c r="WWJ15" s="24"/>
     </row>
     <row r="16">
-      <c r="D16" s="375"/>
-      <c r="E16" s="376" t="s">
-        <v>271</v>
-      </c>
-      <c r="F16" s="376"/>
-      <c r="G16" s="376"/>
-      <c r="H16" s="376"/>
-      <c r="I16" s="376"/>
-      <c r="J16" s="376"/>
-      <c r="K16" s="376"/>
-      <c r="L16" s="376"/>
-      <c r="M16" s="376"/>
-      <c r="N16" s="376"/>
-      <c r="O16" s="376"/>
-      <c r="P16" s="376"/>
-      <c r="Q16" s="376"/>
-      <c r="R16" s="376"/>
-      <c r="S16" s="376"/>
-      <c r="T16" s="376"/>
-      <c r="U16" s="376"/>
-      <c r="V16" s="376"/>
-      <c r="W16" s="376"/>
-      <c r="X16" s="376"/>
-      <c r="Y16" s="376"/>
-      <c r="Z16" s="376"/>
-      <c r="AA16" s="376"/>
-      <c r="AB16" s="376"/>
-      <c r="AC16" s="376"/>
-      <c r="AD16" s="376"/>
-      <c r="AE16" s="376"/>
-      <c r="AF16" s="376"/>
-      <c r="AG16" s="376"/>
-      <c r="AH16" s="376"/>
-      <c r="AI16" s="376"/>
-      <c r="AJ16" s="376"/>
-      <c r="AK16" s="376"/>
-      <c r="AL16" s="376"/>
-      <c r="AM16" s="376"/>
-      <c r="AN16" s="376"/>
-      <c r="AO16" s="376"/>
-      <c r="AP16" s="376"/>
-      <c r="AQ16" s="376"/>
-      <c r="AR16" s="376"/>
-      <c r="AS16" s="376"/>
-      <c r="AT16" s="376"/>
-      <c r="AU16" s="376"/>
-      <c r="AV16" s="376"/>
-      <c r="AW16" s="376"/>
-      <c r="AX16" s="376"/>
-      <c r="AY16" s="376"/>
-      <c r="AZ16" s="376"/>
-      <c r="BA16" s="376"/>
-      <c r="BB16" s="376"/>
-      <c r="BC16" s="376"/>
-      <c r="BD16" s="376"/>
-      <c r="BE16" s="376"/>
-      <c r="BF16" s="376"/>
-      <c r="BG16" s="376"/>
-      <c r="BH16" s="376"/>
-      <c r="BI16" s="376"/>
-      <c r="BJ16" s="376"/>
-      <c r="BK16" s="377"/>
-    </row>
-    <row r="17">
-      <c r="D17" s="378"/>
-      <c r="E17" s="379"/>
-      <c r="F17" s="379"/>
-      <c r="G17" s="379"/>
-      <c r="H17" s="379"/>
-      <c r="I17" s="379"/>
-      <c r="J17" s="379"/>
-      <c r="K17" s="379"/>
-      <c r="L17" s="379"/>
-      <c r="M17" s="379"/>
-      <c r="N17" s="379"/>
-      <c r="O17" s="379"/>
-      <c r="P17" s="379"/>
-      <c r="Q17" s="379"/>
-      <c r="R17" s="379"/>
-      <c r="S17" s="379"/>
-      <c r="T17" s="379"/>
-      <c r="U17" s="379"/>
-      <c r="V17" s="379"/>
-      <c r="W17" s="379"/>
-      <c r="X17" s="379"/>
-      <c r="Y17" s="379"/>
-      <c r="Z17" s="379"/>
-      <c r="AA17" s="379"/>
-      <c r="AB17" s="379"/>
-      <c r="AC17" s="379"/>
-      <c r="AD17" s="379"/>
-      <c r="AE17" s="379"/>
-      <c r="AF17" s="379"/>
-      <c r="AG17" s="379"/>
-      <c r="AH17" s="379"/>
-      <c r="AI17" s="379"/>
-      <c r="AJ17" s="379"/>
-      <c r="AK17" s="379"/>
-      <c r="AL17" s="379"/>
-      <c r="AM17" s="379"/>
-      <c r="AN17" s="379"/>
-      <c r="AO17" s="379"/>
-      <c r="AP17" s="379"/>
-      <c r="AQ17" s="379"/>
-      <c r="AR17" s="379"/>
-      <c r="AS17" s="379"/>
-      <c r="AT17" s="379"/>
-      <c r="AU17" s="379"/>
-      <c r="AV17" s="379"/>
-      <c r="AW17" s="379"/>
-      <c r="AX17" s="379"/>
-      <c r="AY17" s="379"/>
-      <c r="AZ17" s="379"/>
-      <c r="BA17" s="379"/>
-      <c r="BB17" s="379"/>
-      <c r="BC17" s="379"/>
-      <c r="BD17" s="379"/>
-      <c r="BE17" s="379"/>
-      <c r="BF17" s="379"/>
-      <c r="BG17" s="379"/>
-      <c r="BH17" s="379"/>
-      <c r="BI17" s="379"/>
-      <c r="BJ17" s="379"/>
-      <c r="BK17" s="380"/>
+      <c r="A16" s="37"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="53"/>
+      <c r="Q16" s="53"/>
+      <c r="R16" s="53"/>
+      <c r="S16" s="53"/>
+      <c r="T16" s="53"/>
+      <c r="U16" s="53"/>
+      <c r="V16" s="53"/>
+      <c r="W16" s="53"/>
+      <c r="X16" s="53"/>
+      <c r="Y16" s="53"/>
+      <c r="Z16" s="53"/>
+      <c r="AA16" s="53"/>
+      <c r="AB16" s="53"/>
+      <c r="AC16" s="53"/>
+      <c r="AD16" s="53"/>
+      <c r="AE16" s="53"/>
+      <c r="AF16" s="53"/>
+      <c r="AG16" s="53"/>
+      <c r="AH16" s="53"/>
+      <c r="AI16" s="53"/>
+      <c r="AJ16" s="53"/>
+      <c r="AK16" s="53"/>
+      <c r="AL16" s="53"/>
+      <c r="AM16" s="53"/>
+      <c r="AN16" s="53"/>
+      <c r="AO16" s="53"/>
+      <c r="AP16" s="53"/>
+      <c r="AQ16" s="53"/>
+      <c r="AR16" s="53"/>
+      <c r="AS16" s="53"/>
+      <c r="AT16" s="53"/>
+      <c r="AU16" s="53"/>
+      <c r="AV16" s="53"/>
+      <c r="AW16" s="53"/>
+      <c r="AX16" s="53"/>
+      <c r="AY16" s="53"/>
+      <c r="AZ16" s="53"/>
+      <c r="BA16" s="53"/>
+      <c r="BB16" s="53"/>
+      <c r="BC16" s="53"/>
+      <c r="BD16" s="53"/>
+      <c r="BE16" s="53"/>
+      <c r="BF16" s="53"/>
+      <c r="BG16" s="53"/>
+      <c r="BH16" s="53"/>
+      <c r="BI16" s="53"/>
+      <c r="BJ16" s="53"/>
+      <c r="BK16" s="54"/>
+      <c r="IQ16" s="24"/>
+      <c r="JX16" s="24"/>
+      <c r="SM16" s="24"/>
+      <c r="TT16" s="24"/>
+      <c r="ACI16" s="24"/>
+      <c r="ADP16" s="24"/>
+      <c r="AME16" s="24"/>
+      <c r="ANL16" s="24"/>
+      <c r="AWA16" s="24"/>
+      <c r="AXH16" s="24"/>
+      <c r="BFW16" s="24"/>
+      <c r="BHD16" s="24"/>
+      <c r="BPS16" s="24"/>
+      <c r="BQZ16" s="24"/>
+      <c r="BZO16" s="24"/>
+      <c r="CAV16" s="24"/>
+      <c r="CJK16" s="24"/>
+      <c r="CKR16" s="24"/>
+      <c r="CTG16" s="24"/>
+      <c r="CUN16" s="24"/>
+      <c r="DDC16" s="24"/>
+      <c r="DEJ16" s="24"/>
+      <c r="DMY16" s="24"/>
+      <c r="DOF16" s="24"/>
+      <c r="DWU16" s="24"/>
+      <c r="DYB16" s="24"/>
+      <c r="EGQ16" s="24"/>
+      <c r="EHX16" s="24"/>
+      <c r="EQM16" s="24"/>
+      <c r="ERT16" s="24"/>
+      <c r="FAI16" s="24"/>
+      <c r="FBP16" s="24"/>
+      <c r="FKE16" s="24"/>
+      <c r="FLL16" s="24"/>
+      <c r="FUA16" s="24"/>
+      <c r="FVH16" s="24"/>
+      <c r="GDW16" s="24"/>
+      <c r="GFD16" s="24"/>
+      <c r="GNS16" s="24"/>
+      <c r="GOZ16" s="24"/>
+      <c r="GXO16" s="24"/>
+      <c r="GYV16" s="24"/>
+      <c r="HHK16" s="24"/>
+      <c r="HIR16" s="24"/>
+      <c r="HRG16" s="24"/>
+      <c r="HSN16" s="24"/>
+      <c r="IBC16" s="24"/>
+      <c r="ICJ16" s="24"/>
+      <c r="IKY16" s="24"/>
+      <c r="IMF16" s="24"/>
+      <c r="IUU16" s="24"/>
+      <c r="IWB16" s="24"/>
+      <c r="JEQ16" s="24"/>
+      <c r="JFX16" s="24"/>
+      <c r="JOM16" s="24"/>
+      <c r="JPT16" s="24"/>
+      <c r="JYI16" s="24"/>
+      <c r="JZP16" s="24"/>
+      <c r="KIE16" s="24"/>
+      <c r="KJL16" s="24"/>
+      <c r="KSA16" s="24"/>
+      <c r="KTH16" s="24"/>
+      <c r="LBW16" s="24"/>
+      <c r="LDD16" s="24"/>
+      <c r="LLS16" s="24"/>
+      <c r="LMZ16" s="24"/>
+      <c r="LVO16" s="24"/>
+      <c r="LWV16" s="24"/>
+      <c r="MFK16" s="24"/>
+      <c r="MGR16" s="24"/>
+      <c r="MPG16" s="24"/>
+      <c r="MQN16" s="24"/>
+      <c r="MZC16" s="24"/>
+      <c r="NAJ16" s="24"/>
+      <c r="NIY16" s="24"/>
+      <c r="NKF16" s="24"/>
+      <c r="NSU16" s="24"/>
+      <c r="NUB16" s="24"/>
+      <c r="OCQ16" s="24"/>
+      <c r="ODX16" s="24"/>
+      <c r="OMM16" s="24"/>
+      <c r="ONT16" s="24"/>
+      <c r="OWI16" s="24"/>
+      <c r="OXP16" s="24"/>
+      <c r="PGE16" s="24"/>
+      <c r="PHL16" s="24"/>
+      <c r="PQA16" s="24"/>
+      <c r="PRH16" s="24"/>
+      <c r="PZW16" s="24"/>
+      <c r="QBD16" s="24"/>
+      <c r="QJS16" s="24"/>
+      <c r="QKZ16" s="24"/>
+      <c r="QTO16" s="24"/>
+      <c r="QUV16" s="24"/>
+      <c r="RDK16" s="24"/>
+      <c r="RER16" s="24"/>
+      <c r="RNG16" s="24"/>
+      <c r="RON16" s="24"/>
+      <c r="RXC16" s="24"/>
+      <c r="RYJ16" s="24"/>
+      <c r="SGY16" s="24"/>
+      <c r="SIF16" s="24"/>
+      <c r="SQU16" s="24"/>
+      <c r="SSB16" s="24"/>
+      <c r="TAQ16" s="24"/>
+      <c r="TBX16" s="24"/>
+      <c r="TKM16" s="24"/>
+      <c r="TLT16" s="24"/>
+      <c r="TUI16" s="24"/>
+      <c r="TVP16" s="24"/>
+      <c r="UEE16" s="24"/>
+      <c r="UFL16" s="24"/>
+      <c r="UOA16" s="24"/>
+      <c r="UPH16" s="24"/>
+      <c r="UXW16" s="24"/>
+      <c r="UZD16" s="24"/>
+      <c r="VHS16" s="24"/>
+      <c r="VIZ16" s="24"/>
+      <c r="VRO16" s="24"/>
+      <c r="VSV16" s="24"/>
+      <c r="WBK16" s="24"/>
+      <c r="WCR16" s="24"/>
+      <c r="WLG16" s="24"/>
+      <c r="WMN16" s="24"/>
+      <c r="WVC16" s="24"/>
+      <c r="WWJ16" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="24">
     <mergeCell ref="A2:Z3"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="G4:N4"/>
@@ -11363,13 +13211,10 @@
     <mergeCell ref="AN6:AP6"/>
     <mergeCell ref="AQ6:BB6"/>
     <mergeCell ref="BC6:BK6"/>
-    <mergeCell ref="D7:BK7"/>
-    <mergeCell ref="D8:BK8"/>
-    <mergeCell ref="D9:BK9"/>
-    <mergeCell ref="D10:BK10"/>
-    <mergeCell ref="D11:BK11"/>
-    <mergeCell ref="D12:BK12"/>
-    <mergeCell ref="D14:BK14"/>
+    <mergeCell ref="C7:BK7"/>
+    <mergeCell ref="C9:BK9"/>
+    <mergeCell ref="C11:BK11"/>
+    <mergeCell ref="C13:BK13"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11381,7 +13226,7 @@
   <dimension ref="A1:BN36"/>
   <sheetViews>
     <sheetView showGridLines="false" zoomScale="120" zoomScaleNormal="120" workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="AU24" sqref="AU24" activeCellId="0"/>
+      <selection activeCell="AB20" sqref="AB20" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="11.25" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12047,7 +13892,7 @@
       </c>
       <c r="R8" s="86"/>
       <c r="S8" s="271" t="s">
-        <v>228</v>
+        <v>95</v>
       </c>
       <c r="T8" s="273"/>
       <c r="U8" s="276" t="s">
@@ -12155,7 +14000,7 @@
       </c>
       <c r="R9" s="86"/>
       <c r="S9" s="271" t="s">
-        <v>228</v>
+        <v>95</v>
       </c>
       <c r="T9" s="273"/>
       <c r="U9" s="276" t="s">
@@ -12241,7 +14086,7 @@
       </c>
       <c r="R10" s="86"/>
       <c r="S10" s="290" t="s">
-        <v>228</v>
+        <v>95</v>
       </c>
       <c r="T10" s="291"/>
       <c r="U10" s="276" t="s">
@@ -12327,7 +14172,7 @@
       </c>
       <c r="R11" s="86"/>
       <c r="S11" s="290" t="s">
-        <v>228</v>
+        <v>95</v>
       </c>
       <c r="T11" s="291"/>
       <c r="U11" s="276" t="s">
@@ -12413,7 +14258,7 @@
         <v>8</v>
       </c>
       <c r="S12" s="290" t="s">
-        <v>228</v>
+        <v>95</v>
       </c>
       <c r="T12" s="291"/>
       <c r="U12" s="276" t="s">
@@ -12499,7 +14344,7 @@
         <v>8</v>
       </c>
       <c r="S13" s="290" t="s">
-        <v>228</v>
+        <v>95</v>
       </c>
       <c r="T13" s="291"/>
       <c r="U13" s="276" t="s">
@@ -12585,7 +14430,7 @@
         <v>147</v>
       </c>
       <c r="S14" s="290" t="s">
-        <v>228</v>
+        <v>95</v>
       </c>
       <c r="T14" s="291"/>
       <c r="U14" s="276" t="s">
@@ -12671,7 +14516,7 @@
         <v>147</v>
       </c>
       <c r="S15" s="290" t="s">
-        <v>228</v>
+        <v>95</v>
       </c>
       <c r="T15" s="291"/>
       <c r="U15" s="276" t="s">
@@ -12757,7 +14602,7 @@
         <v>0</v>
       </c>
       <c r="S16" s="290" t="s">
-        <v>228</v>
+        <v>95</v>
       </c>
       <c r="T16" s="291"/>
       <c r="U16" s="276" t="s">
@@ -12843,7 +14688,7 @@
         <v>8</v>
       </c>
       <c r="S17" s="290" t="s">
-        <v>228</v>
+        <v>95</v>
       </c>
       <c r="T17" s="298"/>
       <c r="U17" s="276" t="s">
@@ -12854,7 +14699,9 @@
         <v>64</v>
       </c>
       <c r="X17" s="273"/>
-      <c r="Y17" s="271"/>
+      <c r="Y17" s="271" t="s">
+        <v>65</v>
+      </c>
       <c r="Z17" s="272"/>
       <c r="AA17" s="272"/>
       <c r="AB17" s="273"/>
@@ -12929,7 +14776,7 @@
         <v>8</v>
       </c>
       <c r="S18" s="290" t="s">
-        <v>228</v>
+        <v>95</v>
       </c>
       <c r="T18" s="298"/>
       <c r="U18" s="276" t="s">
@@ -12940,7 +14787,9 @@
         <v>64</v>
       </c>
       <c r="X18" s="273"/>
-      <c r="Y18" s="271"/>
+      <c r="Y18" s="271" t="s">
+        <v>65</v>
+      </c>
       <c r="Z18" s="272"/>
       <c r="AA18" s="272"/>
       <c r="AB18" s="273"/>
@@ -13056,7 +14905,7 @@
       <c r="B35" s="302"/>
     </row>
   </sheetData>
-  <mergeCells count="135">
+  <mergeCells count="136">
     <mergeCell ref="A2:AA3"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="G4:O4"/>
@@ -13184,6 +15033,7 @@
     <mergeCell ref="S18:T18"/>
     <mergeCell ref="U18:V18"/>
     <mergeCell ref="W18:X18"/>
+    <mergeCell ref="Y18:AB18"/>
     <mergeCell ref="AC18:AG18"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A30:B30"/>
@@ -13202,8 +15052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F483F54A-5AD5-4BFC-9283-BB80624954B3}">
   <dimension ref="A1:BN14"/>
   <sheetViews>
-    <sheetView showGridLines="false" workbookViewId="0" topLeftCell="A1" zoomScale="120" zoomScaleNormal="120">
-      <selection activeCell="AW12" sqref="AW12:AX12" activeCellId="0"/>
+    <sheetView showGridLines="false" workbookViewId="0" topLeftCell="A1" zoomScale="120" zoomScaleNormal="120" tabSelected="1">
+      <selection activeCell="AX15" sqref="AX15" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13627,9 +15477,8 @@
       <c r="D5" s="207"/>
       <c r="E5" s="207"/>
       <c r="F5" s="208"/>
-      <c r="G5" s="209" t="str">
-        <f>[1]画面レイアウト!G5</f>
-        <v>P005</v>
+      <c r="G5" s="209" t="s">
+        <v>17</v>
       </c>
       <c r="H5" s="209"/>
       <c r="I5" s="209"/>
@@ -13894,4 +15743,100 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection activeCell="J19" activeCellId="0" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customHeight="1" ht="12">
+      <c r="A1" s="116" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="116"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+    </row>
+    <row r="3" customHeight="1" ht="24" customFormat="1" s="655">
+      <c r="A3" s="656" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="657"/>
+      <c r="C3" s="658" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="659"/>
+      <c r="E3" s="660" t="s">
+        <v>170</v>
+      </c>
+      <c r="F3" s="661"/>
+      <c r="G3" s="662" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="663">
+        <v>45069</v>
+      </c>
+      <c r="I3" s="662" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="673" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" ht="18" customFormat="1" s="655">
+      <c r="A4" s="664" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="665"/>
+      <c r="C4" s="666" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="666"/>
+      <c r="E4" s="667"/>
+      <c r="F4" s="668"/>
+      <c r="G4" s="671" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="672"/>
+      <c r="I4" s="671" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="674"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/DOC/基本設計/基本設計_emsm_基本給管理リスト.xlsx
+++ b/DOC/基本設計/基本設計_emsm_基本給管理リスト.xlsx
@@ -1020,12 +1020,21 @@
   <si>
     <t>　１）画面初期表示の時社員のセレクトボックス、検索ボタンと新規追加ボタンが出ます。</t>
   </si>
+  <si>
+    <t>HJHJHJK</t>
+  </si>
+  <si>
+    <t>HJHJHJKNJKNJ</t>
+  </si>
+  <si>
+    <t>メニュー画面：機能情報テーブルに定義した画面</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="125" x14ac:knownFonts="1">
+  <fonts count="143" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1796,6 +1805,114 @@
       <charset val="128"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Meiryo UI"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Meiryo UI"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <name val="Yu Gothic UI"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Yu Gothic UI"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="ＭＳ ゴシック"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="ＭＳ ゴシック"/>
+      <color theme="1"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="游ゴシック"/>
+      <color theme="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="游ゴシック"/>
+      <color theme="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <color theme="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="ＭＳ ゴシック"/>
+      <color theme="1"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="ＭＳ ゴシック"/>
+      <color theme="1"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ ゴシック"/>
+      <color theme="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="游ゴシック"/>
+      <color rgb="FF000000"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="ＭＳ ゴシック"/>
+      <color rgb="FF000000"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ ゴシック"/>
+      <color rgb="FF000000"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="ＭＳ ゴシック"/>
+      <color theme="1"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="ＭＳ ゴシック"/>
+      <color rgb="FF000000"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ ゴシック"/>
+      <color rgb="FF000000"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1843,7 +1960,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="230">
+  <borders count="256">
     <border>
       <left/>
       <right/>
@@ -4729,13 +4846,428 @@
         <color rgb="FF000000"/>
       </diagonal>
     </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="dotted">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="dotted">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="691">
+  <cellXfs count="779">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6813,6 +7345,270 @@
       <alignment wrapText="1" vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="123" applyFont="1" fillId="0" applyFill="1" borderId="229" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="130" applyFont="1" fillId="0" applyFill="1" borderId="230" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="130" applyFont="1" fillId="0" applyFill="1" borderId="231" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="131" applyFont="1" fillId="0" applyFill="1" borderId="232" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="132" applyFont="1" fillId="0" applyFill="1" borderId="23" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="133" applyFont="1" fillId="0" applyFill="1" borderId="233" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="133" applyFont="1" fillId="0" applyFill="1" borderId="234" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="133" applyFont="1" fillId="0" applyFill="1" borderId="235" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="133" applyFont="1" fillId="0" applyFill="1" borderId="236" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="133" applyFont="1" fillId="0" applyFill="1" borderId="237" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="133" applyFont="1" fillId="0" applyFill="1" borderId="238" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="131" applyFont="1" fillId="0" applyFill="1" borderId="239" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="130" applyFont="1" fillId="0" applyFill="1" borderId="240" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" applyNumberFormat="1" fontId="130" applyFont="1" fillId="0" applyFill="1" borderId="232" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" applyNumberFormat="1" fontId="130" applyFont="1" fillId="0" applyFill="1" borderId="241" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="130" applyFont="1" fillId="0" applyFill="1" borderId="242" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="133" applyFont="1" fillId="3" applyFill="1" borderId="233" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="133" applyFont="1" fillId="3" applyFill="1" borderId="234" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="133" applyFont="1" fillId="3" applyFill="1" borderId="235" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="133" applyFont="1" fillId="3" applyFill="1" borderId="236" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="133" applyFont="1" fillId="3" applyFill="1" borderId="237" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="133" applyFont="1" fillId="3" applyFill="1" borderId="238" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="136" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="130" applyFont="1" fillId="0" applyFill="1" borderId="240" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="130" applyFont="1" fillId="0" applyFill="1" borderId="232" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="130" applyFont="1" fillId="0" applyFill="1" borderId="241" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="197" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="163" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="197" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="136" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="164" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="164" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="162" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="163" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="133" applyFont="1" fillId="3" applyFill="1" borderId="243" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="130" applyFont="1" fillId="0" applyFill="1" borderId="240" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="130" applyFont="1" fillId="0" applyFill="1" borderId="232" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="130" applyFont="1" fillId="0" applyFill="1" borderId="232" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="130" applyFont="1" fillId="0" applyFill="1" borderId="231" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="131" applyFont="1" fillId="0" applyFill="1" borderId="232" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="133" applyFont="1" fillId="3" applyFill="1" borderId="240" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="133" applyFont="1" fillId="3" applyFill="1" borderId="232" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="133" applyFont="1" fillId="3" applyFill="1" borderId="241" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="133" applyFont="1" fillId="0" applyFill="1" borderId="234" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="134" applyFont="1" fillId="0" applyFill="1" borderId="231" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="133" applyFont="1" fillId="0" applyFill="1" borderId="232" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="133" applyFont="1" fillId="0" applyFill="1" borderId="241" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="134" applyFont="1" fillId="0" applyFill="1" borderId="240" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="134" applyFont="1" fillId="0" applyFill="1" borderId="232" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="134" applyFont="1" fillId="0" applyFill="1" borderId="244" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" applyNumberFormat="1" fontId="134" applyFont="1" fillId="0" applyFill="1" borderId="232" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="133" applyFont="1" fillId="0" applyFill="1" borderId="232" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="133" applyFont="1" fillId="0" applyFill="1" borderId="241" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="135" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="136" applyFont="1" fillId="0" applyFill="1" borderId="13" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="136" applyFont="1" fillId="0" applyFill="1" borderId="14" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="135" applyFont="1" fillId="0" applyFill="1" borderId="245" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="137" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="137" applyFont="1" fillId="3" applyFill="1" borderId="137" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="138" applyFont="1" fillId="3" applyFill="1" borderId="137" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="139" applyFont="1" fillId="3" applyFill="1" borderId="243" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="134" applyFont="1" fillId="0" applyFill="1" borderId="240" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="134" applyFont="1" fillId="0" applyFill="1" borderId="232" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="134" applyFont="1" fillId="0" applyFill="1" borderId="244" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="134" applyFont="1" fillId="0" applyFill="1" borderId="241" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="134" applyFont="1" fillId="0" applyFill="1" borderId="231" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="133" applyFont="1" fillId="0" applyFill="1" borderId="246" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="133" applyFont="1" fillId="0" applyFill="1" borderId="247" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="134" applyFont="1" fillId="0" applyFill="1" borderId="248" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="134" applyFont="1" fillId="0" applyFill="1" borderId="246" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="134" applyFont="1" fillId="0" applyFill="1" borderId="249" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="140" applyFont="1" fillId="0" applyFill="1" borderId="250" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="135" applyFont="1" fillId="0" applyFill="1" borderId="125" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="140" applyFont="1" fillId="0" applyFill="1" borderId="251" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="140" applyFont="1" fillId="0" applyFill="1" borderId="252" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="140" applyFont="1" fillId="5" applyFill="1" borderId="124" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="140" applyFont="1" fillId="5" applyFill="1" borderId="125" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="140" applyFont="1" fillId="0" applyFill="1" borderId="124" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment shrinkToFit="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="140" applyFont="1" fillId="0" applyFill="1" borderId="98" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment shrinkToFit="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="140" applyFont="1" fillId="0" applyFill="1" borderId="98" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="140" applyFont="1" fillId="0" applyFill="1" borderId="125" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="140" applyFont="1" fillId="0" applyFill="1" borderId="124" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="141" applyFont="1" fillId="0" applyFill="1" borderId="253" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="141" applyFont="1" fillId="0" applyFill="1" borderId="254" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="141" applyFont="1" fillId="0" applyFill="1" borderId="255" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="142" applyFont="1" fillId="5" applyFill="1" borderId="124" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="140" applyFont="1" fillId="5" applyFill="1" borderId="98" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="141" applyFont="1" fillId="8" applyFill="1" borderId="3" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="142" applyFont="1" fillId="5" applyFill="1" borderId="98" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment wrapText="1" vertical="center" horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6843,8 +7639,8 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="6096000" cy="3438525"/>
     <xdr:pic>
@@ -6863,7 +7659,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="66675" y="971550"/>
+          <a:off x="66675" y="571500"/>
           <a:ext cx="6096000" cy="3438525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6876,9 +7672,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="6096000" cy="981075"/>
     <xdr:pic>
@@ -6897,7 +7693,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="47625" y="4381500"/>
+          <a:off x="28575" y="4010025"/>
           <a:ext cx="6096000" cy="981075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6932,7 +7728,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="228600" y="1238250"/>
+          <a:off x="228600" y="1228725"/>
           <a:ext cx="1600200" cy="1047750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7034,7 +7830,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="352425" y="1543050"/>
+          <a:off x="352425" y="1533525"/>
           <a:ext cx="485775" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7093,7 +7889,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="323850" y="1943100"/>
+          <a:off x="323850" y="1933575"/>
           <a:ext cx="523875" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -7122,16 +7918,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7140,7 +7936,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1371600" y="3171825"/>
+          <a:off x="133350" y="3314700"/>
           <a:ext cx="1228725" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7184,16 +7980,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -7202,7 +7998,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2609850" y="3352800"/>
+          <a:off x="1371600" y="3514725"/>
           <a:ext cx="1781175" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -7231,16 +8027,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7249,7 +8045,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4419600" y="3162300"/>
+          <a:off x="3171825" y="3362325"/>
           <a:ext cx="1285875" cy="409575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7293,16 +8089,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7311,7 +8107,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2762250" y="2819400"/>
+          <a:off x="1638300" y="3048000"/>
           <a:ext cx="1390650" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8621,8 +9417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF7E19B7-31DE-4E95-B92B-26CE81A60D0C}">
   <dimension ref="A1:BN33"/>
   <sheetViews>
-    <sheetView showGridLines="false" topLeftCell="Z1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:N2" activeCellId="0"/>
+    <sheetView showGridLines="false" topLeftCell="A1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="AY29" sqref="AY29" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="11.25" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8824,7 +9620,7 @@
     <col min="16195" max="16384" width="2.125" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" ht="16">
+    <row r="1" customHeight="1" ht="15">
       <c r="A1" s="116" t="s">
         <v>10</v>
       </c>
@@ -8905,62 +9701,62 @@
       <c r="R2" s="125"/>
       <c r="S2" s="125"/>
       <c r="T2" s="126"/>
-      <c r="U2" s="127" t="s">
+      <c r="U2" s="734" t="s">
         <v>170</v>
       </c>
-      <c r="V2" s="128"/>
-      <c r="W2" s="128"/>
-      <c r="X2" s="128"/>
-      <c r="Y2" s="128"/>
-      <c r="Z2" s="128"/>
-      <c r="AA2" s="128"/>
-      <c r="AB2" s="128"/>
-      <c r="AC2" s="128"/>
-      <c r="AD2" s="128"/>
-      <c r="AE2" s="128"/>
-      <c r="AF2" s="128"/>
-      <c r="AG2" s="128"/>
-      <c r="AH2" s="128"/>
-      <c r="AI2" s="128"/>
-      <c r="AJ2" s="128"/>
-      <c r="AK2" s="128"/>
-      <c r="AL2" s="128"/>
-      <c r="AM2" s="128"/>
-      <c r="AN2" s="128"/>
-      <c r="AO2" s="128"/>
-      <c r="AP2" s="128"/>
-      <c r="AQ2" s="128"/>
-      <c r="AR2" s="128"/>
-      <c r="AS2" s="128"/>
-      <c r="AT2" s="128"/>
-      <c r="AU2" s="128"/>
-      <c r="AV2" s="129"/>
-      <c r="AW2" s="130" t="s">
+      <c r="V2" s="735"/>
+      <c r="W2" s="735"/>
+      <c r="X2" s="735"/>
+      <c r="Y2" s="735"/>
+      <c r="Z2" s="735"/>
+      <c r="AA2" s="735"/>
+      <c r="AB2" s="735"/>
+      <c r="AC2" s="735"/>
+      <c r="AD2" s="735"/>
+      <c r="AE2" s="735"/>
+      <c r="AF2" s="735"/>
+      <c r="AG2" s="735"/>
+      <c r="AH2" s="735"/>
+      <c r="AI2" s="735"/>
+      <c r="AJ2" s="735"/>
+      <c r="AK2" s="735"/>
+      <c r="AL2" s="735"/>
+      <c r="AM2" s="735"/>
+      <c r="AN2" s="735"/>
+      <c r="AO2" s="735"/>
+      <c r="AP2" s="735"/>
+      <c r="AQ2" s="735"/>
+      <c r="AR2" s="735"/>
+      <c r="AS2" s="735"/>
+      <c r="AT2" s="735"/>
+      <c r="AU2" s="735"/>
+      <c r="AV2" s="736"/>
+      <c r="AW2" s="737" t="s">
         <v>13</v>
       </c>
-      <c r="AX2" s="131"/>
-      <c r="AY2" s="132"/>
-      <c r="AZ2" s="133">
+      <c r="AX2" s="738"/>
+      <c r="AY2" s="739"/>
+      <c r="AZ2" s="740">
         <v>45069</v>
       </c>
-      <c r="BA2" s="134"/>
-      <c r="BB2" s="134"/>
-      <c r="BC2" s="134"/>
-      <c r="BD2" s="134"/>
-      <c r="BE2" s="134"/>
-      <c r="BF2" s="130" t="s">
+      <c r="BA2" s="741"/>
+      <c r="BB2" s="741"/>
+      <c r="BC2" s="741"/>
+      <c r="BD2" s="741"/>
+      <c r="BE2" s="741"/>
+      <c r="BF2" s="737" t="s">
         <v>15</v>
       </c>
-      <c r="BG2" s="131"/>
-      <c r="BH2" s="132"/>
-      <c r="BI2" s="133" t="s">
+      <c r="BG2" s="738"/>
+      <c r="BH2" s="739"/>
+      <c r="BI2" s="740" t="s">
         <v>125</v>
       </c>
-      <c r="BJ2" s="134"/>
-      <c r="BK2" s="134"/>
-      <c r="BL2" s="134"/>
-      <c r="BM2" s="134"/>
-      <c r="BN2" s="135"/>
+      <c r="BJ2" s="741"/>
+      <c r="BK2" s="741"/>
+      <c r="BL2" s="741"/>
+      <c r="BM2" s="741"/>
+      <c r="BN2" s="742"/>
     </row>
     <row r="3" customHeight="1" ht="12">
       <c r="A3" s="136" t="s">
@@ -9041,47 +9837,47 @@
       <c r="BN3" s="143"/>
     </row>
     <row r="4" customHeight="1" ht="12">
-      <c r="A4" s="65"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="66"/>
-      <c r="R4" s="66"/>
-      <c r="S4" s="66"/>
-      <c r="T4" s="66"/>
-      <c r="U4" s="66"/>
-      <c r="V4" s="66"/>
-      <c r="W4" s="66"/>
-      <c r="X4" s="66"/>
-      <c r="Y4" s="66"/>
-      <c r="Z4" s="66"/>
-      <c r="AA4" s="66"/>
-      <c r="AB4" s="66"/>
-      <c r="AC4" s="66"/>
-      <c r="AD4" s="66"/>
-      <c r="AE4" s="66"/>
-      <c r="AF4" s="66"/>
-      <c r="AG4" s="66"/>
-      <c r="AH4" s="66"/>
-      <c r="AI4" s="66"/>
-      <c r="AJ4" s="66"/>
-      <c r="AK4" s="66"/>
-      <c r="AL4" s="66"/>
-      <c r="AM4" s="66"/>
-      <c r="AN4" s="66"/>
-      <c r="AO4" s="66"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="30"/>
+      <c r="V4" s="30"/>
+      <c r="W4" s="30"/>
+      <c r="X4" s="30"/>
+      <c r="Y4" s="30"/>
+      <c r="Z4" s="30"/>
+      <c r="AA4" s="30"/>
+      <c r="AB4" s="30"/>
+      <c r="AC4" s="30"/>
+      <c r="AD4" s="30"/>
+      <c r="AE4" s="30"/>
+      <c r="AF4" s="30"/>
+      <c r="AG4" s="30"/>
+      <c r="AH4" s="30"/>
+      <c r="AI4" s="30"/>
+      <c r="AJ4" s="30"/>
+      <c r="AK4" s="30"/>
+      <c r="AL4" s="30"/>
+      <c r="AM4" s="30"/>
+      <c r="AN4" s="30"/>
+      <c r="AO4" s="30"/>
       <c r="AP4" s="147" t="s">
         <v>21</v>
       </c>
@@ -9112,7 +9908,7 @@
       <c r="BK4" s="148"/>
       <c r="BL4" s="148"/>
       <c r="BM4" s="148"/>
-      <c r="BN4" s="67"/>
+      <c r="BN4" s="31"/>
     </row>
     <row r="5" customHeight="1" ht="12">
       <c r="A5" s="29"/>
@@ -9316,6 +10112,7 @@
       </c>
       <c r="AT7" s="157"/>
       <c r="AU7" s="157"/>
+      <c r="AV7" s="24"/>
       <c r="AW7" s="157"/>
       <c r="AX7" s="157"/>
       <c r="AY7" s="157"/>
@@ -9474,7 +10271,7 @@
       <c r="BB9" s="157"/>
       <c r="BC9" s="157"/>
       <c r="BD9" s="158"/>
-      <c r="BE9" s="649" t="s">
+      <c r="BE9" s="357" t="s">
         <v>25</v>
       </c>
       <c r="BF9" s="345"/>
@@ -9550,7 +10347,7 @@
       <c r="BB10" s="157"/>
       <c r="BC10" s="157"/>
       <c r="BD10" s="158"/>
-      <c r="BE10" s="649" t="s">
+      <c r="BE10" s="357" t="s">
         <v>25</v>
       </c>
       <c r="BF10" s="24"/>
@@ -9561,50 +10358,50 @@
       <c r="BK10" s="24"/>
       <c r="BL10" s="24"/>
       <c r="BM10" s="31"/>
-      <c r="BN10" s="24"/>
+      <c r="BN10" s="31"/>
     </row>
     <row r="11" customHeight="1" ht="12">
-      <c r="A11" s="65"/>
-      <c r="B11" s="66"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="66"/>
-      <c r="M11" s="66"/>
-      <c r="N11" s="66"/>
-      <c r="O11" s="66"/>
-      <c r="P11" s="66"/>
-      <c r="Q11" s="66"/>
-      <c r="R11" s="66"/>
-      <c r="S11" s="66"/>
-      <c r="T11" s="66"/>
-      <c r="U11" s="66"/>
-      <c r="V11" s="66"/>
-      <c r="W11" s="66"/>
-      <c r="X11" s="66"/>
-      <c r="Y11" s="66"/>
-      <c r="Z11" s="66"/>
-      <c r="AA11" s="66"/>
-      <c r="AB11" s="66"/>
-      <c r="AC11" s="66"/>
-      <c r="AD11" s="66"/>
-      <c r="AE11" s="66"/>
-      <c r="AF11" s="66"/>
-      <c r="AG11" s="66"/>
-      <c r="AH11" s="66"/>
-      <c r="AI11" s="66"/>
-      <c r="AJ11" s="66"/>
-      <c r="AK11" s="66"/>
-      <c r="AL11" s="66"/>
-      <c r="AM11" s="66"/>
-      <c r="AN11" s="66"/>
-      <c r="AO11" s="66"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="30"/>
+      <c r="U11" s="30"/>
+      <c r="V11" s="30"/>
+      <c r="W11" s="30"/>
+      <c r="X11" s="30"/>
+      <c r="Y11" s="30"/>
+      <c r="Z11" s="30"/>
+      <c r="AA11" s="30"/>
+      <c r="AB11" s="30"/>
+      <c r="AC11" s="30"/>
+      <c r="AD11" s="30"/>
+      <c r="AE11" s="30"/>
+      <c r="AF11" s="30"/>
+      <c r="AG11" s="30"/>
+      <c r="AH11" s="30"/>
+      <c r="AI11" s="30"/>
+      <c r="AJ11" s="30"/>
+      <c r="AK11" s="30"/>
+      <c r="AL11" s="30"/>
+      <c r="AM11" s="30"/>
+      <c r="AN11" s="30"/>
+      <c r="AO11" s="30"/>
       <c r="AP11" s="150"/>
       <c r="AQ11" s="364">
         <v>7</v>
@@ -9626,7 +10423,7 @@
       <c r="BB11" s="157"/>
       <c r="BC11" s="157"/>
       <c r="BD11" s="158"/>
-      <c r="BE11" s="649" t="s">
+      <c r="BE11" s="357" t="s">
         <v>25</v>
       </c>
       <c r="BF11" s="345"/>
@@ -9637,50 +10434,50 @@
       <c r="BK11" s="345"/>
       <c r="BL11" s="345"/>
       <c r="BM11" s="346"/>
-      <c r="BN11" s="67"/>
+      <c r="BN11" s="31"/>
     </row>
     <row r="12" customHeight="1" ht="12">
-      <c r="A12" s="65"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="66"/>
-      <c r="L12" s="66"/>
-      <c r="M12" s="66"/>
-      <c r="N12" s="66"/>
-      <c r="O12" s="66"/>
-      <c r="P12" s="66"/>
-      <c r="Q12" s="66"/>
-      <c r="R12" s="66"/>
-      <c r="S12" s="66"/>
-      <c r="T12" s="66"/>
-      <c r="U12" s="66"/>
-      <c r="V12" s="66"/>
-      <c r="W12" s="66"/>
-      <c r="X12" s="66"/>
-      <c r="Y12" s="66"/>
-      <c r="Z12" s="66"/>
-      <c r="AA12" s="66"/>
-      <c r="AB12" s="66"/>
-      <c r="AC12" s="66"/>
-      <c r="AD12" s="66"/>
-      <c r="AE12" s="66"/>
-      <c r="AF12" s="66"/>
-      <c r="AG12" s="66"/>
-      <c r="AH12" s="66"/>
-      <c r="AI12" s="66"/>
-      <c r="AJ12" s="66"/>
-      <c r="AK12" s="66"/>
-      <c r="AL12" s="66"/>
-      <c r="AM12" s="66"/>
-      <c r="AN12" s="66"/>
-      <c r="AO12" s="66"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="30"/>
+      <c r="V12" s="30"/>
+      <c r="W12" s="30"/>
+      <c r="X12" s="30"/>
+      <c r="Y12" s="30"/>
+      <c r="Z12" s="30"/>
+      <c r="AA12" s="30"/>
+      <c r="AB12" s="30"/>
+      <c r="AC12" s="30"/>
+      <c r="AD12" s="30"/>
+      <c r="AE12" s="30"/>
+      <c r="AF12" s="30"/>
+      <c r="AG12" s="30"/>
+      <c r="AH12" s="30"/>
+      <c r="AI12" s="30"/>
+      <c r="AJ12" s="30"/>
+      <c r="AK12" s="30"/>
+      <c r="AL12" s="30"/>
+      <c r="AM12" s="30"/>
+      <c r="AN12" s="30"/>
+      <c r="AO12" s="30"/>
       <c r="AP12" s="150" t="s">
         <v>36</v>
       </c>
@@ -9692,7 +10489,7 @@
       <c r="AT12" s="157"/>
       <c r="AU12" s="157"/>
       <c r="AV12" s="157"/>
-      <c r="AW12" s="450" t="s">
+      <c r="AW12" s="381" t="s">
         <v>193</v>
       </c>
       <c r="AX12" s="157"/>
@@ -9702,7 +10499,7 @@
       <c r="BB12" s="157"/>
       <c r="BC12" s="157"/>
       <c r="BD12" s="158"/>
-      <c r="BE12" s="649" t="s">
+      <c r="BE12" s="357" t="s">
         <v>25</v>
       </c>
       <c r="BF12" s="24"/>
@@ -9713,50 +10510,50 @@
       <c r="BK12" s="345"/>
       <c r="BL12" s="345"/>
       <c r="BM12" s="346"/>
-      <c r="BN12" s="67"/>
+      <c r="BN12" s="31"/>
     </row>
     <row r="13" customHeight="1" ht="12">
-      <c r="A13" s="65"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="66"/>
-      <c r="N13" s="66"/>
-      <c r="O13" s="66"/>
-      <c r="P13" s="66"/>
-      <c r="Q13" s="66"/>
-      <c r="R13" s="66"/>
-      <c r="S13" s="66"/>
-      <c r="T13" s="66"/>
-      <c r="U13" s="66"/>
-      <c r="V13" s="66"/>
-      <c r="W13" s="66"/>
-      <c r="X13" s="66"/>
-      <c r="Y13" s="66"/>
-      <c r="Z13" s="66"/>
-      <c r="AA13" s="66"/>
-      <c r="AB13" s="66"/>
-      <c r="AC13" s="66"/>
-      <c r="AD13" s="66"/>
-      <c r="AE13" s="66"/>
-      <c r="AF13" s="66"/>
-      <c r="AG13" s="66"/>
-      <c r="AH13" s="66"/>
-      <c r="AI13" s="66"/>
-      <c r="AJ13" s="66"/>
-      <c r="AK13" s="66"/>
-      <c r="AL13" s="66"/>
-      <c r="AM13" s="66"/>
-      <c r="AN13" s="66"/>
-      <c r="AO13" s="66"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="30"/>
+      <c r="V13" s="30"/>
+      <c r="W13" s="30"/>
+      <c r="X13" s="30"/>
+      <c r="Y13" s="30"/>
+      <c r="Z13" s="30"/>
+      <c r="AA13" s="30"/>
+      <c r="AB13" s="30"/>
+      <c r="AC13" s="30"/>
+      <c r="AD13" s="30"/>
+      <c r="AE13" s="30"/>
+      <c r="AF13" s="30"/>
+      <c r="AG13" s="30"/>
+      <c r="AH13" s="30"/>
+      <c r="AI13" s="30"/>
+      <c r="AJ13" s="30"/>
+      <c r="AK13" s="30"/>
+      <c r="AL13" s="30"/>
+      <c r="AM13" s="30"/>
+      <c r="AN13" s="30"/>
+      <c r="AO13" s="30"/>
       <c r="AP13" s="150" t="s">
         <v>38</v>
       </c>
@@ -9778,7 +10575,7 @@
       <c r="BB13" s="157"/>
       <c r="BC13" s="157"/>
       <c r="BD13" s="158"/>
-      <c r="BE13" s="649" t="s">
+      <c r="BE13" s="357" t="s">
         <v>25</v>
       </c>
       <c r="BF13" s="24"/>
@@ -9789,50 +10586,50 @@
       <c r="BK13" s="345"/>
       <c r="BL13" s="345"/>
       <c r="BM13" s="346"/>
-      <c r="BN13" s="67"/>
+      <c r="BN13" s="31"/>
     </row>
     <row r="14" customHeight="1" ht="12">
-      <c r="A14" s="65"/>
-      <c r="B14" s="66"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
-      <c r="M14" s="66"/>
-      <c r="N14" s="66"/>
-      <c r="O14" s="66"/>
-      <c r="P14" s="66"/>
-      <c r="Q14" s="66"/>
-      <c r="R14" s="66"/>
-      <c r="S14" s="66"/>
-      <c r="T14" s="66"/>
-      <c r="U14" s="66"/>
-      <c r="V14" s="66"/>
-      <c r="W14" s="66"/>
-      <c r="X14" s="66"/>
-      <c r="Y14" s="66"/>
-      <c r="Z14" s="66"/>
-      <c r="AA14" s="66"/>
-      <c r="AB14" s="66"/>
-      <c r="AC14" s="66"/>
-      <c r="AD14" s="66"/>
-      <c r="AE14" s="66"/>
-      <c r="AF14" s="66"/>
-      <c r="AG14" s="66"/>
-      <c r="AH14" s="66"/>
-      <c r="AI14" s="66"/>
-      <c r="AJ14" s="66"/>
-      <c r="AK14" s="66"/>
-      <c r="AL14" s="66"/>
-      <c r="AM14" s="66"/>
-      <c r="AN14" s="66"/>
-      <c r="AO14" s="66"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="30"/>
+      <c r="V14" s="30"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="30"/>
+      <c r="AA14" s="30"/>
+      <c r="AB14" s="30"/>
+      <c r="AC14" s="30"/>
+      <c r="AD14" s="30"/>
+      <c r="AE14" s="30"/>
+      <c r="AF14" s="30"/>
+      <c r="AG14" s="30"/>
+      <c r="AH14" s="30"/>
+      <c r="AI14" s="30"/>
+      <c r="AJ14" s="30"/>
+      <c r="AK14" s="30"/>
+      <c r="AL14" s="30"/>
+      <c r="AM14" s="30"/>
+      <c r="AN14" s="30"/>
+      <c r="AO14" s="30"/>
       <c r="AP14" s="150"/>
       <c r="AQ14" s="364">
         <v>10</v>
@@ -9854,7 +10651,7 @@
       <c r="BB14" s="157"/>
       <c r="BC14" s="157"/>
       <c r="BD14" s="158"/>
-      <c r="BE14" s="649" t="s">
+      <c r="BE14" s="357" t="s">
         <v>25</v>
       </c>
       <c r="BF14" s="345"/>
@@ -9865,50 +10662,50 @@
       <c r="BK14" s="345"/>
       <c r="BL14" s="345"/>
       <c r="BM14" s="346"/>
-      <c r="BN14" s="67"/>
+      <c r="BN14" s="31"/>
     </row>
     <row r="15" customHeight="1" ht="12">
-      <c r="A15" s="65"/>
-      <c r="B15" s="66"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="66"/>
-      <c r="M15" s="66"/>
-      <c r="N15" s="66"/>
-      <c r="O15" s="66"/>
-      <c r="P15" s="66"/>
-      <c r="Q15" s="66"/>
-      <c r="R15" s="66"/>
-      <c r="S15" s="66"/>
-      <c r="T15" s="66"/>
-      <c r="U15" s="66"/>
-      <c r="V15" s="66"/>
-      <c r="W15" s="66"/>
-      <c r="X15" s="66"/>
-      <c r="Y15" s="66"/>
-      <c r="Z15" s="66"/>
-      <c r="AA15" s="66"/>
-      <c r="AB15" s="66"/>
-      <c r="AC15" s="66"/>
-      <c r="AD15" s="66"/>
-      <c r="AE15" s="66"/>
-      <c r="AF15" s="66"/>
-      <c r="AG15" s="66"/>
-      <c r="AH15" s="66"/>
-      <c r="AI15" s="66"/>
-      <c r="AJ15" s="66"/>
-      <c r="AK15" s="66"/>
-      <c r="AL15" s="66"/>
-      <c r="AM15" s="66"/>
-      <c r="AN15" s="66"/>
-      <c r="AO15" s="66"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="30"/>
+      <c r="T15" s="30"/>
+      <c r="U15" s="30"/>
+      <c r="V15" s="30"/>
+      <c r="W15" s="30"/>
+      <c r="X15" s="30"/>
+      <c r="Y15" s="30"/>
+      <c r="Z15" s="30"/>
+      <c r="AA15" s="30"/>
+      <c r="AB15" s="30"/>
+      <c r="AC15" s="30"/>
+      <c r="AD15" s="30"/>
+      <c r="AE15" s="30"/>
+      <c r="AF15" s="30"/>
+      <c r="AG15" s="30"/>
+      <c r="AH15" s="30"/>
+      <c r="AI15" s="30"/>
+      <c r="AJ15" s="30"/>
+      <c r="AK15" s="30"/>
+      <c r="AL15" s="30"/>
+      <c r="AM15" s="30"/>
+      <c r="AN15" s="30"/>
+      <c r="AO15" s="30"/>
       <c r="AP15" s="150"/>
       <c r="AQ15" s="364">
         <v>11</v>
@@ -9930,7 +10727,7 @@
       <c r="BB15" s="157"/>
       <c r="BC15" s="157"/>
       <c r="BD15" s="158"/>
-      <c r="BE15" s="649" t="s">
+      <c r="BE15" s="357" t="s">
         <v>25</v>
       </c>
       <c r="BF15" s="345"/>
@@ -9941,50 +10738,50 @@
       <c r="BK15" s="345"/>
       <c r="BL15" s="345"/>
       <c r="BM15" s="346"/>
-      <c r="BN15" s="67"/>
+      <c r="BN15" s="31"/>
     </row>
     <row r="16" customHeight="1" ht="12">
-      <c r="A16" s="65"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="66"/>
-      <c r="L16" s="66"/>
-      <c r="M16" s="66"/>
-      <c r="N16" s="66"/>
-      <c r="O16" s="66"/>
-      <c r="P16" s="66"/>
-      <c r="Q16" s="66"/>
-      <c r="R16" s="66"/>
-      <c r="S16" s="66"/>
-      <c r="T16" s="66"/>
-      <c r="U16" s="66"/>
-      <c r="V16" s="66"/>
-      <c r="W16" s="66"/>
-      <c r="X16" s="66"/>
-      <c r="Y16" s="66"/>
-      <c r="Z16" s="66"/>
-      <c r="AA16" s="66"/>
-      <c r="AB16" s="66"/>
-      <c r="AC16" s="66"/>
-      <c r="AD16" s="66"/>
-      <c r="AE16" s="66"/>
-      <c r="AF16" s="66"/>
-      <c r="AG16" s="66"/>
-      <c r="AH16" s="66"/>
-      <c r="AI16" s="66"/>
-      <c r="AJ16" s="66"/>
-      <c r="AK16" s="66"/>
-      <c r="AL16" s="66"/>
-      <c r="AM16" s="66"/>
-      <c r="AN16" s="66"/>
-      <c r="AO16" s="66"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="30"/>
+      <c r="V16" s="30"/>
+      <c r="W16" s="30"/>
+      <c r="X16" s="30"/>
+      <c r="Y16" s="30"/>
+      <c r="Z16" s="30"/>
+      <c r="AA16" s="30"/>
+      <c r="AB16" s="30"/>
+      <c r="AC16" s="30"/>
+      <c r="AD16" s="30"/>
+      <c r="AE16" s="30"/>
+      <c r="AF16" s="30"/>
+      <c r="AG16" s="30"/>
+      <c r="AH16" s="30"/>
+      <c r="AI16" s="30"/>
+      <c r="AJ16" s="30"/>
+      <c r="AK16" s="30"/>
+      <c r="AL16" s="30"/>
+      <c r="AM16" s="30"/>
+      <c r="AN16" s="30"/>
+      <c r="AO16" s="30"/>
       <c r="AP16" s="150"/>
       <c r="AQ16" s="364">
         <v>12</v>
@@ -9994,7 +10791,7 @@
         <v>13</v>
       </c>
       <c r="AT16" s="157"/>
-      <c r="AU16" s="450"/>
+      <c r="AU16" s="381"/>
       <c r="AV16" s="157" t="s">
         <v>193</v>
       </c>
@@ -10006,7 +10803,7 @@
       <c r="BB16" s="157"/>
       <c r="BC16" s="157"/>
       <c r="BD16" s="158"/>
-      <c r="BE16" s="649" t="s">
+      <c r="BE16" s="357" t="s">
         <v>25</v>
       </c>
       <c r="BF16" s="345"/>
@@ -10017,50 +10814,50 @@
       <c r="BK16" s="345"/>
       <c r="BL16" s="345"/>
       <c r="BM16" s="346"/>
-      <c r="BN16" s="67"/>
+      <c r="BN16" s="31"/>
     </row>
     <row r="17" customHeight="1" ht="12">
-      <c r="A17" s="65"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="66"/>
-      <c r="M17" s="66"/>
-      <c r="N17" s="66"/>
-      <c r="O17" s="66"/>
-      <c r="P17" s="66"/>
-      <c r="Q17" s="66"/>
-      <c r="R17" s="66"/>
-      <c r="S17" s="66"/>
-      <c r="T17" s="66"/>
-      <c r="U17" s="66"/>
-      <c r="V17" s="66"/>
-      <c r="W17" s="66"/>
-      <c r="X17" s="66"/>
-      <c r="Y17" s="66"/>
-      <c r="Z17" s="66"/>
-      <c r="AA17" s="66"/>
-      <c r="AB17" s="66"/>
-      <c r="AC17" s="66"/>
-      <c r="AD17" s="66"/>
-      <c r="AE17" s="66"/>
-      <c r="AF17" s="66"/>
-      <c r="AG17" s="66"/>
-      <c r="AH17" s="66"/>
-      <c r="AI17" s="66"/>
-      <c r="AJ17" s="66"/>
-      <c r="AK17" s="66"/>
-      <c r="AL17" s="66"/>
-      <c r="AM17" s="66"/>
-      <c r="AN17" s="66"/>
-      <c r="AO17" s="66"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="30"/>
+      <c r="S17" s="30"/>
+      <c r="T17" s="30"/>
+      <c r="U17" s="30"/>
+      <c r="V17" s="30"/>
+      <c r="W17" s="30"/>
+      <c r="X17" s="30"/>
+      <c r="Y17" s="30"/>
+      <c r="Z17" s="30"/>
+      <c r="AA17" s="30"/>
+      <c r="AB17" s="30"/>
+      <c r="AC17" s="30"/>
+      <c r="AD17" s="30"/>
+      <c r="AE17" s="30"/>
+      <c r="AF17" s="30"/>
+      <c r="AG17" s="30"/>
+      <c r="AH17" s="30"/>
+      <c r="AI17" s="30"/>
+      <c r="AJ17" s="30"/>
+      <c r="AK17" s="30"/>
+      <c r="AL17" s="30"/>
+      <c r="AM17" s="30"/>
+      <c r="AN17" s="30"/>
+      <c r="AO17" s="30"/>
       <c r="AP17" s="150"/>
       <c r="AQ17" s="364">
         <v>13</v>
@@ -10070,7 +10867,7 @@
         <v>19</v>
       </c>
       <c r="AT17" s="157"/>
-      <c r="AU17" s="450"/>
+      <c r="AU17" s="381"/>
       <c r="AV17" s="157" t="s">
         <v>193</v>
       </c>
@@ -10082,7 +10879,7 @@
       <c r="BB17" s="157"/>
       <c r="BC17" s="157"/>
       <c r="BD17" s="158"/>
-      <c r="BE17" s="649" t="s">
+      <c r="BE17" s="357" t="s">
         <v>25</v>
       </c>
       <c r="BF17" s="345"/>
@@ -10093,50 +10890,50 @@
       <c r="BK17" s="345"/>
       <c r="BL17" s="345"/>
       <c r="BM17" s="346"/>
-      <c r="BN17" s="67"/>
+      <c r="BN17" s="31"/>
     </row>
     <row r="18" customHeight="1" ht="12">
-      <c r="A18" s="65"/>
-      <c r="B18" s="66"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="66"/>
-      <c r="M18" s="66"/>
-      <c r="N18" s="66"/>
-      <c r="O18" s="66"/>
-      <c r="P18" s="66"/>
-      <c r="Q18" s="66"/>
-      <c r="R18" s="66"/>
-      <c r="S18" s="66"/>
-      <c r="T18" s="66"/>
-      <c r="U18" s="66"/>
-      <c r="V18" s="66"/>
-      <c r="W18" s="66"/>
-      <c r="X18" s="66"/>
-      <c r="Y18" s="66"/>
-      <c r="Z18" s="66"/>
-      <c r="AA18" s="66"/>
-      <c r="AB18" s="66"/>
-      <c r="AC18" s="66"/>
-      <c r="AD18" s="66"/>
-      <c r="AE18" s="66"/>
-      <c r="AF18" s="66"/>
-      <c r="AG18" s="66"/>
-      <c r="AH18" s="66"/>
-      <c r="AI18" s="66"/>
-      <c r="AJ18" s="66"/>
-      <c r="AK18" s="66"/>
-      <c r="AL18" s="66"/>
-      <c r="AM18" s="66"/>
-      <c r="AN18" s="66"/>
-      <c r="AO18" s="66"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="30"/>
+      <c r="U18" s="30"/>
+      <c r="V18" s="30"/>
+      <c r="W18" s="30"/>
+      <c r="X18" s="30"/>
+      <c r="Y18" s="30"/>
+      <c r="Z18" s="30"/>
+      <c r="AA18" s="30"/>
+      <c r="AB18" s="30"/>
+      <c r="AC18" s="30"/>
+      <c r="AD18" s="30"/>
+      <c r="AE18" s="30"/>
+      <c r="AF18" s="30"/>
+      <c r="AG18" s="30"/>
+      <c r="AH18" s="30"/>
+      <c r="AI18" s="30"/>
+      <c r="AJ18" s="30"/>
+      <c r="AK18" s="30"/>
+      <c r="AL18" s="30"/>
+      <c r="AM18" s="30"/>
+      <c r="AN18" s="30"/>
+      <c r="AO18" s="30"/>
       <c r="AP18" s="150"/>
       <c r="AQ18" s="364">
         <v>14</v>
@@ -10167,407 +10964,1373 @@
       <c r="BK18" s="157"/>
       <c r="BL18" s="157"/>
       <c r="BM18" s="158"/>
-      <c r="BN18" s="67"/>
+      <c r="BN18" s="31"/>
     </row>
     <row r="19" customHeight="1" ht="12">
-      <c r="A19" s="65"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="66"/>
-      <c r="M19" s="66"/>
-      <c r="N19" s="66"/>
-      <c r="O19" s="66"/>
-      <c r="P19" s="66"/>
-      <c r="Q19" s="66"/>
-      <c r="R19" s="66"/>
-      <c r="S19" s="66"/>
-      <c r="T19" s="66"/>
-      <c r="U19" s="66"/>
-      <c r="V19" s="66"/>
-      <c r="W19" s="66"/>
-      <c r="X19" s="66"/>
-      <c r="Y19" s="66"/>
-      <c r="Z19" s="66"/>
-      <c r="AA19" s="66"/>
-      <c r="AB19" s="66"/>
-      <c r="AC19" s="66"/>
-      <c r="AD19" s="66"/>
-      <c r="AE19" s="66"/>
-      <c r="AF19" s="66"/>
-      <c r="AG19" s="66"/>
-      <c r="AH19" s="66"/>
-      <c r="AI19" s="66"/>
-      <c r="AJ19" s="66"/>
-      <c r="AK19" s="66"/>
-      <c r="AL19" s="66"/>
-      <c r="AM19" s="66"/>
-      <c r="AN19" s="66"/>
-      <c r="AO19" s="66"/>
-      <c r="AP19" s="150" t="s">
+      <c r="A19" s="29"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="30"/>
+      <c r="U19" s="30"/>
+      <c r="V19" s="30"/>
+      <c r="W19" s="30"/>
+      <c r="X19" s="30"/>
+      <c r="Y19" s="30"/>
+      <c r="Z19" s="30"/>
+      <c r="AA19" s="30"/>
+      <c r="AB19" s="30"/>
+      <c r="AC19" s="30"/>
+      <c r="AD19" s="30"/>
+      <c r="AE19" s="30"/>
+      <c r="AF19" s="30"/>
+      <c r="AG19" s="30"/>
+      <c r="AH19" s="30"/>
+      <c r="AI19" s="30"/>
+      <c r="AJ19" s="30"/>
+      <c r="AK19" s="30"/>
+      <c r="AL19" s="30"/>
+      <c r="AM19" s="30"/>
+      <c r="AN19" s="30"/>
+      <c r="AO19" s="30"/>
+      <c r="AP19" s="168" t="s">
         <v>177</v>
       </c>
-      <c r="AQ19" s="361"/>
-      <c r="AR19" s="362"/>
-      <c r="AS19" s="156" t="s">
+      <c r="AQ19" s="744"/>
+      <c r="AR19" s="745"/>
+      <c r="AS19" s="746" t="s">
         <v>129</v>
       </c>
-      <c r="AT19" s="157"/>
-      <c r="AU19" s="157"/>
-      <c r="AV19" s="157"/>
-      <c r="AW19" s="157"/>
-      <c r="AX19" s="157"/>
-      <c r="AY19" s="157"/>
-      <c r="AZ19" s="157"/>
-      <c r="BA19" s="157"/>
-      <c r="BB19" s="157"/>
-      <c r="BC19" s="157"/>
-      <c r="BD19" s="158"/>
-      <c r="BE19" s="156" t="s">
+      <c r="AT19" s="171"/>
+      <c r="AU19" s="171"/>
+      <c r="AV19" s="171"/>
+      <c r="AW19" s="171"/>
+      <c r="AX19" s="171"/>
+      <c r="AY19" s="171"/>
+      <c r="AZ19" s="171"/>
+      <c r="BA19" s="171"/>
+      <c r="BB19" s="171"/>
+      <c r="BC19" s="171"/>
+      <c r="BD19" s="173"/>
+      <c r="BE19" s="746" t="s">
         <v>171</v>
       </c>
-      <c r="BF19" s="157"/>
-      <c r="BG19" s="157"/>
-      <c r="BH19" s="157"/>
-      <c r="BI19" s="157"/>
-      <c r="BJ19" s="157"/>
-      <c r="BK19" s="157"/>
-      <c r="BL19" s="157"/>
-      <c r="BM19" s="158"/>
-      <c r="BN19" s="67"/>
+      <c r="BF19" s="171"/>
+      <c r="BG19" s="171"/>
+      <c r="BH19" s="171"/>
+      <c r="BI19" s="171"/>
+      <c r="BJ19" s="171"/>
+      <c r="BK19" s="171"/>
+      <c r="BL19" s="171"/>
+      <c r="BM19" s="173"/>
+      <c r="BN19" s="31"/>
     </row>
     <row r="20" customHeight="1" ht="12">
-      <c r="A20" s="65"/>
-      <c r="B20" s="66"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="66"/>
-      <c r="M20" s="66"/>
-      <c r="N20" s="66"/>
-      <c r="O20" s="66"/>
-      <c r="P20" s="66"/>
-      <c r="Q20" s="66"/>
-      <c r="R20" s="66"/>
-      <c r="S20" s="66"/>
-      <c r="T20" s="66"/>
-      <c r="U20" s="66"/>
-      <c r="V20" s="66"/>
-      <c r="W20" s="66"/>
-      <c r="X20" s="66"/>
-      <c r="Y20" s="66"/>
-      <c r="Z20" s="66"/>
-      <c r="AA20" s="66"/>
-      <c r="AB20" s="66"/>
-      <c r="AC20" s="66"/>
-      <c r="AD20" s="66"/>
-      <c r="AE20" s="66"/>
-      <c r="AF20" s="66"/>
-      <c r="AG20" s="66"/>
-      <c r="AH20" s="66"/>
-      <c r="AI20" s="66"/>
-      <c r="AJ20" s="66"/>
-      <c r="AK20" s="66"/>
-      <c r="AL20" s="66"/>
-      <c r="AM20" s="66"/>
-      <c r="AN20" s="66"/>
-      <c r="AO20" s="66"/>
-      <c r="AP20" s="68"/>
-      <c r="AQ20" s="68"/>
-      <c r="AR20" s="68"/>
-      <c r="AS20" s="68"/>
-      <c r="AT20" s="68"/>
-      <c r="AU20" s="68"/>
-      <c r="AV20" s="68"/>
-      <c r="AW20" s="68"/>
-      <c r="AX20" s="68"/>
-      <c r="AY20" s="68"/>
-      <c r="AZ20" s="68"/>
-      <c r="BA20" s="68"/>
-      <c r="BB20" s="68"/>
-      <c r="BC20" s="68"/>
-      <c r="BD20" s="68"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="30"/>
+      <c r="V20" s="30"/>
+      <c r="W20" s="30"/>
+      <c r="X20" s="30"/>
+      <c r="Y20" s="30"/>
+      <c r="Z20" s="30"/>
+      <c r="AA20" s="30"/>
+      <c r="AB20" s="30"/>
+      <c r="AC20" s="30"/>
+      <c r="AD20" s="30"/>
+      <c r="AE20" s="30"/>
+      <c r="AF20" s="30"/>
+      <c r="AG20" s="30"/>
+      <c r="AH20" s="30"/>
+      <c r="AI20" s="30"/>
+      <c r="AJ20" s="30"/>
+      <c r="AK20" s="30"/>
+      <c r="AL20" s="30"/>
+      <c r="AM20" s="30"/>
+      <c r="AN20" s="30"/>
+      <c r="AO20" s="30"/>
+      <c r="AP20" s="24"/>
+      <c r="AQ20" s="24"/>
+      <c r="AR20" s="24"/>
+      <c r="AS20" s="24"/>
+      <c r="AT20" s="24"/>
+      <c r="AU20" s="24"/>
+      <c r="AV20" s="24"/>
+      <c r="AW20" s="24"/>
+      <c r="AX20" s="24"/>
+      <c r="AY20" s="24"/>
+      <c r="AZ20" s="24"/>
+      <c r="BA20" s="24"/>
+      <c r="BB20" s="24"/>
+      <c r="BC20" s="24"/>
+      <c r="BD20" s="24"/>
+      <c r="BE20" s="24"/>
+      <c r="BF20" s="24"/>
+      <c r="BG20" s="24"/>
+      <c r="BH20" s="24"/>
+      <c r="BI20" s="24"/>
+      <c r="BJ20" s="24"/>
+      <c r="BK20" s="24"/>
+      <c r="BL20" s="24"/>
+      <c r="BM20" s="24"/>
+      <c r="BN20" s="31"/>
     </row>
     <row r="21" customHeight="1" ht="12">
-      <c r="A21" s="65"/>
-      <c r="B21" s="66"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="66"/>
-      <c r="M21" s="66"/>
-      <c r="N21" s="66"/>
-      <c r="O21" s="66"/>
-      <c r="P21" s="66"/>
-      <c r="Q21" s="66"/>
-      <c r="R21" s="66"/>
-      <c r="S21" s="66"/>
-      <c r="T21" s="66"/>
-      <c r="U21" s="66"/>
-      <c r="V21" s="66"/>
-      <c r="W21" s="66"/>
-      <c r="X21" s="66"/>
-      <c r="Y21" s="66"/>
-      <c r="Z21" s="66"/>
-      <c r="AA21" s="66"/>
-      <c r="AB21" s="66"/>
-      <c r="AC21" s="66"/>
-      <c r="AD21" s="66"/>
-      <c r="AE21" s="66"/>
-      <c r="AF21" s="66"/>
-      <c r="AG21" s="66"/>
-      <c r="AH21" s="66"/>
-      <c r="AI21" s="66"/>
-      <c r="AJ21" s="66"/>
-      <c r="AK21" s="66"/>
-      <c r="AL21" s="66"/>
-      <c r="AM21" s="66"/>
-      <c r="AN21" s="66"/>
-      <c r="AO21" s="66"/>
-      <c r="AP21" s="68"/>
-      <c r="AQ21" s="68"/>
-      <c r="AR21" s="68"/>
-      <c r="AS21" s="68"/>
-      <c r="AT21" s="68"/>
-      <c r="AU21" s="68"/>
-      <c r="AV21" s="68"/>
-      <c r="AW21" s="68"/>
-      <c r="AX21" s="68"/>
-      <c r="AY21" s="68"/>
-      <c r="AZ21" s="68"/>
-      <c r="BA21" s="68"/>
-      <c r="BB21" s="68"/>
-      <c r="BC21" s="68"/>
-      <c r="BD21" s="68"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="30"/>
+      <c r="S21" s="30"/>
+      <c r="T21" s="30"/>
+      <c r="U21" s="30"/>
+      <c r="V21" s="30"/>
+      <c r="W21" s="30"/>
+      <c r="X21" s="30"/>
+      <c r="Y21" s="30"/>
+      <c r="Z21" s="30"/>
+      <c r="AA21" s="30"/>
+      <c r="AB21" s="30"/>
+      <c r="AC21" s="30"/>
+      <c r="AD21" s="30"/>
+      <c r="AE21" s="30"/>
+      <c r="AF21" s="30"/>
+      <c r="AG21" s="30"/>
+      <c r="AH21" s="30"/>
+      <c r="AI21" s="30"/>
+      <c r="AJ21" s="30"/>
+      <c r="AK21" s="30"/>
+      <c r="AL21" s="30"/>
+      <c r="AM21" s="30"/>
+      <c r="AN21" s="30"/>
+      <c r="AO21" s="30"/>
+      <c r="AP21" s="24"/>
+      <c r="AQ21" s="24"/>
+      <c r="AR21" s="24"/>
+      <c r="AS21" s="24"/>
+      <c r="AT21" s="24"/>
+      <c r="AU21" s="24"/>
+      <c r="AV21" s="24"/>
+      <c r="AW21" s="24"/>
+      <c r="AX21" s="24"/>
+      <c r="AY21" s="24"/>
+      <c r="AZ21" s="24"/>
+      <c r="BA21" s="24"/>
+      <c r="BB21" s="24"/>
+      <c r="BC21" s="24"/>
+      <c r="BD21" s="24"/>
+      <c r="BE21" s="24"/>
+      <c r="BF21" s="24"/>
+      <c r="BG21" s="24"/>
+      <c r="BH21" s="24"/>
+      <c r="BI21" s="24"/>
+      <c r="BJ21" s="24"/>
+      <c r="BK21" s="24"/>
+      <c r="BL21" s="24"/>
+      <c r="BM21" s="24"/>
+      <c r="BN21" s="31"/>
     </row>
     <row r="22" customHeight="1" ht="12">
-      <c r="A22" s="65"/>
-      <c r="B22" s="66"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="66"/>
-      <c r="L22" s="66"/>
-      <c r="M22" s="66"/>
-      <c r="N22" s="66"/>
-      <c r="O22" s="66"/>
-      <c r="P22" s="66"/>
-      <c r="Q22" s="66"/>
-      <c r="R22" s="66"/>
-      <c r="S22" s="66"/>
-      <c r="T22" s="66"/>
-      <c r="U22" s="66"/>
-      <c r="V22" s="66"/>
-      <c r="W22" s="66"/>
-      <c r="X22" s="66"/>
-      <c r="Y22" s="66"/>
-      <c r="Z22" s="66"/>
-      <c r="AA22" s="66"/>
-      <c r="AB22" s="66"/>
-      <c r="AC22" s="66"/>
-      <c r="AD22" s="66"/>
-      <c r="AE22" s="66"/>
-      <c r="AF22" s="66"/>
-      <c r="AG22" s="66"/>
-      <c r="AH22" s="66"/>
-      <c r="AI22" s="66"/>
-      <c r="AJ22" s="66"/>
-      <c r="AK22" s="66"/>
-      <c r="AL22" s="66"/>
-      <c r="AM22" s="66"/>
-      <c r="AN22" s="66"/>
-      <c r="AO22" s="66"/>
-      <c r="AP22" s="68"/>
-      <c r="AQ22" s="68"/>
-      <c r="AR22" s="68"/>
-      <c r="AS22" s="68"/>
-      <c r="AT22" s="68"/>
-      <c r="AU22" s="68"/>
-      <c r="AV22" s="68"/>
-      <c r="AW22" s="68"/>
-      <c r="AX22" s="68"/>
-      <c r="AY22" s="68"/>
-      <c r="AZ22" s="68"/>
-      <c r="BA22" s="68"/>
-      <c r="BB22" s="68"/>
-      <c r="BC22" s="68"/>
-      <c r="BD22" s="68"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="30"/>
+      <c r="S22" s="30"/>
+      <c r="T22" s="30"/>
+      <c r="U22" s="30"/>
+      <c r="V22" s="30"/>
+      <c r="W22" s="30"/>
+      <c r="X22" s="30"/>
+      <c r="Y22" s="30"/>
+      <c r="Z22" s="30"/>
+      <c r="AA22" s="30"/>
+      <c r="AB22" s="30"/>
+      <c r="AC22" s="30"/>
+      <c r="AD22" s="30"/>
+      <c r="AE22" s="30"/>
+      <c r="AF22" s="30"/>
+      <c r="AG22" s="30"/>
+      <c r="AH22" s="30"/>
+      <c r="AI22" s="30"/>
+      <c r="AJ22" s="30"/>
+      <c r="AK22" s="30"/>
+      <c r="AL22" s="30"/>
+      <c r="AM22" s="30"/>
+      <c r="AN22" s="30"/>
+      <c r="AO22" s="30"/>
+      <c r="AP22" s="24"/>
+      <c r="AQ22" s="24"/>
+      <c r="AR22" s="24"/>
+      <c r="AS22" s="24"/>
+      <c r="AT22" s="24"/>
+      <c r="AU22" s="24"/>
+      <c r="AV22" s="24"/>
+      <c r="AW22" s="24"/>
+      <c r="AX22" s="24"/>
+      <c r="AY22" s="24"/>
+      <c r="AZ22" s="24"/>
+      <c r="BA22" s="24"/>
+      <c r="BB22" s="24"/>
+      <c r="BC22" s="24"/>
+      <c r="BD22" s="24"/>
+      <c r="BE22" s="24"/>
+      <c r="BF22" s="24"/>
+      <c r="BG22" s="24"/>
+      <c r="BH22" s="24"/>
+      <c r="BI22" s="24"/>
+      <c r="BJ22" s="24"/>
+      <c r="BK22" s="24"/>
+      <c r="BL22" s="24"/>
+      <c r="BM22" s="24"/>
+      <c r="BN22" s="31"/>
     </row>
     <row r="23" customHeight="1" ht="12">
-      <c r="A23" s="68"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="68"/>
-      <c r="J23" s="68"/>
-      <c r="K23" s="68"/>
-      <c r="L23" s="68"/>
-      <c r="M23" s="68"/>
-      <c r="N23" s="68"/>
+      <c r="A23" s="743"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="24"/>
+      <c r="T23" s="24"/>
+      <c r="U23" s="24"/>
+      <c r="V23" s="24"/>
+      <c r="W23" s="24"/>
+      <c r="X23" s="24"/>
+      <c r="Y23" s="24"/>
+      <c r="Z23" s="24"/>
+      <c r="AA23" s="24"/>
+      <c r="AB23" s="24"/>
+      <c r="AC23" s="24"/>
+      <c r="AD23" s="24"/>
+      <c r="AE23" s="24"/>
+      <c r="AF23" s="24"/>
+      <c r="AG23" s="24"/>
+      <c r="AH23" s="24"/>
+      <c r="AI23" s="24"/>
+      <c r="AJ23" s="24"/>
+      <c r="AK23" s="24"/>
+      <c r="AL23" s="24"/>
+      <c r="AM23" s="24"/>
+      <c r="AN23" s="24"/>
+      <c r="AO23" s="24"/>
+      <c r="AP23" s="24"/>
+      <c r="AQ23" s="24"/>
+      <c r="AR23" s="24"/>
+      <c r="AS23" s="24"/>
+      <c r="AT23" s="24"/>
+      <c r="AU23" s="24"/>
+      <c r="AV23" s="24"/>
+      <c r="AW23" s="24"/>
+      <c r="AX23" s="24"/>
+      <c r="AY23" s="24"/>
+      <c r="AZ23" s="24"/>
+      <c r="BA23" s="24"/>
+      <c r="BB23" s="24"/>
+      <c r="BC23" s="24"/>
+      <c r="BD23" s="24"/>
+      <c r="BE23" s="24"/>
+      <c r="BF23" s="24"/>
+      <c r="BG23" s="24"/>
+      <c r="BH23" s="24"/>
+      <c r="BI23" s="24"/>
+      <c r="BJ23" s="24"/>
+      <c r="BK23" s="24"/>
+      <c r="BL23" s="24"/>
+      <c r="BM23" s="24"/>
+      <c r="BN23" s="31"/>
     </row>
     <row r="24">
-      <c r="AP24" s="68"/>
-      <c r="AQ24" s="68"/>
-      <c r="AR24" s="68"/>
-      <c r="AS24" s="68"/>
-      <c r="AT24" s="68"/>
-      <c r="AU24" s="68"/>
-      <c r="AV24" s="68"/>
-      <c r="AW24" s="68"/>
-      <c r="AX24" s="68"/>
-      <c r="AY24" s="68"/>
-      <c r="AZ24" s="68"/>
-      <c r="BA24" s="68"/>
-      <c r="BB24" s="68"/>
-      <c r="BC24" s="68"/>
-      <c r="BD24" s="73"/>
+      <c r="A24" s="743"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="24"/>
+      <c r="T24" s="24"/>
+      <c r="U24" s="24"/>
+      <c r="V24" s="24"/>
+      <c r="W24" s="24"/>
+      <c r="X24" s="24"/>
+      <c r="Y24" s="24"/>
+      <c r="Z24" s="24"/>
+      <c r="AA24" s="24"/>
+      <c r="AB24" s="24"/>
+      <c r="AC24" s="24"/>
+      <c r="AD24" s="24"/>
+      <c r="AE24" s="24"/>
+      <c r="AF24" s="24"/>
+      <c r="AG24" s="24"/>
+      <c r="AH24" s="24"/>
+      <c r="AI24" s="24"/>
+      <c r="AJ24" s="24"/>
+      <c r="AK24" s="24"/>
+      <c r="AL24" s="24"/>
+      <c r="AM24" s="24"/>
+      <c r="AN24" s="24"/>
+      <c r="AO24" s="24"/>
+      <c r="AP24" s="24"/>
+      <c r="AQ24" s="24"/>
+      <c r="AR24" s="24"/>
+      <c r="AS24" s="24"/>
+      <c r="AT24" s="24"/>
+      <c r="AU24" s="24"/>
+      <c r="AV24" s="24"/>
+      <c r="AW24" s="24"/>
+      <c r="AX24" s="24"/>
+      <c r="AY24" s="24"/>
+      <c r="AZ24" s="24"/>
+      <c r="BA24" s="24"/>
+      <c r="BB24" s="24"/>
+      <c r="BC24" s="24"/>
+      <c r="BD24" s="24"/>
+      <c r="BE24" s="24"/>
+      <c r="BF24" s="24"/>
+      <c r="BG24" s="24"/>
+      <c r="BH24" s="24"/>
+      <c r="BI24" s="24"/>
+      <c r="BJ24" s="24"/>
+      <c r="BK24" s="24"/>
+      <c r="BL24" s="24"/>
+      <c r="BM24" s="24"/>
+      <c r="BN24" s="31"/>
     </row>
     <row r="25">
-      <c r="AP25" s="68"/>
-      <c r="AQ25" s="68"/>
-      <c r="AR25" s="68"/>
-      <c r="AS25" s="68"/>
-      <c r="AT25" s="68"/>
-      <c r="AU25" s="68"/>
-      <c r="AV25" s="68"/>
-      <c r="AW25" s="68"/>
-      <c r="AX25" s="68"/>
-      <c r="AY25" s="68"/>
-      <c r="AZ25" s="68"/>
-      <c r="BA25" s="68"/>
-      <c r="BB25" s="68"/>
-      <c r="BC25" s="68"/>
-      <c r="BD25" s="68"/>
+      <c r="A25" s="743"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
+      <c r="S25" s="24"/>
+      <c r="T25" s="24"/>
+      <c r="U25" s="24"/>
+      <c r="V25" s="24"/>
+      <c r="W25" s="24"/>
+      <c r="X25" s="24"/>
+      <c r="Y25" s="24"/>
+      <c r="Z25" s="24"/>
+      <c r="AA25" s="24"/>
+      <c r="AB25" s="24"/>
+      <c r="AC25" s="24"/>
+      <c r="AD25" s="24"/>
+      <c r="AE25" s="24"/>
+      <c r="AF25" s="24"/>
+      <c r="AG25" s="24"/>
+      <c r="AH25" s="24"/>
+      <c r="AI25" s="24"/>
+      <c r="AJ25" s="24"/>
+      <c r="AK25" s="24"/>
+      <c r="AL25" s="24"/>
+      <c r="AM25" s="24"/>
+      <c r="AN25" s="24"/>
+      <c r="AO25" s="24"/>
+      <c r="AP25" s="24"/>
+      <c r="AQ25" s="24"/>
+      <c r="AR25" s="24"/>
+      <c r="AS25" s="24"/>
+      <c r="AT25" s="24"/>
+      <c r="AU25" s="24"/>
+      <c r="AV25" s="24"/>
+      <c r="AW25" s="24"/>
+      <c r="AX25" s="24"/>
+      <c r="AY25" s="24"/>
+      <c r="AZ25" s="24"/>
+      <c r="BA25" s="24"/>
+      <c r="BB25" s="24"/>
+      <c r="BC25" s="24"/>
+      <c r="BD25" s="24"/>
+      <c r="BE25" s="24"/>
+      <c r="BF25" s="24"/>
+      <c r="BG25" s="24"/>
+      <c r="BH25" s="24"/>
+      <c r="BI25" s="24"/>
+      <c r="BJ25" s="24"/>
+      <c r="BK25" s="24"/>
+      <c r="BL25" s="24"/>
+      <c r="BM25" s="24"/>
+      <c r="BN25" s="31"/>
     </row>
     <row r="26">
-      <c r="AP26" s="68"/>
-      <c r="AQ26" s="68"/>
-      <c r="AR26" s="68"/>
-      <c r="AS26" s="68"/>
-      <c r="AT26" s="68"/>
-      <c r="AU26" s="68"/>
-      <c r="AV26" s="68"/>
-      <c r="AW26" s="68"/>
-      <c r="AX26" s="68"/>
-      <c r="AY26" s="68"/>
-      <c r="AZ26" s="68"/>
-      <c r="BA26" s="68"/>
-      <c r="BB26" s="68"/>
-      <c r="BC26" s="68"/>
-      <c r="BD26" s="73"/>
+      <c r="A26" s="743"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="24"/>
+      <c r="S26" s="24"/>
+      <c r="T26" s="24"/>
+      <c r="U26" s="24"/>
+      <c r="V26" s="24"/>
+      <c r="W26" s="24"/>
+      <c r="X26" s="24"/>
+      <c r="Y26" s="24"/>
+      <c r="Z26" s="24"/>
+      <c r="AA26" s="24"/>
+      <c r="AB26" s="24"/>
+      <c r="AC26" s="24"/>
+      <c r="AD26" s="24"/>
+      <c r="AE26" s="24"/>
+      <c r="AF26" s="24"/>
+      <c r="AG26" s="24"/>
+      <c r="AH26" s="24"/>
+      <c r="AI26" s="24"/>
+      <c r="AJ26" s="24"/>
+      <c r="AK26" s="24"/>
+      <c r="AL26" s="24"/>
+      <c r="AM26" s="24"/>
+      <c r="AN26" s="24"/>
+      <c r="AO26" s="24"/>
+      <c r="AP26" s="24"/>
+      <c r="AQ26" s="24"/>
+      <c r="AR26" s="24"/>
+      <c r="AS26" s="24"/>
+      <c r="AT26" s="24"/>
+      <c r="AU26" s="24"/>
+      <c r="AV26" s="24"/>
+      <c r="AW26" s="24"/>
+      <c r="AX26" s="24"/>
+      <c r="AY26" s="24"/>
+      <c r="AZ26" s="24"/>
+      <c r="BA26" s="24"/>
+      <c r="BB26" s="24"/>
+      <c r="BC26" s="24"/>
+      <c r="BD26" s="24"/>
+      <c r="BE26" s="24"/>
+      <c r="BF26" s="24"/>
+      <c r="BG26" s="24"/>
+      <c r="BH26" s="24"/>
+      <c r="BI26" s="24"/>
+      <c r="BJ26" s="24"/>
+      <c r="BK26" s="24"/>
+      <c r="BL26" s="24"/>
+      <c r="BM26" s="24"/>
+      <c r="BN26" s="31"/>
     </row>
     <row r="27">
-      <c r="AP27" s="68"/>
-      <c r="AQ27" s="68"/>
-      <c r="AR27" s="68"/>
-      <c r="AS27" s="68"/>
-      <c r="AT27" s="68"/>
-      <c r="AU27" s="68"/>
-      <c r="AV27" s="68"/>
-      <c r="AW27" s="68"/>
-      <c r="AX27" s="68"/>
-      <c r="AY27" s="68"/>
-      <c r="AZ27" s="68"/>
-      <c r="BA27" s="68"/>
-      <c r="BB27" s="68"/>
-      <c r="BC27" s="68"/>
-      <c r="BD27" s="68"/>
+      <c r="A27" s="743"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="24"/>
+      <c r="S27" s="24"/>
+      <c r="T27" s="24"/>
+      <c r="U27" s="24"/>
+      <c r="V27" s="24"/>
+      <c r="W27" s="24"/>
+      <c r="X27" s="24"/>
+      <c r="Y27" s="24"/>
+      <c r="Z27" s="24"/>
+      <c r="AA27" s="24"/>
+      <c r="AB27" s="24"/>
+      <c r="AC27" s="24"/>
+      <c r="AD27" s="24"/>
+      <c r="AE27" s="24"/>
+      <c r="AF27" s="24"/>
+      <c r="AG27" s="24"/>
+      <c r="AH27" s="24"/>
+      <c r="AI27" s="24"/>
+      <c r="AJ27" s="24"/>
+      <c r="AK27" s="24"/>
+      <c r="AL27" s="24"/>
+      <c r="AM27" s="24"/>
+      <c r="AN27" s="24"/>
+      <c r="AO27" s="24"/>
+      <c r="AP27" s="24"/>
+      <c r="AQ27" s="24"/>
+      <c r="AR27" s="24"/>
+      <c r="AS27" s="24"/>
+      <c r="AT27" s="24"/>
+      <c r="AU27" s="24"/>
+      <c r="AV27" s="24"/>
+      <c r="AW27" s="24"/>
+      <c r="AX27" s="24"/>
+      <c r="AY27" s="24"/>
+      <c r="AZ27" s="24"/>
+      <c r="BA27" s="24"/>
+      <c r="BB27" s="24"/>
+      <c r="BC27" s="24"/>
+      <c r="BD27" s="24"/>
+      <c r="BE27" s="24"/>
+      <c r="BF27" s="24"/>
+      <c r="BG27" s="24"/>
+      <c r="BH27" s="24"/>
+      <c r="BI27" s="24"/>
+      <c r="BJ27" s="24"/>
+      <c r="BK27" s="24"/>
+      <c r="BL27" s="24"/>
+      <c r="BM27" s="24"/>
+      <c r="BN27" s="31"/>
     </row>
     <row r="28">
-      <c r="AP28" s="68"/>
-      <c r="AQ28" s="68"/>
-      <c r="AR28" s="68"/>
-      <c r="AS28" s="68"/>
-      <c r="AT28" s="68"/>
-      <c r="AU28" s="68"/>
-      <c r="AV28" s="68"/>
-      <c r="AW28" s="68"/>
-      <c r="AX28" s="68"/>
-      <c r="AY28" s="68"/>
-      <c r="AZ28" s="68"/>
-      <c r="BA28" s="68"/>
-      <c r="BB28" s="68"/>
-      <c r="BC28" s="68"/>
-      <c r="BD28" s="73"/>
+      <c r="A28" s="743"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="24"/>
+      <c r="R28" s="24"/>
+      <c r="S28" s="24"/>
+      <c r="T28" s="24"/>
+      <c r="U28" s="24"/>
+      <c r="V28" s="24"/>
+      <c r="W28" s="24"/>
+      <c r="X28" s="24"/>
+      <c r="Y28" s="24"/>
+      <c r="Z28" s="24"/>
+      <c r="AA28" s="24"/>
+      <c r="AB28" s="24"/>
+      <c r="AC28" s="24"/>
+      <c r="AD28" s="24"/>
+      <c r="AE28" s="24"/>
+      <c r="AF28" s="24"/>
+      <c r="AG28" s="24"/>
+      <c r="AH28" s="24"/>
+      <c r="AI28" s="24"/>
+      <c r="AJ28" s="24"/>
+      <c r="AK28" s="24"/>
+      <c r="AL28" s="24"/>
+      <c r="AM28" s="24"/>
+      <c r="AN28" s="24"/>
+      <c r="AO28" s="24"/>
+      <c r="AP28" s="24"/>
+      <c r="AQ28" s="24"/>
+      <c r="AR28" s="24"/>
+      <c r="AS28" s="24"/>
+      <c r="AT28" s="24"/>
+      <c r="AU28" s="24"/>
+      <c r="AV28" s="24"/>
+      <c r="AW28" s="24"/>
+      <c r="AX28" s="24"/>
+      <c r="AY28" s="24"/>
+      <c r="AZ28" s="24"/>
+      <c r="BA28" s="24"/>
+      <c r="BB28" s="24"/>
+      <c r="BC28" s="24"/>
+      <c r="BD28" s="24"/>
+      <c r="BE28" s="24"/>
+      <c r="BF28" s="24"/>
+      <c r="BG28" s="24"/>
+      <c r="BH28" s="24"/>
+      <c r="BI28" s="24"/>
+      <c r="BJ28" s="24"/>
+      <c r="BK28" s="24"/>
+      <c r="BL28" s="24"/>
+      <c r="BM28" s="24"/>
+      <c r="BN28" s="31"/>
     </row>
     <row r="29">
-      <c r="AP29" s="68"/>
-      <c r="AQ29" s="68"/>
-      <c r="AR29" s="68"/>
-      <c r="AS29" s="68"/>
-      <c r="AT29" s="68"/>
-      <c r="AU29" s="68"/>
-      <c r="AV29" s="68"/>
-      <c r="AW29" s="68"/>
-      <c r="AX29" s="68"/>
-      <c r="AY29" s="68"/>
-      <c r="AZ29" s="68"/>
-      <c r="BA29" s="68"/>
-      <c r="BB29" s="68"/>
-      <c r="BC29" s="68"/>
-      <c r="BD29" s="68"/>
+      <c r="A29" s="743"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="24"/>
+      <c r="S29" s="24"/>
+      <c r="T29" s="24"/>
+      <c r="U29" s="24"/>
+      <c r="V29" s="24"/>
+      <c r="W29" s="24"/>
+      <c r="X29" s="24"/>
+      <c r="Y29" s="24"/>
+      <c r="Z29" s="24"/>
+      <c r="AA29" s="24"/>
+      <c r="AB29" s="24"/>
+      <c r="AC29" s="24"/>
+      <c r="AD29" s="24"/>
+      <c r="AE29" s="24"/>
+      <c r="AF29" s="24"/>
+      <c r="AG29" s="24"/>
+      <c r="AH29" s="24"/>
+      <c r="AI29" s="24"/>
+      <c r="AJ29" s="24"/>
+      <c r="AK29" s="24"/>
+      <c r="AL29" s="24"/>
+      <c r="AM29" s="24"/>
+      <c r="AN29" s="24"/>
+      <c r="AO29" s="24"/>
+      <c r="AP29" s="24"/>
+      <c r="AQ29" s="24"/>
+      <c r="AR29" s="24"/>
+      <c r="AS29" s="24"/>
+      <c r="AT29" s="24"/>
+      <c r="AU29" s="24"/>
+      <c r="AV29" s="24"/>
+      <c r="AW29" s="24"/>
+      <c r="AX29" s="24"/>
+      <c r="AY29" s="24"/>
+      <c r="AZ29" s="24"/>
+      <c r="BA29" s="24"/>
+      <c r="BB29" s="24"/>
+      <c r="BC29" s="24"/>
+      <c r="BD29" s="24"/>
+      <c r="BE29" s="24"/>
+      <c r="BF29" s="24"/>
+      <c r="BG29" s="24"/>
+      <c r="BH29" s="24"/>
+      <c r="BI29" s="24"/>
+      <c r="BJ29" s="24"/>
+      <c r="BK29" s="24"/>
+      <c r="BL29" s="24"/>
+      <c r="BM29" s="24"/>
+      <c r="BN29" s="31"/>
     </row>
     <row r="30">
-      <c r="AP30" s="68"/>
-      <c r="AQ30" s="68"/>
-      <c r="AR30" s="68"/>
-      <c r="AS30" s="68"/>
-      <c r="AT30" s="68"/>
-      <c r="AU30" s="68"/>
-      <c r="AV30" s="68"/>
-      <c r="AW30" s="68"/>
-      <c r="AX30" s="68"/>
-      <c r="AY30" s="68"/>
-      <c r="AZ30" s="68"/>
-      <c r="BA30" s="68"/>
-      <c r="BB30" s="68"/>
-      <c r="BC30" s="68"/>
-      <c r="BD30" s="68"/>
+      <c r="A30" s="743"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="24"/>
+      <c r="Q30" s="24"/>
+      <c r="R30" s="24"/>
+      <c r="S30" s="24"/>
+      <c r="T30" s="24"/>
+      <c r="U30" s="24"/>
+      <c r="V30" s="24"/>
+      <c r="W30" s="24"/>
+      <c r="X30" s="24"/>
+      <c r="Y30" s="24"/>
+      <c r="Z30" s="24"/>
+      <c r="AA30" s="24"/>
+      <c r="AB30" s="24"/>
+      <c r="AC30" s="24"/>
+      <c r="AD30" s="24"/>
+      <c r="AE30" s="24"/>
+      <c r="AF30" s="24"/>
+      <c r="AG30" s="24"/>
+      <c r="AH30" s="24"/>
+      <c r="AI30" s="24"/>
+      <c r="AJ30" s="24"/>
+      <c r="AK30" s="24"/>
+      <c r="AL30" s="24"/>
+      <c r="AM30" s="24"/>
+      <c r="AN30" s="24"/>
+      <c r="AO30" s="24"/>
+      <c r="AP30" s="24"/>
+      <c r="AQ30" s="24"/>
+      <c r="AR30" s="24"/>
+      <c r="AS30" s="24"/>
+      <c r="AT30" s="24"/>
+      <c r="AU30" s="24"/>
+      <c r="AV30" s="24"/>
+      <c r="AW30" s="24"/>
+      <c r="AX30" s="24"/>
+      <c r="AY30" s="24"/>
+      <c r="AZ30" s="24"/>
+      <c r="BA30" s="24"/>
+      <c r="BB30" s="24"/>
+      <c r="BC30" s="24"/>
+      <c r="BD30" s="24"/>
+      <c r="BE30" s="24"/>
+      <c r="BF30" s="24"/>
+      <c r="BG30" s="24"/>
+      <c r="BH30" s="24"/>
+      <c r="BI30" s="24"/>
+      <c r="BJ30" s="24"/>
+      <c r="BK30" s="24"/>
+      <c r="BL30" s="24"/>
+      <c r="BM30" s="24"/>
+      <c r="BN30" s="31"/>
     </row>
     <row r="31">
-      <c r="AP31" s="68"/>
-      <c r="AQ31" s="68"/>
-      <c r="AR31" s="68"/>
-      <c r="AS31" s="68"/>
-      <c r="AT31" s="68"/>
-      <c r="AU31" s="68"/>
-      <c r="AV31" s="68"/>
-      <c r="AW31" s="68"/>
-      <c r="AX31" s="68"/>
-      <c r="AY31" s="68"/>
-      <c r="AZ31" s="68"/>
-      <c r="BA31" s="68"/>
-      <c r="BB31" s="68"/>
-      <c r="BC31" s="68"/>
-      <c r="BD31" s="68"/>
+      <c r="A31" s="743"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="24"/>
+      <c r="O31" s="24"/>
+      <c r="P31" s="24"/>
+      <c r="Q31" s="24"/>
+      <c r="R31" s="24"/>
+      <c r="S31" s="24"/>
+      <c r="T31" s="24"/>
+      <c r="U31" s="24"/>
+      <c r="V31" s="24"/>
+      <c r="W31" s="24"/>
+      <c r="X31" s="24"/>
+      <c r="Y31" s="24"/>
+      <c r="Z31" s="24"/>
+      <c r="AA31" s="24"/>
+      <c r="AB31" s="24"/>
+      <c r="AC31" s="24"/>
+      <c r="AD31" s="24"/>
+      <c r="AE31" s="24"/>
+      <c r="AF31" s="24"/>
+      <c r="AG31" s="24"/>
+      <c r="AH31" s="24"/>
+      <c r="AI31" s="24"/>
+      <c r="AJ31" s="24"/>
+      <c r="AK31" s="24"/>
+      <c r="AL31" s="24"/>
+      <c r="AM31" s="24"/>
+      <c r="AN31" s="24"/>
+      <c r="AO31" s="24"/>
+      <c r="AP31" s="24"/>
+      <c r="AQ31" s="24"/>
+      <c r="AR31" s="24"/>
+      <c r="AS31" s="24"/>
+      <c r="AT31" s="24"/>
+      <c r="AU31" s="24"/>
+      <c r="AV31" s="24"/>
+      <c r="AW31" s="24"/>
+      <c r="AX31" s="24"/>
+      <c r="AY31" s="24"/>
+      <c r="AZ31" s="24"/>
+      <c r="BA31" s="24"/>
+      <c r="BB31" s="24"/>
+      <c r="BC31" s="24"/>
+      <c r="BD31" s="24"/>
+      <c r="BE31" s="24"/>
+      <c r="BF31" s="24"/>
+      <c r="BG31" s="24"/>
+      <c r="BH31" s="24"/>
+      <c r="BI31" s="24"/>
+      <c r="BJ31" s="24"/>
+      <c r="BK31" s="24"/>
+      <c r="BL31" s="24"/>
+      <c r="BM31" s="24"/>
+      <c r="BN31" s="31"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="743"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="24"/>
+      <c r="O32" s="24"/>
+      <c r="P32" s="24"/>
+      <c r="Q32" s="24"/>
+      <c r="R32" s="24"/>
+      <c r="S32" s="24"/>
+      <c r="T32" s="24"/>
+      <c r="U32" s="24"/>
+      <c r="V32" s="24"/>
+      <c r="W32" s="24"/>
+      <c r="X32" s="24"/>
+      <c r="Y32" s="24"/>
+      <c r="Z32" s="24"/>
+      <c r="AA32" s="24"/>
+      <c r="AB32" s="24"/>
+      <c r="AC32" s="24"/>
+      <c r="AD32" s="24"/>
+      <c r="AE32" s="24"/>
+      <c r="AF32" s="24"/>
+      <c r="AG32" s="24"/>
+      <c r="AH32" s="24"/>
+      <c r="AI32" s="24"/>
+      <c r="AJ32" s="24"/>
+      <c r="AK32" s="24"/>
+      <c r="AL32" s="24"/>
+      <c r="AM32" s="24"/>
+      <c r="AN32" s="24"/>
+      <c r="AO32" s="24"/>
+      <c r="AP32" s="24"/>
+      <c r="AQ32" s="24"/>
+      <c r="AR32" s="24"/>
+      <c r="AS32" s="24"/>
+      <c r="AT32" s="24"/>
+      <c r="AU32" s="24"/>
+      <c r="AV32" s="24"/>
+      <c r="AW32" s="24"/>
+      <c r="AX32" s="24"/>
+      <c r="AY32" s="24"/>
+      <c r="AZ32" s="24"/>
+      <c r="BA32" s="24"/>
+      <c r="BB32" s="24"/>
+      <c r="BC32" s="24"/>
+      <c r="BD32" s="24"/>
+      <c r="BE32" s="24"/>
+      <c r="BF32" s="24"/>
+      <c r="BG32" s="24"/>
+      <c r="BH32" s="24"/>
+      <c r="BI32" s="24"/>
+      <c r="BJ32" s="24"/>
+      <c r="BK32" s="24"/>
+      <c r="BL32" s="24"/>
+      <c r="BM32" s="24"/>
+      <c r="BN32" s="31"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="743"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="24"/>
+      <c r="O33" s="24"/>
+      <c r="P33" s="24"/>
+      <c r="Q33" s="24"/>
+      <c r="R33" s="24"/>
+      <c r="S33" s="24"/>
+      <c r="T33" s="24"/>
+      <c r="U33" s="24"/>
+      <c r="V33" s="24"/>
+      <c r="W33" s="24"/>
+      <c r="X33" s="24"/>
+      <c r="Y33" s="24"/>
+      <c r="Z33" s="24"/>
+      <c r="AA33" s="24"/>
+      <c r="AB33" s="24"/>
+      <c r="AC33" s="24"/>
+      <c r="AD33" s="24"/>
+      <c r="AE33" s="24"/>
+      <c r="AF33" s="24"/>
+      <c r="AG33" s="24"/>
+      <c r="AH33" s="24"/>
+      <c r="AI33" s="24"/>
+      <c r="AJ33" s="24"/>
+      <c r="AK33" s="24"/>
+      <c r="AL33" s="24"/>
+      <c r="AM33" s="24"/>
+      <c r="AN33" s="24"/>
+      <c r="AO33" s="24"/>
+      <c r="AP33" s="24"/>
+      <c r="AQ33" s="24"/>
+      <c r="AR33" s="24"/>
+      <c r="AS33" s="24"/>
+      <c r="AT33" s="24"/>
+      <c r="AU33" s="24"/>
+      <c r="AV33" s="24"/>
+      <c r="AW33" s="24"/>
+      <c r="AX33" s="24"/>
+      <c r="AY33" s="24"/>
+      <c r="AZ33" s="24"/>
+      <c r="BA33" s="24"/>
+      <c r="BB33" s="24"/>
+      <c r="BC33" s="24"/>
+      <c r="BD33" s="24"/>
+      <c r="BE33" s="24"/>
+      <c r="BF33" s="24"/>
+      <c r="BG33" s="24"/>
+      <c r="BH33" s="24"/>
+      <c r="BI33" s="24"/>
+      <c r="BJ33" s="24"/>
+      <c r="BK33" s="24"/>
+      <c r="BL33" s="24"/>
+      <c r="BM33" s="24"/>
+      <c r="BN33" s="31"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="743"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="24"/>
+      <c r="P34" s="24"/>
+      <c r="Q34" s="24"/>
+      <c r="R34" s="24"/>
+      <c r="S34" s="24"/>
+      <c r="T34" s="24"/>
+      <c r="U34" s="24"/>
+      <c r="V34" s="24"/>
+      <c r="W34" s="24"/>
+      <c r="X34" s="24"/>
+      <c r="Y34" s="24"/>
+      <c r="Z34" s="24"/>
+      <c r="AA34" s="24"/>
+      <c r="AB34" s="24"/>
+      <c r="AC34" s="24"/>
+      <c r="AD34" s="24"/>
+      <c r="AE34" s="24"/>
+      <c r="AF34" s="24"/>
+      <c r="AG34" s="24"/>
+      <c r="AH34" s="24"/>
+      <c r="AI34" s="24"/>
+      <c r="AJ34" s="24"/>
+      <c r="AK34" s="24"/>
+      <c r="AL34" s="24"/>
+      <c r="AM34" s="24"/>
+      <c r="AN34" s="24"/>
+      <c r="AO34" s="24"/>
+      <c r="AP34" s="24"/>
+      <c r="AQ34" s="24"/>
+      <c r="AR34" s="24"/>
+      <c r="AS34" s="24"/>
+      <c r="AT34" s="24"/>
+      <c r="AU34" s="24"/>
+      <c r="AV34" s="24"/>
+      <c r="AW34" s="24"/>
+      <c r="AX34" s="24"/>
+      <c r="AY34" s="24"/>
+      <c r="AZ34" s="24"/>
+      <c r="BA34" s="24"/>
+      <c r="BB34" s="24"/>
+      <c r="BC34" s="24"/>
+      <c r="BD34" s="24"/>
+      <c r="BE34" s="24"/>
+      <c r="BF34" s="24"/>
+      <c r="BG34" s="24"/>
+      <c r="BH34" s="24"/>
+      <c r="BI34" s="24"/>
+      <c r="BJ34" s="24"/>
+      <c r="BK34" s="24"/>
+      <c r="BL34" s="24"/>
+      <c r="BM34" s="24"/>
+      <c r="BN34" s="31"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="743"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="24"/>
+      <c r="O35" s="24"/>
+      <c r="P35" s="24"/>
+      <c r="Q35" s="24"/>
+      <c r="R35" s="24"/>
+      <c r="S35" s="24"/>
+      <c r="T35" s="24"/>
+      <c r="U35" s="24"/>
+      <c r="V35" s="24"/>
+      <c r="W35" s="24"/>
+      <c r="X35" s="24"/>
+      <c r="Y35" s="24"/>
+      <c r="Z35" s="24"/>
+      <c r="AA35" s="24"/>
+      <c r="AB35" s="24"/>
+      <c r="AC35" s="24"/>
+      <c r="AD35" s="24"/>
+      <c r="AE35" s="24"/>
+      <c r="AF35" s="24"/>
+      <c r="AG35" s="24"/>
+      <c r="AH35" s="24"/>
+      <c r="AI35" s="24"/>
+      <c r="AJ35" s="24"/>
+      <c r="AK35" s="24"/>
+      <c r="AL35" s="24"/>
+      <c r="AM35" s="24"/>
+      <c r="AN35" s="24"/>
+      <c r="AO35" s="24"/>
+      <c r="AP35" s="24"/>
+      <c r="AQ35" s="24"/>
+      <c r="AR35" s="24"/>
+      <c r="AS35" s="24"/>
+      <c r="AT35" s="24"/>
+      <c r="AU35" s="24"/>
+      <c r="AV35" s="24"/>
+      <c r="AW35" s="24"/>
+      <c r="AX35" s="24"/>
+      <c r="AY35" s="24"/>
+      <c r="AZ35" s="24"/>
+      <c r="BA35" s="24"/>
+      <c r="BB35" s="24"/>
+      <c r="BC35" s="24"/>
+      <c r="BD35" s="24"/>
+      <c r="BE35" s="24"/>
+      <c r="BF35" s="24"/>
+      <c r="BG35" s="24"/>
+      <c r="BH35" s="24"/>
+      <c r="BI35" s="24"/>
+      <c r="BJ35" s="24"/>
+      <c r="BK35" s="24"/>
+      <c r="BL35" s="24"/>
+      <c r="BM35" s="24"/>
+      <c r="BN35" s="31"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="743"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="24"/>
+      <c r="O36" s="24"/>
+      <c r="P36" s="24"/>
+      <c r="Q36" s="24"/>
+      <c r="R36" s="24"/>
+      <c r="S36" s="24"/>
+      <c r="T36" s="24"/>
+      <c r="U36" s="24"/>
+      <c r="V36" s="24"/>
+      <c r="W36" s="24"/>
+      <c r="X36" s="24"/>
+      <c r="Y36" s="24"/>
+      <c r="Z36" s="24"/>
+      <c r="AA36" s="24"/>
+      <c r="AB36" s="24"/>
+      <c r="AC36" s="24"/>
+      <c r="AD36" s="24"/>
+      <c r="AE36" s="24"/>
+      <c r="AF36" s="24"/>
+      <c r="AG36" s="24"/>
+      <c r="AH36" s="24"/>
+      <c r="AI36" s="24"/>
+      <c r="AJ36" s="24"/>
+      <c r="AK36" s="24"/>
+      <c r="AL36" s="24"/>
+      <c r="AM36" s="24"/>
+      <c r="AN36" s="24"/>
+      <c r="AO36" s="24"/>
+      <c r="AP36" s="24"/>
+      <c r="AQ36" s="24"/>
+      <c r="AR36" s="24"/>
+      <c r="AS36" s="24"/>
+      <c r="AT36" s="24"/>
+      <c r="AU36" s="24"/>
+      <c r="AV36" s="24"/>
+      <c r="AW36" s="24"/>
+      <c r="AX36" s="24"/>
+      <c r="AY36" s="24"/>
+      <c r="AZ36" s="24"/>
+      <c r="BA36" s="24"/>
+      <c r="BB36" s="24"/>
+      <c r="BC36" s="24"/>
+      <c r="BD36" s="24"/>
+      <c r="BE36" s="24"/>
+      <c r="BF36" s="24"/>
+      <c r="BG36" s="24"/>
+      <c r="BH36" s="24"/>
+      <c r="BI36" s="24"/>
+      <c r="BJ36" s="24"/>
+      <c r="BK36" s="24"/>
+      <c r="BL36" s="24"/>
+      <c r="BM36" s="24"/>
+      <c r="BN36" s="31"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="743"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="24"/>
+      <c r="O37" s="24"/>
+      <c r="P37" s="24"/>
+      <c r="Q37" s="24"/>
+      <c r="R37" s="24"/>
+      <c r="S37" s="24"/>
+      <c r="T37" s="24"/>
+      <c r="U37" s="24"/>
+      <c r="V37" s="24"/>
+      <c r="W37" s="24"/>
+      <c r="X37" s="24"/>
+      <c r="Y37" s="24"/>
+      <c r="Z37" s="24"/>
+      <c r="AA37" s="24"/>
+      <c r="AB37" s="24"/>
+      <c r="AC37" s="24"/>
+      <c r="AD37" s="24"/>
+      <c r="AE37" s="24"/>
+      <c r="AF37" s="24"/>
+      <c r="AG37" s="24"/>
+      <c r="AH37" s="24"/>
+      <c r="AI37" s="24"/>
+      <c r="AJ37" s="24"/>
+      <c r="AK37" s="24"/>
+      <c r="AL37" s="24"/>
+      <c r="AM37" s="24"/>
+      <c r="AN37" s="24"/>
+      <c r="AO37" s="24"/>
+      <c r="AP37" s="24"/>
+      <c r="AQ37" s="24"/>
+      <c r="AR37" s="24"/>
+      <c r="AS37" s="24"/>
+      <c r="AT37" s="24"/>
+      <c r="AU37" s="24"/>
+      <c r="AV37" s="24"/>
+      <c r="AW37" s="24"/>
+      <c r="AX37" s="24"/>
+      <c r="AY37" s="24"/>
+      <c r="AZ37" s="24"/>
+      <c r="BA37" s="24"/>
+      <c r="BB37" s="24"/>
+      <c r="BC37" s="24"/>
+      <c r="BD37" s="24"/>
+      <c r="BE37" s="24"/>
+      <c r="BF37" s="24"/>
+      <c r="BG37" s="24"/>
+      <c r="BH37" s="24"/>
+      <c r="BI37" s="24"/>
+      <c r="BJ37" s="24"/>
+      <c r="BK37" s="24"/>
+      <c r="BL37" s="24"/>
+      <c r="BM37" s="24"/>
+      <c r="BN37" s="31"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="55"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="56"/>
+      <c r="I38" s="56"/>
+      <c r="J38" s="56"/>
+      <c r="K38" s="56"/>
+      <c r="L38" s="56"/>
+      <c r="M38" s="56"/>
+      <c r="N38" s="56"/>
+      <c r="O38" s="56"/>
+      <c r="P38" s="56"/>
+      <c r="Q38" s="56"/>
+      <c r="R38" s="56"/>
+      <c r="S38" s="56"/>
+      <c r="T38" s="56"/>
+      <c r="U38" s="56"/>
+      <c r="V38" s="56"/>
+      <c r="W38" s="56"/>
+      <c r="X38" s="56"/>
+      <c r="Y38" s="56"/>
+      <c r="Z38" s="56"/>
+      <c r="AA38" s="56"/>
+      <c r="AB38" s="56"/>
+      <c r="AC38" s="56"/>
+      <c r="AD38" s="56"/>
+      <c r="AE38" s="56"/>
+      <c r="AF38" s="56"/>
+      <c r="AG38" s="56"/>
+      <c r="AH38" s="56"/>
+      <c r="AI38" s="56"/>
+      <c r="AJ38" s="56"/>
+      <c r="AK38" s="56"/>
+      <c r="AL38" s="56"/>
+      <c r="AM38" s="56"/>
+      <c r="AN38" s="56"/>
+      <c r="AO38" s="56"/>
+      <c r="AP38" s="56"/>
+      <c r="AQ38" s="56"/>
+      <c r="AR38" s="56"/>
+      <c r="AS38" s="56"/>
+      <c r="AT38" s="56"/>
+      <c r="AU38" s="56"/>
+      <c r="AV38" s="56"/>
+      <c r="AW38" s="56"/>
+      <c r="AX38" s="56"/>
+      <c r="AY38" s="56"/>
+      <c r="AZ38" s="56"/>
+      <c r="BA38" s="56"/>
+      <c r="BB38" s="56"/>
+      <c r="BC38" s="56"/>
+      <c r="BD38" s="56"/>
+      <c r="BE38" s="56"/>
+      <c r="BF38" s="56"/>
+      <c r="BG38" s="56"/>
+      <c r="BH38" s="56"/>
+      <c r="BI38" s="56"/>
+      <c r="BJ38" s="56"/>
+      <c r="BK38" s="56"/>
+      <c r="BL38" s="56"/>
+      <c r="BM38" s="56"/>
+      <c r="BN38" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="35">
@@ -10618,7 +12381,7 @@
   <dimension ref="A1:BM33"/>
   <sheetViews>
     <sheetView showGridLines="false" topLeftCell="A1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:N5" activeCellId="0"/>
+      <selection activeCell="AD23" sqref="AD23" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="11.25" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13226,7 +14989,7 @@
   <dimension ref="A1:BN36"/>
   <sheetViews>
     <sheetView showGridLines="false" zoomScale="120" zoomScaleNormal="120" workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="AB20" sqref="AB20" activeCellId="0"/>
+      <selection activeCell="BT11" sqref="BT11" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="11.25" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13235,7 +14998,9 @@
     <col min="12" max="12" width="2" style="24" bestFit="1" customWidth="1"/>
     <col min="13" max="27" width="2.125" style="24"/>
     <col min="28" max="28" width="5.375" style="24" customWidth="1"/>
-    <col min="29" max="281" width="2.125" style="24"/>
+    <col min="29" max="63" width="2.125" style="24"/>
+    <col min="64" max="64" width="2.75" style="24" customWidth="1"/>
+    <col min="65" max="281" width="2.125" style="24"/>
     <col min="282" max="282" width="5.375" style="24" customWidth="1"/>
     <col min="283" max="537" width="2.125" style="24"/>
     <col min="538" max="538" width="5.375" style="24" customWidth="1"/>
@@ -13633,78 +15398,78 @@
       <c r="BL4" s="135"/>
     </row>
     <row r="5" customHeight="1" ht="12">
-      <c r="A5" s="206" t="s">
+      <c r="A5" s="751" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="207"/>
-      <c r="C5" s="207"/>
-      <c r="D5" s="207"/>
-      <c r="E5" s="207"/>
-      <c r="F5" s="208"/>
-      <c r="G5" s="209"/>
-      <c r="H5" s="209"/>
-      <c r="I5" s="209"/>
-      <c r="J5" s="209"/>
-      <c r="K5" s="209"/>
-      <c r="L5" s="209"/>
-      <c r="M5" s="209"/>
-      <c r="N5" s="209"/>
-      <c r="O5" s="210"/>
-      <c r="P5" s="206" t="s">
+      <c r="B5" s="752"/>
+      <c r="C5" s="752"/>
+      <c r="D5" s="752"/>
+      <c r="E5" s="752"/>
+      <c r="F5" s="753"/>
+      <c r="G5" s="738"/>
+      <c r="H5" s="738"/>
+      <c r="I5" s="738"/>
+      <c r="J5" s="738"/>
+      <c r="K5" s="738"/>
+      <c r="L5" s="738"/>
+      <c r="M5" s="738"/>
+      <c r="N5" s="738"/>
+      <c r="O5" s="754"/>
+      <c r="P5" s="751" t="s">
         <v>18</v>
       </c>
-      <c r="Q5" s="207"/>
-      <c r="R5" s="207"/>
-      <c r="S5" s="207"/>
-      <c r="T5" s="207"/>
-      <c r="U5" s="208"/>
-      <c r="V5" s="211"/>
-      <c r="W5" s="212"/>
-      <c r="X5" s="212"/>
-      <c r="Y5" s="212"/>
-      <c r="Z5" s="212"/>
-      <c r="AA5" s="212"/>
-      <c r="AB5" s="212"/>
-      <c r="AC5" s="212"/>
-      <c r="AD5" s="212"/>
-      <c r="AE5" s="212"/>
-      <c r="AF5" s="212"/>
-      <c r="AG5" s="212"/>
-      <c r="AH5" s="212"/>
-      <c r="AI5" s="212"/>
-      <c r="AJ5" s="212"/>
-      <c r="AK5" s="212"/>
-      <c r="AL5" s="212"/>
-      <c r="AM5" s="212"/>
-      <c r="AN5" s="212"/>
-      <c r="AO5" s="475"/>
-      <c r="AP5" s="475"/>
-      <c r="AQ5" s="475"/>
-      <c r="AR5" s="475"/>
-      <c r="AS5" s="475"/>
-      <c r="AT5" s="475"/>
-      <c r="AU5" s="475"/>
-      <c r="AV5" s="476"/>
-      <c r="AW5" s="477" t="s">
+      <c r="Q5" s="752"/>
+      <c r="R5" s="752"/>
+      <c r="S5" s="752"/>
+      <c r="T5" s="752"/>
+      <c r="U5" s="753"/>
+      <c r="V5" s="755"/>
+      <c r="W5" s="741"/>
+      <c r="X5" s="741"/>
+      <c r="Y5" s="741"/>
+      <c r="Z5" s="741"/>
+      <c r="AA5" s="741"/>
+      <c r="AB5" s="741"/>
+      <c r="AC5" s="741"/>
+      <c r="AD5" s="741"/>
+      <c r="AE5" s="741"/>
+      <c r="AF5" s="741"/>
+      <c r="AG5" s="741"/>
+      <c r="AH5" s="741"/>
+      <c r="AI5" s="741"/>
+      <c r="AJ5" s="741"/>
+      <c r="AK5" s="741"/>
+      <c r="AL5" s="741"/>
+      <c r="AM5" s="741"/>
+      <c r="AN5" s="741"/>
+      <c r="AO5" s="756"/>
+      <c r="AP5" s="756"/>
+      <c r="AQ5" s="756"/>
+      <c r="AR5" s="756"/>
+      <c r="AS5" s="756"/>
+      <c r="AT5" s="756"/>
+      <c r="AU5" s="756"/>
+      <c r="AV5" s="757"/>
+      <c r="AW5" s="758" t="s">
         <v>19</v>
       </c>
-      <c r="AX5" s="478"/>
-      <c r="AY5" s="479"/>
-      <c r="AZ5" s="478"/>
-      <c r="BA5" s="478"/>
-      <c r="BB5" s="478"/>
-      <c r="BC5" s="478"/>
-      <c r="BD5" s="478"/>
-      <c r="BE5" s="478"/>
-      <c r="BF5" s="477" t="s">
+      <c r="AX5" s="759"/>
+      <c r="AY5" s="760"/>
+      <c r="AZ5" s="759"/>
+      <c r="BA5" s="759"/>
+      <c r="BB5" s="759"/>
+      <c r="BC5" s="759"/>
+      <c r="BD5" s="759"/>
+      <c r="BE5" s="759"/>
+      <c r="BF5" s="758" t="s">
         <v>20</v>
       </c>
-      <c r="BG5" s="478"/>
-      <c r="BH5" s="478"/>
-      <c r="BI5" s="477"/>
-      <c r="BJ5" s="475"/>
-      <c r="BK5" s="475"/>
-      <c r="BL5" s="476"/>
+      <c r="BG5" s="759"/>
+      <c r="BH5" s="759"/>
+      <c r="BI5" s="758"/>
+      <c r="BJ5" s="756"/>
+      <c r="BK5" s="756"/>
+      <c r="BL5" s="757"/>
     </row>
     <row r="6" customHeight="1" ht="12">
       <c r="A6" s="245" t="s">
@@ -14749,66 +16514,66 @@
       <c r="BL17" s="471"/>
     </row>
     <row r="18" customHeight="1" ht="12">
-      <c r="A18" s="61">
+      <c r="A18" s="761">
         <v>10</v>
       </c>
-      <c r="B18" s="156" t="s">
+      <c r="B18" s="746" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="157"/>
-      <c r="D18" s="157"/>
-      <c r="E18" s="157"/>
-      <c r="F18" s="157"/>
-      <c r="G18" s="157"/>
-      <c r="H18" s="157"/>
-      <c r="I18" s="157"/>
-      <c r="J18" s="157"/>
-      <c r="K18" s="157"/>
-      <c r="L18" s="270"/>
-      <c r="M18" s="411" t="s">
+      <c r="C18" s="171"/>
+      <c r="D18" s="171"/>
+      <c r="E18" s="171"/>
+      <c r="F18" s="171"/>
+      <c r="G18" s="171"/>
+      <c r="H18" s="171"/>
+      <c r="I18" s="171"/>
+      <c r="J18" s="171"/>
+      <c r="K18" s="171"/>
+      <c r="L18" s="762"/>
+      <c r="M18" s="763" t="s">
         <v>25</v>
       </c>
-      <c r="N18" s="412"/>
-      <c r="O18" s="412"/>
-      <c r="P18" s="413"/>
-      <c r="Q18" s="85"/>
-      <c r="R18" s="86">
+      <c r="N18" s="763"/>
+      <c r="O18" s="763"/>
+      <c r="P18" s="764"/>
+      <c r="Q18" s="765"/>
+      <c r="R18" s="766">
         <v>8</v>
       </c>
-      <c r="S18" s="290" t="s">
+      <c r="S18" s="767" t="s">
         <v>95</v>
       </c>
-      <c r="T18" s="298"/>
-      <c r="U18" s="276" t="s">
+      <c r="T18" s="768"/>
+      <c r="U18" s="299" t="s">
         <v>104</v>
       </c>
-      <c r="V18" s="277"/>
-      <c r="W18" s="272" t="s">
+      <c r="V18" s="300"/>
+      <c r="W18" s="769" t="s">
         <v>64</v>
       </c>
-      <c r="X18" s="273"/>
-      <c r="Y18" s="271" t="s">
+      <c r="X18" s="770"/>
+      <c r="Y18" s="771" t="s">
         <v>65</v>
       </c>
-      <c r="Z18" s="272"/>
-      <c r="AA18" s="272"/>
-      <c r="AB18" s="273"/>
-      <c r="AC18" s="428" t="s">
+      <c r="Z18" s="769"/>
+      <c r="AA18" s="769"/>
+      <c r="AB18" s="770"/>
+      <c r="AC18" s="772" t="s">
         <v>136</v>
       </c>
-      <c r="AD18" s="429"/>
-      <c r="AE18" s="429"/>
-      <c r="AF18" s="429"/>
-      <c r="AG18" s="430"/>
-      <c r="AH18" s="351"/>
-      <c r="AI18" s="352"/>
-      <c r="AJ18" s="431" t="s">
+      <c r="AD18" s="773"/>
+      <c r="AE18" s="773"/>
+      <c r="AF18" s="773"/>
+      <c r="AG18" s="774"/>
+      <c r="AH18" s="775"/>
+      <c r="AI18" s="776"/>
+      <c r="AJ18" s="777" t="s">
         <v>154</v>
       </c>
-      <c r="AK18" s="352"/>
-      <c r="AL18" s="352"/>
-      <c r="AM18" s="352"/>
-      <c r="AN18" s="353"/>
+      <c r="AK18" s="776"/>
+      <c r="AL18" s="776"/>
+      <c r="AM18" s="776"/>
+      <c r="AN18" s="778"/>
       <c r="AO18" s="472" t="s">
         <v>100</v>
       </c>
@@ -15053,7 +16818,7 @@
   <dimension ref="A1:BN14"/>
   <sheetViews>
     <sheetView showGridLines="false" workbookViewId="0" topLeftCell="A1" zoomScale="120" zoomScaleNormal="120" tabSelected="1">
-      <selection activeCell="AX15" sqref="AX15" activeCellId="0"/>
+      <selection activeCell="AW21" sqref="AW21" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15749,10 +17514,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="J19" activeCellId="0" sqref="J19"/>
+      <selection activeCell="I17" activeCellId="0" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="6" max="6" width="26.125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" customHeight="1" ht="12">
       <c r="A1" s="116" t="s">
@@ -15789,45 +17557,397 @@
         <v>133</v>
       </c>
       <c r="D3" s="659"/>
-      <c r="E3" s="660" t="s">
+      <c r="E3" s="692" t="s">
         <v>170</v>
       </c>
-      <c r="F3" s="661"/>
-      <c r="G3" s="662" t="s">
+      <c r="F3" s="693"/>
+      <c r="G3" s="702" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="663">
+      <c r="H3" s="703">
         <v>45069</v>
       </c>
-      <c r="I3" s="662" t="s">
+      <c r="I3" s="702" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="673" t="s">
+      <c r="J3" s="704" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="4" customHeight="1" ht="18" customFormat="1" s="655">
-      <c r="A4" s="664" t="s">
+      <c r="A4" s="725" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="665"/>
-      <c r="C4" s="666" t="s">
+      <c r="B4" s="726"/>
+      <c r="C4" s="727" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="666"/>
-      <c r="E4" s="667"/>
-      <c r="F4" s="668"/>
-      <c r="G4" s="671" t="s">
+      <c r="D4" s="727"/>
+      <c r="E4" s="728"/>
+      <c r="F4" s="729"/>
+      <c r="G4" s="713" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="672"/>
-      <c r="I4" s="671" t="s">
+      <c r="H4" s="714"/>
+      <c r="I4" s="713" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="674"/>
+      <c r="J4" s="715"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="730"/>
+      <c r="B5" s="731"/>
+      <c r="C5" s="731"/>
+      <c r="D5" s="731"/>
+      <c r="E5" s="731"/>
+      <c r="F5" s="732"/>
+      <c r="G5" s="750" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="718"/>
+      <c r="I5" s="718"/>
+      <c r="J5" s="723"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="706"/>
+      <c r="B6" s="707"/>
+      <c r="C6" s="707"/>
+      <c r="D6" s="707"/>
+      <c r="E6" s="707"/>
+      <c r="F6" s="708"/>
+      <c r="G6" s="724"/>
+      <c r="H6" s="718"/>
+      <c r="I6" s="718"/>
+      <c r="J6" s="723"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="706"/>
+      <c r="B7" s="707"/>
+      <c r="C7" s="707"/>
+      <c r="D7" s="707"/>
+      <c r="E7" s="707"/>
+      <c r="F7" s="708"/>
+      <c r="G7" s="707"/>
+      <c r="H7" s="707"/>
+      <c r="I7" s="707"/>
+      <c r="J7" s="708"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="706"/>
+      <c r="B8" s="707"/>
+      <c r="C8" s="707"/>
+      <c r="D8" s="707"/>
+      <c r="E8" s="707"/>
+      <c r="F8" s="708"/>
+      <c r="G8" s="749" t="s">
+        <v>283</v>
+      </c>
+      <c r="H8" s="707"/>
+      <c r="I8" s="707"/>
+      <c r="J8" s="708"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="706"/>
+      <c r="B9" s="707"/>
+      <c r="C9" s="707"/>
+      <c r="D9" s="707"/>
+      <c r="E9" s="707"/>
+      <c r="F9" s="708"/>
+      <c r="G9" s="707"/>
+      <c r="H9" s="707"/>
+      <c r="I9" s="707"/>
+      <c r="J9" s="708"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="706"/>
+      <c r="B10" s="707"/>
+      <c r="C10" s="707"/>
+      <c r="D10" s="707"/>
+      <c r="E10" s="707"/>
+      <c r="F10" s="708"/>
+      <c r="G10" s="707"/>
+      <c r="H10" s="707"/>
+      <c r="I10" s="707"/>
+      <c r="J10" s="708"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="706"/>
+      <c r="B11" s="707"/>
+      <c r="C11" s="707"/>
+      <c r="D11" s="707"/>
+      <c r="E11" s="707"/>
+      <c r="F11" s="708"/>
+      <c r="G11" s="707"/>
+      <c r="H11" s="707"/>
+      <c r="I11" s="707"/>
+      <c r="J11" s="708"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="706"/>
+      <c r="B12" s="707"/>
+      <c r="C12" s="707"/>
+      <c r="D12" s="707"/>
+      <c r="E12" s="707"/>
+      <c r="F12" s="708"/>
+      <c r="G12" s="707"/>
+      <c r="H12" s="707"/>
+      <c r="I12" s="707"/>
+      <c r="J12" s="708"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="706"/>
+      <c r="B13" s="707"/>
+      <c r="C13" s="707"/>
+      <c r="D13" s="707"/>
+      <c r="E13" s="707"/>
+      <c r="F13" s="708"/>
+      <c r="G13" s="707"/>
+      <c r="H13" s="707"/>
+      <c r="I13" s="707"/>
+      <c r="J13" s="708"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="706"/>
+      <c r="B14" s="707"/>
+      <c r="C14" s="707"/>
+      <c r="D14" s="707"/>
+      <c r="E14" s="707"/>
+      <c r="F14" s="708"/>
+      <c r="G14" s="707"/>
+      <c r="H14" s="707"/>
+      <c r="I14" s="707"/>
+      <c r="J14" s="708"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="706"/>
+      <c r="B15" s="707"/>
+      <c r="C15" s="707"/>
+      <c r="D15" s="707"/>
+      <c r="E15" s="707"/>
+      <c r="F15" s="708"/>
+      <c r="G15" s="707"/>
+      <c r="H15" s="707"/>
+      <c r="I15" s="707"/>
+      <c r="J15" s="708"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="706"/>
+      <c r="B16" s="707"/>
+      <c r="C16" s="707"/>
+      <c r="D16" s="707"/>
+      <c r="E16" s="707"/>
+      <c r="F16" s="708"/>
+      <c r="G16" s="707"/>
+      <c r="H16" s="707"/>
+      <c r="I16" s="707"/>
+      <c r="J16" s="708"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="706"/>
+      <c r="B17" s="707"/>
+      <c r="C17" s="707"/>
+      <c r="D17" s="707"/>
+      <c r="E17" s="707"/>
+      <c r="F17" s="708"/>
+      <c r="G17" s="707"/>
+      <c r="H17" s="707"/>
+      <c r="I17" s="707"/>
+      <c r="J17" s="708"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="706"/>
+      <c r="B18" s="707"/>
+      <c r="C18" s="707"/>
+      <c r="D18" s="707"/>
+      <c r="E18" s="707"/>
+      <c r="F18" s="708"/>
+      <c r="G18" s="707"/>
+      <c r="H18" s="707"/>
+      <c r="I18" s="707"/>
+      <c r="J18" s="708"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="706"/>
+      <c r="B19" s="707"/>
+      <c r="C19" s="707"/>
+      <c r="D19" s="707"/>
+      <c r="E19" s="707"/>
+      <c r="F19" s="708"/>
+      <c r="G19" s="707"/>
+      <c r="H19" s="707"/>
+      <c r="I19" s="707"/>
+      <c r="J19" s="708"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="706"/>
+      <c r="B20" s="707"/>
+      <c r="C20" s="707"/>
+      <c r="D20" s="707"/>
+      <c r="E20" s="707"/>
+      <c r="F20" s="708"/>
+      <c r="G20" s="707"/>
+      <c r="H20" s="707"/>
+      <c r="I20" s="707"/>
+      <c r="J20" s="708"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="706"/>
+      <c r="B21" s="707"/>
+      <c r="C21" s="707"/>
+      <c r="D21" s="707"/>
+      <c r="E21" s="707"/>
+      <c r="F21" s="708"/>
+      <c r="G21" s="707"/>
+      <c r="H21" s="707"/>
+      <c r="I21" s="707"/>
+      <c r="J21" s="708"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="706"/>
+      <c r="B22" s="707"/>
+      <c r="C22" s="707"/>
+      <c r="D22" s="707"/>
+      <c r="E22" s="707"/>
+      <c r="F22" s="708"/>
+      <c r="G22" s="707"/>
+      <c r="H22" s="707"/>
+      <c r="I22" s="707"/>
+      <c r="J22" s="708"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="706"/>
+      <c r="B23" s="707"/>
+      <c r="C23" s="707"/>
+      <c r="D23" s="707"/>
+      <c r="E23" s="707"/>
+      <c r="F23" s="708"/>
+      <c r="G23" s="707"/>
+      <c r="H23" s="707"/>
+      <c r="I23" s="707"/>
+      <c r="J23" s="708"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="706"/>
+      <c r="B24" s="707"/>
+      <c r="C24" s="707"/>
+      <c r="D24" s="707"/>
+      <c r="E24" s="707"/>
+      <c r="F24" s="708"/>
+      <c r="G24" s="707"/>
+      <c r="H24" s="707"/>
+      <c r="I24" s="707"/>
+      <c r="J24" s="708"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="706"/>
+      <c r="B25" s="707"/>
+      <c r="C25" s="707"/>
+      <c r="D25" s="707"/>
+      <c r="E25" s="707"/>
+      <c r="F25" s="708"/>
+      <c r="G25" s="707"/>
+      <c r="H25" s="707"/>
+      <c r="I25" s="707"/>
+      <c r="J25" s="708"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="706"/>
+      <c r="B26" s="707"/>
+      <c r="C26" s="707"/>
+      <c r="D26" s="707"/>
+      <c r="E26" s="707"/>
+      <c r="F26" s="708"/>
+      <c r="G26" s="707"/>
+      <c r="H26" s="707"/>
+      <c r="I26" s="707"/>
+      <c r="J26" s="708"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="706"/>
+      <c r="B27" s="707"/>
+      <c r="C27" s="707"/>
+      <c r="D27" s="707"/>
+      <c r="E27" s="707"/>
+      <c r="F27" s="708"/>
+      <c r="G27" s="707"/>
+      <c r="H27" s="707"/>
+      <c r="I27" s="707"/>
+      <c r="J27" s="708"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="706"/>
+      <c r="B28" s="707"/>
+      <c r="C28" s="707"/>
+      <c r="D28" s="707"/>
+      <c r="E28" s="707"/>
+      <c r="F28" s="708"/>
+      <c r="G28" s="707"/>
+      <c r="H28" s="707"/>
+      <c r="I28" s="707"/>
+      <c r="J28" s="708"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="706"/>
+      <c r="B29" s="707"/>
+      <c r="C29" s="707"/>
+      <c r="D29" s="707"/>
+      <c r="E29" s="707"/>
+      <c r="F29" s="708"/>
+      <c r="G29" s="707"/>
+      <c r="H29" s="707"/>
+      <c r="I29" s="707"/>
+      <c r="J29" s="708"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="706"/>
+      <c r="B30" s="707"/>
+      <c r="C30" s="707"/>
+      <c r="D30" s="707"/>
+      <c r="E30" s="707"/>
+      <c r="F30" s="708"/>
+      <c r="G30" s="707"/>
+      <c r="H30" s="707"/>
+      <c r="I30" s="707"/>
+      <c r="J30" s="708"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="706"/>
+      <c r="B31" s="707"/>
+      <c r="C31" s="707"/>
+      <c r="D31" s="707"/>
+      <c r="E31" s="707"/>
+      <c r="F31" s="708"/>
+      <c r="G31" s="707"/>
+      <c r="H31" s="707"/>
+      <c r="I31" s="707"/>
+      <c r="J31" s="708"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="706"/>
+      <c r="B32" s="707"/>
+      <c r="C32" s="707"/>
+      <c r="D32" s="707"/>
+      <c r="E32" s="707"/>
+      <c r="F32" s="708"/>
+      <c r="G32" s="707"/>
+      <c r="H32" s="707"/>
+      <c r="I32" s="707"/>
+      <c r="J32" s="708"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="709"/>
+      <c r="B33" s="710"/>
+      <c r="C33" s="710"/>
+      <c r="D33" s="710"/>
+      <c r="E33" s="710"/>
+      <c r="F33" s="711"/>
+      <c r="G33" s="710"/>
+      <c r="H33" s="710"/>
+      <c r="I33" s="710"/>
+      <c r="J33" s="711"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A1:F2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:D3"/>
@@ -15835,6 +17955,7 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G5:J6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/DOC/基本設計/基本設計_emsm_基本給管理リスト.xlsx
+++ b/DOC/基本設計/基本設計_emsm_基本給管理リスト.xlsx
@@ -1029,12 +1029,15 @@
   <si>
     <t>メニュー画面：機能情報テーブルに定義した画面</t>
   </si>
+  <si>
+    <t>YYYY</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="143" x14ac:knownFonts="1">
+  <fonts count="148" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1913,6 +1916,31 @@
       <charset val="128"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Meiryo UI"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Meiryo UI"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <name val="Yu Gothic UI"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Yu Gothic UI"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="ＭＳ ゴシック"/>
+      <color rgb="FF000000"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -7659,7 +7687,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="66675" y="571500"/>
+          <a:off x="66675" y="561975"/>
           <a:ext cx="6096000" cy="3438525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7693,7 +7721,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="28575" y="4010025"/>
+          <a:off x="28575" y="4000500"/>
           <a:ext cx="6096000" cy="981075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14989,7 +15017,7 @@
   <dimension ref="A1:BN36"/>
   <sheetViews>
     <sheetView showGridLines="false" zoomScale="120" zoomScaleNormal="120" workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="BT11" sqref="BT11" activeCellId="0"/>
+      <selection activeCell="BS12" sqref="BS12" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="11.25" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15970,7 +15998,9 @@
       <c r="AL11" s="293"/>
       <c r="AM11" s="293"/>
       <c r="AN11" s="293"/>
-      <c r="AO11" s="284"/>
+      <c r="AO11" s="284" t="s">
+        <v>284</v>
+      </c>
       <c r="AP11" s="285"/>
       <c r="AQ11" s="285"/>
       <c r="AR11" s="285"/>
@@ -16818,7 +16848,7 @@
   <dimension ref="A1:BN14"/>
   <sheetViews>
     <sheetView showGridLines="false" workbookViewId="0" topLeftCell="A1" zoomScale="120" zoomScaleNormal="120" tabSelected="1">
-      <selection activeCell="AW21" sqref="AW21" activeCellId="0"/>
+      <selection activeCell="BH17" sqref="BH17" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/DOC/基本設計/基本設計_emsm_基本給管理リスト.xlsx
+++ b/DOC/基本設計/基本設計_emsm_基本給管理リスト.xlsx
@@ -16848,7 +16848,7 @@
   <dimension ref="A1:BN14"/>
   <sheetViews>
     <sheetView showGridLines="false" workbookViewId="0" topLeftCell="A1" zoomScale="120" zoomScaleNormal="120" tabSelected="1">
-      <selection activeCell="BH17" sqref="BH17" activeCellId="0"/>
+      <selection activeCell="AP22" sqref="AP22" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17544,7 +17544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="I17" activeCellId="0" sqref="I17"/>
+      <selection activeCell="L25" activeCellId="0" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/DOC/基本設計/基本設計_emsm_基本給管理リスト.xlsx
+++ b/DOC/基本設計/基本設計_emsm_基本給管理リスト.xlsx
@@ -1032,12 +1032,18 @@
   <si>
     <t>YYYY</t>
   </si>
+  <si>
+    <t>せら</t>
+  </si>
+  <si>
+    <t>（ofcfunction）</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="148" x14ac:knownFonts="1">
+  <fonts count="160" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1941,6 +1947,81 @@
       <name val="ＭＳ ゴシック"/>
       <color rgb="FF000000"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Meiryo UI"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Meiryo UI"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <name val="Yu Gothic UI"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Yu Gothic UI"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="ＭＳ ゴシック"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="ＭＳ ゴシック"/>
+      <color theme="1"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="ＭＳ ゴシック"/>
+      <color theme="1"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="ＭＳ ゴシック"/>
+      <color theme="1"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="ＭＳ ゴシック"/>
+      <color theme="1"/>
+      <u val="single"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <color theme="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Meiryo UI"/>
+      <color rgb="FF000000"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="ＭＳ ゴシック"/>
+      <color rgb="FF000000"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1988,7 +2069,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="256">
+  <borders count="264">
     <border>
       <left/>
       <right/>
@@ -5289,13 +5370,140 @@
         <color rgb="FF000000"/>
       </diagonal>
     </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="double">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="dotted">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="779">
+  <cellXfs count="853">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7638,6 +7846,228 @@
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="142" applyFont="1" fillId="5" applyFill="1" borderId="98" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="153" applyFont="1" fillId="0" applyFill="1" borderId="256" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="154" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="154" applyFont="1" fillId="0" applyFill="1" borderId="107" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="154" applyFont="1" fillId="0" applyFill="1" borderId="257" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="154" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="154" applyFont="1" fillId="3" applyFill="1" borderId="8" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="154" applyFont="1" fillId="3" applyFill="1" borderId="9" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="155" applyFont="1" fillId="3" applyFill="1" borderId="9" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="154" applyFont="1" fillId="3" applyFill="1" borderId="10" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="156" applyFont="1" fillId="3" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="156" applyFont="1" fillId="3" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="154" applyFont="1" fillId="3" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="154" applyFont="1" fillId="3" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="154" applyFont="1" fillId="3" applyFill="1" borderId="11" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="154" applyFont="1" fillId="3" applyFill="1" borderId="11" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="154" applyFont="1" fillId="3" applyFill="1" borderId="8" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment shrinkToFit="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="154" applyFont="1" fillId="3" applyFill="1" borderId="9" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment shrinkToFit="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="154" applyFont="1" fillId="3" applyFill="1" borderId="16" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment shrinkToFit="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="154" applyFont="1" fillId="3" applyFill="1" borderId="17" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment shrinkToFit="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="154" applyFont="1" fillId="3" applyFill="1" borderId="9" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment shrinkToFit="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="154" applyFont="1" fillId="3" applyFill="1" borderId="10" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment shrinkToFit="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="154" applyFont="1" fillId="3" applyFill="1" borderId="8" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="154" applyFont="1" fillId="3" applyFill="1" borderId="9" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="154" applyFont="1" fillId="3" applyFill="1" borderId="16" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="154" applyFont="1" fillId="3" applyFill="1" borderId="18" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="13" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="14" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="154" applyFont="1" fillId="3" applyFill="1" borderId="12" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="154" applyFont="1" fillId="3" applyFill="1" borderId="13" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="154" applyFont="1" fillId="3" applyFill="1" borderId="19" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" applyNumberFormat="1" fontId="154" applyFont="1" fillId="3" applyFill="1" borderId="13" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="13" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="14" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="154" applyFont="1" fillId="3" applyFill="1" borderId="20" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="154" applyFont="1" fillId="3" applyFill="1" borderId="21" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="154" applyFont="1" fillId="3" applyFill="1" borderId="22" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="154" applyFont="1" fillId="3" applyFill="1" borderId="21" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="154" applyFont="1" fillId="3" applyFill="1" borderId="23" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="154" applyFont="1" fillId="3" applyFill="1" borderId="24" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="21" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="23" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="154" applyFont="1" fillId="3" applyFill="1" borderId="20" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="154" applyFont="1" fillId="3" applyFill="1" borderId="21" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="154" applyFont="1" fillId="3" applyFill="1" borderId="22" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="154" applyFont="1" fillId="3" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="154" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="154" applyFont="1" fillId="3" applyFill="1" borderId="107" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="154" applyFont="1" fillId="3" applyFill="1" borderId="257" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="154" applyFont="1" fillId="3" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="154" applyFont="1" fillId="3" applyFill="1" borderId="3" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="154" applyFont="1" fillId="3" applyFill="1" borderId="15" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="154" applyFont="1" fillId="3" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="154" applyFont="1" fillId="3" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="154" applyFont="1" fillId="3" applyFill="1" borderId="3" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="154" applyFont="1" fillId="3" applyFill="1" borderId="3" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="154" applyFont="1" fillId="3" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="154" applyFont="1" fillId="3" applyFill="1" borderId="15" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="154" applyFont="1" fillId="3" applyFill="1" borderId="15" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="153" applyFont="1" fillId="3" applyFill="1" borderId="258" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="153" applyFont="1" fillId="3" applyFill="1" borderId="259" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="153" applyFont="1" fillId="3" applyFill="1" borderId="260" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="157" applyFont="1" fillId="3" applyFill="1" borderId="259" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="154" applyFont="1" fillId="3" applyFill="1" borderId="8" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="154" applyFont="1" fillId="3" applyFill="1" borderId="9" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="154" applyFont="1" fillId="3" applyFill="1" borderId="10" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="153" applyFont="1" fillId="3" applyFill="1" borderId="259" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="153" applyFont="1" fillId="3" applyFill="1" borderId="261" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="153" applyFont="1" fillId="3" applyFill="1" borderId="256" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="153" applyFont="1" fillId="3" applyFill="1" borderId="261" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="153" applyFont="1" fillId="3" applyFill="1" borderId="262" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="157" applyFont="1" fillId="3" applyFill="1" borderId="259" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="157" applyFont="1" fillId="3" applyFill="1" borderId="263" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="158" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="159" applyFont="1" fillId="5" applyFill="1" borderId="48" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7744,8 +8174,8 @@
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
@@ -7756,8 +8186,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="228600" y="1228725"/>
-          <a:ext cx="1600200" cy="1047750"/>
+          <a:off x="161925" y="914400"/>
+          <a:ext cx="1790700" cy="828675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7840,14 +8270,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
@@ -7858,8 +8288,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="352425" y="1533525"/>
-          <a:ext cx="485775" cy="171450"/>
+          <a:off x="276225" y="1152525"/>
+          <a:ext cx="419100" cy="133350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7899,16 +8329,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -7917,8 +8347,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="323850" y="1933575"/>
-          <a:ext cx="523875" cy="9525"/>
+          <a:off x="238125" y="1533525"/>
+          <a:ext cx="552450" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7946,16 +8376,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7964,8 +8394,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="133350" y="3314700"/>
-          <a:ext cx="1228725" cy="323850"/>
+          <a:off x="723900" y="2924175"/>
+          <a:ext cx="1285875" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8008,16 +8438,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -8025,9 +8455,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1371600" y="3514725"/>
-          <a:ext cx="1781175" cy="9525"/>
+        <a:xfrm flipV="1">
+          <a:off x="2114550" y="3038475"/>
+          <a:ext cx="1800225" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8055,15 +8485,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1028700</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -8073,8 +8503,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3171825" y="3362325"/>
-          <a:ext cx="1285875" cy="409575"/>
+          <a:off x="4095750" y="2905125"/>
+          <a:ext cx="2247900" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8117,16 +8547,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8134,9 +8564,9 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1638300" y="3048000"/>
-          <a:ext cx="1390650" cy="514350"/>
+        <a:xfrm flipH="1">
+          <a:off x="2105025" y="2743200"/>
+          <a:ext cx="1895475" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9446,7 +9876,7 @@
   <dimension ref="A1:BN33"/>
   <sheetViews>
     <sheetView showGridLines="false" topLeftCell="A1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AY29" sqref="AY29" activeCellId="0"/>
+      <selection activeCell="BT9" sqref="BT9" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="11.25" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10074,7 +10504,7 @@
       <c r="BC6" s="157"/>
       <c r="BD6" s="158"/>
       <c r="BE6" s="156" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="BF6" s="157"/>
       <c r="BG6" s="157"/>
@@ -15017,7 +15447,7 @@
   <dimension ref="A1:BN36"/>
   <sheetViews>
     <sheetView showGridLines="false" zoomScale="120" zoomScaleNormal="120" workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="BS12" sqref="BS12" activeCellId="0"/>
+      <selection activeCell="Y14" sqref="Y14:AB14" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="11.25" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16050,7 +16480,7 @@
       <c r="P12" s="273"/>
       <c r="Q12" s="85"/>
       <c r="R12" s="86">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="S12" s="290" t="s">
         <v>95</v>
@@ -16136,7 +16566,7 @@
       <c r="P13" s="273"/>
       <c r="Q13" s="85"/>
       <c r="R13" s="86">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="S13" s="290" t="s">
         <v>95</v>
@@ -16221,8 +16651,8 @@
       <c r="O14" s="272"/>
       <c r="P14" s="273"/>
       <c r="Q14" s="85"/>
-      <c r="R14" s="415" t="s">
-        <v>147</v>
+      <c r="R14" s="414">
+        <v>4</v>
       </c>
       <c r="S14" s="290" t="s">
         <v>95</v>
@@ -16307,8 +16737,8 @@
       <c r="O15" s="272"/>
       <c r="P15" s="273"/>
       <c r="Q15" s="405"/>
-      <c r="R15" s="348" t="s">
-        <v>147</v>
+      <c r="R15" s="852">
+        <v>4</v>
       </c>
       <c r="S15" s="290" t="s">
         <v>95</v>
@@ -16848,7 +17278,7 @@
   <dimension ref="A1:BN14"/>
   <sheetViews>
     <sheetView showGridLines="false" workbookViewId="0" topLeftCell="A1" zoomScale="120" zoomScaleNormal="120" tabSelected="1">
-      <selection activeCell="AP22" sqref="AP22" activeCellId="0"/>
+      <selection activeCell="AS11" sqref="AS11" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17544,448 +17974,3272 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="L25" activeCellId="0" sqref="L25"/>
+      <selection activeCell="AN13" activeCellId="0" sqref="AN13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="11.25" outlineLevelRow="0" outlineLevelCol="0" customHeight="true" defaultColWidth="2.125"/>
   <cols>
-    <col min="6" max="6" width="26.125" customWidth="1"/>
+    <col min="1" max="64" width="2.125" style="779"/>
+    <col min="65" max="65" width="3.625" style="779" customWidth="1"/>
+    <col min="66" max="66" width="0.125" style="779" customWidth="1"/>
+    <col min="67" max="320" width="2.125" style="779"/>
+    <col min="321" max="321" width="3.625" style="779" customWidth="1"/>
+    <col min="322" max="322" width="0.125" style="779" customWidth="1"/>
+    <col min="323" max="576" width="2.125" style="779"/>
+    <col min="577" max="577" width="3.625" style="779" customWidth="1"/>
+    <col min="578" max="578" width="0.125" style="779" customWidth="1"/>
+    <col min="579" max="832" width="2.125" style="779"/>
+    <col min="833" max="833" width="3.625" style="779" customWidth="1"/>
+    <col min="834" max="834" width="0.125" style="779" customWidth="1"/>
+    <col min="835" max="1088" width="2.125" style="779"/>
+    <col min="1089" max="1089" width="3.625" style="779" customWidth="1"/>
+    <col min="1090" max="1090" width="0.125" style="779" customWidth="1"/>
+    <col min="1091" max="1344" width="2.125" style="779"/>
+    <col min="1345" max="1345" width="3.625" style="779" customWidth="1"/>
+    <col min="1346" max="1346" width="0.125" style="779" customWidth="1"/>
+    <col min="1347" max="1600" width="2.125" style="779"/>
+    <col min="1601" max="1601" width="3.625" style="779" customWidth="1"/>
+    <col min="1602" max="1602" width="0.125" style="779" customWidth="1"/>
+    <col min="1603" max="1856" width="2.125" style="779"/>
+    <col min="1857" max="1857" width="3.625" style="779" customWidth="1"/>
+    <col min="1858" max="1858" width="0.125" style="779" customWidth="1"/>
+    <col min="1859" max="2112" width="2.125" style="779"/>
+    <col min="2113" max="2113" width="3.625" style="779" customWidth="1"/>
+    <col min="2114" max="2114" width="0.125" style="779" customWidth="1"/>
+    <col min="2115" max="2368" width="2.125" style="779"/>
+    <col min="2369" max="2369" width="3.625" style="779" customWidth="1"/>
+    <col min="2370" max="2370" width="0.125" style="779" customWidth="1"/>
+    <col min="2371" max="2624" width="2.125" style="779"/>
+    <col min="2625" max="2625" width="3.625" style="779" customWidth="1"/>
+    <col min="2626" max="2626" width="0.125" style="779" customWidth="1"/>
+    <col min="2627" max="2880" width="2.125" style="779"/>
+    <col min="2881" max="2881" width="3.625" style="779" customWidth="1"/>
+    <col min="2882" max="2882" width="0.125" style="779" customWidth="1"/>
+    <col min="2883" max="3136" width="2.125" style="779"/>
+    <col min="3137" max="3137" width="3.625" style="779" customWidth="1"/>
+    <col min="3138" max="3138" width="0.125" style="779" customWidth="1"/>
+    <col min="3139" max="3392" width="2.125" style="779"/>
+    <col min="3393" max="3393" width="3.625" style="779" customWidth="1"/>
+    <col min="3394" max="3394" width="0.125" style="779" customWidth="1"/>
+    <col min="3395" max="3648" width="2.125" style="779"/>
+    <col min="3649" max="3649" width="3.625" style="779" customWidth="1"/>
+    <col min="3650" max="3650" width="0.125" style="779" customWidth="1"/>
+    <col min="3651" max="3904" width="2.125" style="779"/>
+    <col min="3905" max="3905" width="3.625" style="779" customWidth="1"/>
+    <col min="3906" max="3906" width="0.125" style="779" customWidth="1"/>
+    <col min="3907" max="4160" width="2.125" style="779"/>
+    <col min="4161" max="4161" width="3.625" style="779" customWidth="1"/>
+    <col min="4162" max="4162" width="0.125" style="779" customWidth="1"/>
+    <col min="4163" max="4416" width="2.125" style="779"/>
+    <col min="4417" max="4417" width="3.625" style="779" customWidth="1"/>
+    <col min="4418" max="4418" width="0.125" style="779" customWidth="1"/>
+    <col min="4419" max="4672" width="2.125" style="779"/>
+    <col min="4673" max="4673" width="3.625" style="779" customWidth="1"/>
+    <col min="4674" max="4674" width="0.125" style="779" customWidth="1"/>
+    <col min="4675" max="4928" width="2.125" style="779"/>
+    <col min="4929" max="4929" width="3.625" style="779" customWidth="1"/>
+    <col min="4930" max="4930" width="0.125" style="779" customWidth="1"/>
+    <col min="4931" max="5184" width="2.125" style="779"/>
+    <col min="5185" max="5185" width="3.625" style="779" customWidth="1"/>
+    <col min="5186" max="5186" width="0.125" style="779" customWidth="1"/>
+    <col min="5187" max="5440" width="2.125" style="779"/>
+    <col min="5441" max="5441" width="3.625" style="779" customWidth="1"/>
+    <col min="5442" max="5442" width="0.125" style="779" customWidth="1"/>
+    <col min="5443" max="5696" width="2.125" style="779"/>
+    <col min="5697" max="5697" width="3.625" style="779" customWidth="1"/>
+    <col min="5698" max="5698" width="0.125" style="779" customWidth="1"/>
+    <col min="5699" max="5952" width="2.125" style="779"/>
+    <col min="5953" max="5953" width="3.625" style="779" customWidth="1"/>
+    <col min="5954" max="5954" width="0.125" style="779" customWidth="1"/>
+    <col min="5955" max="6208" width="2.125" style="779"/>
+    <col min="6209" max="6209" width="3.625" style="779" customWidth="1"/>
+    <col min="6210" max="6210" width="0.125" style="779" customWidth="1"/>
+    <col min="6211" max="6464" width="2.125" style="779"/>
+    <col min="6465" max="6465" width="3.625" style="779" customWidth="1"/>
+    <col min="6466" max="6466" width="0.125" style="779" customWidth="1"/>
+    <col min="6467" max="6720" width="2.125" style="779"/>
+    <col min="6721" max="6721" width="3.625" style="779" customWidth="1"/>
+    <col min="6722" max="6722" width="0.125" style="779" customWidth="1"/>
+    <col min="6723" max="6976" width="2.125" style="779"/>
+    <col min="6977" max="6977" width="3.625" style="779" customWidth="1"/>
+    <col min="6978" max="6978" width="0.125" style="779" customWidth="1"/>
+    <col min="6979" max="7232" width="2.125" style="779"/>
+    <col min="7233" max="7233" width="3.625" style="779" customWidth="1"/>
+    <col min="7234" max="7234" width="0.125" style="779" customWidth="1"/>
+    <col min="7235" max="7488" width="2.125" style="779"/>
+    <col min="7489" max="7489" width="3.625" style="779" customWidth="1"/>
+    <col min="7490" max="7490" width="0.125" style="779" customWidth="1"/>
+    <col min="7491" max="7744" width="2.125" style="779"/>
+    <col min="7745" max="7745" width="3.625" style="779" customWidth="1"/>
+    <col min="7746" max="7746" width="0.125" style="779" customWidth="1"/>
+    <col min="7747" max="8000" width="2.125" style="779"/>
+    <col min="8001" max="8001" width="3.625" style="779" customWidth="1"/>
+    <col min="8002" max="8002" width="0.125" style="779" customWidth="1"/>
+    <col min="8003" max="8256" width="2.125" style="779"/>
+    <col min="8257" max="8257" width="3.625" style="779" customWidth="1"/>
+    <col min="8258" max="8258" width="0.125" style="779" customWidth="1"/>
+    <col min="8259" max="8512" width="2.125" style="779"/>
+    <col min="8513" max="8513" width="3.625" style="779" customWidth="1"/>
+    <col min="8514" max="8514" width="0.125" style="779" customWidth="1"/>
+    <col min="8515" max="8768" width="2.125" style="779"/>
+    <col min="8769" max="8769" width="3.625" style="779" customWidth="1"/>
+    <col min="8770" max="8770" width="0.125" style="779" customWidth="1"/>
+    <col min="8771" max="9024" width="2.125" style="779"/>
+    <col min="9025" max="9025" width="3.625" style="779" customWidth="1"/>
+    <col min="9026" max="9026" width="0.125" style="779" customWidth="1"/>
+    <col min="9027" max="9280" width="2.125" style="779"/>
+    <col min="9281" max="9281" width="3.625" style="779" customWidth="1"/>
+    <col min="9282" max="9282" width="0.125" style="779" customWidth="1"/>
+    <col min="9283" max="9536" width="2.125" style="779"/>
+    <col min="9537" max="9537" width="3.625" style="779" customWidth="1"/>
+    <col min="9538" max="9538" width="0.125" style="779" customWidth="1"/>
+    <col min="9539" max="9792" width="2.125" style="779"/>
+    <col min="9793" max="9793" width="3.625" style="779" customWidth="1"/>
+    <col min="9794" max="9794" width="0.125" style="779" customWidth="1"/>
+    <col min="9795" max="10048" width="2.125" style="779"/>
+    <col min="10049" max="10049" width="3.625" style="779" customWidth="1"/>
+    <col min="10050" max="10050" width="0.125" style="779" customWidth="1"/>
+    <col min="10051" max="10304" width="2.125" style="779"/>
+    <col min="10305" max="10305" width="3.625" style="779" customWidth="1"/>
+    <col min="10306" max="10306" width="0.125" style="779" customWidth="1"/>
+    <col min="10307" max="10560" width="2.125" style="779"/>
+    <col min="10561" max="10561" width="3.625" style="779" customWidth="1"/>
+    <col min="10562" max="10562" width="0.125" style="779" customWidth="1"/>
+    <col min="10563" max="10816" width="2.125" style="779"/>
+    <col min="10817" max="10817" width="3.625" style="779" customWidth="1"/>
+    <col min="10818" max="10818" width="0.125" style="779" customWidth="1"/>
+    <col min="10819" max="11072" width="2.125" style="779"/>
+    <col min="11073" max="11073" width="3.625" style="779" customWidth="1"/>
+    <col min="11074" max="11074" width="0.125" style="779" customWidth="1"/>
+    <col min="11075" max="11328" width="2.125" style="779"/>
+    <col min="11329" max="11329" width="3.625" style="779" customWidth="1"/>
+    <col min="11330" max="11330" width="0.125" style="779" customWidth="1"/>
+    <col min="11331" max="11584" width="2.125" style="779"/>
+    <col min="11585" max="11585" width="3.625" style="779" customWidth="1"/>
+    <col min="11586" max="11586" width="0.125" style="779" customWidth="1"/>
+    <col min="11587" max="11840" width="2.125" style="779"/>
+    <col min="11841" max="11841" width="3.625" style="779" customWidth="1"/>
+    <col min="11842" max="11842" width="0.125" style="779" customWidth="1"/>
+    <col min="11843" max="12096" width="2.125" style="779"/>
+    <col min="12097" max="12097" width="3.625" style="779" customWidth="1"/>
+    <col min="12098" max="12098" width="0.125" style="779" customWidth="1"/>
+    <col min="12099" max="12352" width="2.125" style="779"/>
+    <col min="12353" max="12353" width="3.625" style="779" customWidth="1"/>
+    <col min="12354" max="12354" width="0.125" style="779" customWidth="1"/>
+    <col min="12355" max="12608" width="2.125" style="779"/>
+    <col min="12609" max="12609" width="3.625" style="779" customWidth="1"/>
+    <col min="12610" max="12610" width="0.125" style="779" customWidth="1"/>
+    <col min="12611" max="12864" width="2.125" style="779"/>
+    <col min="12865" max="12865" width="3.625" style="779" customWidth="1"/>
+    <col min="12866" max="12866" width="0.125" style="779" customWidth="1"/>
+    <col min="12867" max="13120" width="2.125" style="779"/>
+    <col min="13121" max="13121" width="3.625" style="779" customWidth="1"/>
+    <col min="13122" max="13122" width="0.125" style="779" customWidth="1"/>
+    <col min="13123" max="13376" width="2.125" style="779"/>
+    <col min="13377" max="13377" width="3.625" style="779" customWidth="1"/>
+    <col min="13378" max="13378" width="0.125" style="779" customWidth="1"/>
+    <col min="13379" max="13632" width="2.125" style="779"/>
+    <col min="13633" max="13633" width="3.625" style="779" customWidth="1"/>
+    <col min="13634" max="13634" width="0.125" style="779" customWidth="1"/>
+    <col min="13635" max="13888" width="2.125" style="779"/>
+    <col min="13889" max="13889" width="3.625" style="779" customWidth="1"/>
+    <col min="13890" max="13890" width="0.125" style="779" customWidth="1"/>
+    <col min="13891" max="14144" width="2.125" style="779"/>
+    <col min="14145" max="14145" width="3.625" style="779" customWidth="1"/>
+    <col min="14146" max="14146" width="0.125" style="779" customWidth="1"/>
+    <col min="14147" max="14400" width="2.125" style="779"/>
+    <col min="14401" max="14401" width="3.625" style="779" customWidth="1"/>
+    <col min="14402" max="14402" width="0.125" style="779" customWidth="1"/>
+    <col min="14403" max="14656" width="2.125" style="779"/>
+    <col min="14657" max="14657" width="3.625" style="779" customWidth="1"/>
+    <col min="14658" max="14658" width="0.125" style="779" customWidth="1"/>
+    <col min="14659" max="14912" width="2.125" style="779"/>
+    <col min="14913" max="14913" width="3.625" style="779" customWidth="1"/>
+    <col min="14914" max="14914" width="0.125" style="779" customWidth="1"/>
+    <col min="14915" max="15168" width="2.125" style="779"/>
+    <col min="15169" max="15169" width="3.625" style="779" customWidth="1"/>
+    <col min="15170" max="15170" width="0.125" style="779" customWidth="1"/>
+    <col min="15171" max="15424" width="2.125" style="779"/>
+    <col min="15425" max="15425" width="3.625" style="779" customWidth="1"/>
+    <col min="15426" max="15426" width="0.125" style="779" customWidth="1"/>
+    <col min="15427" max="15680" width="2.125" style="779"/>
+    <col min="15681" max="15681" width="3.625" style="779" customWidth="1"/>
+    <col min="15682" max="15682" width="0.125" style="779" customWidth="1"/>
+    <col min="15683" max="15936" width="2.125" style="779"/>
+    <col min="15937" max="15937" width="3.625" style="779" customWidth="1"/>
+    <col min="15938" max="15938" width="0.125" style="779" customWidth="1"/>
+    <col min="15939" max="16192" width="2.125" style="779"/>
+    <col min="16193" max="16193" width="3.625" style="779" customWidth="1"/>
+    <col min="16194" max="16194" width="0.125" style="779" customWidth="1"/>
+    <col min="16195" max="16384" width="2.125" style="779"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" ht="12">
-      <c r="A1" s="116" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
+      <c r="A1" s="784"/>
+      <c r="B1" s="785"/>
+      <c r="C1" s="785"/>
+      <c r="D1" s="785"/>
+      <c r="E1" s="785"/>
+      <c r="F1" s="785"/>
+      <c r="G1" s="785"/>
+      <c r="H1" s="785"/>
+      <c r="I1" s="785"/>
+      <c r="J1" s="785"/>
+      <c r="K1" s="785"/>
+      <c r="L1" s="785"/>
+      <c r="M1" s="785"/>
+      <c r="N1" s="785"/>
+      <c r="O1" s="785"/>
+      <c r="P1" s="785"/>
+      <c r="Q1" s="785"/>
+      <c r="R1" s="785"/>
+      <c r="S1" s="785"/>
+      <c r="T1" s="785"/>
+      <c r="U1" s="785"/>
+      <c r="V1" s="785"/>
+      <c r="W1" s="785"/>
+      <c r="X1" s="785"/>
+      <c r="Y1" s="785"/>
+      <c r="Z1" s="786"/>
+      <c r="AA1" s="785"/>
+      <c r="AB1" s="785"/>
+      <c r="AC1" s="785"/>
+      <c r="AD1" s="785"/>
+      <c r="AE1" s="785"/>
+      <c r="AF1" s="785"/>
+      <c r="AG1" s="785"/>
+      <c r="AH1" s="785"/>
+      <c r="AI1" s="785"/>
+      <c r="AJ1" s="785"/>
+      <c r="AK1" s="785"/>
+      <c r="AL1" s="785"/>
+      <c r="AM1" s="785"/>
+      <c r="AN1" s="785"/>
+      <c r="AO1" s="785"/>
+      <c r="AP1" s="785"/>
+      <c r="AQ1" s="785"/>
+      <c r="AR1" s="785"/>
+      <c r="AS1" s="785"/>
+      <c r="AT1" s="785"/>
+      <c r="AU1" s="785"/>
+      <c r="AV1" s="785"/>
+      <c r="AW1" s="785"/>
+      <c r="AX1" s="785"/>
+      <c r="AY1" s="785"/>
+      <c r="AZ1" s="785"/>
+      <c r="BA1" s="785"/>
+      <c r="BB1" s="785"/>
+      <c r="BC1" s="785"/>
+      <c r="BD1" s="785"/>
+      <c r="BE1" s="785"/>
+      <c r="BF1" s="785"/>
+      <c r="BG1" s="785"/>
+      <c r="BH1" s="785"/>
+      <c r="BI1" s="785"/>
+      <c r="BJ1" s="785"/>
+      <c r="BK1" s="785"/>
+      <c r="BL1" s="785"/>
+      <c r="BM1" s="785"/>
+      <c r="BN1" s="787"/>
     </row>
-    <row r="2">
-      <c r="A2" s="116"/>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
+    <row r="2" customHeight="1" ht="12">
+      <c r="A2" s="788" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="789"/>
+      <c r="C2" s="789"/>
+      <c r="D2" s="789"/>
+      <c r="E2" s="789"/>
+      <c r="F2" s="789"/>
+      <c r="G2" s="789"/>
+      <c r="H2" s="789"/>
+      <c r="I2" s="789"/>
+      <c r="J2" s="789"/>
+      <c r="K2" s="789"/>
+      <c r="L2" s="789"/>
+      <c r="M2" s="789"/>
+      <c r="N2" s="789"/>
+      <c r="O2" s="789"/>
+      <c r="P2" s="789"/>
+      <c r="Q2" s="789"/>
+      <c r="R2" s="789"/>
+      <c r="S2" s="789"/>
+      <c r="T2" s="789"/>
+      <c r="U2" s="789"/>
+      <c r="V2" s="789"/>
+      <c r="W2" s="789"/>
+      <c r="X2" s="789"/>
+      <c r="Y2" s="789"/>
+      <c r="Z2" s="789"/>
+      <c r="AA2" s="627"/>
+      <c r="AB2" s="627"/>
+      <c r="AC2" s="627"/>
+      <c r="AD2" s="627"/>
+      <c r="AE2" s="627"/>
+      <c r="AF2" s="627"/>
+      <c r="AG2" s="627"/>
+      <c r="AH2" s="627"/>
+      <c r="AI2" s="627"/>
+      <c r="AJ2" s="627"/>
+      <c r="AK2" s="627"/>
+      <c r="AL2" s="627"/>
+      <c r="AM2" s="627"/>
+      <c r="AN2" s="627"/>
+      <c r="AO2" s="627"/>
+      <c r="AP2" s="627"/>
+      <c r="AQ2" s="790"/>
+      <c r="AR2" s="790"/>
+      <c r="AS2" s="790"/>
+      <c r="AT2" s="790"/>
+      <c r="AU2" s="790"/>
+      <c r="AV2" s="790"/>
+      <c r="AW2" s="791"/>
+      <c r="AX2" s="791"/>
+      <c r="AY2" s="791"/>
+      <c r="AZ2" s="791"/>
+      <c r="BA2" s="791"/>
+      <c r="BB2" s="791"/>
+      <c r="BC2" s="791"/>
+      <c r="BD2" s="791"/>
+      <c r="BE2" s="791"/>
+      <c r="BF2" s="791"/>
+      <c r="BG2" s="791"/>
+      <c r="BH2" s="791"/>
+      <c r="BI2" s="791"/>
+      <c r="BJ2" s="791"/>
+      <c r="BK2" s="791"/>
+      <c r="BL2" s="791"/>
+      <c r="BM2" s="791"/>
+      <c r="BN2" s="792"/>
     </row>
-    <row r="3" customHeight="1" ht="24" customFormat="1" s="655">
-      <c r="A3" s="656" t="s">
+    <row r="3" customHeight="1" ht="12">
+      <c r="A3" s="788"/>
+      <c r="B3" s="789"/>
+      <c r="C3" s="789"/>
+      <c r="D3" s="789"/>
+      <c r="E3" s="789"/>
+      <c r="F3" s="789"/>
+      <c r="G3" s="789"/>
+      <c r="H3" s="789"/>
+      <c r="I3" s="789"/>
+      <c r="J3" s="789"/>
+      <c r="K3" s="789"/>
+      <c r="L3" s="789"/>
+      <c r="M3" s="789"/>
+      <c r="N3" s="789"/>
+      <c r="O3" s="789"/>
+      <c r="P3" s="789"/>
+      <c r="Q3" s="789"/>
+      <c r="R3" s="789"/>
+      <c r="S3" s="789"/>
+      <c r="T3" s="789"/>
+      <c r="U3" s="789"/>
+      <c r="V3" s="789"/>
+      <c r="W3" s="789"/>
+      <c r="X3" s="789"/>
+      <c r="Y3" s="789"/>
+      <c r="Z3" s="789"/>
+      <c r="AA3" s="627"/>
+      <c r="AB3" s="627"/>
+      <c r="AC3" s="627"/>
+      <c r="AD3" s="627"/>
+      <c r="AE3" s="627"/>
+      <c r="AF3" s="627"/>
+      <c r="AG3" s="627"/>
+      <c r="AH3" s="627"/>
+      <c r="AI3" s="627"/>
+      <c r="AJ3" s="627"/>
+      <c r="AK3" s="627"/>
+      <c r="AL3" s="627"/>
+      <c r="AM3" s="627"/>
+      <c r="AN3" s="627"/>
+      <c r="AO3" s="627"/>
+      <c r="AP3" s="627"/>
+      <c r="AQ3" s="790"/>
+      <c r="AR3" s="790"/>
+      <c r="AS3" s="790"/>
+      <c r="AT3" s="790"/>
+      <c r="AU3" s="790"/>
+      <c r="AV3" s="790"/>
+      <c r="AW3" s="790"/>
+      <c r="AX3" s="790"/>
+      <c r="AY3" s="790"/>
+      <c r="AZ3" s="790"/>
+      <c r="BA3" s="790"/>
+      <c r="BB3" s="790"/>
+      <c r="BC3" s="790"/>
+      <c r="BD3" s="790"/>
+      <c r="BE3" s="790"/>
+      <c r="BF3" s="790"/>
+      <c r="BG3" s="790"/>
+      <c r="BH3" s="790"/>
+      <c r="BI3" s="790"/>
+      <c r="BJ3" s="790"/>
+      <c r="BK3" s="790"/>
+      <c r="BL3" s="790"/>
+      <c r="BM3" s="790"/>
+      <c r="BN3" s="793"/>
+    </row>
+    <row r="4" customHeight="1" ht="12">
+      <c r="A4" s="794" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="657"/>
-      <c r="C3" s="658" t="s">
-        <v>133</v>
-      </c>
-      <c r="D3" s="659"/>
-      <c r="E3" s="692" t="s">
-        <v>170</v>
-      </c>
-      <c r="F3" s="693"/>
-      <c r="G3" s="702" t="s">
+      <c r="B4" s="795"/>
+      <c r="C4" s="795"/>
+      <c r="D4" s="795"/>
+      <c r="E4" s="795"/>
+      <c r="F4" s="796"/>
+      <c r="G4" s="797" t="s">
+        <v>123</v>
+      </c>
+      <c r="H4" s="798"/>
+      <c r="I4" s="798"/>
+      <c r="J4" s="798"/>
+      <c r="K4" s="798"/>
+      <c r="L4" s="798"/>
+      <c r="M4" s="798"/>
+      <c r="N4" s="799"/>
+      <c r="O4" s="800" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="801"/>
+      <c r="Q4" s="801"/>
+      <c r="R4" s="801"/>
+      <c r="S4" s="801"/>
+      <c r="T4" s="802"/>
+      <c r="U4" s="848" t="s">
+        <v>122</v>
+      </c>
+      <c r="V4" s="849"/>
+      <c r="W4" s="849"/>
+      <c r="X4" s="849"/>
+      <c r="Y4" s="849"/>
+      <c r="Z4" s="849"/>
+      <c r="AA4" s="849"/>
+      <c r="AB4" s="849"/>
+      <c r="AC4" s="849"/>
+      <c r="AD4" s="849"/>
+      <c r="AE4" s="849"/>
+      <c r="AF4" s="849"/>
+      <c r="AG4" s="849"/>
+      <c r="AH4" s="849"/>
+      <c r="AI4" s="849"/>
+      <c r="AJ4" s="849"/>
+      <c r="AK4" s="849"/>
+      <c r="AL4" s="849"/>
+      <c r="AM4" s="849"/>
+      <c r="AN4" s="849"/>
+      <c r="AO4" s="849"/>
+      <c r="AP4" s="849"/>
+      <c r="AQ4" s="849"/>
+      <c r="AR4" s="849"/>
+      <c r="AS4" s="849"/>
+      <c r="AT4" s="849"/>
+      <c r="AU4" s="849"/>
+      <c r="AV4" s="850"/>
+      <c r="AW4" s="806" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="703">
+      <c r="AX4" s="807"/>
+      <c r="AY4" s="808"/>
+      <c r="AZ4" s="809">
         <v>45069</v>
       </c>
-      <c r="I3" s="702" t="s">
+      <c r="BA4" s="810"/>
+      <c r="BB4" s="810"/>
+      <c r="BC4" s="810"/>
+      <c r="BD4" s="810"/>
+      <c r="BE4" s="810"/>
+      <c r="BF4" s="806" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="704" t="s">
+      <c r="BG4" s="807"/>
+      <c r="BH4" s="808"/>
+      <c r="BI4" s="809" t="s">
         <v>125</v>
       </c>
+      <c r="BJ4" s="810"/>
+      <c r="BK4" s="810"/>
+      <c r="BL4" s="810"/>
+      <c r="BM4" s="810"/>
+      <c r="BN4" s="811"/>
     </row>
-    <row r="4" customHeight="1" ht="18" customFormat="1" s="655">
-      <c r="A4" s="725" t="s">
+    <row r="5" customHeight="1" ht="12">
+      <c r="A5" s="812" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="726"/>
-      <c r="C4" s="727" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="727"/>
-      <c r="E4" s="728"/>
-      <c r="F4" s="729"/>
-      <c r="G4" s="713" t="s">
+      <c r="B5" s="813"/>
+      <c r="C5" s="813"/>
+      <c r="D5" s="813"/>
+      <c r="E5" s="813"/>
+      <c r="F5" s="814"/>
+      <c r="G5" s="815" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="815"/>
+      <c r="I5" s="815"/>
+      <c r="J5" s="815"/>
+      <c r="K5" s="815"/>
+      <c r="L5" s="815"/>
+      <c r="M5" s="815"/>
+      <c r="N5" s="816"/>
+      <c r="O5" s="812" t="s">
+        <v>18</v>
+      </c>
+      <c r="P5" s="813"/>
+      <c r="Q5" s="813"/>
+      <c r="R5" s="813"/>
+      <c r="S5" s="813"/>
+      <c r="T5" s="814"/>
+      <c r="U5" s="817"/>
+      <c r="V5" s="818"/>
+      <c r="W5" s="818"/>
+      <c r="X5" s="818"/>
+      <c r="Y5" s="818"/>
+      <c r="Z5" s="818"/>
+      <c r="AA5" s="818"/>
+      <c r="AB5" s="818"/>
+      <c r="AC5" s="818"/>
+      <c r="AD5" s="818"/>
+      <c r="AE5" s="818"/>
+      <c r="AF5" s="818"/>
+      <c r="AG5" s="818"/>
+      <c r="AH5" s="818"/>
+      <c r="AI5" s="818"/>
+      <c r="AJ5" s="818"/>
+      <c r="AK5" s="818"/>
+      <c r="AL5" s="818"/>
+      <c r="AM5" s="818"/>
+      <c r="AN5" s="818"/>
+      <c r="AO5" s="818"/>
+      <c r="AP5" s="818"/>
+      <c r="AQ5" s="818"/>
+      <c r="AR5" s="818"/>
+      <c r="AS5" s="818"/>
+      <c r="AT5" s="818"/>
+      <c r="AU5" s="818"/>
+      <c r="AV5" s="819"/>
+      <c r="AW5" s="838" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="714"/>
-      <c r="I4" s="713" t="s">
+      <c r="AX5" s="838"/>
+      <c r="AY5" s="839"/>
+      <c r="AZ5" s="838"/>
+      <c r="BA5" s="838"/>
+      <c r="BB5" s="838"/>
+      <c r="BC5" s="838"/>
+      <c r="BD5" s="838"/>
+      <c r="BE5" s="838"/>
+      <c r="BF5" s="837" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="715"/>
+      <c r="BG5" s="838"/>
+      <c r="BH5" s="839"/>
+      <c r="BI5" s="838"/>
+      <c r="BJ5" s="840"/>
+      <c r="BK5" s="840"/>
+      <c r="BL5" s="840"/>
+      <c r="BM5" s="840"/>
+      <c r="BN5" s="819"/>
     </row>
-    <row r="5">
-      <c r="A5" s="730"/>
-      <c r="B5" s="731"/>
-      <c r="C5" s="731"/>
-      <c r="D5" s="731"/>
-      <c r="E5" s="731"/>
-      <c r="F5" s="732"/>
-      <c r="G5" s="750" t="s">
+    <row r="6" customHeight="1" ht="12">
+      <c r="A6" s="823"/>
+      <c r="B6" s="177"/>
+      <c r="C6" s="177"/>
+      <c r="D6" s="177"/>
+      <c r="E6" s="177"/>
+      <c r="F6" s="177"/>
+      <c r="G6" s="177"/>
+      <c r="H6" s="177"/>
+      <c r="I6" s="177"/>
+      <c r="J6" s="177"/>
+      <c r="K6" s="177"/>
+      <c r="L6" s="177"/>
+      <c r="M6" s="177"/>
+      <c r="N6" s="177"/>
+      <c r="O6" s="177"/>
+      <c r="P6" s="177"/>
+      <c r="Q6" s="177"/>
+      <c r="R6" s="177"/>
+      <c r="S6" s="177"/>
+      <c r="T6" s="177"/>
+      <c r="U6" s="177"/>
+      <c r="V6" s="177"/>
+      <c r="W6" s="177"/>
+      <c r="X6" s="177"/>
+      <c r="Y6" s="177"/>
+      <c r="Z6" s="177"/>
+      <c r="AA6" s="177"/>
+      <c r="AB6" s="177"/>
+      <c r="AC6" s="177"/>
+      <c r="AD6" s="177"/>
+      <c r="AE6" s="177"/>
+      <c r="AF6" s="177"/>
+      <c r="AG6" s="177"/>
+      <c r="AH6" s="177"/>
+      <c r="AI6" s="177"/>
+      <c r="AJ6" s="177"/>
+      <c r="AK6" s="177"/>
+      <c r="AL6" s="177"/>
+      <c r="AM6" s="177"/>
+      <c r="AN6" s="177"/>
+      <c r="AO6" s="177"/>
+      <c r="AP6" s="627"/>
+      <c r="AQ6" s="627"/>
+      <c r="AR6" s="627"/>
+      <c r="AS6" s="627"/>
+      <c r="AT6" s="627"/>
+      <c r="AU6" s="627"/>
+      <c r="AV6" s="682"/>
+      <c r="AW6" s="844" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="718"/>
-      <c r="I5" s="718"/>
-      <c r="J5" s="723"/>
+      <c r="AX6" s="842"/>
+      <c r="AY6" s="842"/>
+      <c r="AZ6" s="842"/>
+      <c r="BA6" s="842"/>
+      <c r="BB6" s="842"/>
+      <c r="BC6" s="842"/>
+      <c r="BD6" s="842"/>
+      <c r="BE6" s="842"/>
+      <c r="BF6" s="842"/>
+      <c r="BG6" s="842"/>
+      <c r="BH6" s="842"/>
+      <c r="BI6" s="842"/>
+      <c r="BJ6" s="842"/>
+      <c r="BK6" s="842"/>
+      <c r="BL6" s="842"/>
+      <c r="BM6" s="843"/>
+      <c r="BN6" s="682"/>
     </row>
-    <row r="6">
-      <c r="A6" s="706"/>
-      <c r="B6" s="707"/>
-      <c r="C6" s="707"/>
-      <c r="D6" s="707"/>
-      <c r="E6" s="707"/>
-      <c r="F6" s="708"/>
-      <c r="G6" s="724"/>
-      <c r="H6" s="718"/>
-      <c r="I6" s="718"/>
-      <c r="J6" s="723"/>
+    <row r="7" customHeight="1" ht="12">
+      <c r="A7" s="823"/>
+      <c r="B7" s="177"/>
+      <c r="C7" s="177"/>
+      <c r="D7" s="177"/>
+      <c r="E7" s="177"/>
+      <c r="F7" s="177"/>
+      <c r="G7" s="177"/>
+      <c r="H7" s="177"/>
+      <c r="I7" s="177"/>
+      <c r="J7" s="177"/>
+      <c r="K7" s="177"/>
+      <c r="L7" s="177"/>
+      <c r="M7" s="177"/>
+      <c r="N7" s="177"/>
+      <c r="O7" s="177"/>
+      <c r="P7" s="177"/>
+      <c r="Q7" s="177"/>
+      <c r="R7" s="177"/>
+      <c r="S7" s="177"/>
+      <c r="T7" s="177"/>
+      <c r="U7" s="177"/>
+      <c r="V7" s="177"/>
+      <c r="W7" s="177"/>
+      <c r="X7" s="177"/>
+      <c r="Y7" s="177"/>
+      <c r="Z7" s="177"/>
+      <c r="AA7" s="177"/>
+      <c r="AB7" s="177"/>
+      <c r="AC7" s="177"/>
+      <c r="AD7" s="177"/>
+      <c r="AE7" s="177"/>
+      <c r="AF7" s="177"/>
+      <c r="AG7" s="177"/>
+      <c r="AH7" s="177"/>
+      <c r="AI7" s="177"/>
+      <c r="AJ7" s="177"/>
+      <c r="AK7" s="177"/>
+      <c r="AL7" s="177"/>
+      <c r="AM7" s="177"/>
+      <c r="AN7" s="177"/>
+      <c r="AO7" s="177"/>
+      <c r="AP7" s="627"/>
+      <c r="AQ7" s="627"/>
+      <c r="AR7" s="627"/>
+      <c r="AS7" s="627"/>
+      <c r="AT7" s="627"/>
+      <c r="AU7" s="627"/>
+      <c r="AV7" s="682"/>
+      <c r="AW7" s="845"/>
+      <c r="AX7" s="828"/>
+      <c r="AY7" s="828"/>
+      <c r="AZ7" s="828"/>
+      <c r="BA7" s="828"/>
+      <c r="BB7" s="828"/>
+      <c r="BC7" s="828"/>
+      <c r="BD7" s="828"/>
+      <c r="BE7" s="828"/>
+      <c r="BF7" s="828"/>
+      <c r="BG7" s="828"/>
+      <c r="BH7" s="828"/>
+      <c r="BI7" s="828"/>
+      <c r="BJ7" s="828"/>
+      <c r="BK7" s="828"/>
+      <c r="BL7" s="828"/>
+      <c r="BM7" s="829"/>
+      <c r="BN7" s="682"/>
     </row>
-    <row r="7">
-      <c r="A7" s="706"/>
-      <c r="B7" s="707"/>
-      <c r="C7" s="707"/>
-      <c r="D7" s="707"/>
-      <c r="E7" s="707"/>
-      <c r="F7" s="708"/>
-      <c r="G7" s="707"/>
-      <c r="H7" s="707"/>
-      <c r="I7" s="707"/>
-      <c r="J7" s="708"/>
+    <row r="8" customHeight="1" ht="12">
+      <c r="A8" s="823"/>
+      <c r="B8" s="177"/>
+      <c r="C8" s="177"/>
+      <c r="D8" s="177"/>
+      <c r="E8" s="177"/>
+      <c r="F8" s="177"/>
+      <c r="G8" s="177"/>
+      <c r="H8" s="177"/>
+      <c r="I8" s="177"/>
+      <c r="J8" s="177"/>
+      <c r="K8" s="177"/>
+      <c r="L8" s="177"/>
+      <c r="M8" s="177"/>
+      <c r="N8" s="177"/>
+      <c r="O8" s="177"/>
+      <c r="P8" s="177"/>
+      <c r="Q8" s="177"/>
+      <c r="R8" s="177"/>
+      <c r="S8" s="177"/>
+      <c r="T8" s="177"/>
+      <c r="U8" s="177"/>
+      <c r="V8" s="177"/>
+      <c r="W8" s="177"/>
+      <c r="X8" s="177"/>
+      <c r="Y8" s="177"/>
+      <c r="Z8" s="177"/>
+      <c r="AA8" s="177"/>
+      <c r="AB8" s="177"/>
+      <c r="AC8" s="177"/>
+      <c r="AD8" s="177"/>
+      <c r="AE8" s="177"/>
+      <c r="AF8" s="177"/>
+      <c r="AG8" s="177"/>
+      <c r="AH8" s="177"/>
+      <c r="AI8" s="177"/>
+      <c r="AJ8" s="177"/>
+      <c r="AK8" s="177"/>
+      <c r="AL8" s="177"/>
+      <c r="AM8" s="177"/>
+      <c r="AN8" s="177"/>
+      <c r="AO8" s="177"/>
+      <c r="AP8" s="627"/>
+      <c r="AQ8" s="627"/>
+      <c r="AR8" s="627"/>
+      <c r="AS8" s="627"/>
+      <c r="AT8" s="627"/>
+      <c r="AU8" s="627"/>
+      <c r="AV8" s="682"/>
+      <c r="AW8" s="851" t="s">
+        <v>283</v>
+      </c>
+      <c r="AX8" s="627"/>
+      <c r="AY8" s="627"/>
+      <c r="AZ8" s="627"/>
+      <c r="BA8" s="627"/>
+      <c r="BB8" s="627"/>
+      <c r="BC8" s="627"/>
+      <c r="BD8" s="627"/>
+      <c r="BE8" s="627"/>
+      <c r="BF8" s="177"/>
+      <c r="BG8" s="177"/>
+      <c r="BH8" s="177"/>
+      <c r="BI8" s="177"/>
+      <c r="BJ8" s="177"/>
+      <c r="BK8" s="177"/>
+      <c r="BL8" s="177"/>
+      <c r="BM8" s="179"/>
+      <c r="BN8" s="682"/>
     </row>
-    <row r="8">
-      <c r="A8" s="706"/>
-      <c r="B8" s="707"/>
-      <c r="C8" s="707"/>
-      <c r="D8" s="707"/>
-      <c r="E8" s="707"/>
-      <c r="F8" s="708"/>
-      <c r="G8" s="749" t="s">
-        <v>283</v>
-      </c>
-      <c r="H8" s="707"/>
-      <c r="I8" s="707"/>
-      <c r="J8" s="708"/>
+    <row r="9" customHeight="1" ht="12">
+      <c r="A9" s="823"/>
+      <c r="B9" s="177"/>
+      <c r="C9" s="177"/>
+      <c r="D9" s="177"/>
+      <c r="E9" s="177"/>
+      <c r="F9" s="177"/>
+      <c r="G9" s="177"/>
+      <c r="H9" s="177"/>
+      <c r="I9" s="177"/>
+      <c r="J9" s="177"/>
+      <c r="K9" s="177"/>
+      <c r="L9" s="177"/>
+      <c r="M9" s="177"/>
+      <c r="N9" s="177"/>
+      <c r="O9" s="177"/>
+      <c r="P9" s="177"/>
+      <c r="Q9" s="177"/>
+      <c r="R9" s="177"/>
+      <c r="S9" s="177"/>
+      <c r="T9" s="177"/>
+      <c r="U9" s="177"/>
+      <c r="V9" s="177"/>
+      <c r="W9" s="177"/>
+      <c r="X9" s="177"/>
+      <c r="Y9" s="177"/>
+      <c r="Z9" s="177"/>
+      <c r="AA9" s="177"/>
+      <c r="AB9" s="177"/>
+      <c r="AC9" s="177"/>
+      <c r="AD9" s="177"/>
+      <c r="AE9" s="177"/>
+      <c r="AF9" s="177"/>
+      <c r="AG9" s="177"/>
+      <c r="AH9" s="177"/>
+      <c r="AI9" s="177"/>
+      <c r="AJ9" s="177"/>
+      <c r="AK9" s="177"/>
+      <c r="AL9" s="177"/>
+      <c r="AM9" s="177"/>
+      <c r="AN9" s="177"/>
+      <c r="AO9" s="177"/>
+      <c r="AP9" s="627"/>
+      <c r="AQ9" s="627"/>
+      <c r="AR9" s="627"/>
+      <c r="AS9" s="627"/>
+      <c r="AT9" s="627"/>
+      <c r="AU9" s="627"/>
+      <c r="AV9" s="682"/>
+      <c r="AW9" s="846"/>
+      <c r="AX9" s="627"/>
+      <c r="AY9" s="627"/>
+      <c r="AZ9" s="851" t="s">
+        <v>286</v>
+      </c>
+      <c r="BA9" s="627"/>
+      <c r="BB9" s="627"/>
+      <c r="BC9" s="627"/>
+      <c r="BD9" s="627"/>
+      <c r="BE9" s="627"/>
+      <c r="BF9" s="177"/>
+      <c r="BG9" s="177"/>
+      <c r="BH9" s="177"/>
+      <c r="BI9" s="177"/>
+      <c r="BJ9" s="177"/>
+      <c r="BK9" s="177"/>
+      <c r="BL9" s="177"/>
+      <c r="BM9" s="179"/>
+      <c r="BN9" s="682"/>
     </row>
-    <row r="9">
-      <c r="A9" s="706"/>
-      <c r="B9" s="707"/>
-      <c r="C9" s="707"/>
-      <c r="D9" s="707"/>
-      <c r="E9" s="707"/>
-      <c r="F9" s="708"/>
-      <c r="G9" s="707"/>
-      <c r="H9" s="707"/>
-      <c r="I9" s="707"/>
-      <c r="J9" s="708"/>
+    <row r="10" customHeight="1" ht="12">
+      <c r="A10" s="823"/>
+      <c r="B10" s="177"/>
+      <c r="C10" s="177"/>
+      <c r="D10" s="177"/>
+      <c r="E10" s="177"/>
+      <c r="F10" s="177"/>
+      <c r="G10" s="177"/>
+      <c r="H10" s="177"/>
+      <c r="I10" s="177"/>
+      <c r="J10" s="177"/>
+      <c r="K10" s="177"/>
+      <c r="L10" s="177"/>
+      <c r="M10" s="177"/>
+      <c r="N10" s="177"/>
+      <c r="O10" s="177"/>
+      <c r="P10" s="177"/>
+      <c r="Q10" s="177"/>
+      <c r="R10" s="177"/>
+      <c r="S10" s="177"/>
+      <c r="T10" s="177"/>
+      <c r="U10" s="177"/>
+      <c r="V10" s="177"/>
+      <c r="W10" s="177"/>
+      <c r="X10" s="177"/>
+      <c r="Y10" s="177"/>
+      <c r="Z10" s="177"/>
+      <c r="AA10" s="177"/>
+      <c r="AB10" s="177"/>
+      <c r="AC10" s="177"/>
+      <c r="AD10" s="177"/>
+      <c r="AE10" s="177"/>
+      <c r="AF10" s="177"/>
+      <c r="AG10" s="177"/>
+      <c r="AH10" s="177"/>
+      <c r="AI10" s="177"/>
+      <c r="AJ10" s="177"/>
+      <c r="AK10" s="177"/>
+      <c r="AL10" s="177"/>
+      <c r="AM10" s="177"/>
+      <c r="AN10" s="177"/>
+      <c r="AO10" s="177"/>
+      <c r="AP10" s="627"/>
+      <c r="AQ10" s="627"/>
+      <c r="AR10" s="627"/>
+      <c r="AS10" s="627"/>
+      <c r="AT10" s="627"/>
+      <c r="AU10" s="627"/>
+      <c r="AV10" s="682"/>
+      <c r="AW10" s="846"/>
+      <c r="AX10" s="627"/>
+      <c r="AY10" s="627"/>
+      <c r="AZ10" s="627"/>
+      <c r="BA10" s="627"/>
+      <c r="BB10" s="627"/>
+      <c r="BC10" s="627"/>
+      <c r="BD10" s="627"/>
+      <c r="BE10" s="627"/>
+      <c r="BF10" s="177"/>
+      <c r="BG10" s="177"/>
+      <c r="BH10" s="177"/>
+      <c r="BI10" s="177"/>
+      <c r="BJ10" s="177"/>
+      <c r="BK10" s="177"/>
+      <c r="BL10" s="177"/>
+      <c r="BM10" s="179"/>
+      <c r="BN10" s="682"/>
     </row>
-    <row r="10">
-      <c r="A10" s="706"/>
-      <c r="B10" s="707"/>
-      <c r="C10" s="707"/>
-      <c r="D10" s="707"/>
-      <c r="E10" s="707"/>
-      <c r="F10" s="708"/>
-      <c r="G10" s="707"/>
-      <c r="H10" s="707"/>
-      <c r="I10" s="707"/>
-      <c r="J10" s="708"/>
+    <row r="11" customHeight="1" ht="12">
+      <c r="A11" s="823"/>
+      <c r="B11" s="177"/>
+      <c r="C11" s="177"/>
+      <c r="D11" s="177"/>
+      <c r="E11" s="177"/>
+      <c r="F11" s="177"/>
+      <c r="G11" s="177"/>
+      <c r="H11" s="177"/>
+      <c r="I11" s="177"/>
+      <c r="J11" s="177"/>
+      <c r="K11" s="177"/>
+      <c r="L11" s="177"/>
+      <c r="M11" s="177"/>
+      <c r="N11" s="177"/>
+      <c r="O11" s="177"/>
+      <c r="P11" s="177"/>
+      <c r="Q11" s="177"/>
+      <c r="R11" s="177"/>
+      <c r="S11" s="177"/>
+      <c r="T11" s="177"/>
+      <c r="U11" s="177"/>
+      <c r="V11" s="177"/>
+      <c r="W11" s="177"/>
+      <c r="X11" s="177"/>
+      <c r="Y11" s="177"/>
+      <c r="Z11" s="177"/>
+      <c r="AA11" s="177"/>
+      <c r="AB11" s="177"/>
+      <c r="AC11" s="177"/>
+      <c r="AD11" s="177"/>
+      <c r="AE11" s="177"/>
+      <c r="AF11" s="177"/>
+      <c r="AG11" s="177"/>
+      <c r="AH11" s="177"/>
+      <c r="AI11" s="177"/>
+      <c r="AJ11" s="177"/>
+      <c r="AK11" s="177"/>
+      <c r="AL11" s="177"/>
+      <c r="AM11" s="177"/>
+      <c r="AN11" s="177"/>
+      <c r="AO11" s="177"/>
+      <c r="AP11" s="627"/>
+      <c r="AQ11" s="627"/>
+      <c r="AR11" s="627"/>
+      <c r="AS11" s="627"/>
+      <c r="AT11" s="627"/>
+      <c r="AU11" s="627"/>
+      <c r="AV11" s="682"/>
+      <c r="AW11" s="846"/>
+      <c r="AX11" s="627"/>
+      <c r="AY11" s="627"/>
+      <c r="AZ11" s="627"/>
+      <c r="BA11" s="627"/>
+      <c r="BB11" s="627"/>
+      <c r="BC11" s="627"/>
+      <c r="BD11" s="627"/>
+      <c r="BE11" s="627"/>
+      <c r="BF11" s="177"/>
+      <c r="BG11" s="177"/>
+      <c r="BH11" s="177"/>
+      <c r="BI11" s="177"/>
+      <c r="BJ11" s="177"/>
+      <c r="BK11" s="177"/>
+      <c r="BL11" s="177"/>
+      <c r="BM11" s="179"/>
+      <c r="BN11" s="682"/>
     </row>
-    <row r="11">
-      <c r="A11" s="706"/>
-      <c r="B11" s="707"/>
-      <c r="C11" s="707"/>
-      <c r="D11" s="707"/>
-      <c r="E11" s="707"/>
-      <c r="F11" s="708"/>
-      <c r="G11" s="707"/>
-      <c r="H11" s="707"/>
-      <c r="I11" s="707"/>
-      <c r="J11" s="708"/>
+    <row r="12" customHeight="1" ht="12">
+      <c r="A12" s="823"/>
+      <c r="B12" s="177"/>
+      <c r="C12" s="177"/>
+      <c r="D12" s="177"/>
+      <c r="E12" s="177"/>
+      <c r="F12" s="177"/>
+      <c r="G12" s="177"/>
+      <c r="H12" s="177"/>
+      <c r="I12" s="177"/>
+      <c r="J12" s="177"/>
+      <c r="K12" s="177"/>
+      <c r="L12" s="177"/>
+      <c r="M12" s="177"/>
+      <c r="N12" s="177"/>
+      <c r="O12" s="177"/>
+      <c r="P12" s="177"/>
+      <c r="Q12" s="177"/>
+      <c r="R12" s="177"/>
+      <c r="S12" s="177"/>
+      <c r="T12" s="177"/>
+      <c r="U12" s="177"/>
+      <c r="V12" s="177"/>
+      <c r="W12" s="177"/>
+      <c r="X12" s="177"/>
+      <c r="Y12" s="177"/>
+      <c r="Z12" s="177"/>
+      <c r="AA12" s="177"/>
+      <c r="AB12" s="177"/>
+      <c r="AC12" s="177"/>
+      <c r="AD12" s="177"/>
+      <c r="AE12" s="177"/>
+      <c r="AF12" s="177"/>
+      <c r="AG12" s="177"/>
+      <c r="AH12" s="177"/>
+      <c r="AI12" s="177"/>
+      <c r="AJ12" s="177"/>
+      <c r="AK12" s="177"/>
+      <c r="AL12" s="177"/>
+      <c r="AM12" s="177"/>
+      <c r="AN12" s="177"/>
+      <c r="AO12" s="177"/>
+      <c r="AP12" s="627"/>
+      <c r="AQ12" s="627"/>
+      <c r="AR12" s="627"/>
+      <c r="AS12" s="627"/>
+      <c r="AT12" s="627"/>
+      <c r="AU12" s="627"/>
+      <c r="AV12" s="682"/>
+      <c r="AW12" s="846"/>
+      <c r="AX12" s="627"/>
+      <c r="AY12" s="627"/>
+      <c r="AZ12" s="627"/>
+      <c r="BA12" s="627"/>
+      <c r="BB12" s="627"/>
+      <c r="BC12" s="627"/>
+      <c r="BD12" s="627"/>
+      <c r="BE12" s="627"/>
+      <c r="BF12" s="177"/>
+      <c r="BG12" s="177"/>
+      <c r="BH12" s="177"/>
+      <c r="BI12" s="177"/>
+      <c r="BJ12" s="177"/>
+      <c r="BK12" s="177"/>
+      <c r="BL12" s="177"/>
+      <c r="BM12" s="179"/>
+      <c r="BN12" s="682"/>
     </row>
-    <row r="12">
-      <c r="A12" s="706"/>
-      <c r="B12" s="707"/>
-      <c r="C12" s="707"/>
-      <c r="D12" s="707"/>
-      <c r="E12" s="707"/>
-      <c r="F12" s="708"/>
-      <c r="G12" s="707"/>
-      <c r="H12" s="707"/>
-      <c r="I12" s="707"/>
-      <c r="J12" s="708"/>
+    <row r="13" customHeight="1" ht="12">
+      <c r="A13" s="823"/>
+      <c r="B13" s="177"/>
+      <c r="C13" s="177"/>
+      <c r="D13" s="177"/>
+      <c r="E13" s="177"/>
+      <c r="F13" s="177"/>
+      <c r="G13" s="177"/>
+      <c r="H13" s="177"/>
+      <c r="I13" s="177"/>
+      <c r="J13" s="177"/>
+      <c r="K13" s="177"/>
+      <c r="L13" s="177"/>
+      <c r="M13" s="177"/>
+      <c r="N13" s="177"/>
+      <c r="O13" s="177"/>
+      <c r="P13" s="177"/>
+      <c r="Q13" s="177"/>
+      <c r="R13" s="177"/>
+      <c r="S13" s="177"/>
+      <c r="T13" s="177"/>
+      <c r="U13" s="177"/>
+      <c r="V13" s="177"/>
+      <c r="W13" s="177"/>
+      <c r="X13" s="177"/>
+      <c r="Y13" s="177"/>
+      <c r="Z13" s="177"/>
+      <c r="AA13" s="177"/>
+      <c r="AB13" s="177"/>
+      <c r="AC13" s="177"/>
+      <c r="AD13" s="177"/>
+      <c r="AE13" s="177"/>
+      <c r="AF13" s="177"/>
+      <c r="AG13" s="177"/>
+      <c r="AH13" s="177"/>
+      <c r="AI13" s="177"/>
+      <c r="AJ13" s="177"/>
+      <c r="AK13" s="177"/>
+      <c r="AL13" s="177"/>
+      <c r="AM13" s="177"/>
+      <c r="AN13" s="177"/>
+      <c r="AO13" s="177"/>
+      <c r="AP13" s="627"/>
+      <c r="AQ13" s="627"/>
+      <c r="AR13" s="627"/>
+      <c r="AS13" s="627"/>
+      <c r="AT13" s="627"/>
+      <c r="AU13" s="627"/>
+      <c r="AV13" s="682"/>
+      <c r="AW13" s="846"/>
+      <c r="AX13" s="627"/>
+      <c r="AY13" s="627"/>
+      <c r="AZ13" s="627"/>
+      <c r="BA13" s="627"/>
+      <c r="BB13" s="627"/>
+      <c r="BC13" s="627"/>
+      <c r="BD13" s="627"/>
+      <c r="BE13" s="627"/>
+      <c r="BF13" s="177"/>
+      <c r="BG13" s="177"/>
+      <c r="BH13" s="177"/>
+      <c r="BI13" s="177"/>
+      <c r="BJ13" s="177"/>
+      <c r="BK13" s="177"/>
+      <c r="BL13" s="177"/>
+      <c r="BM13" s="179"/>
+      <c r="BN13" s="682"/>
     </row>
-    <row r="13">
-      <c r="A13" s="706"/>
-      <c r="B13" s="707"/>
-      <c r="C13" s="707"/>
-      <c r="D13" s="707"/>
-      <c r="E13" s="707"/>
-      <c r="F13" s="708"/>
-      <c r="G13" s="707"/>
-      <c r="H13" s="707"/>
-      <c r="I13" s="707"/>
-      <c r="J13" s="708"/>
+    <row r="14" customHeight="1" ht="12">
+      <c r="A14" s="823"/>
+      <c r="B14" s="177"/>
+      <c r="C14" s="177"/>
+      <c r="D14" s="177"/>
+      <c r="E14" s="177"/>
+      <c r="F14" s="177"/>
+      <c r="G14" s="177"/>
+      <c r="H14" s="177"/>
+      <c r="I14" s="177"/>
+      <c r="J14" s="177"/>
+      <c r="K14" s="177"/>
+      <c r="L14" s="177"/>
+      <c r="M14" s="177"/>
+      <c r="N14" s="177"/>
+      <c r="O14" s="177"/>
+      <c r="P14" s="177"/>
+      <c r="Q14" s="177"/>
+      <c r="R14" s="177"/>
+      <c r="S14" s="177"/>
+      <c r="T14" s="177"/>
+      <c r="U14" s="177"/>
+      <c r="V14" s="177"/>
+      <c r="W14" s="177"/>
+      <c r="X14" s="177"/>
+      <c r="Y14" s="177"/>
+      <c r="Z14" s="177"/>
+      <c r="AA14" s="177"/>
+      <c r="AB14" s="177"/>
+      <c r="AC14" s="177"/>
+      <c r="AD14" s="177"/>
+      <c r="AE14" s="177"/>
+      <c r="AF14" s="177"/>
+      <c r="AG14" s="177"/>
+      <c r="AH14" s="177"/>
+      <c r="AI14" s="177"/>
+      <c r="AJ14" s="177"/>
+      <c r="AK14" s="177"/>
+      <c r="AL14" s="177"/>
+      <c r="AM14" s="177"/>
+      <c r="AN14" s="177"/>
+      <c r="AO14" s="177"/>
+      <c r="AP14" s="627"/>
+      <c r="AQ14" s="627"/>
+      <c r="AR14" s="627"/>
+      <c r="AS14" s="627"/>
+      <c r="AT14" s="627"/>
+      <c r="AU14" s="627"/>
+      <c r="AV14" s="682"/>
+      <c r="AW14" s="846"/>
+      <c r="AX14" s="627"/>
+      <c r="AY14" s="627"/>
+      <c r="AZ14" s="627"/>
+      <c r="BA14" s="627"/>
+      <c r="BB14" s="627"/>
+      <c r="BC14" s="627"/>
+      <c r="BD14" s="627"/>
+      <c r="BE14" s="627"/>
+      <c r="BF14" s="177"/>
+      <c r="BG14" s="177"/>
+      <c r="BH14" s="177"/>
+      <c r="BI14" s="177"/>
+      <c r="BJ14" s="177"/>
+      <c r="BK14" s="177"/>
+      <c r="BL14" s="177"/>
+      <c r="BM14" s="179"/>
+      <c r="BN14" s="682"/>
     </row>
-    <row r="14">
-      <c r="A14" s="706"/>
-      <c r="B14" s="707"/>
-      <c r="C14" s="707"/>
-      <c r="D14" s="707"/>
-      <c r="E14" s="707"/>
-      <c r="F14" s="708"/>
-      <c r="G14" s="707"/>
-      <c r="H14" s="707"/>
-      <c r="I14" s="707"/>
-      <c r="J14" s="708"/>
+    <row r="15" customHeight="1" ht="12">
+      <c r="A15" s="823"/>
+      <c r="B15" s="177"/>
+      <c r="C15" s="177"/>
+      <c r="D15" s="177"/>
+      <c r="E15" s="177"/>
+      <c r="F15" s="177"/>
+      <c r="G15" s="177"/>
+      <c r="H15" s="177"/>
+      <c r="I15" s="177"/>
+      <c r="J15" s="177"/>
+      <c r="K15" s="177"/>
+      <c r="L15" s="177"/>
+      <c r="M15" s="177"/>
+      <c r="N15" s="177"/>
+      <c r="O15" s="177"/>
+      <c r="P15" s="177"/>
+      <c r="Q15" s="177"/>
+      <c r="R15" s="177"/>
+      <c r="S15" s="177"/>
+      <c r="T15" s="177"/>
+      <c r="U15" s="177"/>
+      <c r="V15" s="177"/>
+      <c r="W15" s="177"/>
+      <c r="X15" s="177"/>
+      <c r="Y15" s="177"/>
+      <c r="Z15" s="177"/>
+      <c r="AA15" s="177"/>
+      <c r="AB15" s="177"/>
+      <c r="AC15" s="177"/>
+      <c r="AD15" s="177"/>
+      <c r="AE15" s="177"/>
+      <c r="AF15" s="177"/>
+      <c r="AG15" s="177"/>
+      <c r="AH15" s="177"/>
+      <c r="AI15" s="177"/>
+      <c r="AJ15" s="177"/>
+      <c r="AK15" s="177"/>
+      <c r="AL15" s="177"/>
+      <c r="AM15" s="177"/>
+      <c r="AN15" s="177"/>
+      <c r="AO15" s="177"/>
+      <c r="AP15" s="627"/>
+      <c r="AQ15" s="627"/>
+      <c r="AR15" s="627"/>
+      <c r="AS15" s="627"/>
+      <c r="AT15" s="627"/>
+      <c r="AU15" s="627"/>
+      <c r="AV15" s="682"/>
+      <c r="AW15" s="846"/>
+      <c r="AX15" s="627"/>
+      <c r="AY15" s="627"/>
+      <c r="AZ15" s="627"/>
+      <c r="BA15" s="627"/>
+      <c r="BB15" s="627"/>
+      <c r="BC15" s="627"/>
+      <c r="BD15" s="627"/>
+      <c r="BE15" s="627"/>
+      <c r="BF15" s="177"/>
+      <c r="BG15" s="177"/>
+      <c r="BH15" s="177"/>
+      <c r="BI15" s="177"/>
+      <c r="BJ15" s="177"/>
+      <c r="BK15" s="177"/>
+      <c r="BL15" s="177"/>
+      <c r="BM15" s="179"/>
+      <c r="BN15" s="682"/>
     </row>
-    <row r="15">
-      <c r="A15" s="706"/>
-      <c r="B15" s="707"/>
-      <c r="C15" s="707"/>
-      <c r="D15" s="707"/>
-      <c r="E15" s="707"/>
-      <c r="F15" s="708"/>
-      <c r="G15" s="707"/>
-      <c r="H15" s="707"/>
-      <c r="I15" s="707"/>
-      <c r="J15" s="708"/>
+    <row r="16" customHeight="1" ht="12">
+      <c r="A16" s="823"/>
+      <c r="B16" s="177"/>
+      <c r="C16" s="177"/>
+      <c r="D16" s="177"/>
+      <c r="E16" s="177"/>
+      <c r="F16" s="177"/>
+      <c r="G16" s="177"/>
+      <c r="H16" s="177"/>
+      <c r="I16" s="177"/>
+      <c r="J16" s="177"/>
+      <c r="K16" s="177"/>
+      <c r="L16" s="177"/>
+      <c r="M16" s="177"/>
+      <c r="N16" s="177"/>
+      <c r="O16" s="177"/>
+      <c r="P16" s="177"/>
+      <c r="Q16" s="177"/>
+      <c r="R16" s="177"/>
+      <c r="S16" s="177"/>
+      <c r="T16" s="177"/>
+      <c r="U16" s="177"/>
+      <c r="V16" s="177"/>
+      <c r="W16" s="177"/>
+      <c r="X16" s="177"/>
+      <c r="Y16" s="177"/>
+      <c r="Z16" s="177"/>
+      <c r="AA16" s="177"/>
+      <c r="AB16" s="177"/>
+      <c r="AC16" s="177"/>
+      <c r="AD16" s="177"/>
+      <c r="AE16" s="177"/>
+      <c r="AF16" s="177"/>
+      <c r="AG16" s="177"/>
+      <c r="AH16" s="177"/>
+      <c r="AI16" s="177"/>
+      <c r="AJ16" s="177"/>
+      <c r="AK16" s="177"/>
+      <c r="AL16" s="177"/>
+      <c r="AM16" s="177"/>
+      <c r="AN16" s="177"/>
+      <c r="AO16" s="177"/>
+      <c r="AP16" s="627"/>
+      <c r="AQ16" s="627"/>
+      <c r="AR16" s="627"/>
+      <c r="AS16" s="627"/>
+      <c r="AT16" s="627"/>
+      <c r="AU16" s="627"/>
+      <c r="AV16" s="682"/>
+      <c r="AW16" s="846"/>
+      <c r="AX16" s="627"/>
+      <c r="AY16" s="627"/>
+      <c r="AZ16" s="627"/>
+      <c r="BA16" s="627"/>
+      <c r="BB16" s="627"/>
+      <c r="BC16" s="627"/>
+      <c r="BD16" s="627"/>
+      <c r="BE16" s="627"/>
+      <c r="BF16" s="177"/>
+      <c r="BG16" s="177"/>
+      <c r="BH16" s="177"/>
+      <c r="BI16" s="177"/>
+      <c r="BJ16" s="177"/>
+      <c r="BK16" s="177"/>
+      <c r="BL16" s="177"/>
+      <c r="BM16" s="179"/>
+      <c r="BN16" s="682"/>
     </row>
-    <row r="16">
-      <c r="A16" s="706"/>
-      <c r="B16" s="707"/>
-      <c r="C16" s="707"/>
-      <c r="D16" s="707"/>
-      <c r="E16" s="707"/>
-      <c r="F16" s="708"/>
-      <c r="G16" s="707"/>
-      <c r="H16" s="707"/>
-      <c r="I16" s="707"/>
-      <c r="J16" s="708"/>
+    <row r="17" customHeight="1" ht="12">
+      <c r="A17" s="823"/>
+      <c r="B17" s="177"/>
+      <c r="C17" s="177"/>
+      <c r="D17" s="177"/>
+      <c r="E17" s="177"/>
+      <c r="F17" s="177"/>
+      <c r="G17" s="177"/>
+      <c r="H17" s="177"/>
+      <c r="I17" s="177"/>
+      <c r="J17" s="177"/>
+      <c r="K17" s="177"/>
+      <c r="L17" s="177"/>
+      <c r="M17" s="177"/>
+      <c r="N17" s="177"/>
+      <c r="O17" s="177"/>
+      <c r="P17" s="177"/>
+      <c r="Q17" s="177"/>
+      <c r="R17" s="177"/>
+      <c r="S17" s="177"/>
+      <c r="T17" s="177"/>
+      <c r="U17" s="177"/>
+      <c r="V17" s="177"/>
+      <c r="W17" s="177"/>
+      <c r="X17" s="177"/>
+      <c r="Y17" s="177"/>
+      <c r="Z17" s="177"/>
+      <c r="AA17" s="177"/>
+      <c r="AB17" s="177"/>
+      <c r="AC17" s="177"/>
+      <c r="AD17" s="177"/>
+      <c r="AE17" s="177"/>
+      <c r="AF17" s="177"/>
+      <c r="AG17" s="177"/>
+      <c r="AH17" s="177"/>
+      <c r="AI17" s="177"/>
+      <c r="AJ17" s="177"/>
+      <c r="AK17" s="177"/>
+      <c r="AL17" s="177"/>
+      <c r="AM17" s="177"/>
+      <c r="AN17" s="177"/>
+      <c r="AO17" s="177"/>
+      <c r="AP17" s="627"/>
+      <c r="AQ17" s="627"/>
+      <c r="AR17" s="627"/>
+      <c r="AS17" s="627"/>
+      <c r="AT17" s="627"/>
+      <c r="AU17" s="627"/>
+      <c r="AV17" s="682"/>
+      <c r="AW17" s="846"/>
+      <c r="AX17" s="627"/>
+      <c r="AY17" s="627"/>
+      <c r="AZ17" s="627"/>
+      <c r="BA17" s="627"/>
+      <c r="BB17" s="627"/>
+      <c r="BC17" s="627"/>
+      <c r="BD17" s="627"/>
+      <c r="BE17" s="627"/>
+      <c r="BF17" s="177"/>
+      <c r="BG17" s="177"/>
+      <c r="BH17" s="177"/>
+      <c r="BI17" s="177"/>
+      <c r="BJ17" s="177"/>
+      <c r="BK17" s="177"/>
+      <c r="BL17" s="177"/>
+      <c r="BM17" s="179"/>
+      <c r="BN17" s="682"/>
     </row>
-    <row r="17">
-      <c r="A17" s="706"/>
-      <c r="B17" s="707"/>
-      <c r="C17" s="707"/>
-      <c r="D17" s="707"/>
-      <c r="E17" s="707"/>
-      <c r="F17" s="708"/>
-      <c r="G17" s="707"/>
-      <c r="H17" s="707"/>
-      <c r="I17" s="707"/>
-      <c r="J17" s="708"/>
+    <row r="18" customHeight="1" ht="12">
+      <c r="A18" s="823"/>
+      <c r="B18" s="177"/>
+      <c r="C18" s="177"/>
+      <c r="D18" s="177"/>
+      <c r="E18" s="177"/>
+      <c r="F18" s="177"/>
+      <c r="G18" s="177"/>
+      <c r="H18" s="177"/>
+      <c r="I18" s="177"/>
+      <c r="J18" s="177"/>
+      <c r="K18" s="177"/>
+      <c r="L18" s="177"/>
+      <c r="M18" s="177"/>
+      <c r="N18" s="177"/>
+      <c r="O18" s="177"/>
+      <c r="P18" s="177"/>
+      <c r="Q18" s="177"/>
+      <c r="R18" s="177"/>
+      <c r="S18" s="177"/>
+      <c r="T18" s="177"/>
+      <c r="U18" s="177"/>
+      <c r="V18" s="177"/>
+      <c r="W18" s="177"/>
+      <c r="X18" s="177"/>
+      <c r="Y18" s="177"/>
+      <c r="Z18" s="177"/>
+      <c r="AA18" s="177"/>
+      <c r="AB18" s="177"/>
+      <c r="AC18" s="177"/>
+      <c r="AD18" s="177"/>
+      <c r="AE18" s="177"/>
+      <c r="AF18" s="177"/>
+      <c r="AG18" s="177"/>
+      <c r="AH18" s="177"/>
+      <c r="AI18" s="177"/>
+      <c r="AJ18" s="177"/>
+      <c r="AK18" s="177"/>
+      <c r="AL18" s="177"/>
+      <c r="AM18" s="177"/>
+      <c r="AN18" s="177"/>
+      <c r="AO18" s="177"/>
+      <c r="AP18" s="627"/>
+      <c r="AQ18" s="627"/>
+      <c r="AR18" s="627"/>
+      <c r="AS18" s="627"/>
+      <c r="AT18" s="627"/>
+      <c r="AU18" s="627"/>
+      <c r="AV18" s="682"/>
+      <c r="AW18" s="846"/>
+      <c r="AX18" s="627"/>
+      <c r="AY18" s="627"/>
+      <c r="AZ18" s="627"/>
+      <c r="BA18" s="627"/>
+      <c r="BB18" s="627"/>
+      <c r="BC18" s="627"/>
+      <c r="BD18" s="627"/>
+      <c r="BE18" s="627"/>
+      <c r="BF18" s="177"/>
+      <c r="BG18" s="177"/>
+      <c r="BH18" s="177"/>
+      <c r="BI18" s="177"/>
+      <c r="BJ18" s="177"/>
+      <c r="BK18" s="177"/>
+      <c r="BL18" s="177"/>
+      <c r="BM18" s="179"/>
+      <c r="BN18" s="682"/>
     </row>
-    <row r="18">
-      <c r="A18" s="706"/>
-      <c r="B18" s="707"/>
-      <c r="C18" s="707"/>
-      <c r="D18" s="707"/>
-      <c r="E18" s="707"/>
-      <c r="F18" s="708"/>
-      <c r="G18" s="707"/>
-      <c r="H18" s="707"/>
-      <c r="I18" s="707"/>
-      <c r="J18" s="708"/>
+    <row r="19" customHeight="1" ht="12">
+      <c r="A19" s="823"/>
+      <c r="B19" s="177"/>
+      <c r="C19" s="177"/>
+      <c r="D19" s="177"/>
+      <c r="E19" s="177"/>
+      <c r="F19" s="177"/>
+      <c r="G19" s="177"/>
+      <c r="H19" s="177"/>
+      <c r="I19" s="177"/>
+      <c r="J19" s="177"/>
+      <c r="K19" s="177"/>
+      <c r="L19" s="177"/>
+      <c r="M19" s="177"/>
+      <c r="N19" s="177"/>
+      <c r="O19" s="177"/>
+      <c r="P19" s="177"/>
+      <c r="Q19" s="177"/>
+      <c r="R19" s="177"/>
+      <c r="S19" s="177"/>
+      <c r="T19" s="177"/>
+      <c r="U19" s="177"/>
+      <c r="V19" s="177"/>
+      <c r="W19" s="177"/>
+      <c r="X19" s="177"/>
+      <c r="Y19" s="177"/>
+      <c r="Z19" s="177"/>
+      <c r="AA19" s="177"/>
+      <c r="AB19" s="177"/>
+      <c r="AC19" s="177"/>
+      <c r="AD19" s="177"/>
+      <c r="AE19" s="177"/>
+      <c r="AF19" s="177"/>
+      <c r="AG19" s="177"/>
+      <c r="AH19" s="177"/>
+      <c r="AI19" s="177"/>
+      <c r="AJ19" s="177"/>
+      <c r="AK19" s="177"/>
+      <c r="AL19" s="177"/>
+      <c r="AM19" s="177"/>
+      <c r="AN19" s="177"/>
+      <c r="AO19" s="177"/>
+      <c r="AP19" s="627"/>
+      <c r="AQ19" s="627"/>
+      <c r="AR19" s="627"/>
+      <c r="AS19" s="627"/>
+      <c r="AT19" s="627"/>
+      <c r="AU19" s="627"/>
+      <c r="AV19" s="682"/>
+      <c r="AW19" s="846"/>
+      <c r="AX19" s="627"/>
+      <c r="AY19" s="627"/>
+      <c r="AZ19" s="627"/>
+      <c r="BA19" s="627"/>
+      <c r="BB19" s="627"/>
+      <c r="BC19" s="627"/>
+      <c r="BD19" s="627"/>
+      <c r="BE19" s="627"/>
+      <c r="BF19" s="177"/>
+      <c r="BG19" s="177"/>
+      <c r="BH19" s="177"/>
+      <c r="BI19" s="177"/>
+      <c r="BJ19" s="177"/>
+      <c r="BK19" s="177"/>
+      <c r="BL19" s="177"/>
+      <c r="BM19" s="179"/>
+      <c r="BN19" s="682"/>
     </row>
-    <row r="19">
-      <c r="A19" s="706"/>
-      <c r="B19" s="707"/>
-      <c r="C19" s="707"/>
-      <c r="D19" s="707"/>
-      <c r="E19" s="707"/>
-      <c r="F19" s="708"/>
-      <c r="G19" s="707"/>
-      <c r="H19" s="707"/>
-      <c r="I19" s="707"/>
-      <c r="J19" s="708"/>
+    <row r="20" customHeight="1" ht="12">
+      <c r="A20" s="823"/>
+      <c r="B20" s="177"/>
+      <c r="C20" s="177"/>
+      <c r="D20" s="177"/>
+      <c r="E20" s="177"/>
+      <c r="F20" s="177"/>
+      <c r="G20" s="177"/>
+      <c r="H20" s="177"/>
+      <c r="I20" s="177"/>
+      <c r="J20" s="177"/>
+      <c r="K20" s="177"/>
+      <c r="L20" s="177"/>
+      <c r="M20" s="177"/>
+      <c r="N20" s="177"/>
+      <c r="O20" s="177"/>
+      <c r="P20" s="177"/>
+      <c r="Q20" s="177"/>
+      <c r="R20" s="177"/>
+      <c r="S20" s="177"/>
+      <c r="T20" s="177"/>
+      <c r="U20" s="177"/>
+      <c r="V20" s="177"/>
+      <c r="W20" s="177"/>
+      <c r="X20" s="177"/>
+      <c r="Y20" s="177"/>
+      <c r="Z20" s="177"/>
+      <c r="AA20" s="177"/>
+      <c r="AB20" s="177"/>
+      <c r="AC20" s="177"/>
+      <c r="AD20" s="177"/>
+      <c r="AE20" s="177"/>
+      <c r="AF20" s="177"/>
+      <c r="AG20" s="177"/>
+      <c r="AH20" s="177"/>
+      <c r="AI20" s="177"/>
+      <c r="AJ20" s="177"/>
+      <c r="AK20" s="177"/>
+      <c r="AL20" s="177"/>
+      <c r="AM20" s="177"/>
+      <c r="AN20" s="177"/>
+      <c r="AO20" s="177"/>
+      <c r="AP20" s="627"/>
+      <c r="AQ20" s="627"/>
+      <c r="AR20" s="627"/>
+      <c r="AS20" s="627"/>
+      <c r="AT20" s="627"/>
+      <c r="AU20" s="627"/>
+      <c r="AV20" s="682"/>
+      <c r="AW20" s="846"/>
+      <c r="AX20" s="627"/>
+      <c r="AY20" s="627"/>
+      <c r="AZ20" s="627"/>
+      <c r="BA20" s="627"/>
+      <c r="BB20" s="627"/>
+      <c r="BC20" s="627"/>
+      <c r="BD20" s="627"/>
+      <c r="BE20" s="627"/>
+      <c r="BF20" s="177"/>
+      <c r="BG20" s="177"/>
+      <c r="BH20" s="177"/>
+      <c r="BI20" s="177"/>
+      <c r="BJ20" s="177"/>
+      <c r="BK20" s="177"/>
+      <c r="BL20" s="177"/>
+      <c r="BM20" s="179"/>
+      <c r="BN20" s="682"/>
     </row>
-    <row r="20">
-      <c r="A20" s="706"/>
-      <c r="B20" s="707"/>
-      <c r="C20" s="707"/>
-      <c r="D20" s="707"/>
-      <c r="E20" s="707"/>
-      <c r="F20" s="708"/>
-      <c r="G20" s="707"/>
-      <c r="H20" s="707"/>
-      <c r="I20" s="707"/>
-      <c r="J20" s="708"/>
+    <row r="21" customHeight="1" ht="12">
+      <c r="A21" s="823"/>
+      <c r="B21" s="177"/>
+      <c r="C21" s="177"/>
+      <c r="D21" s="177"/>
+      <c r="E21" s="177"/>
+      <c r="F21" s="177"/>
+      <c r="G21" s="177"/>
+      <c r="H21" s="177"/>
+      <c r="I21" s="177"/>
+      <c r="J21" s="177"/>
+      <c r="K21" s="177"/>
+      <c r="L21" s="177"/>
+      <c r="M21" s="177"/>
+      <c r="N21" s="177"/>
+      <c r="O21" s="177"/>
+      <c r="P21" s="177"/>
+      <c r="Q21" s="177"/>
+      <c r="R21" s="177"/>
+      <c r="S21" s="177"/>
+      <c r="T21" s="177"/>
+      <c r="U21" s="177"/>
+      <c r="V21" s="177"/>
+      <c r="W21" s="177"/>
+      <c r="X21" s="177"/>
+      <c r="Y21" s="177"/>
+      <c r="Z21" s="177"/>
+      <c r="AA21" s="177"/>
+      <c r="AB21" s="177"/>
+      <c r="AC21" s="177"/>
+      <c r="AD21" s="177"/>
+      <c r="AE21" s="177"/>
+      <c r="AF21" s="177"/>
+      <c r="AG21" s="177"/>
+      <c r="AH21" s="177"/>
+      <c r="AI21" s="177"/>
+      <c r="AJ21" s="177"/>
+      <c r="AK21" s="177"/>
+      <c r="AL21" s="177"/>
+      <c r="AM21" s="177"/>
+      <c r="AN21" s="177"/>
+      <c r="AO21" s="177"/>
+      <c r="AP21" s="627"/>
+      <c r="AQ21" s="627"/>
+      <c r="AR21" s="627"/>
+      <c r="AS21" s="627"/>
+      <c r="AT21" s="627"/>
+      <c r="AU21" s="627"/>
+      <c r="AV21" s="682"/>
+      <c r="AW21" s="846"/>
+      <c r="AX21" s="627"/>
+      <c r="AY21" s="627"/>
+      <c r="AZ21" s="627"/>
+      <c r="BA21" s="627"/>
+      <c r="BB21" s="627"/>
+      <c r="BC21" s="627"/>
+      <c r="BD21" s="627"/>
+      <c r="BE21" s="627"/>
+      <c r="BF21" s="177"/>
+      <c r="BG21" s="177"/>
+      <c r="BH21" s="177"/>
+      <c r="BI21" s="177"/>
+      <c r="BJ21" s="177"/>
+      <c r="BK21" s="177"/>
+      <c r="BL21" s="177"/>
+      <c r="BM21" s="179"/>
+      <c r="BN21" s="682"/>
     </row>
-    <row r="21">
-      <c r="A21" s="706"/>
-      <c r="B21" s="707"/>
-      <c r="C21" s="707"/>
-      <c r="D21" s="707"/>
-      <c r="E21" s="707"/>
-      <c r="F21" s="708"/>
-      <c r="G21" s="707"/>
-      <c r="H21" s="707"/>
-      <c r="I21" s="707"/>
-      <c r="J21" s="708"/>
+    <row r="22" customHeight="1" ht="12">
+      <c r="A22" s="823"/>
+      <c r="B22" s="177"/>
+      <c r="C22" s="177"/>
+      <c r="D22" s="177"/>
+      <c r="E22" s="177"/>
+      <c r="F22" s="177"/>
+      <c r="G22" s="177"/>
+      <c r="H22" s="177"/>
+      <c r="I22" s="177"/>
+      <c r="J22" s="177"/>
+      <c r="K22" s="177"/>
+      <c r="L22" s="177"/>
+      <c r="M22" s="177"/>
+      <c r="N22" s="177"/>
+      <c r="O22" s="177"/>
+      <c r="P22" s="177"/>
+      <c r="Q22" s="177"/>
+      <c r="R22" s="177"/>
+      <c r="S22" s="177"/>
+      <c r="T22" s="177"/>
+      <c r="U22" s="177"/>
+      <c r="V22" s="177"/>
+      <c r="W22" s="177"/>
+      <c r="X22" s="177"/>
+      <c r="Y22" s="177"/>
+      <c r="Z22" s="177"/>
+      <c r="AA22" s="177"/>
+      <c r="AB22" s="177"/>
+      <c r="AC22" s="177"/>
+      <c r="AD22" s="177"/>
+      <c r="AE22" s="177"/>
+      <c r="AF22" s="177"/>
+      <c r="AG22" s="177"/>
+      <c r="AH22" s="177"/>
+      <c r="AI22" s="177"/>
+      <c r="AJ22" s="177"/>
+      <c r="AK22" s="177"/>
+      <c r="AL22" s="177"/>
+      <c r="AM22" s="177"/>
+      <c r="AN22" s="177"/>
+      <c r="AO22" s="177"/>
+      <c r="AP22" s="627"/>
+      <c r="AQ22" s="627"/>
+      <c r="AR22" s="627"/>
+      <c r="AS22" s="627"/>
+      <c r="AT22" s="627"/>
+      <c r="AU22" s="627"/>
+      <c r="AV22" s="682"/>
+      <c r="AW22" s="846"/>
+      <c r="AX22" s="627"/>
+      <c r="AY22" s="627"/>
+      <c r="AZ22" s="627"/>
+      <c r="BA22" s="627"/>
+      <c r="BB22" s="627"/>
+      <c r="BC22" s="627"/>
+      <c r="BD22" s="627"/>
+      <c r="BE22" s="627"/>
+      <c r="BF22" s="177"/>
+      <c r="BG22" s="177"/>
+      <c r="BH22" s="177"/>
+      <c r="BI22" s="177"/>
+      <c r="BJ22" s="177"/>
+      <c r="BK22" s="177"/>
+      <c r="BL22" s="177"/>
+      <c r="BM22" s="179"/>
+      <c r="BN22" s="682"/>
     </row>
-    <row r="22">
-      <c r="A22" s="706"/>
-      <c r="B22" s="707"/>
-      <c r="C22" s="707"/>
-      <c r="D22" s="707"/>
-      <c r="E22" s="707"/>
-      <c r="F22" s="708"/>
-      <c r="G22" s="707"/>
-      <c r="H22" s="707"/>
-      <c r="I22" s="707"/>
-      <c r="J22" s="708"/>
+    <row r="23" customHeight="1" ht="12">
+      <c r="A23" s="823"/>
+      <c r="B23" s="177"/>
+      <c r="C23" s="177"/>
+      <c r="D23" s="177"/>
+      <c r="E23" s="177"/>
+      <c r="F23" s="177"/>
+      <c r="G23" s="177"/>
+      <c r="H23" s="177"/>
+      <c r="I23" s="177"/>
+      <c r="J23" s="177"/>
+      <c r="K23" s="177"/>
+      <c r="L23" s="177"/>
+      <c r="M23" s="177"/>
+      <c r="N23" s="177"/>
+      <c r="O23" s="177"/>
+      <c r="P23" s="177"/>
+      <c r="Q23" s="177"/>
+      <c r="R23" s="177"/>
+      <c r="S23" s="177"/>
+      <c r="T23" s="177"/>
+      <c r="U23" s="177"/>
+      <c r="V23" s="177"/>
+      <c r="W23" s="177"/>
+      <c r="X23" s="177"/>
+      <c r="Y23" s="177"/>
+      <c r="Z23" s="177"/>
+      <c r="AA23" s="177"/>
+      <c r="AB23" s="177"/>
+      <c r="AC23" s="177"/>
+      <c r="AD23" s="177"/>
+      <c r="AE23" s="177"/>
+      <c r="AF23" s="177"/>
+      <c r="AG23" s="177"/>
+      <c r="AH23" s="177"/>
+      <c r="AI23" s="177"/>
+      <c r="AJ23" s="177"/>
+      <c r="AK23" s="177"/>
+      <c r="AL23" s="177"/>
+      <c r="AM23" s="177"/>
+      <c r="AN23" s="177"/>
+      <c r="AO23" s="177"/>
+      <c r="AP23" s="627"/>
+      <c r="AQ23" s="627"/>
+      <c r="AR23" s="627"/>
+      <c r="AS23" s="627"/>
+      <c r="AT23" s="627"/>
+      <c r="AU23" s="627"/>
+      <c r="AV23" s="682"/>
+      <c r="AW23" s="846"/>
+      <c r="AX23" s="627"/>
+      <c r="AY23" s="627"/>
+      <c r="AZ23" s="627"/>
+      <c r="BA23" s="627"/>
+      <c r="BB23" s="627"/>
+      <c r="BC23" s="627"/>
+      <c r="BD23" s="627"/>
+      <c r="BE23" s="627"/>
+      <c r="BF23" s="177"/>
+      <c r="BG23" s="177"/>
+      <c r="BH23" s="177"/>
+      <c r="BI23" s="177"/>
+      <c r="BJ23" s="177"/>
+      <c r="BK23" s="177"/>
+      <c r="BL23" s="177"/>
+      <c r="BM23" s="179"/>
+      <c r="BN23" s="682"/>
     </row>
-    <row r="23">
-      <c r="A23" s="706"/>
-      <c r="B23" s="707"/>
-      <c r="C23" s="707"/>
-      <c r="D23" s="707"/>
-      <c r="E23" s="707"/>
-      <c r="F23" s="708"/>
-      <c r="G23" s="707"/>
-      <c r="H23" s="707"/>
-      <c r="I23" s="707"/>
-      <c r="J23" s="708"/>
+    <row r="24" customHeight="1" ht="12">
+      <c r="A24" s="823"/>
+      <c r="B24" s="177"/>
+      <c r="C24" s="177"/>
+      <c r="D24" s="177"/>
+      <c r="E24" s="177"/>
+      <c r="F24" s="177"/>
+      <c r="G24" s="177"/>
+      <c r="H24" s="177"/>
+      <c r="I24" s="177"/>
+      <c r="J24" s="177"/>
+      <c r="K24" s="177"/>
+      <c r="L24" s="177"/>
+      <c r="M24" s="177"/>
+      <c r="N24" s="177"/>
+      <c r="O24" s="177"/>
+      <c r="P24" s="177"/>
+      <c r="Q24" s="177"/>
+      <c r="R24" s="177"/>
+      <c r="S24" s="177"/>
+      <c r="T24" s="177"/>
+      <c r="U24" s="177"/>
+      <c r="V24" s="177"/>
+      <c r="W24" s="177"/>
+      <c r="X24" s="177"/>
+      <c r="Y24" s="177"/>
+      <c r="Z24" s="177"/>
+      <c r="AA24" s="177"/>
+      <c r="AB24" s="177"/>
+      <c r="AC24" s="177"/>
+      <c r="AD24" s="177"/>
+      <c r="AE24" s="177"/>
+      <c r="AF24" s="177"/>
+      <c r="AG24" s="177"/>
+      <c r="AH24" s="177"/>
+      <c r="AI24" s="177"/>
+      <c r="AJ24" s="177"/>
+      <c r="AK24" s="177"/>
+      <c r="AL24" s="177"/>
+      <c r="AM24" s="177"/>
+      <c r="AN24" s="177"/>
+      <c r="AO24" s="177"/>
+      <c r="AP24" s="627"/>
+      <c r="AQ24" s="627"/>
+      <c r="AR24" s="627"/>
+      <c r="AS24" s="627"/>
+      <c r="AT24" s="627"/>
+      <c r="AU24" s="627"/>
+      <c r="AV24" s="682"/>
+      <c r="AW24" s="846"/>
+      <c r="AX24" s="627"/>
+      <c r="AY24" s="627"/>
+      <c r="AZ24" s="627"/>
+      <c r="BA24" s="627"/>
+      <c r="BB24" s="627"/>
+      <c r="BC24" s="627"/>
+      <c r="BD24" s="627"/>
+      <c r="BE24" s="627"/>
+      <c r="BF24" s="177"/>
+      <c r="BG24" s="177"/>
+      <c r="BH24" s="177"/>
+      <c r="BI24" s="177"/>
+      <c r="BJ24" s="177"/>
+      <c r="BK24" s="177"/>
+      <c r="BL24" s="177"/>
+      <c r="BM24" s="179"/>
+      <c r="BN24" s="682"/>
     </row>
-    <row r="24">
-      <c r="A24" s="706"/>
-      <c r="B24" s="707"/>
-      <c r="C24" s="707"/>
-      <c r="D24" s="707"/>
-      <c r="E24" s="707"/>
-      <c r="F24" s="708"/>
-      <c r="G24" s="707"/>
-      <c r="H24" s="707"/>
-      <c r="I24" s="707"/>
-      <c r="J24" s="708"/>
+    <row r="25" customHeight="1" ht="12">
+      <c r="A25" s="823"/>
+      <c r="B25" s="177"/>
+      <c r="C25" s="177"/>
+      <c r="D25" s="177"/>
+      <c r="E25" s="177"/>
+      <c r="F25" s="177"/>
+      <c r="G25" s="177"/>
+      <c r="H25" s="177"/>
+      <c r="I25" s="177"/>
+      <c r="J25" s="177"/>
+      <c r="K25" s="177"/>
+      <c r="L25" s="177"/>
+      <c r="M25" s="177"/>
+      <c r="N25" s="177"/>
+      <c r="O25" s="177"/>
+      <c r="P25" s="177"/>
+      <c r="Q25" s="177"/>
+      <c r="R25" s="177"/>
+      <c r="S25" s="177"/>
+      <c r="T25" s="177"/>
+      <c r="U25" s="177"/>
+      <c r="V25" s="177"/>
+      <c r="W25" s="177"/>
+      <c r="X25" s="177"/>
+      <c r="Y25" s="177"/>
+      <c r="Z25" s="177"/>
+      <c r="AA25" s="177"/>
+      <c r="AB25" s="177"/>
+      <c r="AC25" s="177"/>
+      <c r="AD25" s="177"/>
+      <c r="AE25" s="177"/>
+      <c r="AF25" s="177"/>
+      <c r="AG25" s="177"/>
+      <c r="AH25" s="177"/>
+      <c r="AI25" s="177"/>
+      <c r="AJ25" s="177"/>
+      <c r="AK25" s="177"/>
+      <c r="AL25" s="177"/>
+      <c r="AM25" s="177"/>
+      <c r="AN25" s="177"/>
+      <c r="AO25" s="177"/>
+      <c r="AP25" s="627"/>
+      <c r="AQ25" s="627"/>
+      <c r="AR25" s="627"/>
+      <c r="AS25" s="627"/>
+      <c r="AT25" s="627"/>
+      <c r="AU25" s="627"/>
+      <c r="AV25" s="682"/>
+      <c r="AW25" s="846"/>
+      <c r="AX25" s="627"/>
+      <c r="AY25" s="627"/>
+      <c r="AZ25" s="627"/>
+      <c r="BA25" s="627"/>
+      <c r="BB25" s="627"/>
+      <c r="BC25" s="627"/>
+      <c r="BD25" s="627"/>
+      <c r="BE25" s="627"/>
+      <c r="BF25" s="177"/>
+      <c r="BG25" s="177"/>
+      <c r="BH25" s="177"/>
+      <c r="BI25" s="177"/>
+      <c r="BJ25" s="177"/>
+      <c r="BK25" s="177"/>
+      <c r="BL25" s="177"/>
+      <c r="BM25" s="179"/>
+      <c r="BN25" s="682"/>
     </row>
-    <row r="25">
-      <c r="A25" s="706"/>
-      <c r="B25" s="707"/>
-      <c r="C25" s="707"/>
-      <c r="D25" s="707"/>
-      <c r="E25" s="707"/>
-      <c r="F25" s="708"/>
-      <c r="G25" s="707"/>
-      <c r="H25" s="707"/>
-      <c r="I25" s="707"/>
-      <c r="J25" s="708"/>
+    <row r="26" customHeight="1" ht="12">
+      <c r="A26" s="823"/>
+      <c r="B26" s="177"/>
+      <c r="C26" s="177"/>
+      <c r="D26" s="177"/>
+      <c r="E26" s="177"/>
+      <c r="F26" s="177"/>
+      <c r="G26" s="177"/>
+      <c r="H26" s="177"/>
+      <c r="I26" s="177"/>
+      <c r="J26" s="177"/>
+      <c r="K26" s="177"/>
+      <c r="L26" s="177"/>
+      <c r="M26" s="177"/>
+      <c r="N26" s="177"/>
+      <c r="O26" s="177"/>
+      <c r="P26" s="177"/>
+      <c r="Q26" s="177"/>
+      <c r="R26" s="177"/>
+      <c r="S26" s="177"/>
+      <c r="T26" s="177"/>
+      <c r="U26" s="177"/>
+      <c r="V26" s="177"/>
+      <c r="W26" s="177"/>
+      <c r="X26" s="177"/>
+      <c r="Y26" s="177"/>
+      <c r="Z26" s="177"/>
+      <c r="AA26" s="177"/>
+      <c r="AB26" s="177"/>
+      <c r="AC26" s="177"/>
+      <c r="AD26" s="177"/>
+      <c r="AE26" s="177"/>
+      <c r="AF26" s="177"/>
+      <c r="AG26" s="177"/>
+      <c r="AH26" s="177"/>
+      <c r="AI26" s="177"/>
+      <c r="AJ26" s="177"/>
+      <c r="AK26" s="177"/>
+      <c r="AL26" s="177"/>
+      <c r="AM26" s="177"/>
+      <c r="AN26" s="177"/>
+      <c r="AO26" s="177"/>
+      <c r="AP26" s="627"/>
+      <c r="AQ26" s="627"/>
+      <c r="AR26" s="627"/>
+      <c r="AS26" s="627"/>
+      <c r="AT26" s="627"/>
+      <c r="AU26" s="627"/>
+      <c r="AV26" s="682"/>
+      <c r="AW26" s="846"/>
+      <c r="AX26" s="627"/>
+      <c r="AY26" s="627"/>
+      <c r="AZ26" s="627"/>
+      <c r="BA26" s="627"/>
+      <c r="BB26" s="627"/>
+      <c r="BC26" s="627"/>
+      <c r="BD26" s="627"/>
+      <c r="BE26" s="627"/>
+      <c r="BF26" s="177"/>
+      <c r="BG26" s="177"/>
+      <c r="BH26" s="177"/>
+      <c r="BI26" s="177"/>
+      <c r="BJ26" s="177"/>
+      <c r="BK26" s="177"/>
+      <c r="BL26" s="177"/>
+      <c r="BM26" s="179"/>
+      <c r="BN26" s="682"/>
     </row>
-    <row r="26">
-      <c r="A26" s="706"/>
-      <c r="B26" s="707"/>
-      <c r="C26" s="707"/>
-      <c r="D26" s="707"/>
-      <c r="E26" s="707"/>
-      <c r="F26" s="708"/>
-      <c r="G26" s="707"/>
-      <c r="H26" s="707"/>
-      <c r="I26" s="707"/>
-      <c r="J26" s="708"/>
+    <row r="27" customHeight="1" ht="12">
+      <c r="A27" s="823"/>
+      <c r="B27" s="177"/>
+      <c r="C27" s="177"/>
+      <c r="D27" s="177"/>
+      <c r="E27" s="177"/>
+      <c r="F27" s="177"/>
+      <c r="G27" s="177"/>
+      <c r="H27" s="177"/>
+      <c r="I27" s="177"/>
+      <c r="J27" s="177"/>
+      <c r="K27" s="177"/>
+      <c r="L27" s="177"/>
+      <c r="M27" s="177"/>
+      <c r="N27" s="177"/>
+      <c r="O27" s="177"/>
+      <c r="P27" s="177"/>
+      <c r="Q27" s="177"/>
+      <c r="R27" s="177"/>
+      <c r="S27" s="177"/>
+      <c r="T27" s="177"/>
+      <c r="U27" s="177"/>
+      <c r="V27" s="177"/>
+      <c r="W27" s="177"/>
+      <c r="X27" s="177"/>
+      <c r="Y27" s="177"/>
+      <c r="Z27" s="177"/>
+      <c r="AA27" s="177"/>
+      <c r="AB27" s="177"/>
+      <c r="AC27" s="177"/>
+      <c r="AD27" s="177"/>
+      <c r="AE27" s="177"/>
+      <c r="AF27" s="177"/>
+      <c r="AG27" s="177"/>
+      <c r="AH27" s="177"/>
+      <c r="AI27" s="177"/>
+      <c r="AJ27" s="177"/>
+      <c r="AK27" s="177"/>
+      <c r="AL27" s="177"/>
+      <c r="AM27" s="177"/>
+      <c r="AN27" s="177"/>
+      <c r="AO27" s="177"/>
+      <c r="AP27" s="627"/>
+      <c r="AQ27" s="627"/>
+      <c r="AR27" s="627"/>
+      <c r="AS27" s="627"/>
+      <c r="AT27" s="627"/>
+      <c r="AU27" s="627"/>
+      <c r="AV27" s="682"/>
+      <c r="AW27" s="846"/>
+      <c r="AX27" s="627"/>
+      <c r="AY27" s="627"/>
+      <c r="AZ27" s="627"/>
+      <c r="BA27" s="627"/>
+      <c r="BB27" s="627"/>
+      <c r="BC27" s="627"/>
+      <c r="BD27" s="627"/>
+      <c r="BE27" s="627"/>
+      <c r="BF27" s="177"/>
+      <c r="BG27" s="177"/>
+      <c r="BH27" s="177"/>
+      <c r="BI27" s="177"/>
+      <c r="BJ27" s="177"/>
+      <c r="BK27" s="177"/>
+      <c r="BL27" s="177"/>
+      <c r="BM27" s="179"/>
+      <c r="BN27" s="682"/>
     </row>
-    <row r="27">
-      <c r="A27" s="706"/>
-      <c r="B27" s="707"/>
-      <c r="C27" s="707"/>
-      <c r="D27" s="707"/>
-      <c r="E27" s="707"/>
-      <c r="F27" s="708"/>
-      <c r="G27" s="707"/>
-      <c r="H27" s="707"/>
-      <c r="I27" s="707"/>
-      <c r="J27" s="708"/>
+    <row r="28" customHeight="1" ht="12">
+      <c r="A28" s="823"/>
+      <c r="B28" s="177"/>
+      <c r="C28" s="177"/>
+      <c r="D28" s="177"/>
+      <c r="E28" s="177"/>
+      <c r="F28" s="177"/>
+      <c r="G28" s="177"/>
+      <c r="H28" s="177"/>
+      <c r="I28" s="177"/>
+      <c r="J28" s="177"/>
+      <c r="K28" s="177"/>
+      <c r="L28" s="177"/>
+      <c r="M28" s="177"/>
+      <c r="N28" s="177"/>
+      <c r="O28" s="177"/>
+      <c r="P28" s="177"/>
+      <c r="Q28" s="177"/>
+      <c r="R28" s="177"/>
+      <c r="S28" s="177"/>
+      <c r="T28" s="177"/>
+      <c r="U28" s="177"/>
+      <c r="V28" s="177"/>
+      <c r="W28" s="177"/>
+      <c r="X28" s="177"/>
+      <c r="Y28" s="177"/>
+      <c r="Z28" s="177"/>
+      <c r="AA28" s="177"/>
+      <c r="AB28" s="177"/>
+      <c r="AC28" s="177"/>
+      <c r="AD28" s="177"/>
+      <c r="AE28" s="177"/>
+      <c r="AF28" s="177"/>
+      <c r="AG28" s="177"/>
+      <c r="AH28" s="177"/>
+      <c r="AI28" s="177"/>
+      <c r="AJ28" s="177"/>
+      <c r="AK28" s="177"/>
+      <c r="AL28" s="177"/>
+      <c r="AM28" s="177"/>
+      <c r="AN28" s="177"/>
+      <c r="AO28" s="177"/>
+      <c r="AP28" s="627"/>
+      <c r="AQ28" s="627"/>
+      <c r="AR28" s="627"/>
+      <c r="AS28" s="627"/>
+      <c r="AT28" s="627"/>
+      <c r="AU28" s="627"/>
+      <c r="AV28" s="682"/>
+      <c r="AW28" s="846"/>
+      <c r="AX28" s="627"/>
+      <c r="AY28" s="627"/>
+      <c r="AZ28" s="627"/>
+      <c r="BA28" s="627"/>
+      <c r="BB28" s="627"/>
+      <c r="BC28" s="627"/>
+      <c r="BD28" s="627"/>
+      <c r="BE28" s="627"/>
+      <c r="BF28" s="177"/>
+      <c r="BG28" s="177"/>
+      <c r="BH28" s="177"/>
+      <c r="BI28" s="177"/>
+      <c r="BJ28" s="177"/>
+      <c r="BK28" s="177"/>
+      <c r="BL28" s="177"/>
+      <c r="BM28" s="179"/>
+      <c r="BN28" s="682"/>
     </row>
-    <row r="28">
-      <c r="A28" s="706"/>
-      <c r="B28" s="707"/>
-      <c r="C28" s="707"/>
-      <c r="D28" s="707"/>
-      <c r="E28" s="707"/>
-      <c r="F28" s="708"/>
-      <c r="G28" s="707"/>
-      <c r="H28" s="707"/>
-      <c r="I28" s="707"/>
-      <c r="J28" s="708"/>
+    <row r="29" customHeight="1" ht="12">
+      <c r="A29" s="823"/>
+      <c r="B29" s="177"/>
+      <c r="C29" s="177"/>
+      <c r="D29" s="177"/>
+      <c r="E29" s="177"/>
+      <c r="F29" s="177"/>
+      <c r="G29" s="177"/>
+      <c r="H29" s="177"/>
+      <c r="I29" s="177"/>
+      <c r="J29" s="177"/>
+      <c r="K29" s="177"/>
+      <c r="L29" s="177"/>
+      <c r="M29" s="177"/>
+      <c r="N29" s="177"/>
+      <c r="O29" s="177"/>
+      <c r="P29" s="177"/>
+      <c r="Q29" s="177"/>
+      <c r="R29" s="177"/>
+      <c r="S29" s="177"/>
+      <c r="T29" s="177"/>
+      <c r="U29" s="177"/>
+      <c r="V29" s="177"/>
+      <c r="W29" s="177"/>
+      <c r="X29" s="177"/>
+      <c r="Y29" s="177"/>
+      <c r="Z29" s="177"/>
+      <c r="AA29" s="177"/>
+      <c r="AB29" s="177"/>
+      <c r="AC29" s="177"/>
+      <c r="AD29" s="177"/>
+      <c r="AE29" s="177"/>
+      <c r="AF29" s="177"/>
+      <c r="AG29" s="177"/>
+      <c r="AH29" s="177"/>
+      <c r="AI29" s="177"/>
+      <c r="AJ29" s="177"/>
+      <c r="AK29" s="177"/>
+      <c r="AL29" s="177"/>
+      <c r="AM29" s="177"/>
+      <c r="AN29" s="177"/>
+      <c r="AO29" s="177"/>
+      <c r="AP29" s="627"/>
+      <c r="AQ29" s="627"/>
+      <c r="AR29" s="627"/>
+      <c r="AS29" s="627"/>
+      <c r="AT29" s="627"/>
+      <c r="AU29" s="627"/>
+      <c r="AV29" s="682"/>
+      <c r="AW29" s="846"/>
+      <c r="AX29" s="627"/>
+      <c r="AY29" s="627"/>
+      <c r="AZ29" s="627"/>
+      <c r="BA29" s="627"/>
+      <c r="BB29" s="627"/>
+      <c r="BC29" s="627"/>
+      <c r="BD29" s="627"/>
+      <c r="BE29" s="627"/>
+      <c r="BF29" s="177"/>
+      <c r="BG29" s="177"/>
+      <c r="BH29" s="177"/>
+      <c r="BI29" s="177"/>
+      <c r="BJ29" s="177"/>
+      <c r="BK29" s="177"/>
+      <c r="BL29" s="177"/>
+      <c r="BM29" s="179"/>
+      <c r="BN29" s="682"/>
     </row>
-    <row r="29">
-      <c r="A29" s="706"/>
-      <c r="B29" s="707"/>
-      <c r="C29" s="707"/>
-      <c r="D29" s="707"/>
-      <c r="E29" s="707"/>
-      <c r="F29" s="708"/>
-      <c r="G29" s="707"/>
-      <c r="H29" s="707"/>
-      <c r="I29" s="707"/>
-      <c r="J29" s="708"/>
+    <row r="30" customHeight="1" ht="12">
+      <c r="A30" s="823"/>
+      <c r="B30" s="177"/>
+      <c r="C30" s="177"/>
+      <c r="D30" s="177"/>
+      <c r="E30" s="177"/>
+      <c r="F30" s="177"/>
+      <c r="G30" s="177"/>
+      <c r="H30" s="177"/>
+      <c r="I30" s="177"/>
+      <c r="J30" s="177"/>
+      <c r="K30" s="177"/>
+      <c r="L30" s="177"/>
+      <c r="M30" s="177"/>
+      <c r="N30" s="177"/>
+      <c r="O30" s="177"/>
+      <c r="P30" s="177"/>
+      <c r="Q30" s="177"/>
+      <c r="R30" s="177"/>
+      <c r="S30" s="177"/>
+      <c r="T30" s="177"/>
+      <c r="U30" s="177"/>
+      <c r="V30" s="177"/>
+      <c r="W30" s="177"/>
+      <c r="X30" s="177"/>
+      <c r="Y30" s="177"/>
+      <c r="Z30" s="177"/>
+      <c r="AA30" s="177"/>
+      <c r="AB30" s="177"/>
+      <c r="AC30" s="177"/>
+      <c r="AD30" s="177"/>
+      <c r="AE30" s="177"/>
+      <c r="AF30" s="177"/>
+      <c r="AG30" s="177"/>
+      <c r="AH30" s="177"/>
+      <c r="AI30" s="177"/>
+      <c r="AJ30" s="177"/>
+      <c r="AK30" s="177"/>
+      <c r="AL30" s="177"/>
+      <c r="AM30" s="177"/>
+      <c r="AN30" s="177"/>
+      <c r="AO30" s="177"/>
+      <c r="AP30" s="627"/>
+      <c r="AQ30" s="627"/>
+      <c r="AR30" s="627"/>
+      <c r="AS30" s="627"/>
+      <c r="AT30" s="627"/>
+      <c r="AU30" s="627"/>
+      <c r="AV30" s="682"/>
+      <c r="AW30" s="846"/>
+      <c r="AX30" s="627"/>
+      <c r="AY30" s="627"/>
+      <c r="AZ30" s="627"/>
+      <c r="BA30" s="627"/>
+      <c r="BB30" s="627"/>
+      <c r="BC30" s="627"/>
+      <c r="BD30" s="627"/>
+      <c r="BE30" s="177"/>
+      <c r="BF30" s="177"/>
+      <c r="BG30" s="177"/>
+      <c r="BH30" s="177"/>
+      <c r="BI30" s="177"/>
+      <c r="BJ30" s="177"/>
+      <c r="BK30" s="177"/>
+      <c r="BL30" s="177"/>
+      <c r="BM30" s="179"/>
+      <c r="BN30" s="682"/>
     </row>
-    <row r="30">
-      <c r="A30" s="706"/>
-      <c r="B30" s="707"/>
-      <c r="C30" s="707"/>
-      <c r="D30" s="707"/>
-      <c r="E30" s="707"/>
-      <c r="F30" s="708"/>
-      <c r="G30" s="707"/>
-      <c r="H30" s="707"/>
-      <c r="I30" s="707"/>
-      <c r="J30" s="708"/>
+    <row r="31" customHeight="1" ht="12">
+      <c r="A31" s="823"/>
+      <c r="B31" s="177"/>
+      <c r="C31" s="177"/>
+      <c r="D31" s="177"/>
+      <c r="E31" s="177"/>
+      <c r="F31" s="177"/>
+      <c r="G31" s="177"/>
+      <c r="H31" s="177"/>
+      <c r="I31" s="177"/>
+      <c r="J31" s="177"/>
+      <c r="K31" s="177"/>
+      <c r="L31" s="177"/>
+      <c r="M31" s="177"/>
+      <c r="N31" s="177"/>
+      <c r="O31" s="177"/>
+      <c r="P31" s="177"/>
+      <c r="Q31" s="177"/>
+      <c r="R31" s="177"/>
+      <c r="S31" s="177"/>
+      <c r="T31" s="177"/>
+      <c r="U31" s="177"/>
+      <c r="V31" s="177"/>
+      <c r="W31" s="177"/>
+      <c r="X31" s="177"/>
+      <c r="Y31" s="177"/>
+      <c r="Z31" s="177"/>
+      <c r="AA31" s="177"/>
+      <c r="AB31" s="177"/>
+      <c r="AC31" s="177"/>
+      <c r="AD31" s="177"/>
+      <c r="AE31" s="177"/>
+      <c r="AF31" s="177"/>
+      <c r="AG31" s="177"/>
+      <c r="AH31" s="177"/>
+      <c r="AI31" s="177"/>
+      <c r="AJ31" s="177"/>
+      <c r="AK31" s="177"/>
+      <c r="AL31" s="177"/>
+      <c r="AM31" s="177"/>
+      <c r="AN31" s="177"/>
+      <c r="AO31" s="177"/>
+      <c r="AP31" s="627"/>
+      <c r="AQ31" s="627"/>
+      <c r="AR31" s="627"/>
+      <c r="AS31" s="627"/>
+      <c r="AT31" s="627"/>
+      <c r="AU31" s="627"/>
+      <c r="AV31" s="682"/>
+      <c r="AW31" s="846"/>
+      <c r="AX31" s="627"/>
+      <c r="AY31" s="627"/>
+      <c r="AZ31" s="627"/>
+      <c r="BA31" s="627"/>
+      <c r="BB31" s="627"/>
+      <c r="BC31" s="627"/>
+      <c r="BD31" s="627"/>
+      <c r="BE31" s="177"/>
+      <c r="BF31" s="177"/>
+      <c r="BG31" s="177"/>
+      <c r="BH31" s="177"/>
+      <c r="BI31" s="177"/>
+      <c r="BJ31" s="177"/>
+      <c r="BK31" s="177"/>
+      <c r="BL31" s="177"/>
+      <c r="BM31" s="179"/>
+      <c r="BN31" s="682"/>
     </row>
-    <row r="31">
-      <c r="A31" s="706"/>
-      <c r="B31" s="707"/>
-      <c r="C31" s="707"/>
-      <c r="D31" s="707"/>
-      <c r="E31" s="707"/>
-      <c r="F31" s="708"/>
-      <c r="G31" s="707"/>
-      <c r="H31" s="707"/>
-      <c r="I31" s="707"/>
-      <c r="J31" s="708"/>
+    <row r="32" customHeight="1" ht="12">
+      <c r="A32" s="823"/>
+      <c r="B32" s="177"/>
+      <c r="C32" s="177"/>
+      <c r="D32" s="177"/>
+      <c r="E32" s="177"/>
+      <c r="F32" s="177"/>
+      <c r="G32" s="177"/>
+      <c r="H32" s="177"/>
+      <c r="I32" s="177"/>
+      <c r="J32" s="177"/>
+      <c r="K32" s="177"/>
+      <c r="L32" s="177"/>
+      <c r="M32" s="177"/>
+      <c r="N32" s="177"/>
+      <c r="O32" s="177"/>
+      <c r="P32" s="177"/>
+      <c r="Q32" s="177"/>
+      <c r="R32" s="177"/>
+      <c r="S32" s="177"/>
+      <c r="T32" s="177"/>
+      <c r="U32" s="177"/>
+      <c r="V32" s="177"/>
+      <c r="W32" s="177"/>
+      <c r="X32" s="177"/>
+      <c r="Y32" s="177"/>
+      <c r="Z32" s="177"/>
+      <c r="AA32" s="177"/>
+      <c r="AB32" s="177"/>
+      <c r="AC32" s="177"/>
+      <c r="AD32" s="177"/>
+      <c r="AE32" s="177"/>
+      <c r="AF32" s="177"/>
+      <c r="AG32" s="177"/>
+      <c r="AH32" s="177"/>
+      <c r="AI32" s="177"/>
+      <c r="AJ32" s="177"/>
+      <c r="AK32" s="177"/>
+      <c r="AL32" s="177"/>
+      <c r="AM32" s="177"/>
+      <c r="AN32" s="177"/>
+      <c r="AO32" s="177"/>
+      <c r="AP32" s="627"/>
+      <c r="AQ32" s="627"/>
+      <c r="AR32" s="627"/>
+      <c r="AS32" s="627"/>
+      <c r="AT32" s="627"/>
+      <c r="AU32" s="627"/>
+      <c r="AV32" s="682"/>
+      <c r="AW32" s="846"/>
+      <c r="AX32" s="627"/>
+      <c r="AY32" s="627"/>
+      <c r="AZ32" s="627"/>
+      <c r="BA32" s="627"/>
+      <c r="BB32" s="627"/>
+      <c r="BC32" s="627"/>
+      <c r="BD32" s="627"/>
+      <c r="BE32" s="177"/>
+      <c r="BF32" s="177"/>
+      <c r="BG32" s="177"/>
+      <c r="BH32" s="177"/>
+      <c r="BI32" s="177"/>
+      <c r="BJ32" s="177"/>
+      <c r="BK32" s="177"/>
+      <c r="BL32" s="177"/>
+      <c r="BM32" s="179"/>
+      <c r="BN32" s="682"/>
     </row>
-    <row r="32">
-      <c r="A32" s="706"/>
-      <c r="B32" s="707"/>
-      <c r="C32" s="707"/>
-      <c r="D32" s="707"/>
-      <c r="E32" s="707"/>
-      <c r="F32" s="708"/>
-      <c r="G32" s="707"/>
-      <c r="H32" s="707"/>
-      <c r="I32" s="707"/>
-      <c r="J32" s="708"/>
+    <row r="33" customHeight="1" ht="12">
+      <c r="A33" s="823"/>
+      <c r="B33" s="177"/>
+      <c r="C33" s="177"/>
+      <c r="D33" s="177"/>
+      <c r="E33" s="177"/>
+      <c r="F33" s="177"/>
+      <c r="G33" s="177"/>
+      <c r="H33" s="177"/>
+      <c r="I33" s="177"/>
+      <c r="J33" s="177"/>
+      <c r="K33" s="177"/>
+      <c r="L33" s="177"/>
+      <c r="M33" s="177"/>
+      <c r="N33" s="177"/>
+      <c r="O33" s="177"/>
+      <c r="P33" s="177"/>
+      <c r="Q33" s="177"/>
+      <c r="R33" s="177"/>
+      <c r="S33" s="177"/>
+      <c r="T33" s="177"/>
+      <c r="U33" s="177"/>
+      <c r="V33" s="177"/>
+      <c r="W33" s="177"/>
+      <c r="X33" s="177"/>
+      <c r="Y33" s="177"/>
+      <c r="Z33" s="177"/>
+      <c r="AA33" s="177"/>
+      <c r="AB33" s="177"/>
+      <c r="AC33" s="177"/>
+      <c r="AD33" s="177"/>
+      <c r="AE33" s="177"/>
+      <c r="AF33" s="177"/>
+      <c r="AG33" s="177"/>
+      <c r="AH33" s="177"/>
+      <c r="AI33" s="177"/>
+      <c r="AJ33" s="177"/>
+      <c r="AK33" s="177"/>
+      <c r="AL33" s="177"/>
+      <c r="AM33" s="177"/>
+      <c r="AN33" s="177"/>
+      <c r="AO33" s="177"/>
+      <c r="AP33" s="627"/>
+      <c r="AQ33" s="627"/>
+      <c r="AR33" s="627"/>
+      <c r="AS33" s="627"/>
+      <c r="AT33" s="627"/>
+      <c r="AU33" s="627"/>
+      <c r="AV33" s="682"/>
+      <c r="AW33" s="846"/>
+      <c r="AX33" s="627"/>
+      <c r="AY33" s="627"/>
+      <c r="AZ33" s="627"/>
+      <c r="BA33" s="627"/>
+      <c r="BB33" s="627"/>
+      <c r="BC33" s="627"/>
+      <c r="BD33" s="627"/>
+      <c r="BE33" s="627"/>
+      <c r="BF33" s="177"/>
+      <c r="BG33" s="177"/>
+      <c r="BH33" s="177"/>
+      <c r="BI33" s="177"/>
+      <c r="BJ33" s="177"/>
+      <c r="BK33" s="177"/>
+      <c r="BL33" s="177"/>
+      <c r="BM33" s="179"/>
+      <c r="BN33" s="682"/>
     </row>
-    <row r="33">
-      <c r="A33" s="709"/>
-      <c r="B33" s="710"/>
-      <c r="C33" s="710"/>
-      <c r="D33" s="710"/>
-      <c r="E33" s="710"/>
-      <c r="F33" s="711"/>
-      <c r="G33" s="710"/>
-      <c r="H33" s="710"/>
-      <c r="I33" s="710"/>
-      <c r="J33" s="711"/>
+    <row r="34" customHeight="1" ht="12">
+      <c r="A34" s="823"/>
+      <c r="B34" s="177"/>
+      <c r="C34" s="177"/>
+      <c r="D34" s="177"/>
+      <c r="E34" s="177"/>
+      <c r="F34" s="177"/>
+      <c r="G34" s="177"/>
+      <c r="H34" s="177"/>
+      <c r="I34" s="177"/>
+      <c r="J34" s="177"/>
+      <c r="K34" s="177"/>
+      <c r="L34" s="177"/>
+      <c r="M34" s="177"/>
+      <c r="N34" s="177"/>
+      <c r="O34" s="177"/>
+      <c r="P34" s="177"/>
+      <c r="Q34" s="177"/>
+      <c r="R34" s="177"/>
+      <c r="S34" s="177"/>
+      <c r="T34" s="177"/>
+      <c r="U34" s="177"/>
+      <c r="V34" s="177"/>
+      <c r="W34" s="177"/>
+      <c r="X34" s="177"/>
+      <c r="Y34" s="177"/>
+      <c r="Z34" s="177"/>
+      <c r="AA34" s="177"/>
+      <c r="AB34" s="177"/>
+      <c r="AC34" s="177"/>
+      <c r="AD34" s="177"/>
+      <c r="AE34" s="177"/>
+      <c r="AF34" s="177"/>
+      <c r="AG34" s="177"/>
+      <c r="AH34" s="177"/>
+      <c r="AI34" s="177"/>
+      <c r="AJ34" s="177"/>
+      <c r="AK34" s="177"/>
+      <c r="AL34" s="177"/>
+      <c r="AM34" s="177"/>
+      <c r="AN34" s="177"/>
+      <c r="AO34" s="177"/>
+      <c r="AP34" s="627"/>
+      <c r="AQ34" s="627"/>
+      <c r="AR34" s="627"/>
+      <c r="AS34" s="627"/>
+      <c r="AT34" s="627"/>
+      <c r="AU34" s="627"/>
+      <c r="AV34" s="682"/>
+      <c r="AW34" s="846"/>
+      <c r="AX34" s="627"/>
+      <c r="AY34" s="627"/>
+      <c r="AZ34" s="627"/>
+      <c r="BA34" s="627"/>
+      <c r="BB34" s="627"/>
+      <c r="BC34" s="627"/>
+      <c r="BD34" s="627"/>
+      <c r="BE34" s="177"/>
+      <c r="BF34" s="177"/>
+      <c r="BG34" s="177"/>
+      <c r="BH34" s="177"/>
+      <c r="BI34" s="177"/>
+      <c r="BJ34" s="177"/>
+      <c r="BK34" s="177"/>
+      <c r="BL34" s="177"/>
+      <c r="BM34" s="179"/>
+      <c r="BN34" s="682"/>
+    </row>
+    <row r="35" customHeight="1" ht="12">
+      <c r="A35" s="823"/>
+      <c r="B35" s="177"/>
+      <c r="C35" s="177"/>
+      <c r="D35" s="177"/>
+      <c r="E35" s="177"/>
+      <c r="F35" s="177"/>
+      <c r="G35" s="177"/>
+      <c r="H35" s="177"/>
+      <c r="I35" s="177"/>
+      <c r="J35" s="177"/>
+      <c r="K35" s="177"/>
+      <c r="L35" s="177"/>
+      <c r="M35" s="177"/>
+      <c r="N35" s="177"/>
+      <c r="O35" s="177"/>
+      <c r="P35" s="177"/>
+      <c r="Q35" s="177"/>
+      <c r="R35" s="177"/>
+      <c r="S35" s="177"/>
+      <c r="T35" s="177"/>
+      <c r="U35" s="177"/>
+      <c r="V35" s="177"/>
+      <c r="W35" s="177"/>
+      <c r="X35" s="177"/>
+      <c r="Y35" s="177"/>
+      <c r="Z35" s="177"/>
+      <c r="AA35" s="177"/>
+      <c r="AB35" s="177"/>
+      <c r="AC35" s="177"/>
+      <c r="AD35" s="177"/>
+      <c r="AE35" s="177"/>
+      <c r="AF35" s="177"/>
+      <c r="AG35" s="177"/>
+      <c r="AH35" s="177"/>
+      <c r="AI35" s="177"/>
+      <c r="AJ35" s="177"/>
+      <c r="AK35" s="177"/>
+      <c r="AL35" s="177"/>
+      <c r="AM35" s="177"/>
+      <c r="AN35" s="177"/>
+      <c r="AO35" s="177"/>
+      <c r="AP35" s="627"/>
+      <c r="AQ35" s="627"/>
+      <c r="AR35" s="627"/>
+      <c r="AS35" s="627"/>
+      <c r="AT35" s="627"/>
+      <c r="AU35" s="627"/>
+      <c r="AV35" s="682"/>
+      <c r="AW35" s="846"/>
+      <c r="AX35" s="627"/>
+      <c r="AY35" s="627"/>
+      <c r="AZ35" s="627"/>
+      <c r="BA35" s="627"/>
+      <c r="BB35" s="627"/>
+      <c r="BC35" s="627"/>
+      <c r="BD35" s="627"/>
+      <c r="BE35" s="177"/>
+      <c r="BF35" s="177"/>
+      <c r="BG35" s="177"/>
+      <c r="BH35" s="177"/>
+      <c r="BI35" s="177"/>
+      <c r="BJ35" s="177"/>
+      <c r="BK35" s="177"/>
+      <c r="BL35" s="177"/>
+      <c r="BM35" s="179"/>
+      <c r="BN35" s="682"/>
+    </row>
+    <row r="36" customHeight="1" ht="12">
+      <c r="A36" s="823"/>
+      <c r="B36" s="177"/>
+      <c r="C36" s="177"/>
+      <c r="D36" s="177"/>
+      <c r="E36" s="177"/>
+      <c r="F36" s="177"/>
+      <c r="G36" s="177"/>
+      <c r="H36" s="177"/>
+      <c r="I36" s="177"/>
+      <c r="J36" s="177"/>
+      <c r="K36" s="177"/>
+      <c r="L36" s="177"/>
+      <c r="M36" s="177"/>
+      <c r="N36" s="177"/>
+      <c r="O36" s="177"/>
+      <c r="P36" s="177"/>
+      <c r="Q36" s="177"/>
+      <c r="R36" s="177"/>
+      <c r="S36" s="177"/>
+      <c r="T36" s="177"/>
+      <c r="U36" s="177"/>
+      <c r="V36" s="177"/>
+      <c r="W36" s="177"/>
+      <c r="X36" s="177"/>
+      <c r="Y36" s="177"/>
+      <c r="Z36" s="177"/>
+      <c r="AA36" s="177"/>
+      <c r="AB36" s="177"/>
+      <c r="AC36" s="177"/>
+      <c r="AD36" s="177"/>
+      <c r="AE36" s="177"/>
+      <c r="AF36" s="177"/>
+      <c r="AG36" s="177"/>
+      <c r="AH36" s="177"/>
+      <c r="AI36" s="177"/>
+      <c r="AJ36" s="177"/>
+      <c r="AK36" s="177"/>
+      <c r="AL36" s="177"/>
+      <c r="AM36" s="177"/>
+      <c r="AN36" s="177"/>
+      <c r="AO36" s="177"/>
+      <c r="AP36" s="627"/>
+      <c r="AQ36" s="627"/>
+      <c r="AR36" s="627"/>
+      <c r="AS36" s="627"/>
+      <c r="AT36" s="627"/>
+      <c r="AU36" s="627"/>
+      <c r="AV36" s="682"/>
+      <c r="AW36" s="846"/>
+      <c r="AX36" s="627"/>
+      <c r="AY36" s="627"/>
+      <c r="AZ36" s="627"/>
+      <c r="BA36" s="627"/>
+      <c r="BB36" s="627"/>
+      <c r="BC36" s="627"/>
+      <c r="BD36" s="627"/>
+      <c r="BE36" s="177"/>
+      <c r="BF36" s="177"/>
+      <c r="BG36" s="177"/>
+      <c r="BH36" s="177"/>
+      <c r="BI36" s="177"/>
+      <c r="BJ36" s="177"/>
+      <c r="BK36" s="177"/>
+      <c r="BL36" s="177"/>
+      <c r="BM36" s="179"/>
+      <c r="BN36" s="682"/>
+    </row>
+    <row r="37" customHeight="1" ht="12">
+      <c r="A37" s="823"/>
+      <c r="B37" s="177"/>
+      <c r="C37" s="177"/>
+      <c r="D37" s="177"/>
+      <c r="E37" s="177"/>
+      <c r="F37" s="177"/>
+      <c r="G37" s="177"/>
+      <c r="H37" s="177"/>
+      <c r="I37" s="177"/>
+      <c r="J37" s="177"/>
+      <c r="K37" s="177"/>
+      <c r="L37" s="177"/>
+      <c r="M37" s="177"/>
+      <c r="N37" s="177"/>
+      <c r="O37" s="177"/>
+      <c r="P37" s="177"/>
+      <c r="Q37" s="177"/>
+      <c r="R37" s="177"/>
+      <c r="S37" s="177"/>
+      <c r="T37" s="177"/>
+      <c r="U37" s="177"/>
+      <c r="V37" s="177"/>
+      <c r="W37" s="177"/>
+      <c r="X37" s="177"/>
+      <c r="Y37" s="177"/>
+      <c r="Z37" s="177"/>
+      <c r="AA37" s="177"/>
+      <c r="AB37" s="177"/>
+      <c r="AC37" s="177"/>
+      <c r="AD37" s="177"/>
+      <c r="AE37" s="177"/>
+      <c r="AF37" s="177"/>
+      <c r="AG37" s="177"/>
+      <c r="AH37" s="177"/>
+      <c r="AI37" s="177"/>
+      <c r="AJ37" s="177"/>
+      <c r="AK37" s="177"/>
+      <c r="AL37" s="177"/>
+      <c r="AM37" s="177"/>
+      <c r="AN37" s="177"/>
+      <c r="AO37" s="177"/>
+      <c r="AP37" s="627"/>
+      <c r="AQ37" s="627"/>
+      <c r="AR37" s="627"/>
+      <c r="AS37" s="627"/>
+      <c r="AT37" s="627"/>
+      <c r="AU37" s="627"/>
+      <c r="AV37" s="682"/>
+      <c r="AW37" s="846"/>
+      <c r="AX37" s="627"/>
+      <c r="AY37" s="627"/>
+      <c r="AZ37" s="627"/>
+      <c r="BA37" s="627"/>
+      <c r="BB37" s="627"/>
+      <c r="BC37" s="627"/>
+      <c r="BD37" s="627"/>
+      <c r="BE37" s="177"/>
+      <c r="BF37" s="177"/>
+      <c r="BG37" s="177"/>
+      <c r="BH37" s="177"/>
+      <c r="BI37" s="177"/>
+      <c r="BJ37" s="177"/>
+      <c r="BK37" s="177"/>
+      <c r="BL37" s="177"/>
+      <c r="BM37" s="179"/>
+      <c r="BN37" s="682"/>
+    </row>
+    <row r="38" customHeight="1" ht="12">
+      <c r="A38" s="823"/>
+      <c r="B38" s="177"/>
+      <c r="C38" s="177"/>
+      <c r="D38" s="177"/>
+      <c r="E38" s="177"/>
+      <c r="F38" s="177"/>
+      <c r="G38" s="177"/>
+      <c r="H38" s="177"/>
+      <c r="I38" s="177"/>
+      <c r="J38" s="177"/>
+      <c r="K38" s="177"/>
+      <c r="L38" s="177"/>
+      <c r="M38" s="177"/>
+      <c r="N38" s="177"/>
+      <c r="O38" s="177"/>
+      <c r="P38" s="177"/>
+      <c r="Q38" s="177"/>
+      <c r="R38" s="177"/>
+      <c r="S38" s="177"/>
+      <c r="T38" s="177"/>
+      <c r="U38" s="177"/>
+      <c r="V38" s="177"/>
+      <c r="W38" s="177"/>
+      <c r="X38" s="177"/>
+      <c r="Y38" s="177"/>
+      <c r="Z38" s="177"/>
+      <c r="AA38" s="177"/>
+      <c r="AB38" s="177"/>
+      <c r="AC38" s="177"/>
+      <c r="AD38" s="177"/>
+      <c r="AE38" s="177"/>
+      <c r="AF38" s="177"/>
+      <c r="AG38" s="177"/>
+      <c r="AH38" s="177"/>
+      <c r="AI38" s="177"/>
+      <c r="AJ38" s="177"/>
+      <c r="AK38" s="177"/>
+      <c r="AL38" s="177"/>
+      <c r="AM38" s="177"/>
+      <c r="AN38" s="177"/>
+      <c r="AO38" s="177"/>
+      <c r="AP38" s="627"/>
+      <c r="AQ38" s="627"/>
+      <c r="AR38" s="627"/>
+      <c r="AS38" s="627"/>
+      <c r="AT38" s="627"/>
+      <c r="AU38" s="627"/>
+      <c r="AV38" s="682"/>
+      <c r="AW38" s="846"/>
+      <c r="AX38" s="627"/>
+      <c r="AY38" s="627"/>
+      <c r="AZ38" s="627"/>
+      <c r="BA38" s="627"/>
+      <c r="BB38" s="627"/>
+      <c r="BC38" s="627"/>
+      <c r="BD38" s="627"/>
+      <c r="BE38" s="177"/>
+      <c r="BF38" s="177"/>
+      <c r="BG38" s="177"/>
+      <c r="BH38" s="177"/>
+      <c r="BI38" s="177"/>
+      <c r="BJ38" s="177"/>
+      <c r="BK38" s="177"/>
+      <c r="BL38" s="177"/>
+      <c r="BM38" s="179"/>
+      <c r="BN38" s="682"/>
+    </row>
+    <row r="39" customHeight="1" ht="12">
+      <c r="A39" s="823"/>
+      <c r="B39" s="177"/>
+      <c r="C39" s="177"/>
+      <c r="D39" s="177"/>
+      <c r="E39" s="177"/>
+      <c r="F39" s="177"/>
+      <c r="G39" s="177"/>
+      <c r="H39" s="177"/>
+      <c r="I39" s="177"/>
+      <c r="J39" s="177"/>
+      <c r="K39" s="177"/>
+      <c r="L39" s="177"/>
+      <c r="M39" s="177"/>
+      <c r="N39" s="177"/>
+      <c r="O39" s="177"/>
+      <c r="P39" s="177"/>
+      <c r="Q39" s="177"/>
+      <c r="R39" s="177"/>
+      <c r="S39" s="177"/>
+      <c r="T39" s="177"/>
+      <c r="U39" s="177"/>
+      <c r="V39" s="177"/>
+      <c r="W39" s="177"/>
+      <c r="X39" s="177"/>
+      <c r="Y39" s="177"/>
+      <c r="Z39" s="177"/>
+      <c r="AA39" s="177"/>
+      <c r="AB39" s="177"/>
+      <c r="AC39" s="177"/>
+      <c r="AD39" s="177"/>
+      <c r="AE39" s="177"/>
+      <c r="AF39" s="177"/>
+      <c r="AG39" s="177"/>
+      <c r="AH39" s="177"/>
+      <c r="AI39" s="177"/>
+      <c r="AJ39" s="177"/>
+      <c r="AK39" s="177"/>
+      <c r="AL39" s="177"/>
+      <c r="AM39" s="177"/>
+      <c r="AN39" s="177"/>
+      <c r="AO39" s="177"/>
+      <c r="AP39" s="627"/>
+      <c r="AQ39" s="627"/>
+      <c r="AR39" s="627"/>
+      <c r="AS39" s="627"/>
+      <c r="AT39" s="627"/>
+      <c r="AU39" s="627"/>
+      <c r="AV39" s="682"/>
+      <c r="AW39" s="846"/>
+      <c r="AX39" s="627"/>
+      <c r="AY39" s="627"/>
+      <c r="AZ39" s="627"/>
+      <c r="BA39" s="627"/>
+      <c r="BB39" s="627"/>
+      <c r="BC39" s="627"/>
+      <c r="BD39" s="627"/>
+      <c r="BE39" s="177"/>
+      <c r="BF39" s="177"/>
+      <c r="BG39" s="177"/>
+      <c r="BH39" s="177"/>
+      <c r="BI39" s="177"/>
+      <c r="BJ39" s="177"/>
+      <c r="BK39" s="177"/>
+      <c r="BL39" s="177"/>
+      <c r="BM39" s="179"/>
+      <c r="BN39" s="682"/>
+    </row>
+    <row r="40" customHeight="1" ht="12">
+      <c r="A40" s="823"/>
+      <c r="B40" s="177"/>
+      <c r="C40" s="177"/>
+      <c r="D40" s="177"/>
+      <c r="E40" s="177"/>
+      <c r="F40" s="177"/>
+      <c r="G40" s="177"/>
+      <c r="H40" s="177"/>
+      <c r="I40" s="177"/>
+      <c r="J40" s="177"/>
+      <c r="K40" s="177"/>
+      <c r="L40" s="177"/>
+      <c r="M40" s="177"/>
+      <c r="N40" s="177"/>
+      <c r="O40" s="177"/>
+      <c r="P40" s="177"/>
+      <c r="Q40" s="177"/>
+      <c r="R40" s="177"/>
+      <c r="S40" s="177"/>
+      <c r="T40" s="177"/>
+      <c r="U40" s="177"/>
+      <c r="V40" s="177"/>
+      <c r="W40" s="177"/>
+      <c r="X40" s="177"/>
+      <c r="Y40" s="177"/>
+      <c r="Z40" s="177"/>
+      <c r="AA40" s="177"/>
+      <c r="AB40" s="177"/>
+      <c r="AC40" s="177"/>
+      <c r="AD40" s="177"/>
+      <c r="AE40" s="177"/>
+      <c r="AF40" s="177"/>
+      <c r="AG40" s="177"/>
+      <c r="AH40" s="177"/>
+      <c r="AI40" s="177"/>
+      <c r="AJ40" s="177"/>
+      <c r="AK40" s="177"/>
+      <c r="AL40" s="177"/>
+      <c r="AM40" s="177"/>
+      <c r="AN40" s="177"/>
+      <c r="AO40" s="177"/>
+      <c r="AP40" s="627"/>
+      <c r="AQ40" s="627"/>
+      <c r="AR40" s="627"/>
+      <c r="AS40" s="627"/>
+      <c r="AT40" s="627"/>
+      <c r="AU40" s="627"/>
+      <c r="AV40" s="682"/>
+      <c r="AW40" s="846"/>
+      <c r="AX40" s="627"/>
+      <c r="AY40" s="627"/>
+      <c r="AZ40" s="627"/>
+      <c r="BA40" s="627"/>
+      <c r="BB40" s="627"/>
+      <c r="BC40" s="627"/>
+      <c r="BD40" s="627"/>
+      <c r="BE40" s="177"/>
+      <c r="BF40" s="177"/>
+      <c r="BG40" s="177"/>
+      <c r="BH40" s="177"/>
+      <c r="BI40" s="177"/>
+      <c r="BJ40" s="177"/>
+      <c r="BK40" s="177"/>
+      <c r="BL40" s="177"/>
+      <c r="BM40" s="179"/>
+      <c r="BN40" s="682"/>
+    </row>
+    <row r="41" customHeight="1" ht="12">
+      <c r="A41" s="823"/>
+      <c r="B41" s="177"/>
+      <c r="C41" s="177"/>
+      <c r="D41" s="177"/>
+      <c r="E41" s="177"/>
+      <c r="F41" s="177"/>
+      <c r="G41" s="177"/>
+      <c r="H41" s="177"/>
+      <c r="I41" s="177"/>
+      <c r="J41" s="177"/>
+      <c r="K41" s="177"/>
+      <c r="L41" s="177"/>
+      <c r="M41" s="177"/>
+      <c r="N41" s="177"/>
+      <c r="O41" s="177"/>
+      <c r="P41" s="177"/>
+      <c r="Q41" s="177"/>
+      <c r="R41" s="177"/>
+      <c r="S41" s="177"/>
+      <c r="T41" s="177"/>
+      <c r="U41" s="177"/>
+      <c r="V41" s="177"/>
+      <c r="W41" s="177"/>
+      <c r="X41" s="177"/>
+      <c r="Y41" s="177"/>
+      <c r="Z41" s="177"/>
+      <c r="AA41" s="177"/>
+      <c r="AB41" s="177"/>
+      <c r="AC41" s="177"/>
+      <c r="AD41" s="177"/>
+      <c r="AE41" s="177"/>
+      <c r="AF41" s="177"/>
+      <c r="AG41" s="177"/>
+      <c r="AH41" s="177"/>
+      <c r="AI41" s="177"/>
+      <c r="AJ41" s="177"/>
+      <c r="AK41" s="177"/>
+      <c r="AL41" s="177"/>
+      <c r="AM41" s="177"/>
+      <c r="AN41" s="177"/>
+      <c r="AO41" s="177"/>
+      <c r="AP41" s="627"/>
+      <c r="AQ41" s="627"/>
+      <c r="AR41" s="627"/>
+      <c r="AS41" s="627"/>
+      <c r="AT41" s="627"/>
+      <c r="AU41" s="627"/>
+      <c r="AV41" s="682"/>
+      <c r="AW41" s="846"/>
+      <c r="AX41" s="627"/>
+      <c r="AY41" s="627"/>
+      <c r="AZ41" s="627"/>
+      <c r="BA41" s="627"/>
+      <c r="BB41" s="627"/>
+      <c r="BC41" s="627"/>
+      <c r="BD41" s="627"/>
+      <c r="BE41" s="177"/>
+      <c r="BF41" s="177"/>
+      <c r="BG41" s="177"/>
+      <c r="BH41" s="177"/>
+      <c r="BI41" s="177"/>
+      <c r="BJ41" s="177"/>
+      <c r="BK41" s="177"/>
+      <c r="BL41" s="177"/>
+      <c r="BM41" s="179"/>
+      <c r="BN41" s="682"/>
+    </row>
+    <row r="42" customHeight="1" ht="12">
+      <c r="A42" s="823"/>
+      <c r="B42" s="177"/>
+      <c r="C42" s="177"/>
+      <c r="D42" s="177"/>
+      <c r="E42" s="177"/>
+      <c r="F42" s="177"/>
+      <c r="G42" s="177"/>
+      <c r="H42" s="177"/>
+      <c r="I42" s="177"/>
+      <c r="J42" s="177"/>
+      <c r="K42" s="177"/>
+      <c r="L42" s="177"/>
+      <c r="M42" s="177"/>
+      <c r="N42" s="177"/>
+      <c r="O42" s="177"/>
+      <c r="P42" s="177"/>
+      <c r="Q42" s="177"/>
+      <c r="R42" s="177"/>
+      <c r="S42" s="177"/>
+      <c r="T42" s="177"/>
+      <c r="U42" s="177"/>
+      <c r="V42" s="177"/>
+      <c r="W42" s="177"/>
+      <c r="X42" s="177"/>
+      <c r="Y42" s="177"/>
+      <c r="Z42" s="177"/>
+      <c r="AA42" s="177"/>
+      <c r="AB42" s="177"/>
+      <c r="AC42" s="177"/>
+      <c r="AD42" s="177"/>
+      <c r="AE42" s="177"/>
+      <c r="AF42" s="177"/>
+      <c r="AG42" s="177"/>
+      <c r="AH42" s="177"/>
+      <c r="AI42" s="177"/>
+      <c r="AJ42" s="177"/>
+      <c r="AK42" s="177"/>
+      <c r="AL42" s="177"/>
+      <c r="AM42" s="177"/>
+      <c r="AN42" s="177"/>
+      <c r="AO42" s="177"/>
+      <c r="AP42" s="627"/>
+      <c r="AQ42" s="627"/>
+      <c r="AR42" s="627"/>
+      <c r="AS42" s="627"/>
+      <c r="AT42" s="627"/>
+      <c r="AU42" s="627"/>
+      <c r="AV42" s="682"/>
+      <c r="AW42" s="846"/>
+      <c r="AX42" s="627"/>
+      <c r="AY42" s="627"/>
+      <c r="AZ42" s="627"/>
+      <c r="BA42" s="627"/>
+      <c r="BB42" s="627"/>
+      <c r="BC42" s="627"/>
+      <c r="BD42" s="627"/>
+      <c r="BE42" s="177"/>
+      <c r="BF42" s="177"/>
+      <c r="BG42" s="177"/>
+      <c r="BH42" s="177"/>
+      <c r="BI42" s="177"/>
+      <c r="BJ42" s="177"/>
+      <c r="BK42" s="177"/>
+      <c r="BL42" s="177"/>
+      <c r="BM42" s="179"/>
+      <c r="BN42" s="682"/>
+    </row>
+    <row r="43" customHeight="1" ht="12">
+      <c r="A43" s="831"/>
+      <c r="B43" s="832"/>
+      <c r="C43" s="832"/>
+      <c r="D43" s="832"/>
+      <c r="E43" s="832"/>
+      <c r="F43" s="832"/>
+      <c r="G43" s="832"/>
+      <c r="H43" s="832"/>
+      <c r="I43" s="832"/>
+      <c r="J43" s="832"/>
+      <c r="K43" s="832"/>
+      <c r="L43" s="832"/>
+      <c r="M43" s="832"/>
+      <c r="N43" s="832"/>
+      <c r="O43" s="832"/>
+      <c r="P43" s="832"/>
+      <c r="Q43" s="832"/>
+      <c r="R43" s="832"/>
+      <c r="S43" s="832"/>
+      <c r="T43" s="832"/>
+      <c r="U43" s="832"/>
+      <c r="V43" s="832"/>
+      <c r="W43" s="832"/>
+      <c r="X43" s="832"/>
+      <c r="Y43" s="832"/>
+      <c r="Z43" s="832"/>
+      <c r="AA43" s="832"/>
+      <c r="AB43" s="832"/>
+      <c r="AC43" s="832"/>
+      <c r="AD43" s="832"/>
+      <c r="AE43" s="832"/>
+      <c r="AF43" s="832"/>
+      <c r="AG43" s="832"/>
+      <c r="AH43" s="832"/>
+      <c r="AI43" s="832"/>
+      <c r="AJ43" s="832"/>
+      <c r="AK43" s="832"/>
+      <c r="AL43" s="832"/>
+      <c r="AM43" s="832"/>
+      <c r="AN43" s="832"/>
+      <c r="AO43" s="832"/>
+      <c r="AP43" s="833"/>
+      <c r="AQ43" s="833"/>
+      <c r="AR43" s="833"/>
+      <c r="AS43" s="833"/>
+      <c r="AT43" s="833"/>
+      <c r="AU43" s="833"/>
+      <c r="AV43" s="836"/>
+      <c r="AW43" s="847"/>
+      <c r="AX43" s="833"/>
+      <c r="AY43" s="833"/>
+      <c r="AZ43" s="833"/>
+      <c r="BA43" s="833"/>
+      <c r="BB43" s="833"/>
+      <c r="BC43" s="833"/>
+      <c r="BD43" s="833"/>
+      <c r="BE43" s="832"/>
+      <c r="BF43" s="832"/>
+      <c r="BG43" s="832"/>
+      <c r="BH43" s="832"/>
+      <c r="BI43" s="832"/>
+      <c r="BJ43" s="832"/>
+      <c r="BK43" s="832"/>
+      <c r="BL43" s="832"/>
+      <c r="BM43" s="835"/>
+      <c r="BN43" s="836"/>
+    </row>
+    <row r="44" customHeight="1" ht="12">
+      <c r="A44" s="29"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="30"/>
+      <c r="K44" s="30"/>
+      <c r="L44" s="30"/>
+      <c r="M44" s="30"/>
+      <c r="N44" s="30"/>
+      <c r="O44" s="30"/>
+      <c r="P44" s="30"/>
+      <c r="Q44" s="30"/>
+      <c r="R44" s="30"/>
+      <c r="S44" s="30"/>
+      <c r="T44" s="30"/>
+      <c r="U44" s="30"/>
+      <c r="V44" s="30"/>
+      <c r="W44" s="30"/>
+      <c r="X44" s="30"/>
+      <c r="Y44" s="30"/>
+      <c r="Z44" s="30"/>
+      <c r="AA44" s="30"/>
+      <c r="AB44" s="30"/>
+      <c r="AC44" s="30"/>
+      <c r="AD44" s="30"/>
+      <c r="AE44" s="30"/>
+      <c r="AF44" s="30"/>
+      <c r="AG44" s="30"/>
+      <c r="AH44" s="30"/>
+      <c r="AI44" s="30"/>
+      <c r="AJ44" s="30"/>
+      <c r="AK44" s="30"/>
+      <c r="AL44" s="30"/>
+      <c r="AM44" s="30"/>
+      <c r="AN44" s="30"/>
+      <c r="AO44" s="30"/>
+      <c r="AP44" s="24"/>
+      <c r="AQ44" s="24"/>
+      <c r="AR44" s="24"/>
+      <c r="AS44" s="24"/>
+      <c r="AT44" s="24"/>
+      <c r="AU44" s="24"/>
+      <c r="AV44" s="24"/>
+      <c r="AW44" s="24"/>
+      <c r="AX44" s="24"/>
+      <c r="AY44" s="24"/>
+      <c r="AZ44" s="24"/>
+      <c r="BA44" s="24"/>
+      <c r="BB44" s="24"/>
+      <c r="BC44" s="24"/>
+      <c r="BD44" s="24"/>
+      <c r="BE44" s="24"/>
+      <c r="BF44" s="24"/>
+      <c r="BG44" s="24"/>
+      <c r="BH44" s="24"/>
+      <c r="BI44" s="24"/>
+      <c r="BJ44" s="24"/>
+      <c r="BK44" s="24"/>
+      <c r="BL44" s="24"/>
+      <c r="BM44" s="24"/>
+      <c r="BN44" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G5:J6"/>
+  <mergeCells count="38">
+    <mergeCell ref="A2:Z3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:N4"/>
+    <mergeCell ref="O4:T4"/>
+    <mergeCell ref="U4:AV4"/>
+    <mergeCell ref="AW4:AY4"/>
+    <mergeCell ref="AZ4:BE4"/>
+    <mergeCell ref="BF4:BH4"/>
+    <mergeCell ref="BI4:BN4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:N5"/>
+    <mergeCell ref="O5:T5"/>
+    <mergeCell ref="U5:AV5"/>
+    <mergeCell ref="AW5:AY5"/>
+    <mergeCell ref="AZ5:BE5"/>
+    <mergeCell ref="BF5:BH5"/>
+    <mergeCell ref="BI5:BN5"/>
+    <mergeCell ref="AW6:BM7"/>
+    <mergeCell ref="BE8:BM8"/>
+    <mergeCell ref="BE9:BM9"/>
+    <mergeCell ref="BE26:BM26"/>
+    <mergeCell ref="BE27:BM27"/>
+    <mergeCell ref="BE28:BM28"/>
+    <mergeCell ref="BE29:BM29"/>
+    <mergeCell ref="BE30:BM30"/>
+    <mergeCell ref="BE31:BM31"/>
+    <mergeCell ref="BE32:BM32"/>
+    <mergeCell ref="BE33:BM33"/>
+    <mergeCell ref="BE34:BM34"/>
+    <mergeCell ref="BE35:BM35"/>
+    <mergeCell ref="BE36:BM36"/>
+    <mergeCell ref="BE37:BM37"/>
+    <mergeCell ref="BE38:BM38"/>
+    <mergeCell ref="BE39:BM39"/>
+    <mergeCell ref="BE40:BM40"/>
+    <mergeCell ref="BE41:BM41"/>
+    <mergeCell ref="BE42:BM42"/>
+    <mergeCell ref="BE43:BM43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
